--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>Gamemove</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t xml:space="preserve">Random Forest </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear Discriminant Analysis </t>
   </si>
   <si>
     <t xml:space="preserve">Pronouns </t>
@@ -218,6 +215,21 @@
   </si>
   <si>
     <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>Deception Quadrant</t>
+  </si>
+  <si>
+    <t>*im using macro precision/recall/f1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support Vector Classifier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexical Features (LIWC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lexical Features (Politeness) </t>
   </si>
 </sst>
 </file>
@@ -273,18 +285,18 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -566,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,32 +589,37 @@
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -640,58 +657,952 @@
       <c r="M2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.7</v>
+      </c>
+      <c r="C4">
+        <v>0.84</v>
+      </c>
+      <c r="D4">
+        <v>0.76</v>
+      </c>
+      <c r="E4">
+        <v>0.68</v>
+      </c>
+      <c r="F4">
+        <v>0.79</v>
+      </c>
+      <c r="G4">
+        <v>0.7</v>
+      </c>
+      <c r="H4">
+        <v>0.66</v>
+      </c>
+      <c r="I4">
+        <v>0.81</v>
+      </c>
+      <c r="J4">
+        <v>0.73</v>
+      </c>
+      <c r="K4">
+        <v>0.65</v>
+      </c>
+      <c r="L4">
+        <v>0.8</v>
+      </c>
+      <c r="M4">
+        <v>0.71</v>
+      </c>
+      <c r="N4">
+        <v>0.92</v>
+      </c>
+      <c r="O4">
+        <v>0.96</v>
+      </c>
+      <c r="P4">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.96</v>
+      </c>
+      <c r="C5">
+        <v>0.82</v>
+      </c>
+      <c r="D5">
+        <v>0.89</v>
+      </c>
+      <c r="E5">
+        <v>0.91</v>
+      </c>
+      <c r="F5">
+        <v>0.77</v>
+      </c>
+      <c r="G5">
+        <v>0.83</v>
+      </c>
+      <c r="H5">
+        <v>0.94</v>
+      </c>
+      <c r="I5">
+        <v>0.79</v>
+      </c>
+      <c r="J5">
+        <v>0.86</v>
+      </c>
+      <c r="K5">
+        <v>0.88</v>
+      </c>
+      <c r="L5">
+        <v>0.8</v>
+      </c>
+      <c r="M5">
+        <v>0.83</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0.97</v>
+      </c>
+      <c r="P5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.73</v>
+      </c>
+      <c r="C6">
+        <v>0.27</v>
+      </c>
+      <c r="D6">
+        <v>0.27</v>
+      </c>
+      <c r="E6">
+        <v>0.51</v>
+      </c>
+      <c r="F6">
+        <v>0.47</v>
+      </c>
+      <c r="G6">
+        <v>0.42</v>
+      </c>
+      <c r="H6">
+        <v>0.74</v>
+      </c>
+      <c r="I6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K6">
+        <v>0.7</v>
+      </c>
+      <c r="L6">
+        <v>0.33</v>
+      </c>
+      <c r="M6">
+        <v>0.33</v>
+      </c>
+      <c r="N6">
+        <v>0.93</v>
+      </c>
+      <c r="O6">
+        <v>0.17</v>
+      </c>
+      <c r="P6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0.71</v>
+      </c>
+      <c r="C7">
+        <v>0.72</v>
+      </c>
+      <c r="D7">
+        <v>0.72</v>
+      </c>
+      <c r="E7">
+        <v>0.67</v>
+      </c>
+      <c r="F7">
+        <v>0.67</v>
+      </c>
+      <c r="G7">
+        <v>0.67</v>
+      </c>
+      <c r="H7">
+        <v>0.69</v>
+      </c>
+      <c r="I7">
+        <v>0.71</v>
+      </c>
+      <c r="J7">
+        <v>0.7</v>
+      </c>
+      <c r="K7">
+        <v>0.69</v>
+      </c>
+      <c r="L7">
+        <v>0.69</v>
+      </c>
+      <c r="M7">
+        <v>0.69</v>
+      </c>
+      <c r="N7">
+        <v>0.91</v>
+      </c>
+      <c r="O7">
+        <v>0.91</v>
+      </c>
+      <c r="P7">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.83</v>
+      </c>
+      <c r="D8">
+        <v>0.91</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.79</v>
+      </c>
+      <c r="G8">
+        <v>0.88</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.84</v>
+      </c>
+      <c r="J8">
+        <v>0.91</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.84</v>
+      </c>
+      <c r="M8">
+        <v>0.91</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.94</v>
+      </c>
+      <c r="P8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>0.74</v>
+      </c>
+      <c r="C9">
+        <v>0.86</v>
+      </c>
+      <c r="D9">
+        <v>0.79</v>
+      </c>
+      <c r="E9">
+        <v>0.75</v>
+      </c>
+      <c r="F9">
+        <v>0.81</v>
+      </c>
+      <c r="G9">
+        <v>0.72</v>
+      </c>
+      <c r="H9">
+        <v>0.66</v>
+      </c>
+      <c r="I9">
+        <v>0.81</v>
+      </c>
+      <c r="J9">
+        <v>0.73</v>
+      </c>
+      <c r="K9">
+        <v>0.67</v>
+      </c>
+      <c r="L9">
+        <v>0.82</v>
+      </c>
+      <c r="M9">
+        <v>0.74</v>
+      </c>
+      <c r="N9">
+        <v>0.9</v>
+      </c>
+      <c r="O9">
+        <v>0.95</v>
+      </c>
+      <c r="P9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.68</v>
+      </c>
+      <c r="C12">
+        <v>0.83</v>
+      </c>
+      <c r="D12">
+        <v>0.75</v>
+      </c>
+      <c r="E12">
+        <v>0.65</v>
+      </c>
+      <c r="F12">
+        <v>0.81</v>
+      </c>
+      <c r="G12">
+        <v>0.72</v>
+      </c>
+      <c r="H12">
+        <v>0.67</v>
+      </c>
+      <c r="I12">
+        <v>0.82</v>
+      </c>
+      <c r="J12">
+        <v>0.73</v>
+      </c>
+      <c r="K12">
+        <v>0.68</v>
+      </c>
+      <c r="L12">
+        <v>0.82</v>
+      </c>
+      <c r="M12">
+        <v>0.74</v>
+      </c>
+      <c r="N12">
+        <v>0.93</v>
+      </c>
+      <c r="O12">
+        <v>0.97</v>
+      </c>
+      <c r="P12">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.98</v>
+      </c>
+      <c r="C13">
+        <v>0.84</v>
+      </c>
+      <c r="D13">
+        <v>0.91</v>
+      </c>
+      <c r="E13">
+        <v>0.97</v>
+      </c>
+      <c r="F13">
+        <v>0.79</v>
+      </c>
+      <c r="G13">
+        <v>0.86</v>
+      </c>
+      <c r="H13">
+        <v>0.9</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>0.84</v>
+      </c>
+      <c r="K13">
+        <v>0.91</v>
+      </c>
+      <c r="L13">
+        <v>0.78</v>
+      </c>
+      <c r="M13">
+        <v>0.84</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0.96</v>
+      </c>
+      <c r="P13">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.98</v>
+      </c>
+      <c r="C14">
+        <v>0.19</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0.93</v>
+      </c>
+      <c r="F14">
+        <v>0.21</v>
+      </c>
+      <c r="G14">
+        <v>0.32</v>
+      </c>
+      <c r="H14">
+        <v>0.92</v>
+      </c>
+      <c r="I14">
+        <v>0.21</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>0.96</v>
+      </c>
+      <c r="L14">
+        <v>0.23</v>
+      </c>
+      <c r="M14">
+        <v>0.34</v>
+      </c>
+      <c r="N14">
+        <v>0.95</v>
+      </c>
+      <c r="O14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.83</v>
+      </c>
+      <c r="C15">
+        <v>0.78</v>
+      </c>
+      <c r="D15">
+        <v>0.81</v>
+      </c>
+      <c r="E15">
+        <v>0.79</v>
+      </c>
+      <c r="F15">
+        <v>0.73</v>
+      </c>
+      <c r="G15">
+        <v>0.76</v>
+      </c>
+      <c r="H15">
+        <v>0.8</v>
+      </c>
+      <c r="I15">
+        <v>0.77</v>
+      </c>
+      <c r="J15">
+        <v>0.79</v>
+      </c>
+      <c r="K15">
+        <v>0.8</v>
+      </c>
+      <c r="L15">
+        <v>0.73</v>
+      </c>
+      <c r="M15">
+        <v>0.76</v>
+      </c>
+      <c r="N15">
+        <v>0.95</v>
+      </c>
+      <c r="O15">
+        <v>0.93</v>
+      </c>
+      <c r="P15">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.85</v>
+      </c>
+      <c r="D16">
+        <v>0.92</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.8</v>
+      </c>
+      <c r="G16">
+        <v>0.89</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.85</v>
+      </c>
+      <c r="J16">
+        <v>0.92</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.82</v>
+      </c>
+      <c r="M16">
+        <v>0.9</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.95</v>
+      </c>
+      <c r="P16">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>0.74</v>
+      </c>
+      <c r="C17">
+        <v>0.86</v>
+      </c>
+      <c r="D17">
+        <v>0.79</v>
+      </c>
+      <c r="E17">
+        <v>0.65</v>
+      </c>
+      <c r="F17">
+        <v>0.81</v>
+      </c>
+      <c r="G17">
+        <v>0.72</v>
+      </c>
+      <c r="H17">
+        <v>0.72</v>
+      </c>
+      <c r="I17">
+        <v>0.85</v>
+      </c>
+      <c r="J17">
+        <v>0.78</v>
+      </c>
+      <c r="K17">
+        <v>0.66</v>
+      </c>
+      <c r="L17">
+        <v>0.81</v>
+      </c>
+      <c r="M17">
+        <v>0.73</v>
+      </c>
+      <c r="N17">
+        <v>0.9</v>
+      </c>
+      <c r="O17">
+        <v>0.95</v>
+      </c>
+      <c r="P17">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.72</v>
+      </c>
+      <c r="C20">
+        <v>0.85</v>
+      </c>
+      <c r="D20">
+        <v>0.78</v>
+      </c>
+      <c r="E20">
+        <v>0.65</v>
+      </c>
+      <c r="F20">
+        <v>0.8</v>
+      </c>
+      <c r="G20">
+        <v>0.72</v>
+      </c>
+      <c r="H20">
+        <v>0.7</v>
+      </c>
+      <c r="I20">
+        <v>0.84</v>
+      </c>
+      <c r="J20">
+        <v>0.77</v>
+      </c>
+      <c r="K20">
+        <v>0.65</v>
+      </c>
+      <c r="L20">
+        <v>0.8</v>
+      </c>
+      <c r="M20">
+        <v>0.72</v>
+      </c>
+      <c r="N20">
+        <v>0.89</v>
+      </c>
+      <c r="O20">
+        <v>0.95</v>
+      </c>
+      <c r="P20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0.96</v>
+      </c>
+      <c r="C21">
+        <v>0.84</v>
+      </c>
+      <c r="D21">
+        <v>0.89</v>
+      </c>
+      <c r="E21">
+        <v>0.91</v>
+      </c>
+      <c r="F21">
+        <v>0.76</v>
+      </c>
+      <c r="G21">
+        <v>0.83</v>
+      </c>
+      <c r="H21">
+        <v>0.95</v>
+      </c>
+      <c r="I21">
+        <v>0.8</v>
+      </c>
+      <c r="J21">
+        <v>0.86</v>
+      </c>
+      <c r="K21">
+        <v>0.91</v>
+      </c>
+      <c r="L21">
+        <v>0.78</v>
+      </c>
+      <c r="M21">
+        <v>0.84</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0.97</v>
+      </c>
+      <c r="P21">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.8</v>
+      </c>
+      <c r="C22">
+        <v>0.23</v>
+      </c>
+      <c r="D22">
+        <v>0.24</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+      <c r="F22">
+        <v>0.52</v>
+      </c>
+      <c r="G22">
+        <v>0.47</v>
+      </c>
+      <c r="H22">
+        <v>0.83</v>
+      </c>
+      <c r="I22">
+        <v>0.23</v>
+      </c>
+      <c r="J22">
+        <v>0.27</v>
+      </c>
+      <c r="K22">
+        <v>0.52</v>
+      </c>
+      <c r="L22">
+        <v>0.53</v>
+      </c>
+      <c r="M22">
+        <v>0.48</v>
+      </c>
+      <c r="N22">
+        <v>0.74</v>
+      </c>
+      <c r="O22">
+        <v>0.19</v>
+      </c>
+      <c r="P22">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0.71</v>
+      </c>
+      <c r="C23">
+        <v>0.74</v>
+      </c>
+      <c r="D23">
+        <v>0.72</v>
+      </c>
+      <c r="E23">
+        <v>0.63</v>
+      </c>
+      <c r="F23">
+        <v>0.66</v>
+      </c>
+      <c r="G23">
+        <v>0.64</v>
+      </c>
+      <c r="H23">
+        <v>0.71</v>
+      </c>
+      <c r="I23">
+        <v>0.71</v>
+      </c>
+      <c r="J23">
+        <v>0.71</v>
+      </c>
+      <c r="K23">
+        <v>0.7</v>
+      </c>
+      <c r="L23">
+        <v>0.69</v>
+      </c>
+      <c r="M23">
+        <v>0.7</v>
+      </c>
+      <c r="N23">
+        <v>0.9</v>
+      </c>
+      <c r="O23">
+        <v>0.91</v>
+      </c>
+      <c r="P23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.84</v>
+      </c>
+      <c r="D24">
+        <v>0.92</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.79</v>
+      </c>
+      <c r="G24">
+        <v>0.88</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.85</v>
+      </c>
+      <c r="J24">
+        <v>0.92</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.82</v>
+      </c>
+      <c r="M24">
+        <v>0.9</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0.96</v>
+      </c>
+      <c r="P24">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>0.7</v>
+      </c>
+      <c r="C25">
+        <v>0.84</v>
+      </c>
+      <c r="D25">
+        <v>0.76</v>
+      </c>
+      <c r="E25">
+        <v>0.84</v>
+      </c>
+      <c r="F25">
+        <v>0.81</v>
+      </c>
+      <c r="G25">
+        <v>0.72</v>
+      </c>
+      <c r="H25">
+        <v>0.77</v>
+      </c>
+      <c r="I25">
+        <v>0.82</v>
+      </c>
+      <c r="J25">
+        <v>0.75</v>
+      </c>
+      <c r="K25">
+        <v>0.66</v>
+      </c>
+      <c r="L25">
+        <v>0.81</v>
+      </c>
+      <c r="M25">
+        <v>0.72</v>
+      </c>
+      <c r="N25">
+        <v>0.92</v>
+      </c>
+      <c r="O25">
+        <v>0.96</v>
+      </c>
+      <c r="P25">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -706,142 +1617,142 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="9" width="25.5703125" style="6" customWidth="1"/>
+    <col min="2" max="9" width="25.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -870,56 +1781,56 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>5.3559799999999997</v>
@@ -948,7 +1859,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>3.5419499999999999</v>
@@ -977,7 +1888,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1.2273000000000001</v>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24285" windowHeight="12675"/>
   </bookViews>
   <sheets>
-    <sheet name="Singular Annotations" sheetId="1" r:id="rId1"/>
-    <sheet name="NGrams" sheetId="2" r:id="rId2"/>
-    <sheet name="Pronouns" sheetId="3" r:id="rId3"/>
+    <sheet name="GoodData_Results" sheetId="1" r:id="rId1"/>
+    <sheet name="MessyData_Results" sheetId="4" r:id="rId2"/>
+    <sheet name="GoodData_NGrams" sheetId="2" r:id="rId3"/>
+    <sheet name="GoodData_Pronouns" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>Gamemove</t>
   </si>
@@ -230,6 +231,19 @@
   </si>
   <si>
     <t xml:space="preserve">Lexical Features (Politeness) </t>
+  </si>
+  <si>
+    <t>Rapport from shareinfo/gamemove/reasoning</t>
+  </si>
+  <si>
+    <t>Pipeline Models</t>
+  </si>
+  <si>
+    <t>RF gamemove + RF reasoning + RF Rapport + RF ShareInformation = OneHotEncoding
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>0.7581 (acc)</t>
   </si>
 </sst>
 </file>
@@ -262,12 +276,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -298,6 +318,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +610,7 @@
     <col min="1" max="1" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -619,7 +640,7 @@
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -670,7 +691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -678,7 +699,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -728,7 +749,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -774,11 +795,11 @@
       <c r="O5">
         <v>0.97</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>0.98</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -827,8 +848,11 @@
       <c r="P6">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -877,8 +901,17 @@
       <c r="P7">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -888,7 +921,7 @@
       <c r="C8">
         <v>0.83</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.91</v>
       </c>
       <c r="E8">
@@ -897,7 +930,7 @@
       <c r="F8">
         <v>0.79</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>0.88</v>
       </c>
       <c r="H8">
@@ -906,7 +939,7 @@
       <c r="I8">
         <v>0.84</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>0.91</v>
       </c>
       <c r="K8">
@@ -915,7 +948,7 @@
       <c r="L8">
         <v>0.84</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>0.91</v>
       </c>
       <c r="N8">
@@ -927,8 +960,17 @@
       <c r="P8">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>0.8</v>
+      </c>
+      <c r="S8">
+        <v>0.84</v>
+      </c>
+      <c r="T8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -978,12 +1020,12 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1033,7 +1075,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1079,11 +1121,11 @@
       <c r="O13">
         <v>0.96</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="7">
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1133,7 +1175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1183,7 +1225,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1193,7 +1235,7 @@
       <c r="C16">
         <v>0.85</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>0.92</v>
       </c>
       <c r="E16">
@@ -1202,7 +1244,7 @@
       <c r="F16">
         <v>0.8</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>0.89</v>
       </c>
       <c r="H16">
@@ -1211,7 +1253,7 @@
       <c r="I16">
         <v>0.85</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>0.92</v>
       </c>
       <c r="K16">
@@ -1220,7 +1262,7 @@
       <c r="L16">
         <v>0.82</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="7">
         <v>0.9</v>
       </c>
       <c r="N16">
@@ -1229,7 +1271,7 @@
       <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="7">
         <v>0.97</v>
       </c>
     </row>
@@ -1384,7 +1426,7 @@
       <c r="O21">
         <v>0.97</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="7">
         <v>0.98</v>
       </c>
     </row>
@@ -1498,7 +1540,7 @@
       <c r="C24">
         <v>0.84</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="7">
         <v>0.92</v>
       </c>
       <c r="E24">
@@ -1507,7 +1549,7 @@
       <c r="F24">
         <v>0.79</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="7">
         <v>0.88</v>
       </c>
       <c r="H24">
@@ -1516,7 +1558,7 @@
       <c r="I24">
         <v>0.85</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="7">
         <v>0.92</v>
       </c>
       <c r="K24">
@@ -1525,7 +1567,7 @@
       <c r="L24">
         <v>0.82</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="7">
         <v>0.9</v>
       </c>
       <c r="N24">
@@ -1534,7 +1576,7 @@
       <c r="O24">
         <v>0.96</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="7">
         <v>0.98</v>
       </c>
     </row>
@@ -1591,6 +1633,22 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="P37">
+        <v>4.58E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1607,6 +1665,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0.63</v>
+      </c>
+      <c r="C4">
+        <v>0.72</v>
+      </c>
+      <c r="D4">
+        <v>0.61</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.78</v>
+      </c>
+      <c r="G4">
+        <v>0.73</v>
+      </c>
+      <c r="H4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+      <c r="J4">
+        <v>0.53</v>
+      </c>
+      <c r="K4">
+        <v>0.59</v>
+      </c>
+      <c r="L4">
+        <v>0.59</v>
+      </c>
+      <c r="M4">
+        <v>0.59</v>
+      </c>
+      <c r="N4">
+        <v>0.9</v>
+      </c>
+      <c r="O4">
+        <v>0.95</v>
+      </c>
+      <c r="P4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.79</v>
+      </c>
+      <c r="C5">
+        <v>0.67</v>
+      </c>
+      <c r="D5">
+        <v>0.72</v>
+      </c>
+      <c r="E5">
+        <v>0.86</v>
+      </c>
+      <c r="F5">
+        <v>0.76</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0.59</v>
+      </c>
+      <c r="I5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.53</v>
+      </c>
+      <c r="L5">
+        <v>0.53</v>
+      </c>
+      <c r="M5">
+        <v>0.53</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.64</v>
+      </c>
+      <c r="C6">
+        <v>0.63</v>
+      </c>
+      <c r="D6">
+        <v>0.63</v>
+      </c>
+      <c r="E6">
+        <v>0.68</v>
+      </c>
+      <c r="F6">
+        <v>0.69</v>
+      </c>
+      <c r="G6">
+        <v>0.68</v>
+      </c>
+      <c r="H6">
+        <v>0.61</v>
+      </c>
+      <c r="I6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.59</v>
+      </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+      <c r="L6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+      <c r="P6">
+        <v>0.12</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>0.67</v>
+      </c>
+      <c r="F7">
+        <v>0.67</v>
+      </c>
+      <c r="G7">
+        <v>0.67</v>
+      </c>
+      <c r="H7">
+        <v>0.54</v>
+      </c>
+      <c r="I7">
+        <v>0.54</v>
+      </c>
+      <c r="J7">
+        <v>0.54</v>
+      </c>
+      <c r="K7">
+        <v>0.52</v>
+      </c>
+      <c r="L7">
+        <v>0.52</v>
+      </c>
+      <c r="M7">
+        <v>0.52</v>
+      </c>
+      <c r="N7">
+        <v>0.89</v>
+      </c>
+      <c r="O7">
+        <v>0.89</v>
+      </c>
+      <c r="P7">
+        <v>0.89</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.74</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K8">
+        <v>0.73</v>
+      </c>
+      <c r="L8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M8" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.95</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.97</v>
+      </c>
+      <c r="R8">
+        <v>0.76</v>
+      </c>
+      <c r="S8">
+        <v>0.75</v>
+      </c>
+      <c r="T8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>0.62</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+      <c r="E9">
+        <v>0.74</v>
+      </c>
+      <c r="F9">
+        <v>0.78</v>
+      </c>
+      <c r="G9">
+        <v>0.73</v>
+      </c>
+      <c r="H9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.6</v>
+      </c>
+      <c r="J9">
+        <v>0.53</v>
+      </c>
+      <c r="K9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N9">
+        <v>0.91</v>
+      </c>
+      <c r="O9">
+        <v>0.95</v>
+      </c>
+      <c r="P9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.52</v>
+      </c>
+      <c r="C12">
+        <v>0.72</v>
+      </c>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <v>0.59</v>
+      </c>
+      <c r="F12">
+        <v>0.75</v>
+      </c>
+      <c r="G12">
+        <v>0.65</v>
+      </c>
+      <c r="H12">
+        <v>0.53</v>
+      </c>
+      <c r="I12">
+        <v>0.61</v>
+      </c>
+      <c r="J12">
+        <v>0.47</v>
+      </c>
+      <c r="K12">
+        <v>0.52</v>
+      </c>
+      <c r="L12">
+        <v>0.52</v>
+      </c>
+      <c r="M12">
+        <v>0.51</v>
+      </c>
+      <c r="N12">
+        <v>0.91</v>
+      </c>
+      <c r="O12">
+        <v>0.95</v>
+      </c>
+      <c r="P12">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.76</v>
+      </c>
+      <c r="C13">
+        <v>0.66</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <v>0.89</v>
+      </c>
+      <c r="F13">
+        <v>0.72</v>
+      </c>
+      <c r="G13">
+        <v>0.79</v>
+      </c>
+      <c r="H13">
+        <v>0.61</v>
+      </c>
+      <c r="I13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K13">
+        <v>0.51</v>
+      </c>
+      <c r="L13">
+        <v>0.51</v>
+      </c>
+      <c r="M13">
+        <v>0.51</v>
+      </c>
+      <c r="N13">
+        <v>0.99</v>
+      </c>
+      <c r="O13">
+        <v>0.95</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.85</v>
+      </c>
+      <c r="C14">
+        <v>0.69</v>
+      </c>
+      <c r="D14">
+        <v>0.76</v>
+      </c>
+      <c r="E14">
+        <v>0.81</v>
+      </c>
+      <c r="F14">
+        <v>0.73</v>
+      </c>
+      <c r="G14">
+        <v>0.76</v>
+      </c>
+      <c r="H14">
+        <v>0.81</v>
+      </c>
+      <c r="I14">
+        <v>0.59</v>
+      </c>
+      <c r="J14">
+        <v>0.66</v>
+      </c>
+      <c r="K14">
+        <v>0.79</v>
+      </c>
+      <c r="L14">
+        <v>0.51</v>
+      </c>
+      <c r="M14">
+        <v>0.6</v>
+      </c>
+      <c r="N14">
+        <v>0.97</v>
+      </c>
+      <c r="O14">
+        <v>0.06</v>
+      </c>
+      <c r="P14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.81</v>
+      </c>
+      <c r="C15">
+        <v>0.68</v>
+      </c>
+      <c r="D15">
+        <v>0.73</v>
+      </c>
+      <c r="E15">
+        <v>0.84</v>
+      </c>
+      <c r="F15">
+        <v>0.72</v>
+      </c>
+      <c r="G15">
+        <v>0.77</v>
+      </c>
+      <c r="H15">
+        <v>0.64</v>
+      </c>
+      <c r="I15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J15">
+        <v>0.59</v>
+      </c>
+      <c r="K15">
+        <v>0.53</v>
+      </c>
+      <c r="L15">
+        <v>0.52</v>
+      </c>
+      <c r="M15">
+        <v>0.52</v>
+      </c>
+      <c r="N15">
+        <v>0.98</v>
+      </c>
+      <c r="O15">
+        <v>0.96</v>
+      </c>
+      <c r="P15">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.72</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.76</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K16">
+        <v>0.94</v>
+      </c>
+      <c r="L16">
+        <v>0.53</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.95</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>0.52</v>
+      </c>
+      <c r="C17">
+        <v>0.72</v>
+      </c>
+      <c r="D17">
+        <v>0.6</v>
+      </c>
+      <c r="E17">
+        <v>0.76</v>
+      </c>
+      <c r="F17">
+        <v>0.78</v>
+      </c>
+      <c r="G17">
+        <v>0.68</v>
+      </c>
+      <c r="H17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.6</v>
+      </c>
+      <c r="J17">
+        <v>0.47</v>
+      </c>
+      <c r="K17">
+        <v>0.52</v>
+      </c>
+      <c r="L17">
+        <v>0.52</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>0.89</v>
+      </c>
+      <c r="O17">
+        <v>0.95</v>
+      </c>
+      <c r="P17">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0.61</v>
+      </c>
+      <c r="C20">
+        <v>0.71</v>
+      </c>
+      <c r="D20">
+        <v>0.6</v>
+      </c>
+      <c r="E20">
+        <v>0.74</v>
+      </c>
+      <c r="F20">
+        <v>0.77</v>
+      </c>
+      <c r="G20">
+        <v>0.72</v>
+      </c>
+      <c r="H20">
+        <v>0.54</v>
+      </c>
+      <c r="I20">
+        <v>0.59</v>
+      </c>
+      <c r="J20">
+        <v>0.51</v>
+      </c>
+      <c r="K20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N20">
+        <v>0.89</v>
+      </c>
+      <c r="O20">
+        <v>0.95</v>
+      </c>
+      <c r="P20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>0.79</v>
+      </c>
+      <c r="C21">
+        <v>0.67</v>
+      </c>
+      <c r="D21">
+        <v>0.72</v>
+      </c>
+      <c r="E21">
+        <v>0.85</v>
+      </c>
+      <c r="F21">
+        <v>0.73</v>
+      </c>
+      <c r="G21">
+        <v>0.78</v>
+      </c>
+      <c r="H21">
+        <v>0.59</v>
+      </c>
+      <c r="I21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K21">
+        <v>0.54</v>
+      </c>
+      <c r="L21">
+        <v>0.53</v>
+      </c>
+      <c r="M21">
+        <v>0.54</v>
+      </c>
+      <c r="N21">
+        <v>0.99</v>
+      </c>
+      <c r="O21">
+        <v>0.95</v>
+      </c>
+      <c r="P21" s="7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.68</v>
+      </c>
+      <c r="C22">
+        <v>0.65</v>
+      </c>
+      <c r="D22">
+        <v>0.66</v>
+      </c>
+      <c r="E22">
+        <v>0.7</v>
+      </c>
+      <c r="F22">
+        <v>0.7</v>
+      </c>
+      <c r="G22">
+        <v>0.7</v>
+      </c>
+      <c r="H22">
+        <v>0.65</v>
+      </c>
+      <c r="I22">
+        <v>0.59</v>
+      </c>
+      <c r="J22">
+        <v>0.61</v>
+      </c>
+      <c r="K22">
+        <v>0.59</v>
+      </c>
+      <c r="L22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N22">
+        <v>0.73</v>
+      </c>
+      <c r="O22">
+        <v>0.23</v>
+      </c>
+      <c r="P22">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.59</v>
+      </c>
+      <c r="D23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E23">
+        <v>0.67</v>
+      </c>
+      <c r="F23">
+        <v>0.67</v>
+      </c>
+      <c r="G23">
+        <v>0.67</v>
+      </c>
+      <c r="H23">
+        <v>0.53</v>
+      </c>
+      <c r="I23">
+        <v>0.54</v>
+      </c>
+      <c r="J23">
+        <v>0.54</v>
+      </c>
+      <c r="K23">
+        <v>0.53</v>
+      </c>
+      <c r="L23">
+        <v>0.53</v>
+      </c>
+      <c r="M23">
+        <v>0.53</v>
+      </c>
+      <c r="N23">
+        <v>0.88</v>
+      </c>
+      <c r="O23">
+        <v>0.89</v>
+      </c>
+      <c r="P23">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.72</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.84</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.77</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0.95</v>
+      </c>
+      <c r="P24" s="7">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>0.62</v>
+      </c>
+      <c r="C25">
+        <v>0.73</v>
+      </c>
+      <c r="D25">
+        <v>0.62</v>
+      </c>
+      <c r="E25">
+        <v>0.75</v>
+      </c>
+      <c r="F25">
+        <v>0.78</v>
+      </c>
+      <c r="G25">
+        <v>0.74</v>
+      </c>
+      <c r="H25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I25">
+        <v>0.59</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N25">
+        <v>0.9</v>
+      </c>
+      <c r="O25">
+        <v>0.95</v>
+      </c>
+      <c r="P25">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="P37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -1766,7 +2886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="60">
   <si>
     <t>Gamemove</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>0.7581 (acc)</t>
+  </si>
+  <si>
+    <t>LSTM</t>
   </si>
 </sst>
 </file>
@@ -312,13 +315,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,7 +605,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,31 +617,31 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -795,7 +798,7 @@
       <c r="O5">
         <v>0.97</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>0.98</v>
       </c>
     </row>
@@ -921,7 +924,7 @@
       <c r="C8">
         <v>0.83</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.91</v>
       </c>
       <c r="E8">
@@ -930,7 +933,7 @@
       <c r="F8">
         <v>0.79</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>0.88</v>
       </c>
       <c r="H8">
@@ -939,7 +942,7 @@
       <c r="I8">
         <v>0.84</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>0.91</v>
       </c>
       <c r="K8">
@@ -948,7 +951,7 @@
       <c r="L8">
         <v>0.84</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>0.91</v>
       </c>
       <c r="N8">
@@ -1121,7 +1124,7 @@
       <c r="O13">
         <v>0.96</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <v>0.97</v>
       </c>
     </row>
@@ -1235,7 +1238,7 @@
       <c r="C16">
         <v>0.85</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.92</v>
       </c>
       <c r="E16">
@@ -1244,7 +1247,7 @@
       <c r="F16">
         <v>0.8</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>0.89</v>
       </c>
       <c r="H16">
@@ -1253,7 +1256,7 @@
       <c r="I16">
         <v>0.85</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>0.92</v>
       </c>
       <c r="K16">
@@ -1262,7 +1265,7 @@
       <c r="L16">
         <v>0.82</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>0.9</v>
       </c>
       <c r="N16">
@@ -1271,7 +1274,7 @@
       <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <v>0.97</v>
       </c>
     </row>
@@ -1426,7 +1429,7 @@
       <c r="O21">
         <v>0.97</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <v>0.98</v>
       </c>
     </row>
@@ -1540,7 +1543,7 @@
       <c r="C24">
         <v>0.84</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.92</v>
       </c>
       <c r="E24">
@@ -1549,7 +1552,7 @@
       <c r="F24">
         <v>0.79</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>0.88</v>
       </c>
       <c r="H24">
@@ -1558,7 +1561,7 @@
       <c r="I24">
         <v>0.85</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>0.92</v>
       </c>
       <c r="K24">
@@ -1567,7 +1570,7 @@
       <c r="L24">
         <v>0.82</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <v>0.9</v>
       </c>
       <c r="N24">
@@ -1576,7 +1579,7 @@
       <c r="O24">
         <v>0.96</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="5">
         <v>0.98</v>
       </c>
     </row>
@@ -1633,6 +1636,14 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28">
+        <v>0.83</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -1681,31 +1692,31 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1858,7 +1869,7 @@
       <c r="O5">
         <v>0.95</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>0.97</v>
       </c>
     </row>
@@ -1984,7 +1995,7 @@
       <c r="C8">
         <v>0.74</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>0.85</v>
       </c>
       <c r="E8">
@@ -1993,7 +2004,7 @@
       <c r="F8">
         <v>0.75</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>0.86</v>
       </c>
       <c r="H8">
@@ -2002,7 +2013,7 @@
       <c r="I8">
         <v>0.6</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -2011,7 +2022,7 @@
       <c r="L8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>0.61</v>
       </c>
       <c r="N8">
@@ -2020,7 +2031,7 @@
       <c r="O8">
         <v>0.95</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>0.97</v>
       </c>
       <c r="R8">
@@ -2184,7 +2195,7 @@
       <c r="O13">
         <v>0.95</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <v>0.96</v>
       </c>
     </row>
@@ -2298,7 +2309,7 @@
       <c r="C16">
         <v>0.72</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>0.83</v>
       </c>
       <c r="E16">
@@ -2307,7 +2318,7 @@
       <c r="F16">
         <v>0.76</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <v>0.86</v>
       </c>
       <c r="H16">
@@ -2316,7 +2327,7 @@
       <c r="I16">
         <v>0.6</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>0.75</v>
       </c>
       <c r="K16">
@@ -2325,7 +2336,7 @@
       <c r="L16">
         <v>0.53</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>0.66</v>
       </c>
       <c r="N16">
@@ -2334,7 +2345,7 @@
       <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <v>0.97</v>
       </c>
     </row>
@@ -2489,7 +2500,7 @@
       <c r="O21">
         <v>0.95</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="5">
         <v>0.97</v>
       </c>
     </row>
@@ -2603,7 +2614,7 @@
       <c r="C24">
         <v>0.72</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>0.84</v>
       </c>
       <c r="E24">
@@ -2612,7 +2623,7 @@
       <c r="F24">
         <v>0.77</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="5">
         <v>0.87</v>
       </c>
       <c r="H24">
@@ -2621,7 +2632,7 @@
       <c r="I24">
         <v>0.6</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="5">
         <v>0.75</v>
       </c>
       <c r="K24">
@@ -2630,7 +2641,7 @@
       <c r="L24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="5">
         <v>0.61</v>
       </c>
       <c r="N24">
@@ -2639,7 +2650,7 @@
       <c r="O24">
         <v>0.95</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="5">
         <v>0.97</v>
       </c>
     </row>
@@ -2744,22 +2755,22 @@
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2903,22 +2914,22 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24285" windowHeight="12675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24285" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GoodData_Results" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>Gamemove</t>
   </si>
@@ -247,6 +247,16 @@
   </si>
   <si>
     <t>LSTM</t>
+  </si>
+  <si>
+    <t>LSTM game move + LSTM reasoning + LSTM Rapport + LSTM Share Information
+One Hot Encoding
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>LSTM game move + LSTM reasoning + LSTM Rapport + LSTM Share Information
+Add Layers
+3 Dense Layers</t>
   </si>
 </sst>
 </file>
@@ -602,10 +612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,8 +1653,50 @@
       <c r="A28" t="s">
         <v>59</v>
       </c>
+      <c r="B28">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.7843</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.87829999999999997</v>
+      </c>
       <c r="H28">
         <v>0.83</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="K28">
+        <v>0.82589999999999997</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="N28">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0.97529999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -1660,6 +1713,28 @@
       </c>
       <c r="P37">
         <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N38">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1677,10 +1752,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2709,6 +2785,56 @@
         <v>49</v>
       </c>
     </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28">
+        <v>0.72740000000000005</v>
+      </c>
+      <c r="C28">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="D28">
+        <v>0.84019999999999995</v>
+      </c>
+      <c r="E28">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="G28">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.79920000000000002</v>
+      </c>
+      <c r="J28">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="K28">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="L28">
+        <v>0.50860000000000005</v>
+      </c>
+      <c r="M28">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="N28">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>56</v>
@@ -2723,6 +2849,28 @@
       </c>
       <c r="P37" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N38">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39">
+        <v>0.95020000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -459,8 +459,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1534,8 +1534,17 @@
       <c r="M28" s="5" t="n">
         <v>0.932</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N28" s="5" t="n">
+        <v>0.9438</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>0.971</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>23</v>
       </c>
@@ -1574,6 +1583,15 @@
       </c>
       <c r="M29" s="5" t="n">
         <v>0.8971</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>0.9703</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <v>0.9849</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2859,7 +2877,7 @@
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Lexical Features (LIWC) </t>
   </si>
   <si>
-    <t xml:space="preserve">Neural Networks (After data cleaning)</t>
+    <t xml:space="preserve">Neural Networks</t>
   </si>
   <si>
     <t xml:space="preserve">LSTM</t>
@@ -102,9 +102,6 @@
   <si>
     <t xml:space="preserve">RF gamemove + RF reasoning + RF Rapport + RF ShareInformation = OneHotEncoding
 3 Dense Layers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neural Networks</t>
   </si>
   <si>
     <t xml:space="preserve">0.7581 (acc)</t>
@@ -459,8 +456,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1635,8 +1632,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2663,7 +2660,107 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="n">
+        <v>0.7351</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>0.8469</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>0.9969</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>0.8752</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>0.7863</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>0.7003</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>0.6442</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>0.5795</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>0.6084</v>
+      </c>
+      <c r="N28" s="5" t="n">
+        <v>0.9476</v>
+      </c>
+      <c r="O28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="5" t="n">
+        <v>0.9731</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="5" t="n">
+        <v>0.7333</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>0.8458</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0.8058</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>0.8921</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>0.6321</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>0.9594</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>0.7614</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>0.5833</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>0.6031</v>
+      </c>
+      <c r="N29" s="5" t="n">
+        <v>0.9476</v>
+      </c>
+      <c r="O29" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="5" t="n">
+        <v>0.9731</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2679,7 +2776,7 @@
         <v>0.398</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2720,7 +2817,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -2742,115 +2839,115 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2889,7 +2986,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2911,34 +3008,34 @@
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5.35598</v>
@@ -2967,7 +3064,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3.54195</v>
@@ -2996,7 +3093,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1.2273</v>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne\Documents\diplomacy-betrayal\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GoodData_Results" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="MessyData_Results" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="GoodData_NGrams" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="GoodData_Pronouns" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="GoodData_Results" sheetId="1" r:id="rId1"/>
+    <sheet name="MessyData_Results" sheetId="2" r:id="rId2"/>
+    <sheet name="GoodData_NGrams" sheetId="3" r:id="rId3"/>
+    <sheet name="GoodData_Pronouns" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,33 +27,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
-  <si>
-    <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gamemove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rapport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShareInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deception Quadrant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="64">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Gamemove</t>
+  </si>
+  <si>
+    <t>Reasoning</t>
+  </si>
+  <si>
+    <t>Rapport</t>
+  </si>
+  <si>
+    <t>ShareInformation</t>
+  </si>
+  <si>
+    <t>Deception Quadrant</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t xml:space="preserve">*Use validation accuracy? </t>
@@ -58,10 +62,10 @@
     <t xml:space="preserve">Lexical Features (LIWC + Politeness) </t>
   </si>
   <si>
-    <t xml:space="preserve">*im using macro precision/recall/f1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logistic Regression</t>
+    <t>*im using macro precision/recall/f1</t>
+  </si>
+  <si>
+    <t>Logistic Regression</t>
   </si>
   <si>
     <t xml:space="preserve">K Nearest Neighbours </t>
@@ -70,10 +74,10 @@
     <t xml:space="preserve">Naïve Bayes </t>
   </si>
   <si>
-    <t xml:space="preserve">Rapport from shareinfo/gamemove/reasoning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decision Tree</t>
+    <t>Rapport from shareinfo/gamemove/reasoning</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
   </si>
   <si>
     <t xml:space="preserve">Random Forest </t>
@@ -88,50 +92,50 @@
     <t xml:space="preserve">Lexical Features (LIWC) </t>
   </si>
   <si>
-    <t xml:space="preserve">Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LSTM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNN (Conv1D)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pipeline Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF gamemove + RF reasoning + RF Rapport + RF ShareInformation = OneHotEncoding
+    <t>Neural Networks</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>CNN (Conv1D)</t>
+  </si>
+  <si>
+    <t>Pipeline Models</t>
+  </si>
+  <si>
+    <t>RF gamemove + RF reasoning + RF Rapport + RF ShareInformation = OneHotEncoding
 3 Dense Layers</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7581 (acc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Grams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 grams</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean there no solo
+    <t>0.7581 (acc)</t>
+  </si>
+  <si>
+    <t>N-Grams</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4 grams</t>
+  </si>
+  <si>
+    <t>mean there no solo
 mean that you basically
 mean no truce with
 me where cant move</t>
   </si>
   <si>
-    <t xml:space="preserve">my advice about what</t>
+    <t>my advice about what</t>
   </si>
   <si>
     <t xml:space="preserve">might not trust me </t>
   </si>
   <si>
-    <t xml:space="preserve">minds if we went
+    <t>minds if we went
 mind giving it to
 might say have to</t>
   </si>
@@ -139,29 +143,29 @@
     <t xml:space="preserve">more organized than the </t>
   </si>
   <si>
-    <t xml:space="preserve">move out of my
+    <t>move out of my
 moves over the next</t>
   </si>
   <si>
-    <t xml:space="preserve">more communication all around
+    <t>more communication all around
 more of an opportunity 
 more valuable than your
 move set might take</t>
   </si>
   <si>
-    <t xml:space="preserve">more concerned with losing
+    <t>more concerned with losing
 more support from you
 more fomrtable but in</t>
   </si>
   <si>
-    <t xml:space="preserve">3 grams</t>
+    <t>3 grams</t>
   </si>
   <si>
     <t xml:space="preserve">measures may need
 mean to be </t>
   </si>
   <si>
-    <t xml:space="preserve">necessary to force 
+    <t>necessary to force 
 not under threat
 need some help
 necgotiations with italy</t>
@@ -173,13 +177,13 @@
 mean tough sell </t>
   </si>
   <si>
-    <t xml:space="preserve">me staying with
+    <t>me staying with
 mind that you
 might not recover
 more keen to</t>
   </si>
   <si>
-    <t xml:space="preserve">more tempting if 
+    <t>more tempting if 
 more inclined to</t>
   </si>
   <si>
@@ -188,7 +192,7 @@
 me know if </t>
   </si>
   <si>
-    <t xml:space="preserve">move into it
+    <t>move into it
 more useful to</t>
   </si>
   <si>
@@ -197,13 +201,13 @@
 more before commit </t>
   </si>
   <si>
-    <t xml:space="preserve">2 grams</t>
+    <t>2 grams</t>
   </si>
   <si>
     <t xml:space="preserve">me sending </t>
   </si>
   <si>
-    <t xml:space="preserve">near impossible</t>
+    <t>near impossible</t>
   </si>
   <si>
     <t xml:space="preserve">more centers
@@ -214,24 +218,24 @@
     <t xml:space="preserve">most important </t>
   </si>
   <si>
-    <t xml:space="preserve">more strength
+    <t>more strength
 most natural
 moves but
 more interested</t>
   </si>
   <si>
-    <t xml:space="preserve">move straight
+    <t>move straight
 means yes
 moves but
 more imposing</t>
   </si>
   <si>
-    <t xml:space="preserve">most natural
+    <t>most natural
 more of
 more pro</t>
   </si>
   <si>
-    <t xml:space="preserve">more concerned
+    <t>more concerned
 more sense 
 maybe see</t>
   </si>
@@ -239,23 +243,35 @@
     <t xml:space="preserve">Pronouns </t>
   </si>
   <si>
-    <t xml:space="preserve">First Person %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Person %</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Third Person %</t>
+    <t>First Person %</t>
+  </si>
+  <si>
+    <t>Second Person %</t>
+  </si>
+  <si>
+    <t>Third Person %</t>
+  </si>
+  <si>
+    <t>LSTM other variables =
+One Hot Encoding
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>LSTM other variables  =
+Concatenate with Keras
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>LSTM other variables =
+Add with Keras
+3 Dense Layers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -264,22 +280,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -287,8 +288,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF203864"/>
       <name val="Calibri"/>
@@ -311,7 +312,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -319,73 +320,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -444,59 +407,334 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:T37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.43"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -547,214 +785,214 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.7</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>0.84</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>0.76</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>0.68</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>0.79</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>0.7</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>0.66</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>0.81</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>0.73</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>0.65</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>0.8</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>0.71</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>0.92</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>0.96</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.96</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>0.82</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>0.89</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>0.91</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>0.77</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>0.83</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>0.94</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>0.79</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>0.86</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>0.88</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>0.8</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>0.83</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="0" t="n">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>0.97</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.73</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>0.27</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>0.27</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>0.51</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>0.47</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>0.42</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>0.74</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="K6" s="0" t="n">
+      <c r="I6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K6">
         <v>0.7</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>0.33</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6">
         <v>0.33</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="N6">
         <v>0.93</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>0.17</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>0.1</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.71</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>0.72</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>0.72</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>0.67</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>0.67</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>0.67</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>0.69</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>0.71</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>0.7</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>0.69</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>0.69</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>0.69</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>0.91</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>0.91</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>0.91</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -767,844 +1005,913 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.83</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="3">
         <v>0.91</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0.79</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3">
         <v>0.88</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.84</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="3">
         <v>0.91</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L8" s="0" t="n">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0.84</v>
       </c>
-      <c r="M8" s="4" t="n">
+      <c r="M8" s="3">
         <v>0.91</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>0.94</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P8">
         <v>0.97</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>0.8</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>0.84</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8">
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.74</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>0.86</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>0.79</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>0.75</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>0.81</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>0.72</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>0.66</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>0.81</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>0.73</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>0.67</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>0.82</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9">
         <v>0.74</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="N9">
         <v>0.9</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>0.95</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>0.92</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>0.68</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>0.83</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>0.75</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>0.65</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>0.81</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>0.72</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>0.67</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>0.82</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>0.73</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>0.68</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>0.82</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12">
         <v>0.74</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>0.93</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12">
         <v>0.97</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0.98</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>0.84</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>0.91</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>0.97</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>0.79</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>0.86</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>0.9</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>0.8</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>0.84</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>0.91</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>0.78</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>0.84</v>
       </c>
-      <c r="N13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O13" s="0" t="n">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
         <v>0.96</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.98</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>0.19</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>0.3</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>0.93</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>0.21</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>0.32</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>0.92</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>0.21</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>0.3</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>0.96</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>0.23</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14">
         <v>0.34</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>0.95</v>
       </c>
-      <c r="O14" s="0" t="n">
-        <v>0.07</v>
-      </c>
-      <c r="P14" s="0" t="n">
+      <c r="O14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.83</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>0.78</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>0.81</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>0.79</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>0.73</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>0.76</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>0.8</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>0.77</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>0.79</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>0.8</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>0.73</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>0.76</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>0.95</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>0.93</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>0.94</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0.85</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="3">
         <v>0.92</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.8</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="3">
         <v>0.89</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>0.85</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="3">
         <v>0.92</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="0" t="n">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>0.82</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="3">
         <v>0.9</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="0" t="n">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.74</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>0.86</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>0.79</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>0.65</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>0.81</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>0.72</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17">
         <v>0.72</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>0.85</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>0.78</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>0.66</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>0.81</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>0.73</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>0.9</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>0.95</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>0.72</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>0.85</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>0.78</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>0.65</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>0.8</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>0.72</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>0.7</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>0.84</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>0.77</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>0.65</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>0.8</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20">
         <v>0.72</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="N20">
         <v>0.89</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>0.95</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20">
         <v>0.92</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>0.96</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>0.84</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>0.89</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>0.91</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>0.76</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>0.83</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>0.95</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21">
         <v>0.8</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21">
         <v>0.86</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>0.91</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>0.78</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21">
         <v>0.84</v>
       </c>
-      <c r="N21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O21" s="0" t="n">
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>0.97</v>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="P21" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.8</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>0.23</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>0.24</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>0.5</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>0.52</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>0.47</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>0.83</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>0.23</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>0.27</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>0.52</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22">
         <v>0.53</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22">
         <v>0.48</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="N22">
         <v>0.74</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22">
         <v>0.19</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="P22">
         <v>0.11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>0.71</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>0.74</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23">
         <v>0.72</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>0.63</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>0.66</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>0.64</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>0.71</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23">
         <v>0.71</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23">
         <v>0.71</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>0.7</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23">
         <v>0.69</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23">
         <v>0.7</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23">
         <v>0.9</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23">
         <v>0.91</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23">
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>0.84</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="3">
         <v>0.92</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>0.79</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="3">
         <v>0.88</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>0.85</v>
       </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="3">
         <v>0.92</v>
       </c>
-      <c r="K24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" s="0" t="n">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.82</v>
       </c>
-      <c r="M24" s="4" t="n">
+      <c r="M24" s="3">
         <v>0.9</v>
       </c>
-      <c r="N24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="0" t="n">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>0.96</v>
       </c>
-      <c r="P24" s="4" t="n">
+      <c r="P24" s="3">
         <v>0.98</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>0.7</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>0.84</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>0.76</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>0.84</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>0.81</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>0.72</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25">
         <v>0.77</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>0.82</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25">
         <v>0.75</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25">
         <v>0.66</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25">
         <v>0.81</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25">
         <v>0.72</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="N25">
         <v>0.92</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25">
         <v>0.96</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25">
         <v>0.94</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="n">
-        <v>0.9125</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="n">
+      <c r="B28" s="4">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
         <v>0.9536</v>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>0.8219</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>0.9021</v>
-      </c>
-      <c r="H28" s="5" t="n">
-        <v>0.8672</v>
-      </c>
-      <c r="I28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5" t="n">
-        <v>0.9282</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>0.8734</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0.932</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0.9438</v>
-      </c>
-      <c r="O28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>0.971</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="E28" s="4">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5" t="n">
-        <v>0.8594</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>0.924</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>0.8734</v>
-      </c>
-      <c r="F29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>0.9323</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>0.8484</v>
-      </c>
-      <c r="I29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>0.9172</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>0.8141</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0.8971</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0.9703</v>
-      </c>
-      <c r="O29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5" t="n">
+      <c r="B29" s="4">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="K29" s="4">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="L29" s="4">
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
         <v>0.9849</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <v>0.8265</v>
-      </c>
-      <c r="P37" s="0" t="n">
-        <v>0.0458</v>
+      <c r="J37">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="P37">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="N38">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0.97850000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N39">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N40">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0.92730000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1615,64 +1922,57 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:T37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.43"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -1721,212 +2021,212 @@
       </c>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.63</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>0.72</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>0.61</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>0.75</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>0.78</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>0.73</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I4" s="0" t="n">
+      <c r="H4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I4">
         <v>0.6</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>0.53</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>0.59</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>0.59</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4">
         <v>0.59</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="N4">
         <v>0.9</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="O4">
         <v>0.95</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4">
         <v>0.92</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.79</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>0.67</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>0.72</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>0.86</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>0.76</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>0.8</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>0.59</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="I5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K5">
         <v>0.53</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>0.53</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5">
         <v>0.53</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="0" t="n">
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
         <v>0.95</v>
       </c>
-      <c r="P5" s="4" t="n">
+      <c r="P5" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.64</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>0.63</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>0.63</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>0.68</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>0.69</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>0.68</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6">
         <v>0.61</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="I6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J6">
         <v>0.59</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>0.6</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N6" s="0" t="n">
+      <c r="L6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N6">
         <v>0.8</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="O6">
         <v>0.2</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6">
         <v>0.12</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.6</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>0.6</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>0.67</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>0.67</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7">
         <v>0.67</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7">
         <v>0.54</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>0.54</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>0.54</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>0.52</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>0.52</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7">
         <v>0.52</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="N7">
         <v>0.89</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="O7">
         <v>0.89</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7">
         <v>0.89</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1939,844 +2239,913 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>0.74</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="3">
         <v>0.85</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0.75</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="3">
         <v>0.86</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="0" t="n">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>0.6</v>
       </c>
-      <c r="J8" s="4" t="n">
+      <c r="J8" s="3">
         <v>0.75</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>0.73</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M8" s="4" t="n">
+      <c r="L8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M8" s="3">
         <v>0.61</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="0" t="n">
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
         <v>0.95</v>
       </c>
-      <c r="P8" s="4" t="n">
+      <c r="P8" s="3">
         <v>0.97</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R8">
         <v>0.76</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S8">
         <v>0.75</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8">
         <v>0.74</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.62</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>0.7</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>0.59</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>0.74</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>0.78</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9">
         <v>0.73</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="H9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I9">
         <v>0.6</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>0.53</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N9" s="0" t="n">
+      <c r="K9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N9">
         <v>0.91</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="O9">
         <v>0.95</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="P9">
         <v>0.93</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>0.52</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>0.72</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>0.6</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>0.59</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>0.75</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>0.65</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12">
         <v>0.53</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>0.61</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>0.47</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>0.52</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>0.52</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12">
         <v>0.51</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="N12">
         <v>0.91</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="O12">
         <v>0.95</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="P12">
         <v>0.93</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0.76</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>0.66</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>0.7</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>0.89</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>0.72</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>0.79</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13">
         <v>0.61</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K13" s="0" t="n">
+      <c r="I13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K13">
         <v>0.51</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>0.51</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13">
         <v>0.51</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13">
         <v>0.99</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="O13">
         <v>0.95</v>
       </c>
-      <c r="P13" s="4" t="n">
+      <c r="P13" s="3">
         <v>0.96</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.85</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>0.69</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>0.76</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>0.81</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>0.73</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>0.76</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14">
         <v>0.81</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>0.59</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>0.66</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>0.79</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>0.51</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14">
         <v>0.6</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="N14">
         <v>0.97</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O14">
         <v>0.06</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="P14">
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>0.81</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>0.68</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15">
         <v>0.73</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>0.84</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>0.72</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15">
         <v>0.77</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15">
         <v>0.64</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="J15" s="0" t="n">
+      <c r="I15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J15">
         <v>0.59</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>0.53</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>0.52</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15">
         <v>0.52</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="N15">
         <v>0.98</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="O15">
         <v>0.96</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="P15">
         <v>0.97</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>0.72</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="3">
         <v>0.83</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="n">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.76</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="3">
         <v>0.86</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="n">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
         <v>0.6</v>
       </c>
-      <c r="J16" s="4" t="n">
+      <c r="J16" s="3">
         <v>0.75</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>0.94</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16">
         <v>0.53</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="3">
         <v>0.66</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" s="0" t="n">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="P16" s="4" t="n">
+      <c r="P16" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>0.52</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>0.72</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>0.6</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>0.76</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>0.78</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>0.68</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="I17" s="0" t="n">
+      <c r="H17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I17">
         <v>0.6</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>0.47</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>0.52</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>0.52</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17">
         <v>0.5</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="N17">
         <v>0.89</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="O17">
         <v>0.95</v>
       </c>
-      <c r="P17" s="0" t="n">
+      <c r="P17">
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>0.61</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>0.71</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>0.6</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>0.74</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>0.77</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>0.72</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20">
         <v>0.54</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>0.59</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>0.51</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N20" s="0" t="n">
+      <c r="K20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N20">
         <v>0.89</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="O20">
         <v>0.95</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="P20">
         <v>0.92</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>0.79</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>0.67</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>0.72</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>0.85</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>0.73</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>0.78</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21">
         <v>0.59</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="K21" s="0" t="n">
+      <c r="I21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K21">
         <v>0.54</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>0.53</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21">
         <v>0.54</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="N21">
         <v>0.99</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="O21">
         <v>0.95</v>
       </c>
-      <c r="P21" s="4" t="n">
+      <c r="P21" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>0.68</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>0.65</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>0.66</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>0.7</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>0.7</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>0.7</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22">
         <v>0.65</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>0.59</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>0.61</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>0.59</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N22" s="0" t="n">
+      <c r="L22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N22">
         <v>0.73</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="O22">
         <v>0.23</v>
       </c>
-      <c r="P22" s="0" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="P22">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C23">
         <v>0.59</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E23">
         <v>0.67</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23">
         <v>0.67</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>0.67</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>0.53</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23">
         <v>0.54</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23">
         <v>0.54</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>0.53</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23">
         <v>0.53</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23">
         <v>0.53</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="N23">
         <v>0.88</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="O23">
         <v>0.89</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="P23">
         <v>0.89</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>0.72</v>
       </c>
-      <c r="D24" s="4" t="n">
+      <c r="D24" s="3">
         <v>0.84</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="n">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>0.77</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="3">
         <v>0.87</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
         <v>0.6</v>
       </c>
-      <c r="J24" s="4" t="n">
+      <c r="J24" s="3">
         <v>0.75</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>0.75</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M24" s="4" t="n">
+      <c r="L24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M24" s="3">
         <v>0.61</v>
       </c>
-      <c r="N24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O24" s="0" t="n">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
         <v>0.95</v>
       </c>
-      <c r="P24" s="4" t="n">
+      <c r="P24" s="3">
         <v>0.97</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>0.62</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>0.73</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25">
         <v>0.62</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>0.75</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25">
         <v>0.78</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25">
         <v>0.74</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I25" s="0" t="n">
+      <c r="H25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I25">
         <v>0.59</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25">
         <v>0.5</v>
       </c>
-      <c r="K25" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="N25" s="0" t="n">
+      <c r="K25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N25">
         <v>0.9</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25">
         <v>0.95</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="P25">
         <v>0.93</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="n">
-        <v>0.7351</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>0.8469</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>0.7812</v>
-      </c>
-      <c r="F28" s="5" t="n">
-        <v>0.9969</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>0.8752</v>
-      </c>
-      <c r="H28" s="5" t="n">
+      <c r="B28" s="4">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="H28" s="4">
         <v>0.6321</v>
       </c>
-      <c r="I28" s="5" t="n">
+      <c r="I28" s="4">
         <v>0.7863</v>
       </c>
-      <c r="J28" s="5" t="n">
-        <v>0.7003</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>0.6442</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>0.5795</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0.6084</v>
-      </c>
-      <c r="N28" s="5" t="n">
+      <c r="J28" s="4">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="N28" s="4">
         <v>0.9476</v>
       </c>
-      <c r="O28" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" s="5" t="n">
-        <v>0.9731</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.97309999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="5" t="n">
-        <v>0.7333</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5" t="n">
+      <c r="B29" s="4">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
         <v>0.8458</v>
       </c>
-      <c r="E29" s="5" t="n">
-        <v>0.8058</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="n">
+      <c r="E29" s="4">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
         <v>0.8921</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="4">
         <v>0.6321</v>
       </c>
-      <c r="I29" s="5" t="n">
-        <v>0.9594</v>
-      </c>
-      <c r="J29" s="5" t="n">
-        <v>0.7614</v>
-      </c>
-      <c r="K29" s="0" t="n">
+      <c r="I29" s="4">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="K29">
         <v>0.63</v>
       </c>
-      <c r="L29" s="5" t="n">
-        <v>0.5833</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0.6031</v>
-      </c>
-      <c r="N29" s="5" t="n">
+      <c r="L29" s="4">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="N29" s="4">
         <v>0.9476</v>
       </c>
-      <c r="O29" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P29" s="5" t="n">
-        <v>0.9731</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="3" t="s">
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.97309999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <v>0.398</v>
-      </c>
-      <c r="P37" s="0" t="s">
+      <c r="J37">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="P37" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H38">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="N38">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0.96930000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="N40">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0.94099999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2787,166 +3156,158 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="5" width="25.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.43"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="9" width="25.5703125" style="4" customWidth="1"/>
+    <col min="10" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2957,55 +3318,47 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.43"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -3033,90 +3386,90 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>5.35598</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>5.6179</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>5.36077</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>5.39579</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>5.426</v>
-      </c>
-      <c r="G3" s="0" t="n">
+      <c r="B3">
+        <v>5.3559799999999997</v>
+      </c>
+      <c r="C3">
+        <v>5.6178999999999997</v>
+      </c>
+      <c r="D3">
+        <v>5.3607699999999996</v>
+      </c>
+      <c r="E3">
+        <v>5.3957899999999999</v>
+      </c>
+      <c r="F3">
+        <v>5.4260000000000002</v>
+      </c>
+      <c r="G3">
         <v>5.1936</v>
       </c>
-      <c r="H3" s="0" t="n">
-        <v>5.35378</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>5.48907</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3">
+        <v>5.3537800000000004</v>
+      </c>
+      <c r="I3">
+        <v>5.4890699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>3.54195</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4">
+        <v>3.5419499999999999</v>
+      </c>
+      <c r="C4">
         <v>3.452</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>3.54937</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>3.46125</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>3.565</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>3.47006</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>3.49658</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>3.7106</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4">
+        <v>3.5493700000000001</v>
+      </c>
+      <c r="E4">
+        <v>3.4612500000000002</v>
+      </c>
+      <c r="F4">
+        <v>3.5649999999999999</v>
+      </c>
+      <c r="G4">
+        <v>3.4700600000000001</v>
+      </c>
+      <c r="H4">
+        <v>3.4965799999999998</v>
+      </c>
+      <c r="I4">
+        <v>3.7105999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1.2273</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1.2048</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1.22392</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="B5">
+        <v>1.2273000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.2048000000000001</v>
+      </c>
+      <c r="D5">
+        <v>1.2239199999999999</v>
+      </c>
+      <c r="E5">
         <v>1.2862</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>1.215</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>1.172</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1.305</v>
-      </c>
-      <c r="I5" s="0" t="n">
+      <c r="F5">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="H5">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="I5">
         <v>0.85629</v>
       </c>
     </row>
@@ -3127,12 +3480,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="75">
   <si>
     <t>Model</t>
   </si>
@@ -292,6 +292,37 @@
 One Hot Encoding
 3 Dense Layers
 Weighted by Throughput
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Type </t>
+  </si>
+  <si>
+    <t>Full data (all deception quadrants) 
++ CNN
+(Scikit learn Measures)</t>
+  </si>
+  <si>
+    <t>Full data (all deception quadrants) 
++ LSTM
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>500 data points 
++ LSTM (Truth deception quadrants)
+Scikit learn measures</t>
+  </si>
+  <si>
+    <t>500 data points 
++ LSTM other variables = 
+One Hot Encoding 
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>500 data points 
++ LSTM other variables = 
+Weighted by throughput
+One Hot Encoding 
 (Scikit learn metrics)</t>
   </si>
 </sst>
@@ -351,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -716,12 +750,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,71 +1939,126 @@
         <v>0.48714400000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N34">
+        <v>0.47986000000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>0.48971999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="O35">
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>0.46</v>
+      </c>
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E36">
+        <v>0.44</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.46</v>
+      </c>
+      <c r="H36">
+        <v>0.4</v>
+      </c>
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.4</v>
+      </c>
+      <c r="L36">
+        <v>0.5</v>
+      </c>
+      <c r="M36">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.495</v>
+      </c>
+      <c r="O36">
+        <v>0.5</v>
+      </c>
+      <c r="P36">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="J38">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="P38">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J37">
-        <v>0.82650000000000001</v>
-      </c>
-      <c r="P37">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38">
+      <c r="H39">
         <v>0.86109999999999998</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
         <v>0.92390000000000005</v>
       </c>
-      <c r="N38">
+      <c r="N39">
         <v>0.97850000000000004</v>
       </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
         <v>0.97850000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N39">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>0.95940000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H40">
         <v>0.92730000000000001</v>
@@ -1981,105 +2070,179 @@
         <v>0.86560000000000004</v>
       </c>
       <c r="N40">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
+      <c r="N41">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
         <v>0.92730000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H41">
+    <row r="42" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I41">
+      <c r="I42">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J41">
+      <c r="J42">
         <v>0.92</v>
-      </c>
-      <c r="N41">
-        <v>0.9456</v>
-      </c>
-      <c r="O41">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="P41">
-        <v>0.97160000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H42">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0.92310000000000003</v>
       </c>
       <c r="N42">
         <v>0.9456</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="P42">
-        <v>0.9718</v>
+        <v>0.97160000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N43">
+        <v>0.9456</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H44">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I44">
+        <v>0.5</v>
+      </c>
+      <c r="J44">
+        <v>0.12403</v>
+      </c>
+      <c r="N44">
+        <v>0.49685499999999999</v>
+      </c>
+      <c r="O44">
+        <v>0.48395460000000001</v>
+      </c>
+      <c r="P44">
+        <v>0.40194999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H43">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="I43">
+      <c r="H45">
+        <v>0.47590500000000002</v>
+      </c>
+      <c r="I45">
+        <v>0.45176899999999998</v>
+      </c>
+      <c r="J45">
+        <v>0.42346400000000001</v>
+      </c>
+      <c r="N45">
+        <v>0.49375999999999998</v>
+      </c>
+      <c r="O45">
+        <v>0.4869</v>
+      </c>
+      <c r="P45">
+        <v>0.48514000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47">
+        <v>0.4</v>
+      </c>
+      <c r="I47">
         <v>0.5</v>
       </c>
-      <c r="J43">
-        <v>0.12403</v>
-      </c>
-      <c r="N43">
-        <v>0.49685499999999999</v>
-      </c>
-      <c r="O43">
-        <v>0.48395460000000001</v>
-      </c>
-      <c r="P43">
-        <v>0.40194999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H44">
-        <v>0.47590500000000002</v>
-      </c>
-      <c r="I44">
-        <v>0.45176899999999998</v>
-      </c>
-      <c r="J44">
-        <v>0.42346400000000001</v>
-      </c>
-      <c r="N44">
-        <v>0.49375999999999998</v>
-      </c>
-      <c r="O44">
-        <v>0.4869</v>
-      </c>
-      <c r="P44">
-        <v>0.48514000000000002</v>
+      <c r="J47">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="N47">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="O47">
+        <v>0.5202</v>
+      </c>
+      <c r="P47">
+        <v>0.4914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I48">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="J48">
+        <v>0.48570000000000002</v>
+      </c>
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+      <c r="O48">
+        <v>0.34</v>
+      </c>
+      <c r="P48">
+        <v>0.40400000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
   <si>
     <t>Model</t>
   </si>
@@ -427,12 +427,184 @@
     <t>Bernoulli Naïve Bayes
 (Scikit learn)</t>
   </si>
+  <si>
+    <t>Logistic Regression
+(Scikit learn)</t>
+  </si>
+  <si>
+    <t>Random Forest 
+(Scikit learn)</t>
+  </si>
+  <si>
+    <t>SGD Classifier
+(scikit learn)</t>
+  </si>
+  <si>
+    <t>Support Vector Classifier
+(scikit learn)</t>
+  </si>
+  <si>
+    <t>Linear SVC
+(Scikit learn)</t>
+  </si>
+  <si>
+    <t>CNN (Conv 1D) 
+(Scikit learn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic Regression Other Veriables +
+One Hot Encoding 
+3 dense layers </t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding 
+3 dense layers 
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding 
+Weighted by Throughput
+3 dense layers 
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic Regression Other Veriables +
+One Hot Encoding 
+Weighted by Throughput
+3 dense layers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic Regression Other Veriables +
+One Hot Encoding 
+Weighted by Worktime
+3 dense layers </t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding 
+Weighted by Worktime
+3 dense layers 
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding +
+Logistic Regression</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding + 
+Logistic Regression
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding +
+Logistic Regression
+Weighted by Throughput</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding + 
+Logistic Regression
+Weighted by Throughput
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding +
+Logistic Regression
+Weighted by Worktime</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Veriables +
+One Hot Encoding + 
+Logistic Regression
+Weighted by Worktime
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNearestNeighbours Other Veriables +
+One Hot Encoding 
+3 dense layers </t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding 
+3 dense layers 
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNearestNeighbours Other Veriables +
+One Hot Encoding 
+Weighted by Throughput
+3 dense layers </t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding 
+Weighted by Throughput
+3 dense layers 
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNearestNeighbours Other Veriables +
+One Hot Encoding 
+Weighted by Worktime
+3 dense layers </t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding 
+Weighted by Worktime
+3 dense layers 
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding +
+KNearestNeighbours</t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding + 
+KNearestNeighbours
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding +
+KNearestNeighbours
+Weighted by Throughput</t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding + 
+KNearestNeighbours
+Weighted by Throughput
+(Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>KNearestNeighbours Other Veriables +
+One Hot Encoding +
+KNearestNeighbours
+Weighted by Worktime</t>
+  </si>
+  <si>
+    <t>KNearestNeighboursOther Veriables +
+One Hot Encoding + 
+KNearestNeighbours
+Weighted by Worktime
+(Scikit learn measures)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -457,8 +629,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +647,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -484,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -505,6 +689,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,13 +1040,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomRight" activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,673 +1153,737 @@
       <c r="P3" s="3"/>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>0.7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>0.84</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>0.76</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>0.68</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>0.79</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>0.7</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="10">
         <v>0.66</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="10">
         <v>0.81</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="10">
         <v>0.73</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="10">
         <v>0.65</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="10">
         <v>0.8</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="10">
         <v>0.71</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="10">
         <v>0.92</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="10">
         <v>0.96</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="10">
         <v>0.94</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>0.96</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>0.82</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>0.89</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>0.91</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>0.77</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>0.83</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>0.94</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="10">
         <v>0.79</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="10">
         <v>0.86</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="10">
         <v>0.88</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="10">
         <v>0.8</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="10">
         <v>0.83</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
+      <c r="N6" s="10">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10">
         <v>0.97</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="10">
         <v>0.98</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>0.73</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>0.27</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="10">
         <v>0.27</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>0.51</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>0.47</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>0.42</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>0.74</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="10">
         <v>0.7</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="10">
         <v>0.33</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="10">
         <v>0.33</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="10">
         <v>0.93</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="10">
         <v>0.17</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="10">
         <v>0.1</v>
       </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="10">
         <v>0.71</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>0.72</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="10">
         <v>0.72</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>0.67</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <v>0.67</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>0.67</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <v>0.69</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="10">
         <v>0.71</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="10">
         <v>0.7</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="10">
         <v>0.69</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="10">
         <v>0.69</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="10">
         <v>0.69</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="10">
         <v>0.91</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="10">
         <v>0.91</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="10">
         <v>0.91</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
         <v>0.83</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="10">
         <v>0.91</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.79</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="10">
         <v>0.88</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
         <v>0.84</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="10">
         <v>0.91</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10">
         <v>0.84</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="10">
         <v>0.91</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
+      <c r="N9" s="10">
+        <v>1</v>
+      </c>
+      <c r="O9" s="10">
         <v>0.94</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="10">
         <v>0.97</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="10">
         <v>0.74</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>0.86</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>0.79</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>0.75</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="10">
         <v>0.81</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="10">
         <v>0.72</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="10">
         <v>0.66</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="10">
         <v>0.81</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="10">
         <v>0.73</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="10">
         <v>0.67</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="10">
         <v>0.82</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="10">
         <v>0.74</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="10">
         <v>0.9</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="10">
         <v>0.95</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="10">
         <v>0.92</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>0.68</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>0.83</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>0.75</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
         <v>0.65</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="10">
         <v>0.81</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="10">
         <v>0.72</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="10">
         <v>0.67</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="10">
         <v>0.82</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="10">
         <v>0.73</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="10">
         <v>0.68</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="10">
         <v>0.82</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="10">
         <v>0.74</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="10">
         <v>0.93</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="10">
         <v>0.97</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="10">
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="10">
         <v>0.98</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="10">
         <v>0.84</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="10">
         <v>0.91</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="10">
         <v>0.97</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="10">
         <v>0.79</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="10">
         <v>0.86</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="10">
         <v>0.9</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="10">
         <v>0.8</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="10">
         <v>0.84</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="10">
         <v>0.91</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="10">
         <v>0.78</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="10">
         <v>0.84</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
         <v>0.96</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="10">
         <v>0.97</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="10">
         <v>0.98</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="10">
         <v>0.19</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="10">
         <v>0.3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="10">
         <v>0.93</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <v>0.21</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="10">
         <v>0.32</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="10">
         <v>0.92</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="10">
         <v>0.21</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="10">
         <v>0.3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="10">
         <v>0.96</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="10">
         <v>0.23</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="10">
         <v>0.34</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="10">
         <v>0.95</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="10">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="10">
         <v>0.83</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="10">
         <v>0.78</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="10">
         <v>0.81</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="10">
         <v>0.79</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="10">
         <v>0.73</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="10">
         <v>0.76</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="10">
         <v>0.8</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="10">
         <v>0.77</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="10">
         <v>0.79</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="10">
         <v>0.8</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="10">
         <v>0.73</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="10">
         <v>0.76</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="10">
         <v>0.95</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="10">
         <v>0.93</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="10">
         <v>0.94</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="10">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
         <v>0.85</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="10">
         <v>0.92</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
         <v>0.8</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="10">
         <v>0.89</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
         <v>0.85</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="10">
         <v>0.92</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="K17" s="10">
+        <v>1</v>
+      </c>
+      <c r="L17" s="10">
         <v>0.82</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="10">
         <v>0.9</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
         <v>0.95</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="10">
         <v>0.97</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="10">
         <v>0.74</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="10">
         <v>0.86</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="10">
         <v>0.79</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="10">
         <v>0.65</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="10">
         <v>0.81</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="10">
         <v>0.72</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="10">
         <v>0.72</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="10">
         <v>0.85</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="10">
         <v>0.78</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="10">
         <v>0.66</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="10">
         <v>0.81</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="10">
         <v>0.73</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="10">
         <v>0.9</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="10">
         <v>0.95</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="10">
         <v>0.92</v>
       </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="10">
         <v>0.72</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="10">
         <v>0.85</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>0.78</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="10">
         <v>0.65</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="10">
         <v>0.8</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="10">
         <v>0.72</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="10">
         <v>0.7</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="10">
         <v>0.84</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="10">
         <v>0.77</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="10">
         <v>0.65</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="10">
         <v>0.8</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="10">
         <v>0.72</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="10">
         <v>0.89</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="10">
         <v>0.95</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="10">
         <v>0.92</v>
       </c>
     </row>
@@ -1640,49 +1891,49 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="10">
         <v>0.96</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="10">
         <v>0.84</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="10">
         <v>0.89</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="10">
         <v>0.91</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="10">
         <v>0.76</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="10">
         <v>0.83</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="10">
         <v>0.95</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="10">
         <v>0.8</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="10">
         <v>0.86</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="10">
         <v>0.91</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="10">
         <v>0.78</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="10">
         <v>0.84</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10">
         <v>0.97</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="10">
         <v>0.98</v>
       </c>
     </row>
@@ -1690,49 +1941,49 @@
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="10">
         <v>0.8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="10">
         <v>0.23</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="10">
         <v>0.24</v>
       </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="10">
         <v>0.52</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="10">
         <v>0.47</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="10">
         <v>0.83</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="10">
         <v>0.23</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="10">
         <v>0.27</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="10">
         <v>0.52</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="10">
         <v>0.53</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="10">
         <v>0.48</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="10">
         <v>0.74</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="10">
         <v>0.19</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="10">
         <v>0.11</v>
       </c>
     </row>
@@ -1740,49 +1991,49 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <v>0.71</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="10">
         <v>0.74</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <v>0.72</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="10">
         <v>0.63</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="10">
         <v>0.66</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="10">
         <v>0.64</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="10">
         <v>0.71</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="10">
         <v>0.71</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="10">
         <v>0.71</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="10">
         <v>0.7</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="10">
         <v>0.69</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="10">
         <v>0.7</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="10">
         <v>0.9</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="10">
         <v>0.91</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="10">
         <v>0.9</v>
       </c>
     </row>
@@ -1790,49 +2041,49 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="10">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
         <v>0.84</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="10">
         <v>0.92</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
         <v>0.79</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="10">
         <v>0.88</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
         <v>0.85</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="10">
         <v>0.92</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
+      <c r="K25" s="10">
+        <v>1</v>
+      </c>
+      <c r="L25" s="10">
         <v>0.82</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="10">
         <v>0.9</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10">
         <v>0.96</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="10">
         <v>0.98</v>
       </c>
     </row>
@@ -1840,49 +2091,49 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="10">
         <v>0.7</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="10">
         <v>0.84</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="10">
         <v>0.76</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="10">
         <v>0.84</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="10">
         <v>0.81</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="10">
         <v>0.72</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="10">
         <v>0.77</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="10">
         <v>0.82</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="10">
         <v>0.75</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="10">
         <v>0.66</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="10">
         <v>0.81</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="10">
         <v>0.72</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="10">
         <v>0.92</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="10">
         <v>0.96</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="10">
         <v>0.94</v>
       </c>
     </row>
@@ -1899,10 +2150,46 @@
         <v>0.86</v>
       </c>
       <c r="C29">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="D29">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
+      </c>
+      <c r="E29">
+        <v>0.75</v>
+      </c>
+      <c r="F29">
+        <v>0.18</v>
+      </c>
+      <c r="G29">
+        <v>0.08</v>
+      </c>
+      <c r="H29">
+        <v>0.75</v>
+      </c>
+      <c r="I29">
+        <v>0.16</v>
+      </c>
+      <c r="J29">
+        <v>0.09</v>
+      </c>
+      <c r="K29">
+        <v>0.71</v>
+      </c>
+      <c r="L29">
+        <v>0.17</v>
+      </c>
+      <c r="M29">
+        <v>0.09</v>
+      </c>
+      <c r="N29" s="10">
+        <v>0.94</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0.16</v>
+      </c>
+      <c r="P29" s="10">
+        <v>0.21</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -1918,19 +2205,91 @@
       <c r="D30">
         <v>0.1087</v>
       </c>
+      <c r="E30">
+        <v>0.50870000000000004</v>
+      </c>
+      <c r="F30">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="G30">
+        <v>0.1593</v>
+      </c>
+      <c r="H30">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="I30">
+        <v>0.49880000000000002</v>
+      </c>
+      <c r="J30">
+        <v>0.15387999999999999</v>
+      </c>
+      <c r="K30">
+        <v>0.53503000000000001</v>
+      </c>
+      <c r="L30">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.1573</v>
+      </c>
+      <c r="N30" s="10">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="P30" s="10">
+        <v>0.15396000000000001</v>
+      </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C31">
         <v>0.88</v>
       </c>
       <c r="D31">
         <v>0.88</v>
+      </c>
+      <c r="E31">
+        <v>0.73</v>
+      </c>
+      <c r="F31">
+        <v>0.73</v>
+      </c>
+      <c r="G31">
+        <v>0.73</v>
+      </c>
+      <c r="H31">
+        <v>0.77</v>
+      </c>
+      <c r="I31">
+        <v>0.77</v>
+      </c>
+      <c r="J31">
+        <v>0.77</v>
+      </c>
+      <c r="K31">
+        <v>0.76</v>
+      </c>
+      <c r="L31">
+        <v>0.74</v>
+      </c>
+      <c r="M31">
+        <v>0.75</v>
+      </c>
+      <c r="N31" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="P31" s="10">
+        <v>0.92</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -1946,6 +2305,42 @@
       <c r="D32">
         <v>0.51700000000000002</v>
       </c>
+      <c r="E32">
+        <v>0.50678999999999996</v>
+      </c>
+      <c r="F32">
+        <v>0.50727999999999995</v>
+      </c>
+      <c r="G32">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="H32">
+        <v>0.51731000000000005</v>
+      </c>
+      <c r="I32">
+        <v>0.51726000000000005</v>
+      </c>
+      <c r="J32">
+        <v>0.51729000000000003</v>
+      </c>
+      <c r="K32">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.51970000000000005</v>
+      </c>
+      <c r="M32">
+        <v>0.51629999999999998</v>
+      </c>
+      <c r="N32" s="10">
+        <v>0.52958000000000005</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0.52902000000000005</v>
+      </c>
+      <c r="P32" s="10">
+        <v>0.52929999999999999</v>
+      </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -1960,6 +2355,42 @@
       <c r="D33">
         <v>0.9</v>
       </c>
+      <c r="E33">
+        <v>0.75</v>
+      </c>
+      <c r="F33">
+        <v>0.84</v>
+      </c>
+      <c r="G33">
+        <v>0.77</v>
+      </c>
+      <c r="H33">
+        <v>0.74</v>
+      </c>
+      <c r="I33">
+        <v>0.85</v>
+      </c>
+      <c r="J33">
+        <v>0.79</v>
+      </c>
+      <c r="K33">
+        <v>0.76</v>
+      </c>
+      <c r="L33">
+        <v>0.85</v>
+      </c>
+      <c r="M33">
+        <v>0.79</v>
+      </c>
+      <c r="N33" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O33" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P33" s="10">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
@@ -1974,6 +2405,42 @@
       <c r="D34">
         <v>0.49510999999999999</v>
       </c>
+      <c r="E34">
+        <v>0.55932300000000001</v>
+      </c>
+      <c r="F34">
+        <v>0.50346000000000002</v>
+      </c>
+      <c r="G34">
+        <v>0.46844000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.42891800000000002</v>
+      </c>
+      <c r="I34">
+        <v>0.49769000000000002</v>
+      </c>
+      <c r="J34">
+        <v>0.46074999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0.50505</v>
+      </c>
+      <c r="L34">
+        <v>0.50022999999999995</v>
+      </c>
+      <c r="M34">
+        <v>0.46589999999999998</v>
+      </c>
+      <c r="N34" s="10">
+        <v>0.47777999999999998</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="P34" s="10">
+        <v>0.88500000000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1988,885 +2455,2027 @@
       <c r="D35">
         <v>0.89</v>
       </c>
+      <c r="E35">
+        <v>0.74</v>
+      </c>
+      <c r="F35">
+        <v>0.8</v>
+      </c>
+      <c r="G35">
+        <v>0.76</v>
+      </c>
+      <c r="H35">
+        <v>0.74</v>
+      </c>
+      <c r="I35">
+        <v>0.84</v>
+      </c>
+      <c r="J35">
+        <v>0.78</v>
+      </c>
+      <c r="K35">
+        <v>0.75</v>
+      </c>
+      <c r="L35">
+        <v>0.82</v>
+      </c>
+      <c r="M35">
+        <v>0.78</v>
+      </c>
+      <c r="N35" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O35" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="P35" s="10">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>98</v>
       </c>
       <c r="B36">
-        <v>0.50490000000000002</v>
+        <v>0.47678999999999999</v>
       </c>
       <c r="C36">
-        <v>0.50131000000000003</v>
+        <v>0.49286000000000002</v>
       </c>
       <c r="D36">
         <v>0.49426999999999999</v>
+      </c>
+      <c r="E36">
+        <v>0.51192000000000004</v>
+      </c>
+      <c r="F36">
+        <v>0.50502000000000002</v>
+      </c>
+      <c r="G36">
+        <v>0.49417</v>
+      </c>
+      <c r="H36">
+        <v>0.44940000000000002</v>
+      </c>
+      <c r="I36">
+        <v>0.49157000000000001</v>
+      </c>
+      <c r="J36">
+        <v>0.46174900000000002</v>
+      </c>
+      <c r="K36">
+        <v>0.4889</v>
+      </c>
+      <c r="L36">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="M36">
+        <v>0.48055999999999999</v>
+      </c>
+      <c r="N36" s="10">
+        <v>0.48364000000000001</v>
+      </c>
+      <c r="O36" s="10">
+        <v>0.48723</v>
+      </c>
+      <c r="P36" s="10">
+        <v>0.48532999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>80</v>
+      <c r="B37">
+        <v>0.87</v>
+      </c>
+      <c r="C37">
+        <v>0.93</v>
+      </c>
+      <c r="D37">
+        <v>0.9</v>
+      </c>
+      <c r="E37">
+        <v>0.71</v>
+      </c>
+      <c r="F37">
+        <v>0.84</v>
+      </c>
+      <c r="G37">
+        <v>0.77</v>
+      </c>
+      <c r="H37">
+        <v>0.74</v>
+      </c>
+      <c r="I37">
+        <v>0.86</v>
+      </c>
+      <c r="J37">
+        <v>0.79</v>
+      </c>
+      <c r="K37">
+        <v>0.73</v>
+      </c>
+      <c r="L37">
+        <v>0.86</v>
+      </c>
+      <c r="M37">
+        <v>0.79</v>
+      </c>
+      <c r="N37" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O37" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P37" s="10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>0.46634999999999999</v>
+      </c>
+      <c r="C38">
+        <v>0.5</v>
+      </c>
+      <c r="D38">
+        <v>0.48259000000000002</v>
+      </c>
+      <c r="E38">
+        <v>0.41992960000000001</v>
+      </c>
+      <c r="F38">
+        <v>0.99738199999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.45637100000000003</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.42915999999999999</v>
+      </c>
+      <c r="I38" s="12">
+        <v>0.49974000000000002</v>
+      </c>
+      <c r="J38" s="12">
+        <v>0.46177000000000001</v>
+      </c>
+      <c r="K38">
+        <v>0.42806</v>
+      </c>
+      <c r="L38">
+        <v>0.49974000000000002</v>
+      </c>
+      <c r="M38">
+        <v>0.46112999999999998</v>
+      </c>
+      <c r="N38" s="11">
+        <v>0.47778999999999999</v>
+      </c>
+      <c r="O38" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="11">
+        <v>0.48864000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <v>0.94</v>
+      </c>
+      <c r="C39">
+        <v>0.93</v>
+      </c>
+      <c r="D39">
+        <v>0.9</v>
+      </c>
+      <c r="E39">
+        <v>0.79</v>
+      </c>
+      <c r="F39">
+        <v>0.84</v>
+      </c>
+      <c r="G39">
+        <v>0.77</v>
+      </c>
+      <c r="H39">
+        <v>0.74</v>
+      </c>
+      <c r="I39">
+        <v>0.86</v>
+      </c>
+      <c r="J39">
+        <v>0.79</v>
+      </c>
+      <c r="K39">
+        <v>0.77</v>
+      </c>
+      <c r="L39">
+        <v>0.86</v>
+      </c>
+      <c r="M39">
+        <v>0.79</v>
+      </c>
+      <c r="N39" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O39" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P39" s="10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40">
+        <v>0.46612399999999998</v>
+      </c>
+      <c r="C40">
+        <v>0.49975999999999998</v>
+      </c>
+      <c r="D40">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="E40">
+        <v>0.6701144</v>
+      </c>
+      <c r="F40">
+        <v>0.50111000000000006</v>
+      </c>
+      <c r="G40">
+        <v>0.45921200000000001</v>
+      </c>
+      <c r="H40">
+        <v>0.42919000000000002</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
+      </c>
+      <c r="J40">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="K40">
+        <v>0.55318999999999996</v>
+      </c>
+      <c r="L40">
+        <v>0.50075000000000003</v>
+      </c>
+      <c r="M40">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N40" s="10">
+        <v>0.47778999999999999</v>
+      </c>
+      <c r="O40" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="10">
+        <v>0.48859999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>19</v>
+      <c r="B41">
+        <v>0.87</v>
+      </c>
+      <c r="C41">
+        <v>0.93</v>
+      </c>
+      <c r="D41">
+        <v>0.9</v>
+      </c>
+      <c r="E41">
+        <v>0.71</v>
+      </c>
+      <c r="F41">
+        <v>0.84</v>
+      </c>
+      <c r="G41">
+        <v>0.77</v>
+      </c>
+      <c r="H41">
+        <v>0.74</v>
+      </c>
+      <c r="I41">
+        <v>0.86</v>
+      </c>
+      <c r="J41">
+        <v>0.79</v>
+      </c>
+      <c r="K41">
+        <v>0.73</v>
+      </c>
+      <c r="L41">
+        <v>0.86</v>
+      </c>
+      <c r="M41">
+        <v>0.79</v>
+      </c>
+      <c r="N41" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O41" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P41" s="10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42">
+        <v>0.46610000000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+      <c r="D42">
+        <v>0.48247000000000001</v>
+      </c>
+      <c r="E42">
+        <v>0.419964</v>
+      </c>
+      <c r="F42">
+        <v>0.5</v>
+      </c>
+      <c r="G42">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="H42">
+        <v>0.42919000000000002</v>
+      </c>
+      <c r="I42">
+        <v>0.5</v>
+      </c>
+      <c r="J42">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="K42">
+        <v>0.42809999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0.5</v>
+      </c>
+      <c r="M42">
+        <v>0.46126</v>
+      </c>
+      <c r="N42" s="10">
+        <v>0.47778999999999999</v>
+      </c>
+      <c r="O42" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P42" s="10">
+        <v>0.48859999999999998</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="6">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>0.9536</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0.82189999999999996</v>
-      </c>
-      <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="6">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="L43" s="6">
-        <v>1</v>
-      </c>
-      <c r="M43" s="6">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="N43" s="6">
-        <v>0.94379999999999997</v>
-      </c>
-      <c r="O43" s="6">
-        <v>1</v>
-      </c>
-      <c r="P43" s="6">
-        <v>0.97099999999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="B43">
+        <v>0.87</v>
+      </c>
+      <c r="C43">
+        <v>0.93</v>
+      </c>
+      <c r="D43">
+        <v>0.9</v>
+      </c>
+      <c r="E43">
+        <v>0.81</v>
+      </c>
+      <c r="F43">
+        <v>0.84</v>
+      </c>
+      <c r="G43">
+        <v>0.77</v>
+      </c>
+      <c r="H43">
+        <v>0.74</v>
+      </c>
+      <c r="I43">
+        <v>0.86</v>
+      </c>
+      <c r="J43">
+        <v>0.79</v>
+      </c>
+      <c r="K43">
+        <v>0.77</v>
+      </c>
+      <c r="L43">
+        <v>0.85</v>
+      </c>
+      <c r="M43">
+        <v>0.79</v>
+      </c>
+      <c r="N43" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O43" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P43" s="10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B44">
-        <v>0.46416000000000002</v>
+        <v>0.466109</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0.499</v>
       </c>
       <c r="D44">
-        <v>0.48141</v>
+        <v>0.48220000000000002</v>
       </c>
       <c r="E44">
-        <v>0.420844</v>
+        <v>0.75263000000000002</v>
       </c>
       <c r="F44">
-        <v>0.5</v>
+        <v>0.50248499999999996</v>
       </c>
       <c r="G44">
-        <v>0.45701999999999998</v>
+        <v>0.46203889999999997</v>
       </c>
       <c r="H44">
+        <v>0.42915999999999999</v>
+      </c>
+      <c r="I44">
+        <v>0.49974000000000002</v>
+      </c>
+      <c r="J44">
+        <v>0.46177000000000001</v>
+      </c>
+      <c r="K44">
+        <v>0.53935999999999995</v>
+      </c>
+      <c r="L44">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="M44">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="N44" s="10">
+        <v>0.47778999999999999</v>
+      </c>
+      <c r="O44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="10">
+        <v>0.48859999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>0.87</v>
+      </c>
+      <c r="C45">
+        <v>0.93</v>
+      </c>
+      <c r="D45">
+        <v>0.9</v>
+      </c>
+      <c r="E45">
+        <v>0.71</v>
+      </c>
+      <c r="F45">
+        <v>0.84</v>
+      </c>
+      <c r="G45">
+        <v>0.77</v>
+      </c>
+      <c r="H45">
+        <v>0.74</v>
+      </c>
+      <c r="I45">
+        <v>0.86</v>
+      </c>
+      <c r="J45">
+        <v>0.79</v>
+      </c>
+      <c r="K45">
+        <v>0.73</v>
+      </c>
+      <c r="L45">
+        <v>0.86</v>
+      </c>
+      <c r="M45">
+        <v>0.79</v>
+      </c>
+      <c r="N45" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O45" s="10">
+        <v>0.96</v>
+      </c>
+      <c r="P45" s="10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>0.46613890000000002</v>
+      </c>
+      <c r="C46">
+        <v>0.5</v>
+      </c>
+      <c r="D46">
+        <v>0.48247600000000002</v>
+      </c>
+      <c r="E46">
+        <v>0.41996480000000003</v>
+      </c>
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="G46">
+        <v>0.45650000000000002</v>
+      </c>
+      <c r="H46" s="12">
         <v>0.42919000000000002</v>
       </c>
-      <c r="I44">
-        <v>0.5</v>
-      </c>
-      <c r="J44">
+      <c r="I46" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="12">
         <v>0.46189999999999998</v>
       </c>
-      <c r="K44">
-        <v>0.42193999999999998</v>
-      </c>
-      <c r="L44">
-        <v>0.5</v>
-      </c>
-      <c r="M44">
-        <v>0.45766000000000001</v>
-      </c>
-      <c r="N44">
-        <v>0.47489999999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.5</v>
-      </c>
-      <c r="P44">
-        <v>0.48714400000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="6">
-        <v>0.85940000000000005</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="F46" s="6">
-        <v>1</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="I46" s="6">
-        <v>1</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="L46" s="6">
-        <v>1</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="O46" s="6">
-        <v>1</v>
-      </c>
-      <c r="P46" s="6">
-        <v>0.9849</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
+      <c r="K46">
+        <v>0.42809999999999998</v>
+      </c>
+      <c r="L46">
+        <v>0.5</v>
+      </c>
+      <c r="M46">
+        <v>0.4612</v>
+      </c>
+      <c r="N46" s="11">
+        <v>0.47778999999999999</v>
+      </c>
+      <c r="O46" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="P46" s="11">
+        <v>0.48859999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="6">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="C49" s="6">
+        <v>1</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.9536</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="I49" s="6">
+        <v>1</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="L49" s="6">
+        <v>1</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="O49" s="6">
+        <v>1</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>0.46416000000000002</v>
+      </c>
+      <c r="C50">
+        <v>0.5</v>
+      </c>
+      <c r="D50">
+        <v>0.48141</v>
+      </c>
+      <c r="E50">
+        <v>0.420844</v>
+      </c>
+      <c r="F50">
+        <v>0.5</v>
+      </c>
+      <c r="G50">
+        <v>0.45701999999999998</v>
+      </c>
+      <c r="H50">
+        <v>0.42919000000000002</v>
+      </c>
+      <c r="I50">
+        <v>0.5</v>
+      </c>
+      <c r="J50">
+        <v>0.46189999999999998</v>
+      </c>
+      <c r="K50">
+        <v>0.42193999999999998</v>
+      </c>
+      <c r="L50">
+        <v>0.5</v>
+      </c>
+      <c r="M50">
+        <v>0.45766000000000001</v>
+      </c>
+      <c r="N50">
+        <v>0.47489999999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.5</v>
+      </c>
+      <c r="P50">
+        <v>0.48714400000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I52" s="6">
+        <v>1</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="L52" s="6">
+        <v>1</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="O52" s="6">
+        <v>1</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="6">
+        <v>0.46437</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D53">
+        <v>0.48153200000000002</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.43689499999999998</v>
+      </c>
+      <c r="I53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.46632200000000001</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.42326900000000001</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M53" s="6">
+        <v>0.45844200000000002</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0.47317500000000001</v>
+      </c>
+      <c r="O53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0.48621700000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>23</v>
       </c>
-      <c r="B49">
+      <c r="B55">
         <v>0.93740000000000001</v>
       </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49">
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <v>0.96750000000000003</v>
       </c>
-      <c r="E49">
+      <c r="E55">
         <v>0.82550000000000001</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="F55" s="6">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>0.90410000000000001</v>
       </c>
-      <c r="H49">
+      <c r="H55">
         <v>0.86429999999999996</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
         <v>0.92689999999999995</v>
       </c>
-      <c r="K49">
+      <c r="K55">
         <v>0.84079999999999999</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <v>0.91320000000000001</v>
       </c>
-      <c r="N49">
+      <c r="N55">
         <v>0.95530000000000004</v>
       </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="P49">
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
         <v>0.97709999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B50">
+      <c r="B56">
         <v>0.463940193491645</v>
       </c>
-      <c r="C50">
-        <v>0.5</v>
-      </c>
-      <c r="D50">
+      <c r="C56">
+        <v>0.5</v>
+      </c>
+      <c r="D56">
         <v>0.48129562043795598</v>
       </c>
-      <c r="E50">
+      <c r="E56">
         <v>0.41754617414248002</v>
       </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-      <c r="G50">
+      <c r="F56">
+        <v>0.5</v>
+      </c>
+      <c r="G56">
         <v>0.455068296189791</v>
       </c>
-      <c r="H50">
+      <c r="H56">
         <v>0.43117</v>
       </c>
-      <c r="I50">
-        <v>0.5</v>
-      </c>
-      <c r="J50">
+      <c r="I56">
+        <v>0.5</v>
+      </c>
+      <c r="J56">
         <v>0.46304000000000001</v>
       </c>
-      <c r="K50">
+      <c r="K56">
         <v>0.41974494283201402</v>
       </c>
-      <c r="L50" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="M50">
+      <c r="L56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="M56">
         <v>0.45637102557972697</v>
       </c>
-      <c r="N50">
+      <c r="N56">
         <v>0.47339489885663999</v>
       </c>
-      <c r="O50">
-        <v>0.5</v>
-      </c>
-      <c r="P50">
+      <c r="O56">
+        <v>0.5</v>
+      </c>
+      <c r="P56">
         <v>0.48633386040207799</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="N58">
+        <v>0.47986000000000001</v>
+      </c>
+      <c r="O58">
+        <v>0.5</v>
+      </c>
+      <c r="P58">
+        <v>0.48971999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N53">
-        <v>0.47986000000000001</v>
-      </c>
-      <c r="O53">
-        <v>0.5</v>
-      </c>
-      <c r="P53">
-        <v>0.48971999999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="N59">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="O59">
+        <v>0.5</v>
+      </c>
+      <c r="P59">
+        <v>0.48680000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N54">
-        <v>0.47420000000000001</v>
-      </c>
-      <c r="O54">
-        <v>0.5</v>
-      </c>
-      <c r="P54">
-        <v>0.48680000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="D60">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="E60">
+        <v>0.44</v>
+      </c>
+      <c r="F60">
+        <v>0.5</v>
+      </c>
+      <c r="G60">
+        <v>0.46</v>
+      </c>
+      <c r="H60">
+        <v>0.4</v>
+      </c>
+      <c r="I60">
+        <v>0.5</v>
+      </c>
+      <c r="J60">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="K60">
+        <v>0.4</v>
+      </c>
+      <c r="L60">
+        <v>0.5</v>
+      </c>
+      <c r="M60">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="N60">
+        <v>0.495</v>
+      </c>
+      <c r="O60">
+        <v>0.5</v>
+      </c>
+      <c r="P60">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B55">
+      <c r="B61">
         <v>0.46</v>
       </c>
-      <c r="C55">
-        <v>0.5</v>
-      </c>
-      <c r="D55">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="E55">
-        <v>0.44</v>
-      </c>
-      <c r="F55">
-        <v>0.5</v>
-      </c>
-      <c r="G55">
-        <v>0.46</v>
-      </c>
-      <c r="H55">
-        <v>0.4</v>
-      </c>
-      <c r="I55">
-        <v>0.5</v>
-      </c>
-      <c r="J55">
-        <v>0.44450000000000001</v>
-      </c>
-      <c r="K55">
-        <v>0.4</v>
-      </c>
-      <c r="L55">
-        <v>0.5</v>
-      </c>
-      <c r="M55">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="N55">
-        <v>0.495</v>
-      </c>
-      <c r="O55">
-        <v>0.5</v>
-      </c>
-      <c r="P55">
-        <v>0.497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="J61">
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="P61">
+        <v>4.58E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J57">
-        <v>0.82650000000000001</v>
-      </c>
-      <c r="P57">
-        <v>4.58E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+    </row>
+    <row r="64" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H58">
+      <c r="H64">
         <v>0.86109999999999998</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
         <v>0.92390000000000005</v>
       </c>
-      <c r="N58">
+      <c r="N64">
         <v>0.97850000000000004</v>
       </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="P64">
         <v>0.97850000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    <row r="65" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H59">
+      <c r="H65">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="I59">
-        <v>0.5</v>
-      </c>
-      <c r="J59">
+      <c r="I65">
+        <v>0.5</v>
+      </c>
+      <c r="J65" s="12">
         <v>0.11890000000000001</v>
       </c>
-      <c r="N59">
+      <c r="N65">
         <v>2.682E-2</v>
       </c>
-      <c r="O59">
-        <v>0.5</v>
-      </c>
-      <c r="P59">
+      <c r="O65">
+        <v>0.5</v>
+      </c>
+      <c r="P65">
         <v>5.0900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H60">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="I60">
-        <v>1</v>
-      </c>
-      <c r="J60">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="N60">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="O60">
-        <v>1</v>
-      </c>
-      <c r="P60">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61">
-        <v>0.42671700000000001</v>
-      </c>
-      <c r="I61">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="J61">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="N61">
-        <v>2.6824899999999999E-2</v>
-      </c>
-      <c r="O61">
-        <v>0.5</v>
-      </c>
-      <c r="P61">
-        <v>5.0917999999999998E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="N62">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H63">
-        <v>0.43248999999999999</v>
-      </c>
-      <c r="I63">
-        <v>0.5</v>
-      </c>
-      <c r="J63">
-        <v>0.46380500000000002</v>
-      </c>
-      <c r="N63">
-        <v>0.52680000000000005</v>
-      </c>
-      <c r="O63">
-        <v>0.5</v>
-      </c>
-      <c r="P63">
-        <v>5.1400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-    </row>
-    <row r="65" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0.86</v>
-      </c>
-      <c r="J65">
-        <v>0.93</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0.95</v>
-      </c>
-      <c r="P65">
-        <v>0.97</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N66">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H67">
+        <v>0.42671700000000001</v>
+      </c>
+      <c r="I67">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N67">
+        <v>2.6824899999999999E-2</v>
+      </c>
+      <c r="O67">
+        <v>0.5</v>
+      </c>
+      <c r="P67">
+        <v>5.0917999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N68">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69">
+        <v>0.43248999999999999</v>
+      </c>
+      <c r="I69">
+        <v>0.5</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0.46380500000000002</v>
+      </c>
+      <c r="N69">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="O69">
+        <v>0.5</v>
+      </c>
+      <c r="P69">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0.86</v>
+      </c>
+      <c r="J71">
+        <v>0.93</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0.95</v>
+      </c>
+      <c r="P71">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="H66">
-        <v>0.5</v>
-      </c>
-      <c r="I66">
+      <c r="H72">
+        <v>0.5</v>
+      </c>
+      <c r="I72">
         <v>0.43248999999999999</v>
       </c>
-      <c r="J66">
+      <c r="J72">
         <v>0.46380500000000002</v>
       </c>
-      <c r="N66">
+      <c r="N72">
         <v>0.47316999999999998</v>
       </c>
-      <c r="O66">
-        <v>0.5</v>
-      </c>
-      <c r="P66">
+      <c r="O72">
+        <v>0.5</v>
+      </c>
+      <c r="P72">
         <v>0.48620000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0.86</v>
-      </c>
-      <c r="J67">
-        <v>0.93</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0.95</v>
-      </c>
-      <c r="P67">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H68">
-        <v>0.43248999999999999</v>
-      </c>
-      <c r="I68">
-        <v>0.5</v>
-      </c>
-      <c r="J68">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="N68">
-        <v>0.47317500000000001</v>
-      </c>
-      <c r="O68">
-        <v>0.5</v>
-      </c>
-      <c r="P68">
-        <v>0.48621700000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0.86</v>
-      </c>
-      <c r="J69">
-        <v>0.93</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>0.95</v>
-      </c>
-      <c r="P69">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="H70">
-        <v>0.5</v>
-      </c>
-      <c r="I70">
-        <v>0.43248999999999999</v>
-      </c>
-      <c r="J70">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="N70">
-        <v>0.5</v>
-      </c>
-      <c r="O70">
-        <v>0.47317500000000001</v>
-      </c>
-      <c r="P70">
-        <v>0.48621700000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-    </row>
-    <row r="72" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N72">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
-        <v>0.95940000000000003</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="H73">
-        <v>0.85799999999999998</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="J73">
-        <v>0.92310000000000003</v>
+        <v>0.93</v>
       </c>
       <c r="N73">
-        <v>0.9456</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P73">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74">
+        <v>0.43248999999999999</v>
+      </c>
+      <c r="I74">
+        <v>0.5</v>
+      </c>
+      <c r="J74">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="N74">
+        <v>0.47317500000000001</v>
+      </c>
+      <c r="O74">
+        <v>0.5</v>
+      </c>
+      <c r="P74">
+        <v>0.48621700000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>0.86</v>
+      </c>
+      <c r="J75">
+        <v>0.93</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0.95</v>
+      </c>
+      <c r="P75">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H76">
+        <v>0.5</v>
+      </c>
+      <c r="I76">
+        <v>0.43248999999999999</v>
+      </c>
+      <c r="J76">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="N76">
+        <v>0.5</v>
+      </c>
+      <c r="O76">
+        <v>0.47317500000000001</v>
+      </c>
+      <c r="P76">
+        <v>0.48621700000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="6"/>
+    </row>
+    <row r="78" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N78">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H74">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="I74">
-        <v>0.5</v>
-      </c>
-      <c r="J74">
-        <v>0.12403</v>
-      </c>
-      <c r="N74">
-        <v>0.49685499999999999</v>
-      </c>
-      <c r="O74">
-        <v>0.48395460000000001</v>
-      </c>
-      <c r="P74">
-        <v>0.40194999999999997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-    </row>
-    <row r="76" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H76">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N76">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>0.92730000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H77">
-        <v>0.85750000000000004</v>
-      </c>
-      <c r="I77">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="J77">
-        <v>0.92</v>
-      </c>
-      <c r="N77">
-        <v>0.9456</v>
-      </c>
-      <c r="O77">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="P77">
-        <v>0.97160000000000002</v>
+    <row r="79" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79">
+        <v>0.56646099999999999</v>
+      </c>
+      <c r="I79">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="J79">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="N79">
+        <v>0.472943</v>
+      </c>
+      <c r="O79">
+        <v>0.49976749999999998</v>
+      </c>
+      <c r="P79">
+        <v>0.48595500000000003</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="H80">
-        <v>0.47590500000000002</v>
+        <v>0.97040000000000004</v>
       </c>
       <c r="I80">
-        <v>0.45176899999999998</v>
+        <v>0.23930000000000001</v>
       </c>
       <c r="J80">
-        <v>0.42346400000000001</v>
+        <v>0.38030000000000003</v>
       </c>
       <c r="N80">
-        <v>0.49375999999999998</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="O80">
-        <v>0.4869</v>
+        <v>1</v>
       </c>
       <c r="P80">
-        <v>0.48514000000000002</v>
+        <v>0.9718</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81">
+        <v>0.56645999999999996</v>
+      </c>
+      <c r="I81">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="J81">
+        <v>0.1183</v>
+      </c>
+      <c r="N81">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O81">
+        <v>0.5</v>
+      </c>
+      <c r="P81">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N82">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="O82">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="P82">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H83">
+        <v>0.43262499999999998</v>
+      </c>
+      <c r="I83">
+        <v>0.496166</v>
+      </c>
+      <c r="J83">
+        <v>0.12189</v>
+      </c>
+      <c r="N83">
+        <v>0.50834000000000001</v>
+      </c>
+      <c r="O83">
+        <v>0.50546999999999997</v>
+      </c>
+      <c r="P83">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>0.87</v>
+      </c>
+      <c r="J84">
+        <v>0.93</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0.95</v>
+      </c>
+      <c r="P84">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85">
+        <v>0.4335</v>
+      </c>
+      <c r="I85">
+        <v>0.5</v>
+      </c>
+      <c r="J85">
+        <v>0.46439999999999998</v>
+      </c>
+      <c r="N85">
+        <v>0.47295500000000001</v>
+      </c>
+      <c r="O85">
+        <v>0.5</v>
+      </c>
+      <c r="P85">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>0.87</v>
+      </c>
+      <c r="J86">
+        <v>0.93</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0.95</v>
+      </c>
+      <c r="P86">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H87">
+        <v>0.43358999999999998</v>
+      </c>
+      <c r="I87">
+        <v>0.5</v>
+      </c>
+      <c r="J87">
+        <v>0.46443000000000001</v>
+      </c>
+      <c r="N87">
+        <v>0.47295500000000001</v>
+      </c>
+      <c r="O87">
+        <v>0.5</v>
+      </c>
+      <c r="P87">
+        <v>0.48609999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>0.87</v>
+      </c>
+      <c r="J88">
+        <v>0.93</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0.95</v>
+      </c>
+      <c r="P88">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H89">
+        <v>0.5</v>
+      </c>
+      <c r="I89">
+        <v>0.4335</v>
+      </c>
+      <c r="J89">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N89">
+        <v>0.5</v>
+      </c>
+      <c r="O89">
+        <v>0.47294999999999998</v>
+      </c>
+      <c r="P89">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="6"/>
+    </row>
+    <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N91">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H92">
+        <v>0.49965300000000001</v>
+      </c>
+      <c r="I92">
+        <v>0.49948399999999998</v>
+      </c>
+      <c r="J92">
+        <v>0.49312</v>
+      </c>
+      <c r="N92">
+        <v>0.472943</v>
+      </c>
+      <c r="O92">
+        <v>0.49976700000000002</v>
+      </c>
+      <c r="P92">
+        <v>0.485985</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H93">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N93">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H94">
+        <v>0.43359700000000001</v>
+      </c>
+      <c r="I94">
+        <v>0.5</v>
+      </c>
+      <c r="J94">
+        <v>0.46443699999999999</v>
+      </c>
+      <c r="N94">
+        <v>0.49086000000000002</v>
+      </c>
+      <c r="O94">
+        <v>0.49185000000000001</v>
+      </c>
+      <c r="P94">
+        <v>0.49129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H95">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N95">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H96">
+        <v>0.56642999999999999</v>
+      </c>
+      <c r="I96">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="J96">
+        <v>0.117788</v>
+      </c>
+      <c r="N96">
+        <v>0.47295500000000001</v>
+      </c>
+      <c r="O96">
+        <v>0.5</v>
+      </c>
+      <c r="P96">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H97">
+        <v>0.98</v>
+      </c>
+      <c r="I97">
+        <v>0.86</v>
+      </c>
+      <c r="J97">
+        <v>0.91</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0.95</v>
+      </c>
+      <c r="P97">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H98">
+        <v>0.51063999999999998</v>
+      </c>
+      <c r="I98">
+        <v>0.50104400000000004</v>
+      </c>
+      <c r="J98">
+        <v>0.47427999999999998</v>
+      </c>
+      <c r="N98">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="O98">
+        <v>0.5</v>
+      </c>
+      <c r="P98">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H99">
+        <v>0.82</v>
+      </c>
+      <c r="I99">
+        <v>0.8</v>
+      </c>
+      <c r="J99">
+        <v>0.81</v>
+      </c>
+      <c r="N99">
+        <v>0.91</v>
+      </c>
+      <c r="O99">
+        <v>0.91</v>
+      </c>
+      <c r="P99">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H100">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I100">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J100">
+        <v>0.52428900000000001</v>
+      </c>
+      <c r="N100">
+        <v>0.51158499999999996</v>
+      </c>
+      <c r="O100">
+        <v>0.50997000000000003</v>
+      </c>
+      <c r="P100">
+        <v>0.51049999999999995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H101">
+        <v>0.75</v>
+      </c>
+      <c r="I101">
+        <v>0.76</v>
+      </c>
+      <c r="J101">
+        <v>0.76</v>
+      </c>
+      <c r="N101">
+        <v>0.9</v>
+      </c>
+      <c r="O101">
+        <v>0.9</v>
+      </c>
+      <c r="P101">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H102">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="I102">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="J102">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N102">
+        <v>0.49696000000000001</v>
+      </c>
+      <c r="O102">
+        <v>0.49697999999999998</v>
+      </c>
+      <c r="P102">
+        <v>0.49697000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" s="6"/>
+    </row>
+    <row r="104" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N104">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O104">
+        <v>1</v>
+      </c>
+      <c r="P104">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N105">
+        <v>0.9456</v>
+      </c>
+      <c r="O105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I106">
+        <v>0.5</v>
+      </c>
+      <c r="J106">
+        <v>0.12403</v>
+      </c>
+      <c r="N106">
+        <v>0.49685499999999999</v>
+      </c>
+      <c r="O106">
+        <v>0.48395460000000001</v>
+      </c>
+      <c r="P106">
+        <v>0.40194999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" s="6"/>
+    </row>
+    <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H108">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N108">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="I109">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J109">
+        <v>0.92</v>
+      </c>
+      <c r="N109">
+        <v>0.9456</v>
+      </c>
+      <c r="O109">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P109">
+        <v>0.97160000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112">
+        <v>0.47590500000000002</v>
+      </c>
+      <c r="I112">
+        <v>0.45176899999999998</v>
+      </c>
+      <c r="J112">
+        <v>0.42346400000000001</v>
+      </c>
+      <c r="N112">
+        <v>0.49375999999999998</v>
+      </c>
+      <c r="O112">
+        <v>0.4869</v>
+      </c>
+      <c r="P112">
+        <v>0.48514000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
-    </row>
-    <row r="83" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+    </row>
+    <row r="115" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H83">
+      <c r="H115">
         <v>0.4</v>
       </c>
-      <c r="I83">
-        <v>0.5</v>
-      </c>
-      <c r="J83">
+      <c r="I115">
+        <v>0.5</v>
+      </c>
+      <c r="J115">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N83">
+      <c r="N115">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O83">
+      <c r="O115">
         <v>0.5202</v>
       </c>
-      <c r="P83">
+      <c r="P115">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+    <row r="116" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H84">
+      <c r="H116">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I84">
+      <c r="I116">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J84">
+      <c r="J116">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N84">
-        <v>0.5</v>
-      </c>
-      <c r="O84">
+      <c r="N116">
+        <v>0.5</v>
+      </c>
+      <c r="O116">
         <v>0.34</v>
       </c>
-      <c r="P84">
+      <c r="P116">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -2879,7 +4488,7 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="141">
   <si>
     <t>Model</t>
   </si>
@@ -598,6 +598,70 @@
 KNearestNeighbours
 Weighted by Worktime
 (Scikit learn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Throughput variance 
+3 Dense Layers
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Throughput variance 
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Worktime variance 
+3 Dense Layers
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Worktime variance 
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Throughput Variance
+Random Forests</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Throughput Variance
+Random Forests
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Worktime Variance
+Random Forests</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Worktime Variance
+Random Forests
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by U-shaped Throughput variance 
+3 Dense Layers
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Throughput U-shaped Variance
+Random Forests
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by Throughput U-shaped Variance
+Random Forests</t>
+  </si>
+  <si>
+    <t>Lexical Features with feature selection for predicting the corresponding annotation (Penn Bank)</t>
   </si>
 </sst>
 </file>
@@ -668,14 +732,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -692,6 +750,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,13 +1114,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P102" sqref="P102"/>
+      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,156 +1130,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>0.7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>0.84</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>0.76</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>0.68</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>0.79</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>0.7</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>0.66</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>0.81</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <v>0.73</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="8">
         <v>0.65</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="8">
         <v>0.8</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <v>0.71</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="8">
         <v>0.92</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="8">
         <v>0.96</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="8">
         <v>0.94</v>
       </c>
     </row>
@@ -1213,49 +1287,49 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>0.96</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>0.82</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>0.89</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>0.91</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>0.77</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>0.83</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <v>0.94</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <v>0.79</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>0.86</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="8">
         <v>0.88</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="8">
         <v>0.8</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="8">
         <v>0.83</v>
       </c>
-      <c r="N6" s="10">
-        <v>1</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
         <v>0.97</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="8">
         <v>0.98</v>
       </c>
     </row>
@@ -1263,153 +1337,153 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>0.73</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>0.27</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>0.27</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>0.51</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>0.47</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>0.42</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>0.74</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>0.7</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>0.33</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>0.33</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="8">
         <v>0.93</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="8">
         <v>0.17</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="8">
         <v>0.1</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>0.71</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>0.72</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>0.72</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>0.67</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>0.67</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>0.67</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="8">
         <v>0.69</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <v>0.71</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="8">
         <v>0.7</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="8">
         <v>0.69</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="8">
         <v>0.69</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="8">
         <v>0.69</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="8">
         <v>0.91</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="8">
         <v>0.91</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="8">
         <v>0.91</v>
       </c>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.83</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="8">
         <v>0.91</v>
       </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
         <v>0.79</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <v>0.88</v>
       </c>
-      <c r="H9" s="10">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
         <v>0.84</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="8">
         <v>0.91</v>
       </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
         <v>0.84</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="8">
         <v>0.91</v>
       </c>
-      <c r="N9" s="10">
-        <v>1</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
         <v>0.94</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="8">
         <v>0.97</v>
       </c>
     </row>
@@ -1417,136 +1491,136 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>0.74</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>0.86</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="8">
         <v>0.79</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>0.75</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0.81</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>0.72</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="8">
         <v>0.66</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <v>0.81</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="8">
         <v>0.73</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="8">
         <v>0.67</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="8">
         <v>0.82</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="8">
         <v>0.74</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="8">
         <v>0.9</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="8">
         <v>0.95</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="8">
         <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
     </row>
     <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
     </row>
     <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>0.68</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>0.83</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>0.75</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>0.65</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>0.81</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>0.72</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <v>0.67</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <v>0.82</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="8">
         <v>0.73</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="8">
         <v>0.68</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="8">
         <v>0.82</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="8">
         <v>0.74</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="8">
         <v>0.93</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="8">
         <v>0.97</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="8">
         <v>0.95</v>
       </c>
     </row>
@@ -1554,49 +1628,49 @@
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>0.98</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>0.84</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>0.91</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>0.97</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>0.79</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <v>0.86</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="8">
         <v>0.9</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <v>0.8</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="8">
         <v>0.84</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="8">
         <v>0.91</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="8">
         <v>0.78</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="8">
         <v>0.84</v>
       </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
         <v>0.96</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="8">
         <v>0.97</v>
       </c>
     </row>
@@ -1604,49 +1678,49 @@
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>0.98</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>0.19</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>0.3</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>0.93</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>0.21</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="8">
         <v>0.32</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="8">
         <v>0.92</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="8">
         <v>0.21</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
         <v>0.3</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="8">
         <v>0.96</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>0.23</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="8">
         <v>0.34</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="8">
         <v>0.95</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="8">
         <v>0.1</v>
       </c>
     </row>
@@ -1654,49 +1728,49 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>0.83</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>0.78</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>0.81</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>0.79</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>0.73</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="8">
         <v>0.76</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="8">
         <v>0.8</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <v>0.77</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="8">
         <v>0.79</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="8">
         <v>0.8</v>
       </c>
-      <c r="L16" s="10">
+      <c r="L16" s="8">
         <v>0.73</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="8">
         <v>0.76</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="8">
         <v>0.95</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="8">
         <v>0.93</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="8">
         <v>0.94</v>
       </c>
     </row>
@@ -1704,49 +1778,49 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10">
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
         <v>0.85</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>0.92</v>
       </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
         <v>0.8</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>0.89</v>
       </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
         <v>0.85</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <v>0.92</v>
       </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="10">
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
         <v>0.82</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="8">
         <v>0.9</v>
       </c>
-      <c r="N17" s="10">
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
         <v>0.95</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="8">
         <v>0.97</v>
       </c>
     </row>
@@ -1754,136 +1828,136 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>0.74</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>0.86</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>0.79</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>0.65</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>0.81</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>0.72</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="8">
         <v>0.72</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <v>0.85</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J18" s="8">
         <v>0.78</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="8">
         <v>0.66</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="8">
         <v>0.81</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="8">
         <v>0.73</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="8">
         <v>0.9</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="8">
         <v>0.95</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="8">
         <v>0.92</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>0.72</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>0.85</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>0.78</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>0.65</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>0.8</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="8">
         <v>0.72</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="8">
         <v>0.7</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="8">
         <v>0.84</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="8">
         <v>0.77</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="8">
         <v>0.65</v>
       </c>
-      <c r="L21" s="10">
+      <c r="L21" s="8">
         <v>0.8</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="8">
         <v>0.72</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="8">
         <v>0.89</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="8">
         <v>0.95</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="8">
         <v>0.92</v>
       </c>
     </row>
@@ -1891,49 +1965,49 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>0.96</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>0.84</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>0.89</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>0.91</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>0.76</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="8">
         <v>0.83</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="8">
         <v>0.95</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <v>0.8</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="8">
         <v>0.86</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="8">
         <v>0.91</v>
       </c>
-      <c r="L22" s="10">
+      <c r="L22" s="8">
         <v>0.78</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="8">
         <v>0.84</v>
       </c>
-      <c r="N22" s="10">
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
+      <c r="N22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
         <v>0.97</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="8">
         <v>0.98</v>
       </c>
     </row>
@@ -1941,49 +2015,49 @@
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>0.8</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>0.23</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>0.24</v>
       </c>
-      <c r="E23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="8">
         <v>0.52</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="8">
         <v>0.47</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="8">
         <v>0.83</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <v>0.23</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="8">
         <v>0.27</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="8">
         <v>0.52</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <v>0.53</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="8">
         <v>0.48</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="8">
         <v>0.74</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="8">
         <v>0.19</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="8">
         <v>0.11</v>
       </c>
     </row>
@@ -1991,49 +2065,49 @@
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>0.71</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>0.74</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>0.72</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>0.63</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>0.66</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="8">
         <v>0.64</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
         <v>0.71</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <v>0.71</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="8">
         <v>0.71</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="8">
         <v>0.7</v>
       </c>
-      <c r="L24" s="10">
+      <c r="L24" s="8">
         <v>0.69</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="8">
         <v>0.7</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="8">
         <v>0.9</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="8">
         <v>0.91</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="8">
         <v>0.9</v>
       </c>
     </row>
@@ -2041,49 +2115,49 @@
       <c r="A25" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="10">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10">
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
         <v>0.84</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>0.92</v>
       </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="10">
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
         <v>0.79</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="8">
         <v>0.88</v>
       </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
         <v>0.85</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
         <v>0.92</v>
       </c>
-      <c r="K25" s="10">
-        <v>1</v>
-      </c>
-      <c r="L25" s="10">
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
         <v>0.82</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="8">
         <v>0.9</v>
       </c>
-      <c r="N25" s="10">
-        <v>1</v>
-      </c>
-      <c r="O25" s="10">
+      <c r="N25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8">
         <v>0.96</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="8">
         <v>0.98</v>
       </c>
     </row>
@@ -2091,54 +2165,54 @@
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>0.7</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>0.84</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>0.76</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <v>0.84</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>0.81</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="8">
         <v>0.72</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <v>0.77</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="8">
         <v>0.82</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="8">
         <v>0.75</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="8">
         <v>0.66</v>
       </c>
-      <c r="L26" s="10">
+      <c r="L26" s="8">
         <v>0.81</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="8">
         <v>0.72</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="8">
         <v>0.92</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="8">
         <v>0.96</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="8">
         <v>0.94</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="2" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2182,18 +2256,18 @@
       <c r="M29">
         <v>0.09</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="8">
         <v>0.94</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="8">
         <v>0.16</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="8">
         <v>0.21</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B30">
@@ -2232,13 +2306,13 @@
       <c r="M30">
         <v>0.1573</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="8">
         <v>0.51200000000000001</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="8">
         <v>0.53149999999999997</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="8">
         <v>0.15396000000000001</v>
       </c>
     </row>
@@ -2282,18 +2356,18 @@
       <c r="M31">
         <v>0.75</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="8">
         <v>0.92</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="8">
         <v>0.92</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="8">
         <v>0.92</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B32">
@@ -2332,13 +2406,13 @@
       <c r="M32">
         <v>0.51629999999999998</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="8">
         <v>0.52958000000000005</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="8">
         <v>0.52902000000000005</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="8">
         <v>0.52929999999999999</v>
       </c>
     </row>
@@ -2382,18 +2456,18 @@
       <c r="M33">
         <v>0.79</v>
       </c>
-      <c r="N33" s="10">
+      <c r="N33" s="8">
         <v>0.91</v>
       </c>
-      <c r="O33" s="10">
+      <c r="O33" s="8">
         <v>0.96</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="8">
         <v>0.93</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B34">
@@ -2432,13 +2506,13 @@
       <c r="M34">
         <v>0.46589999999999998</v>
       </c>
-      <c r="N34" s="10">
+      <c r="N34" s="8">
         <v>0.47777999999999998</v>
       </c>
-      <c r="O34" s="10">
+      <c r="O34" s="8">
         <v>0.99760000000000004</v>
       </c>
-      <c r="P34" s="10">
+      <c r="P34" s="8">
         <v>0.88500000000000001</v>
       </c>
     </row>
@@ -2482,18 +2556,18 @@
       <c r="M35">
         <v>0.78</v>
       </c>
-      <c r="N35" s="10">
+      <c r="N35" s="8">
         <v>0.91</v>
       </c>
-      <c r="O35" s="10">
+      <c r="O35" s="8">
         <v>0.92</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="8">
         <v>0.92</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B36">
@@ -2532,13 +2606,13 @@
       <c r="M36">
         <v>0.48055999999999999</v>
       </c>
-      <c r="N36" s="10">
+      <c r="N36" s="8">
         <v>0.48364000000000001</v>
       </c>
-      <c r="O36" s="10">
+      <c r="O36" s="8">
         <v>0.48723</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="8">
         <v>0.48532999999999998</v>
       </c>
     </row>
@@ -2582,18 +2656,18 @@
       <c r="M37">
         <v>0.79</v>
       </c>
-      <c r="N37" s="10">
+      <c r="N37" s="8">
         <v>0.91</v>
       </c>
-      <c r="O37" s="10">
+      <c r="O37" s="8">
         <v>0.96</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="8">
         <v>0.93</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B38">
@@ -2614,13 +2688,13 @@
       <c r="G38">
         <v>0.45637100000000003</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="10">
         <v>0.42915999999999999</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="10">
         <v>0.49974000000000002</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="10">
         <v>0.46177000000000001</v>
       </c>
       <c r="K38">
@@ -2632,13 +2706,13 @@
       <c r="M38">
         <v>0.46112999999999998</v>
       </c>
-      <c r="N38" s="11">
+      <c r="N38" s="9">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O38" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P38" s="11">
+      <c r="O38" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="9">
         <v>0.48864000000000002</v>
       </c>
     </row>
@@ -2682,18 +2756,18 @@
       <c r="M39">
         <v>0.79</v>
       </c>
-      <c r="N39" s="10">
+      <c r="N39" s="8">
         <v>0.91</v>
       </c>
-      <c r="O39" s="10">
+      <c r="O39" s="8">
         <v>0.96</v>
       </c>
-      <c r="P39" s="10">
+      <c r="P39" s="8">
         <v>0.93</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B40">
@@ -2732,13 +2806,13 @@
       <c r="M40">
         <v>0.46400000000000002</v>
       </c>
-      <c r="N40" s="10">
+      <c r="N40" s="8">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O40" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P40" s="10">
+      <c r="O40" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="8">
         <v>0.48859999999999998</v>
       </c>
     </row>
@@ -2782,18 +2856,18 @@
       <c r="M41">
         <v>0.79</v>
       </c>
-      <c r="N41" s="10">
+      <c r="N41" s="8">
         <v>0.91</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="8">
         <v>0.96</v>
       </c>
-      <c r="P41" s="10">
+      <c r="P41" s="8">
         <v>0.93</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B42">
@@ -2832,13 +2906,13 @@
       <c r="M42">
         <v>0.46126</v>
       </c>
-      <c r="N42" s="10">
+      <c r="N42" s="8">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O42" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P42" s="10">
+      <c r="O42" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P42" s="8">
         <v>0.48859999999999998</v>
       </c>
     </row>
@@ -2882,18 +2956,18 @@
       <c r="M43">
         <v>0.79</v>
       </c>
-      <c r="N43" s="10">
+      <c r="N43" s="8">
         <v>0.91</v>
       </c>
-      <c r="O43" s="10">
+      <c r="O43" s="8">
         <v>0.96</v>
       </c>
-      <c r="P43" s="10">
+      <c r="P43" s="8">
         <v>0.93</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B44">
@@ -2932,13 +3006,13 @@
       <c r="M44">
         <v>0.46650000000000003</v>
       </c>
-      <c r="N44" s="10">
+      <c r="N44" s="8">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O44" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="P44" s="10">
+      <c r="O44" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="P44" s="8">
         <v>0.48859999999999998</v>
       </c>
     </row>
@@ -2982,18 +3056,18 @@
       <c r="M45">
         <v>0.79</v>
       </c>
-      <c r="N45" s="10">
+      <c r="N45" s="8">
         <v>0.91</v>
       </c>
-      <c r="O45" s="10">
+      <c r="O45" s="8">
         <v>0.96</v>
       </c>
-      <c r="P45" s="10">
+      <c r="P45" s="8">
         <v>0.93</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B46">
@@ -3014,13 +3088,13 @@
       <c r="G46">
         <v>0.45650000000000002</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="10">
         <v>0.42919000000000002</v>
       </c>
-      <c r="I46" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="J46" s="12">
+      <c r="I46" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J46" s="10">
         <v>0.46189999999999998</v>
       </c>
       <c r="K46">
@@ -3032,1450 +3106,2245 @@
       <c r="M46">
         <v>0.4612</v>
       </c>
-      <c r="N46" s="11">
+      <c r="N46" s="9">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O46" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="P46" s="11">
+      <c r="O46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="P46" s="9">
         <v>0.48859999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="1:16" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+    </row>
+    <row r="49" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="I49" s="15">
+        <v>0.16</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+    </row>
+    <row r="50" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15">
+        <v>0.48777169999999997</v>
+      </c>
+      <c r="I50" s="15">
+        <v>0.49718600000000002</v>
+      </c>
+      <c r="J50" s="15">
+        <v>0.15125</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+    </row>
+    <row r="51" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15">
+        <v>0.76</v>
+      </c>
+      <c r="I51" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0.77</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+    </row>
+    <row r="52" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="I52" s="15">
+        <v>0.51919000000000004</v>
+      </c>
+      <c r="J52" s="15">
+        <v>0.51937999999999995</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+    </row>
+    <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15">
+        <v>0.75</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+    </row>
+    <row r="54" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15">
+        <v>0.47</v>
+      </c>
+      <c r="I54" s="15">
+        <v>0.49871599999999999</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0.46318999999999999</v>
+      </c>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+    </row>
+    <row r="55" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15">
+        <v>0.74</v>
+      </c>
+      <c r="I55" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+    </row>
+    <row r="56" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15">
+        <v>0.46254000000000001</v>
+      </c>
+      <c r="I56" s="15">
+        <v>0.49614999999999998</v>
+      </c>
+      <c r="J56" s="15">
+        <v>0.46392</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+    </row>
+    <row r="57" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="I57" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="J57" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+    </row>
+    <row r="58" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15">
+        <v>0.42853999999999998</v>
+      </c>
+      <c r="I58" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="15">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+    </row>
+    <row r="59" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="I59" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="J59" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+    </row>
+    <row r="60" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15">
+        <v>0.42847000000000002</v>
+      </c>
+      <c r="I60" s="15">
+        <v>0.49948599999999999</v>
+      </c>
+      <c r="J60" s="15">
+        <v>0.46126499999999998</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+    </row>
+    <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="I61" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="J61" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="K61" s="15"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+    </row>
+    <row r="62" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15">
+        <v>0.42853999999999998</v>
+      </c>
+      <c r="I62" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J62" s="15">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+    </row>
+    <row r="63" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="I63" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="J63" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+    </row>
+    <row r="64" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15">
+        <v>0.42853999999999998</v>
+      </c>
+      <c r="I64" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J64" s="15">
+        <v>0.46150000000000002</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+    </row>
+    <row r="65" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15">
+        <v>0.73</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0.86</v>
+      </c>
+      <c r="J65" s="15">
+        <v>0.79</v>
+      </c>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+    </row>
+    <row r="66" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15">
+        <v>0.42853999999999998</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J66" s="15">
+        <v>0.46151999999999999</v>
+      </c>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+    </row>
+    <row r="67" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="15"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>20</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B70" s="4">
         <v>0.91249999999999998</v>
       </c>
-      <c r="C49" s="6">
-        <v>1</v>
-      </c>
-      <c r="D49" s="6">
+      <c r="C70" s="4">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
         <v>0.9536</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E70" s="4">
         <v>0.82189999999999996</v>
       </c>
-      <c r="F49" s="6">
-        <v>1</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="4">
         <v>0.90210000000000001</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H70" s="4">
         <v>0.86719999999999997</v>
       </c>
-      <c r="I49" s="6">
-        <v>1</v>
-      </c>
-      <c r="J49" s="6">
+      <c r="I70" s="4">
+        <v>1</v>
+      </c>
+      <c r="J70" s="4">
         <v>0.92820000000000003</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K70" s="4">
         <v>0.87339999999999995</v>
       </c>
-      <c r="L49" s="6">
-        <v>1</v>
-      </c>
-      <c r="M49" s="6">
+      <c r="L70" s="4">
+        <v>1</v>
+      </c>
+      <c r="M70" s="4">
         <v>0.93200000000000005</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N70" s="4">
         <v>0.94379999999999997</v>
       </c>
-      <c r="O49" s="6">
-        <v>1</v>
-      </c>
-      <c r="P49" s="6">
+      <c r="O70" s="4">
+        <v>1</v>
+      </c>
+      <c r="P70" s="4">
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>22</v>
       </c>
-      <c r="B50">
+      <c r="B71">
         <v>0.46416000000000002</v>
       </c>
-      <c r="C50">
-        <v>0.5</v>
-      </c>
-      <c r="D50">
+      <c r="C71">
+        <v>0.5</v>
+      </c>
+      <c r="D71">
         <v>0.48141</v>
       </c>
-      <c r="E50">
+      <c r="E71">
         <v>0.420844</v>
       </c>
-      <c r="F50">
-        <v>0.5</v>
-      </c>
-      <c r="G50">
+      <c r="F71">
+        <v>0.5</v>
+      </c>
+      <c r="G71">
         <v>0.45701999999999998</v>
       </c>
-      <c r="H50">
+      <c r="H71">
         <v>0.42919000000000002</v>
       </c>
-      <c r="I50">
-        <v>0.5</v>
-      </c>
-      <c r="J50">
+      <c r="I71">
+        <v>0.5</v>
+      </c>
+      <c r="J71">
         <v>0.46189999999999998</v>
       </c>
-      <c r="K50">
+      <c r="K71">
         <v>0.42193999999999998</v>
       </c>
-      <c r="L50">
-        <v>0.5</v>
-      </c>
-      <c r="M50">
+      <c r="L71">
+        <v>0.5</v>
+      </c>
+      <c r="M71">
         <v>0.45766000000000001</v>
       </c>
-      <c r="N50">
+      <c r="N71">
         <v>0.47489999999999999</v>
       </c>
-      <c r="O50">
-        <v>0.5</v>
-      </c>
-      <c r="P50">
+      <c r="O71">
+        <v>0.5</v>
+      </c>
+      <c r="P71">
         <v>0.48714400000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>21</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B73" s="4">
         <v>0.85940000000000005</v>
       </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6">
+      <c r="C73" s="4">
+        <v>1</v>
+      </c>
+      <c r="D73" s="4">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E73" s="4">
         <v>0.87339999999999995</v>
       </c>
-      <c r="F52" s="6">
-        <v>1</v>
-      </c>
-      <c r="G52" s="6">
+      <c r="F73" s="4">
+        <v>1</v>
+      </c>
+      <c r="G73" s="4">
         <v>0.93230000000000002</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H73" s="4">
         <v>0.84840000000000004</v>
       </c>
-      <c r="I52" s="6">
-        <v>1</v>
-      </c>
-      <c r="J52" s="6">
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" s="4">
         <v>0.91720000000000002</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K73" s="4">
         <v>0.81410000000000005</v>
       </c>
-      <c r="L52" s="6">
-        <v>1</v>
-      </c>
-      <c r="M52" s="6">
+      <c r="L73" s="4">
+        <v>1</v>
+      </c>
+      <c r="M73" s="4">
         <v>0.89710000000000001</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N73" s="4">
         <v>0.97030000000000005</v>
       </c>
-      <c r="O52" s="6">
-        <v>1</v>
-      </c>
-      <c r="P52" s="6">
+      <c r="O73" s="4">
+        <v>1</v>
+      </c>
+      <c r="P73" s="4">
         <v>0.9849</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B74" s="4">
         <v>0.46437</v>
       </c>
-      <c r="C53" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D53">
+      <c r="C74" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D74">
         <v>0.48153200000000002</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E74" s="4">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F53" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="G53" s="6">
+      <c r="F74" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="4">
         <v>0.45479999999999998</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H74" s="4">
         <v>0.43689499999999998</v>
       </c>
-      <c r="I53" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J53" s="6">
+      <c r="I74" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J74" s="4">
         <v>0.46632200000000001</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K74" s="4">
         <v>0.42326900000000001</v>
       </c>
-      <c r="L53" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="M53" s="6">
+      <c r="L74" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M74" s="4">
         <v>0.45844200000000002</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N74" s="4">
         <v>0.47317500000000001</v>
       </c>
-      <c r="O53" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P53" s="6">
+      <c r="O74" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P74" s="4">
         <v>0.48621700000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>23</v>
       </c>
-      <c r="B55">
+      <c r="B76">
         <v>0.93740000000000001</v>
       </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55">
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76">
         <v>0.96750000000000003</v>
       </c>
-      <c r="E55">
+      <c r="E76">
         <v>0.82550000000000001</v>
       </c>
-      <c r="F55" s="6">
-        <v>1</v>
-      </c>
-      <c r="G55">
+      <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76">
         <v>0.90410000000000001</v>
       </c>
-      <c r="H55">
+      <c r="H76">
         <v>0.86429999999999996</v>
       </c>
-      <c r="I55">
-        <v>1</v>
-      </c>
-      <c r="J55">
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
         <v>0.92689999999999995</v>
       </c>
-      <c r="K55">
+      <c r="K76">
         <v>0.84079999999999999</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
         <v>0.91320000000000001</v>
       </c>
-      <c r="N55">
+      <c r="N76">
         <v>0.95530000000000004</v>
       </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="P55">
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
         <v>0.97709999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B56">
+      <c r="B77">
         <v>0.463940193491645</v>
       </c>
-      <c r="C56">
-        <v>0.5</v>
-      </c>
-      <c r="D56">
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77">
         <v>0.48129562043795598</v>
       </c>
-      <c r="E56">
+      <c r="E77">
         <v>0.41754617414248002</v>
       </c>
-      <c r="F56">
-        <v>0.5</v>
-      </c>
-      <c r="G56">
+      <c r="F77">
+        <v>0.5</v>
+      </c>
+      <c r="G77">
         <v>0.455068296189791</v>
       </c>
-      <c r="H56">
+      <c r="H77">
         <v>0.43117</v>
       </c>
-      <c r="I56">
-        <v>0.5</v>
-      </c>
-      <c r="J56">
+      <c r="I77">
+        <v>0.5</v>
+      </c>
+      <c r="J77">
         <v>0.46304000000000001</v>
       </c>
-      <c r="K56">
+      <c r="K77">
         <v>0.41974494283201402</v>
       </c>
-      <c r="L56" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="M56">
+      <c r="L77" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M77">
         <v>0.45637102557972697</v>
       </c>
-      <c r="N56">
+      <c r="N77">
         <v>0.47339489885663999</v>
       </c>
-      <c r="O56">
-        <v>0.5</v>
-      </c>
-      <c r="P56">
+      <c r="O77">
+        <v>0.5</v>
+      </c>
+      <c r="P77">
         <v>0.48633386040207799</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57" s="7"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N58">
-        <v>0.47986000000000001</v>
-      </c>
-      <c r="O58">
-        <v>0.5</v>
-      </c>
-      <c r="P58">
-        <v>0.48971999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+    </row>
+    <row r="80" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N59">
+      <c r="N80">
         <v>0.47420000000000001</v>
       </c>
-      <c r="O59">
-        <v>0.5</v>
-      </c>
-      <c r="P59">
+      <c r="O80">
+        <v>0.5</v>
+      </c>
+      <c r="P80">
         <v>0.48680000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+    <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D60">
+      <c r="D81">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E60">
+      <c r="E81">
         <v>0.44</v>
       </c>
-      <c r="F60">
-        <v>0.5</v>
-      </c>
-      <c r="G60">
+      <c r="F81">
+        <v>0.5</v>
+      </c>
+      <c r="G81">
         <v>0.46</v>
       </c>
-      <c r="H60">
+      <c r="H81">
         <v>0.4</v>
       </c>
-      <c r="I60">
-        <v>0.5</v>
-      </c>
-      <c r="J60">
+      <c r="I81">
+        <v>0.5</v>
+      </c>
+      <c r="J81">
         <v>0.44450000000000001</v>
       </c>
-      <c r="K60">
+      <c r="K81">
         <v>0.4</v>
       </c>
-      <c r="L60">
-        <v>0.5</v>
-      </c>
-      <c r="M60">
+      <c r="L81">
+        <v>0.5</v>
+      </c>
+      <c r="M81">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N60">
+      <c r="N81">
         <v>0.495</v>
       </c>
-      <c r="O60">
-        <v>0.5</v>
-      </c>
-      <c r="P60">
+      <c r="O81">
+        <v>0.5</v>
+      </c>
+      <c r="P81">
         <v>0.497</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="82" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B61">
+      <c r="B82">
         <v>0.46</v>
       </c>
-      <c r="C61">
-        <v>0.5</v>
-      </c>
-      <c r="J61">
+      <c r="C82">
+        <v>0.5</v>
+      </c>
+      <c r="J82">
         <v>0.82650000000000001</v>
       </c>
-      <c r="P61">
+      <c r="P82">
         <v>4.58E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+    <row r="85" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H64">
+      <c r="H85">
         <v>0.86109999999999998</v>
       </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64">
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
         <v>0.92390000000000005</v>
       </c>
-      <c r="N64">
+      <c r="N85">
         <v>0.97850000000000004</v>
       </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
         <v>0.97850000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="86" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H65">
+      <c r="H86">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="I65">
-        <v>0.5</v>
-      </c>
-      <c r="J65" s="12">
+      <c r="I86">
+        <v>0.5</v>
+      </c>
+      <c r="J86" s="10">
         <v>0.11890000000000001</v>
       </c>
-      <c r="N65">
+      <c r="N86">
         <v>2.682E-2</v>
       </c>
-      <c r="O65">
-        <v>0.5</v>
-      </c>
-      <c r="P65">
+      <c r="O86">
+        <v>0.5</v>
+      </c>
+      <c r="P86">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
+    <row r="87" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H66">
+      <c r="H87">
         <v>0.86480000000000001</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
         <v>0.92710000000000004</v>
       </c>
-      <c r="N66">
+      <c r="N87">
         <v>0.94589999999999996</v>
       </c>
-      <c r="O66">
-        <v>1</v>
-      </c>
-      <c r="P66">
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87">
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="88" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H67">
+      <c r="H88">
         <v>0.42671700000000001</v>
       </c>
-      <c r="I67">
+      <c r="I88">
         <v>0.36480000000000001</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J88" s="10">
         <v>0.34300000000000003</v>
       </c>
-      <c r="N67">
+      <c r="N88">
         <v>2.6824899999999999E-2</v>
       </c>
-      <c r="O67">
-        <v>0.5</v>
-      </c>
-      <c r="P67">
+      <c r="O88">
+        <v>0.5</v>
+      </c>
+      <c r="P88">
         <v>5.0917999999999998E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+    <row r="89" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H68">
+      <c r="H89">
         <v>0.86480000000000001</v>
       </c>
-      <c r="I68">
-        <v>1</v>
-      </c>
-      <c r="J68">
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
         <v>0.92710000000000004</v>
       </c>
-      <c r="N68">
+      <c r="N89">
         <v>0.94589999999999996</v>
       </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
+      <c r="O89">
+        <v>1</v>
+      </c>
+      <c r="P89">
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+    <row r="90" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H69">
+      <c r="H90">
         <v>0.43248999999999999</v>
       </c>
-      <c r="I69">
-        <v>0.5</v>
-      </c>
-      <c r="J69" s="12">
+      <c r="I90">
+        <v>0.5</v>
+      </c>
+      <c r="J90" s="10">
         <v>0.46380500000000002</v>
       </c>
-      <c r="N69">
+      <c r="N90">
         <v>0.52680000000000005</v>
       </c>
-      <c r="O69">
-        <v>0.5</v>
-      </c>
-      <c r="P69">
+      <c r="O90">
+        <v>0.5</v>
+      </c>
+      <c r="P90">
         <v>5.1400000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-    </row>
-    <row r="71" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+    <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H91">
+        <v>0.86</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" s="10">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="N91">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H92">
+        <v>0.43660900000000002</v>
+      </c>
+      <c r="I92">
+        <v>0.49656400000000001</v>
+      </c>
+      <c r="J92" s="10">
+        <v>0.12811</v>
+      </c>
+      <c r="N92">
+        <v>0.47537000000000001</v>
+      </c>
+      <c r="O92">
+        <v>0.5</v>
+      </c>
+      <c r="P92">
+        <v>0.48737000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="I93" s="13">
+        <v>1</v>
+      </c>
+      <c r="J93" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="N93">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O93">
+        <v>1</v>
+      </c>
+      <c r="P93">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13">
+        <v>0.57038999999999995</v>
+      </c>
+      <c r="I94" s="13">
+        <v>0.50025500000000001</v>
+      </c>
+      <c r="J94" s="10">
+        <v>0.1239</v>
+      </c>
+      <c r="N94">
+        <v>0.47522999999999999</v>
+      </c>
+      <c r="O94">
+        <v>0.49698999999999999</v>
+      </c>
+      <c r="P94">
+        <v>0.485869</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13">
+        <v>0.8609</v>
+      </c>
+      <c r="I95" s="13">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J95" s="10">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="N95">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="O95">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="P95">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="I96" s="13">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="J96" s="10">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="N96">
+        <v>0.47251500000000002</v>
+      </c>
+      <c r="O96">
+        <v>0.5</v>
+      </c>
+      <c r="P96">
+        <v>0.48586000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+    </row>
+    <row r="98" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
         <v>0.86</v>
       </c>
-      <c r="J71">
+      <c r="J98">
         <v>0.93</v>
       </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
         <v>0.95</v>
       </c>
-      <c r="P71">
+      <c r="P98">
         <v>0.97</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="6" t="s">
+    <row r="99" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H72">
-        <v>0.5</v>
-      </c>
-      <c r="I72">
+      <c r="H99">
+        <v>0.5</v>
+      </c>
+      <c r="I99">
         <v>0.43248999999999999</v>
       </c>
-      <c r="J72">
+      <c r="J99">
         <v>0.46380500000000002</v>
       </c>
-      <c r="N72">
+      <c r="N99">
         <v>0.47316999999999998</v>
       </c>
-      <c r="O72">
-        <v>0.5</v>
-      </c>
-      <c r="P72">
+      <c r="O99">
+        <v>0.5</v>
+      </c>
+      <c r="P99">
         <v>0.48620000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+    <row r="100" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
         <v>0.86</v>
       </c>
-      <c r="J73">
+      <c r="J100">
         <v>0.93</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
         <v>0.95</v>
       </c>
-      <c r="P73">
+      <c r="P100">
         <v>0.97</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="101" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H74">
+      <c r="H101">
         <v>0.43248999999999999</v>
       </c>
-      <c r="I74">
-        <v>0.5</v>
-      </c>
-      <c r="J74">
+      <c r="I101">
+        <v>0.5</v>
+      </c>
+      <c r="J101">
         <v>0.46379999999999999</v>
       </c>
-      <c r="N74">
+      <c r="N101">
         <v>0.47317500000000001</v>
       </c>
-      <c r="O74">
-        <v>0.5</v>
-      </c>
-      <c r="P74">
+      <c r="O101">
+        <v>0.5</v>
+      </c>
+      <c r="P101">
         <v>0.48621700000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+    <row r="102" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>0.86</v>
       </c>
-      <c r="J75">
+      <c r="J102">
         <v>0.93</v>
       </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
+      <c r="N102">
+        <v>1</v>
+      </c>
+      <c r="O102">
         <v>0.95</v>
       </c>
-      <c r="P75">
+      <c r="P102">
         <v>0.97</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+    <row r="103" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H76">
-        <v>0.5</v>
-      </c>
-      <c r="I76">
+      <c r="H103">
+        <v>0.5</v>
+      </c>
+      <c r="I103">
         <v>0.43248999999999999</v>
       </c>
-      <c r="J76">
+      <c r="J103">
         <v>0.46379999999999999</v>
       </c>
-      <c r="N76">
-        <v>0.5</v>
-      </c>
-      <c r="O76">
+      <c r="N103">
+        <v>0.5</v>
+      </c>
+      <c r="O103">
         <v>0.47317500000000001</v>
       </c>
-      <c r="P76">
+      <c r="P103">
         <v>0.48621700000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
-    </row>
-    <row r="78" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+    <row r="104" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0.86</v>
+      </c>
+      <c r="J104">
+        <v>0.92</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0.95</v>
+      </c>
+      <c r="P104">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H105">
+        <v>0.42963899999999999</v>
+      </c>
+      <c r="I105">
+        <v>0.5</v>
+      </c>
+      <c r="J105">
+        <v>0.46215699999999998</v>
+      </c>
+      <c r="N105">
+        <v>0.47537370000000001</v>
+      </c>
+      <c r="O105">
+        <v>0.5</v>
+      </c>
+      <c r="P105">
+        <v>0.48737000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>0.86</v>
+      </c>
+      <c r="J106">
+        <v>0.92</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106">
+        <v>0.95</v>
+      </c>
+      <c r="P106">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H107">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="I107">
+        <v>0.5965608</v>
+      </c>
+      <c r="J107">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="N107">
+        <v>0.5</v>
+      </c>
+      <c r="O107">
+        <v>0.47537299999999999</v>
+      </c>
+      <c r="P107">
+        <v>0.48737599999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0.86</v>
+      </c>
+      <c r="J108">
+        <v>0.93</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>0.95</v>
+      </c>
+      <c r="P108">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H109">
+        <v>0.43051800000000001</v>
+      </c>
+      <c r="I109">
+        <v>0.5</v>
+      </c>
+      <c r="J109">
+        <v>0.46266499999999999</v>
+      </c>
+      <c r="N109">
+        <v>0.47249999999999998</v>
+      </c>
+      <c r="O109">
+        <v>0.5</v>
+      </c>
+      <c r="P109">
+        <v>0.485869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H78">
+      <c r="H111">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
         <v>0.92849999999999999</v>
       </c>
-      <c r="N78">
+      <c r="N111">
         <v>0.94550000000000001</v>
       </c>
-      <c r="O78">
-        <v>1</v>
-      </c>
-      <c r="P78">
+      <c r="O111">
+        <v>1</v>
+      </c>
+      <c r="P111">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+    <row r="112" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H79">
+      <c r="H112">
         <v>0.56646099999999999</v>
       </c>
-      <c r="I79">
+      <c r="I112">
         <v>0.50049999999999994</v>
       </c>
-      <c r="J79">
+      <c r="J112">
         <v>0.11799999999999999</v>
       </c>
-      <c r="N79">
+      <c r="N112">
         <v>0.472943</v>
       </c>
-      <c r="O79">
+      <c r="O112">
         <v>0.49976749999999998</v>
       </c>
-      <c r="P79">
+      <c r="P112">
         <v>0.48595500000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+    <row r="113" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H80">
+      <c r="H113">
         <v>0.97040000000000004</v>
       </c>
-      <c r="I80">
+      <c r="I113">
         <v>0.23930000000000001</v>
       </c>
-      <c r="J80">
+      <c r="J113">
         <v>0.38030000000000003</v>
       </c>
-      <c r="N80">
+      <c r="N113">
         <v>0.94550000000000001</v>
       </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
+      <c r="O113">
+        <v>1</v>
+      </c>
+      <c r="P113">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+    <row r="114" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H81">
+      <c r="H114">
         <v>0.56645999999999996</v>
       </c>
-      <c r="I81">
+      <c r="I114">
         <v>0.50049999999999994</v>
       </c>
-      <c r="J81">
+      <c r="J114">
         <v>0.1183</v>
       </c>
-      <c r="N81">
+      <c r="N114">
         <v>2.7E-2</v>
       </c>
-      <c r="O81">
-        <v>0.5</v>
-      </c>
-      <c r="P81">
+      <c r="O114">
+        <v>0.5</v>
+      </c>
+      <c r="P114">
         <v>0.05</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+    <row r="115" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H82">
+      <c r="H115">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
         <v>0.92849999999999999</v>
       </c>
-      <c r="N82">
+      <c r="N115">
         <v>0.88329999999999997</v>
       </c>
-      <c r="O82">
+      <c r="O115">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="P82">
+      <c r="P115">
         <v>6.7900000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+    <row r="116" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H83">
+      <c r="H116">
         <v>0.43262499999999998</v>
       </c>
-      <c r="I83">
+      <c r="I116">
         <v>0.496166</v>
       </c>
-      <c r="J83">
+      <c r="J116">
         <v>0.12189</v>
       </c>
-      <c r="N83">
+      <c r="N116">
         <v>0.50834000000000001</v>
       </c>
-      <c r="O83">
+      <c r="O116">
         <v>0.50546999999999997</v>
       </c>
-      <c r="P83">
+      <c r="P116">
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+    <row r="117" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
         <v>0.87</v>
       </c>
-      <c r="J84">
+      <c r="J117">
         <v>0.93</v>
       </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117">
         <v>0.95</v>
       </c>
-      <c r="P84">
+      <c r="P117">
         <v>0.97</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    <row r="118" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H85">
+      <c r="H118">
         <v>0.4335</v>
       </c>
-      <c r="I85">
-        <v>0.5</v>
-      </c>
-      <c r="J85">
+      <c r="I118">
+        <v>0.5</v>
+      </c>
+      <c r="J118">
         <v>0.46439999999999998</v>
       </c>
-      <c r="N85">
+      <c r="N118">
         <v>0.47295500000000001</v>
       </c>
-      <c r="O85">
-        <v>0.5</v>
-      </c>
-      <c r="P85">
+      <c r="O118">
+        <v>0.5</v>
+      </c>
+      <c r="P118">
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+    <row r="119" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>0.87</v>
       </c>
-      <c r="J86">
+      <c r="J119">
         <v>0.93</v>
       </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
+      <c r="N119">
+        <v>1</v>
+      </c>
+      <c r="O119">
         <v>0.95</v>
       </c>
-      <c r="P86">
+      <c r="P119">
         <v>0.97</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+    <row r="120" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H87">
+      <c r="H120">
         <v>0.43358999999999998</v>
       </c>
-      <c r="I87">
-        <v>0.5</v>
-      </c>
-      <c r="J87">
+      <c r="I120">
+        <v>0.5</v>
+      </c>
+      <c r="J120">
         <v>0.46443000000000001</v>
       </c>
-      <c r="N87">
+      <c r="N120">
         <v>0.47295500000000001</v>
       </c>
-      <c r="O87">
-        <v>0.5</v>
-      </c>
-      <c r="P87">
+      <c r="O120">
+        <v>0.5</v>
+      </c>
+      <c r="P120">
         <v>0.48609999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
+    <row r="121" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>0.87</v>
       </c>
-      <c r="J88">
+      <c r="J121">
         <v>0.93</v>
       </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
         <v>0.95</v>
       </c>
-      <c r="P88">
+      <c r="P121">
         <v>0.97</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+    <row r="122" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H89">
-        <v>0.5</v>
-      </c>
-      <c r="I89">
+      <c r="H122">
+        <v>0.5</v>
+      </c>
+      <c r="I122">
         <v>0.4335</v>
       </c>
-      <c r="J89">
+      <c r="J122">
         <v>0.46400000000000002</v>
       </c>
-      <c r="N89">
-        <v>0.5</v>
-      </c>
-      <c r="O89">
+      <c r="N122">
+        <v>0.5</v>
+      </c>
+      <c r="O122">
         <v>0.47294999999999998</v>
       </c>
-      <c r="P89">
+      <c r="P122">
         <v>0.48610100000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="6"/>
-    </row>
-    <row r="91" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="4"/>
+    </row>
+    <row r="124" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H91">
+      <c r="H124">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I91">
-        <v>1</v>
-      </c>
-      <c r="J91">
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
         <v>0.92849999999999999</v>
       </c>
-      <c r="N91">
+      <c r="N124">
         <v>0.94550000000000001</v>
       </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
+      <c r="O124">
+        <v>1</v>
+      </c>
+      <c r="P124">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
+    <row r="125" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H92">
+      <c r="H125">
         <v>0.49965300000000001</v>
       </c>
-      <c r="I92">
+      <c r="I125">
         <v>0.49948399999999998</v>
       </c>
-      <c r="J92">
+      <c r="J125">
         <v>0.49312</v>
       </c>
-      <c r="N92">
+      <c r="N125">
         <v>0.472943</v>
       </c>
-      <c r="O92">
+      <c r="O125">
         <v>0.49976700000000002</v>
       </c>
-      <c r="P92">
+      <c r="P125">
         <v>0.485985</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+    <row r="126" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H93">
+      <c r="H126">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
         <v>0.92849999999999999</v>
       </c>
-      <c r="N93">
+      <c r="N126">
         <v>0.94550000000000001</v>
       </c>
-      <c r="O93">
-        <v>1</v>
-      </c>
-      <c r="P93">
+      <c r="O126">
+        <v>1</v>
+      </c>
+      <c r="P126">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+    <row r="127" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H94">
+      <c r="H127">
         <v>0.43359700000000001</v>
       </c>
-      <c r="I94">
-        <v>0.5</v>
-      </c>
-      <c r="J94">
+      <c r="I127">
+        <v>0.5</v>
+      </c>
+      <c r="J127">
         <v>0.46443699999999999</v>
       </c>
-      <c r="N94">
+      <c r="N127">
         <v>0.49086000000000002</v>
       </c>
-      <c r="O94">
+      <c r="O127">
         <v>0.49185000000000001</v>
       </c>
-      <c r="P94">
+      <c r="P127">
         <v>0.49129</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+    <row r="128" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H95">
+      <c r="H128">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
         <v>0.92849999999999999</v>
       </c>
-      <c r="N95">
+      <c r="N128">
         <v>0.94550000000000001</v>
       </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
+      <c r="O128">
+        <v>1</v>
+      </c>
+      <c r="P128">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+    <row r="129" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H96">
+      <c r="H129">
         <v>0.56642999999999999</v>
       </c>
-      <c r="I96">
+      <c r="I129">
         <v>0.50019999999999998</v>
       </c>
-      <c r="J96">
+      <c r="J129">
         <v>0.117788</v>
       </c>
-      <c r="N96">
+      <c r="N129">
         <v>0.47295500000000001</v>
       </c>
-      <c r="O96">
-        <v>0.5</v>
-      </c>
-      <c r="P96">
+      <c r="O129">
+        <v>0.5</v>
+      </c>
+      <c r="P129">
         <v>0.48610100000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+    <row r="130" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H97">
+      <c r="H130">
         <v>0.98</v>
       </c>
-      <c r="I97">
+      <c r="I130">
         <v>0.86</v>
       </c>
-      <c r="J97">
+      <c r="J130">
         <v>0.91</v>
       </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
         <v>0.95</v>
       </c>
-      <c r="P97">
+      <c r="P130">
         <v>0.97</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="6" t="s">
+    <row r="131" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H98">
+      <c r="H131">
         <v>0.51063999999999998</v>
       </c>
-      <c r="I98">
+      <c r="I131">
         <v>0.50104400000000004</v>
       </c>
-      <c r="J98">
+      <c r="J131">
         <v>0.47427999999999998</v>
       </c>
-      <c r="N98">
+      <c r="N131">
         <v>0.47289999999999999</v>
       </c>
-      <c r="O98">
-        <v>0.5</v>
-      </c>
-      <c r="P98">
+      <c r="O131">
+        <v>0.5</v>
+      </c>
+      <c r="P131">
         <v>0.48610100000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+    <row r="132" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H99">
+      <c r="H132">
         <v>0.82</v>
       </c>
-      <c r="I99">
+      <c r="I132">
         <v>0.8</v>
       </c>
-      <c r="J99">
+      <c r="J132">
         <v>0.81</v>
       </c>
-      <c r="N99">
+      <c r="N132">
         <v>0.91</v>
       </c>
-      <c r="O99">
+      <c r="O132">
         <v>0.91</v>
       </c>
-      <c r="P99">
+      <c r="P132">
         <v>0.91</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+    <row r="133" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="H100">
+      <c r="H133">
         <v>0.52729999999999999</v>
       </c>
-      <c r="I100">
+      <c r="I133">
         <v>0.52300000000000002</v>
       </c>
-      <c r="J100">
+      <c r="J133">
         <v>0.52428900000000001</v>
       </c>
-      <c r="N100">
+      <c r="N133">
         <v>0.51158499999999996</v>
       </c>
-      <c r="O100">
+      <c r="O133">
         <v>0.50997000000000003</v>
       </c>
-      <c r="P100">
+      <c r="P133">
         <v>0.51049999999999995</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="134" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H101">
+      <c r="H134">
         <v>0.75</v>
       </c>
-      <c r="I101">
+      <c r="I134">
         <v>0.76</v>
       </c>
-      <c r="J101">
+      <c r="J134">
         <v>0.76</v>
       </c>
-      <c r="N101">
+      <c r="N134">
         <v>0.9</v>
       </c>
-      <c r="O101">
+      <c r="O134">
         <v>0.9</v>
       </c>
-      <c r="P101">
+      <c r="P134">
         <v>0.9</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+    <row r="135" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H102">
+      <c r="H135">
         <v>0.51670000000000005</v>
       </c>
-      <c r="I102">
+      <c r="I135">
         <v>0.51490000000000002</v>
       </c>
-      <c r="J102">
+      <c r="J135">
         <v>0.51500000000000001</v>
       </c>
-      <c r="N102">
+      <c r="N135">
         <v>0.49696000000000001</v>
       </c>
-      <c r="O102">
+      <c r="O135">
         <v>0.49697999999999998</v>
       </c>
-      <c r="P102">
+      <c r="P135">
         <v>0.49697000000000002</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="6"/>
-    </row>
-    <row r="104" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="4"/>
+    </row>
+    <row r="137" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H104">
+      <c r="H137">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N104">
+      <c r="N137">
         <v>0.97909999999999997</v>
       </c>
-      <c r="O104">
-        <v>1</v>
-      </c>
-      <c r="P104">
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
         <v>0.95940000000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+    <row r="138" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H105">
+      <c r="H138">
         <v>0.85799999999999998</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
         <v>0.92310000000000003</v>
       </c>
-      <c r="N105">
+      <c r="N138">
         <v>0.9456</v>
       </c>
-      <c r="O105">
-        <v>1</v>
-      </c>
-      <c r="P105">
+      <c r="O138">
+        <v>1</v>
+      </c>
+      <c r="P138">
         <v>0.9718</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="6" t="s">
+    <row r="139" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H106">
+      <c r="H139">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="I106">
-        <v>0.5</v>
-      </c>
-      <c r="J106">
+      <c r="I139">
+        <v>0.5</v>
+      </c>
+      <c r="J139">
         <v>0.12403</v>
       </c>
-      <c r="N106">
+      <c r="N139">
         <v>0.49685499999999999</v>
       </c>
-      <c r="O106">
+      <c r="O139">
         <v>0.48395460000000001</v>
       </c>
-      <c r="P106">
+      <c r="P139">
         <v>0.40194999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="6"/>
-    </row>
-    <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="4"/>
+    </row>
+    <row r="141" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H108">
+      <c r="H141">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I108">
-        <v>1</v>
-      </c>
-      <c r="J108">
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N108">
+      <c r="N141">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O108">
-        <v>1</v>
-      </c>
-      <c r="P108">
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
         <v>0.92730000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+    <row r="142" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H109">
+      <c r="H142">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I109">
+      <c r="I142">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J109">
+      <c r="J142">
         <v>0.92</v>
       </c>
-      <c r="N109">
+      <c r="N142">
         <v>0.9456</v>
       </c>
-      <c r="O109">
+      <c r="O142">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P109">
+      <c r="P142">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+    <row r="145" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H112">
+      <c r="H145">
         <v>0.47590500000000002</v>
       </c>
-      <c r="I112">
+      <c r="I145">
         <v>0.45176899999999998</v>
       </c>
-      <c r="J112">
+      <c r="J145">
         <v>0.42346400000000001</v>
       </c>
-      <c r="N112">
+      <c r="N145">
         <v>0.49375999999999998</v>
       </c>
-      <c r="O112">
+      <c r="O145">
         <v>0.4869</v>
       </c>
-      <c r="P112">
+      <c r="P145">
         <v>0.48514000000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+    <row r="146" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="6"/>
-    </row>
-    <row r="115" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="4"/>
+    </row>
+    <row r="148" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H115">
+      <c r="H148">
         <v>0.4</v>
       </c>
-      <c r="I115">
-        <v>0.5</v>
-      </c>
-      <c r="J115">
+      <c r="I148">
+        <v>0.5</v>
+      </c>
+      <c r="J148">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N115">
+      <c r="N148">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O115">
+      <c r="O148">
         <v>0.5202</v>
       </c>
-      <c r="P115">
+      <c r="P148">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+    <row r="149" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H116">
+      <c r="H149">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I116">
+      <c r="I149">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J116">
+      <c r="J149">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N116">
-        <v>0.5</v>
-      </c>
-      <c r="O116">
+      <c r="N149">
+        <v>0.5</v>
+      </c>
+      <c r="O149">
         <v>0.34</v>
       </c>
-      <c r="P116">
+      <c r="P149">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -4508,89 +5377,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4688,7 +5557,7 @@
       <c r="O5">
         <v>0.95</v>
       </c>
-      <c r="P5" s="5">
+      <c r="P5" s="3">
         <v>0.97</v>
       </c>
     </row>
@@ -4741,7 +5610,7 @@
       <c r="P6">
         <v>0.12</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4794,13 +5663,13 @@
       <c r="P7">
         <v>0.89</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="R7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4814,7 +5683,7 @@
       <c r="C8">
         <v>0.74</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>0.85</v>
       </c>
       <c r="E8">
@@ -4823,7 +5692,7 @@
       <c r="F8">
         <v>0.75</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <v>0.86</v>
       </c>
       <c r="H8">
@@ -4832,7 +5701,7 @@
       <c r="I8">
         <v>0.6</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -4841,7 +5710,7 @@
       <c r="L8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="3">
         <v>0.61</v>
       </c>
       <c r="N8">
@@ -4850,7 +5719,7 @@
       <c r="O8">
         <v>0.95</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="3">
         <v>0.97</v>
       </c>
       <c r="R8">
@@ -4914,7 +5783,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5014,7 +5883,7 @@
       <c r="O13">
         <v>0.95</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="3">
         <v>0.96</v>
       </c>
     </row>
@@ -5128,7 +5997,7 @@
       <c r="C16">
         <v>0.72</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="3">
         <v>0.83</v>
       </c>
       <c r="E16">
@@ -5137,7 +6006,7 @@
       <c r="F16">
         <v>0.76</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <v>0.86</v>
       </c>
       <c r="H16">
@@ -5146,7 +6015,7 @@
       <c r="I16">
         <v>0.6</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="3">
         <v>0.75</v>
       </c>
       <c r="K16">
@@ -5155,7 +6024,7 @@
       <c r="L16">
         <v>0.53</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="3">
         <v>0.66</v>
       </c>
       <c r="N16">
@@ -5164,7 +6033,7 @@
       <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="3">
         <v>0.97</v>
       </c>
     </row>
@@ -5219,7 +6088,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5319,7 +6188,7 @@
       <c r="O21">
         <v>0.95</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="3">
         <v>0.97</v>
       </c>
     </row>
@@ -5433,7 +6302,7 @@
       <c r="C24">
         <v>0.72</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>0.84</v>
       </c>
       <c r="E24">
@@ -5442,7 +6311,7 @@
       <c r="F24">
         <v>0.77</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <v>0.87</v>
       </c>
       <c r="H24">
@@ -5451,7 +6320,7 @@
       <c r="I24">
         <v>0.6</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="3">
         <v>0.75</v>
       </c>
       <c r="K24">
@@ -5460,7 +6329,7 @@
       <c r="L24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="3">
         <v>0.61</v>
       </c>
       <c r="N24">
@@ -5469,7 +6338,7 @@
       <c r="O24">
         <v>0.95</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="3">
         <v>0.97</v>
       </c>
     </row>
@@ -5524,7 +6393,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5532,49 +6401,49 @@
       <c r="A28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>0.73509999999999998</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="4">
         <v>0.84689999999999999</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="4">
         <v>0.78120000000000001</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>0.99690000000000001</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>0.87519999999999998</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="4">
         <v>0.6321</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4">
         <v>0.7863</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="4">
         <v>0.70030000000000003</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="4">
         <v>0.64419999999999999</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="4">
         <v>0.57950000000000002</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="4">
         <v>0.60840000000000005</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28" s="4">
         <v>0.9476</v>
       </c>
-      <c r="O28" s="6">
-        <v>1</v>
-      </c>
-      <c r="P28" s="6">
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
         <v>0.97309999999999997</v>
       </c>
     </row>
@@ -5582,59 +6451,59 @@
       <c r="A29" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>0.73329999999999995</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="4">
         <v>0.8458</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="4">
         <v>0.80579999999999996</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="4">
         <v>0.8921</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="4">
         <v>0.6321</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="4">
         <v>0.95940000000000003</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="4">
         <v>0.76139999999999997</v>
       </c>
       <c r="K29">
         <v>0.63</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="4">
         <v>0.58330000000000004</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="4">
         <v>0.60309999999999997</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29" s="4">
         <v>0.9476</v>
       </c>
-      <c r="O29" s="6">
-        <v>1</v>
-      </c>
-      <c r="P29" s="6">
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
         <v>0.97309999999999997</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>30</v>
       </c>
       <c r="J37">
@@ -5645,7 +6514,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H38">
@@ -5668,7 +6537,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H39">
@@ -5691,7 +6560,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H40">
@@ -5737,142 +6606,142 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="9" width="25.5703125" style="6" customWidth="1"/>
+    <col min="2" max="9" width="25.5703125" style="4" customWidth="1"/>
     <col min="10" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -5903,56 +6772,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B3">
@@ -5981,7 +6850,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B4">
@@ -6010,7 +6879,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B5">

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="146">
   <si>
     <t>Model</t>
   </si>
@@ -662,6 +662,38 @@
   </si>
   <si>
     <t>Lexical Features with feature selection for predicting the corresponding annotation (Penn Bank)</t>
+  </si>
+  <si>
+    <t>LSTM other variables  =
+Concatenate with Keras
+3 Dense Layers
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>LSTM other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Throughput Variance</t>
+  </si>
+  <si>
+    <t>LSTM other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Throughput Variance
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>LSTM other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by PC Agreement
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>LSTM other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by PC Agreement</t>
   </si>
 </sst>
 </file>
@@ -750,12 +782,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -765,6 +791,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,13 +1146,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T149"/>
+  <dimension ref="A1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O49" sqref="O49"/>
+      <selection pane="bottomRight" activeCell="K145" sqref="K145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,31 +1165,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -3118,527 +3150,527 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
     </row>
     <row r="48" spans="1:16" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="15"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
     </row>
     <row r="49" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13">
         <v>0.73</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="13">
         <v>0.16</v>
       </c>
-      <c r="J49" s="15">
+      <c r="J49" s="13">
         <v>0.08</v>
       </c>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
     </row>
     <row r="50" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13">
         <v>0.48777169999999997</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="13">
         <v>0.49718600000000002</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="13">
         <v>0.15125</v>
       </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
     </row>
     <row r="51" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13">
         <v>0.76</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="13">
         <v>0.77</v>
       </c>
-      <c r="J51" s="15">
+      <c r="J51" s="13">
         <v>0.77</v>
       </c>
-      <c r="K51" s="15"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="15"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
     </row>
     <row r="52" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13">
         <v>0.51959999999999995</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="13">
         <v>0.51919000000000004</v>
       </c>
-      <c r="J52" s="15">
+      <c r="J52" s="13">
         <v>0.51937999999999995</v>
       </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
     </row>
     <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13">
         <v>0.75</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="13">
         <v>0.85</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="13">
         <v>0.79</v>
       </c>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
     </row>
     <row r="54" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15">
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13">
         <v>0.47</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="13">
         <v>0.49871599999999999</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="13">
         <v>0.46318999999999999</v>
       </c>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
     </row>
     <row r="55" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13">
         <v>0.74</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="13">
         <v>0.85</v>
       </c>
-      <c r="J55" s="15">
+      <c r="J55" s="13">
         <v>0.79</v>
       </c>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15">
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13">
         <v>0.46254000000000001</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="13">
         <v>0.49614999999999998</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="13">
         <v>0.46392</v>
       </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
     </row>
     <row r="57" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15">
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13">
         <v>0.73</v>
       </c>
-      <c r="I57" s="15">
+      <c r="I57" s="13">
         <v>0.86</v>
       </c>
-      <c r="J57" s="15">
+      <c r="J57" s="13">
         <v>0.79</v>
       </c>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
     </row>
     <row r="58" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15">
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13">
         <v>0.42853999999999998</v>
       </c>
-      <c r="I58" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J58" s="15">
+      <c r="I58" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="13">
         <v>0.46150000000000002</v>
       </c>
-      <c r="K58" s="15"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="15"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
     </row>
     <row r="59" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15">
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13">
         <v>0.73</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="13">
         <v>0.86</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="13">
         <v>0.79</v>
       </c>
-      <c r="K59" s="15"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="15"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
     </row>
     <row r="60" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15">
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13">
         <v>0.42847000000000002</v>
       </c>
-      <c r="I60" s="15">
+      <c r="I60" s="13">
         <v>0.49948599999999999</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="13">
         <v>0.46126499999999998</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-      <c r="H61" s="15">
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13">
         <v>0.73</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="13">
         <v>0.86</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="13">
         <v>0.79</v>
       </c>
-      <c r="K61" s="15"/>
-      <c r="L61" s="15"/>
-      <c r="M61" s="15"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="14"/>
+      <c r="P61" s="14"/>
     </row>
     <row r="62" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15">
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13">
         <v>0.42853999999999998</v>
       </c>
-      <c r="I62" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J62" s="15">
+      <c r="I62" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J62" s="13">
         <v>0.46150000000000002</v>
       </c>
-      <c r="K62" s="15"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="15"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
     </row>
     <row r="63" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15">
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13">
         <v>0.73</v>
       </c>
-      <c r="I63" s="15">
+      <c r="I63" s="13">
         <v>0.86</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="13">
         <v>0.79</v>
       </c>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15">
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13">
         <v>0.42853999999999998</v>
       </c>
-      <c r="I64" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J64" s="15">
+      <c r="I64" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J64" s="13">
         <v>0.46150000000000002</v>
       </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15">
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13">
         <v>0.73</v>
       </c>
-      <c r="I65" s="15">
+      <c r="I65" s="13">
         <v>0.86</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="13">
         <v>0.79</v>
       </c>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15">
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13">
         <v>0.42853999999999998</v>
       </c>
-      <c r="I66" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="J66" s="15">
+      <c r="I66" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="J66" s="13">
         <v>0.46151999999999999</v>
       </c>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
     </row>
     <row r="67" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="14"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -4221,11 +4253,11 @@
       <c r="A93" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13">
+      <c r="G93" s="11"/>
+      <c r="H93" s="11">
         <v>2.7799999999999998E-2</v>
       </c>
-      <c r="I93" s="13">
+      <c r="I93" s="11">
         <v>1</v>
       </c>
       <c r="J93" s="10">
@@ -4245,11 +4277,11 @@
       <c r="A94" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13">
+      <c r="G94" s="11"/>
+      <c r="H94" s="11">
         <v>0.57038999999999995</v>
       </c>
-      <c r="I94" s="13">
+      <c r="I94" s="11">
         <v>0.50025500000000001</v>
       </c>
       <c r="J94" s="10">
@@ -4269,11 +4301,11 @@
       <c r="A95" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13">
+      <c r="G95" s="11"/>
+      <c r="H95" s="11">
         <v>0.8609</v>
       </c>
-      <c r="I95" s="13">
+      <c r="I95" s="11">
         <v>0.99950000000000006</v>
       </c>
       <c r="J95" s="10">
@@ -4293,11 +4325,11 @@
       <c r="A96" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G96" s="13"/>
-      <c r="H96" s="13">
+      <c r="G96" s="11"/>
+      <c r="H96" s="11">
         <v>0.55859999999999999</v>
       </c>
-      <c r="I96" s="13">
+      <c r="I96" s="11">
         <v>0.61939999999999995</v>
       </c>
       <c r="J96" s="10">
@@ -5178,173 +5210,288 @@
     </row>
     <row r="138" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H138">
-        <v>0.85799999999999998</v>
+        <v>0.47590500000000002</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0.45176899999999998</v>
       </c>
       <c r="J138">
-        <v>0.92310000000000003</v>
+        <v>0.42346400000000001</v>
       </c>
       <c r="N138">
-        <v>0.9456</v>
+        <v>0.49375999999999998</v>
       </c>
       <c r="O138">
-        <v>1</v>
+        <v>0.4869</v>
       </c>
       <c r="P138">
-        <v>0.9718</v>
+        <v>0.48514000000000002</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N139">
+        <v>0.9456</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H139">
+      <c r="H141">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="I139">
-        <v>0.5</v>
-      </c>
-      <c r="J139">
+      <c r="I141">
+        <v>0.5</v>
+      </c>
+      <c r="J141">
         <v>0.12403</v>
       </c>
-      <c r="N139">
+      <c r="N141">
         <v>0.49685499999999999</v>
       </c>
-      <c r="O139">
+      <c r="O141">
         <v>0.48395460000000001</v>
       </c>
-      <c r="P139">
+      <c r="P141">
         <v>0.40194999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A140" s="4"/>
-    </row>
-    <row r="141" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+    <row r="142" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H142">
+        <v>0.8619</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N142">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="O142">
+        <v>1</v>
+      </c>
+      <c r="P142">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H143">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I143">
+        <v>0.5</v>
+      </c>
+      <c r="J143">
+        <v>0.12098</v>
+      </c>
+      <c r="N143">
+        <v>2.5725499999999998E-2</v>
+      </c>
+      <c r="O143">
+        <v>0.5</v>
+      </c>
+      <c r="P143">
+        <v>4.8933499999999998E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H144">
+        <v>0.8619</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N144">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="O144">
+        <v>1</v>
+      </c>
+      <c r="P144">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H145">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="I145">
+        <v>0.5</v>
+      </c>
+      <c r="J145">
+        <v>0.120989</v>
+      </c>
+      <c r="N145">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="O145">
+        <v>0.5</v>
+      </c>
+      <c r="P145">
+        <v>0.120989</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="4"/>
+    </row>
+    <row r="147" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H141">
+      <c r="H147">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I141">
-        <v>1</v>
-      </c>
-      <c r="J141">
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N141">
+      <c r="N147">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-      <c r="P141">
+      <c r="O147">
+        <v>1</v>
+      </c>
+      <c r="P147">
         <v>0.92730000000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H142">
-        <v>0.85750000000000004</v>
-      </c>
-      <c r="I142">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="J142">
-        <v>0.92</v>
-      </c>
-      <c r="N142">
-        <v>0.9456</v>
-      </c>
-      <c r="O142">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="P142">
-        <v>0.97160000000000002</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H145">
-        <v>0.47590500000000002</v>
-      </c>
-      <c r="I145">
-        <v>0.45176899999999998</v>
-      </c>
-      <c r="J145">
-        <v>0.42346400000000001</v>
-      </c>
-      <c r="N145">
-        <v>0.49375999999999998</v>
-      </c>
-      <c r="O145">
-        <v>0.4869</v>
-      </c>
-      <c r="P145">
-        <v>0.48514000000000002</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="4"/>
     </row>
     <row r="148" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H148">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I148">
+        <v>0.5</v>
+      </c>
+      <c r="J148">
+        <v>0.120989</v>
+      </c>
+      <c r="N148">
+        <v>6.8820000000000006E-2</v>
+      </c>
+      <c r="O148">
+        <v>0.5</v>
+      </c>
+      <c r="P148">
+        <v>0.12098</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H149">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="I149">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J149">
+        <v>0.92</v>
+      </c>
+      <c r="N149">
+        <v>0.9456</v>
+      </c>
+      <c r="O149">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P149">
+        <v>0.97160000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A154" s="4"/>
+    </row>
+    <row r="155" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H148">
+      <c r="H155">
         <v>0.4</v>
       </c>
-      <c r="I148">
-        <v>0.5</v>
-      </c>
-      <c r="J148">
+      <c r="I155">
+        <v>0.5</v>
+      </c>
+      <c r="J155">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N148">
+      <c r="N155">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O148">
+      <c r="O155">
         <v>0.5202</v>
       </c>
-      <c r="P148">
+      <c r="P155">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+    <row r="156" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H149">
+      <c r="H156">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I149">
+      <c r="I156">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J149">
+      <c r="J156">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N149">
-        <v>0.5</v>
-      </c>
-      <c r="O149">
+      <c r="N156">
+        <v>0.5</v>
+      </c>
+      <c r="O156">
         <v>0.34</v>
       </c>
-      <c r="P149">
+      <c r="P156">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -5380,31 +5527,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -6614,22 +6761,22 @@
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -6775,22 +6922,22 @@
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -1149,10 +1149,10 @@
   <dimension ref="A1:T156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K145" sqref="K145"/>
+      <selection pane="bottomRight" activeCell="Q144" sqref="Q144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3190,12 +3190,24 @@
       <c r="A49" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
+      <c r="B49" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="D49" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0.09</v>
+      </c>
       <c r="H49" s="13">
         <v>0.73</v>
       </c>
@@ -3205,9 +3217,15 @@
       <c r="J49" s="13">
         <v>0.08</v>
       </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
+      <c r="K49" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="M49" s="13">
+        <v>0.09</v>
+      </c>
       <c r="N49" s="14"/>
       <c r="O49" s="14"/>
       <c r="P49" s="14"/>
@@ -3216,12 +3234,24 @@
       <c r="A50" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
+      <c r="B50" s="13">
+        <v>0.49829000000000001</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.49854130000000002</v>
+      </c>
+      <c r="D50" s="13">
+        <v>0.108975</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0.54259000000000002</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0.50578999999999996</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.16931168999999999</v>
+      </c>
       <c r="H50" s="13">
         <v>0.48777169999999997</v>
       </c>
@@ -3231,9 +3261,15 @@
       <c r="J50" s="13">
         <v>0.15125</v>
       </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
+      <c r="K50" s="13">
+        <v>0.54259000000000002</v>
+      </c>
+      <c r="L50" s="13">
+        <v>0.50579059999999998</v>
+      </c>
+      <c r="M50" s="13">
+        <v>0.16930999999999999</v>
+      </c>
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
       <c r="P50" s="14"/>
@@ -3242,12 +3278,24 @@
       <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
+      <c r="B51" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="D51" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="F51" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="G51" s="13">
+        <v>0.72</v>
+      </c>
       <c r="H51" s="13">
         <v>0.76</v>
       </c>
@@ -3257,9 +3305,15 @@
       <c r="J51" s="13">
         <v>0.77</v>
       </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
+      <c r="K51" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="L51" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="M51" s="13">
+        <v>0.72</v>
+      </c>
       <c r="N51" s="14"/>
       <c r="O51" s="14"/>
       <c r="P51" s="14"/>
@@ -3268,12 +3322,24 @@
       <c r="A52" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
+      <c r="B52" s="13">
+        <v>0.50109899999999996</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0.50117800000000001</v>
+      </c>
+      <c r="D52" s="13">
+        <v>0.50108900000000001</v>
+      </c>
+      <c r="E52" s="13">
+        <v>0.50790900000000005</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.50836300000000001</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.50798900000000002</v>
+      </c>
       <c r="H52" s="13">
         <v>0.51959999999999995</v>
       </c>
@@ -3283,9 +3349,15 @@
       <c r="J52" s="13">
         <v>0.51937999999999995</v>
       </c>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
+      <c r="K52" s="13">
+        <v>0.50790900000000005</v>
+      </c>
+      <c r="L52" s="13">
+        <v>0.50836000000000003</v>
+      </c>
+      <c r="M52" s="13">
+        <v>0.50798900000000002</v>
+      </c>
       <c r="N52" s="14"/>
       <c r="O52" s="14"/>
       <c r="P52" s="14"/>
@@ -3294,12 +3366,24 @@
       <c r="A53" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
+      <c r="B53" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="F53" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="G53" s="13">
+        <v>0.75</v>
+      </c>
       <c r="H53" s="13">
         <v>0.75</v>
       </c>
@@ -3309,9 +3393,15 @@
       <c r="J53" s="13">
         <v>0.79</v>
       </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
+      <c r="K53" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="L53" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="M53" s="13">
+        <v>0.75</v>
+      </c>
       <c r="N53" s="14"/>
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
@@ -3320,12 +3410,24 @@
       <c r="A54" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
+      <c r="B54" s="13">
+        <v>0.52420889999999998</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0.50161900000000004</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0.48951790000000001</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.57055</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.50345499999999999</v>
+      </c>
+      <c r="G54" s="13">
+        <v>0.46418700000000002</v>
+      </c>
       <c r="H54" s="13">
         <v>0.47</v>
       </c>
@@ -3335,9 +3437,15 @@
       <c r="J54" s="13">
         <v>0.46318999999999999</v>
       </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
+      <c r="K54" s="13">
+        <v>0.57055</v>
+      </c>
+      <c r="L54" s="13">
+        <v>0.50345499999999999</v>
+      </c>
+      <c r="M54" s="13">
+        <v>0.46418700000000002</v>
+      </c>
       <c r="N54" s="14"/>
       <c r="O54" s="14"/>
       <c r="P54" s="14"/>
@@ -3346,12 +3454,24 @@
       <c r="A55" t="s">
         <v>79</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="B55" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="G55" s="13">
+        <v>0.75</v>
+      </c>
       <c r="H55" s="13">
         <v>0.74</v>
       </c>
@@ -3361,9 +3481,15 @@
       <c r="J55" s="13">
         <v>0.79</v>
       </c>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
+      <c r="K55" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="L55" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="M55" s="13">
+        <v>0.75</v>
+      </c>
       <c r="N55" s="14"/>
       <c r="O55" s="14"/>
       <c r="P55" s="14"/>
@@ -3372,12 +3498,24 @@
       <c r="A56" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
+      <c r="B56" s="13">
+        <v>0.49792199999999998</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0.49922718999999999</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0.49387449999999999</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0.51712698999999995</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0.50632999999999995</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.49209999999999998</v>
+      </c>
       <c r="H56" s="13">
         <v>0.46254000000000001</v>
       </c>
@@ -3387,9 +3525,15 @@
       <c r="J56" s="13">
         <v>0.46392</v>
       </c>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
+      <c r="K56" s="13">
+        <v>0.51712000000000002</v>
+      </c>
+      <c r="L56" s="13">
+        <v>0.50632999999999995</v>
+      </c>
+      <c r="M56" s="13">
+        <v>0.49214000000000002</v>
+      </c>
       <c r="N56" s="14"/>
       <c r="O56" s="14"/>
       <c r="P56" s="14"/>
@@ -3398,12 +3542,24 @@
       <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
+      <c r="B57" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D57" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="F57" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G57" s="13">
+        <v>0.75</v>
+      </c>
       <c r="H57" s="13">
         <v>0.73</v>
       </c>
@@ -3413,9 +3569,15 @@
       <c r="J57" s="13">
         <v>0.79</v>
       </c>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
+      <c r="K57" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="L57" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M57" s="13">
+        <v>0.75</v>
+      </c>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
       <c r="P57" s="14"/>
@@ -3424,12 +3586,24 @@
       <c r="A58" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
+      <c r="B58" s="13">
+        <v>0.468557</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="13">
+        <v>0.48376799999999998</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.91398999999999997</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0.50127549999999998</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0.45549200000000001</v>
+      </c>
       <c r="H58" s="13">
         <v>0.42853999999999998</v>
       </c>
@@ -3439,9 +3613,15 @@
       <c r="J58" s="13">
         <v>0.46150000000000002</v>
       </c>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
+      <c r="K58" s="13">
+        <v>0.91398999999999997</v>
+      </c>
+      <c r="L58" s="13">
+        <v>0.50119999999999998</v>
+      </c>
+      <c r="M58" s="13">
+        <v>0.45540000000000003</v>
+      </c>
       <c r="N58" s="14"/>
       <c r="O58" s="14"/>
       <c r="P58" s="14"/>
@@ -3450,12 +3630,24 @@
       <c r="A59" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
+      <c r="B59" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D59" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="F59" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="G59" s="13">
+        <v>0.75</v>
+      </c>
       <c r="H59" s="13">
         <v>0.73</v>
       </c>
@@ -3465,9 +3657,15 @@
       <c r="J59" s="13">
         <v>0.79</v>
       </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
+      <c r="K59" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="L59" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="M59" s="13">
+        <v>0.75</v>
+      </c>
       <c r="N59" s="14"/>
       <c r="O59" s="14"/>
       <c r="P59" s="14"/>
@@ -3476,12 +3674,24 @@
       <c r="A60" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
+      <c r="B60" s="13">
+        <v>0.468557</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D60" s="13">
+        <v>0.48376844000000002</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0.50474019999999997</v>
+      </c>
+      <c r="F60" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.45683249999999997</v>
+      </c>
       <c r="H60" s="13">
         <v>0.42847000000000002</v>
       </c>
@@ -3491,9 +3701,15 @@
       <c r="J60" s="13">
         <v>0.46126499999999998</v>
       </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
+      <c r="K60" s="13">
+        <v>0.50473999999999997</v>
+      </c>
+      <c r="L60" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M60" s="13">
+        <v>0.45679999999999998</v>
+      </c>
       <c r="N60" s="14"/>
       <c r="O60" s="14"/>
       <c r="P60" s="14"/>
@@ -3502,12 +3718,24 @@
       <c r="A61" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
+      <c r="B61" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D61" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F61" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.75</v>
+      </c>
       <c r="H61" s="13">
         <v>0.73</v>
       </c>
@@ -3517,9 +3745,15 @@
       <c r="J61" s="13">
         <v>0.79</v>
       </c>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
+      <c r="K61" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="L61" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M61" s="13">
+        <v>0.75</v>
+      </c>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
       <c r="P61" s="14"/>
@@ -3528,12 +3762,24 @@
       <c r="A62" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
+      <c r="B62" s="13">
+        <v>0.46855760000000002</v>
+      </c>
+      <c r="C62" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="13">
+        <v>0.48376844000000002</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0.41380800000000001</v>
+      </c>
+      <c r="F62" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0.45283899999999999</v>
+      </c>
       <c r="H62" s="13">
         <v>0.42853999999999998</v>
       </c>
@@ -3543,9 +3789,15 @@
       <c r="J62" s="13">
         <v>0.46150000000000002</v>
       </c>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
+      <c r="K62" s="13">
+        <v>0.41380800000000001</v>
+      </c>
+      <c r="L62" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M62" s="13">
+        <v>0.45283899999999999</v>
+      </c>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
       <c r="P62" s="14"/>
@@ -3554,12 +3806,24 @@
       <c r="A63" t="s">
         <v>82</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
+      <c r="B63" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D63" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F63" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G63" s="13">
+        <v>0.75</v>
+      </c>
       <c r="H63" s="13">
         <v>0.73</v>
       </c>
@@ -3569,9 +3833,15 @@
       <c r="J63" s="13">
         <v>0.79</v>
       </c>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
+      <c r="K63" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="L63" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M63" s="13">
+        <v>0.75</v>
+      </c>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
@@ -3580,12 +3850,24 @@
       <c r="A64" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
+      <c r="B64" s="13">
+        <v>0.46855760000000002</v>
+      </c>
+      <c r="C64" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0.48376844000000002</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.41380800000000001</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0.45283899999999999</v>
+      </c>
       <c r="H64" s="13">
         <v>0.42853999999999998</v>
       </c>
@@ -3595,9 +3877,15 @@
       <c r="J64" s="13">
         <v>0.46150000000000002</v>
       </c>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
+      <c r="K64" s="13">
+        <v>0.41380800000000001</v>
+      </c>
+      <c r="L64" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M64" s="13">
+        <v>0.45283899999999999</v>
+      </c>
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
@@ -3606,12 +3894,24 @@
       <c r="A65" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
+      <c r="B65" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C65" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D65" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F65" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G65" s="13">
+        <v>0.75</v>
+      </c>
       <c r="H65" s="13">
         <v>0.73</v>
       </c>
@@ -3621,9 +3921,15 @@
       <c r="J65" s="13">
         <v>0.79</v>
       </c>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
+      <c r="K65" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="L65" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M65" s="13">
+        <v>0.75</v>
+      </c>
       <c r="N65" s="14"/>
       <c r="O65" s="14"/>
       <c r="P65" s="14"/>
@@ -3632,12 +3938,24 @@
       <c r="A66" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
+      <c r="B66" s="13">
+        <v>0.46855760000000002</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D66" s="13">
+        <v>0.48376844000000002</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0.41380800000000001</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="13">
+        <v>0.45283899999999999</v>
+      </c>
       <c r="H66" s="13">
         <v>0.42853999999999998</v>
       </c>
@@ -3647,9 +3965,15 @@
       <c r="J66" s="13">
         <v>0.46151999999999999</v>
       </c>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
+      <c r="K66" s="13">
+        <v>0.41380800000000001</v>
+      </c>
+      <c r="L66" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="M66" s="13">
+        <v>0.45283899999999999</v>
+      </c>
       <c r="N66" s="14"/>
       <c r="O66" s="14"/>
       <c r="P66" s="14"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GoodData_Results" sheetId="1" r:id="rId1"/>
-    <sheet name="MessyData_Results" sheetId="2" r:id="rId2"/>
-    <sheet name="GoodData_NGrams" sheetId="3" r:id="rId3"/>
-    <sheet name="GoodData_Pronouns" sheetId="4" r:id="rId4"/>
+    <sheet name="GoodData_Results_MacroF1" sheetId="6" r:id="rId2"/>
+    <sheet name="Lexical Feature Selection" sheetId="5" r:id="rId3"/>
+    <sheet name="GoodData_NGrams" sheetId="3" r:id="rId4"/>
+    <sheet name="GoodData_Pronouns" sheetId="4" r:id="rId5"/>
+    <sheet name="MessyData_Results" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="178">
   <si>
     <t>Model</t>
   </si>
@@ -695,12 +697,109 @@
 3 Dense Layers
 Weighted by PC Agreement</t>
   </si>
+  <si>
+    <t>Feature Selection (Penn Bank)</t>
+  </si>
+  <si>
+    <t>Game Move</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>Num Features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features </t>
+  </si>
+  <si>
+    <t>["'", 'cc rb', 'cc vbd', 'cc vbp', 'in nns', 'in rp', 'in vb', 'jj', 'jj nnp', 'jjs', 'md jj', 'nn.x', 'nn dt', 'nn in in', 'nn prp rb', 'nnp nn in', 'prp dt', 'prp prp $', 'prp vb .', 'prp vbp in', 'prp vbp nn', 'prp vbp prp', 'rb prp $', 'rb prp nn', 'rb rb prp', 'to , rb', 'to , vbp', 'to vbg', 'vb ,', 'vb vbd', 'vbd', 'vbd nn', 'vbg vbg', 'vbp . to', 'vbp dt', '[csubj', '[prep_besides', '[prepc_between', '[prepc_in', 'conj_and\\\\\\\\/or', 'conj_so', 'csubjpass', 'expl', 'prep_above', 'prep_in', 'prep_in_front_of']</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Weighted by Throughput Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted by U-shaped Throughput variance 
+</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables + One Hot Encoding + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t>Weighted by Worktime Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted by Throughput variance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted by Worktime variance </t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables + One Hot Encoding + Random Forests (+Weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base </t>
+  </si>
+  <si>
+    <t>Weighted by Throughput Variance</t>
+  </si>
+  <si>
+    <t>Weighted by Worktime Variance</t>
+  </si>
+  <si>
+    <t>Weighted by Throughput U-shaped Variance</t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Variables + One Hot Encoding + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted by Worktime Average </t>
+  </si>
+  <si>
+    <t>Logistic Regression Other Variables + One Hot Encoding + Logistic Regression (+Weight)</t>
+  </si>
+  <si>
+    <t>K Nearest Neighbours Other Variables + One Hot Encoding + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t>K Nearest Neighbours Other Variables + One Hot Encoding + k Nearest Neighbours (+Weight)</t>
+  </si>
+  <si>
+    <t>LSTM Other Variables + One Hot Encoding + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted by Throughput Variance </t>
+  </si>
+  <si>
+    <t>Weighted by PC Agreement</t>
+  </si>
+  <si>
+    <t>LSTM Other Variables + Keras Concatenate  + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t>LSTM Other Variables + Keras Add  + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t>['.', '. prp', 'cc to', 'in ,', 'in nns', 'jj', 'jj rb', 'jj vbd', 'jj vbp', 'md cc', 'nn dt in', 'nn prp vbp', 'nn vbd', 'nnp jj', 'nnp nnp nnp', 'nns nn', 'prp nn nn', 'prp nnp', 'prp nnp vb', 'prp rp', 'rb in prp', 'rb to', 'rb vbg', 'rbr', 'rp', 'to nn', 'uh', 'vb rb prp', 'vbg in', 'vbp dt', 'wrb', '[number', '[prep_regarding', '[prepc_based_on', '[prepc_out_of', 'acomp', 'amod', 'conj_or', 'conj_so', 'pobj', 'prep_about', 'prep_after', 'prep_except_for', 'prep_in_front_of', 'prep_into', 'prep_next_to', 'prep_to', 'prepc_behind', 'prepc_beyond', 'prepc_close_to', 'prepc_down', 'prepc_like', 'prepc_regarding', 'tmod']</t>
+  </si>
+  <si>
+    <t>['$', '$ .', '$ in', ', vbp', '. jj', 'cc nn', 'cc rb', 'cc to', 'cc vbg', 'dt nn prp', 'dt vbd', 'in nn in', 'in prp in', 'jj md', 'jj vbz', 'md .', 'md in', 'nn in in', 'nn prp $', 'nnp vb', 'nnp vbp', 'prp $ .', 'prp $ in', 'prp dt in', 'prp md', 'prp nn prp', 'prp nnp', 'prp nnp in', 'prp nnp vbp', 'prp vb', 'prp vbp', 'rb rp', 'rp prp', 'to nnp', 'vb prp prp', 'vbd .', 'vbg vb', 'vbp . prp', 'vbp nnp', 'vbz', 'vbz dt', 'vbz prp', 'vbz rb', '[attr', '[aux', '[dep', '[nn', '[nsubj', '[number', '[prep_besides', '[prep_regarding', '[prepc_based_on', '[prepc_between', '[prepc_by', '[prepc_in', '[prepc_out_of', 'abbrev', 'conj_as', 'conj_or', 'det', 'prep_about', 'prep_as', 'prep_from', 'prep_in_addition_to', 'prep_including', 'prep_notwithstanding', 'prep_starting', 'prepc_because', 'prepc_beyond', 'prepc_close_to', 'prepc_down', 'prepc_like', 'prepc_off', 'prepc_regarding', 'prt']</t>
+  </si>
+  <si>
+    <t>[', nns', '. nnp', '. vbz', 'cc.x', 'cc nn', 'cc nnp', 'cc to', 'dt ,', 'in', 'in .', 'in dt nn', 'in prp $', 'in vbz', 'nn ,', 'nn prp vbp', 'nn rb prp', 'nnp nnp nnp', 'nnp nns', 'prp nnp vb', 'rb in prp', 'rb prp prp', 'rb vbz', 'rbr', 'vb ,', 'vb prp prp', 'vb to', 'vbd .', 'vbd rb', 'vbp dt', '[conj_but', '[neg', '[parataxis', '[prep_regarding', '[prepc_between', 'abbrev', 'advmod', 'ccomp', 'nn.y', 'prep_above', 'prep_including', 'prep_like', 'prepc_besides', 'prepc_for', 'prepc_out', 'prepc_regarding', 'prepc_since', 'prepc_through', 'prepc_to']</t>
+  </si>
+  <si>
+    <t>['$ vbp', ',', '. cc', '. jj', '. to', 'cc to', 'cc vbp', 'dt jj', 'in to', 'in vb', 'jj nns', 'md .', 'md to', 'nn prp $', 'nn prp rb', 'nn rb prp', 'nn vbn', 'nn vbp', 'nnp nnp nnp', 'nnp nns', 'nnp vbn', 'prp .', 'prp nn prp', 'prp rb prp', 'prp vbp', 'rb prp $', 'rb prp prp', 'rp', 'to ,', 'uh', 'vb in', 'vb rb prp', 'vb vbg', 'vbg in', 'vbp jj', 'vbp to', 'vbz .', '[conj_and', '[nsubjpass', '[number', '[parataxis', '[prep_between', '[prep_my', '[prepc_based_on', '[prepc_by', 'abbrev', 'conj_and\\\\\\\\/or', 'conj_nor', 'nn.y', 'prep_about', 'prep_from', 'prep_incompatible', 'prep_near', 'prep_starting', 'prepc_against', 'prepc_at', 'prepc_because', 'prepc_close_to', 'prepc_down', 'prepc_off', 'prepc_out_of', 'prepc_regarding', 'prepc_than', 'prepc_through']</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -730,6 +829,19 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -764,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,6 +910,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,11 +1279,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B136" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q144" sqref="Q144"/>
+      <selection pane="bottomRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,9 +3357,15 @@
       <c r="M49" s="13">
         <v>0.09</v>
       </c>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
+      <c r="N49" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="O49" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="P49" s="14">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="50" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -3270,9 +3407,15 @@
       <c r="M50" s="13">
         <v>0.16930999999999999</v>
       </c>
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
+      <c r="N50" s="14">
+        <v>0.505</v>
+      </c>
+      <c r="O50" s="14">
+        <v>0.51080000000000003</v>
+      </c>
+      <c r="P50" s="14">
+        <v>0.146949</v>
+      </c>
     </row>
     <row r="51" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3314,9 +3457,15 @@
       <c r="M51" s="13">
         <v>0.72</v>
       </c>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
+      <c r="N51" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="O51" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="P51" s="14">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="52" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -3358,9 +3507,15 @@
       <c r="M52" s="13">
         <v>0.50798900000000002</v>
       </c>
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
+      <c r="N52" s="14">
+        <v>0.51315599999999995</v>
+      </c>
+      <c r="O52" s="14">
+        <v>0.51249</v>
+      </c>
+      <c r="P52" s="14">
+        <v>0.51279600000000003</v>
+      </c>
     </row>
     <row r="53" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
@@ -3402,9 +3557,15 @@
       <c r="M53" s="13">
         <v>0.75</v>
       </c>
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
+      <c r="N53" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O53" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P53" s="14">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="54" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -3446,9 +3607,15 @@
       <c r="M54" s="13">
         <v>0.46418700000000002</v>
       </c>
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
+      <c r="N54" s="14">
+        <v>0.475132</v>
+      </c>
+      <c r="O54" s="14">
+        <v>0.49953700000000001</v>
+      </c>
+      <c r="P54" s="14">
+        <v>0.48702899999999999</v>
+      </c>
     </row>
     <row r="55" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -3490,9 +3657,15 @@
       <c r="M55" s="13">
         <v>0.75</v>
       </c>
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
+      <c r="N55" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="O55" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="P55" s="14">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="56" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -3534,9 +3707,15 @@
       <c r="M56" s="13">
         <v>0.49214000000000002</v>
       </c>
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
+      <c r="N56" s="14">
+        <v>0.55511200000000005</v>
+      </c>
+      <c r="O56" s="14">
+        <v>0.54435999999999996</v>
+      </c>
+      <c r="P56" s="14">
+        <v>0.54882699999999995</v>
+      </c>
     </row>
     <row r="57" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -3578,9 +3757,15 @@
       <c r="M57" s="13">
         <v>0.75</v>
       </c>
-      <c r="N57" s="14"/>
-      <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
+      <c r="N57" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O57" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P57" s="14">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="58" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -3622,9 +3807,15 @@
       <c r="M58" s="13">
         <v>0.45540000000000003</v>
       </c>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
+      <c r="N58" s="14">
+        <v>0.47515390000000002</v>
+      </c>
+      <c r="O58" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P58" s="14">
+        <v>0.48726000000000003</v>
+      </c>
     </row>
     <row r="59" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -3666,9 +3857,15 @@
       <c r="M59" s="13">
         <v>0.75</v>
       </c>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="14"/>
+      <c r="N59" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O59" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P59" s="14">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="60" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
@@ -3710,9 +3907,15 @@
       <c r="M60" s="13">
         <v>0.45679999999999998</v>
       </c>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="14"/>
+      <c r="N60" s="14">
+        <v>0.47515390000000002</v>
+      </c>
+      <c r="O60" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P60" s="14">
+        <v>0.48726000000000003</v>
+      </c>
     </row>
     <row r="61" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -3754,9 +3957,15 @@
       <c r="M61" s="13">
         <v>0.75</v>
       </c>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
+      <c r="N61" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O61" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P61" s="14">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="62" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
@@ -3798,9 +4007,15 @@
       <c r="M62" s="13">
         <v>0.45283899999999999</v>
       </c>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
+      <c r="N62" s="14">
+        <v>0.47515390000000002</v>
+      </c>
+      <c r="O62" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P62" s="14">
+        <v>0.48726000000000003</v>
+      </c>
     </row>
     <row r="63" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -3842,9 +4057,15 @@
       <c r="M63" s="13">
         <v>0.75</v>
       </c>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
+      <c r="N63" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O63" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P63" s="14">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="64" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
@@ -3886,9 +4107,15 @@
       <c r="M64" s="13">
         <v>0.45283899999999999</v>
       </c>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
+      <c r="N64" s="14">
+        <v>0.47515390000000002</v>
+      </c>
+      <c r="O64" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P64" s="14">
+        <v>0.48726000000000003</v>
+      </c>
     </row>
     <row r="65" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -3930,9 +4157,15 @@
       <c r="M65" s="13">
         <v>0.75</v>
       </c>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
+      <c r="N65" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O65" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P65" s="14">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="66" spans="1:16" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
@@ -3974,9 +4207,15 @@
       <c r="M66" s="13">
         <v>0.45283899999999999</v>
       </c>
-      <c r="N66" s="14"/>
-      <c r="O66" s="14"/>
-      <c r="P66" s="14"/>
+      <c r="N66" s="14">
+        <v>0.47515390000000002</v>
+      </c>
+      <c r="O66" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P66" s="14">
+        <v>0.48726000000000003</v>
+      </c>
     </row>
     <row r="67" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
@@ -5834,1224 +6073,2964 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="2" max="1025" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="11" customWidth="1"/>
+    <col min="2" max="1025" width="8.42578125" style="11" customWidth="1"/>
+    <col min="1026" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="1"/>
+      <c r="R2" s="20"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="R3" s="20"/>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="R4" s="20"/>
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="O7" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="P7" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="R7" s="20"/>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="J8" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+    </row>
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="J9" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="L10" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.98</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0.34</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="O15" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.65</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.97</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="I23" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.53</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0.48</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="E24" s="8">
         <v>0.63</v>
       </c>
-      <c r="C4">
+      <c r="F24" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="J25" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P25" s="8">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.7</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="G26" s="8">
         <v>0.72</v>
       </c>
-      <c r="D4">
-        <v>0.61</v>
-      </c>
-      <c r="E4">
+      <c r="H26" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="J26" s="8">
         <v>0.75</v>
       </c>
-      <c r="F4">
+      <c r="K26" s="8">
+        <v>0.66</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="M26" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P26" s="8">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.12</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.11</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.18</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.08</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.17</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.09</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0.94</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="P29" s="8">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="11">
+        <v>0.88</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.89</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.76</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="J32" s="11">
         <v>0.78</v>
       </c>
-      <c r="G4">
+      <c r="K32" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="N32" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O32" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="P32" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K33" s="11">
         <v>0.73</v>
       </c>
-      <c r="H4">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="I4">
-        <v>0.6</v>
-      </c>
-      <c r="J4">
-        <v>0.53</v>
-      </c>
-      <c r="K4">
-        <v>0.59</v>
-      </c>
-      <c r="L4">
-        <v>0.59</v>
-      </c>
-      <c r="M4">
-        <v>0.59</v>
-      </c>
-      <c r="N4">
+      <c r="L33" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O33" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0.94</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D34" s="11">
         <v>0.9</v>
       </c>
-      <c r="O4">
+      <c r="E34" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P34" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="N35" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O35" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P35" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.85</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="N36" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O36" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P36" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="G37" s="11">
+        <v>0.77</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J37" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0.73</v>
+      </c>
+      <c r="L37" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="M37" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O37" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P37" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16" s="13" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.11</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="J40" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="K40" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="N40" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="O40" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="P40" s="14">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="D41" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="F41" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0.76</v>
+      </c>
+      <c r="I41" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="J41" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="L41" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="M41" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="N41" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="O41" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="P41" s="14">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="F42" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="G42" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H42" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="I42" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="J42" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K42" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="L42" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="M42" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N42" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O42" s="14">
         <v>0.95</v>
       </c>
-      <c r="P4">
+      <c r="P42" s="14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C43" s="13">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
+      <c r="D43" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="F43" s="13">
         <v>0.79</v>
       </c>
-      <c r="C5">
-        <v>0.67</v>
-      </c>
-      <c r="D5">
+      <c r="G43" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="I43" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="J43" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K43" s="13">
         <v>0.72</v>
       </c>
-      <c r="E5">
+      <c r="L43" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="M43" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N43" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="O43" s="14">
+        <v>0.92</v>
+      </c>
+      <c r="P43" s="14">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D44" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E44" s="13">
         <v>0.86</v>
       </c>
-      <c r="F5">
+      <c r="F44" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="J44" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K44" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="L44" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M44" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N44" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O44" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P44" s="14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D45" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="I45" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="J45" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="L45" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="M45" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N45" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O45" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P45" s="14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F46" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G46" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H46" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K46" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="L46" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M46" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N46" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O46" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P46" s="14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D47" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H47" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="I47" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K47" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="L47" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M47" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N47" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O47" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P47" s="14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D48" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="G48" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H48" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="I48" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="J48" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="K48" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="L48" s="13">
+        <v>0.83</v>
+      </c>
+      <c r="M48" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="N48" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="O48" s="14">
+        <v>0.95</v>
+      </c>
+      <c r="P48" s="14">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="24">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="C52" s="24">
+        <v>1</v>
+      </c>
+      <c r="D52" s="24">
+        <v>0.9536</v>
+      </c>
+      <c r="E52" s="24">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="F52" s="24">
+        <v>1</v>
+      </c>
+      <c r="G52" s="24">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="H52" s="24">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="I52" s="24">
+        <v>1</v>
+      </c>
+      <c r="J52" s="24">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="K52" s="24">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="L52" s="24">
+        <v>1</v>
+      </c>
+      <c r="M52" s="24">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="N52" s="24">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="O52" s="24">
+        <v>1</v>
+      </c>
+      <c r="P52" s="24">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="24">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1</v>
+      </c>
+      <c r="D54" s="24">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E54" s="24">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="F54" s="24">
+        <v>1</v>
+      </c>
+      <c r="G54" s="24">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H54" s="24">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I54" s="24">
+        <v>1</v>
+      </c>
+      <c r="J54" s="24">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="K54" s="24">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="L54" s="24">
+        <v>1</v>
+      </c>
+      <c r="M54" s="24">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N54" s="24">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="O54" s="24">
+        <v>1</v>
+      </c>
+      <c r="P54" s="24">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="11">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="C56" s="24">
+        <v>1</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="F56" s="24">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1</v>
+      </c>
+      <c r="J56" s="11">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="L56" s="11">
+        <v>1</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="O56" s="11">
+        <v>1</v>
+      </c>
+      <c r="P56" s="11">
+        <v>0.97709999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="I61" s="11">
+        <v>1</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="N61" s="11">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="O61" s="11">
+        <v>1</v>
+      </c>
+      <c r="P61" s="11">
+        <v>0.97850000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I62" s="11">
+        <v>1</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N62" s="11">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O62" s="11">
+        <v>1</v>
+      </c>
+      <c r="P62" s="11">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="11">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I63" s="11">
+        <v>1</v>
+      </c>
+      <c r="J63" s="11">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N63" s="11">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O63" s="11">
+        <v>1</v>
+      </c>
+      <c r="P63" s="11">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="I64" s="11">
+        <v>1</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O64" s="11">
+        <v>1</v>
+      </c>
+      <c r="P64" s="11">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="N65" s="11">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O65" s="11">
+        <v>1</v>
+      </c>
+      <c r="P65" s="11">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="11">
+        <v>0.8609</v>
+      </c>
+      <c r="I66" s="11">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J66" s="11">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="N66" s="11">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="O66" s="11">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="P66" s="11">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+    </row>
+    <row r="68" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" s="11">
+        <v>1</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N69" s="11">
+        <v>1</v>
+      </c>
+      <c r="O69" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P69" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H70" s="11">
+        <v>1</v>
+      </c>
+      <c r="I70" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J70" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N70" s="11">
+        <v>1</v>
+      </c>
+      <c r="O70" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P70" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H71" s="11">
+        <v>1</v>
+      </c>
+      <c r="I71" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J71" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N71" s="11">
+        <v>1</v>
+      </c>
+      <c r="O71" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P71" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" s="11">
+        <v>1</v>
+      </c>
+      <c r="I72" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J72" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="N72" s="11">
+        <v>1</v>
+      </c>
+      <c r="O72" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P72" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H73" s="11">
+        <v>1</v>
+      </c>
+      <c r="I73" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J73" s="11">
+        <v>0.92</v>
+      </c>
+      <c r="N73" s="11">
+        <v>1</v>
+      </c>
+      <c r="O73" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P73" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H74" s="11">
+        <v>1</v>
+      </c>
+      <c r="I74" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J74" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N74" s="11">
+        <v>1</v>
+      </c>
+      <c r="O74" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P74" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+    </row>
+    <row r="76" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H77" s="11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I77" s="11">
+        <v>1</v>
+      </c>
+      <c r="J77" s="11">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N77" s="11">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O77" s="11">
+        <v>1</v>
+      </c>
+      <c r="P77" s="11">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="I78" s="11">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="J78" s="11">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="N78" s="11">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O78" s="11">
+        <v>1</v>
+      </c>
+      <c r="P78" s="11">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H79" s="11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I79" s="11">
+        <v>1</v>
+      </c>
+      <c r="J79" s="11">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N79" s="11">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="O79" s="11">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="P79" s="11">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+    </row>
+    <row r="81" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="H82" s="11">
+        <v>1</v>
+      </c>
+      <c r="I82" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="J82" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N82" s="11">
+        <v>1</v>
+      </c>
+      <c r="O82" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P82" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H83" s="11">
+        <v>1</v>
+      </c>
+      <c r="I83" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="J83" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N83" s="11">
+        <v>1</v>
+      </c>
+      <c r="O83" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P83" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H84" s="11">
+        <v>1</v>
+      </c>
+      <c r="I84" s="11">
+        <v>0.87</v>
+      </c>
+      <c r="J84" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="N84" s="11">
+        <v>1</v>
+      </c>
+      <c r="O84" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P84" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+    </row>
+    <row r="86" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H87" s="11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I87" s="11">
+        <v>1</v>
+      </c>
+      <c r="J87" s="11">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N87" s="11">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O87" s="11">
+        <v>1</v>
+      </c>
+      <c r="P87" s="11">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I88" s="11">
+        <v>1</v>
+      </c>
+      <c r="J88" s="11">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O88" s="11">
+        <v>1</v>
+      </c>
+      <c r="P88" s="11">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H89" s="11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I89" s="11">
+        <v>1</v>
+      </c>
+      <c r="J89" s="11">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N89" s="11">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O89" s="11">
+        <v>1</v>
+      </c>
+      <c r="P89" s="11">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+    </row>
+    <row r="91" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0.98</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0.86</v>
+      </c>
+      <c r="J92" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="N92" s="11">
+        <v>1</v>
+      </c>
+      <c r="O92" s="11">
+        <v>0.95</v>
+      </c>
+      <c r="P92" s="11">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H93" s="11">
+        <v>0.82</v>
+      </c>
+      <c r="I93" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="J93" s="11">
+        <v>0.81</v>
+      </c>
+      <c r="N93" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="O93" s="11">
+        <v>0.91</v>
+      </c>
+      <c r="P93" s="11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H94" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I94" s="11">
         <v>0.76</v>
       </c>
-      <c r="G5">
-        <v>0.8</v>
-      </c>
-      <c r="H5">
-        <v>0.59</v>
-      </c>
-      <c r="I5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J5">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K5">
-        <v>0.53</v>
-      </c>
-      <c r="L5">
-        <v>0.53</v>
-      </c>
-      <c r="M5">
-        <v>0.53</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0.95</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.64</v>
-      </c>
-      <c r="C6">
-        <v>0.63</v>
-      </c>
-      <c r="D6">
-        <v>0.63</v>
-      </c>
-      <c r="E6">
-        <v>0.68</v>
-      </c>
-      <c r="F6">
-        <v>0.69</v>
-      </c>
-      <c r="G6">
-        <v>0.68</v>
-      </c>
-      <c r="H6">
-        <v>0.61</v>
-      </c>
-      <c r="I6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="J6">
-        <v>0.59</v>
-      </c>
-      <c r="K6">
-        <v>0.6</v>
-      </c>
-      <c r="L6">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N6">
-        <v>0.8</v>
-      </c>
-      <c r="O6">
-        <v>0.2</v>
-      </c>
-      <c r="P6">
-        <v>0.12</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0.6</v>
-      </c>
-      <c r="C7">
-        <v>0.6</v>
-      </c>
-      <c r="D7">
-        <v>0.6</v>
-      </c>
-      <c r="E7">
-        <v>0.67</v>
-      </c>
-      <c r="F7">
-        <v>0.67</v>
-      </c>
-      <c r="G7">
-        <v>0.67</v>
-      </c>
-      <c r="H7">
-        <v>0.54</v>
-      </c>
-      <c r="I7">
-        <v>0.54</v>
-      </c>
-      <c r="J7">
-        <v>0.54</v>
-      </c>
-      <c r="K7">
-        <v>0.52</v>
-      </c>
-      <c r="L7">
-        <v>0.52</v>
-      </c>
-      <c r="M7">
-        <v>0.52</v>
-      </c>
-      <c r="N7">
-        <v>0.89</v>
-      </c>
-      <c r="O7">
-        <v>0.89</v>
-      </c>
-      <c r="P7">
-        <v>0.89</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0.74</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.75</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K8">
-        <v>0.73</v>
-      </c>
-      <c r="L8">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0.95</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0.97</v>
-      </c>
-      <c r="R8">
+      <c r="J94" s="11">
         <v>0.76</v>
       </c>
-      <c r="S8">
-        <v>0.75</v>
-      </c>
-      <c r="T8">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.62</v>
-      </c>
-      <c r="C9">
-        <v>0.7</v>
-      </c>
-      <c r="D9">
-        <v>0.59</v>
-      </c>
-      <c r="E9">
-        <v>0.74</v>
-      </c>
-      <c r="F9">
-        <v>0.78</v>
-      </c>
-      <c r="G9">
-        <v>0.73</v>
-      </c>
-      <c r="H9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I9">
-        <v>0.6</v>
-      </c>
-      <c r="J9">
-        <v>0.53</v>
-      </c>
-      <c r="K9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M9">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N9">
-        <v>0.91</v>
-      </c>
-      <c r="O9">
-        <v>0.95</v>
-      </c>
-      <c r="P9">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0.52</v>
-      </c>
-      <c r="C12">
-        <v>0.72</v>
-      </c>
-      <c r="D12">
-        <v>0.6</v>
-      </c>
-      <c r="E12">
-        <v>0.59</v>
-      </c>
-      <c r="F12">
-        <v>0.75</v>
-      </c>
-      <c r="G12">
-        <v>0.65</v>
-      </c>
-      <c r="H12">
-        <v>0.53</v>
-      </c>
-      <c r="I12">
-        <v>0.61</v>
-      </c>
-      <c r="J12">
-        <v>0.47</v>
-      </c>
-      <c r="K12">
-        <v>0.52</v>
-      </c>
-      <c r="L12">
-        <v>0.52</v>
-      </c>
-      <c r="M12">
-        <v>0.51</v>
-      </c>
-      <c r="N12">
-        <v>0.91</v>
-      </c>
-      <c r="O12">
-        <v>0.95</v>
-      </c>
-      <c r="P12">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.76</v>
-      </c>
-      <c r="C13">
-        <v>0.66</v>
-      </c>
-      <c r="D13">
-        <v>0.7</v>
-      </c>
-      <c r="E13">
-        <v>0.89</v>
-      </c>
-      <c r="F13">
-        <v>0.72</v>
-      </c>
-      <c r="G13">
-        <v>0.79</v>
-      </c>
-      <c r="H13">
-        <v>0.61</v>
-      </c>
-      <c r="I13">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K13">
-        <v>0.51</v>
-      </c>
-      <c r="L13">
-        <v>0.51</v>
-      </c>
-      <c r="M13">
-        <v>0.51</v>
-      </c>
-      <c r="N13">
-        <v>0.99</v>
-      </c>
-      <c r="O13">
-        <v>0.95</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.85</v>
-      </c>
-      <c r="C14">
-        <v>0.69</v>
-      </c>
-      <c r="D14">
-        <v>0.76</v>
-      </c>
-      <c r="E14">
-        <v>0.81</v>
-      </c>
-      <c r="F14">
-        <v>0.73</v>
-      </c>
-      <c r="G14">
-        <v>0.76</v>
-      </c>
-      <c r="H14">
-        <v>0.81</v>
-      </c>
-      <c r="I14">
-        <v>0.59</v>
-      </c>
-      <c r="J14">
-        <v>0.66</v>
-      </c>
-      <c r="K14">
-        <v>0.79</v>
-      </c>
-      <c r="L14">
-        <v>0.51</v>
-      </c>
-      <c r="M14">
-        <v>0.6</v>
-      </c>
-      <c r="N14">
-        <v>0.97</v>
-      </c>
-      <c r="O14">
-        <v>0.06</v>
-      </c>
-      <c r="P14">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.81</v>
-      </c>
-      <c r="C15">
-        <v>0.68</v>
-      </c>
-      <c r="D15">
-        <v>0.73</v>
-      </c>
-      <c r="E15">
-        <v>0.84</v>
-      </c>
-      <c r="F15">
-        <v>0.72</v>
-      </c>
-      <c r="G15">
-        <v>0.77</v>
-      </c>
-      <c r="H15">
-        <v>0.64</v>
-      </c>
-      <c r="I15">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J15">
-        <v>0.59</v>
-      </c>
-      <c r="K15">
-        <v>0.53</v>
-      </c>
-      <c r="L15">
-        <v>0.52</v>
-      </c>
-      <c r="M15">
-        <v>0.52</v>
-      </c>
-      <c r="N15">
-        <v>0.98</v>
-      </c>
-      <c r="O15">
-        <v>0.96</v>
-      </c>
-      <c r="P15">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0.72</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.83</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.76</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0.86</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0.6</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K16">
-        <v>0.94</v>
-      </c>
-      <c r="L16">
-        <v>0.53</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0.66</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0.95</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.52</v>
-      </c>
-      <c r="C17">
-        <v>0.72</v>
-      </c>
-      <c r="D17">
-        <v>0.6</v>
-      </c>
-      <c r="E17">
-        <v>0.76</v>
-      </c>
-      <c r="F17">
-        <v>0.78</v>
-      </c>
-      <c r="G17">
-        <v>0.68</v>
-      </c>
-      <c r="H17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="I17">
-        <v>0.6</v>
-      </c>
-      <c r="J17">
-        <v>0.47</v>
-      </c>
-      <c r="K17">
-        <v>0.52</v>
-      </c>
-      <c r="L17">
-        <v>0.52</v>
-      </c>
-      <c r="M17">
+      <c r="N94" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="O94" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="P94" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+    </row>
+    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H97" s="11">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I97" s="11">
+        <v>1</v>
+      </c>
+      <c r="J97" s="11">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N97" s="11">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O97" s="11">
+        <v>1</v>
+      </c>
+      <c r="P97" s="11">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I98" s="11">
+        <v>1</v>
+      </c>
+      <c r="J98" s="11">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0.9456</v>
+      </c>
+      <c r="O98" s="11">
+        <v>1</v>
+      </c>
+      <c r="P98" s="11">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H99" s="11">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I99" s="11">
         <v>0.5</v>
       </c>
-      <c r="N17">
-        <v>0.89</v>
-      </c>
-      <c r="O17">
-        <v>0.95</v>
-      </c>
-      <c r="P17">
+      <c r="J99" s="11">
+        <v>0.12403</v>
+      </c>
+      <c r="N99" s="11">
+        <v>0.49685499999999999</v>
+      </c>
+      <c r="O99" s="11">
+        <v>0.48395460000000001</v>
+      </c>
+      <c r="P99" s="11">
+        <v>0.40194999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0.8619</v>
+      </c>
+      <c r="I100" s="11">
+        <v>1</v>
+      </c>
+      <c r="J100" s="11">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N100" s="11">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="O100" s="11">
+        <v>1</v>
+      </c>
+      <c r="P100" s="11">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="H101" s="11">
+        <v>0.8619</v>
+      </c>
+      <c r="I101" s="11">
+        <v>1</v>
+      </c>
+      <c r="J101" s="11">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N101" s="11">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="O101" s="11">
+        <v>1</v>
+      </c>
+      <c r="P101" s="11">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+    </row>
+    <row r="103" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H104" s="11">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I104" s="11">
+        <v>1</v>
+      </c>
+      <c r="J104" s="11">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N104" s="11">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O104" s="11">
+        <v>1</v>
+      </c>
+      <c r="P104" s="11">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+    </row>
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" s="11">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="I107" s="11">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J107" s="11">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>0.61</v>
-      </c>
-      <c r="C20">
-        <v>0.71</v>
-      </c>
-      <c r="D20">
-        <v>0.6</v>
-      </c>
-      <c r="E20">
-        <v>0.74</v>
-      </c>
-      <c r="F20">
-        <v>0.77</v>
-      </c>
-      <c r="G20">
-        <v>0.72</v>
-      </c>
-      <c r="H20">
-        <v>0.54</v>
-      </c>
-      <c r="I20">
-        <v>0.59</v>
-      </c>
-      <c r="J20">
-        <v>0.51</v>
-      </c>
-      <c r="K20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M20">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N20">
-        <v>0.89</v>
-      </c>
-      <c r="O20">
-        <v>0.95</v>
-      </c>
-      <c r="P20">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21">
-        <v>0.79</v>
-      </c>
-      <c r="C21">
-        <v>0.67</v>
-      </c>
-      <c r="D21">
-        <v>0.72</v>
-      </c>
-      <c r="E21">
-        <v>0.85</v>
-      </c>
-      <c r="F21">
-        <v>0.73</v>
-      </c>
-      <c r="G21">
-        <v>0.78</v>
-      </c>
-      <c r="H21">
-        <v>0.59</v>
-      </c>
-      <c r="I21">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J21">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="K21">
-        <v>0.54</v>
-      </c>
-      <c r="L21">
-        <v>0.53</v>
-      </c>
-      <c r="M21">
-        <v>0.54</v>
-      </c>
-      <c r="N21">
-        <v>0.99</v>
-      </c>
-      <c r="O21">
-        <v>0.95</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>0.68</v>
-      </c>
-      <c r="C22">
-        <v>0.65</v>
-      </c>
-      <c r="D22">
-        <v>0.66</v>
-      </c>
-      <c r="E22">
-        <v>0.7</v>
-      </c>
-      <c r="F22">
-        <v>0.7</v>
-      </c>
-      <c r="G22">
-        <v>0.7</v>
-      </c>
-      <c r="H22">
-        <v>0.65</v>
-      </c>
-      <c r="I22">
-        <v>0.59</v>
-      </c>
-      <c r="J22">
-        <v>0.61</v>
-      </c>
-      <c r="K22">
-        <v>0.59</v>
-      </c>
-      <c r="L22">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M22">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N22">
-        <v>0.73</v>
-      </c>
-      <c r="O22">
-        <v>0.23</v>
-      </c>
-      <c r="P22">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C23">
-        <v>0.59</v>
-      </c>
-      <c r="D23">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E23">
-        <v>0.67</v>
-      </c>
-      <c r="F23">
-        <v>0.67</v>
-      </c>
-      <c r="G23">
-        <v>0.67</v>
-      </c>
-      <c r="H23">
-        <v>0.53</v>
-      </c>
-      <c r="I23">
-        <v>0.54</v>
-      </c>
-      <c r="J23">
-        <v>0.54</v>
-      </c>
-      <c r="K23">
-        <v>0.53</v>
-      </c>
-      <c r="L23">
-        <v>0.53</v>
-      </c>
-      <c r="M23">
-        <v>0.53</v>
-      </c>
-      <c r="N23">
-        <v>0.88</v>
-      </c>
-      <c r="O23">
-        <v>0.89</v>
-      </c>
-      <c r="P23">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
-        <v>0.72</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.84</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.77</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0.6</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K24">
-        <v>0.75</v>
-      </c>
-      <c r="L24">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0.61</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0.95</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
-        <v>0.62</v>
-      </c>
-      <c r="C25">
-        <v>0.73</v>
-      </c>
-      <c r="D25">
-        <v>0.62</v>
-      </c>
-      <c r="E25">
-        <v>0.75</v>
-      </c>
-      <c r="F25">
-        <v>0.78</v>
-      </c>
-      <c r="G25">
-        <v>0.74</v>
-      </c>
-      <c r="H25">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="I25">
-        <v>0.59</v>
-      </c>
-      <c r="J25">
-        <v>0.5</v>
-      </c>
-      <c r="K25">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L25">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M25">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="N25">
-        <v>0.9</v>
-      </c>
-      <c r="O25">
-        <v>0.95</v>
-      </c>
-      <c r="P25">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4">
-        <v>0.73509999999999998</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" s="4">
-        <v>0.84689999999999999</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0.78120000000000001</v>
-      </c>
-      <c r="F28" s="4">
-        <v>0.99690000000000001</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.87519999999999998</v>
-      </c>
-      <c r="H28" s="4">
-        <v>0.6321</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0.7863</v>
-      </c>
-      <c r="J28" s="4">
-        <v>0.70030000000000003</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0.64419999999999999</v>
-      </c>
-      <c r="L28" s="4">
-        <v>0.57950000000000002</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0.60840000000000005</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0.9476</v>
-      </c>
-      <c r="O28" s="4">
-        <v>1</v>
-      </c>
-      <c r="P28" s="4">
-        <v>0.97309999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="4">
-        <v>0.73329999999999995</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>0.8458</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0.80579999999999996</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.8921</v>
-      </c>
-      <c r="H29" s="4">
-        <v>0.6321</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.95940000000000003</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.76139999999999997</v>
-      </c>
-      <c r="K29">
-        <v>0.63</v>
-      </c>
-      <c r="L29" s="4">
-        <v>0.58330000000000004</v>
-      </c>
-      <c r="M29" s="4">
-        <v>0.60309999999999997</v>
-      </c>
-      <c r="N29" s="4">
-        <v>0.9476</v>
-      </c>
-      <c r="O29" s="4">
-        <v>1</v>
-      </c>
-      <c r="P29" s="4">
-        <v>0.97309999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="P37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38">
-        <v>0.62480000000000002</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>0.76739999999999997</v>
-      </c>
-      <c r="N38">
-        <v>0.94079999999999997</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>0.96930000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39">
-        <v>0.62450000000000006</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>0.76839999999999997</v>
-      </c>
-      <c r="N39">
-        <v>0.96940000000000004</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40">
-        <v>0.62450000000000006</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0.76839999999999997</v>
-      </c>
-      <c r="N40">
-        <v>0.96940000000000004</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>0.94099999999999995</v>
-      </c>
+      <c r="N107" s="11">
+        <v>0.9456</v>
+      </c>
+      <c r="O107" s="11">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P107" s="11">
+        <v>0.97160000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7061,12 +9040,97 @@
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
@@ -7228,12 +9292,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A8" sqref="A8:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7386,6 +9450,1240 @@
     <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T40"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="1025" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.63</v>
+      </c>
+      <c r="C4">
+        <v>0.72</v>
+      </c>
+      <c r="D4">
+        <v>0.61</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4">
+        <v>0.78</v>
+      </c>
+      <c r="G4">
+        <v>0.73</v>
+      </c>
+      <c r="H4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+      <c r="J4">
+        <v>0.53</v>
+      </c>
+      <c r="K4">
+        <v>0.59</v>
+      </c>
+      <c r="L4">
+        <v>0.59</v>
+      </c>
+      <c r="M4">
+        <v>0.59</v>
+      </c>
+      <c r="N4">
+        <v>0.9</v>
+      </c>
+      <c r="O4">
+        <v>0.95</v>
+      </c>
+      <c r="P4">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.79</v>
+      </c>
+      <c r="C5">
+        <v>0.67</v>
+      </c>
+      <c r="D5">
+        <v>0.72</v>
+      </c>
+      <c r="E5">
+        <v>0.86</v>
+      </c>
+      <c r="F5">
+        <v>0.76</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0.59</v>
+      </c>
+      <c r="I5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K5">
+        <v>0.53</v>
+      </c>
+      <c r="L5">
+        <v>0.53</v>
+      </c>
+      <c r="M5">
+        <v>0.53</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0.95</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.64</v>
+      </c>
+      <c r="C6">
+        <v>0.63</v>
+      </c>
+      <c r="D6">
+        <v>0.63</v>
+      </c>
+      <c r="E6">
+        <v>0.68</v>
+      </c>
+      <c r="F6">
+        <v>0.69</v>
+      </c>
+      <c r="G6">
+        <v>0.68</v>
+      </c>
+      <c r="H6">
+        <v>0.61</v>
+      </c>
+      <c r="I6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J6">
+        <v>0.59</v>
+      </c>
+      <c r="K6">
+        <v>0.6</v>
+      </c>
+      <c r="L6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.8</v>
+      </c>
+      <c r="O6">
+        <v>0.2</v>
+      </c>
+      <c r="P6">
+        <v>0.12</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.6</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
+        <v>0.67</v>
+      </c>
+      <c r="F7">
+        <v>0.67</v>
+      </c>
+      <c r="G7">
+        <v>0.67</v>
+      </c>
+      <c r="H7">
+        <v>0.54</v>
+      </c>
+      <c r="I7">
+        <v>0.54</v>
+      </c>
+      <c r="J7">
+        <v>0.54</v>
+      </c>
+      <c r="K7">
+        <v>0.52</v>
+      </c>
+      <c r="L7">
+        <v>0.52</v>
+      </c>
+      <c r="M7">
+        <v>0.52</v>
+      </c>
+      <c r="N7">
+        <v>0.89</v>
+      </c>
+      <c r="O7">
+        <v>0.89</v>
+      </c>
+      <c r="P7">
+        <v>0.89</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0.74</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.75</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.6</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K8">
+        <v>0.73</v>
+      </c>
+      <c r="L8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0.95</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="R8">
+        <v>0.76</v>
+      </c>
+      <c r="S8">
+        <v>0.75</v>
+      </c>
+      <c r="T8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.62</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <v>0.59</v>
+      </c>
+      <c r="E9">
+        <v>0.74</v>
+      </c>
+      <c r="F9">
+        <v>0.78</v>
+      </c>
+      <c r="G9">
+        <v>0.73</v>
+      </c>
+      <c r="H9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I9">
+        <v>0.6</v>
+      </c>
+      <c r="J9">
+        <v>0.53</v>
+      </c>
+      <c r="K9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N9">
+        <v>0.91</v>
+      </c>
+      <c r="O9">
+        <v>0.95</v>
+      </c>
+      <c r="P9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.52</v>
+      </c>
+      <c r="C12">
+        <v>0.72</v>
+      </c>
+      <c r="D12">
+        <v>0.6</v>
+      </c>
+      <c r="E12">
+        <v>0.59</v>
+      </c>
+      <c r="F12">
+        <v>0.75</v>
+      </c>
+      <c r="G12">
+        <v>0.65</v>
+      </c>
+      <c r="H12">
+        <v>0.53</v>
+      </c>
+      <c r="I12">
+        <v>0.61</v>
+      </c>
+      <c r="J12">
+        <v>0.47</v>
+      </c>
+      <c r="K12">
+        <v>0.52</v>
+      </c>
+      <c r="L12">
+        <v>0.52</v>
+      </c>
+      <c r="M12">
+        <v>0.51</v>
+      </c>
+      <c r="N12">
+        <v>0.91</v>
+      </c>
+      <c r="O12">
+        <v>0.95</v>
+      </c>
+      <c r="P12">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.76</v>
+      </c>
+      <c r="C13">
+        <v>0.66</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <v>0.89</v>
+      </c>
+      <c r="F13">
+        <v>0.72</v>
+      </c>
+      <c r="G13">
+        <v>0.79</v>
+      </c>
+      <c r="H13">
+        <v>0.61</v>
+      </c>
+      <c r="I13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K13">
+        <v>0.51</v>
+      </c>
+      <c r="L13">
+        <v>0.51</v>
+      </c>
+      <c r="M13">
+        <v>0.51</v>
+      </c>
+      <c r="N13">
+        <v>0.99</v>
+      </c>
+      <c r="O13">
+        <v>0.95</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.85</v>
+      </c>
+      <c r="C14">
+        <v>0.69</v>
+      </c>
+      <c r="D14">
+        <v>0.76</v>
+      </c>
+      <c r="E14">
+        <v>0.81</v>
+      </c>
+      <c r="F14">
+        <v>0.73</v>
+      </c>
+      <c r="G14">
+        <v>0.76</v>
+      </c>
+      <c r="H14">
+        <v>0.81</v>
+      </c>
+      <c r="I14">
+        <v>0.59</v>
+      </c>
+      <c r="J14">
+        <v>0.66</v>
+      </c>
+      <c r="K14">
+        <v>0.79</v>
+      </c>
+      <c r="L14">
+        <v>0.51</v>
+      </c>
+      <c r="M14">
+        <v>0.6</v>
+      </c>
+      <c r="N14">
+        <v>0.97</v>
+      </c>
+      <c r="O14">
+        <v>0.06</v>
+      </c>
+      <c r="P14">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.81</v>
+      </c>
+      <c r="C15">
+        <v>0.68</v>
+      </c>
+      <c r="D15">
+        <v>0.73</v>
+      </c>
+      <c r="E15">
+        <v>0.84</v>
+      </c>
+      <c r="F15">
+        <v>0.72</v>
+      </c>
+      <c r="G15">
+        <v>0.77</v>
+      </c>
+      <c r="H15">
+        <v>0.64</v>
+      </c>
+      <c r="I15">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J15">
+        <v>0.59</v>
+      </c>
+      <c r="K15">
+        <v>0.53</v>
+      </c>
+      <c r="L15">
+        <v>0.52</v>
+      </c>
+      <c r="M15">
+        <v>0.52</v>
+      </c>
+      <c r="N15">
+        <v>0.98</v>
+      </c>
+      <c r="O15">
+        <v>0.96</v>
+      </c>
+      <c r="P15">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0.72</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.76</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0.6</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K16">
+        <v>0.94</v>
+      </c>
+      <c r="L16">
+        <v>0.53</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.66</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0.95</v>
+      </c>
+      <c r="P16" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.52</v>
+      </c>
+      <c r="C17">
+        <v>0.72</v>
+      </c>
+      <c r="D17">
+        <v>0.6</v>
+      </c>
+      <c r="E17">
+        <v>0.76</v>
+      </c>
+      <c r="F17">
+        <v>0.78</v>
+      </c>
+      <c r="G17">
+        <v>0.68</v>
+      </c>
+      <c r="H17">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I17">
+        <v>0.6</v>
+      </c>
+      <c r="J17">
+        <v>0.47</v>
+      </c>
+      <c r="K17">
+        <v>0.52</v>
+      </c>
+      <c r="L17">
+        <v>0.52</v>
+      </c>
+      <c r="M17">
+        <v>0.5</v>
+      </c>
+      <c r="N17">
+        <v>0.89</v>
+      </c>
+      <c r="O17">
+        <v>0.95</v>
+      </c>
+      <c r="P17">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>0.61</v>
+      </c>
+      <c r="C20">
+        <v>0.71</v>
+      </c>
+      <c r="D20">
+        <v>0.6</v>
+      </c>
+      <c r="E20">
+        <v>0.74</v>
+      </c>
+      <c r="F20">
+        <v>0.77</v>
+      </c>
+      <c r="G20">
+        <v>0.72</v>
+      </c>
+      <c r="H20">
+        <v>0.54</v>
+      </c>
+      <c r="I20">
+        <v>0.59</v>
+      </c>
+      <c r="J20">
+        <v>0.51</v>
+      </c>
+      <c r="K20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N20">
+        <v>0.89</v>
+      </c>
+      <c r="O20">
+        <v>0.95</v>
+      </c>
+      <c r="P20">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21">
+        <v>0.79</v>
+      </c>
+      <c r="C21">
+        <v>0.67</v>
+      </c>
+      <c r="D21">
+        <v>0.72</v>
+      </c>
+      <c r="E21">
+        <v>0.85</v>
+      </c>
+      <c r="F21">
+        <v>0.73</v>
+      </c>
+      <c r="G21">
+        <v>0.78</v>
+      </c>
+      <c r="H21">
+        <v>0.59</v>
+      </c>
+      <c r="I21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K21">
+        <v>0.54</v>
+      </c>
+      <c r="L21">
+        <v>0.53</v>
+      </c>
+      <c r="M21">
+        <v>0.54</v>
+      </c>
+      <c r="N21">
+        <v>0.99</v>
+      </c>
+      <c r="O21">
+        <v>0.95</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>0.68</v>
+      </c>
+      <c r="C22">
+        <v>0.65</v>
+      </c>
+      <c r="D22">
+        <v>0.66</v>
+      </c>
+      <c r="E22">
+        <v>0.7</v>
+      </c>
+      <c r="F22">
+        <v>0.7</v>
+      </c>
+      <c r="G22">
+        <v>0.7</v>
+      </c>
+      <c r="H22">
+        <v>0.65</v>
+      </c>
+      <c r="I22">
+        <v>0.59</v>
+      </c>
+      <c r="J22">
+        <v>0.61</v>
+      </c>
+      <c r="K22">
+        <v>0.59</v>
+      </c>
+      <c r="L22">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N22">
+        <v>0.73</v>
+      </c>
+      <c r="O22">
+        <v>0.23</v>
+      </c>
+      <c r="P22">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.59</v>
+      </c>
+      <c r="D23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E23">
+        <v>0.67</v>
+      </c>
+      <c r="F23">
+        <v>0.67</v>
+      </c>
+      <c r="G23">
+        <v>0.67</v>
+      </c>
+      <c r="H23">
+        <v>0.53</v>
+      </c>
+      <c r="I23">
+        <v>0.54</v>
+      </c>
+      <c r="J23">
+        <v>0.54</v>
+      </c>
+      <c r="K23">
+        <v>0.53</v>
+      </c>
+      <c r="L23">
+        <v>0.53</v>
+      </c>
+      <c r="M23">
+        <v>0.53</v>
+      </c>
+      <c r="N23">
+        <v>0.88</v>
+      </c>
+      <c r="O23">
+        <v>0.89</v>
+      </c>
+      <c r="P23">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0.72</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.77</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0.6</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K24">
+        <v>0.75</v>
+      </c>
+      <c r="L24">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0.95</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0.62</v>
+      </c>
+      <c r="C25">
+        <v>0.73</v>
+      </c>
+      <c r="D25">
+        <v>0.62</v>
+      </c>
+      <c r="E25">
+        <v>0.75</v>
+      </c>
+      <c r="F25">
+        <v>0.78</v>
+      </c>
+      <c r="G25">
+        <v>0.74</v>
+      </c>
+      <c r="H25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I25">
+        <v>0.59</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L25">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M25">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N25">
+        <v>0.9</v>
+      </c>
+      <c r="O25">
+        <v>0.95</v>
+      </c>
+      <c r="P25">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.73509999999999998</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.78120000000000001</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0.99690000000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.87519999999999998</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.6321</v>
+      </c>
+      <c r="I28" s="4">
+        <v>0.7863</v>
+      </c>
+      <c r="J28" s="4">
+        <v>0.70030000000000003</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="L28" s="4">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0.60840000000000005</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.9476</v>
+      </c>
+      <c r="O28" s="4">
+        <v>1</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0.97309999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.8458</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.80579999999999996</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.8921</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.6321</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.95940000000000003</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.76139999999999997</v>
+      </c>
+      <c r="K29">
+        <v>0.63</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="N29" s="4">
+        <v>0.9476</v>
+      </c>
+      <c r="O29" s="4">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0.97309999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="P37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0.76739999999999997</v>
+      </c>
+      <c r="N38">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38">
+        <v>0.96930000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40">
+        <v>0.62450000000000006</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="N40">
+        <v>0.96940000000000004</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="219">
   <si>
     <t>Model</t>
   </si>
@@ -716,9 +716,6 @@
     <t>["'", 'cc rb', 'cc vbd', 'cc vbp', 'in nns', 'in rp', 'in vb', 'jj', 'jj nnp', 'jjs', 'md jj', 'nn.x', 'nn dt', 'nn in in', 'nn prp rb', 'nnp nn in', 'prp dt', 'prp prp $', 'prp vb .', 'prp vbp in', 'prp vbp nn', 'prp vbp prp', 'rb prp $', 'rb prp nn', 'rb rb prp', 'to , rb', 'to , vbp', 'to vbg', 'vb ,', 'vb vbd', 'vbd', 'vbd nn', 'vbg vbg', 'vbp . to', 'vbp dt', '[csubj', '[prep_besides', '[prepc_between', '[prepc_in', 'conj_and\\\\\\\\/or', 'conj_so', 'csubjpass', 'expl', 'prep_above', 'prep_in', 'prep_in_front_of']</t>
   </si>
   <si>
-    <t>Base</t>
-  </si>
-  <si>
     <t>Weighted by Throughput Average</t>
   </si>
   <si>
@@ -735,9 +732,6 @@
     <t xml:space="preserve">Weighted by Worktime variance </t>
   </si>
   <si>
-    <t xml:space="preserve">Base </t>
-  </si>
-  <si>
     <t>Weighted by Throughput Variance</t>
   </si>
   <si>
@@ -756,9 +750,6 @@
     <t xml:space="preserve">Weighted by Throughput Variance </t>
   </si>
   <si>
-    <t>Weighted by PC Agreement</t>
-  </si>
-  <si>
     <t>LSTM Other Variables + Keras Concatenate  + 3 Dense Layers (+Weight)</t>
   </si>
   <si>
@@ -820,6 +811,121 @@
   </si>
   <si>
     <t>Lexical Features (Penn Bank + LIWC)</t>
+  </si>
+  <si>
+    <t>HuggingFace Transformers</t>
+  </si>
+  <si>
+    <t>BERT Tokenizer + BERT model</t>
+  </si>
+  <si>
+    <t>BERT Tokenizer + BERT model (Scikit Learn Measures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic VAE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XLNET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DistillBERT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bag of Words </t>
+  </si>
+  <si>
+    <t>WordCNN</t>
+  </si>
+  <si>
+    <t>CharCNN</t>
+  </si>
+  <si>
+    <t>BiLSTM</t>
+  </si>
+  <si>
+    <t>RobertA</t>
+  </si>
+  <si>
+    <t>LSTM of full_text against predicted variables</t>
+  </si>
+  <si>
+    <t>Weighted by PC Agreement Average</t>
+  </si>
+  <si>
+    <t>CNN Other Variables + One Hot Encoding + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t>CNN (Conv1D) against predicted variables</t>
+  </si>
+  <si>
+    <t>LSTM-Attention + One Hot Encoding + 3 Dense Layers (+Weight)</t>
+  </si>
+  <si>
+    <t>LSTM-Attention against predicted variables</t>
+  </si>
+  <si>
+    <t>Base Pipeline</t>
+  </si>
+  <si>
+    <t>LIWC</t>
+  </si>
+  <si>
+    <t>LIWC with feature selection</t>
+  </si>
+  <si>
+    <t>LIWC + Penn Bank</t>
+  </si>
+  <si>
+    <t>Penn Bank with feature selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penn Bank  </t>
+  </si>
+  <si>
+    <t>LIWC + Feature Selection</t>
+  </si>
+  <si>
+    <t>PennBank</t>
+  </si>
+  <si>
+    <t>Penn Bank + Feature Selection</t>
+  </si>
+  <si>
+    <t>Penn Bank + LIWC</t>
+  </si>
+  <si>
+    <t>PennBank + Feature Selection</t>
+  </si>
+  <si>
+    <t>LIWC + PennBank</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by PC Agreement average 
+3 Dense Layers
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by PC Agreement variance 
+3 Dense Layers
+(Scikitlearn measures)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted by PC Agreement variance </t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by PC Agreement average 
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>Random Forest Other Variables  = OneHotEncoding 
+Weighted by PC Agreement variance 
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weighted by PC Agreement average </t>
   </si>
 </sst>
 </file>
@@ -911,7 +1017,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -938,20 +1044,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -959,10 +1056,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1311,13 +1416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R194"/>
+  <dimension ref="A1:R217"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A102" activeCellId="9" sqref="A85:XFD85 A86:XFD86 A88:XFD88 A90:XFD90 A92:XFD92 A94:XFD94 A96:XFD96 A98:XFD98 A100:XFD100 A102:XFD102"/>
+      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,31 +1435,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -4223,7 +4328,7 @@
     </row>
     <row r="65" spans="1:16" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -5160,7 +5265,7 @@
     </row>
     <row r="85" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -6095,1418 +6200,1235 @@
       <c r="O104" s="13"/>
       <c r="P104" s="13"/>
     </row>
-    <row r="105" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
+        <v>185</v>
+      </c>
+      <c r="N106" s="13">
+        <v>0.90168499999999996</v>
+      </c>
+      <c r="O106" s="13">
+        <v>0.59560400000000002</v>
+      </c>
+      <c r="P106" s="13">
+        <v>0.70209500000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="N107" s="13"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="N108" s="13"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N109" s="13"/>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="N110" s="13"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="13"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" s="7"/>
+      <c r="N113" s="13"/>
+      <c r="O113" s="13"/>
+      <c r="P113" s="13"/>
+    </row>
+    <row r="114" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="12"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="13"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="13"/>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>20</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B116" s="4">
         <v>0.91249999999999998</v>
       </c>
-      <c r="C107" s="4">
-        <v>1</v>
-      </c>
-      <c r="D107" s="4">
+      <c r="C116" s="4">
+        <v>1</v>
+      </c>
+      <c r="D116" s="4">
         <v>0.9536</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E116" s="4">
         <v>0.82189999999999996</v>
       </c>
-      <c r="F107" s="4">
-        <v>1</v>
-      </c>
-      <c r="G107" s="4">
+      <c r="F116" s="4">
+        <v>1</v>
+      </c>
+      <c r="G116" s="4">
         <v>0.90210000000000001</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H116" s="4">
         <v>0.86719999999999997</v>
       </c>
-      <c r="I107" s="4">
-        <v>1</v>
-      </c>
-      <c r="J107" s="4">
+      <c r="I116" s="4">
+        <v>1</v>
+      </c>
+      <c r="J116" s="4">
         <v>0.92820000000000003</v>
       </c>
-      <c r="K107" s="4">
+      <c r="K116" s="4">
         <v>0.87339999999999995</v>
       </c>
-      <c r="L107" s="4">
-        <v>1</v>
-      </c>
-      <c r="M107" s="4">
+      <c r="L116" s="4">
+        <v>1</v>
+      </c>
+      <c r="M116" s="4">
         <v>0.93200000000000005</v>
       </c>
-      <c r="N107" s="4">
+      <c r="N116" s="4">
         <v>0.94379999999999997</v>
       </c>
-      <c r="O107" s="4">
-        <v>1</v>
-      </c>
-      <c r="P107" s="4">
+      <c r="O116" s="4">
+        <v>1</v>
+      </c>
+      <c r="P116" s="4">
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>22</v>
       </c>
-      <c r="B108">
+      <c r="B117">
         <v>0.46416000000000002</v>
       </c>
-      <c r="C108">
+      <c r="C117">
         <v>0.5</v>
       </c>
-      <c r="D108">
+      <c r="D117">
         <v>0.48141</v>
       </c>
-      <c r="E108">
+      <c r="E117">
         <v>0.420844</v>
       </c>
-      <c r="F108">
+      <c r="F117">
         <v>0.5</v>
       </c>
-      <c r="G108">
+      <c r="G117">
         <v>0.45701999999999998</v>
       </c>
-      <c r="H108">
+      <c r="H117">
         <v>0.42919000000000002</v>
       </c>
-      <c r="I108">
+      <c r="I117">
         <v>0.5</v>
       </c>
-      <c r="J108">
+      <c r="J117">
         <v>0.46189999999999998</v>
       </c>
-      <c r="K108">
+      <c r="K117">
         <v>0.42193999999999998</v>
       </c>
-      <c r="L108">
+      <c r="L117">
         <v>0.5</v>
       </c>
-      <c r="M108">
+      <c r="M117">
         <v>0.45766000000000001</v>
       </c>
-      <c r="N108">
+      <c r="N117">
         <v>0.47489999999999999</v>
-      </c>
-      <c r="O108">
-        <v>0.5</v>
-      </c>
-      <c r="P108">
-        <v>0.48714400000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>21</v>
-      </c>
-      <c r="B110" s="4">
-        <v>0.85940000000000005</v>
-      </c>
-      <c r="C110" s="4">
-        <v>1</v>
-      </c>
-      <c r="D110" s="4">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="E110" s="4">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="F110" s="4">
-        <v>1</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="H110" s="4">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="I110" s="4">
-        <v>1</v>
-      </c>
-      <c r="J110" s="4">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="K110" s="4">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="L110" s="4">
-        <v>1</v>
-      </c>
-      <c r="M110" s="4">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N110" s="4">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="O110" s="4">
-        <v>1</v>
-      </c>
-      <c r="P110" s="4">
-        <v>0.9849</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B111" s="4">
-        <v>0.46437</v>
-      </c>
-      <c r="C111" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D111">
-        <v>0.48153200000000002</v>
-      </c>
-      <c r="E111" s="4">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0.45479999999999998</v>
-      </c>
-      <c r="H111" s="4">
-        <v>0.43689499999999998</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J111" s="4">
-        <v>0.46632200000000001</v>
-      </c>
-      <c r="K111" s="4">
-        <v>0.42326900000000001</v>
-      </c>
-      <c r="L111" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="M111" s="4">
-        <v>0.45844200000000002</v>
-      </c>
-      <c r="N111" s="4">
-        <v>0.47317500000000001</v>
-      </c>
-      <c r="O111" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="P111" s="4">
-        <v>0.48621700000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113">
-        <v>0.93740000000000001</v>
-      </c>
-      <c r="C113" s="4">
-        <v>1</v>
-      </c>
-      <c r="D113">
-        <v>0.96750000000000003</v>
-      </c>
-      <c r="E113">
-        <v>0.82550000000000001</v>
-      </c>
-      <c r="F113" s="4">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="H113">
-        <v>0.86429999999999996</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="K113">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="L113">
-        <v>1</v>
-      </c>
-      <c r="M113">
-        <v>0.91320000000000001</v>
-      </c>
-      <c r="N113">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="O113">
-        <v>1</v>
-      </c>
-      <c r="P113">
-        <v>0.97709999999999997</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B114">
-        <v>0.463940193491645</v>
-      </c>
-      <c r="C114">
-        <v>0.5</v>
-      </c>
-      <c r="D114">
-        <v>0.48129562043795598</v>
-      </c>
-      <c r="E114">
-        <v>0.41754617414248002</v>
-      </c>
-      <c r="F114">
-        <v>0.5</v>
-      </c>
-      <c r="G114">
-        <v>0.455068296189791</v>
-      </c>
-      <c r="H114">
-        <v>0.43117</v>
-      </c>
-      <c r="I114">
-        <v>0.5</v>
-      </c>
-      <c r="J114">
-        <v>0.46304000000000001</v>
-      </c>
-      <c r="K114">
-        <v>0.41974494283201402</v>
-      </c>
-      <c r="L114" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="M114">
-        <v>0.45637102557972697</v>
-      </c>
-      <c r="N114">
-        <v>0.47339489885663999</v>
-      </c>
-      <c r="O114">
-        <v>0.5</v>
-      </c>
-      <c r="P114">
-        <v>0.48633386040207799</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N117">
-        <v>0.47420000000000001</v>
       </c>
       <c r="O117">
         <v>0.5</v>
       </c>
       <c r="P117">
+        <v>0.48714400000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" s="4">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="C119" s="4">
+        <v>1</v>
+      </c>
+      <c r="D119" s="4">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="F119" s="4">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1</v>
+      </c>
+      <c r="J119" s="4">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="K119" s="4">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="L119" s="4">
+        <v>1</v>
+      </c>
+      <c r="M119" s="4">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N119" s="4">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="O119" s="4">
+        <v>1</v>
+      </c>
+      <c r="P119" s="4">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" s="4">
+        <v>0.46437</v>
+      </c>
+      <c r="C120" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D120">
+        <v>0.48153200000000002</v>
+      </c>
+      <c r="E120" s="4">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="F120" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0.43689499999999998</v>
+      </c>
+      <c r="I120" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J120" s="4">
+        <v>0.46632200000000001</v>
+      </c>
+      <c r="K120" s="4">
+        <v>0.42326900000000001</v>
+      </c>
+      <c r="L120" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0.45844200000000002</v>
+      </c>
+      <c r="N120" s="4">
+        <v>0.47317500000000001</v>
+      </c>
+      <c r="O120" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="P120" s="4">
+        <v>0.48621700000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="C122" s="4">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="E122">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="F122" s="4">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="H122">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="K122">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="N122">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="O122">
+        <v>1</v>
+      </c>
+      <c r="P122">
+        <v>0.97709999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123">
+        <v>0.463940193491645</v>
+      </c>
+      <c r="C123">
+        <v>0.5</v>
+      </c>
+      <c r="D123">
+        <v>0.48129562043795598</v>
+      </c>
+      <c r="E123">
+        <v>0.41754617414248002</v>
+      </c>
+      <c r="F123">
+        <v>0.5</v>
+      </c>
+      <c r="G123">
+        <v>0.455068296189791</v>
+      </c>
+      <c r="H123">
+        <v>0.43117</v>
+      </c>
+      <c r="I123">
+        <v>0.5</v>
+      </c>
+      <c r="J123">
+        <v>0.46304000000000001</v>
+      </c>
+      <c r="K123">
+        <v>0.41974494283201402</v>
+      </c>
+      <c r="L123" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="M123">
+        <v>0.45637102557972697</v>
+      </c>
+      <c r="N123">
+        <v>0.47339489885663999</v>
+      </c>
+      <c r="O123">
+        <v>0.5</v>
+      </c>
+      <c r="P123">
+        <v>0.48633386040207799</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L124" s="5"/>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L125" s="5"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="L126" s="5"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L127" s="5"/>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="7"/>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N131">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="O131">
+        <v>0.5</v>
+      </c>
+      <c r="P131">
         <v>0.48680000000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+    <row r="132" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D118">
+      <c r="D132">
         <v>0.47899999999999998</v>
       </c>
-      <c r="E118">
+      <c r="E132">
         <v>0.44</v>
       </c>
-      <c r="F118">
+      <c r="F132">
         <v>0.5</v>
       </c>
-      <c r="G118">
+      <c r="G132">
         <v>0.46</v>
       </c>
-      <c r="H118">
+      <c r="H132">
         <v>0.4</v>
       </c>
-      <c r="I118">
+      <c r="I132">
         <v>0.5</v>
       </c>
-      <c r="J118">
+      <c r="J132">
         <v>0.44450000000000001</v>
       </c>
-      <c r="K118">
+      <c r="K132">
         <v>0.4</v>
       </c>
-      <c r="L118">
+      <c r="L132">
         <v>0.5</v>
       </c>
-      <c r="M118">
+      <c r="M132">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N118">
+      <c r="N132">
         <v>0.495</v>
       </c>
-      <c r="O118">
+      <c r="O132">
         <v>0.5</v>
       </c>
-      <c r="P118">
+      <c r="P132">
         <v>0.497</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+    <row r="133" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B119">
+      <c r="B133">
         <v>0.46</v>
       </c>
-      <c r="C119">
+      <c r="C133">
         <v>0.5</v>
       </c>
-      <c r="J119">
+      <c r="J133">
         <v>0.82650000000000001</v>
       </c>
-      <c r="P119">
+      <c r="P133">
         <v>4.58E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A122" s="26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H123">
+      <c r="H137">
         <v>0.86109999999999998</v>
       </c>
-      <c r="I123">
-        <v>1</v>
-      </c>
-      <c r="J123">
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
         <v>0.92390000000000005</v>
       </c>
-      <c r="N123">
+      <c r="N137">
         <v>0.97850000000000004</v>
       </c>
-      <c r="O123">
-        <v>1</v>
-      </c>
-      <c r="P123">
+      <c r="O137">
+        <v>1</v>
+      </c>
+      <c r="P137">
         <v>0.97850000000000004</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H124">
-        <v>6.7500000000000004E-2</v>
-      </c>
-      <c r="I124">
-        <v>0.5</v>
-      </c>
-      <c r="J124" s="9">
-        <v>0.11890000000000001</v>
-      </c>
-      <c r="N124">
-        <v>2.682E-2</v>
-      </c>
-      <c r="O124">
-        <v>0.5</v>
-      </c>
-      <c r="P124">
-        <v>5.0900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H125">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
-      <c r="J125">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="N125">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="O125">
-        <v>1</v>
-      </c>
-      <c r="P125">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H126">
-        <v>0.42671700000000001</v>
-      </c>
-      <c r="I126">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="J126" s="9">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="N126">
-        <v>2.6824899999999999E-2</v>
-      </c>
-      <c r="O126">
-        <v>0.5</v>
-      </c>
-      <c r="P126">
-        <v>5.0917999999999998E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H127">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="N127">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="O127">
-        <v>1</v>
-      </c>
-      <c r="P127">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H128">
-        <v>0.43248999999999999</v>
-      </c>
-      <c r="I128">
-        <v>0.5</v>
-      </c>
-      <c r="J128" s="9">
-        <v>0.46380500000000002</v>
-      </c>
-      <c r="N128">
-        <v>0.52680000000000005</v>
-      </c>
-      <c r="O128">
-        <v>0.5</v>
-      </c>
-      <c r="P128">
-        <v>5.1400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="H129">
-        <v>0.86</v>
-      </c>
-      <c r="I129">
-        <v>1</v>
-      </c>
-      <c r="J129" s="9">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="N129">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O129">
-        <v>1</v>
-      </c>
-      <c r="P129">
-        <v>0.97470000000000001</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="H130">
-        <v>0.43660900000000002</v>
-      </c>
-      <c r="I130">
-        <v>0.49656400000000001</v>
-      </c>
-      <c r="J130" s="9">
-        <v>0.12811</v>
-      </c>
-      <c r="N130">
-        <v>0.47537000000000001</v>
-      </c>
-      <c r="O130">
-        <v>0.5</v>
-      </c>
-      <c r="P130">
-        <v>0.48737000000000003</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10">
-        <v>2.7799999999999998E-2</v>
-      </c>
-      <c r="I131" s="10">
-        <v>1</v>
-      </c>
-      <c r="J131" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="N131">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O131">
-        <v>1</v>
-      </c>
-      <c r="P131">
-        <v>0.97470000000000001</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10">
-        <v>0.57038999999999995</v>
-      </c>
-      <c r="I132" s="10">
-        <v>0.50025500000000001</v>
-      </c>
-      <c r="J132" s="9">
-        <v>0.1239</v>
-      </c>
-      <c r="N132">
-        <v>0.47522999999999999</v>
-      </c>
-      <c r="O132">
-        <v>0.49698999999999999</v>
-      </c>
-      <c r="P132">
-        <v>0.485869</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10">
-        <v>0.8609</v>
-      </c>
-      <c r="I133" s="10">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="J133" s="9">
-        <v>0.92459999999999998</v>
-      </c>
-      <c r="N133">
-        <v>0.94489999999999996</v>
-      </c>
-      <c r="O133">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="P133">
-        <v>0.97019999999999995</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="10">
-        <v>0.55859999999999999</v>
-      </c>
-      <c r="I134" s="10">
-        <v>0.61939999999999995</v>
-      </c>
-      <c r="J134" s="9">
-        <v>0.45679999999999998</v>
-      </c>
-      <c r="N134">
-        <v>0.47251500000000002</v>
-      </c>
-      <c r="O134">
-        <v>0.5</v>
-      </c>
-      <c r="P134">
-        <v>0.48586000000000001</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-    </row>
-    <row r="136" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136">
-        <v>0.86</v>
-      </c>
-      <c r="J136">
-        <v>0.93</v>
-      </c>
-      <c r="N136">
-        <v>1</v>
-      </c>
-      <c r="O136">
-        <v>0.95</v>
-      </c>
-      <c r="P136">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H137">
-        <v>0.5</v>
-      </c>
-      <c r="I137">
-        <v>0.43248999999999999</v>
-      </c>
-      <c r="J137">
-        <v>0.46380500000000002</v>
-      </c>
-      <c r="N137">
-        <v>0.47316999999999998</v>
-      </c>
-      <c r="O137">
-        <v>0.5</v>
-      </c>
-      <c r="P137">
-        <v>0.48620000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>6.7500000000000004E-2</v>
       </c>
       <c r="I138">
+        <v>0.5</v>
+      </c>
+      <c r="J138" s="9">
+        <v>0.11890000000000001</v>
+      </c>
+      <c r="N138">
+        <v>2.682E-2</v>
+      </c>
+      <c r="O138">
+        <v>0.5</v>
+      </c>
+      <c r="P138">
+        <v>5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H139">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N139">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O139">
+        <v>1</v>
+      </c>
+      <c r="P139">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H140">
+        <v>0.42671700000000001</v>
+      </c>
+      <c r="I140">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="J140" s="9">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N140">
+        <v>2.6824899999999999E-2</v>
+      </c>
+      <c r="O140">
+        <v>0.5</v>
+      </c>
+      <c r="P140">
+        <v>5.0917999999999998E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H141">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N141">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O141">
+        <v>1</v>
+      </c>
+      <c r="P141">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H142">
+        <v>0.43248999999999999</v>
+      </c>
+      <c r="I142">
+        <v>0.5</v>
+      </c>
+      <c r="J142" s="9">
+        <v>0.46380500000000002</v>
+      </c>
+      <c r="N142">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="O142">
+        <v>0.5</v>
+      </c>
+      <c r="P142">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H143">
         <v>0.86</v>
       </c>
-      <c r="J138">
-        <v>0.93</v>
-      </c>
-      <c r="N138">
-        <v>1</v>
-      </c>
-      <c r="O138">
-        <v>0.95</v>
-      </c>
-      <c r="P138">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H139">
-        <v>0.43248999999999999</v>
-      </c>
-      <c r="I139">
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" s="9">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="N143">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H144">
+        <v>0.43660900000000002</v>
+      </c>
+      <c r="I144">
+        <v>0.49656400000000001</v>
+      </c>
+      <c r="J144" s="9">
+        <v>0.12811</v>
+      </c>
+      <c r="N144">
+        <v>0.47537000000000001</v>
+      </c>
+      <c r="O144">
         <v>0.5</v>
       </c>
-      <c r="J139">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="N139">
-        <v>0.47317500000000001</v>
-      </c>
-      <c r="O139">
-        <v>0.5</v>
-      </c>
-      <c r="P139">
-        <v>0.48621700000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H140">
-        <v>1</v>
-      </c>
-      <c r="I140">
-        <v>0.86</v>
-      </c>
-      <c r="J140">
-        <v>0.93</v>
-      </c>
-      <c r="N140">
-        <v>1</v>
-      </c>
-      <c r="O140">
-        <v>0.95</v>
-      </c>
-      <c r="P140">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H141">
-        <v>0.5</v>
-      </c>
-      <c r="I141">
-        <v>0.43248999999999999</v>
-      </c>
-      <c r="J141">
-        <v>0.46379999999999999</v>
-      </c>
-      <c r="N141">
-        <v>0.5</v>
-      </c>
-      <c r="O141">
-        <v>0.47317500000000001</v>
-      </c>
-      <c r="P141">
-        <v>0.48621700000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H142">
-        <v>1</v>
-      </c>
-      <c r="I142">
-        <v>0.86</v>
-      </c>
-      <c r="J142">
-        <v>0.92</v>
-      </c>
-      <c r="N142">
-        <v>1</v>
-      </c>
-      <c r="O142">
-        <v>0.95</v>
-      </c>
-      <c r="P142">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="H143">
-        <v>0.42963899999999999</v>
-      </c>
-      <c r="I143">
-        <v>0.5</v>
-      </c>
-      <c r="J143">
-        <v>0.46215699999999998</v>
-      </c>
-      <c r="N143">
-        <v>0.47537370000000001</v>
-      </c>
-      <c r="O143">
-        <v>0.5</v>
-      </c>
-      <c r="P143">
+      <c r="P144">
         <v>0.48737000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H144">
-        <v>1</v>
-      </c>
-      <c r="I144">
-        <v>0.86</v>
-      </c>
-      <c r="J144">
-        <v>0.92</v>
-      </c>
-      <c r="N144">
-        <v>1</v>
-      </c>
-      <c r="O144">
-        <v>0.95</v>
-      </c>
-      <c r="P144">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="H145">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="I145">
-        <v>0.5965608</v>
-      </c>
-      <c r="J145">
-        <v>0.46800000000000003</v>
+        <v>132</v>
+      </c>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="I145" s="10">
+        <v>1</v>
+      </c>
+      <c r="J145" s="9">
+        <v>1E-3</v>
       </c>
       <c r="N145">
-        <v>0.5</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O145">
-        <v>0.47537299999999999</v>
+        <v>1</v>
       </c>
       <c r="P145">
-        <v>0.48737599999999998</v>
+        <v>0.97470000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H146">
-        <v>1</v>
-      </c>
-      <c r="I146">
-        <v>0.86</v>
-      </c>
-      <c r="J146">
-        <v>0.93</v>
+        <v>131</v>
+      </c>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10">
+        <v>0.57038999999999995</v>
+      </c>
+      <c r="I146" s="10">
+        <v>0.50025500000000001</v>
+      </c>
+      <c r="J146" s="10">
+        <v>0.1239</v>
       </c>
       <c r="N146">
-        <v>1</v>
+        <v>0.47522999999999999</v>
       </c>
       <c r="O146">
-        <v>0.95</v>
+        <v>0.49698999999999999</v>
       </c>
       <c r="P146">
-        <v>0.97</v>
+        <v>0.485869</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H147">
-        <v>0.43051800000000001</v>
-      </c>
-      <c r="I147">
+        <v>137</v>
+      </c>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10">
+        <v>0.8609</v>
+      </c>
+      <c r="I147" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J147" s="10">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="N147">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="O147">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="P147">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10">
+        <v>0.55859999999999999</v>
+      </c>
+      <c r="I148" s="10">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="J148" s="10">
+        <v>0.45679999999999998</v>
+      </c>
+      <c r="N148">
+        <v>0.47251500000000002</v>
+      </c>
+      <c r="O148">
         <v>0.5</v>
       </c>
-      <c r="J147">
-        <v>0.46266499999999999</v>
-      </c>
-      <c r="N147">
-        <v>0.47249999999999998</v>
-      </c>
-      <c r="O147">
-        <v>0.5</v>
-      </c>
-      <c r="P147">
-        <v>0.485869</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A148" s="4"/>
-    </row>
-    <row r="149" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="P148">
+        <v>0.48586000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H149">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I149">
-        <v>1</v>
-      </c>
-      <c r="J149">
-        <v>0.92849999999999999</v>
+        <v>216</v>
+      </c>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="I149" s="10">
+        <v>1</v>
+      </c>
+      <c r="J149" s="10">
+        <v>0.92610000000000003</v>
       </c>
       <c r="N149">
-        <v>0.94550000000000001</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O149">
         <v>1</v>
       </c>
       <c r="P149">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H150">
-        <v>0.56646099999999999</v>
-      </c>
-      <c r="I150">
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="J150">
-        <v>0.11799999999999999</v>
+        <v>213</v>
+      </c>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10">
+        <v>0.42807098999999998</v>
+      </c>
+      <c r="I150" s="10">
+        <v>0.4661749</v>
+      </c>
+      <c r="J150" s="10">
+        <v>0.44631100000000001</v>
       </c>
       <c r="N150">
-        <v>0.472943</v>
+        <v>0.50480990000000003</v>
       </c>
       <c r="O150">
-        <v>0.49976749999999998</v>
+        <v>0.52539999999999998</v>
       </c>
       <c r="P150">
-        <v>0.48595500000000003</v>
+        <v>0.39853</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H151">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="I151">
-        <v>0.23930000000000001</v>
-      </c>
-      <c r="J151">
-        <v>0.38030000000000003</v>
+        <v>217</v>
+      </c>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="I151" s="10">
+        <v>1</v>
+      </c>
+      <c r="J151" s="10">
+        <v>0.92420000000000002</v>
       </c>
       <c r="N151">
-        <v>0.94550000000000001</v>
+        <v>0.94240000000000002</v>
       </c>
       <c r="O151">
         <v>1</v>
       </c>
       <c r="P151">
-        <v>0.9718</v>
+        <v>0.97019999999999995</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H152">
-        <v>0.56645999999999996</v>
-      </c>
-      <c r="I152">
-        <v>0.50049999999999994</v>
-      </c>
-      <c r="J152">
-        <v>0.1183</v>
+        <v>214</v>
+      </c>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10">
+        <v>0.57453030000000005</v>
+      </c>
+      <c r="I152" s="10">
+        <v>0.64519309999999996</v>
+      </c>
+      <c r="J152" s="10">
+        <v>0.55467582999999998</v>
       </c>
       <c r="N152">
-        <v>2.7E-2</v>
+        <v>0.46595999999999999</v>
       </c>
       <c r="O152">
+        <v>0.49778600000000001</v>
+      </c>
+      <c r="P152">
+        <v>5.7090000000000002E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="4"/>
+    </row>
+    <row r="154" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>0.86</v>
+      </c>
+      <c r="J154">
+        <v>0.93</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154">
+        <v>0.95</v>
+      </c>
+      <c r="P154">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H155">
         <v>0.5</v>
       </c>
-      <c r="P152">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H153">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I153">
-        <v>1</v>
-      </c>
-      <c r="J153">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N153">
-        <v>0.88329999999999997</v>
-      </c>
-      <c r="O153">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="P153">
-        <v>6.7900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H154">
-        <v>0.43262499999999998</v>
-      </c>
-      <c r="I154">
-        <v>0.496166</v>
-      </c>
-      <c r="J154">
-        <v>0.12189</v>
-      </c>
-      <c r="N154">
-        <v>0.50834000000000001</v>
-      </c>
-      <c r="O154">
-        <v>0.50546999999999997</v>
-      </c>
-      <c r="P154">
-        <v>8.5800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H155">
-        <v>1</v>
-      </c>
       <c r="I155">
-        <v>0.87</v>
+        <v>0.43248999999999999</v>
       </c>
       <c r="J155">
-        <v>0.93</v>
+        <v>0.46380500000000002</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>0.47316999999999998</v>
       </c>
       <c r="O155">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="P155">
-        <v>0.97</v>
+        <v>0.48620000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="H156">
-        <v>0.4335</v>
+        <v>1</v>
       </c>
       <c r="I156">
+        <v>0.86</v>
+      </c>
+      <c r="J156">
+        <v>0.93</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156">
+        <v>0.95</v>
+      </c>
+      <c r="P156">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H157">
+        <v>0.43248999999999999</v>
+      </c>
+      <c r="I157">
         <v>0.5</v>
       </c>
-      <c r="J156">
-        <v>0.46439999999999998</v>
-      </c>
-      <c r="N156">
-        <v>0.47295500000000001</v>
-      </c>
-      <c r="O156">
+      <c r="J157">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="N157">
+        <v>0.47317500000000001</v>
+      </c>
+      <c r="O157">
         <v>0.5</v>
       </c>
-      <c r="P156">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="H157">
-        <v>1</v>
-      </c>
-      <c r="I157">
-        <v>0.87</v>
-      </c>
-      <c r="J157">
+      <c r="P157">
+        <v>0.48621700000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>0.86</v>
+      </c>
+      <c r="J158">
         <v>0.93</v>
       </c>
-      <c r="N157">
-        <v>1</v>
-      </c>
-      <c r="O157">
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158">
         <v>0.95</v>
       </c>
-      <c r="P157">
+      <c r="P158">
         <v>0.97</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H158">
-        <v>0.43358999999999998</v>
-      </c>
-      <c r="I158">
+    <row r="159" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H159">
         <v>0.5</v>
       </c>
-      <c r="J158">
-        <v>0.46443000000000001</v>
-      </c>
-      <c r="N158">
-        <v>0.47295500000000001</v>
-      </c>
-      <c r="O158">
+      <c r="I159">
+        <v>0.43248999999999999</v>
+      </c>
+      <c r="J159">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="N159">
         <v>0.5</v>
       </c>
-      <c r="P158">
-        <v>0.48609999999999998</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H159">
-        <v>1</v>
-      </c>
-      <c r="I159">
-        <v>0.87</v>
-      </c>
-      <c r="J159">
-        <v>0.93</v>
-      </c>
-      <c r="N159">
-        <v>1</v>
-      </c>
       <c r="O159">
+        <v>0.47317500000000001</v>
+      </c>
+      <c r="P159">
+        <v>0.48621700000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>0.86</v>
+      </c>
+      <c r="J160">
+        <v>0.92</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160">
         <v>0.95</v>
       </c>
-      <c r="P159">
+      <c r="P160">
         <v>0.97</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H160">
+    <row r="161" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H161">
+        <v>0.42963899999999999</v>
+      </c>
+      <c r="I161">
         <v>0.5</v>
       </c>
-      <c r="I160">
-        <v>0.4335</v>
-      </c>
-      <c r="J160">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="N160">
+      <c r="J161">
+        <v>0.46215699999999998</v>
+      </c>
+      <c r="N161">
+        <v>0.47537370000000001</v>
+      </c>
+      <c r="O161">
         <v>0.5</v>
       </c>
-      <c r="O160">
-        <v>0.47294999999999998</v>
-      </c>
-      <c r="P160">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A161" s="4"/>
+      <c r="P161">
+        <v>0.48737000000000003</v>
+      </c>
     </row>
     <row r="162" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H162">
-        <v>0.86699999999999999</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="J162">
-        <v>0.92849999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="N162">
-        <v>0.94550000000000001</v>
+        <v>1</v>
       </c>
       <c r="O162">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P162">
-        <v>0.9718</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="H163">
-        <v>0.49965300000000001</v>
+        <v>0.50209999999999999</v>
       </c>
       <c r="I163">
-        <v>0.49948399999999998</v>
+        <v>0.5965608</v>
       </c>
       <c r="J163">
-        <v>0.49312</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="N163">
-        <v>0.472943</v>
+        <v>0.5</v>
       </c>
       <c r="O163">
-        <v>0.49976700000000002</v>
+        <v>0.47537299999999999</v>
       </c>
       <c r="P163">
-        <v>0.485985</v>
+        <v>0.48737599999999998</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="H164">
-        <v>0.86699999999999999</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="J164">
-        <v>0.92849999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="N164">
-        <v>0.94550000000000001</v>
+        <v>1</v>
       </c>
       <c r="O164">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P164">
-        <v>0.9718</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H165">
-        <v>0.43359700000000001</v>
+        <v>0.43051800000000001</v>
       </c>
       <c r="I165">
         <v>0.5</v>
       </c>
       <c r="J165">
-        <v>0.46443699999999999</v>
+        <v>0.46266499999999999</v>
       </c>
       <c r="N165">
-        <v>0.49086000000000002</v>
+        <v>0.47249999999999998</v>
       </c>
       <c r="O165">
-        <v>0.49185000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="P165">
-        <v>0.49129</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>0.485869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="H166">
-        <v>0.86699999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="J166">
-        <v>0.92849999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="N166">
-        <v>0.94550000000000001</v>
+        <v>1</v>
       </c>
       <c r="O166">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P166">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>122</v>
+        <v>213</v>
       </c>
       <c r="H167">
-        <v>0.56642999999999999</v>
+        <v>0.69821999999999995</v>
       </c>
       <c r="I167">
-        <v>0.50019999999999998</v>
+        <v>0.830233</v>
       </c>
       <c r="J167">
-        <v>0.117788</v>
+        <v>0.74077000000000004</v>
       </c>
       <c r="N167">
-        <v>0.47295500000000001</v>
+        <v>0.5</v>
       </c>
       <c r="O167">
-        <v>0.5</v>
+        <v>0.47537000000000001</v>
       </c>
       <c r="P167">
-        <v>0.48610100000000001</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="H168">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0.86</v>
       </c>
       <c r="J168">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N168">
         <v>1</v>
       </c>
       <c r="O168">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="P168">
         <v>0.97</v>
@@ -7514,429 +7436,898 @@
     </row>
     <row r="169" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="H169">
-        <v>0.51063999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="I169">
-        <v>0.50104400000000004</v>
+        <v>0.42985899999999999</v>
       </c>
       <c r="J169">
-        <v>0.47427999999999998</v>
+        <v>0.46228399999999997</v>
       </c>
       <c r="N169">
-        <v>0.47289999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="O169">
+        <v>0.47141</v>
+      </c>
+      <c r="P169">
+        <v>0.48528700000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A170" s="4"/>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A171" s="4"/>
+    </row>
+    <row r="172" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H172">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N172">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O172">
+        <v>1</v>
+      </c>
+      <c r="P172">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H173">
+        <v>0.56646099999999999</v>
+      </c>
+      <c r="I173">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="J173">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="N173">
+        <v>0.472943</v>
+      </c>
+      <c r="O173">
+        <v>0.49976749999999998</v>
+      </c>
+      <c r="P173">
+        <v>0.48595500000000003</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H174">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="I174">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="J174">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="N174">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O174">
+        <v>1</v>
+      </c>
+      <c r="P174">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H175">
+        <v>0.56645999999999996</v>
+      </c>
+      <c r="I175">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="J175">
+        <v>0.1183</v>
+      </c>
+      <c r="N175">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O175">
         <v>0.5</v>
       </c>
-      <c r="P169">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H170">
-        <v>0.82</v>
-      </c>
-      <c r="I170">
-        <v>0.8</v>
-      </c>
-      <c r="J170">
-        <v>0.81</v>
-      </c>
-      <c r="N170">
-        <v>0.91</v>
-      </c>
-      <c r="O170">
-        <v>0.91</v>
-      </c>
-      <c r="P170">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H171">
-        <v>0.52729999999999999</v>
-      </c>
-      <c r="I171">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="J171">
-        <v>0.52428900000000001</v>
-      </c>
-      <c r="N171">
-        <v>0.51158499999999996</v>
-      </c>
-      <c r="O171">
-        <v>0.50997000000000003</v>
-      </c>
-      <c r="P171">
-        <v>0.51049999999999995</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H172">
-        <v>0.75</v>
-      </c>
-      <c r="I172">
-        <v>0.76</v>
-      </c>
-      <c r="J172">
-        <v>0.76</v>
-      </c>
-      <c r="N172">
-        <v>0.9</v>
-      </c>
-      <c r="O172">
-        <v>0.9</v>
-      </c>
-      <c r="P172">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H173">
-        <v>0.51670000000000005</v>
-      </c>
-      <c r="I173">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="J173">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="N173">
-        <v>0.49696000000000001</v>
-      </c>
-      <c r="O173">
-        <v>0.49697999999999998</v>
-      </c>
-      <c r="P173">
-        <v>0.49697000000000002</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A174" s="4"/>
-    </row>
-    <row r="175" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H175">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I175">
-        <v>1</v>
-      </c>
-      <c r="J175">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N175">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="O175">
-        <v>1</v>
-      </c>
       <c r="P175">
-        <v>0.95940000000000003</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="H176">
-        <v>0.47590500000000002</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="I176">
-        <v>0.45176899999999998</v>
+        <v>1</v>
       </c>
       <c r="J176">
-        <v>0.42346400000000001</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="N176">
-        <v>0.49375999999999998</v>
+        <v>0.88329999999999997</v>
       </c>
       <c r="O176">
-        <v>0.4869</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="P176">
-        <v>0.48514000000000002</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="H177">
-        <v>0.85799999999999998</v>
+        <v>0.43262499999999998</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>0.496166</v>
       </c>
       <c r="J177">
-        <v>0.92310000000000003</v>
+        <v>0.12189</v>
       </c>
       <c r="N177">
-        <v>0.9456</v>
+        <v>0.50834000000000001</v>
       </c>
       <c r="O177">
-        <v>1</v>
+        <v>0.50546999999999997</v>
       </c>
       <c r="P177">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>74</v>
+        <v>111</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+      <c r="I178">
+        <v>0.87</v>
+      </c>
+      <c r="J178">
+        <v>0.93</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>0.95</v>
+      </c>
+      <c r="P178">
+        <v>0.97</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="H179">
-        <v>7.0800000000000002E-2</v>
+        <v>0.4335</v>
       </c>
       <c r="I179">
         <v>0.5</v>
       </c>
       <c r="J179">
-        <v>0.12403</v>
+        <v>0.46439999999999998</v>
       </c>
       <c r="N179">
-        <v>0.49685499999999999</v>
+        <v>0.47295500000000001</v>
       </c>
       <c r="O179">
-        <v>0.48395460000000001</v>
+        <v>0.5</v>
       </c>
       <c r="P179">
-        <v>0.40194999999999997</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="H180">
-        <v>0.8619</v>
+        <v>1</v>
       </c>
       <c r="I180">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="J180">
-        <v>0.92530000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="N180">
-        <v>0.94850000000000001</v>
+        <v>1</v>
       </c>
       <c r="O180">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P180">
-        <v>0.97330000000000005</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H181">
-        <v>6.8821400000000005E-2</v>
+        <v>0.43358999999999998</v>
       </c>
       <c r="I181">
         <v>0.5</v>
       </c>
       <c r="J181">
-        <v>0.12098</v>
+        <v>0.46443000000000001</v>
       </c>
       <c r="N181">
-        <v>2.5725499999999998E-2</v>
+        <v>0.47295500000000001</v>
       </c>
       <c r="O181">
         <v>0.5</v>
       </c>
       <c r="P181">
-        <v>4.8933499999999998E-2</v>
+        <v>0.48609999999999998</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="H182">
-        <v>0.8619</v>
+        <v>1</v>
       </c>
       <c r="I182">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="J182">
-        <v>0.92530000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="N182">
-        <v>0.94769999999999999</v>
+        <v>1</v>
       </c>
       <c r="O182">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="P182">
-        <v>0.97289999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H183">
-        <v>6.8821450000000006E-2</v>
+        <v>0.5</v>
       </c>
       <c r="I183">
+        <v>0.4335</v>
+      </c>
+      <c r="J183">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N183">
         <v>0.5</v>
       </c>
-      <c r="J183">
-        <v>0.120989</v>
-      </c>
-      <c r="N183">
-        <v>6.8821450000000006E-2</v>
-      </c>
       <c r="O183">
-        <v>0.5</v>
+        <v>0.47294999999999998</v>
       </c>
       <c r="P183">
-        <v>0.120989</v>
+        <v>0.48610100000000001</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H185">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N185">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H186">
+        <v>0.49965300000000001</v>
+      </c>
+      <c r="I186">
+        <v>0.49948399999999998</v>
+      </c>
+      <c r="J186">
+        <v>0.49312</v>
+      </c>
+      <c r="N186">
+        <v>0.472943</v>
+      </c>
+      <c r="O186">
+        <v>0.49976700000000002</v>
+      </c>
+      <c r="P186">
+        <v>0.485985</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H187">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N187">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H188">
+        <v>0.43359700000000001</v>
+      </c>
+      <c r="I188">
+        <v>0.5</v>
+      </c>
+      <c r="J188">
+        <v>0.46443699999999999</v>
+      </c>
+      <c r="N188">
+        <v>0.49086000000000002</v>
+      </c>
+      <c r="O188">
+        <v>0.49185000000000001</v>
+      </c>
+      <c r="P188">
+        <v>0.49129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H189">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N189">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H190">
+        <v>0.56642999999999999</v>
+      </c>
+      <c r="I190">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="J190">
+        <v>0.117788</v>
+      </c>
+      <c r="N190">
+        <v>0.47295500000000001</v>
+      </c>
+      <c r="O190">
+        <v>0.5</v>
+      </c>
+      <c r="P190">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H191">
+        <v>0.98</v>
+      </c>
+      <c r="I191">
+        <v>0.86</v>
+      </c>
+      <c r="J191">
+        <v>0.91</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>0.95</v>
+      </c>
+      <c r="P191">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H192">
+        <v>0.51063999999999998</v>
+      </c>
+      <c r="I192">
+        <v>0.50104400000000004</v>
+      </c>
+      <c r="J192">
+        <v>0.47427999999999998</v>
+      </c>
+      <c r="N192">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="O192">
+        <v>0.5</v>
+      </c>
+      <c r="P192">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H193">
+        <v>0.82</v>
+      </c>
+      <c r="I193">
+        <v>0.8</v>
+      </c>
+      <c r="J193">
+        <v>0.81</v>
+      </c>
+      <c r="N193">
+        <v>0.91</v>
+      </c>
+      <c r="O193">
+        <v>0.91</v>
+      </c>
+      <c r="P193">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H194">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I194">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J194">
+        <v>0.52428900000000001</v>
+      </c>
+      <c r="N194">
+        <v>0.51158499999999996</v>
+      </c>
+      <c r="O194">
+        <v>0.50997000000000003</v>
+      </c>
+      <c r="P194">
+        <v>0.51049999999999995</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H195">
+        <v>0.75</v>
+      </c>
+      <c r="I195">
+        <v>0.76</v>
+      </c>
+      <c r="J195">
+        <v>0.76</v>
+      </c>
+      <c r="N195">
+        <v>0.9</v>
+      </c>
+      <c r="O195">
+        <v>0.9</v>
+      </c>
+      <c r="P195">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H196">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="I196">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="J196">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N196">
+        <v>0.49696000000000001</v>
+      </c>
+      <c r="O196">
+        <v>0.49697999999999998</v>
+      </c>
+      <c r="P196">
+        <v>0.49697000000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H198">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N198">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H199">
+        <v>0.47590500000000002</v>
+      </c>
+      <c r="I199">
+        <v>0.45176899999999998</v>
+      </c>
+      <c r="J199">
+        <v>0.42346400000000001</v>
+      </c>
+      <c r="N199">
+        <v>0.49375999999999998</v>
+      </c>
+      <c r="O199">
+        <v>0.4869</v>
+      </c>
+      <c r="P199">
+        <v>0.48514000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H200">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N200">
+        <v>0.9456</v>
+      </c>
+      <c r="O200">
+        <v>1</v>
+      </c>
+      <c r="P200">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H202">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I202">
+        <v>0.5</v>
+      </c>
+      <c r="J202">
+        <v>0.12403</v>
+      </c>
+      <c r="N202">
+        <v>0.49685499999999999</v>
+      </c>
+      <c r="O202">
+        <v>0.48395460000000001</v>
+      </c>
+      <c r="P202">
+        <v>0.40194999999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H203">
+        <v>0.8619</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N203">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="O203">
+        <v>1</v>
+      </c>
+      <c r="P203">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H204">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I204">
+        <v>0.5</v>
+      </c>
+      <c r="J204">
+        <v>0.12098</v>
+      </c>
+      <c r="N204">
+        <v>2.5725499999999998E-2</v>
+      </c>
+      <c r="O204">
+        <v>0.5</v>
+      </c>
+      <c r="P204">
+        <v>4.8933499999999998E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H205">
+        <v>0.8619</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N205">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="O205">
+        <v>1</v>
+      </c>
+      <c r="P205">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H206">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="I206">
+        <v>0.5</v>
+      </c>
+      <c r="J206">
+        <v>0.120989</v>
+      </c>
+      <c r="N206">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="O206">
+        <v>0.5</v>
+      </c>
+      <c r="P206">
+        <v>0.120989</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H185">
+      <c r="H208">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I185">
-        <v>1</v>
-      </c>
-      <c r="J185">
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N185">
+      <c r="N208">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O185">
-        <v>1</v>
-      </c>
-      <c r="P185">
+      <c r="O208">
+        <v>1</v>
+      </c>
+      <c r="P208">
         <v>0.92730000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+    <row r="209" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H186">
+      <c r="H209">
         <v>6.8821400000000005E-2</v>
       </c>
-      <c r="I186">
+      <c r="I209">
         <v>0.5</v>
       </c>
-      <c r="J186">
+      <c r="J209">
         <v>0.120989</v>
       </c>
-      <c r="N186">
+      <c r="N209">
         <v>6.8820000000000006E-2</v>
       </c>
-      <c r="O186">
+      <c r="O209">
         <v>0.5</v>
       </c>
-      <c r="P186">
+      <c r="P209">
         <v>0.12098</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+    <row r="210" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H187">
+      <c r="H210">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I187">
+      <c r="I210">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J187">
+      <c r="J210">
         <v>0.92</v>
       </c>
-      <c r="N187">
+      <c r="N210">
         <v>0.9456</v>
       </c>
-      <c r="O187">
+      <c r="O210">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P187">
+      <c r="P210">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A192" s="4"/>
-    </row>
-    <row r="193" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H193">
+      <c r="H216">
         <v>0.4</v>
       </c>
-      <c r="I193">
+      <c r="I216">
         <v>0.5</v>
       </c>
-      <c r="J193">
+      <c r="J216">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N193">
+      <c r="N216">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O193">
+      <c r="O216">
         <v>0.5202</v>
       </c>
-      <c r="P193">
+      <c r="P216">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+    <row r="217" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H194">
+      <c r="H217">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I194">
+      <c r="I217">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J194">
+      <c r="J217">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N194">
+      <c r="N217">
         <v>0.5</v>
       </c>
-      <c r="O194">
+      <c r="O217">
         <v>0.34</v>
       </c>
-      <c r="P194">
+      <c r="P217">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -7955,122 +8346,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J117" sqref="J117"/>
+      <selection pane="bottomRight" activeCell="N123" sqref="N123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="40" style="10" customWidth="1"/>
     <col min="2" max="1025" width="8.42578125" style="10" customWidth="1"/>
     <col min="1026" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="18"/>
+      <c r="R2" s="16"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="8"/>
@@ -8558,7 +8949,7 @@
     </row>
     <row r="15" spans="1:18" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -9027,7 +9418,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -9488,7 +9879,7 @@
       <c r="P36" s="8"/>
     </row>
     <row r="37" spans="1:16" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="18" t="s">
         <v>140</v>
       </c>
       <c r="N37" s="13"/>
@@ -9953,7 +10344,7 @@
     </row>
     <row r="48" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -10427,546 +10818,824 @@
       <c r="O58" s="13"/>
       <c r="P58" s="13"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B60" s="22">
-        <v>0.91249999999999998</v>
-      </c>
-      <c r="C60" s="22">
-        <v>1</v>
-      </c>
-      <c r="D60" s="22">
-        <v>0.9536</v>
-      </c>
-      <c r="E60" s="22">
-        <v>0.82189999999999996</v>
-      </c>
-      <c r="F60" s="22">
-        <v>1</v>
-      </c>
-      <c r="G60" s="22">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="H60" s="22">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="I60" s="22">
-        <v>1</v>
-      </c>
-      <c r="J60" s="22">
-        <v>0.92820000000000003</v>
-      </c>
-      <c r="K60" s="22">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="L60" s="22">
-        <v>1</v>
-      </c>
-      <c r="M60" s="22">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="N60" s="22">
-        <v>0.94379999999999997</v>
-      </c>
-      <c r="O60" s="22">
-        <v>1</v>
-      </c>
-      <c r="P60" s="22">
-        <v>0.97099999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="22">
-        <v>0.85940000000000005</v>
-      </c>
-      <c r="C61" s="22">
-        <v>1</v>
-      </c>
-      <c r="D61" s="22">
+    <row r="59" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>185</v>
+      </c>
+      <c r="N60" s="13">
+        <v>0.90168499999999996</v>
+      </c>
+      <c r="O60" s="13">
+        <v>0.59560400000000002</v>
+      </c>
+      <c r="P60" s="13">
+        <v>0.70209500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B64" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="C64" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="F64" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="H64" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K64" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="M64" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P64" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C65" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F65" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H65" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I65" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K65" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M65" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N65" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="O65" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="P65" s="13">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="C66" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="D66" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E66" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F66" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="G66" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="H66" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="I66" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J66" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="K66" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="L66" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="M66" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="N66" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O66" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P66" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="C67" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H67" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="I67" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K67" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="L67" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="M67" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N67" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="O67" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="P67" s="13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C68" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F68" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="H68" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I68" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J68" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K68" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="L68" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M68" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N68" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="O68" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="P68" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H69" s="10">
+        <v>0.86109999999999998</v>
+      </c>
+      <c r="I69" s="10">
+        <v>1</v>
+      </c>
+      <c r="J69" s="10">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="N69" s="10">
+        <v>0.97850000000000004</v>
+      </c>
+      <c r="O69" s="10">
+        <v>1</v>
+      </c>
+      <c r="P69" s="10">
+        <v>0.97850000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H70" s="10">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I70" s="10">
+        <v>1</v>
+      </c>
+      <c r="J70" s="10">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N70" s="10">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O70" s="10">
+        <v>1</v>
+      </c>
+      <c r="P70" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H71" s="10">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I71" s="10">
+        <v>1</v>
+      </c>
+      <c r="J71" s="10">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N71" s="10">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="O71" s="10">
+        <v>1</v>
+      </c>
+      <c r="P71" s="10">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="I72" s="10">
+        <v>1</v>
+      </c>
+      <c r="J72" s="10">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E61" s="22">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="F61" s="22">
-        <v>1</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="H61" s="22">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="I61" s="22">
-        <v>1</v>
-      </c>
-      <c r="J61" s="22">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="K61" s="22">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="L61" s="22">
-        <v>1</v>
-      </c>
-      <c r="M61" s="22">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N61" s="22">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="O61" s="22">
-        <v>1</v>
-      </c>
-      <c r="P61" s="22">
-        <v>0.9849</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="10">
-        <v>0.93740000000000001</v>
-      </c>
-      <c r="C62" s="22">
-        <v>1</v>
-      </c>
-      <c r="D62" s="10">
-        <v>0.96750000000000003</v>
-      </c>
-      <c r="E62" s="10">
-        <v>0.82550000000000001</v>
-      </c>
-      <c r="F62" s="22">
-        <v>1</v>
-      </c>
-      <c r="G62" s="10">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="H62" s="10">
-        <v>0.86429999999999996</v>
-      </c>
-      <c r="I62" s="10">
-        <v>1</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="K62" s="10">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="L62" s="10">
-        <v>1</v>
-      </c>
-      <c r="M62" s="10">
-        <v>0.91320000000000001</v>
-      </c>
-      <c r="N62" s="10">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="O62" s="10">
-        <v>1</v>
-      </c>
-      <c r="P62" s="10">
-        <v>0.97709999999999997</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
+      <c r="N72" s="10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O72" s="10">
+        <v>1</v>
+      </c>
+      <c r="P72" s="10">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="N73" s="10">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O73" s="10">
+        <v>1</v>
+      </c>
+      <c r="P73" s="10">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="H74" s="10">
+        <v>0.8609</v>
+      </c>
+      <c r="I74" s="10">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J74" s="10">
+        <v>0.92459999999999998</v>
+      </c>
+      <c r="N74" s="10">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="O74" s="10">
+        <v>0.99729999999999996</v>
+      </c>
+      <c r="P74" s="10">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10">
+        <v>0.86329999999999996</v>
+      </c>
+      <c r="I75" s="10">
+        <v>1</v>
+      </c>
+      <c r="J75" s="10">
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="N75">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>0.97470000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10">
+        <v>0.86040000000000005</v>
+      </c>
+      <c r="I76" s="10">
+        <v>1</v>
+      </c>
+      <c r="J76" s="10">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="N76">
+        <v>0.94240000000000002</v>
+      </c>
+      <c r="O76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>0.97019999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+    </row>
+    <row r="78" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>202</v>
+      </c>
+      <c r="B79" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="C79" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="D79" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E79" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="F79" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="G79" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="H79" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="I79" s="8">
+        <v>0.86</v>
+      </c>
+      <c r="J79" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K79" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="L79" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="M79" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N79" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O79" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P79" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C80" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I80" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J80" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K80" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="L80" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M80" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N80" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="O80" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="P80" s="13">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B81" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="C81" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F81" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="H81" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="I81" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J81" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="L81" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="M81" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="N81" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O81" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P81" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="C82" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="D82" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F82" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K82" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="L82" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="M82" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N82" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="O82" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="P82" s="13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C83" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D83" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F83" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J83" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K83" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="L83" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M83" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N83" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="O83" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="P83" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H84" s="10">
+        <v>1</v>
+      </c>
+      <c r="I84" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J84" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="N84" s="10">
+        <v>1</v>
+      </c>
+      <c r="O84" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P84" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="H67" s="10">
-        <v>0.86109999999999998</v>
-      </c>
-      <c r="I67" s="10">
-        <v>1</v>
-      </c>
-      <c r="J67" s="10">
-        <v>0.92390000000000005</v>
-      </c>
-      <c r="N67" s="10">
-        <v>0.97850000000000004</v>
-      </c>
-      <c r="O67" s="10">
-        <v>1</v>
-      </c>
-      <c r="P67" s="10">
-        <v>0.97850000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H68" s="10">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="I68" s="10">
-        <v>1</v>
-      </c>
-      <c r="J68" s="10">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="N68" s="10">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="O68" s="10">
-        <v>1</v>
-      </c>
-      <c r="P68" s="10">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H69" s="10">
-        <v>0.86480000000000001</v>
-      </c>
-      <c r="I69" s="10">
-        <v>1</v>
-      </c>
-      <c r="J69" s="10">
-        <v>0.92710000000000004</v>
-      </c>
-      <c r="N69" s="10">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="O69" s="10">
-        <v>1</v>
-      </c>
-      <c r="P69" s="10">
-        <v>0.97199999999999998</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="H70" s="10">
+      <c r="H85" s="10">
+        <v>1</v>
+      </c>
+      <c r="I85" s="10">
         <v>0.86</v>
       </c>
-      <c r="I70" s="10">
-        <v>1</v>
-      </c>
-      <c r="J70" s="10">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="N70" s="10">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O70" s="10">
-        <v>1</v>
-      </c>
-      <c r="P70" s="10">
-        <v>0.97470000000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="J85" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="N85" s="10">
+        <v>1</v>
+      </c>
+      <c r="O85" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P85" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="H86" s="10">
+        <v>1</v>
+      </c>
+      <c r="I86" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J86" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="N86" s="10">
+        <v>1</v>
+      </c>
+      <c r="O86" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P86" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="N71" s="10">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O71" s="10">
-        <v>1</v>
-      </c>
-      <c r="P71" s="10">
-        <v>0.97470000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="H72" s="10">
-        <v>0.8609</v>
-      </c>
-      <c r="I72" s="10">
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="J72" s="10">
-        <v>0.92459999999999998</v>
-      </c>
-      <c r="N72" s="10">
-        <v>0.94489999999999996</v>
-      </c>
-      <c r="O72" s="10">
-        <v>0.99729999999999996</v>
-      </c>
-      <c r="P72" s="10">
-        <v>0.97019999999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
-    </row>
-    <row r="74" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75" s="22" t="s">
+      <c r="H87" s="10">
+        <v>1</v>
+      </c>
+      <c r="I87" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J87" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="N87" s="10">
+        <v>1</v>
+      </c>
+      <c r="O87" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P87" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="H75" s="10">
-        <v>1</v>
-      </c>
-      <c r="I75" s="10">
+      <c r="H88" s="10">
+        <v>1</v>
+      </c>
+      <c r="I88" s="10">
         <v>0.86</v>
       </c>
-      <c r="J75" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="N75" s="10">
-        <v>1</v>
-      </c>
-      <c r="O75" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P75" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H76" s="10">
-        <v>1</v>
-      </c>
-      <c r="I76" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="J76" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="N76" s="10">
-        <v>1</v>
-      </c>
-      <c r="O76" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P76" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="H77" s="10">
-        <v>1</v>
-      </c>
-      <c r="I77" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="J77" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="N77" s="10">
-        <v>1</v>
-      </c>
-      <c r="O77" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P77" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H78" s="10">
-        <v>1</v>
-      </c>
-      <c r="I78" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="J78" s="10">
+      <c r="J88" s="10">
         <v>0.92</v>
-      </c>
-      <c r="N78" s="10">
-        <v>1</v>
-      </c>
-      <c r="O78" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P78" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="H79" s="10">
-        <v>1</v>
-      </c>
-      <c r="I79" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="J79" s="10">
-        <v>0.92</v>
-      </c>
-      <c r="N79" s="10">
-        <v>1</v>
-      </c>
-      <c r="O79" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P79" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="H80" s="10">
-        <v>1</v>
-      </c>
-      <c r="I80" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="J80" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="N80" s="10">
-        <v>1</v>
-      </c>
-      <c r="O80" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P80" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
-    </row>
-    <row r="82" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H83" s="10">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I83" s="10">
-        <v>1</v>
-      </c>
-      <c r="J83" s="10">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N83" s="10">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O83" s="10">
-        <v>1</v>
-      </c>
-      <c r="P83" s="10">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H84" s="10">
-        <v>0.97040000000000004</v>
-      </c>
-      <c r="I84" s="10">
-        <v>0.23930000000000001</v>
-      </c>
-      <c r="J84" s="10">
-        <v>0.38030000000000003</v>
-      </c>
-      <c r="N84" s="10">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O84" s="10">
-        <v>1</v>
-      </c>
-      <c r="P84" s="10">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H85" s="10">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I85" s="10">
-        <v>1</v>
-      </c>
-      <c r="J85" s="10">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N85" s="10">
-        <v>0.88329999999999997</v>
-      </c>
-      <c r="O85" s="10">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="P85" s="10">
-        <v>6.7900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-    </row>
-    <row r="87" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A88" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="H88" s="10">
-        <v>1</v>
-      </c>
-      <c r="I88" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="J88" s="10">
-        <v>0.93</v>
       </c>
       <c r="N88" s="10">
         <v>1</v>
@@ -10978,15 +11647,15 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
-        <v>153</v>
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>159</v>
       </c>
       <c r="H89" s="10">
         <v>1</v>
       </c>
       <c r="I89" s="10">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J89" s="10">
         <v>0.93</v>
@@ -11001,370 +11670,1715 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A90" s="22" t="s">
+    <row r="90" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90">
+        <v>0.94</v>
+      </c>
+      <c r="I90">
+        <v>0.9</v>
+      </c>
+      <c r="J90">
+        <v>0.91</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>0.95</v>
+      </c>
+      <c r="P90">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>0.86</v>
+      </c>
+      <c r="J91">
+        <v>0.92</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0.94</v>
+      </c>
+      <c r="P91">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+    </row>
+    <row r="93" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="C94" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="D94" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F94" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="G94" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="H94" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="I94" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="J94" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K94" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="L94" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="M94" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N94" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O94" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P94" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C95" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F95" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G95" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H95" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I95" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J95" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K95" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="L95" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M95" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N95" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="O95" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="P95" s="13">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="C96" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="D96" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E96" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F96" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="H96" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="I96" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J96" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="K96" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="L96" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="M96" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="N96" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O96" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P96" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B97" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="C97" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="F97" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J97" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K97" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="L97" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="M97" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N97" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="O97" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="P97" s="13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B98" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C98" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F98" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="G98" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="H98" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I98" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J98" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K98" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="L98" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M98" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N98" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="O98" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="P98" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I99" s="10">
+        <v>1</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N99" s="10">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O99" s="10">
+        <v>1</v>
+      </c>
+      <c r="P99" s="10">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="I100" s="10">
+        <v>0.23930000000000001</v>
+      </c>
+      <c r="J100" s="10">
+        <v>0.38030000000000003</v>
+      </c>
+      <c r="N100" s="10">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O100" s="10">
+        <v>1</v>
+      </c>
+      <c r="P100" s="10">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H101" s="10">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I101" s="10">
+        <v>1</v>
+      </c>
+      <c r="J101" s="10">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N101" s="10">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="O101" s="10">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="P101" s="10">
+        <v>6.7900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" s="19"/>
+    </row>
+    <row r="103" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>202</v>
+      </c>
+      <c r="B104" s="8">
+        <v>0.87</v>
+      </c>
+      <c r="C104" s="8">
+        <v>0.93</v>
+      </c>
+      <c r="D104" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="E104" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="F104" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="G104" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="H104" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="I104" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="J104" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="K104" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="L104" s="8">
+        <v>0.83</v>
+      </c>
+      <c r="M104" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="N104" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="O104" s="8">
+        <v>0.95</v>
+      </c>
+      <c r="P104" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C105" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F105" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G105" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H105" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I105" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J105" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="K105" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="L105" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M105" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N105" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="O105" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="P105" s="13">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="C106" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="D106" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="E106" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="F106" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="G106" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="H106" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="I106" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J106" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="K106" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="L106" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="M106" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="N106" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O106" s="8">
+        <v>0.96</v>
+      </c>
+      <c r="P106" s="8">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="C107" s="12">
+        <v>0.94</v>
+      </c>
+      <c r="D107" s="12">
+        <v>0.91</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="F107" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="H107" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="I107" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J107" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K107" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="L107" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="M107" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N107" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="O107" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="P107" s="13">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C108" s="12">
+        <v>0.93</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="F108" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="G108" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="H108" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="J108" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="K108" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="L108" s="12">
+        <v>0.84</v>
+      </c>
+      <c r="M108" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="N108" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="O108" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="P108" s="13">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H109" s="10">
+        <v>1</v>
+      </c>
+      <c r="I109" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="J109" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="N109" s="10">
+        <v>1</v>
+      </c>
+      <c r="O109" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P109" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H110" s="10">
+        <v>1</v>
+      </c>
+      <c r="I110" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="J110" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="N110" s="10">
+        <v>1</v>
+      </c>
+      <c r="O110" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P110" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H111" s="10">
+        <v>1</v>
+      </c>
+      <c r="I111" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="J111" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="N111" s="10">
+        <v>1</v>
+      </c>
+      <c r="O111" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P111" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" s="19"/>
+    </row>
+    <row r="113" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="C114" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="D114" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="G114" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="H114" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="I114" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="J114" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="K114" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="L114" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="M114" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="N114" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O114" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P114" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C115" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F115" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="H115" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="I115" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="J115" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="K115" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="L115" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="M115" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="N115" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="O115" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="P115" s="13">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B116" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="C116" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="D116" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="E116" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="F116" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="G116" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="H116" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="I116" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="J116" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="K116" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="L116" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="M116" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="N116" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="O116" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="P116" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B117" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="C117" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F117" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="H117" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="I117" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="J117" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="K117" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="L117" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="M117" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="N117" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="O117" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="P117" s="13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>212</v>
+      </c>
+      <c r="B118" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C118" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F118" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="G118" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="H118" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="I118" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="J118" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="K118" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="L118" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="M118" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="N118" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="O118" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="P118" s="13">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H119" s="10">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I119" s="10">
+        <v>1</v>
+      </c>
+      <c r="J119" s="10">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N119" s="10">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O119" s="10">
+        <v>1</v>
+      </c>
+      <c r="P119" s="10">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I120" s="10">
+        <v>1</v>
+      </c>
+      <c r="J120" s="10">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N120" s="10">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O120" s="10">
+        <v>1</v>
+      </c>
+      <c r="P120" s="10">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H121" s="10">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I121" s="10">
+        <v>1</v>
+      </c>
+      <c r="J121" s="10">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N121" s="10">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O121" s="10">
+        <v>1</v>
+      </c>
+      <c r="P121" s="10">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="19"/>
+    </row>
+    <row r="123" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>202</v>
+      </c>
+      <c r="B124" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="C124" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="D124" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="E124" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="G124" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="H124" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="I124" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="J124" s="8">
+        <v>0.76</v>
+      </c>
+      <c r="K124" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="L124" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="M124" s="8">
+        <v>0.73</v>
+      </c>
+      <c r="N124" s="8">
+        <v>0.91</v>
+      </c>
+      <c r="O124" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="P124" s="8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>207</v>
+      </c>
+      <c r="B125" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C125" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F125" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="G125" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="H125" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="I125" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="J125" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="K125" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="L125" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="M125" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="N125" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="O125" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="P125" s="13">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B126" s="10">
+        <v>0.87</v>
+      </c>
+      <c r="C126" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="D126" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="E126" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="F126" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="G126" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="H126" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="I126" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="J126" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="K126" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="L126" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="M126" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="N126" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="O126" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="P126" s="8">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B127" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="C127" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="E127" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F127" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="G127" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="H127" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="I127" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="J127" s="12">
+        <v>0.77</v>
+      </c>
+      <c r="K127" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="L127" s="12">
+        <v>0.71</v>
+      </c>
+      <c r="M127" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="N127" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="O127" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="P127" s="13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>212</v>
+      </c>
+      <c r="B128" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="C128" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.87</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="F128" s="12">
+        <v>0.73</v>
+      </c>
+      <c r="G128" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="H128" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="I128" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="J128" s="12">
+        <v>0.76</v>
+      </c>
+      <c r="K128" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="L128" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="M128" s="12">
+        <v>0.74</v>
+      </c>
+      <c r="N128" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="O128" s="13">
+        <v>0.91</v>
+      </c>
+      <c r="P128" s="13">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="H129" s="10">
+        <v>0.98</v>
+      </c>
+      <c r="I129" s="10">
+        <v>0.86</v>
+      </c>
+      <c r="J129" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="N129" s="10">
+        <v>1</v>
+      </c>
+      <c r="O129" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="P129" s="10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H130" s="10">
+        <v>0.82</v>
+      </c>
+      <c r="I130" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="J130" s="10">
+        <v>0.81</v>
+      </c>
+      <c r="N130" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="O130" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="P130" s="10">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H131" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="I131" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="J131" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="N131" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="O131" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="P131" s="10">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" s="19"/>
+    </row>
+    <row r="133" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B135" s="19">
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="C135" s="19">
+        <v>1</v>
+      </c>
+      <c r="D135" s="19">
+        <v>0.9536</v>
+      </c>
+      <c r="E135" s="19">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="F135" s="19">
+        <v>1</v>
+      </c>
+      <c r="G135" s="19">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="H135" s="19">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="I135" s="19">
+        <v>1</v>
+      </c>
+      <c r="J135" s="19">
+        <v>0.92820000000000003</v>
+      </c>
+      <c r="K135" s="19">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="L135" s="19">
+        <v>1</v>
+      </c>
+      <c r="M135" s="19">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="N135" s="19">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="O135" s="19">
+        <v>1</v>
+      </c>
+      <c r="P135" s="19">
+        <v>0.97099999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="H136" s="10">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I136" s="10">
+        <v>1</v>
+      </c>
+      <c r="J136" s="10">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N136" s="10">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O136" s="10">
+        <v>1</v>
+      </c>
+      <c r="P136" s="10">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="H137" s="10">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I137" s="10">
+        <v>1</v>
+      </c>
+      <c r="J137" s="10">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N137" s="10">
+        <v>0.9456</v>
+      </c>
+      <c r="O137" s="10">
+        <v>1</v>
+      </c>
+      <c r="P137" s="10">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="H90" s="10">
-        <v>1</v>
-      </c>
-      <c r="I90" s="10">
-        <v>0.87</v>
-      </c>
-      <c r="J90" s="10">
-        <v>0.93</v>
-      </c>
-      <c r="N90" s="10">
-        <v>1</v>
-      </c>
-      <c r="O90" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P90" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-    </row>
-    <row r="92" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H93" s="10">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I93" s="10">
-        <v>1</v>
-      </c>
-      <c r="J93" s="10">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N93" s="10">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O93" s="10">
-        <v>1</v>
-      </c>
-      <c r="P93" s="10">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A94" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H94" s="10">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I94" s="10">
-        <v>1</v>
-      </c>
-      <c r="J94" s="10">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N94" s="10">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O94" s="10">
-        <v>1</v>
-      </c>
-      <c r="P94" s="10">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A95" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H95" s="10">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I95" s="10">
-        <v>1</v>
-      </c>
-      <c r="J95" s="10">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N95" s="10">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O95" s="10">
-        <v>1</v>
-      </c>
-      <c r="P95" s="10">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
-    </row>
-    <row r="97" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A98" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H98" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="I98" s="10">
-        <v>0.86</v>
-      </c>
-      <c r="J98" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="N98" s="10">
-        <v>1</v>
-      </c>
-      <c r="O98" s="10">
-        <v>0.95</v>
-      </c>
-      <c r="P98" s="10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A99" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H99" s="10">
-        <v>0.82</v>
-      </c>
-      <c r="I99" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="J99" s="10">
-        <v>0.81</v>
-      </c>
-      <c r="N99" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="O99" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="P99" s="10">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H100" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="I100" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="J100" s="10">
-        <v>0.76</v>
-      </c>
-      <c r="N100" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="O100" s="10">
-        <v>0.9</v>
-      </c>
-      <c r="P100" s="10">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-    </row>
-    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="21" t="s">
+      <c r="H138" s="10">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I138" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J138" s="10">
+        <v>0.12403</v>
+      </c>
+      <c r="N138" s="10">
+        <v>0.49685499999999999</v>
+      </c>
+      <c r="O138" s="10">
+        <v>0.48395460000000001</v>
+      </c>
+      <c r="P138" s="10">
+        <v>0.40194999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="H139" s="10">
+        <v>0.8619</v>
+      </c>
+      <c r="I139" s="10">
+        <v>1</v>
+      </c>
+      <c r="J139" s="10">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N139" s="10">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="O139" s="10">
+        <v>1</v>
+      </c>
+      <c r="P139" s="10">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="19"/>
+      <c r="H140" s="10">
+        <v>0.8619</v>
+      </c>
+      <c r="I140" s="10">
+        <v>1</v>
+      </c>
+      <c r="J140" s="10">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N140" s="10">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="O140" s="10">
+        <v>1</v>
+      </c>
+      <c r="P140" s="10">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="18" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A103" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H103" s="10">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" s="19"/>
+      <c r="H143" s="10">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I103" s="10">
-        <v>1</v>
-      </c>
-      <c r="J103" s="10">
+      <c r="I143" s="10">
+        <v>1</v>
+      </c>
+      <c r="J143" s="10">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N103" s="10">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="O103" s="10">
-        <v>1</v>
-      </c>
-      <c r="P103" s="10">
-        <v>0.95940000000000003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A104" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="H104" s="10">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="I104" s="10">
-        <v>1</v>
-      </c>
-      <c r="J104" s="10">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="N104" s="10">
+      <c r="N143" s="10">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O143" s="10">
+        <v>1</v>
+      </c>
+      <c r="P143" s="10">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="19"/>
+      <c r="B146" s="19">
+        <v>0.85940000000000005</v>
+      </c>
+      <c r="C146" s="19">
+        <v>1</v>
+      </c>
+      <c r="D146" s="19">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E146" s="19">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="F146" s="19">
+        <v>1</v>
+      </c>
+      <c r="G146" s="19">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H146" s="19">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I146" s="19">
+        <v>1</v>
+      </c>
+      <c r="J146" s="19">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="K146" s="19">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="L146" s="19">
+        <v>1</v>
+      </c>
+      <c r="M146" s="19">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N146" s="19">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="O146" s="19">
+        <v>1</v>
+      </c>
+      <c r="P146" s="19">
+        <v>0.9849</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A148" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="19"/>
+      <c r="B149" s="10">
+        <v>0.93740000000000001</v>
+      </c>
+      <c r="C149" s="19">
+        <v>1</v>
+      </c>
+      <c r="D149" s="10">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="E149" s="10">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="F149" s="19">
+        <v>1</v>
+      </c>
+      <c r="G149" s="10">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="H149" s="10">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="I149" s="10">
+        <v>1</v>
+      </c>
+      <c r="J149" s="10">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="K149" s="10">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="L149" s="10">
+        <v>1</v>
+      </c>
+      <c r="M149" s="10">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="N149" s="10">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="O149" s="10">
+        <v>1</v>
+      </c>
+      <c r="P149" s="10">
+        <v>0.97709999999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H152" s="10">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="I152" s="10">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J152" s="10">
+        <v>0.92</v>
+      </c>
+      <c r="N152" s="10">
         <v>0.9456</v>
       </c>
-      <c r="O104" s="10">
-        <v>1</v>
-      </c>
-      <c r="P104" s="10">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H105" s="10">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="I105" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J105" s="10">
-        <v>0.12403</v>
-      </c>
-      <c r="N105" s="10">
-        <v>0.49685499999999999</v>
-      </c>
-      <c r="O105" s="10">
-        <v>0.48395460000000001</v>
-      </c>
-      <c r="P105" s="10">
-        <v>0.40194999999999997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A106" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="H106" s="10">
-        <v>0.8619</v>
-      </c>
-      <c r="I106" s="10">
-        <v>1</v>
-      </c>
-      <c r="J106" s="10">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N106" s="10">
-        <v>0.94850000000000001</v>
-      </c>
-      <c r="O106" s="10">
-        <v>1</v>
-      </c>
-      <c r="P106" s="10">
-        <v>0.97330000000000005</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A107" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="H107" s="10">
-        <v>0.8619</v>
-      </c>
-      <c r="I107" s="10">
-        <v>1</v>
-      </c>
-      <c r="J107" s="10">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N107" s="10">
-        <v>0.94769999999999999</v>
-      </c>
-      <c r="O107" s="10">
-        <v>1</v>
-      </c>
-      <c r="P107" s="10">
-        <v>0.97289999999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
-    </row>
-    <row r="109" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A110" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="H110" s="10">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I110" s="10">
-        <v>1</v>
-      </c>
-      <c r="J110" s="10">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N110" s="10">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="O110" s="10">
-        <v>1</v>
-      </c>
-      <c r="P110" s="10">
-        <v>0.92730000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
-    </row>
-    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H113" s="10">
-        <v>0.85750000000000004</v>
-      </c>
-      <c r="I113" s="10">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="J113" s="10">
-        <v>0.92</v>
-      </c>
-      <c r="N113" s="10">
-        <v>0.9456</v>
-      </c>
-      <c r="O113" s="10">
+      <c r="O152" s="10">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P113" s="10">
+      <c r="P152" s="10">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11390,17 +13404,17 @@
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" style="25" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="20" t="s">
         <v>150</v>
       </c>
     </row>
@@ -11411,8 +13425,8 @@
       <c r="B2">
         <v>54</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>168</v>
+      <c r="C2" s="15" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -11422,8 +13436,8 @@
       <c r="B3">
         <v>75</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>169</v>
+      <c r="C3" s="15" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -11433,8 +13447,8 @@
       <c r="B4">
         <v>48</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>170</v>
+      <c r="C4" s="15" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -11444,8 +13458,8 @@
       <c r="B5">
         <v>64</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>171</v>
+      <c r="C5" s="15" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -11455,13 +13469,13 @@
       <c r="B6">
         <v>46</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>172</v>
+      <c r="A8" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -11471,8 +13485,8 @@
       <c r="B9">
         <v>19</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>173</v>
+      <c r="C9" s="15" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -11482,8 +13496,8 @@
       <c r="B10">
         <v>49</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>175</v>
+      <c r="C10" s="15" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -11493,8 +13507,8 @@
       <c r="B11">
         <v>15</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>176</v>
+      <c r="C11" s="15" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -11504,8 +13518,8 @@
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>184</v>
+      <c r="C12" s="15" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -11515,8 +13529,8 @@
       <c r="B13">
         <v>19</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>177</v>
+      <c r="C13" s="15" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -11543,22 +13557,22 @@
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -11704,22 +13718,22 @@
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -11867,31 +13881,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GoodData_Results" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="245">
   <si>
     <t>Model</t>
   </si>
@@ -825,9 +825,6 @@
     <t xml:space="preserve">XLNET </t>
   </si>
   <si>
-    <t xml:space="preserve">DistillBERT </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bag of Words </t>
   </si>
   <si>
@@ -923,9 +920,6 @@
   </si>
   <si>
     <t xml:space="preserve">Weighted by PC Agreement average </t>
-  </si>
-  <si>
-    <t>ALBERT</t>
   </si>
   <si>
     <t>LSTM other variables =
@@ -974,6 +968,113 @@
   </si>
   <si>
     <t>Weighted by Num words</t>
+  </si>
+  <si>
+    <t>Distilbert + distilbert model</t>
+  </si>
+  <si>
+    <t>ALBERT + Albert model</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Throughput Average</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Throughput Average
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Worktime Average</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Throughput Variance</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Throughput Variance
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by PC Agreement</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by PC Agreement
+(Scikit learn metrics)</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by one PC Agreement per annotation</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by one PC Agreement per annotation
+(Scikit learn weights)</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Num characters</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Num characters
+(Scikit learn weights)</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Num words</t>
+  </si>
+  <si>
+    <t>CNN other variables =
+One Hot Encoding
+3 Dense Layers
+Weighted by Num words
+(Scikit learn weights)</t>
+  </si>
+  <si>
+    <t>ROBERTA + ROBERTA model</t>
+  </si>
+  <si>
+    <t>XLNet + XLNet model</t>
   </si>
 </sst>
 </file>
@@ -1457,13 +1558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R223"/>
+  <dimension ref="A1:R239"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106:XFD106"/>
+      <selection pane="bottomRight" activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6314,34 +6415,162 @@
       <c r="P108" s="12"/>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
+      <c r="A109" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C109" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="D109" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E109" s="11">
+        <v>3.09E-2</v>
+      </c>
+      <c r="F109" s="11">
+        <v>0.17582400000000001</v>
+      </c>
+      <c r="G109" s="11">
+        <v>5.2582999999999998E-2</v>
+      </c>
+      <c r="H109" s="11">
+        <v>0.87293399999999999</v>
+      </c>
+      <c r="I109" s="11">
+        <v>0.850549</v>
+      </c>
+      <c r="J109" s="11">
+        <v>0.78400800000000004</v>
+      </c>
+      <c r="K109" s="11">
+        <v>2.2335000000000001E-2</v>
+      </c>
+      <c r="L109" s="11">
+        <v>0.149451</v>
+      </c>
+      <c r="M109" s="11">
+        <v>3.8863000000000002E-2</v>
+      </c>
+      <c r="N109" s="12">
+        <v>0.93090700000000004</v>
+      </c>
+      <c r="O109" s="12">
+        <v>0.964835</v>
+      </c>
+      <c r="P109" s="12">
+        <v>0.94756700000000005</v>
+      </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N110" s="12"/>
       <c r="O110" s="12"/>
       <c r="P110" s="12"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="N111" s="12"/>
-      <c r="O111" s="12"/>
-      <c r="P111" s="12"/>
+      <c r="A111" t="s">
+        <v>227</v>
+      </c>
+      <c r="B111" s="11">
+        <v>0.87213200000000002</v>
+      </c>
+      <c r="C111" s="11">
+        <v>0.50329699999999999</v>
+      </c>
+      <c r="D111" s="11">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="E111" s="11">
+        <v>0.86245499999999997</v>
+      </c>
+      <c r="F111" s="11">
+        <v>0.16923099999999999</v>
+      </c>
+      <c r="G111" s="11">
+        <v>5.5572999999999997E-2</v>
+      </c>
+      <c r="H111" s="11">
+        <v>0.77751700000000001</v>
+      </c>
+      <c r="I111" s="11">
+        <v>0.17582400000000001</v>
+      </c>
+      <c r="J111" s="11">
+        <v>0.137713</v>
+      </c>
+      <c r="K111" s="11">
+        <v>0.76076299999999997</v>
+      </c>
+      <c r="L111" s="11">
+        <v>0.82417600000000002</v>
+      </c>
+      <c r="M111" s="11">
+        <v>0.78417499999999996</v>
+      </c>
+      <c r="N111" s="12">
+        <v>0.93104399999999998</v>
+      </c>
+      <c r="O111" s="12">
+        <v>0.103297</v>
+      </c>
+      <c r="P111" s="12">
+        <v>0.12617600000000001</v>
+      </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A112" s="7"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
+      <c r="A112" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" s="11">
+        <v>0.86428700000000003</v>
+      </c>
+      <c r="C112" s="11">
+        <v>0.82967000000000002</v>
+      </c>
+      <c r="D112" s="11">
+        <v>0.895787</v>
+      </c>
+      <c r="E112" s="11">
+        <v>2.8639000000000001E-2</v>
+      </c>
+      <c r="F112" s="11">
+        <v>0.16923099999999999</v>
+      </c>
+      <c r="G112" s="11">
+        <v>4.8987999999999997E-2</v>
+      </c>
+      <c r="H112" s="11">
+        <v>1.6813999999999999E-2</v>
+      </c>
+      <c r="I112" s="11">
+        <v>0.12967000000000001</v>
+      </c>
+      <c r="J112" s="11">
+        <v>2.9769E-2</v>
+      </c>
+      <c r="K112" s="11">
+        <v>2.3668999999999999E-2</v>
+      </c>
+      <c r="L112" s="11">
+        <v>0.15384600000000001</v>
+      </c>
+      <c r="M112" s="11">
+        <v>4.1026E-2</v>
+      </c>
+      <c r="N112" s="12">
+        <v>0.90982200000000002</v>
+      </c>
+      <c r="O112" s="12">
+        <v>0.95384599999999997</v>
+      </c>
+      <c r="P112" s="12">
+        <v>0.93131399999999998</v>
+      </c>
     </row>
     <row r="113" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="11"/>
@@ -6667,25 +6896,25 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L123" s="5"/>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L124" s="5"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L125" s="5"/>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L126" s="5"/>
     </row>
@@ -7064,7 +7293,7 @@
     </row>
     <row r="148" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G148" s="9"/>
       <c r="H148" s="9">
@@ -7088,7 +7317,7 @@
     </row>
     <row r="149" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G149" s="9"/>
       <c r="H149" s="9">
@@ -7112,7 +7341,7 @@
     </row>
     <row r="150" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9">
@@ -7136,7 +7365,7 @@
     </row>
     <row r="151" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G151" s="9"/>
       <c r="H151" s="9">
@@ -7439,7 +7668,7 @@
     </row>
     <row r="165" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H165">
         <v>0.94</v>
@@ -7462,7 +7691,7 @@
     </row>
     <row r="166" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H166">
         <v>0.69821999999999995</v>
@@ -7485,7 +7714,7 @@
     </row>
     <row r="167" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -7508,7 +7737,7 @@
     </row>
     <row r="168" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H168">
         <v>0.5</v>
@@ -8302,7 +8531,7 @@
     </row>
     <row r="206" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H206">
         <v>0.87009999999999998</v>
@@ -8325,7 +8554,7 @@
     </row>
     <row r="207" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H207">
         <v>6.4643799000000002E-2</v>
@@ -8348,7 +8577,7 @@
     </row>
     <row r="208" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H208">
         <v>0.87009999999999998</v>
@@ -8371,7 +8600,7 @@
     </row>
     <row r="209" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H209">
         <v>6.4640000000000003E-2</v>
@@ -8394,7 +8623,7 @@
     </row>
     <row r="210" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H210">
         <v>0.86260000000000003</v>
@@ -8417,7 +8646,7 @@
     </row>
     <row r="211" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H211">
         <v>6.8821450000000006E-2</v>
@@ -8441,124 +8670,202 @@
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A213" s="4"/>
-    </row>
-    <row r="214" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H214">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I214">
-        <v>1</v>
-      </c>
-      <c r="J214" s="9">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N214">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="O214">
-        <v>1</v>
-      </c>
-      <c r="P214">
-        <v>0.92730000000000001</v>
+        <v>229</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+    </row>
+    <row r="230" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H230">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" s="9">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N230">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O230">
+        <v>1</v>
+      </c>
+      <c r="P230">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H215">
+      <c r="H231">
         <v>6.8821400000000005E-2</v>
       </c>
-      <c r="I215">
+      <c r="I231">
         <v>0.5</v>
       </c>
-      <c r="J215" s="9">
+      <c r="J231" s="9">
         <v>0.120989</v>
       </c>
-      <c r="N215">
+      <c r="N231">
         <v>6.8820000000000006E-2</v>
       </c>
-      <c r="O215">
+      <c r="O231">
         <v>0.5</v>
       </c>
-      <c r="P215">
+      <c r="P231">
         <v>0.12098</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+    <row r="232" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H216">
+      <c r="H232">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I216">
+      <c r="I232">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J216" s="9">
+      <c r="J232" s="9">
         <v>0.92</v>
       </c>
-      <c r="N216">
+      <c r="N232">
         <v>0.9456</v>
       </c>
-      <c r="O216">
+      <c r="O232">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P216">
+      <c r="P232">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A221" s="4"/>
-    </row>
-    <row r="222" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+    </row>
+    <row r="238" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H222">
+      <c r="H238">
         <v>0.4</v>
       </c>
-      <c r="I222">
+      <c r="I238">
         <v>0.5</v>
       </c>
-      <c r="J222" s="9">
+      <c r="J238" s="9">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N222">
+      <c r="N238">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O222">
+      <c r="O238">
         <v>0.5202</v>
       </c>
-      <c r="P222">
+      <c r="P238">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+    <row r="239" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H223">
+      <c r="H239">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I223">
+      <c r="I239">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J223" s="9">
+      <c r="J239" s="9">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N223">
+      <c r="N239">
         <v>0.5</v>
       </c>
-      <c r="O223">
+      <c r="O239">
         <v>0.34</v>
       </c>
-      <c r="P223">
+      <c r="P239">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -8579,11 +8886,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11105,21 +11412,159 @@
       </c>
     </row>
     <row r="61" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0.06</v>
+      </c>
+      <c r="D61" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E61" s="11">
+        <v>3.09E-2</v>
+      </c>
+      <c r="F61" s="11">
+        <v>0.17582400000000001</v>
+      </c>
+      <c r="G61" s="11">
+        <v>5.2582999999999998E-2</v>
+      </c>
+      <c r="H61" s="11">
+        <v>0.87293399999999999</v>
+      </c>
+      <c r="I61" s="11">
+        <v>0.850549</v>
+      </c>
+      <c r="J61" s="11">
+        <v>0.78400800000000004</v>
+      </c>
+      <c r="K61" s="11">
+        <v>2.2335000000000001E-2</v>
+      </c>
+      <c r="L61" s="11">
+        <v>0.149451</v>
+      </c>
+      <c r="M61" s="11">
+        <v>3.8863000000000002E-2</v>
+      </c>
+      <c r="N61" s="12">
+        <v>0.93090700000000004</v>
+      </c>
+      <c r="O61" s="12">
+        <v>0.964835</v>
+      </c>
+      <c r="P61" s="12">
+        <v>0.94756700000000005</v>
+      </c>
     </row>
     <row r="62" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
+      <c r="A62" t="s">
+        <v>227</v>
+      </c>
+      <c r="B62" s="11">
+        <v>0.87213200000000002</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0.50329699999999999</v>
+      </c>
+      <c r="D62" s="11">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0.86245499999999997</v>
+      </c>
+      <c r="F62" s="11">
+        <v>0.16923099999999999</v>
+      </c>
+      <c r="G62" s="11">
+        <v>5.5572999999999997E-2</v>
+      </c>
+      <c r="H62" s="11">
+        <v>0.77751700000000001</v>
+      </c>
+      <c r="I62" s="11">
+        <v>0.17582400000000001</v>
+      </c>
+      <c r="J62" s="11">
+        <v>0.137713</v>
+      </c>
+      <c r="K62" s="11">
+        <v>0.76076299999999997</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0.82417600000000002</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0.78417499999999996</v>
+      </c>
+      <c r="N62" s="12">
+        <v>0.93104399999999998</v>
+      </c>
+      <c r="O62" s="12">
+        <v>0.103297</v>
+      </c>
+      <c r="P62" s="12">
+        <v>0.12617600000000001</v>
+      </c>
     </row>
     <row r="63" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
+      <c r="A63" t="s">
+        <v>243</v>
+      </c>
+      <c r="B63" s="11">
+        <v>0.86428700000000003</v>
+      </c>
+      <c r="C63" s="11">
+        <v>0.82967000000000002</v>
+      </c>
+      <c r="D63" s="11">
+        <v>0.895787</v>
+      </c>
+      <c r="E63" s="11">
+        <v>2.8639000000000001E-2</v>
+      </c>
+      <c r="F63" s="11">
+        <v>0.16923099999999999</v>
+      </c>
+      <c r="G63" s="11">
+        <v>4.8987999999999997E-2</v>
+      </c>
+      <c r="H63" s="11">
+        <v>1.6813999999999999E-2</v>
+      </c>
+      <c r="I63" s="11">
+        <v>0.12967000000000001</v>
+      </c>
+      <c r="J63" s="11">
+        <v>2.9769E-2</v>
+      </c>
+      <c r="K63" s="11">
+        <v>2.3668999999999999E-2</v>
+      </c>
+      <c r="L63" s="11">
+        <v>0.15384600000000001</v>
+      </c>
+      <c r="M63" s="11">
+        <v>4.1026E-2</v>
+      </c>
+      <c r="N63" s="12">
+        <v>0.90982200000000002</v>
+      </c>
+      <c r="O63" s="12">
+        <v>0.95384599999999997</v>
+      </c>
+      <c r="P63" s="12">
+        <v>0.93131399999999998</v>
+      </c>
     </row>
     <row r="64" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>244</v>
+      </c>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="12"/>
@@ -11146,7 +11591,7 @@
     </row>
     <row r="70" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B70" s="8">
         <v>0.87</v>
@@ -11196,7 +11641,7 @@
     </row>
     <row r="71" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B71" s="11">
         <v>0.87</v>
@@ -11246,7 +11691,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="9">
         <v>0.87</v>
@@ -11296,7 +11741,7 @@
     </row>
     <row r="73" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" s="11">
         <v>0.88</v>
@@ -11346,7 +11791,7 @@
     </row>
     <row r="74" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B74" s="11">
         <v>0.87</v>
@@ -11396,7 +11841,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H75" s="9">
         <v>0.86109999999999998</v>
@@ -11525,7 +11970,7 @@
     </row>
     <row r="81" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9">
@@ -11549,7 +11994,7 @@
     </row>
     <row r="82" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G82" s="9"/>
       <c r="H82" s="9">
@@ -11581,7 +12026,7 @@
     </row>
     <row r="85" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85" s="8">
         <v>0.87</v>
@@ -11631,7 +12076,7 @@
     </row>
     <row r="86" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B86" s="11">
         <v>0.87</v>
@@ -11681,7 +12126,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87" s="9">
         <v>0.87</v>
@@ -11731,7 +12176,7 @@
     </row>
     <row r="88" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B88" s="11">
         <v>0.88</v>
@@ -11781,7 +12226,7 @@
     </row>
     <row r="89" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B89" s="11">
         <v>0.87</v>
@@ -11831,7 +12276,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H90" s="9">
         <v>1</v>
@@ -11969,7 +12414,7 @@
     </row>
     <row r="96" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H96">
         <v>0.94</v>
@@ -11992,7 +12437,7 @@
     </row>
     <row r="97" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -12023,7 +12468,7 @@
     </row>
     <row r="100" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B100" s="8">
         <v>0.87</v>
@@ -12073,7 +12518,7 @@
     </row>
     <row r="101" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B101" s="11">
         <v>0.87</v>
@@ -12123,7 +12568,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B102" s="9">
         <v>0.87</v>
@@ -12173,7 +12618,7 @@
     </row>
     <row r="103" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B103" s="11">
         <v>0.88</v>
@@ -12223,7 +12668,7 @@
     </row>
     <row r="104" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104" s="11">
         <v>0.87</v>
@@ -12273,7 +12718,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H105" s="9">
         <v>0.86699999999999999</v>
@@ -12350,7 +12795,7 @@
     </row>
     <row r="110" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B110" s="8">
         <v>0.87</v>
@@ -12400,7 +12845,7 @@
     </row>
     <row r="111" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B111" s="11">
         <v>0.87</v>
@@ -12450,7 +12895,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B112" s="9">
         <v>0.87</v>
@@ -12500,7 +12945,7 @@
     </row>
     <row r="113" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B113" s="11">
         <v>0.88</v>
@@ -12550,7 +12995,7 @@
     </row>
     <row r="114" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114" s="11">
         <v>0.87</v>
@@ -12600,7 +13045,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H115" s="9">
         <v>1</v>
@@ -12677,7 +13122,7 @@
     </row>
     <row r="120" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B120" s="8">
         <v>0.88</v>
@@ -12727,7 +13172,7 @@
     </row>
     <row r="121" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B121" s="11">
         <v>0.87</v>
@@ -12777,7 +13222,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B122" s="9">
         <v>0.87</v>
@@ -12827,7 +13272,7 @@
     </row>
     <row r="123" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B123" s="11">
         <v>0.88</v>
@@ -12877,7 +13322,7 @@
     </row>
     <row r="124" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B124" s="11">
         <v>0.87</v>
@@ -12927,7 +13372,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H125" s="9">
         <v>0.86699999999999999</v>
@@ -13004,7 +13449,7 @@
     </row>
     <row r="130" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" s="8">
         <v>0.88</v>
@@ -13054,7 +13499,7 @@
     </row>
     <row r="131" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" s="11">
         <v>0.87</v>
@@ -13104,7 +13549,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B132" s="9">
         <v>0.87</v>
@@ -13154,7 +13599,7 @@
     </row>
     <row r="133" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B133" s="11">
         <v>0.88</v>
@@ -13204,7 +13649,7 @@
     </row>
     <row r="134" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B134" s="11">
         <v>0.87</v>
@@ -13254,7 +13699,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H135" s="9">
         <v>0.98</v>
@@ -13331,12 +13776,12 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B141" s="18">
         <v>0.91249999999999998</v>
@@ -13458,7 +13903,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H145" s="9">
         <v>0.8619</v>
@@ -13481,7 +13926,7 @@
     </row>
     <row r="146" spans="1:16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H146">
         <v>0.87009999999999998</v>
@@ -13504,7 +13949,7 @@
     </row>
     <row r="147" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H147">
         <v>0.87009999999999998</v>
@@ -13527,7 +13972,7 @@
     </row>
     <row r="148" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H148">
         <v>0.86260000000000003</v>
@@ -13561,7 +14006,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -13587,12 +14032,12 @@
     </row>
     <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
@@ -13645,12 +14090,12 @@
     </row>
     <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -8901,13 +8901,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK171"/>
+  <dimension ref="A1:AMK170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="D159" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
-      <selection pane="bottomRight" activeCell="P64" sqref="P64"/>
+      <selection pane="bottomRight" activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14050,27 +14050,27 @@
       <c r="A161" s="11" t="s">
         <v>150</v>
       </c>
+      <c r="H161" s="3">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I161" s="3">
+        <v>1</v>
+      </c>
+      <c r="J161" s="3">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N161" s="3">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O161" s="3">
+        <v>1</v>
+      </c>
+      <c r="P161" s="3">
+        <v>0.92730000000000001</v>
+      </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
-      <c r="H162" s="3">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I162" s="3">
-        <v>1</v>
-      </c>
-      <c r="J162" s="3">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N162" s="3">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="O162" s="3">
-        <v>1</v>
-      </c>
-      <c r="P162" s="3">
-        <v>0.92730000000000001</v>
-      </c>
     </row>
     <row r="163" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="15" t="s">
@@ -14080,6 +14080,45 @@
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>195</v>
+      </c>
+      <c r="D164" s="11">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E164" s="11">
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="F164" s="11">
+        <v>1</v>
+      </c>
+      <c r="G164" s="11">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="H164" s="11">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I164" s="11">
+        <v>1</v>
+      </c>
+      <c r="J164" s="11">
+        <v>0.91720000000000002</v>
+      </c>
+      <c r="K164" s="11">
+        <v>0.81410000000000005</v>
+      </c>
+      <c r="L164" s="11">
+        <v>1</v>
+      </c>
+      <c r="M164" s="11">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N164" s="11">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="O164" s="11">
+        <v>1</v>
+      </c>
+      <c r="P164" s="11">
+        <v>0.9849</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -14090,45 +14129,6 @@
       <c r="C165" s="11">
         <v>1</v>
       </c>
-      <c r="D165" s="11">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="E165" s="11">
-        <v>0.87339999999999995</v>
-      </c>
-      <c r="F165" s="11">
-        <v>1</v>
-      </c>
-      <c r="G165" s="11">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="H165" s="11">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="I165" s="11">
-        <v>1</v>
-      </c>
-      <c r="J165" s="11">
-        <v>0.91720000000000002</v>
-      </c>
-      <c r="K165" s="11">
-        <v>0.81410000000000005</v>
-      </c>
-      <c r="L165" s="11">
-        <v>1</v>
-      </c>
-      <c r="M165" s="11">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N165" s="11">
-        <v>0.97030000000000005</v>
-      </c>
-      <c r="O165" s="11">
-        <v>1</v>
-      </c>
-      <c r="P165" s="11">
-        <v>0.9849</v>
-      </c>
     </row>
     <row r="166" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="15" t="s">
@@ -14138,6 +14138,45 @@
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>197</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="E167" s="3">
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="F167" s="11">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="H167" s="3">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="I167" s="3">
+        <v>1</v>
+      </c>
+      <c r="J167" s="3">
+        <v>0.92689999999999995</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="L167" s="3">
+        <v>1</v>
+      </c>
+      <c r="M167" s="3">
+        <v>0.91320000000000001</v>
+      </c>
+      <c r="N167" s="3">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="O167" s="3">
+        <v>1</v>
+      </c>
+      <c r="P167" s="3">
+        <v>0.97709999999999997</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -14148,45 +14187,6 @@
       <c r="C168" s="11">
         <v>1</v>
       </c>
-      <c r="D168" s="3">
-        <v>0.96750000000000003</v>
-      </c>
-      <c r="E168" s="3">
-        <v>0.82550000000000001</v>
-      </c>
-      <c r="F168" s="11">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0.90410000000000001</v>
-      </c>
-      <c r="H168" s="3">
-        <v>0.86429999999999996</v>
-      </c>
-      <c r="I168" s="3">
-        <v>1</v>
-      </c>
-      <c r="J168" s="3">
-        <v>0.92689999999999995</v>
-      </c>
-      <c r="K168" s="3">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="L168" s="3">
-        <v>1</v>
-      </c>
-      <c r="M168" s="3">
-        <v>0.91320000000000001</v>
-      </c>
-      <c r="N168" s="3">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="O168" s="3">
-        <v>1</v>
-      </c>
-      <c r="P168" s="3">
-        <v>0.97709999999999997</v>
-      </c>
     </row>
     <row r="169" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="15" t="s">
@@ -14197,24 +14197,22 @@
       <c r="A170" s="11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H171" s="3">
+      <c r="H170" s="3">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I171" s="3">
+      <c r="I170" s="3">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J171" s="3">
+      <c r="J170" s="3">
         <v>0.92</v>
       </c>
-      <c r="N171" s="3">
+      <c r="N170" s="3">
         <v>0.9456</v>
       </c>
-      <c r="O171" s="3">
+      <c r="O170" s="3">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P171" s="3">
+      <c r="P170" s="3">
         <v>0.97160000000000002</v>
       </c>
     </row>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="GoodData_Results" sheetId="1" r:id="rId1"/>
@@ -1284,11 +1284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R317"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B246" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
-      <selection pane="bottomRight" activeCell="H268" sqref="H268:P268"/>
+      <selection pane="bottomRight" activeCell="H107" sqref="H107:J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6126,6 +6126,33 @@
       <c r="A107" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="B107" s="8">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="C107" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D107" s="8">
+        <v>0.93777999999999995</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="F107" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G107" s="8">
+        <v>0.93777999999999995</v>
+      </c>
+      <c r="H107" s="8">
+        <v>0.91810000000000003</v>
+      </c>
+      <c r="I107" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="J107" s="8">
+        <v>0.93777999999999995</v>
+      </c>
       <c r="N107" s="9"/>
       <c r="O107" s="9"/>
       <c r="P107" s="9"/>
@@ -10435,7 +10462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B165" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\Lynnette\diplomacy-betrayal\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lynne\Documents\diplomacy-betrayal\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="245">
   <si>
     <t>Model</t>
   </si>
@@ -822,6 +822,18 @@
   <si>
     <t>ALBERT Tokenizer+Model Other Variables + One Hot Encoding + 3 Dense Layers (+Weight)</t>
   </si>
+  <si>
+    <t>Weighted by Rand uniform</t>
+  </si>
+  <si>
+    <t>Weighted by Rand uniform (sklearn)</t>
+  </si>
+  <si>
+    <t>Weighted by Rand normal</t>
+  </si>
+  <si>
+    <t>Weighted by Rand normal (sklearn)</t>
+  </si>
 </sst>
 </file>
 
@@ -868,7 +880,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -879,6 +891,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF8CBAD"/>
         <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -894,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -934,6 +952,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1282,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R317"/>
+  <dimension ref="A1:R345"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
-      <selection pane="bottomRight" activeCell="H107" sqref="H107:J107"/>
+      <selection pane="bottomRight" activeCell="I153" sqref="I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,53 +1494,53 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:18" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="23">
         <v>0.50960000000000005</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="23">
         <v>0.50544999999999995</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="23">
         <v>9.8989999999999995E-2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="23">
         <v>0.50531099999999995</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="23">
         <v>0.50180899999999995</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="23">
         <v>0.19105</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="23">
         <v>0.51349999999999996</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="23">
         <v>0.50527</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="23">
         <v>0.17211000000000001</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="23">
         <v>0.51646000000000003</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="23">
         <v>0.50574889999999995</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="23">
         <v>0.19442000000000001</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="23">
         <v>0.499726</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="23">
         <v>0.49952920000000001</v>
       </c>
-      <c r="P6" s="5">
+      <c r="P6" s="23">
         <v>0.12751100000000001</v>
       </c>
     </row>
@@ -1567,53 +1594,53 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:18" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="23">
         <v>0.50900000000000001</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="23">
         <v>0.50790000000000002</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="23">
         <v>0.50827</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="23">
         <v>0.50359370000000003</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="23">
         <v>0.503027</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="23">
         <v>0.50229999999999997</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="23">
         <v>0.50471354999999996</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="23">
         <v>0.50457700000000005</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="23">
         <v>0.5046195</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="23">
         <v>0.51824599999999998</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="23">
         <v>0.51809349999999998</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="23">
         <v>0.51816669999999998</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="23">
         <v>0.50419999999999998</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="23">
         <v>0.50518600000000002</v>
       </c>
-      <c r="P8" s="5">
+      <c r="P8" s="23">
         <v>0.50427</v>
       </c>
     </row>
@@ -1867,53 +1894,53 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:18" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="23">
         <v>0.46656999999999998</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="23">
         <v>0.5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="23">
         <v>0.482711</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="23">
         <v>0.58277999999999996</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="23">
         <v>0.50078</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="23">
         <v>0.456596</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="23">
         <v>0.42960799999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="23">
         <v>0.49974400000000002</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="23">
         <v>0.46202900000000002</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="23">
         <v>0.41597000000000001</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="23">
         <v>0.49969999999999998</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="23">
         <v>0.45401999999999998</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="23">
         <v>0.47536</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="23">
         <v>0.4999768</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="23">
         <v>0.48726000000000003</v>
       </c>
     </row>
@@ -2067,53 +2094,53 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="23">
         <v>0.46656999999999998</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="23">
         <v>0.5</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="23">
         <v>0.482711</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="23">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="23">
         <v>0.5</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="23">
         <v>0.45415</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="23">
         <v>0.42963899999999999</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="23">
         <v>0.5</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="23">
         <v>0.46215699999999998</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="23">
         <v>0.41900700000000002</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="23">
         <v>0.5</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="23">
         <v>0.454152</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="23">
         <v>0.47536</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="23">
         <v>0.4999768</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="23">
         <v>0.48737599999999998</v>
       </c>
     </row>
@@ -2267,53 +2294,53 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="23">
         <v>0.46656999999999998</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="23">
         <v>0.5</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="23">
         <v>0.482711</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="23">
         <v>0.41599999999999998</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="23">
         <v>0.5</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="23">
         <v>0.45415</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="23">
         <v>0.4296394</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="23">
         <v>0.5</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="23">
         <v>0.46215704000000002</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="23">
         <v>0.41600700000000002</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="23">
         <v>0.5</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="23">
         <v>0.45415265999999999</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="23">
         <v>0.47536</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="23">
         <v>0.4999768</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="23">
         <v>0.48737599999999998</v>
       </c>
     </row>
@@ -2372,53 +2399,53 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="21">
         <v>0.49740000000000001</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="21">
         <v>0.49809999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="21">
         <v>0.1087</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="21">
         <v>0.50870000000000004</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="21">
         <v>0.50129999999999997</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="21">
         <v>0.1593</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="21">
         <v>0.49530000000000002</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="21">
         <v>0.49880000000000002</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="21">
         <v>0.15387999999999999</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="21">
         <v>0.53503000000000001</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="21">
         <v>0.50800000000000001</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="21">
         <v>0.1573</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="23">
         <v>0.51200000000000001</v>
       </c>
-      <c r="O26" s="5">
+      <c r="O26" s="23">
         <v>0.53149999999999997</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="23">
         <v>0.15396000000000001</v>
       </c>
     </row>
@@ -2472,53 +2499,53 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="21">
         <v>0.51800000000000002</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="21">
         <v>0.51700000000000002</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="21">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="21">
         <v>0.50678999999999996</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="21">
         <v>0.50727999999999995</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="21">
         <v>0.50680000000000003</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="21">
         <v>0.51731000000000005</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="21">
         <v>0.51726000000000005</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="21">
         <v>0.51729000000000003</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="21">
         <v>0.51619999999999999</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="21">
         <v>0.51970000000000005</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="21">
         <v>0.51629999999999998</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="23">
         <v>0.52958000000000005</v>
       </c>
-      <c r="O28" s="5">
+      <c r="O28" s="23">
         <v>0.52902000000000005</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="23">
         <v>0.52929999999999999</v>
       </c>
     </row>
@@ -2772,53 +2799,53 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="21">
         <v>0.46634999999999999</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="21">
         <v>0.5</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="21">
         <v>0.48259000000000002</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="21">
         <v>0.41992960000000001</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="21">
         <v>0.99738199999999999</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="21">
         <v>0.45637100000000003</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="21">
         <v>0.42915999999999999</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="21">
         <v>0.49974000000000002</v>
       </c>
-      <c r="J34" s="1">
+      <c r="J34" s="21">
         <v>0.46177000000000001</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="21">
         <v>0.42806</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L34" s="21">
         <v>0.49974000000000002</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="21">
         <v>0.46112999999999998</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="23">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O34" s="5">
+      <c r="O34" s="23">
         <v>0.5</v>
       </c>
-      <c r="P34" s="5">
+      <c r="P34" s="23">
         <v>0.48864000000000002</v>
       </c>
     </row>
@@ -2972,53 +2999,53 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="21">
         <v>0.46610000000000001</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="21">
         <v>0.5</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="21">
         <v>0.48247000000000001</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="21">
         <v>0.419964</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="21">
         <v>0.5</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="21">
         <v>0.45650000000000002</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="21">
         <v>0.42919000000000002</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="21">
         <v>0.5</v>
       </c>
-      <c r="J38" s="1">
+      <c r="J38" s="21">
         <v>0.46189999999999998</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="21">
         <v>0.42809999999999998</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="21">
         <v>0.5</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="21">
         <v>0.46126</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="23">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O38" s="5">
+      <c r="O38" s="23">
         <v>0.5</v>
       </c>
-      <c r="P38" s="5">
+      <c r="P38" s="23">
         <v>0.48859999999999998</v>
       </c>
     </row>
@@ -3172,53 +3199,53 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="21">
         <v>0.46613890000000002</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="21">
         <v>0.5</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="21">
         <v>0.48247600000000002</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="21">
         <v>0.41996480000000003</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="21">
         <v>0.5</v>
       </c>
-      <c r="G42" s="1">
+      <c r="G42" s="21">
         <v>0.45650000000000002</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="21">
         <v>0.42919000000000002</v>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="21">
         <v>0.5</v>
       </c>
-      <c r="J42" s="1">
+      <c r="J42" s="21">
         <v>0.46189999999999998</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="21">
         <v>0.42809999999999998</v>
       </c>
-      <c r="L42" s="1">
+      <c r="L42" s="21">
         <v>0.5</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="21">
         <v>0.4612</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="23">
         <v>0.47778999999999999</v>
       </c>
-      <c r="O42" s="5">
+      <c r="O42" s="23">
         <v>0.5</v>
       </c>
-      <c r="P42" s="5">
+      <c r="P42" s="23">
         <v>0.48859999999999998</v>
       </c>
     </row>
@@ -6380,52 +6407,52 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="21">
         <v>0.46416000000000002</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="21">
         <v>0.5</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="21">
         <v>0.48141</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="21">
         <v>0.420844</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="21">
         <v>0.5</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="21">
         <v>0.45701999999999998</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="21">
         <v>0.42919000000000002</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="21">
         <v>0.5</v>
       </c>
-      <c r="J114" s="1">
+      <c r="J114" s="21">
         <v>0.46189999999999998</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="21">
         <v>0.42193999999999998</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="21">
         <v>0.5</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="21">
         <v>0.45766000000000001</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="21">
         <v>0.47489999999999999</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="21">
         <v>0.5</v>
       </c>
-      <c r="P114">
+      <c r="P114" s="21">
         <v>0.48714400000000002</v>
       </c>
     </row>
@@ -6480,52 +6507,52 @@
       </c>
     </row>
     <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="21">
         <v>0.51374200000000003</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="21">
         <v>0.55311999999999995</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="21">
         <v>0.32330599999999998</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="21">
         <v>0.52948680000000004</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="21">
         <v>0.53239990000000004</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="21">
         <v>0.32637100000000002</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="21">
         <v>0.50831999999999999</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="21">
         <v>0.51524000000000003</v>
       </c>
-      <c r="J117" s="1">
+      <c r="J117" s="21">
         <v>0.33329999999999999</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="21">
         <v>0.51382499999999998</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="21">
         <v>0.51857699999999995</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="21">
         <v>0.31954900000000003</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="21">
         <v>0.49764000000000003</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="21">
         <v>0.48864999999999997</v>
       </c>
-      <c r="P117">
+      <c r="P117" s="21">
         <v>0.42821399999999998</v>
       </c>
     </row>
@@ -6580,52 +6607,52 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="21">
         <v>0.463940193491645</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="21">
         <v>0.5</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="21">
         <v>0.48129562043795598</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="21">
         <v>0.41754617414248002</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="21">
         <v>0.5</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="21">
         <v>0.455068296189791</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="21">
         <v>0.43117</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="21">
         <v>0.5</v>
       </c>
-      <c r="J120" s="1">
+      <c r="J120" s="21">
         <v>0.46304000000000001</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="21">
         <v>0.41974494283201402</v>
       </c>
-      <c r="L120" s="10">
+      <c r="L120" s="23">
         <v>0.5</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="21">
         <v>0.45637102557972697</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="21">
         <v>0.47339489885663999</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="21">
         <v>0.5</v>
       </c>
-      <c r="P120">
+      <c r="P120" s="21">
         <v>0.48633386040207799</v>
       </c>
     </row>
@@ -6774,26 +6801,26 @@
         <v>0.97850000000000004</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="21">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="21">
         <v>0.5</v>
       </c>
-      <c r="J136" s="1">
+      <c r="J136" s="21">
         <v>0.11890000000000001</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="21">
         <v>2.682E-2</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="21">
         <v>0.5</v>
       </c>
-      <c r="P136">
+      <c r="P136" s="21">
         <v>5.0900000000000001E-2</v>
       </c>
     </row>
@@ -6820,119 +6847,119 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:16" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="25">
         <v>0.42671700000000001</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="25">
         <v>0.36480000000000001</v>
       </c>
-      <c r="J138" s="1">
+      <c r="J138" s="25">
         <v>0.34300000000000003</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="25">
         <v>2.6824899999999999E-2</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="25">
         <v>0.5</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="25">
         <v>5.0917999999999998E-2</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H139">
-        <v>0.86480000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" s="1">
-        <v>0.92710000000000004</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="N139">
-        <v>0.94589999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O139">
         <v>1</v>
       </c>
       <c r="P139">
-        <v>0.97199999999999998</v>
+        <v>0.97470000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="6" t="s">
-        <v>179</v>
+      <c r="A140" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="H140">
-        <v>0.43248999999999999</v>
+        <v>0.43660900000000002</v>
       </c>
       <c r="I140">
-        <v>0.5</v>
+        <v>0.49656400000000001</v>
       </c>
       <c r="J140" s="1">
-        <v>0.46380500000000002</v>
+        <v>0.12811</v>
       </c>
       <c r="N140">
-        <v>0.52680000000000005</v>
+        <v>0.47537000000000001</v>
       </c>
       <c r="O140">
         <v>0.5</v>
       </c>
       <c r="P140">
-        <v>5.1400000000000001E-2</v>
+        <v>0.48737000000000003</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H141">
-        <v>0.86</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" s="1">
-        <v>0.92400000000000004</v>
+        <v>0.92710000000000004</v>
       </c>
       <c r="N141">
-        <v>0.95099999999999996</v>
+        <v>0.94589999999999996</v>
       </c>
       <c r="O141">
         <v>1</v>
       </c>
       <c r="P141">
-        <v>0.97470000000000001</v>
+        <v>0.97199999999999998</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>180</v>
+      <c r="A142" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="H142">
-        <v>0.43660900000000002</v>
+        <v>0.43248999999999999</v>
       </c>
       <c r="I142">
-        <v>0.49656400000000001</v>
+        <v>0.5</v>
       </c>
       <c r="J142" s="1">
-        <v>0.12811</v>
+        <v>0.46380500000000002</v>
       </c>
       <c r="N142">
-        <v>0.47537000000000001</v>
+        <v>0.52680000000000005</v>
       </c>
       <c r="O142">
         <v>0.5</v>
       </c>
       <c r="P142">
-        <v>0.48737000000000003</v>
+        <v>5.1400000000000001E-2</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -6959,27 +6986,26 @@
         <v>0.97470000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="9" t="s">
+    <row r="144" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1">
+      <c r="H144" s="21">
         <v>6.4422999999999994E-2</v>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="21">
         <v>0.5</v>
       </c>
-      <c r="J144" s="1">
+      <c r="J144" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="21">
         <v>0.47522999999999999</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="21">
         <v>0.49698999999999999</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="21">
         <v>0.485869</v>
       </c>
     </row>
@@ -7007,27 +7033,26 @@
         <v>0.97019999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="9" t="s">
+    <row r="146" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1">
+      <c r="H146" s="21">
         <v>0.55859999999999999</v>
       </c>
-      <c r="I146" s="1">
+      <c r="I146" s="21">
         <v>0.61939999999999995</v>
       </c>
-      <c r="J146" s="1">
+      <c r="J146" s="21">
         <v>0.45679999999999998</v>
       </c>
-      <c r="N146">
+      <c r="N146" s="21">
         <v>0.47251500000000002</v>
       </c>
-      <c r="O146">
+      <c r="O146" s="21">
         <v>0.5</v>
       </c>
-      <c r="P146">
+      <c r="P146" s="21">
         <v>0.48586000000000001</v>
       </c>
     </row>
@@ -7101,27 +7126,26 @@
         <v>0.97470000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1">
+      <c r="H150" s="21">
         <v>0.42807098999999998</v>
       </c>
-      <c r="I150" s="1">
+      <c r="I150" s="21">
         <v>0.4661749</v>
       </c>
-      <c r="J150" s="1">
+      <c r="J150" s="21">
         <v>0.44631100000000001</v>
       </c>
-      <c r="N150">
+      <c r="N150" s="21">
         <v>0.50480990000000003</v>
       </c>
-      <c r="O150">
+      <c r="O150" s="21">
         <v>0.52539999999999998</v>
       </c>
-      <c r="P150">
+      <c r="P150" s="21">
         <v>0.39853</v>
       </c>
     </row>
@@ -7242,26 +7266,26 @@
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="9" t="s">
+    <row r="156" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="21">
         <v>0.5</v>
       </c>
-      <c r="J156" s="1">
+      <c r="J156" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N156" s="1">
+      <c r="N156" s="21">
         <v>2.4626200000000001E-2</v>
       </c>
-      <c r="O156" s="1">
+      <c r="O156" s="21">
         <v>0.5</v>
       </c>
-      <c r="P156" s="1">
+      <c r="P156" s="21">
         <v>4.69404E-2</v>
       </c>
     </row>
@@ -7334,26 +7358,26 @@
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="9" t="s">
+    <row r="160" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="21">
         <v>6.4420000000000005E-2</v>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="21">
         <v>0.5</v>
       </c>
-      <c r="J160" s="1">
+      <c r="J160" s="21">
         <v>0.11409999999999999</v>
       </c>
-      <c r="N160" s="1">
+      <c r="N160" s="21">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O160" s="1">
+      <c r="O160" s="21">
         <v>0.5</v>
       </c>
-      <c r="P160" s="1">
+      <c r="P160" s="21">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
@@ -7912,1693 +7936,1737 @@
         <v>0.9718</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+    <row r="190" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H190">
+      <c r="H190" s="21">
         <v>0.56646099999999999</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="21">
         <v>0.50049999999999994</v>
       </c>
-      <c r="J190" s="1">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="N190">
+      <c r="J190" s="21">
+        <v>0.114</v>
+      </c>
+      <c r="N190" s="21">
         <v>0.472943</v>
       </c>
-      <c r="O190">
+      <c r="O190" s="21">
         <v>0.49976749999999998</v>
       </c>
-      <c r="P190">
-        <v>0.48595500000000003</v>
+      <c r="P190" s="21">
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="H191">
-        <v>0.97040000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I191">
-        <v>0.23930000000000001</v>
+        <v>1</v>
       </c>
       <c r="J191" s="1">
-        <v>0.38030000000000003</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="N191">
-        <v>0.94550000000000001</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O191">
         <v>1</v>
       </c>
       <c r="P191">
-        <v>0.9718</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
-        <v>211</v>
+      <c r="A192" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="H192">
-        <v>0.56645999999999996</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="I192">
-        <v>0.50049999999999994</v>
+        <v>0.5</v>
       </c>
       <c r="J192" s="1">
-        <v>0.1183</v>
+        <v>0.114</v>
       </c>
       <c r="N192">
-        <v>2.7E-2</v>
+        <v>2.46E-2</v>
       </c>
       <c r="O192">
         <v>0.5</v>
       </c>
       <c r="P192">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H193">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I193">
+        <v>67</v>
+      </c>
+      <c r="H193" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I193" s="1">
         <v>1</v>
       </c>
       <c r="J193" s="1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N193">
-        <v>0.88329999999999997</v>
-      </c>
-      <c r="O193">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="P193">
-        <v>6.7900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N193" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O193" s="1">
+        <v>1</v>
+      </c>
+      <c r="P193" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H194">
-        <v>0.43262499999999998</v>
-      </c>
-      <c r="I194">
-        <v>0.496166</v>
+        <v>180</v>
+      </c>
+      <c r="H194" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I194" s="1">
+        <v>0.5</v>
       </c>
       <c r="J194" s="1">
-        <v>0.12189</v>
-      </c>
-      <c r="N194">
-        <v>0.50834000000000001</v>
-      </c>
-      <c r="O194">
-        <v>0.50546999999999997</v>
-      </c>
-      <c r="P194">
-        <v>8.5800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="9"/>
-    </row>
-    <row r="196" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="11" t="s">
+        <v>0.114</v>
+      </c>
+      <c r="N194" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O194" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P194" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H195" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I195" s="1">
+        <v>1</v>
+      </c>
+      <c r="J195" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="K195" s="25"/>
+      <c r="L195" s="25"/>
+      <c r="M195" s="25"/>
+      <c r="N195" s="25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O195" s="25">
+        <v>1</v>
+      </c>
+      <c r="P195" s="25">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H196" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I196" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J196" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="K196" s="25"/>
+      <c r="L196" s="25"/>
+      <c r="M196" s="25"/>
+      <c r="N196" s="25">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O196" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P196" s="25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="H197" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I197" s="1">
+        <v>1</v>
+      </c>
+      <c r="J197" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="K197" s="25"/>
+      <c r="L197" s="25"/>
+      <c r="M197" s="25"/>
+      <c r="N197" s="25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O197" s="25">
+        <v>1</v>
+      </c>
+      <c r="P197" s="25">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="H198" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I198" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J198" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N198" s="25">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O198" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P198" s="25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I199" s="1">
+        <v>1</v>
+      </c>
+      <c r="J199" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N199" s="25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O199" s="25">
+        <v>1</v>
+      </c>
+      <c r="P199" s="25">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H200" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I200" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J200" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N200" s="25">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O200" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P200" s="25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H201" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I201" s="1">
+        <v>1</v>
+      </c>
+      <c r="J201" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N201" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O201" s="1">
+        <v>1</v>
+      </c>
+      <c r="P201" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="H202" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I202" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J202" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N202" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O202" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P202" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H203" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I203" s="1">
+        <v>1</v>
+      </c>
+      <c r="J203" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N203" s="25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O203" s="25">
+        <v>1</v>
+      </c>
+      <c r="P203" s="25">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H204" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I204" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J204" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N204" s="25">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O204" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P204" s="25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H205" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I205" s="1">
+        <v>1</v>
+      </c>
+      <c r="J205" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N205" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O205" s="1">
+        <v>1</v>
+      </c>
+      <c r="P205" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H206" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I206" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J206" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N206" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O206" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P206" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="H207" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I207" s="1">
+        <v>1</v>
+      </c>
+      <c r="J207" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N207" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O207" s="1">
+        <v>1</v>
+      </c>
+      <c r="P207" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="H208" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I208" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J208" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N208" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O208" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P208" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H209" s="25">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I209" s="25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J209" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N209" s="25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O209" s="25">
+        <v>1</v>
+      </c>
+      <c r="P209" s="25">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H210" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I210" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J210" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N210" s="25">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O210" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P210" s="25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H211" s="25">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I211" s="25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J211" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N211" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O211" s="1">
+        <v>1</v>
+      </c>
+      <c r="P211" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H212" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I212" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J212" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N212" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O212" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P212" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H213" s="25">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I213" s="25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J213" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N213" s="25">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O213" s="25">
+        <v>1</v>
+      </c>
+      <c r="P213" s="25">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H214" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J214" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N214" s="25">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O214" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P214" s="25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H215" s="25">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I215" s="25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J215" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N215" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O215" s="1">
+        <v>1</v>
+      </c>
+      <c r="P215" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H216" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I216" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J216" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N216" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O216" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P216" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H217" s="25">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I217" s="25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J217" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N217" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O217" s="1">
+        <v>1</v>
+      </c>
+      <c r="P217" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H218" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I218" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J218" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N218" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O218" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P218" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H219" s="25">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I219" s="25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J219" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N219" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O219" s="1">
+        <v>1</v>
+      </c>
+      <c r="P219" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H220" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I220" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J220" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N220" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O220" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P220" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H221" s="25">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I221" s="25">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J221" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N221" s="1">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O221" s="1">
+        <v>1</v>
+      </c>
+      <c r="P221" s="1">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H222" s="1">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I222" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J222" s="1">
+        <v>0.114</v>
+      </c>
+      <c r="N222" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O222" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P222" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="9"/>
+    </row>
+    <row r="224" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="11" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H197">
-        <v>1</v>
-      </c>
-      <c r="I197">
-        <v>0.87</v>
-      </c>
-      <c r="J197" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="N197">
-        <v>1</v>
-      </c>
-      <c r="O197">
-        <v>0.95</v>
-      </c>
-      <c r="P197">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H198">
-        <v>0.4335</v>
-      </c>
-      <c r="I198">
-        <v>0.5</v>
-      </c>
-      <c r="J198" s="1">
-        <v>0.46439999999999998</v>
-      </c>
-      <c r="N198">
-        <v>0.47295500000000001</v>
-      </c>
-      <c r="O198">
-        <v>0.5</v>
-      </c>
-      <c r="P198">
-        <v>0.48599999999999999</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A199" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H199">
-        <v>1</v>
-      </c>
-      <c r="I199">
-        <v>0.87</v>
-      </c>
-      <c r="J199" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="N199">
-        <v>1</v>
-      </c>
-      <c r="O199">
-        <v>0.95</v>
-      </c>
-      <c r="P199">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H200">
-        <v>0.43358999999999998</v>
-      </c>
-      <c r="I200">
-        <v>0.5</v>
-      </c>
-      <c r="J200" s="1">
-        <v>0.46443000000000001</v>
-      </c>
-      <c r="N200">
-        <v>0.47295500000000001</v>
-      </c>
-      <c r="O200">
-        <v>0.5</v>
-      </c>
-      <c r="P200">
-        <v>0.48609999999999998</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A201" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H201">
-        <v>1</v>
-      </c>
-      <c r="I201">
-        <v>0.87</v>
-      </c>
-      <c r="J201" s="1">
-        <v>0.93</v>
-      </c>
-      <c r="N201">
-        <v>1</v>
-      </c>
-      <c r="O201">
-        <v>0.95</v>
-      </c>
-      <c r="P201">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H202">
-        <v>0.5</v>
-      </c>
-      <c r="I202">
-        <v>0.4335</v>
-      </c>
-      <c r="J202" s="1">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="N202">
-        <v>0.5</v>
-      </c>
-      <c r="O202">
-        <v>0.47294999999999998</v>
-      </c>
-      <c r="P202">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203" s="6"/>
-    </row>
-    <row r="204" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H205">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I205">
-        <v>1</v>
-      </c>
-      <c r="J205" s="1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N205">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O205">
-        <v>1</v>
-      </c>
-      <c r="P205">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H206">
-        <v>0.49965300000000001</v>
-      </c>
-      <c r="I206">
-        <v>0.49948399999999998</v>
-      </c>
-      <c r="J206" s="1">
-        <v>0.49312</v>
-      </c>
-      <c r="N206">
-        <v>0.472943</v>
-      </c>
-      <c r="O206">
-        <v>0.49976700000000002</v>
-      </c>
-      <c r="P206">
-        <v>0.485985</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A207" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H207">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I207">
-        <v>1</v>
-      </c>
-      <c r="J207" s="1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N207">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O207">
-        <v>1</v>
-      </c>
-      <c r="P207">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H208">
-        <v>0.43359700000000001</v>
-      </c>
-      <c r="I208">
-        <v>0.5</v>
-      </c>
-      <c r="J208" s="1">
-        <v>0.46443699999999999</v>
-      </c>
-      <c r="N208">
-        <v>0.49086000000000002</v>
-      </c>
-      <c r="O208">
-        <v>0.49185000000000001</v>
-      </c>
-      <c r="P208">
-        <v>0.49129</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A209" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H209">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I209">
-        <v>1</v>
-      </c>
-      <c r="J209" s="1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N209">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O209">
-        <v>1</v>
-      </c>
-      <c r="P209">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H210">
-        <v>0.56642999999999999</v>
-      </c>
-      <c r="I210">
-        <v>0.50019999999999998</v>
-      </c>
-      <c r="J210" s="1">
-        <v>0.117788</v>
-      </c>
-      <c r="N210">
-        <v>0.47295500000000001</v>
-      </c>
-      <c r="O210">
-        <v>0.5</v>
-      </c>
-      <c r="P210">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="9"/>
-    </row>
-    <row r="212" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H213">
-        <v>0.98</v>
-      </c>
-      <c r="I213">
-        <v>0.86</v>
-      </c>
-      <c r="J213" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="N213">
-        <v>1</v>
-      </c>
-      <c r="O213">
-        <v>0.95</v>
-      </c>
-      <c r="P213">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H214">
-        <v>0.51063999999999998</v>
-      </c>
-      <c r="I214">
-        <v>0.50104400000000004</v>
-      </c>
-      <c r="J214" s="1">
-        <v>0.47427999999999998</v>
-      </c>
-      <c r="N214">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="O214">
-        <v>0.5</v>
-      </c>
-      <c r="P214">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A215" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H215">
-        <v>0.82</v>
-      </c>
-      <c r="I215">
-        <v>0.8</v>
-      </c>
-      <c r="J215" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="N215">
-        <v>0.91</v>
-      </c>
-      <c r="O215">
-        <v>0.91</v>
-      </c>
-      <c r="P215">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H216">
-        <v>0.52729999999999999</v>
-      </c>
-      <c r="I216">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="J216" s="1">
-        <v>0.52428900000000001</v>
-      </c>
-      <c r="N216">
-        <v>0.51158499999999996</v>
-      </c>
-      <c r="O216">
-        <v>0.50997000000000003</v>
-      </c>
-      <c r="P216">
-        <v>0.51049999999999995</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A217" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H217">
-        <v>0.75</v>
-      </c>
-      <c r="I217">
-        <v>0.76</v>
-      </c>
-      <c r="J217" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="N217">
-        <v>0.9</v>
-      </c>
-      <c r="O217">
-        <v>0.9</v>
-      </c>
-      <c r="P217">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H218">
-        <v>0.51670000000000005</v>
-      </c>
-      <c r="I218">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="J218" s="1">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="N218">
-        <v>0.49696000000000001</v>
-      </c>
-      <c r="O218">
-        <v>0.49697999999999998</v>
-      </c>
-      <c r="P218">
-        <v>0.49697000000000002</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="9"/>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A220" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A221" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H221">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
-      <c r="J221" s="1">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N221">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="O221">
-        <v>1</v>
-      </c>
-      <c r="P221">
-        <v>0.95940000000000003</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A222" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H222">
-        <v>0.47590500000000002</v>
-      </c>
-      <c r="I222">
-        <v>0.45176899999999998</v>
-      </c>
-      <c r="J222" s="1">
-        <v>0.42346400000000001</v>
-      </c>
-      <c r="N222">
-        <v>0.49375999999999998</v>
-      </c>
-      <c r="O222">
-        <v>0.4869</v>
-      </c>
-      <c r="P222">
-        <v>0.48514000000000002</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H223">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="I223">
-        <v>1</v>
-      </c>
-      <c r="J223" s="1">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="N223">
-        <v>0.9456</v>
-      </c>
-      <c r="O223">
-        <v>1</v>
-      </c>
-      <c r="P223">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="224" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H224">
-        <v>6.5083500000000002E-2</v>
-      </c>
-      <c r="I224">
-        <v>0.5</v>
-      </c>
-      <c r="J224" s="1">
-        <v>0.115175</v>
-      </c>
-      <c r="N224">
-        <v>2.4846E-2</v>
-      </c>
-      <c r="O224">
-        <v>0.5</v>
-      </c>
-      <c r="P224">
-        <v>4.7329999999999997E-2</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="H225">
-        <v>7.0800000000000002E-2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="J225" s="1">
-        <v>0.12403</v>
+        <v>0.93</v>
       </c>
       <c r="N225">
-        <v>0.49685499999999999</v>
+        <v>1</v>
       </c>
       <c r="O225">
-        <v>0.48395460000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P225">
-        <v>0.40194999999999997</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="H226">
-        <v>0.8619</v>
+        <v>0.4335</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J226" s="1">
-        <v>0.92530000000000001</v>
+        <v>0.46439999999999998</v>
       </c>
       <c r="N226">
-        <v>0.94850000000000001</v>
+        <v>0.47295500000000001</v>
       </c>
       <c r="O226">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P226">
-        <v>0.97330000000000005</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H227">
-        <v>6.8821400000000005E-2</v>
+        <v>1</v>
       </c>
       <c r="I227">
+        <v>0.87</v>
+      </c>
+      <c r="J227" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="N227">
+        <v>1</v>
+      </c>
+      <c r="O227">
+        <v>0.95</v>
+      </c>
+      <c r="P227">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H228">
+        <v>0.43358999999999998</v>
+      </c>
+      <c r="I228">
         <v>0.5</v>
       </c>
-      <c r="J227" s="1">
-        <v>0.12098</v>
-      </c>
-      <c r="N227">
-        <v>2.5725499999999998E-2</v>
-      </c>
-      <c r="O227">
+      <c r="J228" s="1">
+        <v>0.46443000000000001</v>
+      </c>
+      <c r="N228">
+        <v>0.47295500000000001</v>
+      </c>
+      <c r="O228">
         <v>0.5</v>
       </c>
-      <c r="P227">
-        <v>4.8933499999999998E-2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H228">
-        <v>0.8619</v>
-      </c>
-      <c r="I228">
-        <v>1</v>
-      </c>
-      <c r="J228" s="1">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N228">
-        <v>0.94769999999999999</v>
-      </c>
-      <c r="O228">
-        <v>1</v>
-      </c>
       <c r="P228">
-        <v>0.97289999999999999</v>
-      </c>
-    </row>
-    <row r="229" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.48609999999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>214</v>
+        <v>81</v>
       </c>
       <c r="H229">
-        <v>6.8821450000000006E-2</v>
+        <v>1</v>
       </c>
       <c r="I229">
+        <v>0.87</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="N229">
+        <v>1</v>
+      </c>
+      <c r="O229">
+        <v>0.95</v>
+      </c>
+      <c r="P229">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H230">
         <v>0.5</v>
       </c>
-      <c r="J229" s="1">
-        <v>0.120989</v>
-      </c>
-      <c r="N229">
-        <v>6.8821450000000006E-2</v>
-      </c>
-      <c r="O229">
+      <c r="I230">
+        <v>0.4335</v>
+      </c>
+      <c r="J230" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="N230">
         <v>0.5</v>
       </c>
-      <c r="P229">
-        <v>0.120989</v>
-      </c>
-    </row>
-    <row r="230" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H230">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I230">
-        <v>1</v>
-      </c>
-      <c r="J230" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N230">
-        <v>0.95230000000000004</v>
-      </c>
       <c r="O230">
-        <v>1</v>
+        <v>0.47294999999999998</v>
       </c>
       <c r="P230">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="231" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H231">
-        <v>6.4643799000000002E-2</v>
-      </c>
-      <c r="I231">
-        <v>0.5</v>
-      </c>
-      <c r="J231" s="1">
-        <v>0.114485</v>
-      </c>
-      <c r="N231">
-        <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="O231">
-        <v>0.5</v>
-      </c>
-      <c r="P231">
-        <v>0.11448</v>
-      </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H232">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I232">
-        <v>1</v>
-      </c>
-      <c r="J232" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N232">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="O232">
-        <v>1</v>
-      </c>
-      <c r="P232">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="233" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="9" t="s">
-        <v>218</v>
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="6"/>
+    </row>
+    <row r="232" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="H233">
-        <v>6.4640000000000003E-2</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="I233">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J233" s="1">
-        <v>0.11448</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="N233">
-        <v>2.3966500000000002E-2</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="O233">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P233">
-        <v>4.5740000000000003E-2</v>
+        <v>0.9718</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="H234">
-        <v>0.86260000000000003</v>
+        <v>0.49965300000000001</v>
       </c>
       <c r="I234">
-        <v>1</v>
+        <v>0.49948399999999998</v>
       </c>
       <c r="J234" s="1">
-        <v>0.92569999999999997</v>
+        <v>0.49312</v>
       </c>
       <c r="N234">
-        <v>0.94930000000000003</v>
+        <v>0.472943</v>
       </c>
       <c r="O234">
-        <v>1</v>
+        <v>0.49976700000000002</v>
       </c>
       <c r="P234">
-        <v>0.9738</v>
+        <v>0.485985</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="H235">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" s="1">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N235">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O235">
+        <v>1</v>
+      </c>
+      <c r="P235">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H236">
+        <v>0.43359700000000001</v>
+      </c>
+      <c r="I236">
+        <v>0.5</v>
+      </c>
+      <c r="J236" s="1">
+        <v>0.46443699999999999</v>
+      </c>
+      <c r="N236">
+        <v>0.49086000000000002</v>
+      </c>
+      <c r="O236">
+        <v>0.49185000000000001</v>
+      </c>
+      <c r="P236">
+        <v>0.49129</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H237">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" s="1">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="N237">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="O237">
+        <v>1</v>
+      </c>
+      <c r="P237">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H238">
+        <v>0.56642999999999999</v>
+      </c>
+      <c r="I238">
+        <v>0.50019999999999998</v>
+      </c>
+      <c r="J238" s="1">
+        <v>0.117788</v>
+      </c>
+      <c r="N238">
+        <v>0.47295500000000001</v>
+      </c>
+      <c r="O238">
+        <v>0.5</v>
+      </c>
+      <c r="P238">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="9"/>
+    </row>
+    <row r="240" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H241">
+        <v>0.98</v>
+      </c>
+      <c r="I241">
+        <v>0.86</v>
+      </c>
+      <c r="J241" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="N241">
+        <v>1</v>
+      </c>
+      <c r="O241">
+        <v>0.95</v>
+      </c>
+      <c r="P241">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H242">
+        <v>0.51063999999999998</v>
+      </c>
+      <c r="I242">
+        <v>0.50104400000000004</v>
+      </c>
+      <c r="J242" s="1">
+        <v>0.47427999999999998</v>
+      </c>
+      <c r="N242">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="O242">
+        <v>0.5</v>
+      </c>
+      <c r="P242">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H243">
+        <v>0.82</v>
+      </c>
+      <c r="I243">
+        <v>0.8</v>
+      </c>
+      <c r="J243" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="N243">
+        <v>0.91</v>
+      </c>
+      <c r="O243">
+        <v>0.91</v>
+      </c>
+      <c r="P243">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H244">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I244">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J244" s="1">
+        <v>0.52428900000000001</v>
+      </c>
+      <c r="N244">
+        <v>0.51158499999999996</v>
+      </c>
+      <c r="O244">
+        <v>0.50997000000000003</v>
+      </c>
+      <c r="P244">
+        <v>0.51049999999999995</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H245">
+        <v>0.75</v>
+      </c>
+      <c r="I245">
+        <v>0.76</v>
+      </c>
+      <c r="J245" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="N245">
+        <v>0.9</v>
+      </c>
+      <c r="O245">
+        <v>0.9</v>
+      </c>
+      <c r="P245">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H246">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="I246">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="J246" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N246">
+        <v>0.49696000000000001</v>
+      </c>
+      <c r="O246">
+        <v>0.49697999999999998</v>
+      </c>
+      <c r="P246">
+        <v>0.49697000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="9"/>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A248" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A249" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H249">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I249">
+        <v>1</v>
+      </c>
+      <c r="J249" s="1">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N249">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O249">
+        <v>1</v>
+      </c>
+      <c r="P249">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H250" s="21">
+        <v>0.47590500000000002</v>
+      </c>
+      <c r="I250" s="21">
+        <v>0.45176899999999998</v>
+      </c>
+      <c r="J250" s="21">
+        <v>0.42346400000000001</v>
+      </c>
+      <c r="N250" s="21">
+        <v>0.49375999999999998</v>
+      </c>
+      <c r="O250" s="21">
+        <v>0.4869</v>
+      </c>
+      <c r="P250" s="21">
+        <v>0.48514000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H251">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" s="1">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N251">
+        <v>0.9456</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
+      <c r="P251">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H252">
+        <v>6.5083500000000002E-2</v>
+      </c>
+      <c r="I252">
+        <v>0.5</v>
+      </c>
+      <c r="J252" s="1">
+        <v>0.115175</v>
+      </c>
+      <c r="N252">
+        <v>2.4846E-2</v>
+      </c>
+      <c r="O252">
+        <v>0.5</v>
+      </c>
+      <c r="P252">
+        <v>4.7329999999999997E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H253">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I253">
+        <v>0.5</v>
+      </c>
+      <c r="J253" s="1">
+        <v>0.12403</v>
+      </c>
+      <c r="N253">
+        <v>0.49685499999999999</v>
+      </c>
+      <c r="O253">
+        <v>0.48395460000000001</v>
+      </c>
+      <c r="P253">
+        <v>0.40194999999999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H254">
+        <v>0.8619</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" s="1">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N254">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="O254">
+        <v>1</v>
+      </c>
+      <c r="P254">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H255">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I255">
+        <v>0.5</v>
+      </c>
+      <c r="J255" s="1">
+        <v>0.12098</v>
+      </c>
+      <c r="N255">
+        <v>2.5725499999999998E-2</v>
+      </c>
+      <c r="O255">
+        <v>0.5</v>
+      </c>
+      <c r="P255">
+        <v>4.8933499999999998E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H256">
+        <v>0.8619</v>
+      </c>
+      <c r="I256">
+        <v>1</v>
+      </c>
+      <c r="J256" s="1">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N256">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="O256">
+        <v>1</v>
+      </c>
+      <c r="P256">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H257">
         <v>6.8821450000000006E-2</v>
       </c>
-      <c r="I235">
+      <c r="I257">
         <v>0.5</v>
       </c>
-      <c r="J235" s="1">
+      <c r="J257" s="1">
         <v>0.120989</v>
       </c>
-      <c r="N235">
-        <v>2.5284999999999998E-2</v>
-      </c>
-      <c r="O235">
+      <c r="N257">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="O257">
         <v>0.5</v>
       </c>
-      <c r="P235">
-        <v>4.8136999999999999E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="9"/>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A237" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A238" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H238">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="I238">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J238" s="1">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="N238">
-        <v>0.9506</v>
-      </c>
-      <c r="O238">
-        <v>1</v>
-      </c>
-      <c r="P238">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A239" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H239">
-        <v>6.4420000000000005E-2</v>
-      </c>
-      <c r="I239">
+      <c r="P257">
+        <v>0.120989</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H258">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N258">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="O258">
+        <v>1</v>
+      </c>
+      <c r="P258">
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H259">
+        <v>6.4643799000000002E-2</v>
+      </c>
+      <c r="I259">
         <v>0.5</v>
       </c>
-      <c r="J239" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N239">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O239">
-        <v>0.5</v>
-      </c>
-      <c r="P239">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A240" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H240">
-        <v>0.95879999999999999</v>
-      </c>
-      <c r="I240">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="J240" s="1">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="N240">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="O240">
-        <v>0.3957</v>
-      </c>
-      <c r="P240">
-        <v>0.55510000000000004</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H241">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I241">
-        <v>0.5</v>
-      </c>
-      <c r="J241" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N241">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O241">
-        <v>0.5</v>
-      </c>
-      <c r="P241">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A242" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H242" s="1">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I242" s="1">
-        <v>1</v>
-      </c>
-      <c r="J242" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N242">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O242">
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="P242">
-        <v>0.86250000000000004</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H243" s="1">
+      <c r="J259" s="1">
+        <v>0.114485</v>
+      </c>
+      <c r="N259">
         <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="I243" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J243" s="1">
-        <v>0.11448</v>
-      </c>
-      <c r="N243">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O243">
-        <v>0.5</v>
-      </c>
-      <c r="P243">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H244" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I244" s="1">
-        <v>1</v>
-      </c>
-      <c r="J244" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N244" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O244" s="1">
-        <v>1</v>
-      </c>
-      <c r="P244" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H245" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I245" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J245" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N245" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O245" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P245" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H246" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I246" s="1">
-        <v>1</v>
-      </c>
-      <c r="J246" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N246">
-        <v>0.95069999999999999</v>
-      </c>
-      <c r="O246" s="1">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="P246">
-        <v>0.92359999999999998</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H247" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I247" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J247" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N247" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O247" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P247" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H248" s="1">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="I248" s="1">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="J248" s="1">
-        <v>0.51119999999999999</v>
-      </c>
-      <c r="N248" s="1">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="O248" s="1">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="P248" s="1">
-        <v>0.72240000000000004</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H249" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I249" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J249" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N249" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O249" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P249" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H250" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I250" s="1">
-        <v>1</v>
-      </c>
-      <c r="J250" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N250" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O250" s="1">
-        <v>1</v>
-      </c>
-      <c r="P250" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H251" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I251" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J251" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N251" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O251" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P251" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H252" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I252" s="1">
-        <v>1</v>
-      </c>
-      <c r="J252" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N252" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O252" s="1">
-        <v>1</v>
-      </c>
-      <c r="P252" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H253" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I253" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J253" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N253" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="O253" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P253" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H254" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I254" s="1">
-        <v>1</v>
-      </c>
-      <c r="J254" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N254" s="1">
-        <v>0.95120000000000005</v>
-      </c>
-      <c r="O254" s="1">
-        <v>0.93940000000000001</v>
-      </c>
-      <c r="P254" s="1">
-        <v>0.94479999999999997</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H255" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I255" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J255" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N255" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="O255" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P255" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H256" s="1">
-        <v>0.87809999999999999</v>
-      </c>
-      <c r="I256" s="1">
-        <v>0.79039999999999999</v>
-      </c>
-      <c r="J256" s="1">
-        <v>0.8306</v>
-      </c>
-      <c r="N256" s="1">
-        <v>0.94689999999999996</v>
-      </c>
-      <c r="O256" s="1">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="P256" s="1">
-        <v>0.65310000000000001</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="H257" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I257" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J257" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N257" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="O257" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P257" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A258" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H258">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I258">
-        <v>1</v>
-      </c>
-      <c r="J258" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N258">
-        <v>0.94979999999999998</v>
-      </c>
-      <c r="O258">
-        <v>0.57889999999999997</v>
-      </c>
-      <c r="P258">
-        <v>0.71809999999999996</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A259" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="H259" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I259" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J259" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N259">
-        <v>2.4625999999999999E-2</v>
       </c>
       <c r="O259">
         <v>0.5</v>
       </c>
       <c r="P259">
+        <v>0.11448</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H260">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I260">
+        <v>1</v>
+      </c>
+      <c r="J260" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N260">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="O260">
+        <v>1</v>
+      </c>
+      <c r="P260">
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H261">
+        <v>6.4640000000000003E-2</v>
+      </c>
+      <c r="I261">
+        <v>0.5</v>
+      </c>
+      <c r="J261" s="1">
+        <v>0.11448</v>
+      </c>
+      <c r="N261">
+        <v>2.3966500000000002E-2</v>
+      </c>
+      <c r="O261">
+        <v>0.5</v>
+      </c>
+      <c r="P261">
+        <v>4.5740000000000003E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H262">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" s="1">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="N262">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="O262">
+        <v>1</v>
+      </c>
+      <c r="P262">
+        <v>0.9738</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H263">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="I263">
+        <v>0.5</v>
+      </c>
+      <c r="J263" s="1">
+        <v>0.120989</v>
+      </c>
+      <c r="N263">
+        <v>2.5284999999999998E-2</v>
+      </c>
+      <c r="O263">
+        <v>0.5</v>
+      </c>
+      <c r="P263">
+        <v>4.8136999999999999E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="9"/>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A265" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H266" s="25">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="I266" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J266" s="25">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N266" s="25">
+        <v>0.9506</v>
+      </c>
+      <c r="O266" s="25">
+        <v>1</v>
+      </c>
+      <c r="P266" s="25">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H267" s="21">
+        <v>6.4420000000000005E-2</v>
+      </c>
+      <c r="I267" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J267" s="21">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N267" s="21">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O267" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P267" s="21">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A260" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="H260">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="I260" s="1">
-        <v>0.66490000000000005</v>
-      </c>
-      <c r="J260" s="1">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="N260">
-        <v>0.9506</v>
-      </c>
-      <c r="O260">
-        <v>1</v>
-      </c>
-      <c r="P260">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="H261" s="1">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A268" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H268">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="I268">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="J268" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="N268">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="O268">
+        <v>0.3957</v>
+      </c>
+      <c r="P268">
+        <v>0.55510000000000004</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H269">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I261" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J261" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N261" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O261" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P261" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A262" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="H262" s="1">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="I262" s="1">
-        <v>0.71060000000000001</v>
-      </c>
-      <c r="J262" s="1">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="K262" s="1"/>
-      <c r="L262" s="1"/>
-      <c r="M262" s="1"/>
-      <c r="N262" s="1">
-        <v>0.95269999999999999</v>
-      </c>
-      <c r="O262" s="1">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="P262" s="1">
-        <v>0.64510000000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H263" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I263" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J263" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N263" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O263" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P263" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H264" s="1">
-        <v>0.87260000000000004</v>
-      </c>
-      <c r="I264" s="1">
-        <v>0.89259999999999995</v>
-      </c>
-      <c r="J264" s="1">
-        <v>0.88160000000000005</v>
-      </c>
-      <c r="N264" s="1">
-        <v>0.95040000000000002</v>
-      </c>
-      <c r="O264" s="1">
-        <v>0.99590000000000001</v>
-      </c>
-      <c r="P264" s="1">
-        <v>0.97240000000000004</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H265" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I265" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J265" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N265" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O265" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P265" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H266" s="1">
-        <v>0.93320000000000003</v>
-      </c>
-      <c r="I266" s="1">
-        <v>0.70130000000000003</v>
-      </c>
-      <c r="J266" s="1">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="N266" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O266" s="1">
-        <v>1</v>
-      </c>
-      <c r="P266" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A267" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H267" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I267" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J267" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N267" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O267" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P267" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H268" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I268" s="1">
-        <v>1</v>
-      </c>
-      <c r="J268" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N268" s="1">
-        <v>0.95589999999999997</v>
-      </c>
-      <c r="O268" s="1">
-        <v>0.61429999999999996</v>
-      </c>
-      <c r="P268" s="1">
-        <v>0.74619999999999997</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H269" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I269" s="1">
+      <c r="I269">
         <v>0.5</v>
       </c>
       <c r="J269" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N269" s="1">
+      <c r="N269">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O269" s="1">
+      <c r="O269">
         <v>0.5</v>
       </c>
-      <c r="P269" s="1">
+      <c r="P269">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="9"/>
-    </row>
-    <row r="271" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H270" s="1">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I270" s="1">
+        <v>1</v>
+      </c>
+      <c r="J270" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N270">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O270">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="P270">
+        <v>0.86250000000000004</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H271" s="21">
+        <v>6.4640000000000003E-2</v>
+      </c>
+      <c r="I271" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J271" s="21">
+        <v>0.11448</v>
+      </c>
+      <c r="N271" s="21">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O271" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P271" s="21">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="H272" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.92349999999999999</v>
       </c>
       <c r="I272" s="1">
-        <v>0.9163</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="J272" s="1">
-        <v>0.89180000000000004</v>
+        <v>0.51119999999999999</v>
       </c>
       <c r="N272" s="1">
-        <v>0.95079999999999998</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="O272" s="1">
-        <v>0.88800000000000001</v>
+        <v>0.58720000000000006</v>
       </c>
       <c r="P272" s="1">
-        <v>0.91769999999999996</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.72240000000000004</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>177</v>
+        <v>222</v>
       </c>
       <c r="H273" s="1">
         <v>6.4423900000000006E-2</v>
@@ -9616,12 +9684,12 @@
         <v>0.5</v>
       </c>
       <c r="P273" s="1">
-        <v>4.69404E-2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="H274" s="1">
         <v>0.86980000000000002</v>
@@ -9644,7 +9712,7 @@
     </row>
     <row r="275" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="H275" s="1">
         <v>6.4423900000000006E-2</v>
@@ -9662,21 +9730,21 @@
         <v>0.5</v>
       </c>
       <c r="P275" s="1">
-        <v>4.69404E-2</v>
+        <v>4.6940000000000003E-2</v>
       </c>
     </row>
     <row r="276" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H276" s="1">
-        <v>0.91979999999999995</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I276" s="1">
-        <v>0.68569999999999998</v>
+        <v>1</v>
       </c>
       <c r="J276" s="1">
-        <v>0.7843</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="N276" s="1">
         <v>0.9506</v>
@@ -9688,32 +9756,32 @@
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H277" s="1">
+    <row r="277" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H277" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I277" s="1">
+      <c r="I277" s="21">
         <v>0.5</v>
       </c>
-      <c r="J277" s="1">
+      <c r="J277" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N277" s="1">
+      <c r="N277" s="21">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O277" s="1">
+      <c r="O277" s="21">
         <v>0.5</v>
       </c>
-      <c r="P277" s="1">
-        <v>4.69404E-2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P277" s="21">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H278" s="1">
         <v>0.86980000000000002</v>
@@ -9724,19 +9792,19 @@
       <c r="J278" s="1">
         <v>0.92989999999999995</v>
       </c>
-      <c r="N278" s="1">
-        <v>0.94989999999999997</v>
+      <c r="N278">
+        <v>0.95069999999999999</v>
       </c>
       <c r="O278" s="1">
-        <v>0.9335</v>
-      </c>
-      <c r="P278" s="1">
-        <v>0.94099999999999995</v>
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="P278">
+        <v>0.92359999999999998</v>
       </c>
     </row>
     <row r="279" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H279" s="1">
         <v>6.4423900000000006E-2</v>
@@ -9759,19 +9827,19 @@
     </row>
     <row r="280" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H280" s="1">
-        <v>0.86960000000000004</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I280" s="1">
-        <v>0.94530000000000003</v>
+        <v>1</v>
       </c>
       <c r="J280" s="1">
-        <v>0.9052</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="N280" s="1">
-        <v>0.95279999999999998</v>
+        <v>0.9506</v>
       </c>
       <c r="O280" s="1">
         <v>1</v>
@@ -9780,32 +9848,32 @@
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="281" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H281" s="1">
+    <row r="281" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A281" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="H281" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I281" s="1">
+      <c r="I281" s="21">
         <v>0.5</v>
       </c>
-      <c r="J281" s="1">
+      <c r="J281" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N281" s="1">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O281" s="1">
+      <c r="N281" s="21">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="O281" s="21">
         <v>0.5</v>
       </c>
-      <c r="P281" s="1">
-        <v>4.69404E-2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P281" s="21">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="H282" s="1">
         <v>0.86980000000000002</v>
@@ -9817,18 +9885,18 @@
         <v>0.92989999999999995</v>
       </c>
       <c r="N282" s="1">
-        <v>0.95089999999999997</v>
+        <v>0.95120000000000005</v>
       </c>
       <c r="O282" s="1">
-        <v>0.97219999999999995</v>
+        <v>0.93940000000000001</v>
       </c>
       <c r="P282" s="1">
-        <v>0.96120000000000005</v>
+        <v>0.94479999999999997</v>
       </c>
     </row>
     <row r="283" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="H283" s="1">
         <v>6.4423900000000006E-2</v>
@@ -9840,41 +9908,41 @@
         <v>0.11414000000000001</v>
       </c>
       <c r="N283" s="1">
-        <v>2.4625999999999999E-2</v>
+        <v>6.4423900000000006E-2</v>
       </c>
       <c r="O283" s="1">
         <v>0.5</v>
       </c>
       <c r="P283" s="1">
-        <v>4.69404E-2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="H284" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.87809999999999999</v>
       </c>
       <c r="I284" s="1">
-        <v>1</v>
+        <v>0.79039999999999999</v>
       </c>
       <c r="J284" s="1">
-        <v>0.92989999999999995</v>
+        <v>0.8306</v>
       </c>
       <c r="N284" s="1">
-        <v>0.95109999999999995</v>
+        <v>0.94689999999999996</v>
       </c>
       <c r="O284" s="1">
-        <v>0.87829999999999997</v>
+        <v>0.50129999999999997</v>
       </c>
       <c r="P284" s="1">
-        <v>0.91249999999999998</v>
+        <v>0.65310000000000001</v>
       </c>
     </row>
     <row r="285" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="H285" s="1">
         <v>6.4423900000000006E-2</v>
@@ -9886,41 +9954,41 @@
         <v>0.11414000000000001</v>
       </c>
       <c r="N285" s="1">
-        <v>2.4625999999999999E-2</v>
+        <v>6.4423900000000006E-2</v>
       </c>
       <c r="O285" s="1">
         <v>0.5</v>
       </c>
       <c r="P285" s="1">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="286" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H286" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I286" s="1">
+        <v>184</v>
+      </c>
+      <c r="H286">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I286">
         <v>1</v>
       </c>
       <c r="J286" s="1">
         <v>0.92989999999999995</v>
       </c>
-      <c r="N286" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O286" s="1">
-        <v>1</v>
-      </c>
-      <c r="P286" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="N286">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="O286">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="P286">
+        <v>0.71809999999999996</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H287" s="1">
         <v>6.4423900000000006E-2</v>
@@ -9931,88 +9999,100 @@
       <c r="J287" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N287" s="1">
+      <c r="N287">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O287">
+        <v>0.5</v>
+      </c>
+      <c r="P287">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H288">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="I288" s="1">
+        <v>0.66490000000000005</v>
+      </c>
+      <c r="J288" s="1">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="N288">
+        <v>0.9506</v>
+      </c>
+      <c r="O288">
+        <v>1</v>
+      </c>
+      <c r="P288">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B289" s="21"/>
+      <c r="C289" s="21"/>
+      <c r="D289" s="21"/>
+      <c r="E289" s="21"/>
+      <c r="F289" s="21"/>
+      <c r="G289" s="21"/>
+      <c r="H289" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O287" s="1">
+      <c r="I289" s="21">
         <v>0.5</v>
       </c>
-      <c r="P287" s="1">
+      <c r="J289" s="21">
         <v>0.11414000000000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H288" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I288" s="1">
-        <v>1</v>
-      </c>
-      <c r="J288" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N288" s="1">
-        <v>0.95069999999999999</v>
-      </c>
-      <c r="O288" s="1">
-        <v>1</v>
-      </c>
-      <c r="P288" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H289" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I289" s="1">
+      <c r="K289" s="21"/>
+      <c r="L289" s="21"/>
+      <c r="M289" s="21"/>
+      <c r="N289" s="21">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O289" s="21">
         <v>0.5</v>
       </c>
-      <c r="J289" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N289" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="O289" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P289" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-    </row>
-    <row r="290" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P289" s="21">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H290" s="1">
-        <v>0.86870000000000003</v>
+        <v>0.92269999999999996</v>
       </c>
       <c r="I290" s="1">
-        <v>0.40100000000000002</v>
+        <v>0.71060000000000001</v>
       </c>
       <c r="J290" s="1">
-        <v>0.54549999999999998</v>
-      </c>
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="K290" s="1"/>
+      <c r="L290" s="1"/>
+      <c r="M290" s="1"/>
       <c r="N290" s="1">
-        <v>0.94779999999999998</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="O290" s="1">
-        <v>0.67430000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="P290" s="1">
-        <v>0.78590000000000004</v>
+        <v>0.64510000000000001</v>
       </c>
     </row>
     <row r="291" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H291" s="1">
         <v>6.4423900000000006E-2</v>
@@ -10024,41 +10104,41 @@
         <v>0.11414000000000001</v>
       </c>
       <c r="N291" s="1">
-        <v>6.4423900000000006E-2</v>
+        <v>2.4625999999999999E-2</v>
       </c>
       <c r="O291" s="1">
         <v>0.5</v>
       </c>
       <c r="P291" s="1">
-        <v>0.11414000000000001</v>
+        <v>4.6940000000000003E-2</v>
       </c>
     </row>
     <row r="292" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="H292" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.87260000000000004</v>
       </c>
       <c r="I292" s="1">
-        <v>1</v>
+        <v>0.89259999999999995</v>
       </c>
       <c r="J292" s="1">
-        <v>0.92989999999999995</v>
+        <v>0.88160000000000005</v>
       </c>
       <c r="N292" s="1">
-        <v>0.9506</v>
+        <v>0.95040000000000002</v>
       </c>
       <c r="O292" s="1">
-        <v>1</v>
+        <v>0.99590000000000001</v>
       </c>
       <c r="P292" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="293" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.97240000000000004</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H293" s="1">
         <v>6.4423900000000006E-2</v>
@@ -10081,19 +10161,19 @@
     </row>
     <row r="294" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H294" s="1">
-        <v>0.86980000000000002</v>
+        <v>0.93320000000000003</v>
       </c>
       <c r="I294" s="1">
-        <v>1</v>
+        <v>0.70130000000000003</v>
       </c>
       <c r="J294" s="1">
-        <v>0.92989999999999995</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="N294" s="1">
-        <v>0.95069999999999999</v>
+        <v>0.9506</v>
       </c>
       <c r="O294" s="1">
         <v>1</v>
@@ -10102,9 +10182,9 @@
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="295" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H295" s="1">
         <v>6.4423900000000006E-2</v>
@@ -10116,41 +10196,41 @@
         <v>0.11414000000000001</v>
       </c>
       <c r="N295" s="1">
-        <v>6.4423900000000006E-2</v>
+        <v>2.4625999999999999E-2</v>
       </c>
       <c r="O295" s="1">
         <v>0.5</v>
       </c>
       <c r="P295" s="1">
-        <v>0.11414000000000001</v>
+        <v>4.6940000000000003E-2</v>
       </c>
     </row>
     <row r="296" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="H296" s="1">
-        <v>0.92520000000000002</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I296" s="1">
-        <v>0.68859999999999999</v>
+        <v>1</v>
       </c>
       <c r="J296" s="1">
-        <v>0.78779999999999994</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="N296" s="1">
-        <v>0.9506</v>
+        <v>0.95589999999999997</v>
       </c>
       <c r="O296" s="1">
-        <v>1</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="P296" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="297" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.74619999999999997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="H297" s="1">
         <v>6.4423900000000006E-2</v>
@@ -10172,123 +10252,85 @@
       </c>
     </row>
     <row r="298" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H298" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I298" s="1">
-        <v>1</v>
-      </c>
-      <c r="J298" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N298" s="1">
-        <v>0.94950000000000001</v>
-      </c>
-      <c r="O298" s="1">
-        <v>0.92779999999999996</v>
-      </c>
-      <c r="P298" s="1">
-        <v>0.93789999999999996</v>
-      </c>
-    </row>
-    <row r="299" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A299" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="H299" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I299" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J299" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N299" s="1">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O299" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P299" s="1">
-        <v>4.6899999999999997E-2</v>
+      <c r="A298" s="9"/>
+    </row>
+    <row r="299" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="300" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="H300" s="1">
-        <v>0.95499999999999996</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I300" s="1">
-        <v>0.62360000000000004</v>
+        <v>0.9163</v>
       </c>
       <c r="J300" s="1">
-        <v>0.75219999999999998</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="N300" s="1">
-        <v>0.89870000000000005</v>
+        <v>0.95079999999999998</v>
       </c>
       <c r="O300" s="1">
-        <v>0.30790000000000001</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="P300" s="1">
-        <v>0.4551</v>
-      </c>
-    </row>
-    <row r="301" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H301" s="1">
+        <v>0.91769999999999996</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H301" s="21">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I301" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J301" s="21">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N301" s="21">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="I301" s="1">
+      <c r="O301" s="21">
         <v>0.5</v>
       </c>
-      <c r="J301" s="1">
-        <v>4.6940000000000003E-2</v>
-      </c>
-      <c r="N301" s="1">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="O301" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P301" s="1">
-        <v>0.11414000000000001</v>
+      <c r="P301" s="21">
+        <v>4.69404E-2</v>
       </c>
     </row>
     <row r="302" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="H302" s="1">
-        <v>0.89870000000000005</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I302" s="1">
-        <v>0.60309999999999997</v>
+        <v>1</v>
       </c>
       <c r="J302" s="1">
-        <v>0.72</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="N302" s="1">
-        <v>0.94799999999999995</v>
+        <v>0.9506</v>
       </c>
       <c r="O302" s="1">
-        <v>0.44619999999999999</v>
+        <v>1</v>
       </c>
       <c r="P302" s="1">
-        <v>0.60370000000000001</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="H303" s="1">
         <v>6.4423900000000006E-2</v>
@@ -10306,142 +10348,786 @@
         <v>0.5</v>
       </c>
       <c r="P303" s="1">
+        <v>4.69404E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H304" s="1">
+        <v>0.91979999999999995</v>
+      </c>
+      <c r="I304" s="1">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="J304" s="1">
+        <v>0.7843</v>
+      </c>
+      <c r="N304" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O304" s="1">
+        <v>1</v>
+      </c>
+      <c r="P304" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H305" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I305" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J305" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N305" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O305" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P305" s="1">
+        <v>4.69404E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H306" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I306" s="1">
+        <v>1</v>
+      </c>
+      <c r="J306" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N306" s="1">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="O306" s="1">
+        <v>0.9335</v>
+      </c>
+      <c r="P306" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H307" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I307" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J307" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N307" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O307" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P307" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="9"/>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A305" s="6"/>
-    </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A306" s="11" t="s">
+    <row r="308" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H308" s="1">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="I308" s="1">
+        <v>0.94530000000000003</v>
+      </c>
+      <c r="J308" s="1">
+        <v>0.9052</v>
+      </c>
+      <c r="N308" s="1">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="O308" s="1">
+        <v>1</v>
+      </c>
+      <c r="P308" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="H309" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I309" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J309" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N309" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O309" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P309" s="1">
+        <v>4.69404E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H310" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I310" s="1">
+        <v>1</v>
+      </c>
+      <c r="J310" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N310" s="1">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="O310" s="1">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="P310" s="1">
+        <v>0.96120000000000005</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H311" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I311" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J311" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N311" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O311" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P311" s="1">
+        <v>4.69404E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H312" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I312" s="1">
+        <v>1</v>
+      </c>
+      <c r="J312" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N312" s="1">
+        <v>0.95109999999999995</v>
+      </c>
+      <c r="O312" s="1">
+        <v>0.87829999999999997</v>
+      </c>
+      <c r="P312" s="1">
+        <v>0.91249999999999998</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A313" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H313" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I313" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J313" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N313" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O313" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P313" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H314" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I314" s="1">
+        <v>1</v>
+      </c>
+      <c r="J314" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N314" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O314" s="1">
+        <v>1</v>
+      </c>
+      <c r="P314" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H315" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I315" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J315" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N315" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="O315" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P315" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H316" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I316" s="1">
+        <v>1</v>
+      </c>
+      <c r="J316" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N316" s="1">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="O316" s="1">
+        <v>1</v>
+      </c>
+      <c r="P316" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="H317" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I317" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J317" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N317" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="O317" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P317" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="H318" s="1">
+        <v>0.86870000000000003</v>
+      </c>
+      <c r="I318" s="1">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="J318" s="1">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="N318" s="1">
+        <v>0.94779999999999998</v>
+      </c>
+      <c r="O318" s="1">
+        <v>0.67430000000000001</v>
+      </c>
+      <c r="P318" s="1">
+        <v>0.78590000000000004</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H319" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I319" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J319" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N319" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="O319" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P319" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H320" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I320" s="1">
+        <v>1</v>
+      </c>
+      <c r="J320" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N320" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O320" s="1">
+        <v>1</v>
+      </c>
+      <c r="P320" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H321" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I321" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J321" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N321" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O321" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P321" s="1">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H322" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I322" s="1">
+        <v>1</v>
+      </c>
+      <c r="J322" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N322" s="1">
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="O322" s="1">
+        <v>1</v>
+      </c>
+      <c r="P322" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="H323" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I323" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J323" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N323" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="O323" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P323" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H324" s="1">
+        <v>0.92520000000000002</v>
+      </c>
+      <c r="I324" s="1">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="J324" s="1">
+        <v>0.78779999999999994</v>
+      </c>
+      <c r="N324" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O324" s="1">
+        <v>1</v>
+      </c>
+      <c r="P324" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H325" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I325" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J325" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N325" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O325" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P325" s="1">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H326" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I326" s="1">
+        <v>1</v>
+      </c>
+      <c r="J326" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N326" s="1">
+        <v>0.94950000000000001</v>
+      </c>
+      <c r="O326" s="1">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="P326" s="1">
+        <v>0.93789999999999996</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H327" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I327" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J327" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N327" s="1">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O327" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P327" s="1">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H328" s="1">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="I328" s="1">
+        <v>0.62360000000000004</v>
+      </c>
+      <c r="J328" s="1">
+        <v>0.75219999999999998</v>
+      </c>
+      <c r="N328" s="1">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="O328" s="1">
+        <v>0.30790000000000001</v>
+      </c>
+      <c r="P328" s="1">
+        <v>0.4551</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="H329" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="I329" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J329" s="1">
+        <v>4.6940000000000003E-2</v>
+      </c>
+      <c r="N329" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="O329" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P329" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H330" s="1">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="I330" s="1">
+        <v>0.60309999999999997</v>
+      </c>
+      <c r="J330" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="N330" s="1">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O330" s="1">
+        <v>0.44619999999999999</v>
+      </c>
+      <c r="P330" s="1">
+        <v>0.60370000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H331" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I331" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J331" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N331" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O331" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P331" s="1">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="9"/>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A333" s="6"/>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A334" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A307" s="6" t="s">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A335" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H307">
+      <c r="H335">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I307">
-        <v>1</v>
-      </c>
-      <c r="J307" s="1">
+      <c r="I335">
+        <v>1</v>
+      </c>
+      <c r="J335" s="1">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N307">
+      <c r="N335">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O307">
-        <v>1</v>
-      </c>
-      <c r="P307">
+      <c r="O335">
+        <v>1</v>
+      </c>
+      <c r="P335">
         <v>0.92730000000000001</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A336" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H308">
+      <c r="H336">
         <v>6.8821400000000005E-2</v>
       </c>
-      <c r="I308">
+      <c r="I336">
         <v>0.5</v>
       </c>
-      <c r="J308" s="1">
+      <c r="J336" s="1">
         <v>0.120989</v>
       </c>
-      <c r="N308">
+      <c r="N336">
         <v>6.8820000000000006E-2</v>
       </c>
-      <c r="O308">
+      <c r="O336">
         <v>0.5</v>
       </c>
-      <c r="P308">
+      <c r="P336">
         <v>0.12098</v>
       </c>
     </row>
-    <row r="309" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="11" t="s">
+    <row r="337" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A338" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H310">
+      <c r="H338">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I310">
+      <c r="I338">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J310" s="1">
+      <c r="J338" s="1">
         <v>0.92</v>
       </c>
-      <c r="N310">
+      <c r="N338">
         <v>0.9456</v>
       </c>
-      <c r="O310">
+      <c r="O338">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P310">
+      <c r="P338">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A315" s="11" t="s">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A343" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="s">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A344" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H316">
+      <c r="H344">
         <v>0.4</v>
       </c>
-      <c r="I316">
+      <c r="I344">
         <v>0.5</v>
       </c>
-      <c r="J316" s="1">
+      <c r="J344" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N316">
+      <c r="N344">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O316">
+      <c r="O344">
         <v>0.5202</v>
       </c>
-      <c r="P316">
+      <c r="P344">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="6" t="s">
+    <row r="345" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H317">
+      <c r="H345">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I317">
+      <c r="I345">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J317" s="1">
+      <c r="J345" s="1">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N317">
+      <c r="N345">
         <v>0.5</v>
       </c>
-      <c r="O317">
+      <c r="O345">
         <v>0.34</v>
       </c>
-      <c r="P317">
+      <c r="P345">
         <v>0.40400000000000003</v>
       </c>
     </row>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="246">
   <si>
     <t>Model</t>
   </si>
@@ -834,12 +834,15 @@
   <si>
     <t>Weighted by Rand normal (sklearn)</t>
   </si>
+  <si>
+    <t>Gaussian Naïve Bayes + OHE + 3 dense layers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -879,6 +882,13 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -912,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -961,6 +971,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1309,13 +1322,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R345"/>
+  <dimension ref="A1:R409"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B140" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B250" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A228" sqref="A228"/>
-      <selection pane="bottomRight" activeCell="I153" sqref="I153"/>
+      <selection pane="bottomRight" activeCell="H274" sqref="H274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8872,13 +8885,13 @@
         <v>0.92849999999999999</v>
       </c>
       <c r="N233">
-        <v>0.94550000000000001</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="O233">
         <v>1</v>
       </c>
       <c r="P233">
-        <v>0.9718</v>
+        <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
@@ -8886,2248 +8899,2602 @@
         <v>177</v>
       </c>
       <c r="H234">
-        <v>0.49965300000000001</v>
+        <v>6.8400000000000002E-2</v>
       </c>
       <c r="I234">
-        <v>0.49948399999999998</v>
+        <v>0.5</v>
       </c>
       <c r="J234" s="1">
-        <v>0.49312</v>
+        <v>0.12</v>
       </c>
       <c r="N234">
-        <v>0.472943</v>
+        <v>2.81E-2</v>
       </c>
       <c r="O234">
-        <v>0.49976700000000002</v>
+        <v>0.5</v>
       </c>
       <c r="P234">
-        <v>0.485985</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H235">
+        <v>65</v>
+      </c>
+      <c r="H235" s="1">
         <v>0.86699999999999999</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="1">
         <v>1</v>
       </c>
       <c r="J235" s="1">
         <v>0.92849999999999999</v>
       </c>
-      <c r="N235">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O235">
-        <v>1</v>
-      </c>
-      <c r="P235">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="236" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A236" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H236">
-        <v>0.43359700000000001</v>
-      </c>
-      <c r="I236">
+      <c r="N235" s="1">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="O235" s="1">
+        <v>1</v>
+      </c>
+      <c r="P235" s="1">
+        <v>0.97089999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="H236" s="1">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="I236" s="1">
         <v>0.5</v>
       </c>
       <c r="J236" s="1">
-        <v>0.46443699999999999</v>
-      </c>
-      <c r="N236">
-        <v>0.49086000000000002</v>
-      </c>
-      <c r="O236">
-        <v>0.49185000000000001</v>
-      </c>
-      <c r="P236">
-        <v>0.49129</v>
-      </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+      <c r="N236" s="1">
+        <v>2.81E-2</v>
+      </c>
+      <c r="O236" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P236" s="1">
+        <v>5.33E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H237">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I237">
-        <v>1</v>
-      </c>
-      <c r="J237" s="1">
-        <v>0.92849999999999999</v>
-      </c>
-      <c r="N237">
-        <v>0.94550000000000001</v>
-      </c>
-      <c r="O237">
-        <v>1</v>
-      </c>
-      <c r="P237">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H238">
-        <v>0.56642999999999999</v>
-      </c>
-      <c r="I238">
-        <v>0.50019999999999998</v>
-      </c>
-      <c r="J238" s="1">
-        <v>0.117788</v>
-      </c>
-      <c r="N238">
-        <v>0.47295500000000001</v>
-      </c>
-      <c r="O238">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A239" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A240" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="9"/>
+    </row>
+    <row r="268" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H269" s="1">
+        <v>0.86480000000000001</v>
+      </c>
+      <c r="I269" s="1">
+        <v>1</v>
+      </c>
+      <c r="J269" s="1">
+        <v>0.92710000000000004</v>
+      </c>
+      <c r="N269" s="1">
+        <v>0.95240000000000002</v>
+      </c>
+      <c r="O269" s="1">
+        <v>1</v>
+      </c>
+      <c r="P269" s="1">
+        <v>0.97540000000000004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H270" s="1">
+        <v>6.7720000000000002E-2</v>
+      </c>
+      <c r="I270" s="1">
         <v>0.5</v>
       </c>
-      <c r="P238">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="239" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="9"/>
-    </row>
-    <row r="240" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H241">
-        <v>0.98</v>
-      </c>
-      <c r="I241">
-        <v>0.86</v>
-      </c>
-      <c r="J241" s="1">
-        <v>0.91</v>
-      </c>
-      <c r="N241">
-        <v>1</v>
-      </c>
-      <c r="O241">
-        <v>0.95</v>
-      </c>
-      <c r="P241">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="H242">
-        <v>0.51063999999999998</v>
-      </c>
-      <c r="I242">
-        <v>0.50104400000000004</v>
-      </c>
-      <c r="J242" s="1">
-        <v>0.47427999999999998</v>
-      </c>
-      <c r="N242">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="O242">
+      <c r="J270" s="1">
+        <v>0.11928</v>
+      </c>
+      <c r="N270" s="1">
+        <v>2.3740000000000001E-2</v>
+      </c>
+      <c r="O270" s="1">
         <v>0.5</v>
       </c>
-      <c r="P242">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A243" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H243">
-        <v>0.82</v>
-      </c>
-      <c r="I243">
-        <v>0.8</v>
-      </c>
-      <c r="J243" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="N243">
-        <v>0.91</v>
-      </c>
-      <c r="O243">
-        <v>0.91</v>
-      </c>
-      <c r="P243">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="244" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H244">
-        <v>0.52729999999999999</v>
-      </c>
-      <c r="I244">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="J244" s="1">
-        <v>0.52428900000000001</v>
-      </c>
-      <c r="N244">
-        <v>0.51158499999999996</v>
-      </c>
-      <c r="O244">
-        <v>0.50997000000000003</v>
-      </c>
-      <c r="P244">
-        <v>0.51049999999999995</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A245" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H245">
-        <v>0.75</v>
-      </c>
-      <c r="I245">
-        <v>0.76</v>
-      </c>
-      <c r="J245" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="N245">
-        <v>0.9</v>
-      </c>
-      <c r="O245">
-        <v>0.9</v>
-      </c>
-      <c r="P245">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H246">
-        <v>0.51670000000000005</v>
-      </c>
-      <c r="I246">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="J246" s="1">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="N246">
-        <v>0.49696000000000001</v>
-      </c>
-      <c r="O246">
-        <v>0.49697999999999998</v>
-      </c>
-      <c r="P246">
-        <v>0.49697000000000002</v>
-      </c>
-    </row>
-    <row r="247" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="9"/>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A248" s="11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A249" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H249">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I249">
-        <v>1</v>
-      </c>
-      <c r="J249" s="1">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N249">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="O249">
-        <v>1</v>
-      </c>
-      <c r="P249">
-        <v>0.95940000000000003</v>
-      </c>
-    </row>
-    <row r="250" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H250" s="21">
-        <v>0.47590500000000002</v>
-      </c>
-      <c r="I250" s="21">
-        <v>0.45176899999999998</v>
-      </c>
-      <c r="J250" s="21">
-        <v>0.42346400000000001</v>
-      </c>
-      <c r="N250" s="21">
-        <v>0.49375999999999998</v>
-      </c>
-      <c r="O250" s="21">
-        <v>0.4869</v>
-      </c>
-      <c r="P250" s="21">
-        <v>0.48514000000000002</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
+      <c r="P270" s="1">
+        <v>4.5339999999999998E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H251">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="I251">
-        <v>1</v>
-      </c>
-      <c r="J251" s="1">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="N251">
-        <v>0.9456</v>
-      </c>
-      <c r="O251">
-        <v>1</v>
-      </c>
-      <c r="P251">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H252">
-        <v>6.5083500000000002E-2</v>
-      </c>
-      <c r="I252">
-        <v>0.5</v>
-      </c>
-      <c r="J252" s="1">
-        <v>0.115175</v>
-      </c>
-      <c r="N252">
-        <v>2.4846E-2</v>
-      </c>
-      <c r="O252">
-        <v>0.5</v>
-      </c>
-      <c r="P252">
-        <v>4.7329999999999997E-2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H253">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="I253">
-        <v>0.5</v>
-      </c>
-      <c r="J253" s="1">
-        <v>0.12403</v>
-      </c>
-      <c r="N253">
-        <v>0.49685499999999999</v>
-      </c>
-      <c r="O253">
-        <v>0.48395460000000001</v>
-      </c>
-      <c r="P253">
-        <v>0.40194999999999997</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H254">
-        <v>0.8619</v>
-      </c>
-      <c r="I254">
-        <v>1</v>
-      </c>
-      <c r="J254" s="1">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N254">
-        <v>0.94850000000000001</v>
-      </c>
-      <c r="O254">
-        <v>1</v>
-      </c>
-      <c r="P254">
-        <v>0.97330000000000005</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H255">
-        <v>6.8821400000000005E-2</v>
-      </c>
-      <c r="I255">
-        <v>0.5</v>
-      </c>
-      <c r="J255" s="1">
-        <v>0.12098</v>
-      </c>
-      <c r="N255">
-        <v>2.5725499999999998E-2</v>
-      </c>
-      <c r="O255">
-        <v>0.5</v>
-      </c>
-      <c r="P255">
-        <v>4.8933499999999998E-2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H256">
-        <v>0.8619</v>
-      </c>
-      <c r="I256">
-        <v>1</v>
-      </c>
-      <c r="J256" s="1">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N256">
-        <v>0.94769999999999999</v>
-      </c>
-      <c r="O256">
-        <v>1</v>
-      </c>
-      <c r="P256">
-        <v>0.97289999999999999</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H257">
-        <v>6.8821450000000006E-2</v>
-      </c>
-      <c r="I257">
-        <v>0.5</v>
-      </c>
-      <c r="J257" s="1">
-        <v>0.120989</v>
-      </c>
-      <c r="N257">
-        <v>6.8821450000000006E-2</v>
-      </c>
-      <c r="O257">
-        <v>0.5</v>
-      </c>
-      <c r="P257">
-        <v>0.120989</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H258">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I258">
-        <v>1</v>
-      </c>
-      <c r="J258" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N258">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="O258">
-        <v>1</v>
-      </c>
-      <c r="P258">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="H259">
-        <v>6.4643799000000002E-2</v>
-      </c>
-      <c r="I259">
-        <v>0.5</v>
-      </c>
-      <c r="J259" s="1">
-        <v>0.114485</v>
-      </c>
-      <c r="N259">
-        <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="O259">
-        <v>0.5</v>
-      </c>
-      <c r="P259">
-        <v>0.11448</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H260">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I260">
-        <v>1</v>
-      </c>
-      <c r="J260" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N260">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="O260">
-        <v>1</v>
-      </c>
-      <c r="P260">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H261">
-        <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="I261">
-        <v>0.5</v>
-      </c>
-      <c r="J261" s="1">
-        <v>0.11448</v>
-      </c>
-      <c r="N261">
-        <v>2.3966500000000002E-2</v>
-      </c>
-      <c r="O261">
-        <v>0.5</v>
-      </c>
-      <c r="P261">
-        <v>4.5740000000000003E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A262" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H262">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="I262">
-        <v>1</v>
-      </c>
-      <c r="J262" s="1">
-        <v>0.92569999999999997</v>
-      </c>
-      <c r="N262">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="O262">
-        <v>1</v>
-      </c>
-      <c r="P262">
-        <v>0.9738</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A263" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="H263">
-        <v>6.8821450000000006E-2</v>
-      </c>
-      <c r="I263">
-        <v>0.5</v>
-      </c>
-      <c r="J263" s="1">
-        <v>0.120989</v>
-      </c>
-      <c r="N263">
-        <v>2.5284999999999998E-2</v>
-      </c>
-      <c r="O263">
-        <v>0.5</v>
-      </c>
-      <c r="P263">
-        <v>4.8136999999999999E-2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="9"/>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A265" s="11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="H266" s="25">
-        <v>8.3299999999999999E-2</v>
-      </c>
-      <c r="I266" s="25">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J266" s="25">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="N266" s="25">
-        <v>0.9506</v>
-      </c>
-      <c r="O266" s="25">
-        <v>1</v>
-      </c>
-      <c r="P266" s="25">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="H267" s="21">
-        <v>6.4420000000000005E-2</v>
-      </c>
-      <c r="I267" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="J267" s="21">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N267" s="21">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O267" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="P267" s="21">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A268" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H268">
-        <v>0.95879999999999999</v>
-      </c>
-      <c r="I268">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="J268" s="1">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="N268">
-        <v>0.94869999999999999</v>
-      </c>
-      <c r="O268">
-        <v>0.3957</v>
-      </c>
-      <c r="P268">
-        <v>0.55510000000000004</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="9" t="s">
+    </row>
+    <row r="272" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="H269">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I269">
-        <v>0.5</v>
-      </c>
-      <c r="J269" s="1">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N269">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O269">
-        <v>0.5</v>
-      </c>
-      <c r="P269">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A270" s="9" t="s">
+      <c r="H272" s="1">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="I272" s="1">
+        <v>1</v>
+      </c>
+      <c r="J272" s="1">
+        <v>0.93159999999999998</v>
+      </c>
+      <c r="N272" s="1">
+        <v>0.9476</v>
+      </c>
+      <c r="O272" s="1">
+        <v>1</v>
+      </c>
+      <c r="P272" s="1">
+        <v>0.9728</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H270" s="1">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I270" s="1">
-        <v>1</v>
-      </c>
-      <c r="J270" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N270">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O270">
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="P270">
-        <v>0.86250000000000004</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="H271" s="21">
-        <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="I271" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="J271" s="21">
-        <v>0.11448</v>
-      </c>
-      <c r="N271" s="21">
-        <v>2.4625999999999999E-2</v>
-      </c>
-      <c r="O271" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="P271" s="21">
-        <v>4.6940000000000003E-2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H272" s="1">
-        <v>0.92349999999999999</v>
-      </c>
-      <c r="I272" s="1">
-        <v>0.35599999999999998</v>
-      </c>
-      <c r="J272" s="1">
-        <v>0.51119999999999999</v>
-      </c>
-      <c r="N272" s="1">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="O272" s="1">
-        <v>0.58720000000000006</v>
-      </c>
-      <c r="P272" s="1">
-        <v>0.72240000000000004</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="H273" s="1">
-        <v>6.4423900000000006E-2</v>
+        <v>6.3539999999999999E-2</v>
       </c>
       <c r="I273" s="1">
         <v>0.5</v>
       </c>
       <c r="J273" s="1">
-        <v>0.11414000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="N273" s="1">
-        <v>2.4625999999999999E-2</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="O273" s="1">
         <v>0.5</v>
       </c>
       <c r="P273" s="1">
-        <v>4.6940000000000003E-2</v>
+        <v>4.9299999999999997E-2</v>
       </c>
     </row>
     <row r="274" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="24" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="H274" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I274" s="1">
-        <v>1</v>
-      </c>
-      <c r="J274" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N274" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O274" s="1">
-        <v>1</v>
-      </c>
-      <c r="P274" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="9" t="s">
+    </row>
+    <row r="278" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A278" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="H275" s="1">
+    </row>
+    <row r="279" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="9"/>
+    </row>
+    <row r="304" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H305">
+        <v>0.98</v>
+      </c>
+      <c r="I305">
+        <v>0.86</v>
+      </c>
+      <c r="J305" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="N305">
+        <v>1</v>
+      </c>
+      <c r="O305">
+        <v>0.95</v>
+      </c>
+      <c r="P305">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A306" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H306">
+        <v>0.51063999999999998</v>
+      </c>
+      <c r="I306">
+        <v>0.50104400000000004</v>
+      </c>
+      <c r="J306" s="1">
+        <v>0.47427999999999998</v>
+      </c>
+      <c r="N306">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="O306">
+        <v>0.5</v>
+      </c>
+      <c r="P306">
+        <v>0.48610100000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A307" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H307">
+        <v>0.82</v>
+      </c>
+      <c r="I307">
+        <v>0.8</v>
+      </c>
+      <c r="J307" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="N307">
+        <v>0.91</v>
+      </c>
+      <c r="O307">
+        <v>0.91</v>
+      </c>
+      <c r="P307">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="H308">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I308">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J308" s="1">
+        <v>0.52428900000000001</v>
+      </c>
+      <c r="N308">
+        <v>0.51158499999999996</v>
+      </c>
+      <c r="O308">
+        <v>0.50997000000000003</v>
+      </c>
+      <c r="P308">
+        <v>0.51049999999999995</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A309" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H309">
+        <v>0.75</v>
+      </c>
+      <c r="I309">
+        <v>0.76</v>
+      </c>
+      <c r="J309" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="N309">
+        <v>0.9</v>
+      </c>
+      <c r="O309">
+        <v>0.9</v>
+      </c>
+      <c r="P309">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="H310">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="I310">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="J310" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N310">
+        <v>0.49696000000000001</v>
+      </c>
+      <c r="O310">
+        <v>0.49697999999999998</v>
+      </c>
+      <c r="P310">
+        <v>0.49697000000000002</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="9"/>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A312" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A313" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H313">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I313">
+        <v>1</v>
+      </c>
+      <c r="J313" s="1">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N313">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="O313">
+        <v>1</v>
+      </c>
+      <c r="P313">
+        <v>0.95940000000000003</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H314" s="21">
+        <v>0.47590500000000002</v>
+      </c>
+      <c r="I314" s="21">
+        <v>0.45176899999999998</v>
+      </c>
+      <c r="J314" s="21">
+        <v>0.42346400000000001</v>
+      </c>
+      <c r="N314" s="21">
+        <v>0.49375999999999998</v>
+      </c>
+      <c r="O314" s="21">
+        <v>0.4869</v>
+      </c>
+      <c r="P314" s="21">
+        <v>0.48514000000000002</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A315" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H315">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315" s="1">
+        <v>0.92310000000000003</v>
+      </c>
+      <c r="N315">
+        <v>0.9456</v>
+      </c>
+      <c r="O315">
+        <v>1</v>
+      </c>
+      <c r="P315">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H316">
+        <v>6.5083500000000002E-2</v>
+      </c>
+      <c r="I316">
+        <v>0.5</v>
+      </c>
+      <c r="J316" s="1">
+        <v>0.115175</v>
+      </c>
+      <c r="N316">
+        <v>2.4846E-2</v>
+      </c>
+      <c r="O316">
+        <v>0.5</v>
+      </c>
+      <c r="P316">
+        <v>4.7329999999999997E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A317" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H317">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I317">
+        <v>0.5</v>
+      </c>
+      <c r="J317" s="1">
+        <v>0.12403</v>
+      </c>
+      <c r="N317">
+        <v>0.49685499999999999</v>
+      </c>
+      <c r="O317">
+        <v>0.48395460000000001</v>
+      </c>
+      <c r="P317">
+        <v>0.40194999999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A318" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H318">
+        <v>0.8619</v>
+      </c>
+      <c r="I318">
+        <v>1</v>
+      </c>
+      <c r="J318" s="1">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N318">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="O318">
+        <v>1</v>
+      </c>
+      <c r="P318">
+        <v>0.97330000000000005</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H319">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I319">
+        <v>0.5</v>
+      </c>
+      <c r="J319" s="1">
+        <v>0.12098</v>
+      </c>
+      <c r="N319">
+        <v>2.5725499999999998E-2</v>
+      </c>
+      <c r="O319">
+        <v>0.5</v>
+      </c>
+      <c r="P319">
+        <v>4.8933499999999998E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A320" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H320">
+        <v>0.8619</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320" s="1">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N320">
+        <v>0.94769999999999999</v>
+      </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
+      <c r="P320">
+        <v>0.97289999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H321">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="I321">
+        <v>0.5</v>
+      </c>
+      <c r="J321" s="1">
+        <v>0.120989</v>
+      </c>
+      <c r="N321">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="O321">
+        <v>0.5</v>
+      </c>
+      <c r="P321">
+        <v>0.120989</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H322">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N322">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
+      <c r="P322">
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H323">
+        <v>6.4643799000000002E-2</v>
+      </c>
+      <c r="I323">
+        <v>0.5</v>
+      </c>
+      <c r="J323" s="1">
+        <v>0.114485</v>
+      </c>
+      <c r="N323">
+        <v>6.4640000000000003E-2</v>
+      </c>
+      <c r="O323">
+        <v>0.5</v>
+      </c>
+      <c r="P323">
+        <v>0.11448</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A324" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H324">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I324">
+        <v>1</v>
+      </c>
+      <c r="J324" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N324">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="O324">
+        <v>1</v>
+      </c>
+      <c r="P324">
+        <v>0.97529999999999994</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H325">
+        <v>6.4640000000000003E-2</v>
+      </c>
+      <c r="I325">
+        <v>0.5</v>
+      </c>
+      <c r="J325" s="1">
+        <v>0.11448</v>
+      </c>
+      <c r="N325">
+        <v>2.3966500000000002E-2</v>
+      </c>
+      <c r="O325">
+        <v>0.5</v>
+      </c>
+      <c r="P325">
+        <v>4.5740000000000003E-2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A326" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H326">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326" s="1">
+        <v>0.92569999999999997</v>
+      </c>
+      <c r="N326">
+        <v>0.94930000000000003</v>
+      </c>
+      <c r="O326">
+        <v>1</v>
+      </c>
+      <c r="P326">
+        <v>0.9738</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A327" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H327">
+        <v>6.8821450000000006E-2</v>
+      </c>
+      <c r="I327">
+        <v>0.5</v>
+      </c>
+      <c r="J327" s="1">
+        <v>0.120989</v>
+      </c>
+      <c r="N327">
+        <v>2.5284999999999998E-2</v>
+      </c>
+      <c r="O327">
+        <v>0.5</v>
+      </c>
+      <c r="P327">
+        <v>4.8136999999999999E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="9"/>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A329" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="H330" s="25">
+        <v>8.3299999999999999E-2</v>
+      </c>
+      <c r="I330" s="25">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J330" s="25">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="N330" s="25">
+        <v>0.9506</v>
+      </c>
+      <c r="O330" s="25">
+        <v>1</v>
+      </c>
+      <c r="P330" s="25">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="H331" s="21">
+        <v>6.4420000000000005E-2</v>
+      </c>
+      <c r="I331" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J331" s="21">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N331" s="21">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O331" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P331" s="21">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A332" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H332">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="I332">
+        <v>0.19689999999999999</v>
+      </c>
+      <c r="J332" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="N332">
+        <v>0.94869999999999999</v>
+      </c>
+      <c r="O332">
+        <v>0.3957</v>
+      </c>
+      <c r="P332">
+        <v>0.55510000000000004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H333">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I275" s="1">
+      <c r="I333">
         <v>0.5</v>
       </c>
-      <c r="J275" s="1">
+      <c r="J333" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N275" s="1">
+      <c r="N333">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O275" s="1">
+      <c r="O333">
         <v>0.5</v>
       </c>
-      <c r="P275" s="1">
+      <c r="P333">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="276" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="9" t="s">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A334" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H334" s="1">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I334" s="1">
+        <v>1</v>
+      </c>
+      <c r="J334" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N334">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O334">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="P334">
+        <v>0.86250000000000004</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A335" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="H335" s="21">
+        <v>6.4640000000000003E-2</v>
+      </c>
+      <c r="I335" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J335" s="21">
+        <v>0.11448</v>
+      </c>
+      <c r="N335" s="21">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O335" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P335" s="21">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H336" s="1">
+        <v>0.92349999999999999</v>
+      </c>
+      <c r="I336" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="J336" s="1">
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="N336" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="O336" s="1">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="P336" s="1">
+        <v>0.72240000000000004</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H337" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I337" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J337" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N337" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O337" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P337" s="1">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A338" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H338" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I338" s="1">
+        <v>1</v>
+      </c>
+      <c r="J338" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N338" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O338" s="1">
+        <v>1</v>
+      </c>
+      <c r="P338" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A339" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="H339" s="1">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I339" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J339" s="1">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N339" s="1">
+        <v>2.4625999999999999E-2</v>
+      </c>
+      <c r="O339" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P339" s="1">
+        <v>4.6940000000000003E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H276" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I276" s="1">
-        <v>1</v>
-      </c>
-      <c r="J276" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N276" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O276" s="1">
-        <v>1</v>
-      </c>
-      <c r="P276" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="277" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="22" t="s">
+      <c r="H340" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I340" s="1">
+        <v>1</v>
+      </c>
+      <c r="J340" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N340" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O340" s="1">
+        <v>1</v>
+      </c>
+      <c r="P340" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A341" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="H277" s="21">
+      <c r="H341" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I277" s="21">
+      <c r="I341" s="21">
         <v>0.5</v>
       </c>
-      <c r="J277" s="21">
+      <c r="J341" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N277" s="21">
+      <c r="N341" s="21">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O277" s="21">
+      <c r="O341" s="21">
         <v>0.5</v>
       </c>
-      <c r="P277" s="21">
+      <c r="P341" s="21">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A278" s="9" t="s">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H278" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I278" s="1">
-        <v>1</v>
-      </c>
-      <c r="J278" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N278">
+      <c r="H342" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I342" s="1">
+        <v>1</v>
+      </c>
+      <c r="J342" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N342">
         <v>0.95069999999999999</v>
       </c>
-      <c r="O278" s="1">
+      <c r="O342" s="1">
         <v>0.89880000000000004</v>
       </c>
-      <c r="P278">
+      <c r="P342">
         <v>0.92359999999999998</v>
       </c>
     </row>
-    <row r="279" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="9" t="s">
+    <row r="343" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H279" s="1">
+      <c r="H343" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I279" s="1">
+      <c r="I343" s="1">
         <v>0.5</v>
       </c>
-      <c r="J279" s="1">
+      <c r="J343" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N279" s="1">
+      <c r="N343" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O279" s="1">
+      <c r="O343" s="1">
         <v>0.5</v>
       </c>
-      <c r="P279" s="1">
+      <c r="P343" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="280" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="9" t="s">
+    <row r="344" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H280" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I280" s="1">
-        <v>1</v>
-      </c>
-      <c r="J280" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N280" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O280" s="1">
-        <v>1</v>
-      </c>
-      <c r="P280" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="281" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A281" s="22" t="s">
+      <c r="H344" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I344" s="1">
+        <v>1</v>
+      </c>
+      <c r="J344" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N344" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O344" s="1">
+        <v>1</v>
+      </c>
+      <c r="P344" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="H281" s="21">
+      <c r="H345" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I281" s="21">
+      <c r="I345" s="21">
         <v>0.5</v>
       </c>
-      <c r="J281" s="21">
+      <c r="J345" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N281" s="21">
+      <c r="N345" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O281" s="21">
+      <c r="O345" s="21">
         <v>0.5</v>
       </c>
-      <c r="P281" s="21">
+      <c r="P345" s="21">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="282" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="9" t="s">
+    <row r="346" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H282" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I282" s="1">
-        <v>1</v>
-      </c>
-      <c r="J282" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N282" s="1">
+      <c r="H346" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I346" s="1">
+        <v>1</v>
+      </c>
+      <c r="J346" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N346" s="1">
         <v>0.95120000000000005</v>
       </c>
-      <c r="O282" s="1">
+      <c r="O346" s="1">
         <v>0.93940000000000001</v>
       </c>
-      <c r="P282" s="1">
+      <c r="P346" s="1">
         <v>0.94479999999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="9" t="s">
+    <row r="347" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A347" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H283" s="1">
+      <c r="H347" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I283" s="1">
+      <c r="I347" s="1">
         <v>0.5</v>
       </c>
-      <c r="J283" s="1">
+      <c r="J347" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N283" s="1">
+      <c r="N347" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O283" s="1">
+      <c r="O347" s="1">
         <v>0.5</v>
       </c>
-      <c r="P283" s="1">
+      <c r="P347" s="1">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="284" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="9" t="s">
+    <row r="348" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H284" s="1">
+      <c r="H348" s="1">
         <v>0.87809999999999999</v>
       </c>
-      <c r="I284" s="1">
+      <c r="I348" s="1">
         <v>0.79039999999999999</v>
       </c>
-      <c r="J284" s="1">
+      <c r="J348" s="1">
         <v>0.8306</v>
       </c>
-      <c r="N284" s="1">
+      <c r="N348" s="1">
         <v>0.94689999999999996</v>
       </c>
-      <c r="O284" s="1">
+      <c r="O348" s="1">
         <v>0.50129999999999997</v>
       </c>
-      <c r="P284" s="1">
+      <c r="P348" s="1">
         <v>0.65310000000000001</v>
       </c>
     </row>
-    <row r="285" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A285" s="9" t="s">
+    <row r="349" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H285" s="1">
+      <c r="H349" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I285" s="1">
+      <c r="I349" s="1">
         <v>0.5</v>
       </c>
-      <c r="J285" s="1">
+      <c r="J349" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N285" s="1">
+      <c r="N349" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O285" s="1">
+      <c r="O349" s="1">
         <v>0.5</v>
       </c>
-      <c r="P285" s="1">
+      <c r="P349" s="1">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A286" s="9" t="s">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H286">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I286">
-        <v>1</v>
-      </c>
-      <c r="J286" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N286">
+      <c r="H350">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N350">
         <v>0.94979999999999998</v>
       </c>
-      <c r="O286">
+      <c r="O350">
         <v>0.57889999999999997</v>
       </c>
-      <c r="P286">
+      <c r="P350">
         <v>0.71809999999999996</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A287" s="9" t="s">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A351" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H287" s="1">
+      <c r="H351" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I287" s="1">
+      <c r="I351" s="1">
         <v>0.5</v>
       </c>
-      <c r="J287" s="1">
+      <c r="J351" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N287">
+      <c r="N351">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O287">
+      <c r="O351">
         <v>0.5</v>
       </c>
-      <c r="P287">
+      <c r="P351">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A288" s="9" t="s">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A352" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H288">
+      <c r="H352">
         <v>0.91679999999999995</v>
       </c>
-      <c r="I288" s="1">
+      <c r="I352" s="1">
         <v>0.66490000000000005</v>
       </c>
-      <c r="J288" s="1">
+      <c r="J352" s="1">
         <v>0.76900000000000002</v>
       </c>
-      <c r="N288">
-        <v>0.9506</v>
-      </c>
-      <c r="O288">
-        <v>1</v>
-      </c>
-      <c r="P288">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A289" s="22" t="s">
+      <c r="N352">
+        <v>0.9506</v>
+      </c>
+      <c r="O352">
+        <v>1</v>
+      </c>
+      <c r="P352">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A353" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B289" s="21"/>
-      <c r="C289" s="21"/>
-      <c r="D289" s="21"/>
-      <c r="E289" s="21"/>
-      <c r="F289" s="21"/>
-      <c r="G289" s="21"/>
-      <c r="H289" s="21">
+      <c r="B353" s="21"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="21"/>
+      <c r="E353" s="21"/>
+      <c r="F353" s="21"/>
+      <c r="G353" s="21"/>
+      <c r="H353" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I289" s="21">
+      <c r="I353" s="21">
         <v>0.5</v>
       </c>
-      <c r="J289" s="21">
+      <c r="J353" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="K289" s="21"/>
-      <c r="L289" s="21"/>
-      <c r="M289" s="21"/>
-      <c r="N289" s="21">
+      <c r="K353" s="21"/>
+      <c r="L353" s="21"/>
+      <c r="M353" s="21"/>
+      <c r="N353" s="21">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O289" s="21">
+      <c r="O353" s="21">
         <v>0.5</v>
       </c>
-      <c r="P289" s="21">
+      <c r="P353" s="21">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A290" s="9" t="s">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A354" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H290" s="1">
+      <c r="H354" s="1">
         <v>0.92269999999999996</v>
       </c>
-      <c r="I290" s="1">
+      <c r="I354" s="1">
         <v>0.71060000000000001</v>
       </c>
-      <c r="J290" s="1">
+      <c r="J354" s="1">
         <v>0.90159999999999996</v>
       </c>
-      <c r="K290" s="1"/>
-      <c r="L290" s="1"/>
-      <c r="M290" s="1"/>
-      <c r="N290" s="1">
+      <c r="K354" s="1"/>
+      <c r="L354" s="1"/>
+      <c r="M354" s="1"/>
+      <c r="N354" s="1">
         <v>0.95269999999999999</v>
       </c>
-      <c r="O290" s="1">
+      <c r="O354" s="1">
         <v>0.49099999999999999</v>
       </c>
-      <c r="P290" s="1">
+      <c r="P354" s="1">
         <v>0.64510000000000001</v>
       </c>
     </row>
-    <row r="291" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="9" t="s">
+    <row r="355" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A355" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H291" s="1">
+      <c r="H355" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I291" s="1">
+      <c r="I355" s="1">
         <v>0.5</v>
       </c>
-      <c r="J291" s="1">
+      <c r="J355" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N291" s="1">
+      <c r="N355" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O291" s="1">
+      <c r="O355" s="1">
         <v>0.5</v>
       </c>
-      <c r="P291" s="1">
+      <c r="P355" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="9" t="s">
+    <row r="356" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H292" s="1">
+      <c r="H356" s="1">
         <v>0.87260000000000004</v>
       </c>
-      <c r="I292" s="1">
+      <c r="I356" s="1">
         <v>0.89259999999999995</v>
       </c>
-      <c r="J292" s="1">
+      <c r="J356" s="1">
         <v>0.88160000000000005</v>
       </c>
-      <c r="N292" s="1">
+      <c r="N356" s="1">
         <v>0.95040000000000002</v>
       </c>
-      <c r="O292" s="1">
+      <c r="O356" s="1">
         <v>0.99590000000000001</v>
       </c>
-      <c r="P292" s="1">
+      <c r="P356" s="1">
         <v>0.97240000000000004</v>
       </c>
     </row>
-    <row r="293" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="9" t="s">
+    <row r="357" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H293" s="1">
+      <c r="H357" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I293" s="1">
+      <c r="I357" s="1">
         <v>0.5</v>
       </c>
-      <c r="J293" s="1">
+      <c r="J357" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N293" s="1">
+      <c r="N357" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O293" s="1">
+      <c r="O357" s="1">
         <v>0.5</v>
       </c>
-      <c r="P293" s="1">
+      <c r="P357" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="294" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H294" s="1">
+    <row r="358" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H358" s="1">
         <v>0.93320000000000003</v>
       </c>
-      <c r="I294" s="1">
+      <c r="I358" s="1">
         <v>0.70130000000000003</v>
       </c>
-      <c r="J294" s="1">
+      <c r="J358" s="1">
         <v>0.79979999999999996</v>
       </c>
-      <c r="N294" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O294" s="1">
-        <v>1</v>
-      </c>
-      <c r="P294" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A295" s="9" t="s">
+      <c r="N358" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O358" s="1">
+        <v>1</v>
+      </c>
+      <c r="P358" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A359" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H295" s="1">
+      <c r="H359" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I295" s="1">
+      <c r="I359" s="1">
         <v>0.5</v>
       </c>
-      <c r="J295" s="1">
+      <c r="J359" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N295" s="1">
+      <c r="N359" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O295" s="1">
+      <c r="O359" s="1">
         <v>0.5</v>
       </c>
-      <c r="P295" s="1">
+      <c r="P359" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="296" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="9" t="s">
+    <row r="360" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H296" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I296" s="1">
-        <v>1</v>
-      </c>
-      <c r="J296" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N296" s="1">
+      <c r="H360" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I360" s="1">
+        <v>1</v>
+      </c>
+      <c r="J360" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N360" s="1">
         <v>0.95589999999999997</v>
       </c>
-      <c r="O296" s="1">
+      <c r="O360" s="1">
         <v>0.61429999999999996</v>
       </c>
-      <c r="P296" s="1">
+      <c r="P360" s="1">
         <v>0.74619999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="9" t="s">
+    <row r="361" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H297" s="1">
+      <c r="H361" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I297" s="1">
+      <c r="I361" s="1">
         <v>0.5</v>
       </c>
-      <c r="J297" s="1">
+      <c r="J361" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N297" s="1">
+      <c r="N361" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O297" s="1">
+      <c r="O361" s="1">
         <v>0.5</v>
       </c>
-      <c r="P297" s="1">
+      <c r="P361" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="9"/>
-    </row>
-    <row r="299" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="11" t="s">
+    <row r="362" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="9"/>
+    </row>
+    <row r="363" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="300" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="9" t="s">
+    <row r="364" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H300" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I300" s="1">
+      <c r="H364" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I364" s="1">
         <v>0.9163</v>
       </c>
-      <c r="J300" s="1">
+      <c r="J364" s="1">
         <v>0.89180000000000004</v>
       </c>
-      <c r="N300" s="1">
+      <c r="N364" s="1">
         <v>0.95079999999999998</v>
       </c>
-      <c r="O300" s="1">
+      <c r="O364" s="1">
         <v>0.88800000000000001</v>
       </c>
-      <c r="P300" s="1">
+      <c r="P364" s="1">
         <v>0.91769999999999996</v>
       </c>
     </row>
-    <row r="301" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="22" t="s">
+    <row r="365" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="H301" s="21">
+      <c r="H365" s="21">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I301" s="21">
+      <c r="I365" s="21">
         <v>0.5</v>
       </c>
-      <c r="J301" s="21">
+      <c r="J365" s="21">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N301" s="21">
+      <c r="N365" s="21">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O301" s="21">
+      <c r="O365" s="21">
         <v>0.5</v>
       </c>
-      <c r="P301" s="21">
+      <c r="P365" s="21">
         <v>4.69404E-2</v>
       </c>
     </row>
-    <row r="302" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="9" t="s">
+    <row r="366" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H302" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I302" s="1">
-        <v>1</v>
-      </c>
-      <c r="J302" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N302" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O302" s="1">
-        <v>1</v>
-      </c>
-      <c r="P302" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="9" t="s">
+      <c r="H366" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I366" s="1">
+        <v>1</v>
+      </c>
+      <c r="J366" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N366" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O366" s="1">
+        <v>1</v>
+      </c>
+      <c r="P366" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A367" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H303" s="1">
+      <c r="H367" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I303" s="1">
+      <c r="I367" s="1">
         <v>0.5</v>
       </c>
-      <c r="J303" s="1">
+      <c r="J367" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N303" s="1">
+      <c r="N367" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O303" s="1">
+      <c r="O367" s="1">
         <v>0.5</v>
       </c>
-      <c r="P303" s="1">
+      <c r="P367" s="1">
         <v>4.69404E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="9" t="s">
+    <row r="368" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H304" s="1">
+      <c r="H368" s="1">
         <v>0.91979999999999995</v>
       </c>
-      <c r="I304" s="1">
+      <c r="I368" s="1">
         <v>0.68569999999999998</v>
       </c>
-      <c r="J304" s="1">
+      <c r="J368" s="1">
         <v>0.7843</v>
       </c>
-      <c r="N304" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O304" s="1">
-        <v>1</v>
-      </c>
-      <c r="P304" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="305" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A305" s="9" t="s">
+      <c r="N368" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O368" s="1">
+        <v>1</v>
+      </c>
+      <c r="P368" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A369" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H305" s="1">
+      <c r="H369" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I305" s="1">
+      <c r="I369" s="1">
         <v>0.5</v>
       </c>
-      <c r="J305" s="1">
+      <c r="J369" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N305" s="1">
+      <c r="N369" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O305" s="1">
+      <c r="O369" s="1">
         <v>0.5</v>
       </c>
-      <c r="P305" s="1">
+      <c r="P369" s="1">
         <v>4.69404E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="9" t="s">
+    <row r="370" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H306" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I306" s="1">
-        <v>1</v>
-      </c>
-      <c r="J306" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N306" s="1">
+      <c r="H370" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I370" s="1">
+        <v>1</v>
+      </c>
+      <c r="J370" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N370" s="1">
         <v>0.94989999999999997</v>
       </c>
-      <c r="O306" s="1">
+      <c r="O370" s="1">
         <v>0.9335</v>
       </c>
-      <c r="P306" s="1">
+      <c r="P370" s="1">
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="307" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="9" t="s">
+    <row r="371" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H307" s="1">
+      <c r="H371" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I307" s="1">
+      <c r="I371" s="1">
         <v>0.5</v>
       </c>
-      <c r="J307" s="1">
+      <c r="J371" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N307" s="1">
+      <c r="N371" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O307" s="1">
+      <c r="O371" s="1">
         <v>0.5</v>
       </c>
-      <c r="P307" s="1">
+      <c r="P371" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="308" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="9" t="s">
+    <row r="372" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H308" s="1">
+      <c r="H372" s="1">
         <v>0.86960000000000004</v>
       </c>
-      <c r="I308" s="1">
+      <c r="I372" s="1">
         <v>0.94530000000000003</v>
       </c>
-      <c r="J308" s="1">
+      <c r="J372" s="1">
         <v>0.9052</v>
       </c>
-      <c r="N308" s="1">
+      <c r="N372" s="1">
         <v>0.95279999999999998</v>
       </c>
-      <c r="O308" s="1">
-        <v>1</v>
-      </c>
-      <c r="P308" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="309" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="9" t="s">
+      <c r="O372" s="1">
+        <v>1</v>
+      </c>
+      <c r="P372" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A373" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="H309" s="1">
+      <c r="H373" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I309" s="1">
+      <c r="I373" s="1">
         <v>0.5</v>
       </c>
-      <c r="J309" s="1">
+      <c r="J373" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N309" s="1">
+      <c r="N373" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O309" s="1">
+      <c r="O373" s="1">
         <v>0.5</v>
       </c>
-      <c r="P309" s="1">
+      <c r="P373" s="1">
         <v>4.69404E-2</v>
       </c>
     </row>
-    <row r="310" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A310" s="9" t="s">
+    <row r="374" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A374" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H310" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I310" s="1">
-        <v>1</v>
-      </c>
-      <c r="J310" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N310" s="1">
+      <c r="H374" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I374" s="1">
+        <v>1</v>
+      </c>
+      <c r="J374" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N374" s="1">
         <v>0.95089999999999997</v>
       </c>
-      <c r="O310" s="1">
+      <c r="O374" s="1">
         <v>0.97219999999999995</v>
       </c>
-      <c r="P310" s="1">
+      <c r="P374" s="1">
         <v>0.96120000000000005</v>
       </c>
     </row>
-    <row r="311" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="9" t="s">
+    <row r="375" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A375" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="H311" s="1">
+      <c r="H375" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I311" s="1">
+      <c r="I375" s="1">
         <v>0.5</v>
       </c>
-      <c r="J311" s="1">
+      <c r="J375" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N311" s="1">
+      <c r="N375" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O311" s="1">
+      <c r="O375" s="1">
         <v>0.5</v>
       </c>
-      <c r="P311" s="1">
+      <c r="P375" s="1">
         <v>4.69404E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="9" t="s">
+    <row r="376" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H312" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I312" s="1">
-        <v>1</v>
-      </c>
-      <c r="J312" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N312" s="1">
+      <c r="H376" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I376" s="1">
+        <v>1</v>
+      </c>
+      <c r="J376" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N376" s="1">
         <v>0.95109999999999995</v>
       </c>
-      <c r="O312" s="1">
+      <c r="O376" s="1">
         <v>0.87829999999999997</v>
       </c>
-      <c r="P312" s="1">
+      <c r="P376" s="1">
         <v>0.91249999999999998</v>
       </c>
     </row>
-    <row r="313" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313" s="9" t="s">
+    <row r="377" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A377" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="H313" s="1">
+      <c r="H377" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I313" s="1">
+      <c r="I377" s="1">
         <v>0.5</v>
       </c>
-      <c r="J313" s="1">
+      <c r="J377" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N313" s="1">
+      <c r="N377" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O313" s="1">
+      <c r="O377" s="1">
         <v>0.5</v>
       </c>
-      <c r="P313" s="1">
+      <c r="P377" s="1">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="9" t="s">
+    <row r="378" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="H314" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I314" s="1">
-        <v>1</v>
-      </c>
-      <c r="J314" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N314" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O314" s="1">
-        <v>1</v>
-      </c>
-      <c r="P314" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="9" t="s">
+      <c r="H378" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I378" s="1">
+        <v>1</v>
+      </c>
+      <c r="J378" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N378" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O378" s="1">
+        <v>1</v>
+      </c>
+      <c r="P378" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A379" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="H315" s="1">
+      <c r="H379" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I315" s="1">
+      <c r="I379" s="1">
         <v>0.5</v>
       </c>
-      <c r="J315" s="1">
+      <c r="J379" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N315" s="1">
+      <c r="N379" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O315" s="1">
+      <c r="O379" s="1">
         <v>0.5</v>
       </c>
-      <c r="P315" s="1">
+      <c r="P379" s="1">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="9" t="s">
+    <row r="380" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="H316" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I316" s="1">
-        <v>1</v>
-      </c>
-      <c r="J316" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N316" s="1">
+      <c r="H380" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I380" s="1">
+        <v>1</v>
+      </c>
+      <c r="J380" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N380" s="1">
         <v>0.95069999999999999</v>
       </c>
-      <c r="O316" s="1">
-        <v>1</v>
-      </c>
-      <c r="P316" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A317" s="9" t="s">
+      <c r="O380" s="1">
+        <v>1</v>
+      </c>
+      <c r="P380" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A381" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H317" s="1">
+      <c r="H381" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I317" s="1">
+      <c r="I381" s="1">
         <v>0.5</v>
       </c>
-      <c r="J317" s="1">
+      <c r="J381" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N317" s="1">
+      <c r="N381" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O317" s="1">
+      <c r="O381" s="1">
         <v>0.5</v>
       </c>
-      <c r="P317" s="1">
+      <c r="P381" s="1">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="9" t="s">
+    <row r="382" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="H318" s="1">
+      <c r="H382" s="1">
         <v>0.86870000000000003</v>
       </c>
-      <c r="I318" s="1">
+      <c r="I382" s="1">
         <v>0.40100000000000002</v>
       </c>
-      <c r="J318" s="1">
+      <c r="J382" s="1">
         <v>0.54549999999999998</v>
       </c>
-      <c r="N318" s="1">
+      <c r="N382" s="1">
         <v>0.94779999999999998</v>
       </c>
-      <c r="O318" s="1">
+      <c r="O382" s="1">
         <v>0.67430000000000001</v>
       </c>
-      <c r="P318" s="1">
+      <c r="P382" s="1">
         <v>0.78590000000000004</v>
       </c>
     </row>
-    <row r="319" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="9" t="s">
+    <row r="383" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A383" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H319" s="1">
+      <c r="H383" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I319" s="1">
+      <c r="I383" s="1">
         <v>0.5</v>
       </c>
-      <c r="J319" s="1">
+      <c r="J383" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N319" s="1">
+      <c r="N383" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O319" s="1">
+      <c r="O383" s="1">
         <v>0.5</v>
       </c>
-      <c r="P319" s="1">
+      <c r="P383" s="1">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="9" t="s">
+    <row r="384" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H320" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I320" s="1">
-        <v>1</v>
-      </c>
-      <c r="J320" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N320" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O320" s="1">
-        <v>1</v>
-      </c>
-      <c r="P320" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="9" t="s">
+      <c r="H384" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I384" s="1">
+        <v>1</v>
+      </c>
+      <c r="J384" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N384" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O384" s="1">
+        <v>1</v>
+      </c>
+      <c r="P384" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H321" s="1">
+      <c r="H385" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I321" s="1">
+      <c r="I385" s="1">
         <v>0.5</v>
       </c>
-      <c r="J321" s="1">
+      <c r="J385" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N321" s="1">
+      <c r="N385" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O321" s="1">
+      <c r="O385" s="1">
         <v>0.5</v>
       </c>
-      <c r="P321" s="1">
+      <c r="P385" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="9" t="s">
+    <row r="386" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H322" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I322" s="1">
-        <v>1</v>
-      </c>
-      <c r="J322" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N322" s="1">
+      <c r="H386" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I386" s="1">
+        <v>1</v>
+      </c>
+      <c r="J386" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N386" s="1">
         <v>0.95069999999999999</v>
       </c>
-      <c r="O322" s="1">
-        <v>1</v>
-      </c>
-      <c r="P322" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="9" t="s">
+      <c r="O386" s="1">
+        <v>1</v>
+      </c>
+      <c r="P386" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H323" s="1">
+      <c r="H387" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I323" s="1">
+      <c r="I387" s="1">
         <v>0.5</v>
       </c>
-      <c r="J323" s="1">
+      <c r="J387" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N323" s="1">
+      <c r="N387" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O323" s="1">
+      <c r="O387" s="1">
         <v>0.5</v>
       </c>
-      <c r="P323" s="1">
+      <c r="P387" s="1">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="324" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="9" t="s">
+    <row r="388" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H324" s="1">
+      <c r="H388" s="1">
         <v>0.92520000000000002</v>
       </c>
-      <c r="I324" s="1">
+      <c r="I388" s="1">
         <v>0.68859999999999999</v>
       </c>
-      <c r="J324" s="1">
+      <c r="J388" s="1">
         <v>0.78779999999999994</v>
       </c>
-      <c r="N324" s="1">
-        <v>0.9506</v>
-      </c>
-      <c r="O324" s="1">
-        <v>1</v>
-      </c>
-      <c r="P324" s="1">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A325" s="9" t="s">
+      <c r="N388" s="1">
+        <v>0.9506</v>
+      </c>
+      <c r="O388" s="1">
+        <v>1</v>
+      </c>
+      <c r="P388" s="1">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A389" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="H325" s="1">
+      <c r="H389" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I325" s="1">
+      <c r="I389" s="1">
         <v>0.5</v>
       </c>
-      <c r="J325" s="1">
+      <c r="J389" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N325" s="1">
+      <c r="N389" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O325" s="1">
+      <c r="O389" s="1">
         <v>0.5</v>
       </c>
-      <c r="P325" s="1">
+      <c r="P389" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="9" t="s">
+    <row r="390" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H326" s="1">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I326" s="1">
-        <v>1</v>
-      </c>
-      <c r="J326" s="1">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N326" s="1">
+      <c r="H390" s="1">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I390" s="1">
+        <v>1</v>
+      </c>
+      <c r="J390" s="1">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N390" s="1">
         <v>0.94950000000000001</v>
       </c>
-      <c r="O326" s="1">
+      <c r="O390" s="1">
         <v>0.92779999999999996</v>
       </c>
-      <c r="P326" s="1">
+      <c r="P390" s="1">
         <v>0.93789999999999996</v>
       </c>
     </row>
-    <row r="327" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="9" t="s">
+    <row r="391" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A391" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H327" s="1">
+      <c r="H391" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I327" s="1">
+      <c r="I391" s="1">
         <v>0.5</v>
       </c>
-      <c r="J327" s="1">
+      <c r="J391" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N327" s="1">
+      <c r="N391" s="1">
         <v>2.46E-2</v>
       </c>
-      <c r="O327" s="1">
+      <c r="O391" s="1">
         <v>0.5</v>
       </c>
-      <c r="P327" s="1">
+      <c r="P391" s="1">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="328" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H328" s="1">
+    <row r="392" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H392" s="1">
         <v>0.95499999999999996</v>
       </c>
-      <c r="I328" s="1">
+      <c r="I392" s="1">
         <v>0.62360000000000004</v>
       </c>
-      <c r="J328" s="1">
+      <c r="J392" s="1">
         <v>0.75219999999999998</v>
       </c>
-      <c r="N328" s="1">
+      <c r="N392" s="1">
         <v>0.89870000000000005</v>
       </c>
-      <c r="O328" s="1">
+      <c r="O392" s="1">
         <v>0.30790000000000001</v>
       </c>
-      <c r="P328" s="1">
+      <c r="P392" s="1">
         <v>0.4551</v>
       </c>
     </row>
-    <row r="329" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="9" t="s">
+    <row r="393" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H329" s="1">
+      <c r="H393" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="I329" s="1">
+      <c r="I393" s="1">
         <v>0.5</v>
       </c>
-      <c r="J329" s="1">
+      <c r="J393" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
-      <c r="N329" s="1">
+      <c r="N393" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="O329" s="1">
+      <c r="O393" s="1">
         <v>0.5</v>
       </c>
-      <c r="P329" s="1">
+      <c r="P393" s="1">
         <v>0.11414000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="9" t="s">
+    <row r="394" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H330" s="1">
+      <c r="H394" s="1">
         <v>0.89870000000000005</v>
       </c>
-      <c r="I330" s="1">
+      <c r="I394" s="1">
         <v>0.60309999999999997</v>
       </c>
-      <c r="J330" s="1">
+      <c r="J394" s="1">
         <v>0.72</v>
       </c>
-      <c r="N330" s="1">
+      <c r="N394" s="1">
         <v>0.94799999999999995</v>
       </c>
-      <c r="O330" s="1">
+      <c r="O394" s="1">
         <v>0.44619999999999999</v>
       </c>
-      <c r="P330" s="1">
+      <c r="P394" s="1">
         <v>0.60370000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="9" t="s">
+    <row r="395" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H331" s="1">
+      <c r="H395" s="1">
         <v>6.4423900000000006E-2</v>
       </c>
-      <c r="I331" s="1">
+      <c r="I395" s="1">
         <v>0.5</v>
       </c>
-      <c r="J331" s="1">
+      <c r="J395" s="1">
         <v>0.11414000000000001</v>
       </c>
-      <c r="N331" s="1">
+      <c r="N395" s="1">
         <v>2.4625999999999999E-2</v>
       </c>
-      <c r="O331" s="1">
+      <c r="O395" s="1">
         <v>0.5</v>
       </c>
-      <c r="P331" s="1">
+      <c r="P395" s="1">
         <v>4.6940000000000003E-2</v>
       </c>
     </row>
-    <row r="332" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="9"/>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A333" s="6"/>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A334" s="11" t="s">
+    <row r="396" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="9"/>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A397" s="6"/>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A398" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A335" s="6" t="s">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A399" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H335">
+      <c r="H399">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I335">
-        <v>1</v>
-      </c>
-      <c r="J335" s="1">
+      <c r="I399">
+        <v>1</v>
+      </c>
+      <c r="J399" s="1">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N335">
+      <c r="N399">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O335">
-        <v>1</v>
-      </c>
-      <c r="P335">
+      <c r="O399">
+        <v>1</v>
+      </c>
+      <c r="P399">
         <v>0.92730000000000001</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A336" s="6" t="s">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A400" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H336">
+      <c r="H400">
         <v>6.8821400000000005E-2</v>
       </c>
-      <c r="I336">
+      <c r="I400">
         <v>0.5</v>
       </c>
-      <c r="J336" s="1">
+      <c r="J400" s="1">
         <v>0.120989</v>
       </c>
-      <c r="N336">
+      <c r="N400">
         <v>6.8820000000000006E-2</v>
       </c>
-      <c r="O336">
+      <c r="O400">
         <v>0.5</v>
       </c>
-      <c r="P336">
+      <c r="P400">
         <v>0.12098</v>
       </c>
     </row>
-    <row r="337" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="11" t="s">
+    <row r="401" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A338" s="6" t="s">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A402" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H338">
+      <c r="H402">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I338">
+      <c r="I402">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J338" s="1">
+      <c r="J402" s="1">
         <v>0.92</v>
       </c>
-      <c r="N338">
+      <c r="N402">
         <v>0.9456</v>
       </c>
-      <c r="O338">
+      <c r="O402">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P338">
+      <c r="P402">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A343" s="11" t="s">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A407" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A344" s="6" t="s">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A408" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H344">
+      <c r="H408">
         <v>0.4</v>
       </c>
-      <c r="I344">
+      <c r="I408">
         <v>0.5</v>
       </c>
-      <c r="J344" s="1">
+      <c r="J408" s="1">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N344">
+      <c r="N408">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O344">
+      <c r="O408">
         <v>0.5202</v>
       </c>
-      <c r="P344">
+      <c r="P408">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
+    <row r="409" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A409" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="H345">
+      <c r="H409">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I345">
+      <c r="I409">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J345" s="1">
+      <c r="J409" s="1">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N345">
+      <c r="N409">
         <v>0.5</v>
       </c>
-      <c r="O345">
+      <c r="O409">
         <v>0.34</v>
       </c>
-      <c r="P345">
+      <c r="P409">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -11140,7 +11507,7 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -1344,10 +1344,10 @@
   <dimension ref="A1:R413"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B365" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A348" sqref="A348"/>
-      <selection pane="bottomRight" activeCell="J374" sqref="J374:J375"/>
+      <selection pane="bottomRight" activeCell="E323" sqref="E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -19,7 +19,7 @@
     <sheet name="GoodData_Pronouns" sheetId="5" r:id="rId5"/>
     <sheet name="MessyData_Results" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="241">
   <si>
     <t>Model</t>
   </si>
@@ -392,31 +392,7 @@
     <t>LSTM + OHE + 3 Dense Layers</t>
   </si>
   <si>
-    <t>Weighted by Throughput Average (scikit learn)</t>
-  </si>
-  <si>
     <t>Weighted by PC Agreement Average</t>
-  </si>
-  <si>
-    <t>Weighted by PC Agreement Average (scikit learn)</t>
-  </si>
-  <si>
-    <t>Weighted by one PC Agreement per annotation</t>
-  </si>
-  <si>
-    <t>Weighted by one PC Agreement per annotation (scikit learn)</t>
-  </si>
-  <si>
-    <t>Weighted by Num characters</t>
-  </si>
-  <si>
-    <t>Weighted by Num characters (scikit learn)</t>
-  </si>
-  <si>
-    <t>Weighted by Num words</t>
-  </si>
-  <si>
-    <t>Weighted by Num words (scikit learn)</t>
   </si>
   <si>
     <t xml:space="preserve">CNN + OHE + 3 Dense Layers </t>
@@ -842,6 +818,9 @@
   </si>
   <si>
     <t xml:space="preserve">Individual  </t>
+  </si>
+  <si>
+    <t>Individual</t>
   </si>
 </sst>
 </file>
@@ -935,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -958,10 +937,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -973,14 +948,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -992,6 +960,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,13 +1313,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R413"/>
+  <dimension ref="A1:R434"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B305" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A348" sqref="A348"/>
-      <selection pane="bottomRight" activeCell="E323" sqref="E323"/>
+      <selection pane="bottomRight" activeCell="J342" sqref="J342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,31 +1332,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -9485,2112 +9457,2631 @@
         <v>112</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A313" s="7" t="s">
+    <row r="313" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="B313" s="13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C313" s="13">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="D313" s="13">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="E313" s="13">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F313" s="13">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="G313" s="13">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="H313" s="13">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="I313" s="13">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="J313" s="13">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="K313" s="13">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="L313" s="13">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="M313" s="13">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="N313" s="13">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="O313" s="13">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P313" s="13">
+        <v>0.81440000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B314" s="13">
+        <v>0.501</v>
+      </c>
+      <c r="C314" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="D314" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="E314" s="13">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F314" s="13">
+        <v>0.52039999999999997</v>
+      </c>
+      <c r="G314" s="13">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="H314" s="13">
+        <v>0.49009999999999998</v>
+      </c>
+      <c r="I314" s="13">
+        <v>0.4803</v>
+      </c>
+      <c r="J314" s="13">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="K314" s="13">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L314" s="13">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="M314" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="N314" s="13">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="O314" s="13">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="P314" s="13">
+        <v>0.45669999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A315" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H313">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I313">
-        <v>1</v>
-      </c>
-      <c r="J313">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N313">
-        <v>0.97909999999999997</v>
-      </c>
-      <c r="O313">
-        <v>1</v>
-      </c>
-      <c r="P313">
-        <v>0.95940000000000003</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="4" t="s">
+      <c r="B315" s="21"/>
+      <c r="C315" s="21"/>
+      <c r="D315" s="21"/>
+      <c r="E315" s="21"/>
+      <c r="F315" s="21"/>
+      <c r="G315" s="21"/>
+      <c r="H315" s="21">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="I315" s="21">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="J315" s="21">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="K315" s="21"/>
+      <c r="L315" s="21"/>
+      <c r="M315" s="21"/>
+      <c r="N315" s="21">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="O315" s="21">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="P315" s="21">
+        <v>0.81679999999999997</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H314" s="6">
-        <v>0.47590500000000002</v>
-      </c>
-      <c r="I314" s="6">
-        <v>0.45176899999999998</v>
-      </c>
-      <c r="J314" s="6">
-        <v>0.42346400000000001</v>
-      </c>
-      <c r="N314" s="6">
-        <v>0.49375999999999998</v>
-      </c>
-      <c r="O314" s="6">
-        <v>0.4869</v>
-      </c>
-      <c r="P314" s="6">
-        <v>0.48514000000000002</v>
-      </c>
-    </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A315" s="7" t="s">
+      <c r="B316" s="21"/>
+      <c r="C316" s="21"/>
+      <c r="D316" s="21"/>
+      <c r="E316" s="21"/>
+      <c r="F316" s="21"/>
+      <c r="G316" s="21"/>
+      <c r="H316" s="21">
+        <v>0.496</v>
+      </c>
+      <c r="I316" s="21">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J316" s="21">
+        <v>0.441</v>
+      </c>
+      <c r="K316" s="21"/>
+      <c r="L316" s="21"/>
+      <c r="M316" s="21"/>
+      <c r="N316" s="21">
+        <v>0.503</v>
+      </c>
+      <c r="O316" s="21">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P316" s="21">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A317" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H315">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="I315">
-        <v>1</v>
-      </c>
-      <c r="J315">
-        <v>0.92310000000000003</v>
-      </c>
-      <c r="N315">
-        <v>0.9456</v>
-      </c>
-      <c r="O315">
-        <v>1</v>
-      </c>
-      <c r="P315">
-        <v>0.9718</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H316">
-        <v>6.5083500000000002E-2</v>
-      </c>
-      <c r="I316">
-        <v>0.5</v>
-      </c>
-      <c r="J316">
-        <v>0.115175</v>
-      </c>
-      <c r="N316">
-        <v>2.4846E-2</v>
-      </c>
-      <c r="O316">
-        <v>0.5</v>
-      </c>
-      <c r="P316">
-        <v>4.7329999999999997E-2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+      <c r="B317" s="21"/>
+      <c r="C317" s="21"/>
+      <c r="D317" s="21"/>
+      <c r="E317" s="21"/>
+      <c r="F317" s="21"/>
+      <c r="G317" s="21"/>
+      <c r="H317" s="21">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="I317" s="21">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="J317" s="21">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="K317" s="21"/>
+      <c r="L317" s="21"/>
+      <c r="M317" s="21"/>
+      <c r="N317" s="21">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="O317" s="21">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="P317" s="21">
+        <v>0.81679999999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B318" s="21"/>
+      <c r="C318" s="21"/>
+      <c r="D318" s="21"/>
+      <c r="E318" s="21"/>
+      <c r="F318" s="21"/>
+      <c r="G318" s="21"/>
+      <c r="H318" s="21">
+        <v>0.4647</v>
+      </c>
+      <c r="I318" s="21">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="J318" s="21">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="K318" s="21"/>
+      <c r="L318" s="21"/>
+      <c r="M318" s="21"/>
+      <c r="N318" s="21">
+        <v>0.503</v>
+      </c>
+      <c r="O318" s="21">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P318" s="21">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A319" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B319" s="21"/>
+      <c r="C319" s="21"/>
+      <c r="D319" s="21"/>
+      <c r="E319" s="21"/>
+      <c r="F319" s="21"/>
+      <c r="G319" s="21"/>
+      <c r="H319" s="21">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="I319" s="21">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="J319" s="21">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="K319" s="21"/>
+      <c r="L319" s="21"/>
+      <c r="M319" s="21"/>
+      <c r="N319" s="21">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O319" s="21">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="P319" s="21">
+        <v>0.60940000000000005</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A320" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B320" s="21"/>
+      <c r="C320" s="21"/>
+      <c r="D320" s="21"/>
+      <c r="E320" s="21"/>
+      <c r="F320" s="21"/>
+      <c r="G320" s="21"/>
+      <c r="H320" s="21">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="I320" s="21">
+        <v>0.4289</v>
+      </c>
+      <c r="J320" s="21">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="K320" s="21"/>
+      <c r="L320" s="21"/>
+      <c r="M320" s="21"/>
+      <c r="N320" s="21">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="O320" s="21">
+        <v>0.498</v>
+      </c>
+      <c r="P320" s="21">
+        <v>0.35099999999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B321" s="21"/>
+      <c r="C321" s="21"/>
+      <c r="D321" s="21"/>
+      <c r="E321" s="21"/>
+      <c r="F321" s="21"/>
+      <c r="G321" s="21"/>
+      <c r="H321" s="21"/>
+      <c r="I321" s="21"/>
+      <c r="J321" s="21"/>
+      <c r="K321" s="21"/>
+      <c r="L321" s="21"/>
+      <c r="M321" s="21"/>
+      <c r="N321" s="21"/>
+      <c r="O321" s="21"/>
+      <c r="P321" s="21"/>
+    </row>
+    <row r="322" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A322" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B322" s="21"/>
+      <c r="C322" s="21"/>
+      <c r="D322" s="21"/>
+      <c r="E322" s="21"/>
+      <c r="F322" s="21"/>
+      <c r="G322" s="21"/>
+      <c r="H322" s="21"/>
+      <c r="I322" s="21"/>
+      <c r="J322" s="21"/>
+      <c r="K322" s="21"/>
+      <c r="L322" s="21"/>
+      <c r="M322" s="21"/>
+      <c r="N322" s="21"/>
+      <c r="O322" s="21"/>
+      <c r="P322" s="21"/>
+    </row>
+    <row r="323" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A323" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B323" s="21"/>
+      <c r="C323" s="21"/>
+      <c r="D323" s="21"/>
+      <c r="E323" s="21"/>
+      <c r="F323" s="21"/>
+      <c r="G323" s="21"/>
+      <c r="H323" s="21"/>
+      <c r="I323" s="21"/>
+      <c r="J323" s="21"/>
+      <c r="K323" s="21"/>
+      <c r="L323" s="21"/>
+      <c r="M323" s="21"/>
+      <c r="N323" s="21"/>
+      <c r="O323" s="21"/>
+      <c r="P323" s="21"/>
+    </row>
+    <row r="324" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B324" s="21"/>
+      <c r="C324" s="21"/>
+      <c r="D324" s="21"/>
+      <c r="E324" s="21"/>
+      <c r="F324" s="21"/>
+      <c r="G324" s="21"/>
+      <c r="H324" s="21"/>
+      <c r="I324" s="21"/>
+      <c r="J324" s="21"/>
+      <c r="K324" s="21"/>
+      <c r="L324" s="21"/>
+      <c r="M324" s="21"/>
+      <c r="N324" s="21"/>
+      <c r="O324" s="21"/>
+      <c r="P324" s="21"/>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A325" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H317">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="I317">
-        <v>0.5</v>
-      </c>
-      <c r="J317">
-        <v>0.12403</v>
-      </c>
-      <c r="N317">
-        <v>0.49685499999999999</v>
-      </c>
-      <c r="O317">
-        <v>0.48395460000000001</v>
-      </c>
-      <c r="P317">
-        <v>0.40194999999999997</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A318" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H318">
-        <v>0.8619</v>
-      </c>
-      <c r="I318">
-        <v>1</v>
-      </c>
-      <c r="J318">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N318">
-        <v>0.94850000000000001</v>
-      </c>
-      <c r="O318">
-        <v>1</v>
-      </c>
-      <c r="P318">
-        <v>0.97330000000000005</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A319" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H319">
-        <v>6.8821400000000005E-2</v>
-      </c>
-      <c r="I319">
-        <v>0.5</v>
-      </c>
-      <c r="J319">
-        <v>0.12098</v>
-      </c>
-      <c r="N319">
-        <v>2.5725499999999998E-2</v>
-      </c>
-      <c r="O319">
-        <v>0.5</v>
-      </c>
-      <c r="P319">
-        <v>4.8933499999999998E-2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A320" s="7" t="s">
+      <c r="B325" s="21"/>
+      <c r="C325" s="21"/>
+      <c r="D325" s="21"/>
+      <c r="E325" s="21"/>
+      <c r="F325" s="21"/>
+      <c r="G325" s="21"/>
+      <c r="H325">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="I325">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="J325">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="K325" s="21"/>
+      <c r="L325" s="21"/>
+      <c r="M325" s="21"/>
+      <c r="N325" s="21">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="O325" s="21">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="P325" s="21">
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B326" s="21"/>
+      <c r="C326" s="21"/>
+      <c r="D326" s="21"/>
+      <c r="E326" s="21"/>
+      <c r="F326" s="21"/>
+      <c r="G326" s="21"/>
+      <c r="H326">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I326">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J326">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="K326" s="21"/>
+      <c r="L326" s="21"/>
+      <c r="M326" s="21"/>
+      <c r="N326" s="21">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O326" s="21">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="P326" s="21">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A327" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B327" s="21"/>
+      <c r="C327" s="21"/>
+      <c r="D327" s="21"/>
+      <c r="E327" s="21"/>
+      <c r="F327" s="21"/>
+      <c r="G327" s="21"/>
+      <c r="H327" s="21">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I327" s="21">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="J327" s="21">
+        <v>0.1605</v>
+      </c>
+      <c r="K327" s="21"/>
+      <c r="L327" s="21"/>
+      <c r="M327" s="21"/>
+      <c r="N327" s="21">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O327" s="21">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="P327" s="21">
+        <v>8.5099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B328" s="21"/>
+      <c r="C328" s="21"/>
+      <c r="D328" s="21"/>
+      <c r="E328" s="21"/>
+      <c r="F328" s="21"/>
+      <c r="G328" s="21"/>
+      <c r="H328" s="21">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="I328" s="21">
+        <v>0.51</v>
+      </c>
+      <c r="J328" s="21">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="K328" s="21"/>
+      <c r="L328" s="21"/>
+      <c r="M328" s="21"/>
+      <c r="N328" s="21">
+        <v>0.505</v>
+      </c>
+      <c r="O328" s="21">
+        <v>0.505</v>
+      </c>
+      <c r="P328" s="21">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A329" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B329" s="21"/>
+      <c r="C329" s="21"/>
+      <c r="D329" s="21"/>
+      <c r="E329" s="21"/>
+      <c r="F329" s="21"/>
+      <c r="G329" s="21"/>
+      <c r="H329" s="21">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="I329" s="21">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="J329" s="21">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="K329" s="21"/>
+      <c r="L329" s="21"/>
+      <c r="M329" s="21"/>
+      <c r="N329" s="21">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="O329" s="21">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P329" s="21">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B330" s="21"/>
+      <c r="C330" s="21"/>
+      <c r="D330" s="21"/>
+      <c r="E330" s="21"/>
+      <c r="F330" s="21"/>
+      <c r="G330" s="21"/>
+      <c r="H330" s="21">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="I330" s="21">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J330" s="21">
+        <v>0.436</v>
+      </c>
+      <c r="K330" s="21"/>
+      <c r="L330" s="21"/>
+      <c r="M330" s="21"/>
+      <c r="N330" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="O330" s="21">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="P330" s="21">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B331" s="21"/>
+      <c r="C331" s="21"/>
+      <c r="D331" s="21"/>
+      <c r="E331" s="21"/>
+      <c r="F331" s="21"/>
+      <c r="G331" s="21"/>
+      <c r="H331" s="21">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I331" s="21">
+        <v>1</v>
+      </c>
+      <c r="J331" s="21">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="K331" s="21"/>
+      <c r="L331" s="21"/>
+      <c r="M331" s="21"/>
+      <c r="N331" s="21">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="O331" s="21">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="P331" s="21">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="B332" s="21"/>
+      <c r="C332" s="21"/>
+      <c r="D332" s="21"/>
+      <c r="E332" s="21"/>
+      <c r="F332" s="21"/>
+      <c r="G332" s="21"/>
+      <c r="H332" s="21">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="I332" s="21">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="J332" s="21">
+        <v>0.1363</v>
+      </c>
+      <c r="K332" s="21"/>
+      <c r="L332" s="21"/>
+      <c r="M332" s="21"/>
+      <c r="N332" s="21">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="O332" s="21">
+        <v>0.44</v>
+      </c>
+      <c r="P332" s="21">
+        <v>0.44350000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B333" s="21"/>
+      <c r="C333" s="21"/>
+      <c r="D333" s="21"/>
+      <c r="E333" s="21"/>
+      <c r="F333" s="21"/>
+      <c r="G333" s="21"/>
+      <c r="H333" s="21"/>
+      <c r="I333" s="21"/>
+      <c r="J333" s="21"/>
+      <c r="K333" s="21"/>
+      <c r="L333" s="21"/>
+      <c r="M333" s="21"/>
+      <c r="N333" s="21"/>
+      <c r="O333" s="21"/>
+      <c r="P333" s="21"/>
+    </row>
+    <row r="334" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B334" s="21"/>
+      <c r="C334" s="21"/>
+      <c r="D334" s="21"/>
+      <c r="E334" s="21"/>
+      <c r="F334" s="21"/>
+      <c r="G334" s="21"/>
+      <c r="H334" s="21"/>
+      <c r="I334" s="21"/>
+      <c r="J334" s="21"/>
+      <c r="K334" s="21"/>
+      <c r="L334" s="21"/>
+      <c r="M334" s="21"/>
+      <c r="N334" s="21"/>
+      <c r="O334" s="21"/>
+      <c r="P334" s="21"/>
+    </row>
+    <row r="335" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B335" s="21"/>
+      <c r="C335" s="21"/>
+      <c r="D335" s="21"/>
+      <c r="E335" s="21"/>
+      <c r="F335" s="21"/>
+      <c r="G335" s="21"/>
+      <c r="H335" s="21">
+        <v>0.872</v>
+      </c>
+      <c r="I335" s="21">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="J335" s="21">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K335" s="21"/>
+      <c r="L335" s="21"/>
+      <c r="M335" s="21"/>
+      <c r="N335" s="21">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="O335" s="21">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="P335" s="21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B336" s="21"/>
+      <c r="C336" s="21"/>
+      <c r="D336" s="21"/>
+      <c r="E336" s="21"/>
+      <c r="F336" s="21"/>
+      <c r="G336" s="21"/>
+      <c r="H336" s="21">
+        <v>0.502</v>
+      </c>
+      <c r="I336" s="21">
+        <v>0.504</v>
+      </c>
+      <c r="J336" s="21">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K336" s="21"/>
+      <c r="L336" s="21"/>
+      <c r="M336" s="21"/>
+      <c r="N336" s="21">
+        <v>0.504</v>
+      </c>
+      <c r="O336" s="21">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P336" s="21">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B337" s="21"/>
+      <c r="C337" s="21"/>
+      <c r="D337" s="21"/>
+      <c r="E337" s="21"/>
+      <c r="F337" s="21"/>
+      <c r="G337" s="21"/>
+      <c r="H337" s="21">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="I337" s="21">
+        <v>0.40229999999999999</v>
+      </c>
+      <c r="J337" s="21">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="K337" s="21"/>
+      <c r="L337" s="21"/>
+      <c r="M337" s="21"/>
+      <c r="N337" s="21">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="O337" s="21">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="P337" s="21">
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B338" s="21"/>
+      <c r="C338" s="21"/>
+      <c r="D338" s="21"/>
+      <c r="E338" s="21"/>
+      <c r="F338" s="21"/>
+      <c r="G338" s="21"/>
+      <c r="H338" s="21">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="I338" s="21">
+        <v>0.4249</v>
+      </c>
+      <c r="J338" s="21">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="K338" s="21"/>
+      <c r="L338" s="21"/>
+      <c r="M338" s="21"/>
+      <c r="N338" s="21">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="O338" s="21">
+        <v>0.503</v>
+      </c>
+      <c r="P338" s="21">
+        <v>0.4632</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B339" s="21"/>
+      <c r="C339" s="21"/>
+      <c r="D339" s="21"/>
+      <c r="E339" s="21"/>
+      <c r="F339" s="21"/>
+      <c r="G339" s="21"/>
+      <c r="H339" s="21">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I339" s="21">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J339" s="21">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="K339" s="21"/>
+      <c r="L339" s="21"/>
+      <c r="M339" s="21"/>
+      <c r="N339" s="21">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O339" s="21">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="P339" s="21">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A340" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B340" s="21"/>
+      <c r="C340" s="21"/>
+      <c r="D340" s="21"/>
+      <c r="E340" s="21"/>
+      <c r="F340" s="21"/>
+      <c r="G340" s="21"/>
+      <c r="H340" s="21">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I340" s="21">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J340" s="21">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K340" s="21"/>
+      <c r="L340" s="21"/>
+      <c r="M340" s="21"/>
+      <c r="N340" s="21">
+        <v>0.502</v>
+      </c>
+      <c r="O340" s="21">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="P340" s="21">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B341" s="21"/>
+      <c r="C341" s="21"/>
+      <c r="D341" s="21"/>
+      <c r="E341" s="21"/>
+      <c r="F341" s="21"/>
+      <c r="G341" s="21"/>
+      <c r="H341" s="21">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I341" s="21">
+        <v>0.2802</v>
+      </c>
+      <c r="J341" s="21">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="K341" s="21"/>
+      <c r="L341" s="21"/>
+      <c r="M341" s="21"/>
+      <c r="N341" s="21">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="O341" s="21">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="P341" s="21">
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A342" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B342" s="21"/>
+      <c r="C342" s="21"/>
+      <c r="D342" s="21"/>
+      <c r="E342" s="21"/>
+      <c r="F342" s="21"/>
+      <c r="G342" s="21"/>
+      <c r="H342" s="21">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="I342" s="21">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="J342" s="21">
+        <v>0.313</v>
+      </c>
+      <c r="K342" s="21"/>
+      <c r="L342" s="21"/>
+      <c r="M342" s="21"/>
+      <c r="N342" s="21">
+        <v>0.496</v>
+      </c>
+      <c r="O342" s="21">
+        <v>0.498</v>
+      </c>
+      <c r="P342" s="21">
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B343" s="21"/>
+      <c r="C343" s="21"/>
+      <c r="D343" s="21"/>
+      <c r="E343" s="21"/>
+      <c r="F343" s="21"/>
+      <c r="G343" s="21"/>
+      <c r="H343" s="21"/>
+      <c r="I343" s="21"/>
+      <c r="J343" s="21"/>
+      <c r="K343" s="21"/>
+      <c r="L343" s="21"/>
+      <c r="M343" s="21"/>
+      <c r="N343" s="21"/>
+      <c r="O343" s="21"/>
+      <c r="P343" s="21"/>
+    </row>
+    <row r="344" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B344" s="21"/>
+      <c r="C344" s="21"/>
+      <c r="D344" s="21"/>
+      <c r="E344" s="21"/>
+      <c r="F344" s="21"/>
+      <c r="G344" s="21"/>
+      <c r="H344" s="21"/>
+      <c r="I344" s="21"/>
+      <c r="J344" s="21"/>
+      <c r="K344" s="21"/>
+      <c r="L344" s="21"/>
+      <c r="M344" s="21"/>
+      <c r="N344" s="21"/>
+      <c r="O344" s="21"/>
+      <c r="P344" s="21"/>
+    </row>
+    <row r="345" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B345" s="21"/>
+      <c r="C345" s="21"/>
+      <c r="D345" s="21"/>
+      <c r="E345" s="21"/>
+      <c r="F345" s="21"/>
+      <c r="G345" s="21"/>
+      <c r="H345" s="21"/>
+      <c r="I345" s="21"/>
+      <c r="J345" s="21"/>
+      <c r="K345" s="21"/>
+      <c r="L345" s="21"/>
+      <c r="M345" s="21"/>
+      <c r="N345" s="21"/>
+      <c r="O345" s="21"/>
+      <c r="P345" s="21"/>
+    </row>
+    <row r="346" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B346" s="21"/>
+      <c r="C346" s="21"/>
+      <c r="D346" s="21"/>
+      <c r="E346" s="21"/>
+      <c r="F346" s="21"/>
+      <c r="G346" s="21"/>
+      <c r="H346" s="21"/>
+      <c r="I346" s="21"/>
+      <c r="J346" s="21"/>
+      <c r="K346" s="21"/>
+      <c r="L346" s="21"/>
+      <c r="M346" s="21"/>
+      <c r="N346" s="21"/>
+      <c r="O346" s="21"/>
+      <c r="P346" s="21"/>
+    </row>
+    <row r="347" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B347" s="21"/>
+      <c r="C347" s="21"/>
+      <c r="D347" s="21"/>
+      <c r="E347" s="21"/>
+      <c r="F347" s="21"/>
+      <c r="G347" s="21"/>
+      <c r="H347" s="21"/>
+      <c r="I347" s="21"/>
+      <c r="J347" s="21"/>
+      <c r="K347" s="21"/>
+      <c r="L347" s="21"/>
+      <c r="M347" s="21"/>
+      <c r="N347" s="21"/>
+      <c r="O347" s="21"/>
+      <c r="P347" s="21"/>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A348" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B348" s="21"/>
+      <c r="C348" s="21"/>
+      <c r="D348" s="21"/>
+      <c r="E348" s="21"/>
+      <c r="F348" s="21"/>
+      <c r="G348" s="21"/>
+      <c r="H348" s="21"/>
+      <c r="I348" s="21"/>
+      <c r="J348" s="21"/>
+      <c r="K348" s="21"/>
+      <c r="L348" s="21"/>
+      <c r="M348" s="21"/>
+      <c r="N348" s="21"/>
+      <c r="O348" s="21"/>
+      <c r="P348" s="21"/>
+    </row>
+    <row r="349" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="12"/>
+      <c r="B349" s="21"/>
+      <c r="C349" s="21"/>
+      <c r="D349" s="21"/>
+      <c r="E349" s="21"/>
+      <c r="F349" s="21"/>
+      <c r="G349" s="21"/>
+      <c r="H349" s="21"/>
+      <c r="I349" s="21"/>
+      <c r="J349" s="21"/>
+      <c r="K349" s="21"/>
+      <c r="L349" s="21"/>
+      <c r="M349" s="21"/>
+      <c r="N349" s="21"/>
+      <c r="O349" s="21"/>
+      <c r="P349" s="21"/>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="H320">
-        <v>0.8619</v>
-      </c>
-      <c r="I320">
-        <v>1</v>
-      </c>
-      <c r="J320">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N320">
-        <v>0.94769999999999999</v>
-      </c>
-      <c r="O320">
-        <v>1</v>
-      </c>
-      <c r="P320">
-        <v>0.97289999999999999</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A321" s="7" t="s">
+      <c r="B350" s="21"/>
+      <c r="C350" s="21"/>
+      <c r="D350" s="21"/>
+      <c r="E350" s="21"/>
+      <c r="F350" s="21"/>
+      <c r="G350" s="21"/>
+      <c r="H350" s="21"/>
+      <c r="I350" s="21"/>
+      <c r="J350" s="21"/>
+      <c r="K350" s="21"/>
+      <c r="L350" s="21"/>
+      <c r="M350" s="21"/>
+      <c r="N350" s="21"/>
+      <c r="O350" s="21"/>
+      <c r="P350" s="21"/>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A351" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B351" s="21"/>
+      <c r="C351" s="21"/>
+      <c r="D351" s="21"/>
+      <c r="E351" s="21"/>
+      <c r="F351" s="21"/>
+      <c r="G351" s="21"/>
+      <c r="H351" s="27"/>
+      <c r="I351" s="27"/>
+      <c r="J351" s="27"/>
+      <c r="K351" s="22"/>
+      <c r="L351" s="22"/>
+      <c r="M351" s="22"/>
+      <c r="N351" s="22"/>
+      <c r="O351" s="22"/>
+      <c r="P351" s="27"/>
+    </row>
+    <row r="352" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B352" s="21"/>
+      <c r="C352" s="21"/>
+      <c r="D352" s="21"/>
+      <c r="E352" s="21"/>
+      <c r="F352" s="21"/>
+      <c r="G352" s="21"/>
+      <c r="H352" s="22"/>
+      <c r="I352" s="22"/>
+      <c r="J352" s="27"/>
+      <c r="K352" s="22"/>
+      <c r="L352" s="22"/>
+      <c r="M352" s="22"/>
+      <c r="N352" s="22"/>
+      <c r="O352" s="22"/>
+      <c r="P352" s="22"/>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A353" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B353" s="21"/>
+      <c r="C353" s="21"/>
+      <c r="D353" s="21"/>
+      <c r="E353" s="21"/>
+      <c r="F353" s="21"/>
+      <c r="G353" s="21"/>
+      <c r="H353" s="22"/>
+      <c r="I353" s="22"/>
+      <c r="J353" s="22"/>
+      <c r="K353" s="22"/>
+      <c r="L353" s="22"/>
+      <c r="M353" s="22"/>
+      <c r="N353" s="22"/>
+      <c r="O353" s="22"/>
+      <c r="P353" s="22"/>
+    </row>
+    <row r="354" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A354" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B354" s="21"/>
+      <c r="C354" s="21"/>
+      <c r="D354" s="21"/>
+      <c r="E354" s="21"/>
+      <c r="F354" s="21"/>
+      <c r="G354" s="21"/>
+      <c r="H354" s="22"/>
+      <c r="I354" s="22"/>
+      <c r="J354" s="22"/>
+      <c r="K354" s="22"/>
+      <c r="L354" s="22"/>
+      <c r="M354" s="22"/>
+      <c r="N354" s="22"/>
+      <c r="O354" s="22"/>
+      <c r="P354" s="22"/>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A355" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B355" s="21"/>
+      <c r="C355" s="21"/>
+      <c r="D355" s="21"/>
+      <c r="E355" s="21"/>
+      <c r="F355" s="21"/>
+      <c r="G355" s="21"/>
+      <c r="H355" s="22"/>
+      <c r="I355" s="22"/>
+      <c r="J355" s="22"/>
+      <c r="K355" s="22"/>
+      <c r="L355" s="22"/>
+      <c r="M355" s="22"/>
+      <c r="N355" s="22"/>
+      <c r="O355" s="22"/>
+      <c r="P355" s="22"/>
+    </row>
+    <row r="356" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A356" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B356" s="21"/>
+      <c r="C356" s="21"/>
+      <c r="D356" s="21"/>
+      <c r="E356" s="21"/>
+      <c r="F356" s="21"/>
+      <c r="G356" s="21"/>
+      <c r="H356" s="22"/>
+      <c r="I356" s="22"/>
+      <c r="J356" s="22"/>
+      <c r="K356" s="22"/>
+      <c r="L356" s="22"/>
+      <c r="M356" s="22"/>
+      <c r="N356" s="22"/>
+      <c r="O356" s="22"/>
+      <c r="P356" s="22"/>
+    </row>
+    <row r="357" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B357" s="21"/>
+      <c r="C357" s="21"/>
+      <c r="D357" s="21"/>
+      <c r="E357" s="21"/>
+      <c r="F357" s="21"/>
+      <c r="G357" s="21"/>
+      <c r="H357" s="22"/>
+      <c r="I357" s="22"/>
+      <c r="J357" s="22"/>
+      <c r="K357" s="22"/>
+      <c r="L357" s="22"/>
+      <c r="M357" s="22"/>
+      <c r="N357" s="22"/>
+      <c r="O357" s="22"/>
+      <c r="P357" s="22"/>
+    </row>
+    <row r="358" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A358" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B358" s="21"/>
+      <c r="C358" s="21"/>
+      <c r="D358" s="21"/>
+      <c r="E358" s="21"/>
+      <c r="F358" s="21"/>
+      <c r="G358" s="21"/>
+      <c r="H358" s="22"/>
+      <c r="I358" s="22"/>
+      <c r="J358" s="22"/>
+      <c r="K358" s="22"/>
+      <c r="L358" s="22"/>
+      <c r="M358" s="22"/>
+      <c r="N358" s="22"/>
+      <c r="O358" s="22"/>
+      <c r="P358" s="22"/>
+    </row>
+    <row r="359" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A359" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B359" s="21"/>
+      <c r="C359" s="21"/>
+      <c r="D359" s="21"/>
+      <c r="E359" s="21"/>
+      <c r="F359" s="21"/>
+      <c r="G359" s="21"/>
+      <c r="H359" s="22"/>
+      <c r="I359" s="22"/>
+      <c r="J359" s="22"/>
+      <c r="K359" s="22"/>
+      <c r="L359" s="22"/>
+      <c r="M359" s="22"/>
+      <c r="N359" s="22"/>
+      <c r="O359" s="22"/>
+      <c r="P359" s="22"/>
+    </row>
+    <row r="360" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A360" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B360" s="21"/>
+      <c r="C360" s="21"/>
+      <c r="D360" s="21"/>
+      <c r="E360" s="21"/>
+      <c r="F360" s="21"/>
+      <c r="G360" s="21"/>
+      <c r="H360" s="22"/>
+      <c r="I360" s="22"/>
+      <c r="J360" s="22"/>
+      <c r="K360" s="22"/>
+      <c r="L360" s="22"/>
+      <c r="M360" s="22"/>
+      <c r="N360" s="22"/>
+      <c r="O360" s="22"/>
+      <c r="P360" s="22"/>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A361" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B361" s="21"/>
+      <c r="C361" s="21"/>
+      <c r="D361" s="21"/>
+      <c r="E361" s="21"/>
+      <c r="F361" s="21"/>
+      <c r="G361" s="21"/>
+      <c r="H361" s="22"/>
+      <c r="I361" s="22"/>
+      <c r="J361" s="22"/>
+      <c r="K361" s="22"/>
+      <c r="L361" s="22"/>
+      <c r="M361" s="22"/>
+      <c r="N361" s="22"/>
+      <c r="O361" s="22"/>
+      <c r="P361" s="22"/>
+    </row>
+    <row r="362" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A362" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B362" s="21"/>
+      <c r="C362" s="21"/>
+      <c r="D362" s="21"/>
+      <c r="E362" s="21"/>
+      <c r="F362" s="21"/>
+      <c r="G362" s="21"/>
+      <c r="H362" s="22"/>
+      <c r="I362" s="22"/>
+      <c r="J362" s="22"/>
+      <c r="K362" s="22"/>
+      <c r="L362" s="22"/>
+      <c r="M362" s="22"/>
+      <c r="N362" s="22"/>
+      <c r="O362" s="22"/>
+      <c r="P362" s="22"/>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A363" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B363" s="21"/>
+      <c r="C363" s="21"/>
+      <c r="D363" s="21"/>
+      <c r="E363" s="21"/>
+      <c r="F363" s="21"/>
+      <c r="G363" s="21"/>
+      <c r="H363" s="22"/>
+      <c r="I363" s="22"/>
+      <c r="J363" s="22"/>
+      <c r="K363" s="22"/>
+      <c r="L363" s="22"/>
+      <c r="M363" s="22"/>
+      <c r="N363" s="22"/>
+      <c r="O363" s="22"/>
+      <c r="P363" s="22"/>
+    </row>
+    <row r="364" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A364" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B364" s="21"/>
+      <c r="C364" s="21"/>
+      <c r="D364" s="21"/>
+      <c r="E364" s="21"/>
+      <c r="F364" s="21"/>
+      <c r="G364" s="21"/>
+      <c r="H364" s="22"/>
+      <c r="I364" s="22"/>
+      <c r="J364" s="22"/>
+      <c r="K364" s="22"/>
+      <c r="L364" s="22"/>
+      <c r="M364" s="22"/>
+      <c r="N364" s="22"/>
+      <c r="O364" s="22"/>
+      <c r="P364" s="22"/>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A365" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B365" s="21"/>
+      <c r="C365" s="21"/>
+      <c r="D365" s="21"/>
+      <c r="E365" s="21"/>
+      <c r="F365" s="21"/>
+      <c r="G365" s="21"/>
+      <c r="H365" s="22"/>
+      <c r="I365" s="22"/>
+      <c r="J365" s="22"/>
+      <c r="K365" s="22"/>
+      <c r="L365" s="22"/>
+      <c r="M365" s="22"/>
+      <c r="N365" s="22"/>
+      <c r="O365" s="22"/>
+      <c r="P365" s="22"/>
+    </row>
+    <row r="366" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A366" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B366" s="21"/>
+      <c r="C366" s="21"/>
+      <c r="D366" s="21"/>
+      <c r="E366" s="21"/>
+      <c r="F366" s="21"/>
+      <c r="G366" s="21"/>
+      <c r="H366" s="22"/>
+      <c r="I366" s="22"/>
+      <c r="J366" s="22"/>
+      <c r="K366" s="22"/>
+      <c r="L366" s="22"/>
+      <c r="M366" s="22"/>
+      <c r="N366" s="22"/>
+      <c r="O366" s="22"/>
+      <c r="P366" s="22"/>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A367" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B367" s="21"/>
+      <c r="C367" s="21"/>
+      <c r="D367" s="21"/>
+      <c r="E367" s="21"/>
+      <c r="F367" s="21"/>
+      <c r="G367" s="21"/>
+      <c r="H367" s="22"/>
+      <c r="I367" s="22"/>
+      <c r="J367" s="22"/>
+      <c r="K367" s="22"/>
+      <c r="L367" s="22"/>
+      <c r="M367" s="22"/>
+      <c r="N367" s="22"/>
+      <c r="O367" s="22"/>
+      <c r="P367" s="22"/>
+    </row>
+    <row r="368" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A368" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B368" s="21"/>
+      <c r="C368" s="21"/>
+      <c r="D368" s="21"/>
+      <c r="E368" s="21"/>
+      <c r="F368" s="21"/>
+      <c r="G368" s="21"/>
+      <c r="H368" s="22"/>
+      <c r="I368" s="22"/>
+      <c r="J368" s="22"/>
+      <c r="K368" s="22"/>
+      <c r="L368" s="22"/>
+      <c r="M368" s="22"/>
+      <c r="N368" s="22"/>
+      <c r="O368" s="22"/>
+      <c r="P368" s="22"/>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A369" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B369" s="21"/>
+      <c r="C369" s="21"/>
+      <c r="D369" s="21"/>
+      <c r="E369" s="21"/>
+      <c r="F369" s="21"/>
+      <c r="G369" s="21"/>
+      <c r="H369" s="22"/>
+      <c r="I369" s="22"/>
+      <c r="J369" s="22"/>
+      <c r="K369" s="22"/>
+      <c r="L369" s="22"/>
+      <c r="M369" s="22"/>
+      <c r="N369" s="22"/>
+      <c r="O369" s="22"/>
+      <c r="P369" s="22"/>
+    </row>
+    <row r="370" spans="1:16" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A370" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H370" s="22"/>
+      <c r="I370" s="22"/>
+      <c r="J370" s="22"/>
+      <c r="K370" s="22"/>
+      <c r="L370" s="22"/>
+      <c r="M370" s="22"/>
+      <c r="N370" s="22"/>
+      <c r="O370" s="22"/>
+      <c r="P370" s="22"/>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A371" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B371" s="21"/>
+      <c r="C371" s="21"/>
+      <c r="D371" s="21"/>
+      <c r="E371" s="21"/>
+      <c r="F371" s="21"/>
+      <c r="G371" s="21"/>
+      <c r="H371" s="22"/>
+      <c r="I371" s="22"/>
+      <c r="J371" s="22"/>
+      <c r="K371" s="22"/>
+      <c r="L371" s="22"/>
+      <c r="M371" s="22"/>
+      <c r="N371" s="22"/>
+      <c r="O371" s="22"/>
+      <c r="P371" s="22"/>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A372" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B372" s="21"/>
+      <c r="C372" s="21"/>
+      <c r="D372" s="21"/>
+      <c r="E372" s="21"/>
+      <c r="F372" s="21"/>
+      <c r="G372" s="21"/>
+      <c r="H372" s="22"/>
+      <c r="I372" s="22"/>
+      <c r="J372" s="22"/>
+      <c r="K372" s="22"/>
+      <c r="L372" s="22"/>
+      <c r="M372" s="22"/>
+      <c r="N372" s="22"/>
+      <c r="O372" s="22"/>
+      <c r="P372" s="22"/>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A373" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B373" s="21"/>
+      <c r="C373" s="21"/>
+      <c r="D373" s="21"/>
+      <c r="E373" s="21"/>
+      <c r="F373" s="21"/>
+      <c r="G373" s="21"/>
+      <c r="H373" s="22"/>
+      <c r="I373" s="22"/>
+      <c r="J373" s="22"/>
+      <c r="K373" s="22"/>
+      <c r="L373" s="22"/>
+      <c r="M373" s="22"/>
+      <c r="N373" s="22"/>
+      <c r="O373" s="22"/>
+      <c r="P373" s="22"/>
+    </row>
+    <row r="374" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B374" s="21"/>
+      <c r="C374" s="21"/>
+      <c r="D374" s="21"/>
+      <c r="E374" s="21"/>
+      <c r="F374" s="21"/>
+      <c r="G374" s="21"/>
+      <c r="H374" s="22"/>
+      <c r="I374" s="22"/>
+      <c r="J374" s="22"/>
+      <c r="K374" s="22"/>
+      <c r="L374" s="22"/>
+      <c r="M374" s="22"/>
+      <c r="N374" s="22"/>
+      <c r="O374" s="22"/>
+      <c r="P374" s="22"/>
+    </row>
+    <row r="375" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B375" s="21"/>
+      <c r="C375" s="21"/>
+      <c r="D375" s="21"/>
+      <c r="E375" s="21"/>
+      <c r="F375" s="21"/>
+      <c r="G375" s="21"/>
+      <c r="H375" s="22"/>
+      <c r="I375" s="22"/>
+      <c r="J375" s="22"/>
+      <c r="K375" s="22"/>
+      <c r="L375" s="22"/>
+      <c r="M375" s="22"/>
+      <c r="N375" s="22"/>
+      <c r="O375" s="22"/>
+      <c r="P375" s="22"/>
+    </row>
+    <row r="376" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A376" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B376" s="21"/>
+      <c r="C376" s="21"/>
+      <c r="D376" s="21"/>
+      <c r="E376" s="21"/>
+      <c r="F376" s="21"/>
+      <c r="G376" s="21"/>
+      <c r="H376" s="22"/>
+      <c r="I376" s="22"/>
+      <c r="J376" s="22"/>
+      <c r="K376" s="22"/>
+      <c r="L376" s="22"/>
+      <c r="M376" s="22"/>
+      <c r="N376" s="22"/>
+      <c r="O376" s="22"/>
+      <c r="P376" s="22"/>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A377" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B377" s="21"/>
+      <c r="C377" s="21"/>
+      <c r="D377" s="21"/>
+      <c r="E377" s="21"/>
+      <c r="F377" s="21"/>
+      <c r="G377" s="21"/>
+      <c r="H377" s="22"/>
+      <c r="I377" s="22"/>
+      <c r="J377" s="22"/>
+      <c r="K377" s="22"/>
+      <c r="L377" s="22"/>
+      <c r="M377" s="22"/>
+      <c r="N377" s="22"/>
+      <c r="O377" s="22"/>
+      <c r="P377" s="22"/>
+    </row>
+    <row r="378" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A378" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B378" s="21"/>
+      <c r="C378" s="21"/>
+      <c r="D378" s="21"/>
+      <c r="E378" s="21"/>
+      <c r="F378" s="21"/>
+      <c r="G378" s="21"/>
+      <c r="H378" s="22"/>
+      <c r="I378" s="22"/>
+      <c r="J378" s="22"/>
+      <c r="K378" s="22"/>
+      <c r="L378" s="22"/>
+      <c r="M378" s="22"/>
+      <c r="N378" s="22"/>
+      <c r="O378" s="22"/>
+      <c r="P378" s="22"/>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A379" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B379" s="21"/>
+      <c r="C379" s="21"/>
+      <c r="D379" s="21"/>
+      <c r="E379" s="21"/>
+      <c r="F379" s="21"/>
+      <c r="G379" s="21"/>
+      <c r="H379" s="22"/>
+      <c r="I379" s="22"/>
+      <c r="J379" s="22"/>
+      <c r="K379" s="22"/>
+      <c r="L379" s="22"/>
+      <c r="M379" s="22"/>
+      <c r="N379" s="22"/>
+      <c r="O379" s="22"/>
+      <c r="P379" s="22"/>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A380" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B380" s="21"/>
+      <c r="C380" s="21"/>
+      <c r="D380" s="21"/>
+      <c r="E380" s="21"/>
+      <c r="F380" s="21"/>
+      <c r="G380" s="21"/>
+      <c r="H380" s="22"/>
+      <c r="I380" s="22"/>
+      <c r="J380" s="22"/>
+      <c r="K380" s="22"/>
+      <c r="L380" s="22"/>
+      <c r="M380" s="22"/>
+      <c r="N380" s="22"/>
+      <c r="O380" s="22"/>
+      <c r="P380" s="22"/>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A381" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B381" s="21"/>
+      <c r="C381" s="21"/>
+      <c r="D381" s="21"/>
+      <c r="E381" s="21"/>
+      <c r="F381" s="21"/>
+      <c r="G381" s="21"/>
+      <c r="H381" s="22"/>
+      <c r="I381" s="22"/>
+      <c r="J381" s="22"/>
+      <c r="K381" s="22"/>
+      <c r="L381" s="22"/>
+      <c r="M381" s="22"/>
+      <c r="N381" s="22"/>
+      <c r="O381" s="22"/>
+      <c r="P381" s="22"/>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A382" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B382" s="21"/>
+      <c r="C382" s="21"/>
+      <c r="D382" s="21"/>
+      <c r="E382" s="21"/>
+      <c r="F382" s="21"/>
+      <c r="G382" s="21"/>
+      <c r="H382" s="22"/>
+      <c r="I382" s="22"/>
+      <c r="J382" s="22"/>
+      <c r="K382" s="22"/>
+      <c r="L382" s="22"/>
+      <c r="M382" s="22"/>
+      <c r="N382" s="22"/>
+      <c r="O382" s="22"/>
+      <c r="P382" s="22"/>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A383" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B383" s="21"/>
+      <c r="C383" s="21"/>
+      <c r="D383" s="21"/>
+      <c r="E383" s="21"/>
+      <c r="F383" s="21"/>
+      <c r="G383" s="21"/>
+      <c r="H383" s="22"/>
+      <c r="I383" s="22"/>
+      <c r="J383" s="22"/>
+      <c r="K383" s="22"/>
+      <c r="L383" s="22"/>
+      <c r="M383" s="22"/>
+      <c r="N383" s="22"/>
+      <c r="O383" s="22"/>
+      <c r="P383" s="27"/>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A384" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B384" s="21"/>
+      <c r="C384" s="21"/>
+      <c r="D384" s="21"/>
+      <c r="E384" s="21"/>
+      <c r="F384" s="21"/>
+      <c r="G384" s="21"/>
+      <c r="H384" s="22"/>
+      <c r="I384" s="22"/>
+      <c r="J384" s="22"/>
+      <c r="K384" s="22"/>
+      <c r="L384" s="22"/>
+      <c r="M384" s="22"/>
+      <c r="N384" s="22"/>
+      <c r="O384" s="22"/>
+      <c r="P384" s="22"/>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A385" s="7"/>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A386" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="H321">
-        <v>6.8821450000000006E-2</v>
-      </c>
-      <c r="I321">
-        <v>0.5</v>
-      </c>
-      <c r="J321">
-        <v>0.120989</v>
-      </c>
-      <c r="N321">
-        <v>6.8821450000000006E-2</v>
-      </c>
-      <c r="O321">
-        <v>0.5</v>
-      </c>
-      <c r="P321">
-        <v>0.120989</v>
-      </c>
-    </row>
-    <row r="322" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A322" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H322">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I322">
-        <v>1</v>
-      </c>
-      <c r="J322">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N322">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="O322">
-        <v>1</v>
-      </c>
-      <c r="P322">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H323">
-        <v>6.4643799000000002E-2</v>
-      </c>
-      <c r="I323">
-        <v>0.5</v>
-      </c>
-      <c r="J323">
-        <v>0.114485</v>
-      </c>
-      <c r="N323">
-        <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="O323">
-        <v>0.5</v>
-      </c>
-      <c r="P323">
-        <v>0.11448</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A324" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H324">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="I324">
-        <v>1</v>
-      </c>
-      <c r="J324">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N324">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="O324">
-        <v>1</v>
-      </c>
-      <c r="P324">
-        <v>0.97529999999999994</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H325">
-        <v>6.4640000000000003E-2</v>
-      </c>
-      <c r="I325">
-        <v>0.5</v>
-      </c>
-      <c r="J325">
-        <v>0.11448</v>
-      </c>
-      <c r="N325">
-        <v>2.3966500000000002E-2</v>
-      </c>
-      <c r="O325">
-        <v>0.5</v>
-      </c>
-      <c r="P325">
-        <v>4.5740000000000003E-2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H326">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="I326">
-        <v>1</v>
-      </c>
-      <c r="J326">
-        <v>0.92569999999999997</v>
-      </c>
-      <c r="N326">
-        <v>0.94930000000000003</v>
-      </c>
-      <c r="O326">
-        <v>1</v>
-      </c>
-      <c r="P326">
-        <v>0.9738</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A327" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H327">
-        <v>6.8821450000000006E-2</v>
-      </c>
-      <c r="I327">
-        <v>0.5</v>
-      </c>
-      <c r="J327">
-        <v>0.120989</v>
-      </c>
-      <c r="N327">
-        <v>2.5284999999999998E-2</v>
-      </c>
-      <c r="O327">
-        <v>0.5</v>
-      </c>
-      <c r="P327">
-        <v>4.8136999999999999E-2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A328" s="7"/>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A330" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H330" s="12">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="I330" s="12">
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="J330" s="12">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="K330" s="13"/>
-      <c r="L330" s="13"/>
-      <c r="M330" s="13"/>
-      <c r="N330" s="13">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="O330" s="13">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="P330" s="12">
-        <v>0.67889999999999995</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H331" s="23">
-        <v>0.50287221200679399</v>
-      </c>
-      <c r="I331" s="23">
-        <v>0.50564061657417803</v>
-      </c>
-      <c r="J331" s="24">
-        <v>0.47544921610894098</v>
-      </c>
-      <c r="K331" s="23"/>
-      <c r="L331" s="23"/>
-      <c r="M331" s="23"/>
-      <c r="N331" s="23">
-        <v>0.49464383858752797</v>
-      </c>
-      <c r="O331" s="23">
-        <v>0.47154585701070401</v>
-      </c>
-      <c r="P331" s="23">
-        <v>0.37998319515368301</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A332" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H332" s="13">
-        <v>0</v>
-      </c>
-      <c r="I332" s="13">
-        <v>0</v>
-      </c>
-      <c r="J332" s="13">
-        <v>0</v>
-      </c>
-      <c r="K332" s="13"/>
-      <c r="L332" s="13"/>
-      <c r="M332" s="13"/>
-      <c r="N332" s="13">
-        <v>0.94989999999999997</v>
-      </c>
-      <c r="O332" s="13">
+    </row>
+    <row r="387" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B387" s="13">
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="C387" s="13">
+        <v>1</v>
+      </c>
+      <c r="D387" s="13">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="E387" s="13">
+        <v>0.82110000000000005</v>
+      </c>
+      <c r="F387" s="13">
+        <v>1</v>
+      </c>
+      <c r="G387" s="13">
+        <v>0.90107000000000004</v>
+      </c>
+      <c r="H387" s="14">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="I387" s="14">
+        <v>1</v>
+      </c>
+      <c r="J387" s="14">
+        <v>0.9304</v>
+      </c>
+      <c r="K387" s="14">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="L387" s="14">
+        <v>0.99839999999999995</v>
+      </c>
+      <c r="M387" s="14">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="N387" s="14">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O387" s="14">
+        <v>1</v>
+      </c>
+      <c r="P387" s="14">
+        <v>0.97460000000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B388" s="13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="C388" s="13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="D388" s="13">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="E388" s="13">
         <v>0.50790000000000002</v>
       </c>
-      <c r="P332" s="13">
-        <v>0.65910000000000002</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A333" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H333" s="13">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I333" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J333" s="13">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="K333" s="13"/>
-      <c r="L333" s="13"/>
-      <c r="M333" s="13"/>
-      <c r="N333" s="13">
-        <v>0.500866625553538</v>
-      </c>
-      <c r="O333" s="13">
-        <v>0.50462534690101801</v>
-      </c>
-      <c r="P333" s="13">
-        <v>0.377291924028408</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A334" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H334" s="13">
-        <v>0.86080000000000001</v>
-      </c>
-      <c r="I334" s="13">
-        <v>0.66459999999999997</v>
-      </c>
-      <c r="J334" s="13">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="K334" s="13"/>
-      <c r="L334" s="13"/>
-      <c r="M334" s="13"/>
-      <c r="N334" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="O334" s="13">
-        <v>0.70409999999999995</v>
-      </c>
-      <c r="P334" s="13">
-        <v>0.80710000000000004</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A335" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H335" s="23">
-        <v>0.48767004716815798</v>
-      </c>
-      <c r="I335" s="23">
-        <v>0.475752584708313</v>
-      </c>
-      <c r="J335" s="23">
-        <v>0.45622628764702</v>
-      </c>
-      <c r="K335" s="23"/>
-      <c r="L335" s="23"/>
-      <c r="M335" s="23"/>
-      <c r="N335" s="23">
-        <v>0.498840734795791</v>
-      </c>
-      <c r="O335" s="23">
-        <v>0.49484604202457999</v>
-      </c>
-      <c r="P335" s="23">
-        <v>0.44517339348066498</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H336" s="13">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="I336" s="13">
-        <v>0.88570000000000004</v>
-      </c>
-      <c r="J336" s="13">
-        <v>0.87670000000000003</v>
-      </c>
-      <c r="K336" s="13"/>
-      <c r="L336" s="13"/>
-      <c r="M336" s="13"/>
-      <c r="N336" s="13">
-        <v>0.95430000000000004</v>
-      </c>
-      <c r="O336" s="13">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="P336" s="13">
-        <v>0.2467</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A337" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H337" s="13">
-        <v>0.49701179378598698</v>
-      </c>
-      <c r="I337" s="13">
-        <v>0.49731321272222601</v>
-      </c>
-      <c r="J337" s="13">
-        <v>0.49690995343169297</v>
-      </c>
-      <c r="K337" s="13"/>
-      <c r="L337" s="13"/>
-      <c r="M337" s="13"/>
-      <c r="N337" s="13">
-        <v>0.50532288698955397</v>
-      </c>
-      <c r="O337" s="13">
-        <v>0.51388843002510898</v>
-      </c>
-      <c r="P337" s="13">
-        <v>0.173112202338918</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A338" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H338" s="13">
-        <v>0.90069999999999995</v>
-      </c>
-      <c r="I338" s="13">
-        <v>0.67020000000000002</v>
-      </c>
-      <c r="J338" s="13">
-        <v>0.76680000000000004</v>
-      </c>
-      <c r="K338" s="13"/>
-      <c r="L338" s="13"/>
-      <c r="M338" s="13"/>
-      <c r="N338" s="13">
-        <v>0.94389999999999996</v>
-      </c>
-      <c r="O338" s="13">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="P338" s="13">
-        <v>0.60909999999999997</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A339" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H339" s="13">
-        <v>0.543463227339259</v>
-      </c>
-      <c r="I339" s="13">
-        <v>0.58824877289885302</v>
-      </c>
-      <c r="J339" s="13">
-        <v>0.52036909849409896</v>
-      </c>
-      <c r="K339" s="13"/>
-      <c r="L339" s="13"/>
-      <c r="M339" s="13"/>
-      <c r="N339" s="13">
-        <v>0.49302009091419302</v>
-      </c>
-      <c r="O339" s="13">
-        <v>0.46301787366195302</v>
-      </c>
-      <c r="P339" s="13">
-        <v>0.34525500741839799</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A340" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H340" s="13">
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="I340" s="13">
-        <v>0.62029999999999996</v>
-      </c>
-      <c r="J340" s="13">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="K340" s="13"/>
-      <c r="L340" s="13"/>
-      <c r="M340" s="13"/>
-      <c r="N340" s="13">
-        <v>0.9506</v>
-      </c>
-      <c r="O340" s="13">
-        <v>1</v>
-      </c>
-      <c r="P340" s="13">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A341" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H341" s="23">
-        <v>0.51527297587336696</v>
-      </c>
-      <c r="I341" s="23">
-        <v>0.53229227145941105</v>
-      </c>
-      <c r="J341" s="23">
-        <v>0.47528499831863902</v>
-      </c>
-      <c r="K341" s="23"/>
-      <c r="L341" s="23"/>
-      <c r="M341" s="23"/>
-      <c r="N341" s="23">
-        <v>0.47537379067722102</v>
-      </c>
-      <c r="O341" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="P341" s="23">
-        <v>0.48737601442741202</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A342" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H342" s="13">
-        <v>0.877</v>
-      </c>
-      <c r="I342" s="13">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="J342" s="13">
-        <v>0.1925</v>
-      </c>
-      <c r="K342" s="13"/>
-      <c r="L342" s="13"/>
-      <c r="M342" s="13"/>
-      <c r="N342" s="13">
-        <v>0.9506</v>
-      </c>
-      <c r="O342" s="13">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="P342" s="13">
-        <v>0.97430000000000005</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A343" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H343" s="13">
-        <v>0.21033280577034399</v>
-      </c>
-      <c r="I343" s="13">
-        <v>0.50186929413041603</v>
-      </c>
-      <c r="J343" s="13">
-        <v>0.21033280577034399</v>
-      </c>
-      <c r="K343" s="13"/>
-      <c r="L343" s="13"/>
-      <c r="M343" s="13"/>
-      <c r="N343" s="13">
-        <v>0.47536295644522703</v>
-      </c>
-      <c r="O343" s="13">
-        <v>0.49976873265494898</v>
-      </c>
-      <c r="P343" s="13">
-        <v>0.48726042841037198</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A344" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H344" s="13">
-        <v>0.8669</v>
-      </c>
-      <c r="I344" s="13">
-        <v>0.55930000000000002</v>
-      </c>
-      <c r="J344" s="13">
-        <v>0.67749999999999999</v>
-      </c>
-      <c r="K344" s="13"/>
-      <c r="L344" s="13"/>
-      <c r="M344" s="13"/>
-      <c r="N344" s="13">
-        <v>0.54169999999999996</v>
-      </c>
-      <c r="O344" s="13">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="P344" s="13">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H345" s="13">
-        <v>0.462525724881309</v>
-      </c>
-      <c r="I345" s="13">
-        <v>0.42395504735257999</v>
-      </c>
-      <c r="J345" s="13">
-        <v>0.419379163201061</v>
-      </c>
-      <c r="K345" s="13"/>
-      <c r="L345" s="13"/>
-      <c r="M345" s="13"/>
-      <c r="N345" s="13">
-        <v>0.45016187365105298</v>
-      </c>
-      <c r="O345" s="13">
-        <v>0.48822430840424302</v>
-      </c>
-      <c r="P345" s="13">
-        <v>0.134872106008248</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H346" s="13">
-        <v>0.91159999999999997</v>
-      </c>
-      <c r="I346" s="13">
-        <v>0.78259999999999996</v>
-      </c>
-      <c r="J346" s="13">
-        <v>0.84060000000000001</v>
-      </c>
-      <c r="K346" s="13"/>
-      <c r="L346" s="13"/>
-      <c r="M346" s="13"/>
-      <c r="N346" s="13">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="O346" s="13">
-        <v>0.2475</v>
-      </c>
-      <c r="P346" s="13">
-        <v>0.39040000000000002</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A347" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H347" s="23">
-        <v>0.14025624684774199</v>
-      </c>
-      <c r="I347" s="23">
-        <v>0.50459226129458501</v>
-      </c>
-      <c r="J347" s="23">
-        <v>0.14025624684774199</v>
-      </c>
-      <c r="K347" s="23"/>
-      <c r="L347" s="23"/>
-      <c r="M347" s="23"/>
-      <c r="N347" s="23">
-        <v>0.46839806700356501</v>
-      </c>
-      <c r="O347" s="23">
-        <v>0.48298942341321</v>
-      </c>
-      <c r="P347" s="23">
-        <v>0.46839806700356501</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A348" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H348" s="13">
-        <v>0.93140000000000001</v>
-      </c>
-      <c r="I348" s="13">
-        <v>0.62039999999999995</v>
-      </c>
-      <c r="J348" s="13">
-        <v>0.74280000000000002</v>
-      </c>
-      <c r="K348" s="13"/>
-      <c r="L348" s="13"/>
-      <c r="M348" s="13"/>
-      <c r="N348" s="13">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="O348" s="13">
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="P348" s="13">
-        <v>0.44140000000000001</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A349" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H349" s="27">
-        <v>0.54739701339660496</v>
-      </c>
-      <c r="I349" s="27">
-        <v>0.57557719840188304</v>
-      </c>
-      <c r="J349" s="27">
-        <v>0.54795318740679699</v>
-      </c>
-      <c r="K349" s="27"/>
-      <c r="L349" s="27"/>
-      <c r="M349" s="27"/>
-      <c r="N349" s="27">
-        <v>0.54863204913456198</v>
-      </c>
-      <c r="O349" s="27">
-        <v>0.60804347788633695</v>
-      </c>
-      <c r="P349" s="27">
-        <v>0.46593530734733102</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A350" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H350" s="13">
-        <v>0.86550000000000005</v>
-      </c>
-      <c r="I350" s="13">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="J350" s="13">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="K350" s="13"/>
-      <c r="L350" s="13"/>
-      <c r="M350" s="13"/>
-      <c r="N350" s="13">
-        <v>0.95679999999999998</v>
-      </c>
-      <c r="O350" s="13">
-        <v>0.6694</v>
-      </c>
-      <c r="P350" s="13">
-        <v>0.78620000000000001</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A351" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H351" s="13">
-        <v>0.49425654358717003</v>
-      </c>
-      <c r="I351" s="13">
-        <v>0.48828546964076802</v>
-      </c>
-      <c r="J351" s="13">
-        <v>0.45800042185193002</v>
-      </c>
-      <c r="K351" s="13"/>
-      <c r="L351" s="13"/>
-      <c r="M351" s="13"/>
-      <c r="N351" s="13">
-        <v>0.44688411252247001</v>
-      </c>
-      <c r="O351" s="13">
-        <v>0.54046352583586599</v>
-      </c>
-      <c r="P351" s="13">
-        <v>0.44688411252247001</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A352" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H352" s="13">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="I352" s="13">
-        <v>0.66959999999999997</v>
-      </c>
-      <c r="J352" s="13">
-        <v>0.76370000000000005</v>
-      </c>
-      <c r="K352" s="13"/>
-      <c r="L352" s="13"/>
-      <c r="M352" s="13"/>
-      <c r="N352" s="13">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="O352" s="13">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="P352" s="13">
-        <v>0.96389999999999998</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H353" s="23">
-        <v>0.53414821385922395</v>
-      </c>
-      <c r="I353" s="23">
-        <v>0.56897264628303401</v>
-      </c>
-      <c r="J353" s="23">
-        <v>0.50976164494169995</v>
-      </c>
-      <c r="K353" s="23"/>
-      <c r="L353" s="23"/>
-      <c r="M353" s="23"/>
-      <c r="N353" s="23">
-        <v>0.52872539942549202</v>
-      </c>
-      <c r="O353" s="23">
-        <v>0.51499107968811897</v>
-      </c>
-      <c r="P353" s="23">
-        <v>0.51757649134992001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H354" s="16">
-        <v>0.86240000000000006</v>
-      </c>
-      <c r="I354" s="16">
-        <v>0.82189999999999996</v>
-      </c>
-      <c r="J354" s="16">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="K354" s="16"/>
-      <c r="L354" s="16"/>
-      <c r="M354" s="16"/>
-      <c r="N354" s="16">
-        <v>0.94979999999999998</v>
-      </c>
-      <c r="O354" s="16">
-        <v>0.6623</v>
-      </c>
-      <c r="P354" s="16">
-        <v>0.77910000000000001</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A355" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H355" s="23">
-        <v>0.47933794497271998</v>
-      </c>
-      <c r="I355" s="23">
-        <v>0.47379111801017498</v>
-      </c>
-      <c r="J355" s="23">
-        <v>0.47515981983945399</v>
-      </c>
-      <c r="K355" s="23"/>
-      <c r="L355" s="23"/>
-      <c r="M355" s="23"/>
-      <c r="N355" s="23">
-        <v>0.49928406202602699</v>
-      </c>
-      <c r="O355" s="23">
-        <v>0.496584676886481</v>
-      </c>
-      <c r="P355" s="23">
-        <v>0.432604445327193</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A356" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H356" s="13">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I356" s="13">
-        <v>1</v>
-      </c>
-      <c r="J356" s="13">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="K356" s="13"/>
-      <c r="L356" s="13"/>
-      <c r="M356" s="13"/>
-      <c r="N356" s="13">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="O356" s="13">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="P356" s="13">
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H357" s="13">
-        <v>0.43557607739665799</v>
-      </c>
-      <c r="I357" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J357" s="13">
-        <v>0.465569917743831</v>
-      </c>
-      <c r="K357" s="13"/>
-      <c r="L357" s="13"/>
-      <c r="M357" s="13"/>
-      <c r="N357" s="13">
-        <v>0.49962289263531501</v>
-      </c>
-      <c r="O357" s="13">
-        <v>0.49992979384168101</v>
-      </c>
-      <c r="P357" s="13">
-        <v>5.56222315370591E-2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A358" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H358" s="13">
-        <v>0.85489999999999999</v>
-      </c>
-      <c r="I358" s="13">
-        <v>0.60340000000000005</v>
-      </c>
-      <c r="J358" s="13">
-        <v>0.70550000000000002</v>
-      </c>
-      <c r="K358" s="13"/>
-      <c r="L358" s="13"/>
-      <c r="M358" s="13"/>
-      <c r="N358" s="13">
-        <v>0.94689999999999996</v>
-      </c>
-      <c r="O358" s="13">
-        <v>0.60740000000000005</v>
-      </c>
-      <c r="P358" s="13">
-        <v>0.73870000000000002</v>
-      </c>
-    </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A359" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H359" s="13">
-        <v>0.479694573461109</v>
-      </c>
-      <c r="I359" s="13">
-        <v>0.45715784595293502</v>
-      </c>
-      <c r="J359" s="13">
-        <v>0.43179518441660603</v>
-      </c>
-      <c r="K359" s="13"/>
-      <c r="L359" s="13"/>
-      <c r="M359" s="13"/>
-      <c r="N359" s="13">
-        <v>0.49566842698629299</v>
-      </c>
-      <c r="O359" s="13">
-        <v>0.47799243425399801</v>
-      </c>
-      <c r="P359" s="13">
-        <v>0.40928417851494803</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A360" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="H360" s="13">
-        <v>0.86780000000000002</v>
-      </c>
-      <c r="I360" s="13">
-        <v>0.76990000000000003</v>
-      </c>
-      <c r="J360" s="13">
-        <v>0.81510000000000005</v>
-      </c>
-      <c r="K360" s="13"/>
-      <c r="L360" s="13"/>
-      <c r="M360" s="13"/>
-      <c r="N360" s="13">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="O360" s="13">
-        <v>0.15670000000000001</v>
-      </c>
-      <c r="P360" s="13">
-        <v>0.26629999999999998</v>
-      </c>
-    </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A361" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H361" s="13">
-        <v>0.49641486751313302</v>
-      </c>
-      <c r="I361" s="13">
-        <v>0.494374027665553</v>
-      </c>
-      <c r="J361" s="13">
-        <v>0.48727597810149698</v>
-      </c>
-      <c r="K361" s="13"/>
-      <c r="L361" s="13"/>
-      <c r="M361" s="13"/>
-      <c r="N361" s="13">
-        <v>0.49295541623127798</v>
-      </c>
-      <c r="O361" s="13">
-        <v>0.47995407691291098</v>
-      </c>
-      <c r="P361" s="13">
-        <v>0.178443125960452</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A362" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H362" s="13">
-        <v>0.8851</v>
-      </c>
-      <c r="I362" s="13">
-        <v>0.59609999999999996</v>
-      </c>
-      <c r="J362" s="13">
-        <v>0.70960000000000001</v>
-      </c>
-      <c r="K362" s="13"/>
-      <c r="L362" s="13"/>
-      <c r="M362" s="13"/>
-      <c r="N362" s="13">
-        <v>0.95189999999999997</v>
-      </c>
-      <c r="O362" s="13">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="P362" s="12">
-        <v>0.1857</v>
-      </c>
-    </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A363" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H363" s="13">
-        <v>0.51922796708349805</v>
-      </c>
-      <c r="I363" s="13">
-        <v>0.541604285076831</v>
-      </c>
-      <c r="J363" s="13">
-        <v>0.47170223877318901</v>
-      </c>
-      <c r="K363" s="13"/>
-      <c r="L363" s="13"/>
-      <c r="M363" s="13"/>
-      <c r="N363" s="13">
-        <v>0.49946542205956401</v>
-      </c>
-      <c r="O363" s="13">
-        <v>0.49892625875512098</v>
-      </c>
-      <c r="P363" s="13">
-        <v>0.14112055856248401</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A364" s="7"/>
-    </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A365" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="366" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="28" t="s">
-        <v>247</v>
-      </c>
-      <c r="B366" s="15">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="C366" s="15">
-        <v>1</v>
-      </c>
-      <c r="D366" s="15">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="E366" s="15">
-        <v>0.82110000000000005</v>
-      </c>
-      <c r="F366" s="15">
-        <v>1</v>
-      </c>
-      <c r="G366" s="15">
-        <v>0.90107000000000004</v>
-      </c>
-      <c r="H366" s="16">
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="I366" s="16">
-        <v>1</v>
-      </c>
-      <c r="J366" s="16">
-        <v>0.9304</v>
-      </c>
-      <c r="K366" s="16">
-        <v>0.84330000000000005</v>
-      </c>
-      <c r="L366" s="16">
-        <v>0.99839999999999995</v>
-      </c>
-      <c r="M366" s="16">
-        <v>0.91379999999999995</v>
-      </c>
-      <c r="N366" s="16">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O366" s="16">
-        <v>1</v>
-      </c>
-      <c r="P366" s="16">
-        <v>0.97460000000000002</v>
-      </c>
-    </row>
-    <row r="367" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="B367" s="15">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="C367" s="15">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="D367" s="15">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="E367" s="15">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="F367" s="15">
+      <c r="F388" s="13">
         <v>0.50900000000000001</v>
       </c>
-      <c r="G367" s="15">
+      <c r="G388" s="13">
         <v>0.32400000000000001</v>
       </c>
-      <c r="H367" s="6">
+      <c r="H388" s="6">
         <v>0.48832999999999999</v>
       </c>
-      <c r="I367" s="6">
+      <c r="I388" s="6">
         <v>0.47439999999999999</v>
       </c>
-      <c r="J367" s="6">
+      <c r="J388" s="6">
         <v>0.38300000000000001</v>
       </c>
-      <c r="K367" s="6">
+      <c r="K388" s="6">
         <v>0.51100000000000001</v>
       </c>
-      <c r="L367" s="6">
+      <c r="L388" s="6">
         <v>0.52059999999999995</v>
       </c>
-      <c r="M367" s="6">
+      <c r="M388" s="6">
         <v>0.48010000000000003</v>
       </c>
-      <c r="N367" s="6">
+      <c r="N388" s="6">
         <v>0.51449999999999996</v>
       </c>
-      <c r="O367" s="6">
+      <c r="O388" s="6">
         <v>0.53779999999999994</v>
       </c>
-      <c r="P367" s="6">
+      <c r="P388" s="6">
         <v>0.48799999999999999</v>
-      </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A368" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H368" s="15">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I368" s="15">
-        <v>0.999</v>
-      </c>
-      <c r="J368" s="15">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="N368">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O368">
-        <v>0.999</v>
-      </c>
-      <c r="P368">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H369" s="6">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I369" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J369" s="6">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="N369" s="6">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O369" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="P369" s="6">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A370" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H370" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I370" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J370" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K370" s="26"/>
-      <c r="L370" s="26"/>
-      <c r="M370" s="26"/>
-      <c r="N370" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O370" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P370" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A371" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H371" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I371" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J371" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K371" s="26"/>
-      <c r="L371" s="26"/>
-      <c r="M371" s="26"/>
-      <c r="N371" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O371" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="P371" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A372" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H372" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I372" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J372" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K372" s="26"/>
-      <c r="L372" s="26"/>
-      <c r="M372" s="26"/>
-      <c r="N372" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O372" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P372" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="373" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A373" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H373" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I373" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J373" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K373" s="26"/>
-      <c r="L373" s="26"/>
-      <c r="M373" s="26"/>
-      <c r="N373" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O373" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="P373" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H374" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I374" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J374" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K374" s="26"/>
-      <c r="L374" s="26"/>
-      <c r="M374" s="26"/>
-      <c r="N374" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O374" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P374" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A375" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H375" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I375" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J375" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K375" s="26"/>
-      <c r="L375" s="26"/>
-      <c r="M375" s="26"/>
-      <c r="N375" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O375" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="P375" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H376" s="26"/>
-      <c r="I376" s="26"/>
-      <c r="J376" s="26"/>
-      <c r="K376" s="26"/>
-      <c r="L376" s="26"/>
-      <c r="M376" s="26"/>
-      <c r="N376" s="26"/>
-      <c r="O376" s="26"/>
-      <c r="P376" s="26"/>
-    </row>
-    <row r="377" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A377" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H377" s="26"/>
-      <c r="I377" s="26"/>
-      <c r="J377" s="26"/>
-      <c r="K377" s="26"/>
-      <c r="L377" s="26"/>
-      <c r="M377" s="26"/>
-      <c r="N377" s="26"/>
-      <c r="O377" s="26"/>
-      <c r="P377" s="26"/>
-    </row>
-    <row r="378" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A378" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H378" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I378" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J378" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K378" s="26"/>
-      <c r="L378" s="26"/>
-      <c r="M378" s="26"/>
-      <c r="N378" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O378" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P378" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A379" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H379" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I379" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J379" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K379" s="26"/>
-      <c r="L379" s="26"/>
-      <c r="M379" s="26"/>
-      <c r="N379" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O379" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="P379" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A380" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H380" s="26"/>
-      <c r="I380" s="26"/>
-      <c r="J380" s="26"/>
-      <c r="K380" s="26"/>
-      <c r="L380" s="26"/>
-      <c r="M380" s="26"/>
-      <c r="N380" s="26"/>
-      <c r="O380" s="26"/>
-      <c r="P380" s="26"/>
-    </row>
-    <row r="381" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A381" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H381" s="26"/>
-      <c r="I381" s="26"/>
-      <c r="J381" s="26"/>
-      <c r="K381" s="26"/>
-      <c r="L381" s="26"/>
-      <c r="M381" s="26"/>
-      <c r="N381" s="26"/>
-      <c r="O381" s="26"/>
-      <c r="P381" s="26"/>
-    </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A382" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H382" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I382" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J382" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K382" s="26"/>
-      <c r="L382" s="26"/>
-      <c r="M382" s="26"/>
-      <c r="N382" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O382" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P382" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A383" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="H383" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I383" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J383" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K383" s="26"/>
-      <c r="L383" s="26"/>
-      <c r="M383" s="26"/>
-      <c r="N383" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O383" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="P383" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A384" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H384" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I384" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J384" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K384" s="26"/>
-      <c r="L384" s="26"/>
-      <c r="M384" s="26"/>
-      <c r="N384" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O384" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P384" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="385" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A385" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H385" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="I385" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="J385" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-      <c r="K385" s="26"/>
-      <c r="L385" s="26"/>
-      <c r="M385" s="26"/>
-      <c r="N385" s="26">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O385" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="P385" s="26">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A386" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H386" s="26"/>
-      <c r="I386" s="26"/>
-      <c r="J386" s="26"/>
-      <c r="K386" s="26"/>
-      <c r="L386" s="26"/>
-      <c r="M386" s="26"/>
-      <c r="N386" s="26"/>
-      <c r="O386" s="26"/>
-      <c r="P386" s="26"/>
-    </row>
-    <row r="387" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A387" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H387" s="26"/>
-      <c r="I387" s="26"/>
-      <c r="J387" s="26"/>
-      <c r="K387" s="26"/>
-      <c r="L387" s="26"/>
-      <c r="M387" s="26"/>
-      <c r="N387" s="26"/>
-      <c r="O387" s="26"/>
-      <c r="P387" s="26"/>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A388" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H388" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I388" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J388" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K388" s="26"/>
-      <c r="L388" s="26"/>
-      <c r="M388" s="26"/>
-      <c r="N388" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O388" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P388" s="26">
-        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H389" s="26">
+        <v>56</v>
+      </c>
+      <c r="H389" s="13">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I389" s="13">
+        <v>0.999</v>
+      </c>
+      <c r="J389" s="13">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="N389">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O389">
+        <v>0.999</v>
+      </c>
+      <c r="P389">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H390" s="6">
         <v>2.46E-2</v>
       </c>
-      <c r="I389" s="26">
+      <c r="I390" s="6">
         <v>0.5</v>
       </c>
-      <c r="J389" s="26">
+      <c r="J390" s="6">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="K389" s="26"/>
-      <c r="L389" s="26"/>
-      <c r="M389" s="26"/>
-      <c r="N389" s="26">
+      <c r="N390" s="6">
         <v>2.46E-2</v>
       </c>
-      <c r="O389" s="26">
+      <c r="O390" s="6">
         <v>0.5</v>
       </c>
-      <c r="P389" s="26">
+      <c r="P390" s="6">
         <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A390" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H390" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="I390" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="J390" s="26">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="K390" s="26"/>
-      <c r="L390" s="26"/>
-      <c r="M390" s="26"/>
-      <c r="N390" s="26">
-        <v>0.95050000000000001</v>
-      </c>
-      <c r="O390" s="26">
-        <v>0.999</v>
-      </c>
-      <c r="P390" s="26">
-        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H391" s="26">
+        <v>62</v>
+      </c>
+      <c r="H391" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I391" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J391" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K391" s="21"/>
+      <c r="L391" s="21"/>
+      <c r="M391" s="21"/>
+      <c r="N391" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O391" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="P391" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H392" s="21">
         <v>2.46E-2</v>
       </c>
-      <c r="I391" s="26">
+      <c r="I392" s="21">
         <v>0.5</v>
       </c>
-      <c r="J391" s="26">
+      <c r="J392" s="21">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="K391" s="26"/>
-      <c r="L391" s="26"/>
-      <c r="M391" s="26"/>
-      <c r="N391" s="26">
+      <c r="K392" s="21"/>
+      <c r="L392" s="21"/>
+      <c r="M392" s="21"/>
+      <c r="N392" s="21">
         <v>2.46E-2</v>
       </c>
-      <c r="O391" s="26">
+      <c r="O392" s="21">
         <v>0.5</v>
       </c>
-      <c r="P391" s="26">
+      <c r="P392" s="21">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A392" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="393" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="H393" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I393" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J393" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K393" s="21"/>
+      <c r="L393" s="21"/>
+      <c r="M393" s="21"/>
+      <c r="N393" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O393" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="P393" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="H394" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="I394" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J394" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K394" s="21"/>
+      <c r="L394" s="21"/>
+      <c r="M394" s="21"/>
+      <c r="N394" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O394" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P394" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="H395" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I395" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J395" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K395" s="21"/>
+      <c r="L395" s="21"/>
+      <c r="M395" s="21"/>
+      <c r="N395" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O395" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="P395" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H396" s="15">
+        <v>59</v>
+      </c>
+      <c r="H396" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="I396" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J396" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K396" s="21"/>
+      <c r="L396" s="21"/>
+      <c r="M396" s="21"/>
+      <c r="N396" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O396" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P396" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H397" s="21"/>
+      <c r="I397" s="21"/>
+      <c r="J397" s="21"/>
+      <c r="K397" s="21"/>
+      <c r="L397" s="21"/>
+      <c r="M397" s="21"/>
+      <c r="N397" s="21"/>
+      <c r="O397" s="21"/>
+      <c r="P397" s="21"/>
+    </row>
+    <row r="398" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H398" s="21"/>
+      <c r="I398" s="21"/>
+      <c r="J398" s="21"/>
+      <c r="K398" s="21"/>
+      <c r="L398" s="21"/>
+      <c r="M398" s="21"/>
+      <c r="N398" s="21"/>
+      <c r="O398" s="21"/>
+      <c r="P398" s="21"/>
+    </row>
+    <row r="399" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A399" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H399" s="21">
         <v>0.95050000000000001</v>
       </c>
-      <c r="I396" s="15">
+      <c r="I399" s="21">
         <v>0.999</v>
       </c>
-      <c r="J396" s="15">
+      <c r="J399" s="21">
         <v>0.97399999999999998</v>
       </c>
-      <c r="K396" s="15"/>
-      <c r="L396" s="15"/>
-      <c r="M396" s="15"/>
-      <c r="N396" s="15">
+      <c r="K399" s="21"/>
+      <c r="L399" s="21"/>
+      <c r="M399" s="21"/>
+      <c r="N399" s="21">
         <v>0.95050000000000001</v>
       </c>
-      <c r="O396" s="15">
+      <c r="O399" s="21">
         <v>0.999</v>
       </c>
-      <c r="P396" s="15">
+      <c r="P399" s="21">
         <v>0.97399999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A397" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H397" s="6">
+    <row r="400" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H400" s="21">
         <v>2.46E-2</v>
       </c>
-      <c r="I397" s="6">
+      <c r="I400" s="21">
         <v>0.5</v>
       </c>
-      <c r="J397" s="6">
+      <c r="J400" s="21">
         <v>4.6899999999999997E-2</v>
       </c>
-      <c r="K397" s="6"/>
-      <c r="L397" s="6"/>
-      <c r="M397" s="6"/>
-      <c r="N397" s="6">
+      <c r="K400" s="21"/>
+      <c r="L400" s="21"/>
+      <c r="M400" s="21"/>
+      <c r="N400" s="21">
         <v>2.46E-2</v>
       </c>
-      <c r="O397" s="6">
+      <c r="O400" s="21">
         <v>0.5</v>
       </c>
-      <c r="P397" s="6">
+      <c r="P400" s="21">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A398" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A399" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A400" s="7"/>
-    </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A401" s="7"/>
-    </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A402" s="10" t="s">
-        <v>124</v>
-      </c>
+    <row r="401" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H401" s="21"/>
+      <c r="I401" s="21"/>
+      <c r="J401" s="21"/>
+      <c r="K401" s="21"/>
+      <c r="L401" s="21"/>
+      <c r="M401" s="21"/>
+      <c r="N401" s="21"/>
+      <c r="O401" s="21"/>
+      <c r="P401" s="21"/>
+    </row>
+    <row r="402" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H402" s="21"/>
+      <c r="I402" s="21"/>
+      <c r="J402" s="21"/>
+      <c r="K402" s="21"/>
+      <c r="L402" s="21"/>
+      <c r="M402" s="21"/>
+      <c r="N402" s="21"/>
+      <c r="O402" s="21"/>
+      <c r="P402" s="21"/>
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H403">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="I403">
-        <v>1</v>
-      </c>
-      <c r="J403">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="N403">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="O403">
-        <v>1</v>
-      </c>
-      <c r="P403">
-        <v>0.92730000000000001</v>
-      </c>
-    </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H403" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I403" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J403" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K403" s="21"/>
+      <c r="L403" s="21"/>
+      <c r="M403" s="21"/>
+      <c r="N403" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O403" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="P403" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H404">
-        <v>6.8821400000000005E-2</v>
-      </c>
-      <c r="I404">
+        <v>71</v>
+      </c>
+      <c r="H404" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="I404" s="21">
         <v>0.5</v>
       </c>
-      <c r="J404">
-        <v>0.120989</v>
-      </c>
-      <c r="N404">
-        <v>6.8820000000000006E-2</v>
-      </c>
-      <c r="O404">
+      <c r="J404" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K404" s="21"/>
+      <c r="L404" s="21"/>
+      <c r="M404" s="21"/>
+      <c r="N404" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O404" s="21">
         <v>0.5</v>
       </c>
-      <c r="P404">
-        <v>0.12098</v>
+      <c r="P404" s="21">
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A405" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A405" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H405" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I405" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J405" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K405" s="21"/>
+      <c r="L405" s="21"/>
+      <c r="M405" s="21"/>
+      <c r="N405" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O405" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="P405" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H406">
-        <v>0.85750000000000004</v>
-      </c>
-      <c r="I406">
-        <v>0.99329999999999996</v>
-      </c>
-      <c r="J406">
-        <v>0.92</v>
-      </c>
-      <c r="N406">
-        <v>0.9456</v>
-      </c>
-      <c r="O406">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="P406">
-        <v>0.97160000000000002</v>
+        <v>73</v>
+      </c>
+      <c r="H406" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="I406" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J406" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K406" s="21"/>
+      <c r="L406" s="21"/>
+      <c r="M406" s="21"/>
+      <c r="N406" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O406" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P406" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A407" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H407" s="21"/>
+      <c r="I407" s="21"/>
+      <c r="J407" s="21"/>
+      <c r="K407" s="21"/>
+      <c r="L407" s="21"/>
+      <c r="M407" s="21"/>
+      <c r="N407" s="21"/>
+      <c r="O407" s="21"/>
+      <c r="P407" s="21"/>
+    </row>
+    <row r="408" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H408" s="21"/>
+      <c r="I408" s="21"/>
+      <c r="J408" s="21"/>
+      <c r="K408" s="21"/>
+      <c r="L408" s="21"/>
+      <c r="M408" s="21"/>
+      <c r="N408" s="21"/>
+      <c r="O408" s="21"/>
+      <c r="P408" s="21"/>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H409" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I409" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J409" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K409" s="21"/>
+      <c r="L409" s="21"/>
+      <c r="M409" s="21"/>
+      <c r="N409" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O409" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="P409" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A410" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H410" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="I410" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J410" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K410" s="21"/>
+      <c r="L410" s="21"/>
+      <c r="M410" s="21"/>
+      <c r="N410" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O410" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P410" s="21">
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A411" s="10" t="s">
-        <v>126</v>
+      <c r="A411" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H411" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I411" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J411" s="21">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K411" s="21"/>
+      <c r="L411" s="21"/>
+      <c r="M411" s="21"/>
+      <c r="N411" s="21">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O411" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="P411" s="21">
+        <v>0.97399999999999998</v>
       </c>
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H412" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="I412" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="J412" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K412" s="21"/>
+      <c r="L412" s="21"/>
+      <c r="M412" s="21"/>
+      <c r="N412" s="21">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O412" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P412" s="21">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A413" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A414" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A415" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A417" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H417" s="13">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="I417" s="13">
+        <v>0.999</v>
+      </c>
+      <c r="J417" s="13">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K417" s="13"/>
+      <c r="L417" s="13"/>
+      <c r="M417" s="13"/>
+      <c r="N417" s="13">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="O417" s="13">
+        <v>0.999</v>
+      </c>
+      <c r="P417" s="13">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A418" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H418" s="6">
+        <v>2.46E-2</v>
+      </c>
+      <c r="I418" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J418" s="6">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="K418" s="6"/>
+      <c r="L418" s="6"/>
+      <c r="M418" s="6"/>
+      <c r="N418" s="6">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O418" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P418" s="6">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A419" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A420" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A421" s="7"/>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A422" s="7"/>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A423" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A424" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H424">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="I424">
+        <v>1</v>
+      </c>
+      <c r="J424">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="N424">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="O424">
+        <v>1</v>
+      </c>
+      <c r="P424">
+        <v>0.92730000000000001</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A425" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H412">
+      <c r="H425">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I425">
+        <v>0.5</v>
+      </c>
+      <c r="J425">
+        <v>0.120989</v>
+      </c>
+      <c r="N425">
+        <v>6.8820000000000006E-2</v>
+      </c>
+      <c r="O425">
+        <v>0.5</v>
+      </c>
+      <c r="P425">
+        <v>0.12098</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A426" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A427" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H427">
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="I427">
+        <v>0.99329999999999996</v>
+      </c>
+      <c r="J427">
+        <v>0.92</v>
+      </c>
+      <c r="N427">
+        <v>0.9456</v>
+      </c>
+      <c r="O427">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P427">
+        <v>0.97160000000000002</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A432" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A433" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H433">
         <v>0.4</v>
       </c>
-      <c r="I412">
+      <c r="I433">
         <v>0.5</v>
       </c>
-      <c r="J412">
+      <c r="J433">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N412">
+      <c r="N433">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O412">
+      <c r="O433">
         <v>0.5202</v>
       </c>
-      <c r="P412">
+      <c r="P433">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
+    <row r="434" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H413">
+      <c r="H434">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I413">
+      <c r="I434">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J413">
+      <c r="J434">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N413">
+      <c r="N434">
         <v>0.5</v>
       </c>
-      <c r="O413">
+      <c r="O434">
         <v>0.34</v>
       </c>
-      <c r="P413">
+      <c r="P434">
         <v>0.40400000000000003</v>
       </c>
     </row>
@@ -11628,31 +12119,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -14281,7 +14772,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -14306,12 +14797,12 @@
     </row>
     <row r="69" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B70" s="3">
         <v>0.87</v>
@@ -14361,7 +14852,7 @@
     </row>
     <row r="71" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B71" s="9">
         <v>0.87</v>
@@ -14411,7 +14902,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B72">
         <v>0.87</v>
@@ -14461,7 +14952,7 @@
     </row>
     <row r="73" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B73" s="9">
         <v>0.88</v>
@@ -14511,7 +15002,7 @@
     </row>
     <row r="74" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B74" s="9">
         <v>0.87</v>
@@ -14561,7 +15052,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H75">
         <v>0.86980000000000002</v>
@@ -14676,7 +15167,7 @@
     </row>
     <row r="80" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H80">
         <v>0.8609</v>
@@ -14722,7 +15213,7 @@
     </row>
     <row r="82" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H82">
         <v>0.86329999999999996</v>
@@ -14745,7 +15236,7 @@
     </row>
     <row r="83" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H83">
         <v>0.86040000000000005</v>
@@ -14768,7 +15259,7 @@
     </row>
     <row r="84" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H84">
         <v>0.87239999999999995</v>
@@ -14791,7 +15282,7 @@
     </row>
     <row r="85" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H85">
         <v>0.86980000000000002</v>
@@ -14814,7 +15305,7 @@
     </row>
     <row r="86" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H86">
         <v>0.86980000000000002</v>
@@ -16257,12 +16748,12 @@
     </row>
     <row r="93" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B94" s="3">
         <v>0.87</v>
@@ -16312,7 +16803,7 @@
     </row>
     <row r="95" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B95" s="9">
         <v>0.87</v>
@@ -16362,7 +16853,7 @@
     </row>
     <row r="96" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B96">
         <v>0.87</v>
@@ -16412,7 +16903,7 @@
     </row>
     <row r="97" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B97" s="9">
         <v>0.88</v>
@@ -16462,7 +16953,7 @@
     </row>
     <row r="98" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B98" s="9">
         <v>0.87</v>
@@ -16512,7 +17003,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -16627,7 +17118,7 @@
     </row>
     <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -16650,7 +17141,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H105">
         <v>0.94</v>
@@ -16699,12 +17190,12 @@
     </row>
     <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B109" s="3">
         <v>0.87</v>
@@ -16754,7 +17245,7 @@
     </row>
     <row r="110" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B110" s="9">
         <v>0.87</v>
@@ -16804,7 +17295,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B111">
         <v>0.87</v>
@@ -16854,7 +17345,7 @@
     </row>
     <row r="112" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B112" s="9">
         <v>0.88</v>
@@ -16904,7 +17395,7 @@
     </row>
     <row r="113" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B113" s="9">
         <v>0.87</v>
@@ -16954,7 +17445,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H114">
         <v>0.86699999999999999</v>
@@ -17026,12 +17517,12 @@
     </row>
     <row r="118" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B119" s="3">
         <v>0.87</v>
@@ -17081,7 +17572,7 @@
     </row>
     <row r="120" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B120" s="9">
         <v>0.87</v>
@@ -17131,7 +17622,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B121">
         <v>0.87</v>
@@ -17181,7 +17672,7 @@
     </row>
     <row r="122" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B122" s="9">
         <v>0.88</v>
@@ -17231,7 +17722,7 @@
     </row>
     <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B123" s="9">
         <v>0.87</v>
@@ -17281,7 +17772,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -17353,12 +17844,12 @@
     </row>
     <row r="128" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B129" s="3">
         <v>0.88</v>
@@ -17408,7 +17899,7 @@
     </row>
     <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B130" s="9">
         <v>0.87</v>
@@ -17458,7 +17949,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>0.87</v>
@@ -17508,7 +17999,7 @@
     </row>
     <row r="132" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B132" s="9">
         <v>0.88</v>
@@ -17558,7 +18049,7 @@
     </row>
     <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B133" s="9">
         <v>0.87</v>
@@ -17608,7 +18099,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H134">
         <v>0.86699999999999999</v>
@@ -17680,12 +18171,12 @@
     </row>
     <row r="138" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B139" s="3">
         <v>0.88</v>
@@ -17735,7 +18226,7 @@
     </row>
     <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B140" s="9">
         <v>0.87</v>
@@ -17785,7 +18276,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B141">
         <v>0.87</v>
@@ -17835,7 +18326,7 @@
     </row>
     <row r="142" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B142" s="9">
         <v>0.88</v>
@@ -17885,7 +18376,7 @@
     </row>
     <row r="143" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B143" s="9">
         <v>0.87</v>
@@ -17935,7 +18426,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H144">
         <v>0.98</v>
@@ -18007,17 +18498,17 @@
     </row>
     <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B150" s="7">
         <v>0.91249999999999998</v>
@@ -18067,7 +18558,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H151">
         <v>0.92730000000000001</v>
@@ -18090,7 +18581,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H152">
         <v>0.8619</v>
@@ -18113,22 +18604,22 @@
     </row>
     <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H156">
         <v>0.85799999999999998</v>
@@ -18151,12 +18642,12 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H158">
         <v>0.8619</v>
@@ -18179,17 +18670,17 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="H161">
         <v>0.87009999999999998</v>
@@ -18212,7 +18703,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="H162">
         <v>0.86260000000000003</v>
@@ -18235,27 +18726,27 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -18266,7 +18757,7 @@
     </row>
     <row r="170" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -18321,7 +18812,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H172">
         <v>0.86509999999999998</v>
@@ -18436,7 +18927,7 @@
     </row>
     <row r="177" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H177">
         <v>0.92349999999999999</v>
@@ -18482,7 +18973,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H179">
         <v>0.86980000000000002</v>
@@ -18505,7 +18996,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H180">
         <v>0.86980000000000002</v>
@@ -18528,7 +19019,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H181">
         <v>0.87809999999999999</v>
@@ -18551,7 +19042,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H182">
         <v>0.86980000000000002</v>
@@ -18574,7 +19065,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H183">
         <v>0.91679999999999995</v>
@@ -18695,12 +19186,12 @@
     </row>
     <row r="190" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B191">
         <v>0.93740000000000001</v>
@@ -18750,7 +19241,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H192">
         <v>0.86980000000000002</v>
@@ -18865,7 +19356,7 @@
     </row>
     <row r="197" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="H197">
         <v>0.86980000000000002</v>
@@ -18911,7 +19402,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="H199">
         <v>0.86980000000000002</v>
@@ -18934,7 +19425,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H200">
         <v>0.86980000000000002</v>
@@ -18957,7 +19448,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H201">
         <v>0.86870000000000003</v>
@@ -18980,7 +19471,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H202">
         <v>0.86980000000000002</v>
@@ -19003,7 +19494,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H203">
         <v>0.86980000000000002</v>
@@ -19121,12 +19612,12 @@
     </row>
     <row r="209" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B210" s="9">
         <v>0.88</v>
@@ -19179,12 +19670,12 @@
     </row>
     <row r="212" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
@@ -19192,12 +19683,12 @@
     </row>
     <row r="215" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B216" s="9">
         <v>4.0000000000000001E-3</v>
@@ -19250,12 +19741,12 @@
     </row>
     <row r="218" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B219" s="9">
         <v>0.86428700000000003</v>
@@ -19308,7 +19799,7 @@
     </row>
     <row r="221" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
@@ -19369,12 +19860,12 @@
     </row>
     <row r="225" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="H226">
         <v>0.92730000000000001</v>
@@ -19403,12 +19894,12 @@
     </row>
     <row r="229" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H230">
         <v>0.85750000000000004</v>
@@ -19454,30 +19945,30 @@
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="83.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" style="15" customWidth="1"/>
     <col min="4" max="1025" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>187</v>
+        <v>178</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>54</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>189</v>
+      <c r="C2" s="17" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -19487,8 +19978,8 @@
       <c r="B3">
         <v>75</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>190</v>
+      <c r="C3" s="17" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -19498,8 +19989,8 @@
       <c r="B4">
         <v>48</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>191</v>
+      <c r="C4" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -19509,35 +20000,35 @@
       <c r="B5">
         <v>64</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>192</v>
+      <c r="C5" s="17" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B6">
         <v>46</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>194</v>
+      <c r="C6" s="17" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>19</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>196</v>
+      <c r="C9" s="17" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -19547,8 +20038,8 @@
       <c r="B10">
         <v>49</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>197</v>
+      <c r="C10" s="17" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -19558,8 +20049,8 @@
       <c r="B11">
         <v>15</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>198</v>
+      <c r="C11" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -19569,19 +20060,19 @@
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>199</v>
+      <c r="C12" s="17" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>200</v>
+      <c r="C13" s="17" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -19607,137 +20098,137 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="30"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -19768,56 +20259,56 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="24"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B3">
         <v>5.3559799999999997</v>
@@ -19846,7 +20337,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B4">
         <v>3.5419499999999999</v>
@@ -19875,7 +20366,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B5">
         <v>1.2273000000000001</v>
@@ -19933,31 +20424,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -20010,7 +20501,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="R3" s="1"/>
     </row>
@@ -20066,7 +20557,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B5">
         <v>0.79</v>
@@ -20110,13 +20601,13 @@
       <c r="O5">
         <v>0.95</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="18">
         <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B6">
         <v>0.64</v>
@@ -20164,12 +20655,12 @@
         <v>0.12</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B7">
         <v>0.6</v>
@@ -20236,7 +20727,7 @@
       <c r="C8">
         <v>0.74</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>0.85</v>
       </c>
       <c r="E8">
@@ -20245,7 +20736,7 @@
       <c r="F8">
         <v>0.75</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>0.86</v>
       </c>
       <c r="H8">
@@ -20254,7 +20745,7 @@
       <c r="I8">
         <v>0.6</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>0.75</v>
       </c>
       <c r="K8">
@@ -20263,7 +20754,7 @@
       <c r="L8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="18">
         <v>0.61</v>
       </c>
       <c r="N8">
@@ -20272,7 +20763,7 @@
       <c r="O8">
         <v>0.95</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="18">
         <v>0.97</v>
       </c>
       <c r="R8">
@@ -20287,7 +20778,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B9">
         <v>0.62</v>
@@ -20337,7 +20828,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -20392,7 +20883,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B13">
         <v>0.76</v>
@@ -20436,13 +20927,13 @@
       <c r="O13">
         <v>0.95</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="18">
         <v>0.96</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B14">
         <v>0.85</v>
@@ -20492,7 +20983,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B15">
         <v>0.81</v>
@@ -20550,7 +21041,7 @@
       <c r="C16">
         <v>0.72</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <v>0.83</v>
       </c>
       <c r="E16">
@@ -20559,7 +21050,7 @@
       <c r="F16">
         <v>0.76</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <v>0.86</v>
       </c>
       <c r="H16">
@@ -20568,7 +21059,7 @@
       <c r="I16">
         <v>0.6</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="18">
         <v>0.75</v>
       </c>
       <c r="K16">
@@ -20577,7 +21068,7 @@
       <c r="L16">
         <v>0.53</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="18">
         <v>0.66</v>
       </c>
       <c r="N16">
@@ -20586,13 +21077,13 @@
       <c r="O16">
         <v>0.95</v>
       </c>
-      <c r="P16" s="20">
+      <c r="P16" s="18">
         <v>0.97</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B17">
         <v>0.52</v>
@@ -20697,7 +21188,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B21">
         <v>0.79</v>
@@ -20741,13 +21232,13 @@
       <c r="O21">
         <v>0.95</v>
       </c>
-      <c r="P21" s="20">
+      <c r="P21" s="18">
         <v>0.97</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B22">
         <v>0.68</v>
@@ -20797,7 +21288,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B23">
         <v>0.57999999999999996</v>
@@ -20855,7 +21346,7 @@
       <c r="C24">
         <v>0.72</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>0.84</v>
       </c>
       <c r="E24">
@@ -20864,7 +21355,7 @@
       <c r="F24">
         <v>0.77</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="18">
         <v>0.87</v>
       </c>
       <c r="H24">
@@ -20873,7 +21364,7 @@
       <c r="I24">
         <v>0.6</v>
       </c>
-      <c r="J24" s="20">
+      <c r="J24" s="18">
         <v>0.75</v>
       </c>
       <c r="K24">
@@ -20882,7 +21373,7 @@
       <c r="L24">
         <v>0.56999999999999995</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="18">
         <v>0.61</v>
       </c>
       <c r="N24">
@@ -20891,13 +21382,13 @@
       <c r="O24">
         <v>0.95</v>
       </c>
-      <c r="P24" s="20">
+      <c r="P24" s="18">
         <v>0.97</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B25">
         <v>0.62</v>
@@ -21057,18 +21548,18 @@
     </row>
     <row r="37" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J37">
         <v>0.39800000000000002</v>
       </c>
       <c r="P37" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="H38">
         <v>0.62480000000000002</v>
@@ -21091,7 +21582,7 @@
     </row>
     <row r="39" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H39">
         <v>0.62450000000000006</v>
@@ -21114,7 +21605,7 @@
     </row>
     <row r="40" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H40">
         <v>0.62450000000000006</v>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -914,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -955,14 +955,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1319,7 +1322,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A348" sqref="A348"/>
-      <selection pane="bottomRight" activeCell="J342" sqref="J342"/>
+      <selection pane="bottomRight" activeCell="J348" sqref="J348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,31 +1335,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -9590,34 +9593,34 @@
       </c>
     </row>
     <row r="316" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="12" t="s">
+      <c r="A316" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B316" s="21"/>
-      <c r="C316" s="21"/>
-      <c r="D316" s="21"/>
-      <c r="E316" s="21"/>
-      <c r="F316" s="21"/>
-      <c r="G316" s="21"/>
-      <c r="H316" s="21">
+      <c r="B316" s="19"/>
+      <c r="C316" s="19"/>
+      <c r="D316" s="19"/>
+      <c r="E316" s="19"/>
+      <c r="F316" s="19"/>
+      <c r="G316" s="19"/>
+      <c r="H316" s="19">
         <v>0.496</v>
       </c>
-      <c r="I316" s="21">
+      <c r="I316" s="19">
         <v>0.49099999999999999</v>
       </c>
-      <c r="J316" s="21">
+      <c r="J316" s="19">
         <v>0.441</v>
       </c>
-      <c r="K316" s="21"/>
-      <c r="L316" s="21"/>
-      <c r="M316" s="21"/>
-      <c r="N316" s="21">
+      <c r="K316" s="19"/>
+      <c r="L316" s="19"/>
+      <c r="M316" s="19"/>
+      <c r="N316" s="19">
         <v>0.503</v>
       </c>
-      <c r="O316" s="21">
+      <c r="O316" s="19">
         <v>0.51500000000000001</v>
       </c>
-      <c r="P316" s="21">
+      <c r="P316" s="19">
         <v>0.45600000000000002</v>
       </c>
     </row>
@@ -9653,35 +9656,26 @@
         <v>0.81679999999999997</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="12" t="s">
+    <row r="318" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B318" s="21"/>
-      <c r="C318" s="21"/>
-      <c r="D318" s="21"/>
-      <c r="E318" s="21"/>
-      <c r="F318" s="21"/>
-      <c r="G318" s="21"/>
-      <c r="H318" s="21">
+      <c r="H318" s="19">
         <v>0.4647</v>
       </c>
-      <c r="I318" s="21">
+      <c r="I318" s="19">
         <v>0.42220000000000002</v>
       </c>
-      <c r="J318" s="21">
+      <c r="J318" s="19">
         <v>0.39400000000000002</v>
       </c>
-      <c r="K318" s="21"/>
-      <c r="L318" s="21"/>
-      <c r="M318" s="21"/>
-      <c r="N318" s="21">
+      <c r="N318" s="19">
         <v>0.503</v>
       </c>
-      <c r="O318" s="21">
+      <c r="O318" s="19">
         <v>0.51500000000000001</v>
       </c>
-      <c r="P318" s="21">
+      <c r="P318" s="19">
         <v>0.45600000000000002</v>
       </c>
     </row>
@@ -9759,15 +9753,27 @@
       <c r="E321" s="21"/>
       <c r="F321" s="21"/>
       <c r="G321" s="21"/>
-      <c r="H321" s="21"/>
-      <c r="I321" s="21"/>
-      <c r="J321" s="21"/>
+      <c r="H321" s="21">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="I321" s="21">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="J321" s="21">
+        <v>0.85409999999999997</v>
+      </c>
       <c r="K321" s="21"/>
       <c r="L321" s="21"/>
       <c r="M321" s="21"/>
-      <c r="N321" s="21"/>
-      <c r="O321" s="21"/>
-      <c r="P321" s="21"/>
+      <c r="N321" s="21">
+        <v>0.9466</v>
+      </c>
+      <c r="O321" s="21">
+        <v>0.44030000000000002</v>
+      </c>
+      <c r="P321" s="21">
+        <v>0.59689999999999999</v>
+      </c>
     </row>
     <row r="322" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="12" t="s">
@@ -9779,15 +9785,27 @@
       <c r="E322" s="21"/>
       <c r="F322" s="21"/>
       <c r="G322" s="21"/>
-      <c r="H322" s="21"/>
-      <c r="I322" s="21"/>
-      <c r="J322" s="21"/>
+      <c r="H322" s="21">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="I322" s="21">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="J322" s="21">
+        <v>0.47549999999999998</v>
+      </c>
       <c r="K322" s="21"/>
       <c r="L322" s="21"/>
       <c r="M322" s="21"/>
-      <c r="N322" s="21"/>
-      <c r="O322" s="21"/>
-      <c r="P322" s="21"/>
+      <c r="N322" s="21">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="O322" s="21">
+        <v>0.4753</v>
+      </c>
+      <c r="P322" s="21">
+        <v>0.34200000000000003</v>
+      </c>
     </row>
     <row r="323" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="12" t="s">
@@ -9799,15 +9817,27 @@
       <c r="E323" s="21"/>
       <c r="F323" s="21"/>
       <c r="G323" s="21"/>
-      <c r="H323" s="21"/>
-      <c r="I323" s="21"/>
-      <c r="J323" s="21"/>
+      <c r="H323" s="21">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I323" s="21">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="J323" s="21">
+        <v>0.90169999999999995</v>
+      </c>
       <c r="K323" s="21"/>
       <c r="L323" s="21"/>
       <c r="M323" s="21"/>
-      <c r="N323" s="21"/>
-      <c r="O323" s="21"/>
-      <c r="P323" s="21"/>
+      <c r="N323" s="21">
+        <v>0.9506</v>
+      </c>
+      <c r="O323" s="21">
+        <v>1</v>
+      </c>
+      <c r="P323" s="21">
+        <v>0.97450000000000003</v>
+      </c>
     </row>
     <row r="324" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="12" t="s">
@@ -9819,15 +9849,27 @@
       <c r="E324" s="21"/>
       <c r="F324" s="21"/>
       <c r="G324" s="21"/>
-      <c r="H324" s="21"/>
-      <c r="I324" s="21"/>
-      <c r="J324" s="21"/>
+      <c r="H324" s="21">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="I324" s="21">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="J324" s="21">
+        <v>0.4859</v>
+      </c>
       <c r="K324" s="21"/>
       <c r="L324" s="21"/>
       <c r="M324" s="21"/>
-      <c r="N324" s="21"/>
-      <c r="O324" s="21"/>
-      <c r="P324" s="21"/>
+      <c r="N324" s="21">
+        <v>0.502</v>
+      </c>
+      <c r="O324" s="21">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="P324" s="21">
+        <v>0.32300000000000001</v>
+      </c>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="12" t="s">
@@ -9861,35 +9903,26 @@
         <v>0.95269999999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A326" s="12" t="s">
+    <row r="326" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B326" s="21"/>
-      <c r="C326" s="21"/>
-      <c r="D326" s="21"/>
-      <c r="E326" s="21"/>
-      <c r="F326" s="21"/>
-      <c r="G326" s="21"/>
-      <c r="H326">
+      <c r="H326" s="19">
         <v>0.51800000000000002</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="19">
         <v>0.53900000000000003</v>
       </c>
-      <c r="J326">
+      <c r="J326" s="19">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K326" s="21"/>
-      <c r="L326" s="21"/>
-      <c r="M326" s="21"/>
-      <c r="N326" s="21">
+      <c r="N326" s="19">
         <v>0.50600000000000001</v>
       </c>
-      <c r="O326" s="21">
+      <c r="O326" s="19">
         <v>0.51600000000000001</v>
       </c>
-      <c r="P326" s="21">
+      <c r="P326" s="19">
         <v>0.49399999999999999</v>
       </c>
     </row>
@@ -10095,35 +10128,50 @@
       <c r="E333" s="21"/>
       <c r="F333" s="21"/>
       <c r="G333" s="21"/>
-      <c r="H333" s="21"/>
-      <c r="I333" s="21"/>
-      <c r="J333" s="21"/>
+      <c r="H333" s="21">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="I333" s="21">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="J333" s="21">
+        <v>0.68659999999999999</v>
+      </c>
       <c r="K333" s="21"/>
       <c r="L333" s="21"/>
       <c r="M333" s="21"/>
-      <c r="N333" s="21"/>
-      <c r="O333" s="21"/>
-      <c r="P333" s="21"/>
-    </row>
-    <row r="334" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A334" s="12" t="s">
+      <c r="N333" s="21">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="O333" s="21">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="P333" s="21">
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A334" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B334" s="21"/>
-      <c r="C334" s="21"/>
-      <c r="D334" s="21"/>
-      <c r="E334" s="21"/>
-      <c r="F334" s="21"/>
-      <c r="G334" s="21"/>
-      <c r="H334" s="21"/>
-      <c r="I334" s="21"/>
-      <c r="J334" s="21"/>
-      <c r="K334" s="21"/>
-      <c r="L334" s="21"/>
-      <c r="M334" s="21"/>
-      <c r="N334" s="21"/>
-      <c r="O334" s="21"/>
-      <c r="P334" s="21"/>
+      <c r="H334" s="19">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="I334" s="19">
+        <v>0.4612</v>
+      </c>
+      <c r="J334" s="19">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="N334" s="19">
+        <v>0.5111</v>
+      </c>
+      <c r="O334" s="19">
+        <v>0.5242</v>
+      </c>
+      <c r="P334" s="19">
+        <v>0.45760000000000001</v>
+      </c>
     </row>
     <row r="335" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="12" t="s">
@@ -10221,35 +10269,26 @@
         <v>0.84119999999999995</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="12" t="s">
+    <row r="338" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B338" s="21"/>
-      <c r="C338" s="21"/>
-      <c r="D338" s="21"/>
-      <c r="E338" s="21"/>
-      <c r="F338" s="21"/>
-      <c r="G338" s="21"/>
-      <c r="H338" s="21">
+      <c r="H338" s="19">
         <v>0.46529999999999999</v>
       </c>
-      <c r="I338" s="21">
+      <c r="I338" s="19">
         <v>0.4249</v>
       </c>
-      <c r="J338" s="21">
+      <c r="J338" s="19">
         <v>0.35139999999999999</v>
       </c>
-      <c r="K338" s="21"/>
-      <c r="L338" s="21"/>
-      <c r="M338" s="21"/>
-      <c r="N338" s="21">
+      <c r="N338" s="19">
         <v>0.50070000000000003</v>
       </c>
-      <c r="O338" s="21">
+      <c r="O338" s="19">
         <v>0.503</v>
       </c>
-      <c r="P338" s="21">
+      <c r="P338" s="19">
         <v>0.4632</v>
       </c>
     </row>
@@ -10391,35 +10430,50 @@
       <c r="E343" s="21"/>
       <c r="F343" s="21"/>
       <c r="G343" s="21"/>
-      <c r="H343" s="21"/>
-      <c r="I343" s="21"/>
-      <c r="J343" s="21"/>
+      <c r="H343" s="21">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="I343" s="21">
+        <v>0.996</v>
+      </c>
+      <c r="J343" s="21">
+        <v>0.92810000000000004</v>
+      </c>
       <c r="K343" s="21"/>
       <c r="L343" s="21"/>
       <c r="M343" s="21"/>
-      <c r="N343" s="21"/>
-      <c r="O343" s="21"/>
-      <c r="P343" s="21"/>
-    </row>
-    <row r="344" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="12" t="s">
+      <c r="N343" s="21">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="O343" s="21">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="P343" s="21">
+        <v>0.62719999999999998</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B344" s="21"/>
-      <c r="C344" s="21"/>
-      <c r="D344" s="21"/>
-      <c r="E344" s="21"/>
-      <c r="F344" s="21"/>
-      <c r="G344" s="21"/>
-      <c r="H344" s="21"/>
-      <c r="I344" s="21"/>
-      <c r="J344" s="21"/>
-      <c r="K344" s="21"/>
-      <c r="L344" s="21"/>
-      <c r="M344" s="21"/>
-      <c r="N344" s="21"/>
-      <c r="O344" s="21"/>
-      <c r="P344" s="21"/>
+      <c r="H344" s="19">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I344" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="J344" s="19">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N344" s="19">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="O344" s="19">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="P344" s="19">
+        <v>0.35599999999999998</v>
+      </c>
     </row>
     <row r="345" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="12" t="s">
@@ -10431,15 +10485,27 @@
       <c r="E345" s="21"/>
       <c r="F345" s="21"/>
       <c r="G345" s="21"/>
-      <c r="H345" s="21"/>
-      <c r="I345" s="21"/>
-      <c r="J345" s="21"/>
+      <c r="H345" s="21">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I345" s="21">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="J345" s="21">
+        <v>0.91590000000000005</v>
+      </c>
       <c r="K345" s="21"/>
       <c r="L345" s="21"/>
       <c r="M345" s="21"/>
-      <c r="N345" s="21"/>
-      <c r="O345" s="21"/>
-      <c r="P345" s="21"/>
+      <c r="N345" s="21">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="O345" s="21">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P345" s="21">
+        <v>7.6899999999999996E-2</v>
+      </c>
     </row>
     <row r="346" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="12" t="s">
@@ -10451,15 +10517,27 @@
       <c r="E346" s="21"/>
       <c r="F346" s="21"/>
       <c r="G346" s="21"/>
-      <c r="H346" s="21"/>
-      <c r="I346" s="21"/>
-      <c r="J346" s="21"/>
+      <c r="H346" s="21">
+        <v>0.4924</v>
+      </c>
+      <c r="I346" s="21">
+        <v>0.498</v>
+      </c>
+      <c r="J346" s="21">
+        <v>0.48099999999999998</v>
+      </c>
       <c r="K346" s="21"/>
       <c r="L346" s="21"/>
       <c r="M346" s="21"/>
-      <c r="N346" s="21"/>
-      <c r="O346" s="21"/>
-      <c r="P346" s="21"/>
+      <c r="N346" s="21">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="O346" s="21">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="P346" s="21">
+        <v>8.5999999999999993E-2</v>
+      </c>
     </row>
     <row r="347" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="12" t="s">
@@ -10471,15 +10549,27 @@
       <c r="E347" s="21"/>
       <c r="F347" s="21"/>
       <c r="G347" s="21"/>
-      <c r="H347" s="21"/>
-      <c r="I347" s="21"/>
-      <c r="J347" s="21"/>
+      <c r="H347" s="21">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I347" s="21">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="J347" s="21">
+        <v>0.64100000000000001</v>
+      </c>
       <c r="K347" s="21"/>
       <c r="L347" s="21"/>
       <c r="M347" s="21"/>
-      <c r="N347" s="21"/>
-      <c r="O347" s="21"/>
-      <c r="P347" s="21"/>
+      <c r="N347" s="21">
+        <v>0.9526</v>
+      </c>
+      <c r="O347" s="21">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="P347" s="21">
+        <v>0.17449999999999999</v>
+      </c>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="12" t="s">
@@ -10491,15 +10581,27 @@
       <c r="E348" s="21"/>
       <c r="F348" s="21"/>
       <c r="G348" s="21"/>
-      <c r="H348" s="21"/>
-      <c r="I348" s="21"/>
-      <c r="J348" s="21"/>
+      <c r="H348" s="21">
+        <v>0.5272</v>
+      </c>
+      <c r="I348" s="21">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J348" s="21">
+        <v>0.4456</v>
+      </c>
       <c r="K348" s="21"/>
       <c r="L348" s="21"/>
       <c r="M348" s="21"/>
-      <c r="N348" s="21"/>
-      <c r="O348" s="21"/>
-      <c r="P348" s="21"/>
+      <c r="N348" s="21">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="O348" s="21">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="P348" s="21">
+        <v>0.13469999999999999</v>
+      </c>
     </row>
     <row r="349" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="12"/>
@@ -10520,7 +10622,7 @@
       <c r="P349" s="21"/>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A350" s="26" t="s">
+      <c r="A350" s="24" t="s">
         <v>114</v>
       </c>
       <c r="B350" s="21"/>
@@ -10549,15 +10651,15 @@
       <c r="E351" s="21"/>
       <c r="F351" s="21"/>
       <c r="G351" s="21"/>
-      <c r="H351" s="27"/>
-      <c r="I351" s="27"/>
-      <c r="J351" s="27"/>
+      <c r="H351" s="25"/>
+      <c r="I351" s="25"/>
+      <c r="J351" s="25"/>
       <c r="K351" s="22"/>
       <c r="L351" s="22"/>
       <c r="M351" s="22"/>
       <c r="N351" s="22"/>
       <c r="O351" s="22"/>
-      <c r="P351" s="27"/>
+      <c r="P351" s="25"/>
     </row>
     <row r="352" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="20" t="s">
@@ -10571,7 +10673,7 @@
       <c r="G352" s="21"/>
       <c r="H352" s="22"/>
       <c r="I352" s="22"/>
-      <c r="J352" s="27"/>
+      <c r="J352" s="25"/>
       <c r="K352" s="22"/>
       <c r="L352" s="22"/>
       <c r="M352" s="22"/>
@@ -11191,7 +11293,7 @@
       <c r="M383" s="22"/>
       <c r="N383" s="22"/>
       <c r="O383" s="22"/>
-      <c r="P383" s="27"/>
+      <c r="P383" s="25"/>
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" s="20" t="s">
@@ -12119,31 +12221,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -20100,22 +20202,22 @@
       <c r="A1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="25"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -20261,22 +20363,22 @@
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="24"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -20424,31 +20526,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="241">
   <si>
     <t>Model</t>
   </si>
@@ -1333,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R453"/>
+  <dimension ref="A1:R455"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
-      <selection pane="bottomRight" activeCell="J220" sqref="J220"/>
+      <selection pane="bottomRight" activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8850,666 +8850,621 @@
         <v>104</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A251" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A252" s="7" t="s">
-        <v>57</v>
+    <row r="251" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="29" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="264" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="266" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="268" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="270" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="278" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="7"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="10" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="7"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="10" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="292" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="294" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="295" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="296" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="298" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="300" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="302" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="304" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="306" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="314" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A321" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A322" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A321" s="7"/>
-    </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A322" s="11" t="s">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A323" s="7"/>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A324" s="11" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A323" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H323">
-        <v>0.98</v>
-      </c>
-      <c r="I323">
-        <v>0.86</v>
-      </c>
-      <c r="J323">
-        <v>0.91</v>
-      </c>
-      <c r="N323">
-        <v>1</v>
-      </c>
-      <c r="O323">
-        <v>0.95</v>
-      </c>
-      <c r="P323">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A324" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H324">
-        <v>0.51063999999999998</v>
-      </c>
-      <c r="I324">
-        <v>0.50104400000000004</v>
-      </c>
-      <c r="J324">
-        <v>0.47427999999999998</v>
-      </c>
-      <c r="N324">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="O324">
-        <v>0.5</v>
-      </c>
-      <c r="P324">
-        <v>0.48610100000000001</v>
       </c>
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H325">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="I325">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="J325">
-        <v>0.81</v>
+        <v>0.91</v>
       </c>
       <c r="N325">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O325">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="P325">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="H326">
-        <v>0.52729999999999999</v>
+        <v>0.51063999999999998</v>
       </c>
       <c r="I326">
-        <v>0.52300000000000002</v>
+        <v>0.50104400000000004</v>
       </c>
       <c r="J326">
-        <v>0.52428900000000001</v>
+        <v>0.47427999999999998</v>
       </c>
       <c r="N326">
-        <v>0.51158499999999996</v>
+        <v>0.47289999999999999</v>
       </c>
       <c r="O326">
-        <v>0.50997000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="P326">
-        <v>0.51049999999999995</v>
+        <v>0.48610100000000001</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H327">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="I327">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="J327">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="N327">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O327">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="P327">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="328" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H328">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I328">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J328">
+        <v>0.52428900000000001</v>
+      </c>
+      <c r="N328">
+        <v>0.51158499999999996</v>
+      </c>
+      <c r="O328">
+        <v>0.50997000000000003</v>
+      </c>
+      <c r="P328">
+        <v>0.51049999999999995</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A329" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H329">
+        <v>0.75</v>
+      </c>
+      <c r="I329">
+        <v>0.76</v>
+      </c>
+      <c r="J329">
+        <v>0.76</v>
+      </c>
+      <c r="N329">
+        <v>0.9</v>
+      </c>
+      <c r="O329">
+        <v>0.9</v>
+      </c>
+      <c r="P329">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H328">
+      <c r="H330">
         <v>0.51670000000000005</v>
       </c>
-      <c r="I328">
+      <c r="I330">
         <v>0.51490000000000002</v>
       </c>
-      <c r="J328">
+      <c r="J330">
         <v>0.51500000000000001</v>
       </c>
-      <c r="N328">
+      <c r="N330">
         <v>0.49696000000000001</v>
       </c>
-      <c r="O328">
+      <c r="O330">
         <v>0.49697999999999998</v>
       </c>
-      <c r="P328">
+      <c r="P330">
         <v>0.49697000000000002</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A329" s="7"/>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A330" s="10" t="s">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A331" s="7"/>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A332" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A331" s="12" t="s">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A333" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B331">
+      <c r="B333">
         <v>0.93799999999999994</v>
       </c>
-      <c r="C331">
+      <c r="C333">
         <v>0.79749999999999999</v>
       </c>
-      <c r="D331">
+      <c r="D333">
         <v>0.86160000000000003</v>
       </c>
-      <c r="E331">
+      <c r="E333">
         <v>0.82899999999999996</v>
       </c>
-      <c r="F331">
+      <c r="F333">
         <v>0.76200000000000001</v>
       </c>
-      <c r="G331">
+      <c r="G333">
         <v>0.79279999999999995</v>
       </c>
-      <c r="H331">
+      <c r="H333">
         <v>0.86319999999999997</v>
       </c>
-      <c r="I331">
+      <c r="I333">
         <v>0.66349999999999998</v>
       </c>
-      <c r="J331">
+      <c r="J333">
         <v>0.74939999999999996</v>
       </c>
-      <c r="K331">
+      <c r="K333">
         <v>0.84730000000000005</v>
       </c>
-      <c r="L331">
+      <c r="L333">
         <v>0.74829999999999997</v>
       </c>
-      <c r="M331">
+      <c r="M333">
         <v>0.79410000000000003</v>
       </c>
-      <c r="N331">
+      <c r="N333">
         <v>0.95420000000000005</v>
       </c>
-      <c r="O331">
+      <c r="O333">
         <v>0.71499999999999997</v>
       </c>
-      <c r="P331">
+      <c r="P333">
         <v>0.81440000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A332" s="12" t="s">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A334" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B332">
+      <c r="B334">
         <v>0.501</v>
       </c>
-      <c r="C332">
+      <c r="C334">
         <v>0.504</v>
       </c>
-      <c r="D332">
+      <c r="D334">
         <v>0.48</v>
       </c>
-      <c r="E332">
+      <c r="E334">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F332">
+      <c r="F334">
         <v>0.52039999999999997</v>
       </c>
-      <c r="G332">
+      <c r="G334">
         <v>0.51449999999999996</v>
       </c>
-      <c r="H332">
+      <c r="H334">
         <v>0.49009999999999998</v>
       </c>
-      <c r="I332">
+      <c r="I334">
         <v>0.4803</v>
       </c>
-      <c r="J332">
+      <c r="J334">
         <v>0.45860000000000001</v>
       </c>
-      <c r="K332">
+      <c r="K334">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L332">
+      <c r="L334">
         <v>0.51139999999999997</v>
       </c>
-      <c r="M332">
+      <c r="M334">
         <v>0.502</v>
       </c>
-      <c r="N332">
+      <c r="N334">
         <v>0.50439999999999996</v>
       </c>
-      <c r="O332">
+      <c r="O334">
         <v>0.51939999999999997</v>
       </c>
-      <c r="P332">
+      <c r="P334">
         <v>0.45669999999999999</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A333" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B333" s="13"/>
-      <c r="C333" s="13"/>
-      <c r="D333" s="13"/>
-      <c r="E333" s="13"/>
-      <c r="F333" s="13"/>
-      <c r="G333" s="13"/>
-      <c r="H333" s="13">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="I333" s="13">
-        <v>0.57509999999999994</v>
-      </c>
-      <c r="J333" s="13">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="K333" s="13"/>
-      <c r="L333" s="13"/>
-      <c r="M333" s="13"/>
-      <c r="N333" s="13">
-        <v>0.95269999999999999</v>
-      </c>
-      <c r="O333" s="13">
-        <v>0.71719999999999995</v>
-      </c>
-      <c r="P333" s="13">
-        <v>0.81679999999999997</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H334" s="6">
-        <v>0.496</v>
-      </c>
-      <c r="I334" s="6">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="J334" s="6">
-        <v>0.441</v>
-      </c>
-      <c r="N334" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="O334" s="6">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="P334" s="6">
-        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B335" s="13"/>
       <c r="C335" s="13"/>
@@ -9518,13 +9473,13 @@
       <c r="F335" s="13"/>
       <c r="G335" s="13"/>
       <c r="H335" s="13">
-        <v>0.83720000000000006</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="I335" s="13">
-        <v>0.52710000000000001</v>
+        <v>0.57509999999999994</v>
       </c>
       <c r="J335" s="13">
-        <v>0.64419999999999999</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="K335" s="13"/>
       <c r="L335" s="13"/>
@@ -9539,18 +9494,18 @@
         <v>0.81679999999999997</v>
       </c>
     </row>
-    <row r="336" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H336" s="6">
-        <v>0.4647</v>
+        <v>0.496</v>
       </c>
       <c r="I336" s="6">
-        <v>0.42220000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="J336" s="6">
-        <v>0.39400000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="N336" s="6">
         <v>0.503</v>
@@ -9564,7 +9519,7 @@
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -9573,62 +9528,53 @@
       <c r="F337" s="13"/>
       <c r="G337" s="13"/>
       <c r="H337" s="13">
-        <v>0.82820000000000005</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="I337" s="13">
-        <v>0.39660000000000001</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="J337" s="13">
-        <v>0.53210000000000002</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="K337" s="13"/>
       <c r="L337" s="13"/>
       <c r="M337" s="13"/>
       <c r="N337" s="13">
-        <v>0.94799999999999995</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="O337" s="13">
-        <v>0.45129999999999998</v>
+        <v>0.71719999999999995</v>
       </c>
       <c r="P337" s="13">
-        <v>0.60940000000000005</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A338" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B338" s="13"/>
-      <c r="C338" s="13"/>
-      <c r="D338" s="13"/>
-      <c r="E338" s="13"/>
-      <c r="F338" s="13"/>
-      <c r="G338" s="13"/>
-      <c r="H338" s="13">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="I338" s="13">
-        <v>0.4289</v>
-      </c>
-      <c r="J338" s="13">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="K338" s="13"/>
-      <c r="L338" s="13"/>
-      <c r="M338" s="13"/>
-      <c r="N338" s="13">
-        <v>0.49959999999999999</v>
-      </c>
-      <c r="O338" s="13">
-        <v>0.498</v>
-      </c>
-      <c r="P338" s="13">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.81679999999999997</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H338" s="6">
+        <v>0.4647</v>
+      </c>
+      <c r="I338" s="6">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="J338" s="6">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="N338" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="O338" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P338" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -9637,30 +9583,30 @@
       <c r="F339" s="13"/>
       <c r="G339" s="13"/>
       <c r="H339" s="13">
-        <v>0.86309999999999998</v>
+        <v>0.82820000000000005</v>
       </c>
       <c r="I339" s="13">
-        <v>0.84689999999999999</v>
+        <v>0.39660000000000001</v>
       </c>
       <c r="J339" s="13">
-        <v>0.85409999999999997</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="K339" s="13"/>
       <c r="L339" s="13"/>
       <c r="M339" s="13"/>
       <c r="N339" s="13">
-        <v>0.9466</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="O339" s="13">
-        <v>0.44030000000000002</v>
+        <v>0.45129999999999998</v>
       </c>
       <c r="P339" s="13">
-        <v>0.59689999999999999</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="340" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B340" s="13"/>
       <c r="C340" s="13"/>
@@ -9669,30 +9615,30 @@
       <c r="F340" s="13"/>
       <c r="G340" s="13"/>
       <c r="H340" s="13">
-        <v>0.47710000000000002</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="I340" s="13">
-        <v>0.47439999999999999</v>
+        <v>0.4289</v>
       </c>
       <c r="J340" s="13">
-        <v>0.47549999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="K340" s="13"/>
       <c r="L340" s="13"/>
       <c r="M340" s="13"/>
       <c r="N340" s="13">
-        <v>0.49530000000000002</v>
+        <v>0.49959999999999999</v>
       </c>
       <c r="O340" s="13">
-        <v>0.4753</v>
+        <v>0.498</v>
       </c>
       <c r="P340" s="13">
-        <v>0.34200000000000003</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="341" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -9701,30 +9647,30 @@
       <c r="F341" s="13"/>
       <c r="G341" s="13"/>
       <c r="H341" s="13">
-        <v>0.90200000000000002</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="I341" s="13">
-        <v>0.58579999999999999</v>
+        <v>0.84689999999999999</v>
       </c>
       <c r="J341" s="13">
-        <v>0.90169999999999995</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="K341" s="13"/>
       <c r="L341" s="13"/>
       <c r="M341" s="13"/>
       <c r="N341" s="13">
-        <v>0.9506</v>
+        <v>0.9466</v>
       </c>
       <c r="O341" s="13">
-        <v>1</v>
+        <v>0.44030000000000002</v>
       </c>
       <c r="P341" s="13">
-        <v>0.97450000000000003</v>
+        <v>0.59689999999999999</v>
       </c>
     </row>
     <row r="342" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -9733,30 +9679,30 @@
       <c r="F342" s="13"/>
       <c r="G342" s="13"/>
       <c r="H342" s="13">
-        <v>0.53610000000000002</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="I342" s="13">
-        <v>0.57920000000000005</v>
+        <v>0.47439999999999999</v>
       </c>
       <c r="J342" s="13">
-        <v>0.4859</v>
+        <v>0.47549999999999998</v>
       </c>
       <c r="K342" s="13"/>
       <c r="L342" s="13"/>
       <c r="M342" s="13"/>
       <c r="N342" s="13">
-        <v>0.502</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="O342" s="13">
-        <v>0.51100000000000001</v>
+        <v>0.4753</v>
       </c>
       <c r="P342" s="13">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -9764,54 +9710,63 @@
       <c r="E343" s="13"/>
       <c r="F343" s="13"/>
       <c r="G343" s="13"/>
-      <c r="H343">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="I343">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="J343">
-        <v>0.71779999999999999</v>
+      <c r="H343" s="13">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I343" s="13">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="J343" s="13">
+        <v>0.90169999999999995</v>
       </c>
       <c r="K343" s="13"/>
       <c r="L343" s="13"/>
       <c r="M343" s="13"/>
       <c r="N343" s="13">
-        <v>0.89939999999999998</v>
+        <v>0.9506</v>
       </c>
       <c r="O343" s="13">
-        <v>0.85340000000000005</v>
+        <v>1</v>
       </c>
       <c r="P343" s="13">
-        <v>0.95269999999999999</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A344" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H344" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="I344" s="6">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="J344" s="6">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="N344" s="6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="O344" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="P344" s="6">
-        <v>0.49399999999999999</v>
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A344" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
+      <c r="H344" s="13">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="I344" s="13">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="J344" s="13">
+        <v>0.4859</v>
+      </c>
+      <c r="K344" s="13"/>
+      <c r="L344" s="13"/>
+      <c r="M344" s="13"/>
+      <c r="N344" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="O344" s="13">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="P344" s="13">
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -9819,63 +9774,54 @@
       <c r="E345" s="13"/>
       <c r="F345" s="13"/>
       <c r="G345" s="13"/>
-      <c r="H345" s="13">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="I345" s="13">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="J345" s="13">
-        <v>0.1605</v>
+      <c r="H345">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="I345">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="J345">
+        <v>0.71779999999999999</v>
       </c>
       <c r="K345" s="13"/>
       <c r="L345" s="13"/>
       <c r="M345" s="13"/>
       <c r="N345" s="13">
-        <v>0.92500000000000004</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="O345" s="13">
-        <v>4.5100000000000001E-2</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="P345" s="13">
-        <v>8.5099999999999995E-2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B346" s="13"/>
-      <c r="C346" s="13"/>
-      <c r="D346" s="13"/>
-      <c r="E346" s="13"/>
-      <c r="F346" s="13"/>
-      <c r="G346" s="13"/>
-      <c r="H346" s="13">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="I346" s="13">
-        <v>0.51</v>
-      </c>
-      <c r="J346" s="13">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="K346" s="13"/>
-      <c r="L346" s="13"/>
-      <c r="M346" s="13"/>
-      <c r="N346" s="13">
-        <v>0.505</v>
-      </c>
-      <c r="O346" s="13">
-        <v>0.505</v>
-      </c>
-      <c r="P346" s="13">
-        <v>9.0999999999999998E-2</v>
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H346" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I346" s="6">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J346" s="6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N346" s="6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O346" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="P346" s="6">
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -9884,30 +9830,30 @@
       <c r="F347" s="13"/>
       <c r="G347" s="13"/>
       <c r="H347" s="13">
-        <v>0.88349999999999995</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="I347" s="13">
-        <v>0.65839999999999999</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="J347" s="13">
-        <v>0.75290000000000001</v>
+        <v>0.1605</v>
       </c>
       <c r="K347" s="13"/>
       <c r="L347" s="13"/>
       <c r="M347" s="13"/>
       <c r="N347" s="13">
-        <v>0.94969999999999999</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="O347" s="13">
-        <v>0.65100000000000002</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="P347" s="13">
-        <v>0.77100000000000002</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="348" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B348" s="13"/>
       <c r="C348" s="13"/>
@@ -9916,30 +9862,30 @@
       <c r="F348" s="13"/>
       <c r="G348" s="13"/>
       <c r="H348" s="13">
-        <v>0.45300000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="I348" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="J348" s="13">
-        <v>0.436</v>
+        <v>0.19650000000000001</v>
       </c>
       <c r="K348" s="13"/>
       <c r="L348" s="13"/>
       <c r="M348" s="13"/>
       <c r="N348" s="13">
-        <v>0.54</v>
+        <v>0.505</v>
       </c>
       <c r="O348" s="13">
-        <v>0.58699999999999997</v>
+        <v>0.505</v>
       </c>
       <c r="P348" s="13">
-        <v>0.443</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -9948,30 +9894,30 @@
       <c r="F349" s="13"/>
       <c r="G349" s="13"/>
       <c r="H349" s="13">
-        <v>0.86980000000000002</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="I349" s="13">
-        <v>1</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="J349" s="13">
-        <v>0.92989999999999995</v>
+        <v>0.75290000000000001</v>
       </c>
       <c r="K349" s="13"/>
       <c r="L349" s="13"/>
       <c r="M349" s="13"/>
       <c r="N349" s="13">
-        <v>0.95230000000000004</v>
+        <v>0.94969999999999999</v>
       </c>
       <c r="O349" s="13">
-        <v>0.22239999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="P349" s="13">
-        <v>0.35699999999999998</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="350" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -9980,30 +9926,30 @@
       <c r="F350" s="13"/>
       <c r="G350" s="13"/>
       <c r="H350" s="13">
-        <v>0.49830000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="I350" s="13">
-        <v>0.49959999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="J350" s="13">
-        <v>0.1363</v>
+        <v>0.436</v>
       </c>
       <c r="K350" s="13"/>
       <c r="L350" s="13"/>
       <c r="M350" s="13"/>
       <c r="N350" s="13">
-        <v>0.44700000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="O350" s="13">
-        <v>0.44</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="P350" s="13">
-        <v>0.44350000000000001</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -10012,53 +9958,62 @@
       <c r="F351" s="13"/>
       <c r="G351" s="13"/>
       <c r="H351" s="13">
-        <v>0.89810000000000001</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I351" s="13">
-        <v>0.55879999999999996</v>
+        <v>1</v>
       </c>
       <c r="J351" s="13">
-        <v>0.68659999999999999</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="K351" s="13"/>
       <c r="L351" s="13"/>
       <c r="M351" s="13"/>
       <c r="N351" s="13">
-        <v>0.94979999999999998</v>
+        <v>0.95230000000000004</v>
       </c>
       <c r="O351" s="13">
-        <v>0.73180000000000001</v>
+        <v>0.22239999999999999</v>
       </c>
       <c r="P351" s="13">
-        <v>0.82550000000000001</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A352" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H352" s="6">
-        <v>0.47820000000000001</v>
-      </c>
-      <c r="I352" s="6">
-        <v>0.4612</v>
-      </c>
-      <c r="J352" s="6">
-        <v>0.45629999999999998</v>
-      </c>
-      <c r="N352" s="6">
-        <v>0.5111</v>
-      </c>
-      <c r="O352" s="6">
-        <v>0.5242</v>
-      </c>
-      <c r="P352" s="6">
-        <v>0.45760000000000001</v>
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B352" s="13"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="13"/>
+      <c r="G352" s="13"/>
+      <c r="H352" s="13">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="I352" s="13">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="J352" s="13">
+        <v>0.1363</v>
+      </c>
+      <c r="K352" s="13"/>
+      <c r="L352" s="13"/>
+      <c r="M352" s="13"/>
+      <c r="N352" s="13">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="O352" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="P352" s="13">
+        <v>0.44350000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -10067,62 +10022,53 @@
       <c r="F353" s="13"/>
       <c r="G353" s="13"/>
       <c r="H353" s="13">
-        <v>0.872</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="I353" s="13">
-        <v>0.68799999999999994</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="J353" s="13">
-        <v>0.76700000000000002</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="K353" s="13"/>
       <c r="L353" s="13"/>
       <c r="M353" s="13"/>
       <c r="N353" s="13">
-        <v>0.95499999999999996</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="O353" s="13">
-        <v>0.54200000000000004</v>
+        <v>0.73180000000000001</v>
       </c>
       <c r="P353" s="13">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A354" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B354" s="13"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="13"/>
-      <c r="F354" s="13"/>
-      <c r="G354" s="13"/>
-      <c r="H354" s="13">
-        <v>0.502</v>
-      </c>
-      <c r="I354" s="13">
-        <v>0.504</v>
-      </c>
-      <c r="J354" s="13">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="K354" s="13"/>
-      <c r="L354" s="13"/>
-      <c r="M354" s="13"/>
-      <c r="N354" s="13">
-        <v>0.504</v>
-      </c>
-      <c r="O354" s="13">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="P354" s="13">
-        <v>0.39500000000000002</v>
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H354" s="6">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="I354" s="6">
+        <v>0.4612</v>
+      </c>
+      <c r="J354" s="6">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="N354" s="6">
+        <v>0.5111</v>
+      </c>
+      <c r="O354" s="6">
+        <v>0.5242</v>
+      </c>
+      <c r="P354" s="6">
+        <v>0.45760000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -10131,53 +10077,62 @@
       <c r="F355" s="13"/>
       <c r="G355" s="13"/>
       <c r="H355" s="13">
-        <v>0.83050000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="I355" s="13">
-        <v>0.40229999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="J355" s="13">
-        <v>0.53839999999999999</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="K355" s="13"/>
       <c r="L355" s="13"/>
       <c r="M355" s="13"/>
       <c r="N355" s="13">
-        <v>0.95089999999999997</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="O355" s="13">
-        <v>0.75580000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="P355" s="13">
-        <v>0.84119999999999995</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H356" s="6">
-        <v>0.46529999999999999</v>
-      </c>
-      <c r="I356" s="6">
-        <v>0.4249</v>
-      </c>
-      <c r="J356" s="6">
-        <v>0.35139999999999999</v>
-      </c>
-      <c r="N356" s="6">
-        <v>0.50070000000000003</v>
-      </c>
-      <c r="O356" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="P356" s="6">
-        <v>0.4632</v>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A356" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B356" s="13"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="13"/>
+      <c r="G356" s="13"/>
+      <c r="H356" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="I356" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="J356" s="13">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K356" s="13"/>
+      <c r="L356" s="13"/>
+      <c r="M356" s="13"/>
+      <c r="N356" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="O356" s="13">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P356" s="13">
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -10186,62 +10141,53 @@
       <c r="F357" s="13"/>
       <c r="G357" s="13"/>
       <c r="H357" s="13">
-        <v>0.88500000000000001</v>
+        <v>0.83050000000000002</v>
       </c>
       <c r="I357" s="13">
-        <v>0.83899999999999997</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="J357" s="13">
-        <v>0.86099999999999999</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="K357" s="13"/>
       <c r="L357" s="13"/>
       <c r="M357" s="13"/>
       <c r="N357" s="13">
-        <v>0.95199999999999996</v>
+        <v>0.95089999999999997</v>
       </c>
       <c r="O357" s="13">
-        <v>0.50700000000000001</v>
+        <v>0.75580000000000003</v>
       </c>
       <c r="P357" s="13">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A358" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B358" s="13"/>
-      <c r="C358" s="13"/>
-      <c r="D358" s="13"/>
-      <c r="E358" s="13"/>
-      <c r="F358" s="13"/>
-      <c r="G358" s="13"/>
-      <c r="H358" s="13">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I358" s="13">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="J358" s="13">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="K358" s="13"/>
-      <c r="L358" s="13"/>
-      <c r="M358" s="13"/>
-      <c r="N358" s="13">
-        <v>0.502</v>
-      </c>
-      <c r="O358" s="13">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="P358" s="13">
-        <v>0.379</v>
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H358" s="6">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="I358" s="6">
+        <v>0.4249</v>
+      </c>
+      <c r="J358" s="6">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="N358" s="6">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="O358" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="P358" s="6">
+        <v>0.4632</v>
       </c>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -10250,30 +10196,30 @@
       <c r="F359" s="13"/>
       <c r="G359" s="13"/>
       <c r="H359" s="13">
-        <v>0.84840000000000004</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I359" s="13">
-        <v>0.2802</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="J359" s="13">
-        <v>0.41899999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="K359" s="13"/>
       <c r="L359" s="13"/>
       <c r="M359" s="13"/>
       <c r="N359" s="13">
-        <v>0.61709999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O359" s="13">
-        <v>2.3599999999999999E-2</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="P359" s="13">
-        <v>4.5100000000000001E-2</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="360" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B360" s="13"/>
       <c r="C360" s="13"/>
@@ -10282,30 +10228,30 @@
       <c r="F360" s="13"/>
       <c r="G360" s="13"/>
       <c r="H360" s="13">
-        <v>0.48520000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="I360" s="13">
-        <v>0.47310000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="J360" s="13">
-        <v>0.313</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="K360" s="13"/>
       <c r="L360" s="13"/>
       <c r="M360" s="13"/>
       <c r="N360" s="13">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
       <c r="O360" s="13">
-        <v>0.498</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="P360" s="13">
-        <v>6.9699999999999998E-2</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -10314,53 +10260,62 @@
       <c r="F361" s="13"/>
       <c r="G361" s="13"/>
       <c r="H361" s="13">
-        <v>0.86970000000000003</v>
+        <v>0.84840000000000004</v>
       </c>
       <c r="I361" s="13">
-        <v>0.996</v>
+        <v>0.2802</v>
       </c>
       <c r="J361" s="13">
-        <v>0.92810000000000004</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="K361" s="13"/>
       <c r="L361" s="13"/>
       <c r="M361" s="13"/>
       <c r="N361" s="13">
-        <v>0.94699999999999995</v>
+        <v>0.61709999999999998</v>
       </c>
       <c r="O361" s="13">
-        <v>0.47210000000000002</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="P361" s="13">
-        <v>0.62719999999999998</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H362" s="6">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="I362" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J362" s="6">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N362" s="6">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="O362" s="6">
-        <v>0.47689999999999999</v>
-      </c>
-      <c r="P362" s="6">
-        <v>0.35599999999999998</v>
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A362" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B362" s="13"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="13"/>
+      <c r="G362" s="13"/>
+      <c r="H362" s="13">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="I362" s="13">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="J362" s="13">
+        <v>0.313</v>
+      </c>
+      <c r="K362" s="13"/>
+      <c r="L362" s="13"/>
+      <c r="M362" s="13"/>
+      <c r="N362" s="13">
+        <v>0.496</v>
+      </c>
+      <c r="O362" s="13">
+        <v>0.498</v>
+      </c>
+      <c r="P362" s="13">
+        <v>6.9699999999999998E-2</v>
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -10369,62 +10324,53 @@
       <c r="F363" s="13"/>
       <c r="G363" s="13"/>
       <c r="H363" s="13">
-        <v>0.86929999999999996</v>
+        <v>0.86970000000000003</v>
       </c>
       <c r="I363" s="13">
-        <v>0.96909999999999996</v>
+        <v>0.996</v>
       </c>
       <c r="J363" s="13">
-        <v>0.91590000000000005</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="K363" s="13"/>
       <c r="L363" s="13"/>
       <c r="M363" s="13"/>
       <c r="N363" s="13">
-        <v>0.86019999999999996</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="O363" s="13">
-        <v>4.1000000000000002E-2</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="P363" s="13">
-        <v>7.6899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A364" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B364" s="13"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="13"/>
-      <c r="E364" s="13"/>
-      <c r="F364" s="13"/>
-      <c r="G364" s="13"/>
-      <c r="H364" s="13">
-        <v>0.4924</v>
-      </c>
-      <c r="I364" s="13">
-        <v>0.498</v>
-      </c>
-      <c r="J364" s="13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="K364" s="13"/>
-      <c r="L364" s="13"/>
-      <c r="M364" s="13"/>
-      <c r="N364" s="13">
-        <v>0.49790000000000001</v>
-      </c>
-      <c r="O364" s="13">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="P364" s="13">
-        <v>8.5999999999999993E-2</v>
+        <v>0.62719999999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H364" s="6">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I364" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J364" s="6">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N364" s="6">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="O364" s="6">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="P364" s="6">
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -10433,30 +10379,30 @@
       <c r="F365" s="13"/>
       <c r="G365" s="13"/>
       <c r="H365" s="13">
-        <v>0.89829999999999999</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="I365" s="13">
-        <v>0.50129999999999997</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="J365" s="13">
-        <v>0.64100000000000001</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="K365" s="13"/>
       <c r="L365" s="13"/>
       <c r="M365" s="13"/>
       <c r="N365" s="13">
-        <v>0.9526</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="O365" s="13">
-        <v>9.7900000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="P365" s="13">
-        <v>0.17449999999999999</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B366" s="13"/>
       <c r="C366" s="13"/>
@@ -10465,48 +10411,62 @@
       <c r="F366" s="13"/>
       <c r="G366" s="13"/>
       <c r="H366" s="13">
-        <v>0.5272</v>
+        <v>0.4924</v>
       </c>
       <c r="I366" s="13">
-        <v>0.56100000000000005</v>
+        <v>0.498</v>
       </c>
       <c r="J366" s="13">
-        <v>0.4456</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="K366" s="13"/>
       <c r="L366" s="13"/>
       <c r="M366" s="13"/>
       <c r="N366" s="13">
-        <v>0.49969999999999998</v>
+        <v>0.49790000000000001</v>
       </c>
       <c r="O366" s="13">
-        <v>0.49940000000000001</v>
+        <v>0.49819999999999998</v>
       </c>
       <c r="P366" s="13">
-        <v>0.13469999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A367" s="7"/>
+      <c r="A367" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
       <c r="D367" s="13"/>
       <c r="E367" s="13"/>
       <c r="F367" s="13"/>
       <c r="G367" s="13"/>
-      <c r="H367" s="13"/>
-      <c r="I367" s="13"/>
-      <c r="J367" s="13"/>
+      <c r="H367" s="13">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I367" s="13">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="J367" s="13">
+        <v>0.64100000000000001</v>
+      </c>
       <c r="K367" s="13"/>
       <c r="L367" s="13"/>
       <c r="M367" s="13"/>
-      <c r="N367" s="13"/>
-      <c r="O367" s="13"/>
-      <c r="P367" s="13"/>
+      <c r="N367" s="13">
+        <v>0.9526</v>
+      </c>
+      <c r="O367" s="13">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="P367" s="13">
+        <v>0.17449999999999999</v>
+      </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A368" s="14" t="s">
-        <v>110</v>
+      <c r="A368" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -10514,51 +10474,49 @@
       <c r="E368" s="13"/>
       <c r="F368" s="13"/>
       <c r="G368" s="13"/>
-      <c r="H368" s="13"/>
-      <c r="I368" s="13"/>
-      <c r="J368" s="13"/>
+      <c r="H368" s="13">
+        <v>0.5272</v>
+      </c>
+      <c r="I368" s="13">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J368" s="13">
+        <v>0.4456</v>
+      </c>
       <c r="K368" s="13"/>
       <c r="L368" s="13"/>
       <c r="M368" s="13"/>
-      <c r="N368" s="13"/>
-      <c r="O368" s="13"/>
-      <c r="P368" s="13"/>
+      <c r="N368" s="13">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="O368" s="13">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="P368" s="13">
+        <v>0.13469999999999999</v>
+      </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A369" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A369" s="7"/>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
       <c r="D369" s="13"/>
       <c r="E369" s="13"/>
       <c r="F369" s="13"/>
       <c r="G369" s="13"/>
-      <c r="H369" s="16">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="I369" s="16">
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="J369" s="16">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="K369" s="17"/>
-      <c r="L369" s="17"/>
-      <c r="M369" s="17"/>
-      <c r="N369" s="17">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="O369" s="17">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="P369" s="16">
-        <v>0.67889999999999995</v>
-      </c>
-    </row>
-    <row r="370" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="15" t="s">
-        <v>57</v>
+      <c r="H369" s="13"/>
+      <c r="I369" s="13"/>
+      <c r="J369" s="13"/>
+      <c r="K369" s="13"/>
+      <c r="L369" s="13"/>
+      <c r="M369" s="13"/>
+      <c r="N369" s="13"/>
+      <c r="O369" s="13"/>
+      <c r="P369" s="13"/>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A370" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -10566,31 +10524,19 @@
       <c r="E370" s="13"/>
       <c r="F370" s="13"/>
       <c r="G370" s="13"/>
-      <c r="H370" s="17">
-        <v>0.50287221200679399</v>
-      </c>
-      <c r="I370" s="17">
-        <v>0.50564061657417803</v>
-      </c>
-      <c r="J370" s="16">
-        <v>0.47544921610894098</v>
-      </c>
-      <c r="K370" s="17"/>
-      <c r="L370" s="17"/>
-      <c r="M370" s="17"/>
-      <c r="N370" s="17">
-        <v>0.49464383858752797</v>
-      </c>
-      <c r="O370" s="17">
-        <v>0.47154585701070401</v>
-      </c>
-      <c r="P370" s="17">
-        <v>0.37998319515368301</v>
-      </c>
+      <c r="H370" s="13"/>
+      <c r="I370" s="13"/>
+      <c r="J370" s="13"/>
+      <c r="K370" s="13"/>
+      <c r="L370" s="13"/>
+      <c r="M370" s="13"/>
+      <c r="N370" s="13"/>
+      <c r="O370" s="13"/>
+      <c r="P370" s="13"/>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
@@ -10598,31 +10544,31 @@
       <c r="E371" s="13"/>
       <c r="F371" s="13"/>
       <c r="G371" s="13"/>
-      <c r="H371" s="17">
-        <v>0</v>
-      </c>
-      <c r="I371" s="17">
-        <v>0</v>
-      </c>
-      <c r="J371" s="17">
-        <v>0</v>
+      <c r="H371" s="16">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I371" s="16">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="J371" s="16">
+        <v>0.75719999999999998</v>
       </c>
       <c r="K371" s="17"/>
       <c r="L371" s="17"/>
       <c r="M371" s="17"/>
       <c r="N371" s="17">
-        <v>0.94989999999999997</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="O371" s="17">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="P371" s="17">
-        <v>0.65910000000000002</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="P371" s="16">
+        <v>0.67889999999999995</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -10631,30 +10577,30 @@
       <c r="F372" s="13"/>
       <c r="G372" s="13"/>
       <c r="H372" s="17">
-        <v>6.4423900000000006E-2</v>
+        <v>0.50287221200679399</v>
       </c>
       <c r="I372" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J372" s="17">
-        <v>0.11414000000000001</v>
+        <v>0.50564061657417803</v>
+      </c>
+      <c r="J372" s="16">
+        <v>0.47544921610894098</v>
       </c>
       <c r="K372" s="17"/>
       <c r="L372" s="17"/>
       <c r="M372" s="17"/>
       <c r="N372" s="17">
-        <v>0.500866625553538</v>
+        <v>0.49464383858752797</v>
       </c>
       <c r="O372" s="17">
-        <v>0.50462534690101801</v>
+        <v>0.47154585701070401</v>
       </c>
       <c r="P372" s="17">
-        <v>0.377291924028408</v>
+        <v>0.37998319515368301</v>
       </c>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -10663,30 +10609,30 @@
       <c r="F373" s="13"/>
       <c r="G373" s="13"/>
       <c r="H373" s="17">
-        <v>0.86080000000000001</v>
+        <v>0</v>
       </c>
       <c r="I373" s="17">
-        <v>0.66459999999999997</v>
+        <v>0</v>
       </c>
       <c r="J373" s="17">
-        <v>0.74850000000000005</v>
+        <v>0</v>
       </c>
       <c r="K373" s="17"/>
       <c r="L373" s="17"/>
       <c r="M373" s="17"/>
       <c r="N373" s="17">
-        <v>0.95</v>
+        <v>0.94989999999999997</v>
       </c>
       <c r="O373" s="17">
-        <v>0.70409999999999995</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="P373" s="17">
-        <v>0.80710000000000004</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.65910000000000002</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -10695,30 +10641,30 @@
       <c r="F374" s="13"/>
       <c r="G374" s="13"/>
       <c r="H374" s="17">
-        <v>0.48767004716815798</v>
+        <v>6.4423900000000006E-2</v>
       </c>
       <c r="I374" s="17">
-        <v>0.475752584708313</v>
+        <v>0.5</v>
       </c>
       <c r="J374" s="17">
-        <v>0.45622628764702</v>
+        <v>0.11414000000000001</v>
       </c>
       <c r="K374" s="17"/>
       <c r="L374" s="17"/>
       <c r="M374" s="17"/>
       <c r="N374" s="17">
-        <v>0.498840734795791</v>
+        <v>0.500866625553538</v>
       </c>
       <c r="O374" s="17">
-        <v>0.49484604202457999</v>
+        <v>0.50462534690101801</v>
       </c>
       <c r="P374" s="17">
-        <v>0.44517339348066498</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.377291924028408</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -10727,30 +10673,30 @@
       <c r="F375" s="13"/>
       <c r="G375" s="13"/>
       <c r="H375" s="17">
-        <v>0.86899999999999999</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="I375" s="17">
-        <v>0.88570000000000004</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="J375" s="17">
-        <v>0.87670000000000003</v>
+        <v>0.74850000000000005</v>
       </c>
       <c r="K375" s="17"/>
       <c r="L375" s="17"/>
       <c r="M375" s="17"/>
       <c r="N375" s="17">
-        <v>0.95430000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="O375" s="17">
-        <v>0.14330000000000001</v>
+        <v>0.70409999999999995</v>
       </c>
       <c r="P375" s="17">
-        <v>0.2467</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.80710000000000004</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -10759,30 +10705,30 @@
       <c r="F376" s="13"/>
       <c r="G376" s="13"/>
       <c r="H376" s="17">
-        <v>0.49701179378598698</v>
+        <v>0.48767004716815798</v>
       </c>
       <c r="I376" s="17">
-        <v>0.49731321272222601</v>
+        <v>0.475752584708313</v>
       </c>
       <c r="J376" s="17">
-        <v>0.49690995343169297</v>
+        <v>0.45622628764702</v>
       </c>
       <c r="K376" s="17"/>
       <c r="L376" s="17"/>
       <c r="M376" s="17"/>
       <c r="N376" s="17">
-        <v>0.50532288698955397</v>
+        <v>0.498840734795791</v>
       </c>
       <c r="O376" s="17">
-        <v>0.51388843002510898</v>
+        <v>0.49484604202457999</v>
       </c>
       <c r="P376" s="17">
-        <v>0.173112202338918</v>
+        <v>0.44517339348066498</v>
       </c>
     </row>
     <row r="377" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -10791,30 +10737,30 @@
       <c r="F377" s="13"/>
       <c r="G377" s="13"/>
       <c r="H377" s="17">
-        <v>0.90069999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I377" s="17">
-        <v>0.67020000000000002</v>
+        <v>0.88570000000000004</v>
       </c>
       <c r="J377" s="17">
-        <v>0.76680000000000004</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="K377" s="17"/>
       <c r="L377" s="17"/>
       <c r="M377" s="17"/>
       <c r="N377" s="17">
-        <v>0.94389999999999996</v>
+        <v>0.95430000000000004</v>
       </c>
       <c r="O377" s="17">
-        <v>0.45300000000000001</v>
+        <v>0.14330000000000001</v>
       </c>
       <c r="P377" s="17">
-        <v>0.60909999999999997</v>
+        <v>0.2467</v>
       </c>
     </row>
     <row r="378" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -10823,30 +10769,30 @@
       <c r="F378" s="13"/>
       <c r="G378" s="13"/>
       <c r="H378" s="17">
-        <v>0.543463227339259</v>
+        <v>0.49701179378598698</v>
       </c>
       <c r="I378" s="17">
-        <v>0.58824877289885302</v>
+        <v>0.49731321272222601</v>
       </c>
       <c r="J378" s="17">
-        <v>0.52036909849409896</v>
+        <v>0.49690995343169297</v>
       </c>
       <c r="K378" s="17"/>
       <c r="L378" s="17"/>
       <c r="M378" s="17"/>
       <c r="N378" s="17">
-        <v>0.49302009091419302</v>
+        <v>0.50532288698955397</v>
       </c>
       <c r="O378" s="17">
-        <v>0.46301787366195302</v>
+        <v>0.51388843002510898</v>
       </c>
       <c r="P378" s="17">
-        <v>0.34525500741839799</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.173112202338918</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -10855,30 +10801,30 @@
       <c r="F379" s="13"/>
       <c r="G379" s="13"/>
       <c r="H379" s="17">
-        <v>0.88090000000000002</v>
+        <v>0.90069999999999995</v>
       </c>
       <c r="I379" s="17">
-        <v>0.62029999999999996</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="J379" s="17">
-        <v>0.72599999999999998</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="K379" s="17"/>
       <c r="L379" s="17"/>
       <c r="M379" s="17"/>
       <c r="N379" s="17">
-        <v>0.9506</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="O379" s="17">
-        <v>1</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="P379" s="17">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.60909999999999997</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -10887,30 +10833,30 @@
       <c r="F380" s="13"/>
       <c r="G380" s="13"/>
       <c r="H380" s="17">
-        <v>0.51527297587336696</v>
+        <v>0.543463227339259</v>
       </c>
       <c r="I380" s="17">
-        <v>0.53229227145941105</v>
+        <v>0.58824877289885302</v>
       </c>
       <c r="J380" s="17">
-        <v>0.47528499831863902</v>
+        <v>0.52036909849409896</v>
       </c>
       <c r="K380" s="17"/>
       <c r="L380" s="17"/>
       <c r="M380" s="17"/>
       <c r="N380" s="17">
-        <v>0.47537379067722102</v>
+        <v>0.49302009091419302</v>
       </c>
       <c r="O380" s="17">
-        <v>0.5</v>
+        <v>0.46301787366195302</v>
       </c>
       <c r="P380" s="17">
-        <v>0.48737601442741202</v>
+        <v>0.34525500741839799</v>
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -10919,13 +10865,13 @@
       <c r="F381" s="13"/>
       <c r="G381" s="13"/>
       <c r="H381" s="17">
-        <v>0.877</v>
+        <v>0.88090000000000002</v>
       </c>
       <c r="I381" s="17">
-        <v>0.10920000000000001</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="J381" s="17">
-        <v>0.1925</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="K381" s="17"/>
       <c r="L381" s="17"/>
@@ -10934,15 +10880,15 @@
         <v>0.9506</v>
       </c>
       <c r="O381" s="17">
-        <v>0.99960000000000004</v>
+        <v>1</v>
       </c>
       <c r="P381" s="17">
-        <v>0.97430000000000005</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -10951,30 +10897,30 @@
       <c r="F382" s="13"/>
       <c r="G382" s="13"/>
       <c r="H382" s="17">
-        <v>0.21033280577034399</v>
+        <v>0.51527297587336696</v>
       </c>
       <c r="I382" s="17">
-        <v>0.50186929413041603</v>
+        <v>0.53229227145941105</v>
       </c>
       <c r="J382" s="17">
-        <v>0.21033280577034399</v>
+        <v>0.47528499831863902</v>
       </c>
       <c r="K382" s="17"/>
       <c r="L382" s="17"/>
       <c r="M382" s="17"/>
       <c r="N382" s="17">
-        <v>0.47536295644522703</v>
+        <v>0.47537379067722102</v>
       </c>
       <c r="O382" s="17">
-        <v>0.49976873265494898</v>
+        <v>0.5</v>
       </c>
       <c r="P382" s="17">
-        <v>0.48726042841037198</v>
+        <v>0.48737601442741202</v>
       </c>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -10983,30 +10929,30 @@
       <c r="F383" s="13"/>
       <c r="G383" s="13"/>
       <c r="H383" s="17">
-        <v>0.8669</v>
+        <v>0.877</v>
       </c>
       <c r="I383" s="17">
-        <v>0.55930000000000002</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="J383" s="17">
-        <v>0.67749999999999999</v>
+        <v>0.1925</v>
       </c>
       <c r="K383" s="17"/>
       <c r="L383" s="17"/>
       <c r="M383" s="17"/>
       <c r="N383" s="17">
-        <v>0.54169999999999996</v>
+        <v>0.9506</v>
       </c>
       <c r="O383" s="17">
-        <v>1.1299999999999999E-2</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="P383" s="17">
-        <v>2.1999999999999999E-2</v>
+        <v>0.97430000000000005</v>
       </c>
     </row>
     <row r="384" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -11015,30 +10961,30 @@
       <c r="F384" s="13"/>
       <c r="G384" s="13"/>
       <c r="H384" s="17">
-        <v>0.462525724881309</v>
+        <v>0.21033280577034399</v>
       </c>
       <c r="I384" s="17">
-        <v>0.42395504735257999</v>
+        <v>0.50186929413041603</v>
       </c>
       <c r="J384" s="17">
-        <v>0.419379163201061</v>
+        <v>0.21033280577034399</v>
       </c>
       <c r="K384" s="17"/>
       <c r="L384" s="17"/>
       <c r="M384" s="17"/>
       <c r="N384" s="17">
-        <v>0.45016187365105298</v>
+        <v>0.47536295644522703</v>
       </c>
       <c r="O384" s="17">
-        <v>0.48822430840424302</v>
+        <v>0.49976873265494898</v>
       </c>
       <c r="P384" s="17">
-        <v>0.134872106008248</v>
+        <v>0.48726042841037198</v>
       </c>
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -11047,30 +10993,30 @@
       <c r="F385" s="13"/>
       <c r="G385" s="13"/>
       <c r="H385" s="17">
-        <v>0.91159999999999997</v>
+        <v>0.8669</v>
       </c>
       <c r="I385" s="17">
-        <v>0.78259999999999996</v>
+        <v>0.55930000000000002</v>
       </c>
       <c r="J385" s="17">
-        <v>0.84060000000000001</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="K385" s="17"/>
       <c r="L385" s="17"/>
       <c r="M385" s="17"/>
       <c r="N385" s="17">
-        <v>0.95530000000000004</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="O385" s="17">
-        <v>0.2475</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="P385" s="17">
-        <v>0.39040000000000002</v>
-      </c>
-    </row>
-    <row r="386" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -11079,30 +11025,30 @@
       <c r="F386" s="13"/>
       <c r="G386" s="13"/>
       <c r="H386" s="17">
-        <v>0.14025624684774199</v>
+        <v>0.462525724881309</v>
       </c>
       <c r="I386" s="17">
-        <v>0.50459226129458501</v>
+        <v>0.42395504735257999</v>
       </c>
       <c r="J386" s="17">
-        <v>0.14025624684774199</v>
+        <v>0.419379163201061</v>
       </c>
       <c r="K386" s="17"/>
       <c r="L386" s="17"/>
       <c r="M386" s="17"/>
       <c r="N386" s="17">
-        <v>0.46839806700356501</v>
+        <v>0.45016187365105298</v>
       </c>
       <c r="O386" s="17">
-        <v>0.48298942341321</v>
+        <v>0.48822430840424302</v>
       </c>
       <c r="P386" s="17">
-        <v>0.46839806700356501</v>
+        <v>0.134872106008248</v>
       </c>
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -11111,56 +11057,62 @@
       <c r="F387" s="13"/>
       <c r="G387" s="13"/>
       <c r="H387" s="17">
-        <v>0.93140000000000001</v>
+        <v>0.91159999999999997</v>
       </c>
       <c r="I387" s="17">
-        <v>0.62039999999999995</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="J387" s="17">
-        <v>0.74280000000000002</v>
+        <v>0.84060000000000001</v>
       </c>
       <c r="K387" s="17"/>
       <c r="L387" s="17"/>
       <c r="M387" s="17"/>
       <c r="N387" s="17">
-        <v>0.94169999999999998</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="O387" s="17">
-        <v>0.29120000000000001</v>
+        <v>0.2475</v>
       </c>
       <c r="P387" s="17">
-        <v>0.44140000000000001</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.39040000000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B388" s="13"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="13"/>
+      <c r="E388" s="13"/>
+      <c r="F388" s="13"/>
+      <c r="G388" s="13"/>
       <c r="H388" s="17">
-        <v>0.54739701339660496</v>
+        <v>0.14025624684774199</v>
       </c>
       <c r="I388" s="17">
-        <v>0.57557719840188304</v>
+        <v>0.50459226129458501</v>
       </c>
       <c r="J388" s="17">
-        <v>0.54795318740679699</v>
+        <v>0.14025624684774199</v>
       </c>
       <c r="K388" s="17"/>
       <c r="L388" s="17"/>
       <c r="M388" s="17"/>
       <c r="N388" s="17">
-        <v>0.54863204913456198</v>
+        <v>0.46839806700356501</v>
       </c>
       <c r="O388" s="17">
-        <v>0.60804347788633695</v>
+        <v>0.48298942341321</v>
       </c>
       <c r="P388" s="17">
-        <v>0.46593530734733102</v>
+        <v>0.46839806700356501</v>
       </c>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -11169,62 +11121,56 @@
       <c r="F389" s="13"/>
       <c r="G389" s="13"/>
       <c r="H389" s="17">
-        <v>0.86550000000000005</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="I389" s="17">
-        <v>0.64300000000000002</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="J389" s="17">
-        <v>0.73570000000000002</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="K389" s="17"/>
       <c r="L389" s="17"/>
       <c r="M389" s="17"/>
       <c r="N389" s="17">
-        <v>0.95679999999999998</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="O389" s="17">
-        <v>0.6694</v>
+        <v>0.29120000000000001</v>
       </c>
       <c r="P389" s="17">
-        <v>0.78620000000000001</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.44140000000000001</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B390" s="13"/>
-      <c r="C390" s="13"/>
-      <c r="D390" s="13"/>
-      <c r="E390" s="13"/>
-      <c r="F390" s="13"/>
-      <c r="G390" s="13"/>
+        <v>75</v>
+      </c>
       <c r="H390" s="17">
-        <v>0.49425654358717003</v>
+        <v>0.54739701339660496</v>
       </c>
       <c r="I390" s="17">
-        <v>0.48828546964076802</v>
+        <v>0.57557719840188304</v>
       </c>
       <c r="J390" s="17">
-        <v>0.45800042185193002</v>
+        <v>0.54795318740679699</v>
       </c>
       <c r="K390" s="17"/>
       <c r="L390" s="17"/>
       <c r="M390" s="17"/>
       <c r="N390" s="17">
-        <v>0.44688411252247001</v>
+        <v>0.54863204913456198</v>
       </c>
       <c r="O390" s="17">
-        <v>0.54046352583586599</v>
+        <v>0.60804347788633695</v>
       </c>
       <c r="P390" s="17">
-        <v>0.44688411252247001</v>
+        <v>0.46593530734733102</v>
       </c>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -11233,30 +11179,30 @@
       <c r="F391" s="13"/>
       <c r="G391" s="13"/>
       <c r="H391" s="17">
-        <v>0.89300000000000002</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="I391" s="17">
-        <v>0.66959999999999997</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="J391" s="17">
-        <v>0.76370000000000005</v>
+        <v>0.73570000000000002</v>
       </c>
       <c r="K391" s="17"/>
       <c r="L391" s="17"/>
       <c r="M391" s="17"/>
       <c r="N391" s="17">
-        <v>0.95199999999999996</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="O391" s="17">
-        <v>0.97670000000000001</v>
+        <v>0.6694</v>
       </c>
       <c r="P391" s="17">
-        <v>0.96389999999999998</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.78620000000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B392" s="13"/>
       <c r="C392" s="13"/>
@@ -11265,30 +11211,30 @@
       <c r="F392" s="13"/>
       <c r="G392" s="13"/>
       <c r="H392" s="17">
-        <v>0.53414821385922395</v>
+        <v>0.49425654358717003</v>
       </c>
       <c r="I392" s="17">
-        <v>0.56897264628303401</v>
+        <v>0.48828546964076802</v>
       </c>
       <c r="J392" s="17">
-        <v>0.50976164494169995</v>
+        <v>0.45800042185193002</v>
       </c>
       <c r="K392" s="17"/>
       <c r="L392" s="17"/>
       <c r="M392" s="17"/>
       <c r="N392" s="17">
-        <v>0.52872539942549202</v>
+        <v>0.44688411252247001</v>
       </c>
       <c r="O392" s="17">
-        <v>0.51499107968811897</v>
+        <v>0.54046352583586599</v>
       </c>
       <c r="P392" s="17">
-        <v>0.51757649134992001</v>
+        <v>0.44688411252247001</v>
       </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -11297,30 +11243,30 @@
       <c r="F393" s="13"/>
       <c r="G393" s="13"/>
       <c r="H393" s="17">
-        <v>0.86240000000000006</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I393" s="17">
-        <v>0.82189999999999996</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="J393" s="17">
-        <v>0.84079999999999999</v>
+        <v>0.76370000000000005</v>
       </c>
       <c r="K393" s="17"/>
       <c r="L393" s="17"/>
       <c r="M393" s="17"/>
       <c r="N393" s="17">
-        <v>0.94979999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O393" s="17">
-        <v>0.6623</v>
+        <v>0.97670000000000001</v>
       </c>
       <c r="P393" s="17">
-        <v>0.77910000000000001</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -11329,30 +11275,30 @@
       <c r="F394" s="13"/>
       <c r="G394" s="13"/>
       <c r="H394" s="17">
-        <v>0.47933794497271998</v>
+        <v>0.53414821385922395</v>
       </c>
       <c r="I394" s="17">
-        <v>0.47379111801017498</v>
+        <v>0.56897264628303401</v>
       </c>
       <c r="J394" s="17">
-        <v>0.47515981983945399</v>
+        <v>0.50976164494169995</v>
       </c>
       <c r="K394" s="17"/>
       <c r="L394" s="17"/>
       <c r="M394" s="17"/>
       <c r="N394" s="17">
-        <v>0.49928406202602699</v>
+        <v>0.52872539942549202</v>
       </c>
       <c r="O394" s="17">
-        <v>0.496584676886481</v>
+        <v>0.51499107968811897</v>
       </c>
       <c r="P394" s="17">
-        <v>0.432604445327193</v>
+        <v>0.51757649134992001</v>
       </c>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -11361,30 +11307,30 @@
       <c r="F395" s="13"/>
       <c r="G395" s="13"/>
       <c r="H395" s="17">
-        <v>0.86980000000000002</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="I395" s="17">
-        <v>1</v>
+        <v>0.82189999999999996</v>
       </c>
       <c r="J395" s="17">
-        <v>0.92989999999999995</v>
+        <v>0.84079999999999999</v>
       </c>
       <c r="K395" s="17"/>
       <c r="L395" s="17"/>
       <c r="M395" s="17"/>
       <c r="N395" s="17">
-        <v>0.41670000000000001</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="O395" s="17">
-        <v>8.6999999999999994E-3</v>
+        <v>0.6623</v>
       </c>
       <c r="P395" s="17">
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.77910000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -11393,30 +11339,30 @@
       <c r="F396" s="13"/>
       <c r="G396" s="13"/>
       <c r="H396" s="17">
-        <v>0.43557607739665799</v>
+        <v>0.47933794497271998</v>
       </c>
       <c r="I396" s="17">
-        <v>0.5</v>
+        <v>0.47379111801017498</v>
       </c>
       <c r="J396" s="17">
-        <v>0.465569917743831</v>
+        <v>0.47515981983945399</v>
       </c>
       <c r="K396" s="17"/>
       <c r="L396" s="17"/>
       <c r="M396" s="17"/>
       <c r="N396" s="17">
-        <v>0.49962289263531501</v>
+        <v>0.49928406202602699</v>
       </c>
       <c r="O396" s="17">
-        <v>0.49992979384168101</v>
+        <v>0.496584676886481</v>
       </c>
       <c r="P396" s="17">
-        <v>5.56222315370591E-2</v>
+        <v>0.432604445327193</v>
       </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -11425,30 +11371,30 @@
       <c r="F397" s="13"/>
       <c r="G397" s="13"/>
       <c r="H397" s="17">
-        <v>0.85489999999999999</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I397" s="17">
-        <v>0.60340000000000005</v>
+        <v>1</v>
       </c>
       <c r="J397" s="17">
-        <v>0.70550000000000002</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="K397" s="17"/>
       <c r="L397" s="17"/>
       <c r="M397" s="17"/>
       <c r="N397" s="17">
-        <v>0.94689999999999996</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="O397" s="17">
-        <v>0.60740000000000005</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="P397" s="17">
-        <v>0.73870000000000002</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -11457,30 +11403,30 @@
       <c r="F398" s="13"/>
       <c r="G398" s="13"/>
       <c r="H398" s="17">
-        <v>0.479694573461109</v>
+        <v>0.43557607739665799</v>
       </c>
       <c r="I398" s="17">
-        <v>0.45715784595293502</v>
+        <v>0.5</v>
       </c>
       <c r="J398" s="17">
-        <v>0.43179518441660603</v>
+        <v>0.465569917743831</v>
       </c>
       <c r="K398" s="17"/>
       <c r="L398" s="17"/>
       <c r="M398" s="17"/>
       <c r="N398" s="17">
-        <v>0.49566842698629299</v>
+        <v>0.49962289263531501</v>
       </c>
       <c r="O398" s="17">
-        <v>0.47799243425399801</v>
+        <v>0.49992979384168101</v>
       </c>
       <c r="P398" s="17">
-        <v>0.40928417851494803</v>
+        <v>5.56222315370591E-2</v>
       </c>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -11489,30 +11435,30 @@
       <c r="F399" s="13"/>
       <c r="G399" s="13"/>
       <c r="H399" s="17">
-        <v>0.86780000000000002</v>
+        <v>0.85489999999999999</v>
       </c>
       <c r="I399" s="17">
-        <v>0.76990000000000003</v>
+        <v>0.60340000000000005</v>
       </c>
       <c r="J399" s="17">
-        <v>0.81510000000000005</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="K399" s="17"/>
       <c r="L399" s="17"/>
       <c r="M399" s="17"/>
       <c r="N399" s="17">
-        <v>0.93620000000000003</v>
+        <v>0.94689999999999996</v>
       </c>
       <c r="O399" s="17">
-        <v>0.15670000000000001</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="P399" s="17">
-        <v>0.26629999999999998</v>
+        <v>0.73870000000000002</v>
       </c>
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -11521,30 +11467,30 @@
       <c r="F400" s="13"/>
       <c r="G400" s="13"/>
       <c r="H400" s="17">
-        <v>0.49641486751313302</v>
+        <v>0.479694573461109</v>
       </c>
       <c r="I400" s="17">
-        <v>0.494374027665553</v>
+        <v>0.45715784595293502</v>
       </c>
       <c r="J400" s="17">
-        <v>0.48727597810149698</v>
+        <v>0.43179518441660603</v>
       </c>
       <c r="K400" s="17"/>
       <c r="L400" s="17"/>
       <c r="M400" s="17"/>
       <c r="N400" s="17">
-        <v>0.49295541623127798</v>
+        <v>0.49566842698629299</v>
       </c>
       <c r="O400" s="17">
-        <v>0.47995407691291098</v>
+        <v>0.47799243425399801</v>
       </c>
       <c r="P400" s="17">
-        <v>0.178443125960452</v>
+        <v>0.40928417851494803</v>
       </c>
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -11553,30 +11499,30 @@
       <c r="F401" s="13"/>
       <c r="G401" s="13"/>
       <c r="H401" s="17">
-        <v>0.8851</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="I401" s="17">
-        <v>0.59609999999999996</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="J401" s="17">
-        <v>0.70960000000000001</v>
+        <v>0.81510000000000005</v>
       </c>
       <c r="K401" s="17"/>
       <c r="L401" s="17"/>
       <c r="M401" s="17"/>
       <c r="N401" s="17">
-        <v>0.95189999999999997</v>
+        <v>0.93620000000000003</v>
       </c>
       <c r="O401" s="17">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="P401" s="16">
-        <v>0.1857</v>
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="P401" s="17">
+        <v>0.26629999999999998</v>
       </c>
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -11585,857 +11531,875 @@
       <c r="F402" s="13"/>
       <c r="G402" s="13"/>
       <c r="H402" s="17">
-        <v>0.51922796708349805</v>
+        <v>0.49641486751313302</v>
       </c>
       <c r="I402" s="17">
-        <v>0.541604285076831</v>
+        <v>0.494374027665553</v>
       </c>
       <c r="J402" s="17">
-        <v>0.47170223877318901</v>
+        <v>0.48727597810149698</v>
       </c>
       <c r="K402" s="17"/>
       <c r="L402" s="17"/>
       <c r="M402" s="17"/>
       <c r="N402" s="17">
+        <v>0.49295541623127798</v>
+      </c>
+      <c r="O402" s="17">
+        <v>0.47995407691291098</v>
+      </c>
+      <c r="P402" s="17">
+        <v>0.178443125960452</v>
+      </c>
+    </row>
+    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A403" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B403" s="13"/>
+      <c r="C403" s="13"/>
+      <c r="D403" s="13"/>
+      <c r="E403" s="13"/>
+      <c r="F403" s="13"/>
+      <c r="G403" s="13"/>
+      <c r="H403" s="17">
+        <v>0.8851</v>
+      </c>
+      <c r="I403" s="17">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="J403" s="17">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="K403" s="17"/>
+      <c r="L403" s="17"/>
+      <c r="M403" s="17"/>
+      <c r="N403" s="17">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="O403" s="17">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="P403" s="16">
+        <v>0.1857</v>
+      </c>
+    </row>
+    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A404" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B404" s="13"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="13"/>
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+      <c r="G404" s="13"/>
+      <c r="H404" s="17">
+        <v>0.51922796708349805</v>
+      </c>
+      <c r="I404" s="17">
+        <v>0.541604285076831</v>
+      </c>
+      <c r="J404" s="17">
+        <v>0.47170223877318901</v>
+      </c>
+      <c r="K404" s="17"/>
+      <c r="L404" s="17"/>
+      <c r="M404" s="17"/>
+      <c r="N404" s="17">
         <v>0.49946542205956401</v>
       </c>
-      <c r="O402" s="17">
+      <c r="O404" s="17">
         <v>0.49892625875512098</v>
       </c>
-      <c r="P402" s="17">
+      <c r="P404" s="17">
         <v>0.14112055856248401</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A403" s="7"/>
-    </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A404" s="10" t="s">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A405" s="7"/>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A406" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A405" s="22" t="s">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A407" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B405" s="23">
+      <c r="B407" s="23">
         <v>0.93710000000000004</v>
       </c>
-      <c r="C405" s="23">
+      <c r="C407" s="23">
         <v>0.82310000000000005</v>
       </c>
-      <c r="D405" s="23">
+      <c r="D407" s="23">
         <v>0.876</v>
       </c>
-      <c r="E405" s="23">
+      <c r="E407" s="23">
         <v>0.8286</v>
       </c>
-      <c r="F405" s="23">
+      <c r="F407" s="23">
         <v>0.62580000000000002</v>
       </c>
-      <c r="G405" s="23">
+      <c r="G407" s="23">
         <v>0.7117</v>
       </c>
-      <c r="H405" s="23">
+      <c r="H407" s="23">
         <v>0.86809999999999998</v>
       </c>
-      <c r="I405" s="23">
+      <c r="I407" s="23">
         <v>0.71140000000000003</v>
       </c>
-      <c r="J405" s="23">
+      <c r="J407" s="23">
         <v>0.78120000000000001</v>
       </c>
-      <c r="K405" s="24">
+      <c r="K407" s="24">
         <v>0.84340000000000004</v>
       </c>
-      <c r="L405" s="24">
+      <c r="L407" s="24">
         <v>0.7258</v>
       </c>
-      <c r="M405" s="24">
+      <c r="M407" s="24">
         <v>0.77929999999999999</v>
       </c>
-      <c r="N405" s="24">
+      <c r="N407" s="24">
         <v>0.95209999999999995</v>
       </c>
-      <c r="O405" s="24">
+      <c r="O407" s="24">
         <v>0.82730000000000004</v>
       </c>
-      <c r="P405" s="24">
+      <c r="P407" s="24">
         <v>0.88349999999999995</v>
       </c>
-      <c r="Q405" s="23"/>
-    </row>
-    <row r="406" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="28" t="s">
+      <c r="Q407" s="23"/>
+    </row>
+    <row r="408" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B406" s="27">
+      <c r="B408" s="27">
         <v>0.49969999999999998</v>
       </c>
-      <c r="C406" s="27">
+      <c r="C408" s="27">
         <v>0.49940000000000001</v>
       </c>
-      <c r="D406" s="27">
+      <c r="D408" s="27">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E406" s="27">
+      <c r="E408" s="27">
         <v>0.50960000000000005</v>
       </c>
-      <c r="F406" s="27">
+      <c r="F408" s="27">
         <v>0.51539999999999997</v>
       </c>
-      <c r="G406" s="27">
+      <c r="G408" s="27">
         <v>0.48599999999999999</v>
       </c>
-      <c r="H406" s="27">
+      <c r="H408" s="27">
         <v>0.4955</v>
       </c>
-      <c r="I406" s="27">
+      <c r="I408" s="27">
         <v>0.49180000000000001</v>
       </c>
-      <c r="J406" s="27">
+      <c r="J408" s="27">
         <v>0.47539999999999999</v>
       </c>
-      <c r="K406" s="27">
+      <c r="K408" s="27">
         <v>0.49990000000000001</v>
       </c>
-      <c r="L406" s="27">
+      <c r="L408" s="27">
         <v>0.49990000000000001</v>
       </c>
-      <c r="M406" s="27">
+      <c r="M408" s="27">
         <v>0.4894</v>
       </c>
-      <c r="N406" s="27">
+      <c r="N408" s="27">
         <v>0.50190000000000001</v>
       </c>
-      <c r="O406" s="27">
+      <c r="O408" s="27">
         <v>0.50600000000000001</v>
       </c>
-      <c r="P406" s="27">
+      <c r="P408" s="27">
         <v>0.48270000000000002</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A407" s="25" t="s">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A409" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B407" s="23"/>
-      <c r="C407" s="23"/>
-      <c r="D407" s="23"/>
-      <c r="E407" s="23"/>
-      <c r="F407" s="23"/>
-      <c r="G407" s="23"/>
-      <c r="H407" s="23">
+      <c r="B409" s="23"/>
+      <c r="C409" s="23"/>
+      <c r="D409" s="23"/>
+      <c r="E409" s="23"/>
+      <c r="F409" s="23"/>
+      <c r="G409" s="23"/>
+      <c r="H409" s="23">
         <v>0.86680000000000001</v>
       </c>
-      <c r="I407" s="23">
+      <c r="I409" s="23">
         <v>0.59530000000000005</v>
       </c>
-      <c r="J407" s="23">
+      <c r="J409" s="23">
         <v>0.70320000000000005</v>
       </c>
-      <c r="K407" s="23"/>
-      <c r="L407" s="23"/>
-      <c r="M407" s="23"/>
-      <c r="N407" s="23">
+      <c r="K409" s="23"/>
+      <c r="L409" s="23"/>
+      <c r="M409" s="23"/>
+      <c r="N409" s="23">
         <v>0.95189999999999997</v>
       </c>
-      <c r="O407" s="23">
+      <c r="O409" s="23">
         <v>0.42470000000000002</v>
       </c>
-      <c r="P407" s="23">
+      <c r="P409" s="23">
         <v>0.5847</v>
       </c>
-      <c r="Q407" s="23"/>
-    </row>
-    <row r="408" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="26" t="s">
+      <c r="Q409" s="23"/>
+    </row>
+    <row r="410" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B408" s="27"/>
-      <c r="C408" s="27"/>
-      <c r="D408" s="27"/>
-      <c r="E408" s="27"/>
-      <c r="F408" s="27"/>
-      <c r="G408" s="27"/>
-      <c r="H408" s="27">
+      <c r="B410" s="27"/>
+      <c r="C410" s="27"/>
+      <c r="D410" s="27"/>
+      <c r="E410" s="27"/>
+      <c r="F410" s="27"/>
+      <c r="G410" s="27"/>
+      <c r="H410" s="27">
         <v>0.49540000000000001</v>
       </c>
-      <c r="I408" s="27">
+      <c r="I410" s="27">
         <v>0.49</v>
       </c>
-      <c r="J408" s="27">
+      <c r="J410" s="27">
         <v>0.44519999999999998</v>
       </c>
-      <c r="K408" s="27"/>
-      <c r="L408" s="27"/>
-      <c r="M408" s="27"/>
-      <c r="N408" s="27">
+      <c r="K410" s="27"/>
+      <c r="L410" s="27"/>
+      <c r="M410" s="27"/>
+      <c r="N410" s="27">
         <v>0.50009999999999999</v>
       </c>
-      <c r="O408" s="27">
+      <c r="O410" s="27">
         <v>0.503</v>
       </c>
-      <c r="P408" s="27">
+      <c r="P410" s="27">
         <v>0.34</v>
       </c>
-      <c r="Q408" s="27"/>
-    </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A409" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H409" s="13">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="I409" s="13">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J409" s="13">
-        <v>0.62019999999999997</v>
-      </c>
-      <c r="K409" s="13"/>
-      <c r="L409" s="13"/>
-      <c r="M409" s="13"/>
-      <c r="N409" s="13">
-        <v>0.94640000000000002</v>
-      </c>
-      <c r="O409" s="13">
-        <v>0.40820000000000001</v>
-      </c>
-      <c r="P409" s="13">
-        <v>0.56810000000000005</v>
-      </c>
-    </row>
-    <row r="410" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A410" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H410" s="13">
-        <v>0.52949999999999997</v>
-      </c>
-      <c r="I410" s="13">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="J410" s="13">
-        <v>0.437</v>
-      </c>
-      <c r="K410" s="13"/>
-      <c r="L410" s="13"/>
-      <c r="M410" s="13"/>
-      <c r="N410" s="13">
-        <v>0.49730000000000002</v>
-      </c>
-      <c r="O410" s="13">
-        <v>0.4859</v>
-      </c>
-      <c r="P410" s="13">
-        <v>0.32919999999999999</v>
-      </c>
+      <c r="Q410" s="27"/>
     </row>
     <row r="411" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H411" s="13">
-        <v>0.89190000000000003</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="I411" s="13">
-        <v>0.53649999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J411" s="13">
-        <v>0.66810000000000003</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="K411" s="13"/>
       <c r="L411" s="13"/>
       <c r="M411" s="13"/>
       <c r="N411" s="13">
-        <v>0.9506</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="O411" s="13">
-        <v>0.99960000000000004</v>
+        <v>0.40820000000000001</v>
       </c>
       <c r="P411" s="13">
-        <v>0.97430000000000005</v>
-      </c>
-    </row>
-    <row r="412" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A412" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H412" s="27">
-        <v>0.52259999999999995</v>
-      </c>
-      <c r="I412" s="27">
-        <v>0.55030000000000001</v>
-      </c>
-      <c r="J412" s="27">
-        <v>0.4556</v>
-      </c>
-      <c r="N412" s="27">
-        <v>0.4753</v>
-      </c>
-      <c r="O412" s="27">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="P412" s="27">
-        <v>0.48699999999999999</v>
+        <v>0.56810000000000005</v>
+      </c>
+    </row>
+    <row r="412" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A412" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H412" s="13">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="I412" s="13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J412" s="13">
+        <v>0.437</v>
+      </c>
+      <c r="K412" s="13"/>
+      <c r="L412" s="13"/>
+      <c r="M412" s="13"/>
+      <c r="N412" s="13">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="O412" s="13">
+        <v>0.4859</v>
+      </c>
+      <c r="P412" s="13">
+        <v>0.32919999999999999</v>
       </c>
     </row>
     <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H413" s="13">
-        <v>0.88170000000000004</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="I413" s="13">
-        <v>0.66479999999999995</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="J413" s="13">
-        <v>0.75670000000000004</v>
+        <v>0.66810000000000003</v>
       </c>
       <c r="K413" s="13"/>
       <c r="L413" s="13"/>
       <c r="M413" s="13"/>
       <c r="N413" s="13">
-        <v>0.95830000000000004</v>
+        <v>0.9506</v>
       </c>
       <c r="O413" s="13">
-        <v>5.0999999999999997E-2</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="P413" s="13">
-        <v>9.5399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A414" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H414" s="13">
-        <v>0.51649999999999996</v>
-      </c>
-      <c r="I414" s="13">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="J414" s="13">
-        <v>0.4884</v>
-      </c>
-      <c r="K414" s="13"/>
-      <c r="L414" s="13"/>
-      <c r="M414" s="13"/>
-      <c r="N414" s="13">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="O414" s="13">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="P414" s="13">
-        <v>9.4899999999999998E-2</v>
+        <v>0.97430000000000005</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A414" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H414" s="27">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="I414" s="27">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="J414" s="27">
+        <v>0.4556</v>
+      </c>
+      <c r="N414" s="27">
+        <v>0.4753</v>
+      </c>
+      <c r="O414" s="27">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="P414" s="27">
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H415" s="13">
-        <v>0.8901</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="I415" s="13">
-        <v>0.76200000000000001</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="J415" s="13">
-        <v>0.81950000000000001</v>
+        <v>0.75670000000000004</v>
       </c>
       <c r="K415" s="13"/>
       <c r="L415" s="13"/>
       <c r="M415" s="13"/>
       <c r="N415" s="13">
-        <v>0.94830000000000003</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="O415" s="13">
-        <v>0.70989999999999998</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="P415" s="13">
-        <v>0.81059999999999999</v>
-      </c>
-    </row>
-    <row r="416" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A416" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H416" s="27">
-        <v>0.53939999999999999</v>
-      </c>
-      <c r="I416" s="27">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="J416" s="27">
-        <v>0.53539999999999999</v>
-      </c>
-      <c r="N416" s="27">
-        <v>0.4965</v>
-      </c>
-      <c r="O416" s="27">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="P416" s="27">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="417" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>9.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A416" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H416" s="13">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="I416" s="13">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="J416" s="13">
+        <v>0.4884</v>
+      </c>
+      <c r="K416" s="13"/>
+      <c r="L416" s="13"/>
+      <c r="M416" s="13"/>
+      <c r="N416" s="13">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="O416" s="13">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="P416" s="13">
+        <v>9.4899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H417" s="13">
-        <v>0.85850000000000004</v>
+        <v>0.8901</v>
       </c>
       <c r="I417" s="13">
-        <v>0.61699999999999999</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="J417" s="13">
-        <v>0.71640000000000004</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="K417" s="13"/>
       <c r="L417" s="13"/>
       <c r="M417" s="13"/>
       <c r="N417" s="13">
-        <v>0.95069999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="O417" s="13">
-        <v>1</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="P417" s="13">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="418" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A418" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H418" s="13">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="I418" s="13">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="J418" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="K418" s="13"/>
-      <c r="L418" s="13"/>
-      <c r="M418" s="13"/>
-      <c r="N418" s="13">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O418" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P418" s="13">
-        <v>4.6899999999999997E-2</v>
+        <v>0.81059999999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H418" s="27">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="I418" s="27">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="J418" s="27">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="N418" s="27">
+        <v>0.4965</v>
+      </c>
+      <c r="O418" s="27">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="P418" s="27">
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="419" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H419" s="13">
-        <v>0.90800000000000003</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="I419" s="13">
-        <v>0.59199999999999997</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="J419" s="13">
-        <v>0.71499999999999997</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="K419" s="13"/>
       <c r="L419" s="13"/>
       <c r="M419" s="13"/>
       <c r="N419" s="13">
-        <v>0.94669999999999999</v>
+        <v>0.95069999999999999</v>
       </c>
       <c r="O419" s="13">
-        <v>0.51400000000000001</v>
+        <v>1</v>
       </c>
       <c r="P419" s="13">
-        <v>0.66400000000000003</v>
+        <v>0.97450000000000003</v>
       </c>
     </row>
     <row r="420" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H420" s="13">
-        <v>0.54400000000000004</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="I420" s="13">
-        <v>0.59599999999999997</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="J420" s="13">
-        <v>0.496</v>
+        <v>0.44</v>
       </c>
       <c r="K420" s="13"/>
       <c r="L420" s="13"/>
       <c r="M420" s="13"/>
       <c r="N420" s="13">
-        <v>0.496</v>
+        <v>2.46E-2</v>
       </c>
       <c r="O420" s="13">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="P420" s="13">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H421" s="13">
-        <v>0.87819999999999998</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I421" s="13">
-        <v>0.61460000000000004</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="J421" s="13">
-        <v>0.72119999999999995</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="K421" s="13"/>
       <c r="L421" s="13"/>
       <c r="M421" s="13"/>
       <c r="N421" s="13">
-        <v>0.95230000000000004</v>
+        <v>0.94669999999999999</v>
       </c>
       <c r="O421" s="13">
-        <v>0.44350000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="P421" s="13">
-        <v>0.60299999999999998</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="422" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H422" s="13">
-        <v>0.46739000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="I422" s="13">
-        <v>0.44328000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="J422" s="13">
-        <v>0.44490000000000002</v>
+        <v>0.496</v>
       </c>
       <c r="K422" s="13"/>
       <c r="L422" s="13"/>
       <c r="M422" s="13"/>
       <c r="N422" s="13">
-        <v>0.50029999999999997</v>
+        <v>0.496</v>
       </c>
       <c r="O422" s="13">
-        <v>0.50060000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="P422" s="13">
-        <v>0.4088</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H423" s="13">
-        <v>0.82079999999999997</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="I423" s="13">
-        <v>0.74329999999999996</v>
+        <v>0.61460000000000004</v>
       </c>
       <c r="J423" s="13">
-        <v>0.92090000000000005</v>
+        <v>0.72119999999999995</v>
       </c>
       <c r="K423" s="13"/>
       <c r="L423" s="13"/>
       <c r="M423" s="13"/>
       <c r="N423" s="13">
-        <v>0.88329999999999997</v>
+        <v>0.95230000000000004</v>
       </c>
       <c r="O423" s="13">
-        <v>4.3700000000000003E-2</v>
+        <v>0.44350000000000001</v>
       </c>
       <c r="P423" s="13">
-        <v>8.2100000000000006E-2</v>
+        <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H424" s="13">
-        <v>0.55489999999999995</v>
+        <v>0.46739000000000003</v>
       </c>
       <c r="I424" s="13">
-        <v>0.54479999999999995</v>
+        <v>0.44328000000000001</v>
       </c>
       <c r="J424" s="13">
-        <v>0.22409999999999999</v>
+        <v>0.44490000000000002</v>
       </c>
       <c r="K424" s="13"/>
       <c r="L424" s="13"/>
       <c r="M424" s="13"/>
       <c r="N424" s="13">
-        <v>0.48459999999999998</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="O424" s="13">
-        <v>0.46600000000000003</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="P424" s="13">
-        <v>0.38769999999999999</v>
+        <v>0.4088</v>
       </c>
     </row>
     <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H425">
+        <v>72</v>
+      </c>
+      <c r="H425" s="13">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="I425" s="13">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="J425" s="13">
         <v>0.92090000000000005</v>
-      </c>
-      <c r="I425">
-        <v>0.74329999999999996</v>
-      </c>
-      <c r="J425">
-        <v>0.82079999999999997</v>
       </c>
       <c r="K425" s="13"/>
       <c r="L425" s="13"/>
       <c r="M425" s="13"/>
       <c r="N425" s="13">
-        <v>0.95</v>
+        <v>0.88329999999999997</v>
       </c>
       <c r="O425" s="13">
-        <v>0.62639999999999996</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="P425" s="13">
-        <v>0.75319999999999998</v>
-      </c>
-    </row>
-    <row r="426" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A426" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H426" s="27">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I426" s="27">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="J426" s="27">
-        <v>0.224</v>
-      </c>
-      <c r="N426" s="27">
-        <v>0.49830000000000002</v>
-      </c>
-      <c r="O426" s="27">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="P426" s="27">
-        <v>0.41899999999999998</v>
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A426" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H426" s="13">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="I426" s="13">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="J426" s="13">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="K426" s="13"/>
+      <c r="L426" s="13"/>
+      <c r="M426" s="13"/>
+      <c r="N426" s="13">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="O426" s="13">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P426" s="13">
+        <v>0.38769999999999999</v>
       </c>
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H427" s="13">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I427" s="13">
-        <v>1</v>
-      </c>
-      <c r="J427" s="13">
-        <v>0.92989999999999995</v>
+        <v>74</v>
+      </c>
+      <c r="H427">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="I427">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="J427">
+        <v>0.82079999999999997</v>
       </c>
       <c r="K427" s="13"/>
       <c r="L427" s="13"/>
       <c r="M427" s="13"/>
       <c r="N427" s="13">
-        <v>0.95469999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O427" s="13">
-        <v>0.68279999999999996</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="P427" s="13">
-        <v>0.79510000000000003</v>
-      </c>
-    </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A428" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H428" s="13">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="I428" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J428" s="13">
-        <v>0.114</v>
-      </c>
-      <c r="K428" s="13"/>
-      <c r="L428" s="13"/>
-      <c r="M428" s="13"/>
-      <c r="N428" s="13">
-        <v>0.50529999999999997</v>
-      </c>
-      <c r="O428" s="13">
-        <v>0.52459999999999996</v>
-      </c>
-      <c r="P428" s="13">
-        <v>0.44700000000000001</v>
+        <v>0.75319999999999998</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A428" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H428" s="27">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I428" s="27">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="J428" s="27">
+        <v>0.224</v>
+      </c>
+      <c r="N428" s="27">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="O428" s="27">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="P428" s="27">
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H429" s="13">
-        <v>0.91620000000000001</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I429" s="13">
-        <v>0.4199</v>
+        <v>1</v>
       </c>
       <c r="J429" s="13">
-        <v>0.57310000000000005</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="K429" s="13"/>
       <c r="L429" s="13"/>
       <c r="M429" s="13"/>
-      <c r="N429" s="13"/>
-      <c r="O429" s="13"/>
-      <c r="P429" s="13"/>
+      <c r="N429" s="13">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="O429" s="13">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="P429" s="13">
+        <v>0.79510000000000003</v>
+      </c>
     </row>
     <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H430" s="13">
-        <v>0.53959999999999997</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="I430" s="13">
-        <v>0.5847</v>
+        <v>0.5</v>
       </c>
       <c r="J430" s="13">
-        <v>0.42130000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="K430" s="13"/>
       <c r="L430" s="13"/>
       <c r="M430" s="13"/>
-      <c r="N430" s="13"/>
-      <c r="O430" s="13"/>
-      <c r="P430" s="13"/>
+      <c r="N430" s="13">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="O430" s="13">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="P430" s="13">
+        <v>0.44700000000000001</v>
+      </c>
     </row>
     <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H431">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="I431">
-        <v>0.80620000000000003</v>
-      </c>
-      <c r="J431">
-        <v>0.84260000000000002</v>
-      </c>
-      <c r="N431">
-        <v>0.94789999999999996</v>
-      </c>
-      <c r="O431">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="P431">
-        <v>0.75949999999999995</v>
-      </c>
-    </row>
-    <row r="432" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H431" s="13">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="I431" s="13">
+        <v>0.4199</v>
+      </c>
+      <c r="J431" s="13">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="K431" s="13"/>
+      <c r="L431" s="13"/>
+      <c r="M431" s="13"/>
+      <c r="N431" s="13"/>
+      <c r="O431" s="13"/>
+      <c r="P431" s="13"/>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H432">
-        <v>0.53580000000000005</v>
-      </c>
-      <c r="I432">
-        <v>0.55269999999999997</v>
-      </c>
-      <c r="J432">
-        <v>0.53649999999999998</v>
-      </c>
-      <c r="N432">
-        <v>0.49669999999999997</v>
-      </c>
-      <c r="O432">
-        <v>0.48359999999999997</v>
-      </c>
-      <c r="P432">
-        <v>0.42099999999999999</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H432" s="13">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="I432" s="13">
+        <v>0.5847</v>
+      </c>
+      <c r="J432" s="13">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="K432" s="13"/>
+      <c r="L432" s="13"/>
+      <c r="M432" s="13"/>
+      <c r="N432" s="13"/>
+      <c r="O432" s="13"/>
+      <c r="P432" s="13"/>
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H433">
-        <v>0.86499999999999999</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="I433">
-        <v>0.32700000000000001</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="J433">
-        <v>0.4713</v>
+        <v>0.84260000000000002</v>
       </c>
       <c r="N433">
-        <v>0.95099999999999996</v>
+        <v>0.94789999999999996</v>
       </c>
       <c r="O433">
-        <v>1</v>
+        <v>0.63649999999999995</v>
       </c>
       <c r="P433">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="434" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A434" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H434" s="27">
-        <v>0.497</v>
-      </c>
-      <c r="I434" s="27">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="J434" s="27">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="N434" s="27">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O434" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="P434" s="27">
-        <v>0.48699999999999999</v>
+        <v>0.75949999999999995</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A434" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H434">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="I434">
+        <v>0.55269999999999997</v>
+      </c>
+      <c r="J434">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="N434">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="O434">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="P434">
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H435">
-        <v>0.88800000000000001</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="I435">
-        <v>0.60399999999999998</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="J435">
-        <v>0.71699999999999997</v>
+        <v>0.4713</v>
       </c>
       <c r="N435">
         <v>0.95099999999999996</v>
@@ -12444,257 +12408,303 @@
         <v>1</v>
       </c>
       <c r="P435">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A436" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H436" s="23">
-        <v>0.5202</v>
-      </c>
-      <c r="I436" s="23">
-        <v>0.54368000000000005</v>
-      </c>
-      <c r="J436" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H436" s="27">
+        <v>0.497</v>
+      </c>
+      <c r="I436" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J436" s="27">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N436" s="27">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K436" s="23"/>
-      <c r="L436" s="23"/>
-      <c r="M436" s="23"/>
-      <c r="N436" s="23">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O436" s="23">
+      <c r="O436" s="27">
         <v>0.5</v>
       </c>
-      <c r="P436" s="23">
-        <v>4.6899999999999997E-2</v>
+      <c r="P436" s="27">
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H437">
-        <v>0.90400000000000003</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="I437">
-        <v>0.48099999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="J437">
-        <v>0.625</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="N437">
-        <v>0.95699999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O437">
-        <v>0.154</v>
+        <v>1</v>
       </c>
       <c r="P437">
-        <v>0.26300000000000001</v>
+        <v>0.97450000000000003</v>
       </c>
     </row>
     <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H438" s="23">
+        <v>0.5202</v>
+      </c>
+      <c r="I438" s="23">
+        <v>0.54368000000000005</v>
+      </c>
+      <c r="J438" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="K438" s="23"/>
+      <c r="L438" s="23"/>
+      <c r="M438" s="23"/>
+      <c r="N438" s="23">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O438" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P438" s="23">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A439" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H439">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I439">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J439">
+        <v>0.625</v>
+      </c>
+      <c r="N439">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="O439">
+        <v>0.154</v>
+      </c>
+      <c r="P439">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A440" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H438">
+      <c r="H440">
         <v>0.53200000000000003</v>
       </c>
-      <c r="I438">
+      <c r="I440">
         <v>0.57099999999999995</v>
       </c>
-      <c r="J438">
+      <c r="J440">
         <v>0.441</v>
       </c>
-      <c r="N438">
+      <c r="N440">
         <v>0.502</v>
       </c>
-      <c r="O438">
+      <c r="O440">
         <v>0.505</v>
       </c>
-      <c r="P438">
+      <c r="P440">
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A439" s="15" t="s">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A441" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H439">
+      <c r="H441">
         <v>0.8992</v>
       </c>
-      <c r="I439">
+      <c r="I441">
         <v>0.41170000000000001</v>
       </c>
-      <c r="J439">
+      <c r="J441">
         <v>0.56130000000000002</v>
       </c>
-      <c r="N439">
+      <c r="N441">
         <v>0.95079999999999998</v>
       </c>
-      <c r="O439">
+      <c r="O441">
         <v>0.31180000000000002</v>
       </c>
-      <c r="P439">
+      <c r="P441">
         <v>0.46710000000000002</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A440" s="15" t="s">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A442" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H440">
+      <c r="H442">
         <v>0.52400000000000002</v>
       </c>
-      <c r="I440">
+      <c r="I442">
         <v>0.55100000000000005</v>
       </c>
-      <c r="J440">
+      <c r="J442">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N440">
+      <c r="N442">
         <v>0.49880000000000002</v>
       </c>
-      <c r="O440">
+      <c r="O442">
         <v>0.49459999999999998</v>
       </c>
-      <c r="P440">
+      <c r="P442">
         <v>0.27939999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="15"/>
-    </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A442" s="10" t="s">
+    <row r="443" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="15"/>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A444" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A443" s="7" t="s">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A445" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H443">
+      <c r="H445">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I443">
-        <v>1</v>
-      </c>
-      <c r="J443">
+      <c r="I445">
+        <v>1</v>
+      </c>
+      <c r="J445">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N443">
+      <c r="N445">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O443">
-        <v>1</v>
-      </c>
-      <c r="P443">
+      <c r="O445">
+        <v>1</v>
+      </c>
+      <c r="P445">
         <v>0.92730000000000001</v>
-      </c>
-    </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A444" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H444">
-        <v>6.8821400000000005E-2</v>
-      </c>
-      <c r="I444">
-        <v>0.5</v>
-      </c>
-      <c r="J444">
-        <v>0.120989</v>
-      </c>
-      <c r="N444">
-        <v>6.8820000000000006E-2</v>
-      </c>
-      <c r="O444">
-        <v>0.5</v>
-      </c>
-      <c r="P444">
-        <v>0.12098</v>
-      </c>
-    </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A445" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H446">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I446">
+        <v>0.5</v>
+      </c>
+      <c r="J446">
+        <v>0.120989</v>
+      </c>
+      <c r="N446">
+        <v>6.8820000000000006E-2</v>
+      </c>
+      <c r="O446">
+        <v>0.5</v>
+      </c>
+      <c r="P446">
+        <v>0.12098</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A448" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H446">
+      <c r="H448">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I446">
+      <c r="I448">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J446">
+      <c r="J448">
         <v>0.92</v>
       </c>
-      <c r="N446">
+      <c r="N448">
         <v>0.9456</v>
       </c>
-      <c r="O446">
+      <c r="O448">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P446">
+      <c r="P448">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A451" s="10" t="s">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A453" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A452" s="7" t="s">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A454" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H452">
+      <c r="H454">
         <v>0.4</v>
       </c>
-      <c r="I452">
+      <c r="I454">
         <v>0.5</v>
       </c>
-      <c r="J452">
+      <c r="J454">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N452">
+      <c r="N454">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O452">
+      <c r="O454">
         <v>0.5202</v>
       </c>
-      <c r="P452">
+      <c r="P454">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A453" s="7" t="s">
+    <row r="455" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A455" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H453">
+      <c r="H455">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I453">
+      <c r="I455">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J453">
+      <c r="J455">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N453">
+      <c r="N455">
         <v>0.5</v>
       </c>
-      <c r="O453">
+      <c r="O455">
         <v>0.34</v>
       </c>
-      <c r="P453">
+      <c r="P455">
         <v>0.40400000000000003</v>
       </c>
     </row>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="241">
   <si>
     <t>Model</t>
   </si>
@@ -1333,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R455"/>
+  <dimension ref="A1:R457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B303" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
-      <selection pane="bottomRight" activeCell="C253" sqref="C253"/>
+      <selection pane="bottomRight" activeCell="I321" sqref="I321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8854,11 +8854,101 @@
       <c r="A251" s="29" t="s">
         <v>108</v>
       </c>
+      <c r="B251" s="13">
+        <v>1</v>
+      </c>
+      <c r="C251" s="13">
+        <v>1</v>
+      </c>
+      <c r="D251" s="13">
+        <v>1</v>
+      </c>
+      <c r="E251" s="13">
+        <v>1</v>
+      </c>
+      <c r="F251" s="13">
+        <v>1</v>
+      </c>
+      <c r="G251" s="13">
+        <v>1</v>
+      </c>
+      <c r="H251" s="13">
+        <v>1</v>
+      </c>
+      <c r="I251" s="13">
+        <v>1</v>
+      </c>
+      <c r="J251" s="13">
+        <v>1</v>
+      </c>
+      <c r="K251" s="13">
+        <v>1</v>
+      </c>
+      <c r="L251" s="13">
+        <v>1</v>
+      </c>
+      <c r="M251" s="13">
+        <v>1</v>
+      </c>
+      <c r="N251" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="O251" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="P251" s="13">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="252" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="29" t="s">
         <v>109</v>
       </c>
+      <c r="B252" s="13">
+        <v>1</v>
+      </c>
+      <c r="C252" s="13">
+        <v>1</v>
+      </c>
+      <c r="D252" s="13">
+        <v>1</v>
+      </c>
+      <c r="E252" s="13">
+        <v>1</v>
+      </c>
+      <c r="F252" s="13">
+        <v>1</v>
+      </c>
+      <c r="G252" s="13">
+        <v>1</v>
+      </c>
+      <c r="H252" s="13">
+        <v>1</v>
+      </c>
+      <c r="I252" s="13">
+        <v>1</v>
+      </c>
+      <c r="J252" s="13">
+        <v>1</v>
+      </c>
+      <c r="K252" s="13">
+        <v>1</v>
+      </c>
+      <c r="L252" s="13">
+        <v>1</v>
+      </c>
+      <c r="M252" s="13">
+        <v>1</v>
+      </c>
+      <c r="N252" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="O252" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P252" s="13">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
@@ -9038,488 +9128,1145 @@
         <v>105</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="7" t="s">
+    <row r="289" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B289" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="C289" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D289" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E289" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="F289" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G289" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H289" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="I289" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="J289" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="K289" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="L289" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M289" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N289" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="O289" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="P289" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B290" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="C290" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="D290" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="E290" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="F290" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G290" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="H290" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="I290" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J290" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="K290" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="L290" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M290" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="N290" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O290" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P290" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="7" t="s">
+      <c r="H291">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I291">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J291">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="N291">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="O291">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P291">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
+      <c r="H292" s="27">
+        <v>0.505</v>
+      </c>
+      <c r="I292" s="27">
+        <v>0.502</v>
+      </c>
+      <c r="J292" s="27">
+        <v>0.156</v>
+      </c>
+      <c r="N292" s="27">
+        <v>0.501</v>
+      </c>
+      <c r="O292" s="27">
+        <v>0.501</v>
+      </c>
+      <c r="P292" s="27">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="7" t="s">
+      <c r="H293">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I293">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J293">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N293">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="O293">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="P293">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A294" s="26" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="7" t="s">
+      <c r="H294" s="27">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I294" s="27">
+        <v>0.503</v>
+      </c>
+      <c r="J294" s="27">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="N294" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="O294" s="27">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="P294" s="27">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="7" t="s">
+      <c r="H295">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="I295">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J295">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N295">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="O295">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="P295">
+        <v>9.0399999999999994E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
+      <c r="H296">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="I296">
+        <v>0.498</v>
+      </c>
+      <c r="J296">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N296">
+        <v>0.505</v>
+      </c>
+      <c r="O296">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P296">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="7" t="s">
+      <c r="H297">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I297">
+        <v>0.997</v>
+      </c>
+      <c r="J297">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N297">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="O297">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P297">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A298" s="7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="7" t="s">
+      <c r="H298">
+        <v>0.498</v>
+      </c>
+      <c r="I298">
+        <v>0.499</v>
+      </c>
+      <c r="J298">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="N298">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="O298">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P298">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A299" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A298" s="7" t="s">
+      <c r="H299">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I299">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J299">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N299" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O299" s="13">
+        <v>1</v>
+      </c>
+      <c r="P299" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A300" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="7" t="s">
+      <c r="H300">
+        <v>0.502</v>
+      </c>
+      <c r="I300">
+        <v>0.501</v>
+      </c>
+      <c r="J300">
+        <v>0.16</v>
+      </c>
+      <c r="N300" s="13">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O300" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P300" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A301" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A300" s="7" t="s">
+      <c r="H301">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I301">
+        <v>1</v>
+      </c>
+      <c r="J301">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N301">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="O301">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P301">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A302" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
+      <c r="H302">
+        <v>0.436</v>
+      </c>
+      <c r="I302">
+        <v>0.5</v>
+      </c>
+      <c r="J302">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N302">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O302">
+        <v>0.5</v>
+      </c>
+      <c r="P302">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A303" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="302" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="7" t="s">
+      <c r="H303">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I303">
+        <v>1</v>
+      </c>
+      <c r="J303">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N303">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="O303">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P303">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A304" s="26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="7" t="s">
+      <c r="H304" s="27">
+        <v>0.436</v>
+      </c>
+      <c r="I304" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J304" s="27">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N304" s="27">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="O304" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="P304" s="27">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="304" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="7" t="s">
+      <c r="H305">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="I305">
+        <v>4.24E-2</v>
+      </c>
+      <c r="J305">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="N305">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="O305">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="P305">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A306" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="7" t="s">
+      <c r="H306" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="I306" s="27">
+        <v>0.499</v>
+      </c>
+      <c r="J306" s="27">
+        <v>0.154</v>
+      </c>
+      <c r="N306" s="27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="O306" s="27">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P306" s="27">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="7" t="s">
+      <c r="H307">
+        <v>0.871</v>
+      </c>
+      <c r="I307">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J307">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="N307">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O307">
+        <v>1</v>
+      </c>
+      <c r="P307">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="7" t="s">
+      <c r="H308">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I308">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="J308">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="N308">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O308">
+        <v>0.5</v>
+      </c>
+      <c r="P308">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A309" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
+      <c r="H309">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I309">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J309">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N309" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O309" s="13">
+        <v>1</v>
+      </c>
+      <c r="P309" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A310" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="7" t="s">
+      <c r="H310">
+        <v>0.495</v>
+      </c>
+      <c r="I310">
+        <v>0.498</v>
+      </c>
+      <c r="J310">
+        <v>0.15</v>
+      </c>
+      <c r="N310" s="13">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O310" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P310" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A311" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="7" t="s">
+      <c r="H311">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I311">
+        <v>0.9899</v>
+      </c>
+      <c r="J311">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N311">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O311">
+        <v>1</v>
+      </c>
+      <c r="P311">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A312" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="7" t="s">
+      <c r="H312">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="I312">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="J312">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="N312">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O312">
+        <v>0.5</v>
+      </c>
+      <c r="P312">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A313" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="7" t="s">
+      <c r="H313">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="I313">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="J313">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N313" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O313" s="13">
+        <v>1</v>
+      </c>
+      <c r="P313" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="26" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="7" t="s">
+      <c r="H314" s="27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I314" s="27">
+        <v>0.497</v>
+      </c>
+      <c r="J314" s="27">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N314" s="27">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O314" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P314" s="27">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A315" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="7" t="s">
+      <c r="H315">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="I315">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J315">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="N315">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="O315">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="P315">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="7" t="s">
+      <c r="H316">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I316">
+        <v>0.496</v>
+      </c>
+      <c r="J316">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N316">
+        <v>0.495</v>
+      </c>
+      <c r="O316">
+        <v>0.496</v>
+      </c>
+      <c r="P316">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="7" t="s">
+      <c r="H317">
+        <v>0.66</v>
+      </c>
+      <c r="I317">
+        <v>2.64E-2</v>
+      </c>
+      <c r="J317">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="N317" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O317" s="13">
+        <v>1</v>
+      </c>
+      <c r="P317" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A318" s="26" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+      <c r="H318" s="27">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I318" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="J318" s="27">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N318" s="27">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O318" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P318" s="27">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A319" s="7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="7" t="s">
+      <c r="H319">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I319">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J319">
+        <v>9.98E-2</v>
+      </c>
+      <c r="N319" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O319" s="13">
+        <v>1</v>
+      </c>
+      <c r="P319" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A320" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="7" t="s">
-        <v>96</v>
+      <c r="H320">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="I320">
+        <v>0.503</v>
+      </c>
+      <c r="J320">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N320" s="13">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O320" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P320" s="13">
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="H321">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I321">
+        <v>0.05</v>
+      </c>
+      <c r="J321">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N321">
+        <v>0.75</v>
+      </c>
+      <c r="O321">
+        <v>0.02</v>
+      </c>
+      <c r="P321">
+        <v>0.05</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H322">
+        <v>0.504</v>
+      </c>
+      <c r="I322" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="J322">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="N322">
+        <v>0.502</v>
+      </c>
+      <c r="O322">
+        <v>0.501</v>
+      </c>
+      <c r="P322">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H323">
+        <v>0.86</v>
+      </c>
+      <c r="I323" s="13">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J323">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N323">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O323">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P323">
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A323" s="7"/>
-    </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A324" s="11" t="s">
+      <c r="H324">
+        <v>0.501</v>
+      </c>
+      <c r="I324">
+        <v>0.501</v>
+      </c>
+      <c r="J324">
+        <v>0.157</v>
+      </c>
+      <c r="N324">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="O324">
+        <v>0.504</v>
+      </c>
+      <c r="P324">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A325" s="7"/>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A326" s="11" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A325" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H325">
-        <v>0.98</v>
-      </c>
-      <c r="I325">
-        <v>0.86</v>
-      </c>
-      <c r="J325">
-        <v>0.91</v>
-      </c>
-      <c r="N325">
-        <v>1</v>
-      </c>
-      <c r="O325">
-        <v>0.95</v>
-      </c>
-      <c r="P325">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A326" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H326">
-        <v>0.51063999999999998</v>
-      </c>
-      <c r="I326">
-        <v>0.50104400000000004</v>
-      </c>
-      <c r="J326">
-        <v>0.47427999999999998</v>
-      </c>
-      <c r="N326">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="O326">
-        <v>0.5</v>
-      </c>
-      <c r="P326">
-        <v>0.48610100000000001</v>
       </c>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H327">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="I327">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="J327">
-        <v>0.81</v>
+        <v>0.91</v>
       </c>
       <c r="N327">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O327">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="P327">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="H328">
-        <v>0.52729999999999999</v>
+        <v>0.51063999999999998</v>
       </c>
       <c r="I328">
-        <v>0.52300000000000002</v>
+        <v>0.50104400000000004</v>
       </c>
       <c r="J328">
-        <v>0.52428900000000001</v>
+        <v>0.47427999999999998</v>
       </c>
       <c r="N328">
-        <v>0.51158499999999996</v>
+        <v>0.47289999999999999</v>
       </c>
       <c r="O328">
-        <v>0.50997000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="P328">
-        <v>0.51049999999999995</v>
+        <v>0.48610100000000001</v>
       </c>
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H329">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="I329">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="J329">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="N329">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="O329">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="P329">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="330" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H330">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I330">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J330">
+        <v>0.52428900000000001</v>
+      </c>
+      <c r="N330">
+        <v>0.51158499999999996</v>
+      </c>
+      <c r="O330">
+        <v>0.50997000000000003</v>
+      </c>
+      <c r="P330">
+        <v>0.51049999999999995</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A331" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H331">
+        <v>0.75</v>
+      </c>
+      <c r="I331">
+        <v>0.76</v>
+      </c>
+      <c r="J331">
+        <v>0.76</v>
+      </c>
+      <c r="N331">
+        <v>0.9</v>
+      </c>
+      <c r="O331">
+        <v>0.9</v>
+      </c>
+      <c r="P331">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H330">
+      <c r="H332">
         <v>0.51670000000000005</v>
       </c>
-      <c r="I330">
+      <c r="I332">
         <v>0.51490000000000002</v>
       </c>
-      <c r="J330">
+      <c r="J332">
         <v>0.51500000000000001</v>
       </c>
-      <c r="N330">
+      <c r="N332">
         <v>0.49696000000000001</v>
       </c>
-      <c r="O330">
+      <c r="O332">
         <v>0.49697999999999998</v>
       </c>
-      <c r="P330">
+      <c r="P332">
         <v>0.49697000000000002</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A331" s="7"/>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A332" s="10" t="s">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A333" s="7"/>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A334" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A333" s="12" t="s">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A335" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B333">
+      <c r="B335">
         <v>0.93799999999999994</v>
       </c>
-      <c r="C333">
+      <c r="C335">
         <v>0.79749999999999999</v>
       </c>
-      <c r="D333">
+      <c r="D335">
         <v>0.86160000000000003</v>
       </c>
-      <c r="E333">
+      <c r="E335">
         <v>0.82899999999999996</v>
       </c>
-      <c r="F333">
+      <c r="F335">
         <v>0.76200000000000001</v>
       </c>
-      <c r="G333">
+      <c r="G335">
         <v>0.79279999999999995</v>
       </c>
-      <c r="H333">
+      <c r="H335">
         <v>0.86319999999999997</v>
       </c>
-      <c r="I333">
+      <c r="I335">
         <v>0.66349999999999998</v>
       </c>
-      <c r="J333">
+      <c r="J335">
         <v>0.74939999999999996</v>
       </c>
-      <c r="K333">
+      <c r="K335">
         <v>0.84730000000000005</v>
       </c>
-      <c r="L333">
+      <c r="L335">
         <v>0.74829999999999997</v>
       </c>
-      <c r="M333">
+      <c r="M335">
         <v>0.79410000000000003</v>
       </c>
-      <c r="N333">
+      <c r="N335">
         <v>0.95420000000000005</v>
       </c>
-      <c r="O333">
+      <c r="O335">
         <v>0.71499999999999997</v>
       </c>
-      <c r="P333">
+      <c r="P335">
         <v>0.81440000000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A334" s="12" t="s">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A336" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B334">
+      <c r="B336">
         <v>0.501</v>
       </c>
-      <c r="C334">
+      <c r="C336">
         <v>0.504</v>
       </c>
-      <c r="D334">
+      <c r="D336">
         <v>0.48</v>
       </c>
-      <c r="E334">
+      <c r="E336">
         <v>0.51600000000000001</v>
       </c>
-      <c r="F334">
+      <c r="F336">
         <v>0.52039999999999997</v>
       </c>
-      <c r="G334">
+      <c r="G336">
         <v>0.51449999999999996</v>
       </c>
-      <c r="H334">
+      <c r="H336">
         <v>0.49009999999999998</v>
       </c>
-      <c r="I334">
+      <c r="I336">
         <v>0.4803</v>
       </c>
-      <c r="J334">
+      <c r="J336">
         <v>0.45860000000000001</v>
       </c>
-      <c r="K334">
+      <c r="K336">
         <v>0.50800000000000001</v>
       </c>
-      <c r="L334">
+      <c r="L336">
         <v>0.51139999999999997</v>
       </c>
-      <c r="M334">
+      <c r="M336">
         <v>0.502</v>
       </c>
-      <c r="N334">
+      <c r="N336">
         <v>0.50439999999999996</v>
       </c>
-      <c r="O334">
+      <c r="O336">
         <v>0.51939999999999997</v>
       </c>
-      <c r="P334">
+      <c r="P336">
         <v>0.45669999999999999</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A335" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B335" s="13"/>
-      <c r="C335" s="13"/>
-      <c r="D335" s="13"/>
-      <c r="E335" s="13"/>
-      <c r="F335" s="13"/>
-      <c r="G335" s="13"/>
-      <c r="H335" s="13">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="I335" s="13">
-        <v>0.57509999999999994</v>
-      </c>
-      <c r="J335" s="13">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="K335" s="13"/>
-      <c r="L335" s="13"/>
-      <c r="M335" s="13"/>
-      <c r="N335" s="13">
-        <v>0.95269999999999999</v>
-      </c>
-      <c r="O335" s="13">
-        <v>0.71719999999999995</v>
-      </c>
-      <c r="P335" s="13">
-        <v>0.81679999999999997</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H336" s="6">
-        <v>0.496</v>
-      </c>
-      <c r="I336" s="6">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="J336" s="6">
-        <v>0.441</v>
-      </c>
-      <c r="N336" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="O336" s="6">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="P336" s="6">
-        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B337" s="13"/>
       <c r="C337" s="13"/>
@@ -9528,13 +10275,13 @@
       <c r="F337" s="13"/>
       <c r="G337" s="13"/>
       <c r="H337" s="13">
-        <v>0.83720000000000006</v>
+        <v>0.86719999999999997</v>
       </c>
       <c r="I337" s="13">
-        <v>0.52710000000000001</v>
+        <v>0.57509999999999994</v>
       </c>
       <c r="J337" s="13">
-        <v>0.64419999999999999</v>
+        <v>0.69010000000000005</v>
       </c>
       <c r="K337" s="13"/>
       <c r="L337" s="13"/>
@@ -9549,18 +10296,18 @@
         <v>0.81679999999999997</v>
       </c>
     </row>
-    <row r="338" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H338" s="6">
-        <v>0.4647</v>
+        <v>0.496</v>
       </c>
       <c r="I338" s="6">
-        <v>0.42220000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="J338" s="6">
-        <v>0.39400000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="N338" s="6">
         <v>0.503</v>
@@ -9574,7 +10321,7 @@
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B339" s="13"/>
       <c r="C339" s="13"/>
@@ -9583,62 +10330,53 @@
       <c r="F339" s="13"/>
       <c r="G339" s="13"/>
       <c r="H339" s="13">
-        <v>0.82820000000000005</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="I339" s="13">
-        <v>0.39660000000000001</v>
+        <v>0.52710000000000001</v>
       </c>
       <c r="J339" s="13">
-        <v>0.53210000000000002</v>
+        <v>0.64419999999999999</v>
       </c>
       <c r="K339" s="13"/>
       <c r="L339" s="13"/>
       <c r="M339" s="13"/>
       <c r="N339" s="13">
-        <v>0.94799999999999995</v>
+        <v>0.95269999999999999</v>
       </c>
       <c r="O339" s="13">
-        <v>0.45129999999999998</v>
+        <v>0.71719999999999995</v>
       </c>
       <c r="P339" s="13">
-        <v>0.60940000000000005</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A340" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B340" s="13"/>
-      <c r="C340" s="13"/>
-      <c r="D340" s="13"/>
-      <c r="E340" s="13"/>
-      <c r="F340" s="13"/>
-      <c r="G340" s="13"/>
-      <c r="H340" s="13">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="I340" s="13">
-        <v>0.4289</v>
-      </c>
-      <c r="J340" s="13">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="K340" s="13"/>
-      <c r="L340" s="13"/>
-      <c r="M340" s="13"/>
-      <c r="N340" s="13">
-        <v>0.49959999999999999</v>
-      </c>
-      <c r="O340" s="13">
-        <v>0.498</v>
-      </c>
-      <c r="P340" s="13">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.81679999999999997</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H340" s="6">
+        <v>0.4647</v>
+      </c>
+      <c r="I340" s="6">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="J340" s="6">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="N340" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="O340" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P340" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B341" s="13"/>
       <c r="C341" s="13"/>
@@ -9647,30 +10385,30 @@
       <c r="F341" s="13"/>
       <c r="G341" s="13"/>
       <c r="H341" s="13">
-        <v>0.86309999999999998</v>
+        <v>0.82820000000000005</v>
       </c>
       <c r="I341" s="13">
-        <v>0.84689999999999999</v>
+        <v>0.39660000000000001</v>
       </c>
       <c r="J341" s="13">
-        <v>0.85409999999999997</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="K341" s="13"/>
       <c r="L341" s="13"/>
       <c r="M341" s="13"/>
       <c r="N341" s="13">
-        <v>0.9466</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="O341" s="13">
-        <v>0.44030000000000002</v>
+        <v>0.45129999999999998</v>
       </c>
       <c r="P341" s="13">
-        <v>0.59689999999999999</v>
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="342" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B342" s="13"/>
       <c r="C342" s="13"/>
@@ -9679,30 +10417,30 @@
       <c r="F342" s="13"/>
       <c r="G342" s="13"/>
       <c r="H342" s="13">
-        <v>0.47710000000000002</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="I342" s="13">
-        <v>0.47439999999999999</v>
+        <v>0.4289</v>
       </c>
       <c r="J342" s="13">
-        <v>0.47549999999999998</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="K342" s="13"/>
       <c r="L342" s="13"/>
       <c r="M342" s="13"/>
       <c r="N342" s="13">
-        <v>0.49530000000000002</v>
+        <v>0.49959999999999999</v>
       </c>
       <c r="O342" s="13">
-        <v>0.4753</v>
+        <v>0.498</v>
       </c>
       <c r="P342" s="13">
-        <v>0.34200000000000003</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="343" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B343" s="13"/>
       <c r="C343" s="13"/>
@@ -9711,30 +10449,30 @@
       <c r="F343" s="13"/>
       <c r="G343" s="13"/>
       <c r="H343" s="13">
-        <v>0.90200000000000002</v>
+        <v>0.86309999999999998</v>
       </c>
       <c r="I343" s="13">
-        <v>0.58579999999999999</v>
+        <v>0.84689999999999999</v>
       </c>
       <c r="J343" s="13">
-        <v>0.90169999999999995</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="K343" s="13"/>
       <c r="L343" s="13"/>
       <c r="M343" s="13"/>
       <c r="N343" s="13">
-        <v>0.9506</v>
+        <v>0.9466</v>
       </c>
       <c r="O343" s="13">
-        <v>1</v>
+        <v>0.44030000000000002</v>
       </c>
       <c r="P343" s="13">
-        <v>0.97450000000000003</v>
+        <v>0.59689999999999999</v>
       </c>
     </row>
     <row r="344" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B344" s="13"/>
       <c r="C344" s="13"/>
@@ -9743,30 +10481,30 @@
       <c r="F344" s="13"/>
       <c r="G344" s="13"/>
       <c r="H344" s="13">
-        <v>0.53610000000000002</v>
+        <v>0.47710000000000002</v>
       </c>
       <c r="I344" s="13">
-        <v>0.57920000000000005</v>
+        <v>0.47439999999999999</v>
       </c>
       <c r="J344" s="13">
-        <v>0.4859</v>
+        <v>0.47549999999999998</v>
       </c>
       <c r="K344" s="13"/>
       <c r="L344" s="13"/>
       <c r="M344" s="13"/>
       <c r="N344" s="13">
-        <v>0.502</v>
+        <v>0.49530000000000002</v>
       </c>
       <c r="O344" s="13">
-        <v>0.51100000000000001</v>
+        <v>0.4753</v>
       </c>
       <c r="P344" s="13">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B345" s="13"/>
       <c r="C345" s="13"/>
@@ -9774,54 +10512,63 @@
       <c r="E345" s="13"/>
       <c r="F345" s="13"/>
       <c r="G345" s="13"/>
-      <c r="H345">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="I345">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="J345">
-        <v>0.71779999999999999</v>
+      <c r="H345" s="13">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I345" s="13">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="J345" s="13">
+        <v>0.90169999999999995</v>
       </c>
       <c r="K345" s="13"/>
       <c r="L345" s="13"/>
       <c r="M345" s="13"/>
       <c r="N345" s="13">
-        <v>0.89939999999999998</v>
+        <v>0.9506</v>
       </c>
       <c r="O345" s="13">
-        <v>0.85340000000000005</v>
+        <v>1</v>
       </c>
       <c r="P345" s="13">
-        <v>0.95269999999999999</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H346" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="I346" s="6">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="J346" s="6">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="N346" s="6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="O346" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="P346" s="6">
-        <v>0.49399999999999999</v>
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B346" s="13"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
+      <c r="H346" s="13">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="I346" s="13">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="J346" s="13">
+        <v>0.4859</v>
+      </c>
+      <c r="K346" s="13"/>
+      <c r="L346" s="13"/>
+      <c r="M346" s="13"/>
+      <c r="N346" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="O346" s="13">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="P346" s="13">
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B347" s="13"/>
       <c r="C347" s="13"/>
@@ -9829,63 +10576,54 @@
       <c r="E347" s="13"/>
       <c r="F347" s="13"/>
       <c r="G347" s="13"/>
-      <c r="H347" s="13">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="I347" s="13">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="J347" s="13">
-        <v>0.1605</v>
+      <c r="H347">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="I347">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="J347">
+        <v>0.71779999999999999</v>
       </c>
       <c r="K347" s="13"/>
       <c r="L347" s="13"/>
       <c r="M347" s="13"/>
       <c r="N347" s="13">
-        <v>0.92500000000000004</v>
+        <v>0.89939999999999998</v>
       </c>
       <c r="O347" s="13">
-        <v>4.5100000000000001E-2</v>
+        <v>0.85340000000000005</v>
       </c>
       <c r="P347" s="13">
-        <v>8.5099999999999995E-2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A348" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B348" s="13"/>
-      <c r="C348" s="13"/>
-      <c r="D348" s="13"/>
-      <c r="E348" s="13"/>
-      <c r="F348" s="13"/>
-      <c r="G348" s="13"/>
-      <c r="H348" s="13">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="I348" s="13">
-        <v>0.51</v>
-      </c>
-      <c r="J348" s="13">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="K348" s="13"/>
-      <c r="L348" s="13"/>
-      <c r="M348" s="13"/>
-      <c r="N348" s="13">
-        <v>0.505</v>
-      </c>
-      <c r="O348" s="13">
-        <v>0.505</v>
-      </c>
-      <c r="P348" s="13">
-        <v>9.0999999999999998E-2</v>
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A348" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H348" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I348" s="6">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J348" s="6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N348" s="6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O348" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="P348" s="6">
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B349" s="13"/>
       <c r="C349" s="13"/>
@@ -9894,30 +10632,30 @@
       <c r="F349" s="13"/>
       <c r="G349" s="13"/>
       <c r="H349" s="13">
-        <v>0.88349999999999995</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="I349" s="13">
-        <v>0.65839999999999999</v>
+        <v>8.9399999999999993E-2</v>
       </c>
       <c r="J349" s="13">
-        <v>0.75290000000000001</v>
+        <v>0.1605</v>
       </c>
       <c r="K349" s="13"/>
       <c r="L349" s="13"/>
       <c r="M349" s="13"/>
       <c r="N349" s="13">
-        <v>0.94969999999999999</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="O349" s="13">
-        <v>0.65100000000000002</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="P349" s="13">
-        <v>0.77100000000000002</v>
+        <v>8.5099999999999995E-2</v>
       </c>
     </row>
     <row r="350" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B350" s="13"/>
       <c r="C350" s="13"/>
@@ -9926,30 +10664,30 @@
       <c r="F350" s="13"/>
       <c r="G350" s="13"/>
       <c r="H350" s="13">
-        <v>0.45300000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="I350" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="J350" s="13">
-        <v>0.436</v>
+        <v>0.19650000000000001</v>
       </c>
       <c r="K350" s="13"/>
       <c r="L350" s="13"/>
       <c r="M350" s="13"/>
       <c r="N350" s="13">
-        <v>0.54</v>
+        <v>0.505</v>
       </c>
       <c r="O350" s="13">
-        <v>0.58699999999999997</v>
+        <v>0.505</v>
       </c>
       <c r="P350" s="13">
-        <v>0.443</v>
+        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B351" s="13"/>
       <c r="C351" s="13"/>
@@ -9958,30 +10696,30 @@
       <c r="F351" s="13"/>
       <c r="G351" s="13"/>
       <c r="H351" s="13">
-        <v>0.86980000000000002</v>
+        <v>0.88349999999999995</v>
       </c>
       <c r="I351" s="13">
-        <v>1</v>
+        <v>0.65839999999999999</v>
       </c>
       <c r="J351" s="13">
-        <v>0.92989999999999995</v>
+        <v>0.75290000000000001</v>
       </c>
       <c r="K351" s="13"/>
       <c r="L351" s="13"/>
       <c r="M351" s="13"/>
       <c r="N351" s="13">
-        <v>0.95230000000000004</v>
+        <v>0.94969999999999999</v>
       </c>
       <c r="O351" s="13">
-        <v>0.22239999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
       <c r="P351" s="13">
-        <v>0.35699999999999998</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="352" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B352" s="13"/>
       <c r="C352" s="13"/>
@@ -9990,30 +10728,30 @@
       <c r="F352" s="13"/>
       <c r="G352" s="13"/>
       <c r="H352" s="13">
-        <v>0.49830000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="I352" s="13">
-        <v>0.49959999999999999</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="J352" s="13">
-        <v>0.1363</v>
+        <v>0.436</v>
       </c>
       <c r="K352" s="13"/>
       <c r="L352" s="13"/>
       <c r="M352" s="13"/>
       <c r="N352" s="13">
-        <v>0.44700000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="O352" s="13">
-        <v>0.44</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="P352" s="13">
-        <v>0.44350000000000001</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B353" s="13"/>
       <c r="C353" s="13"/>
@@ -10022,53 +10760,62 @@
       <c r="F353" s="13"/>
       <c r="G353" s="13"/>
       <c r="H353" s="13">
-        <v>0.89810000000000001</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I353" s="13">
-        <v>0.55879999999999996</v>
+        <v>1</v>
       </c>
       <c r="J353" s="13">
-        <v>0.68659999999999999</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="K353" s="13"/>
       <c r="L353" s="13"/>
       <c r="M353" s="13"/>
       <c r="N353" s="13">
-        <v>0.94979999999999998</v>
+        <v>0.95230000000000004</v>
       </c>
       <c r="O353" s="13">
-        <v>0.73180000000000001</v>
+        <v>0.22239999999999999</v>
       </c>
       <c r="P353" s="13">
-        <v>0.82550000000000001</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A354" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H354" s="6">
-        <v>0.47820000000000001</v>
-      </c>
-      <c r="I354" s="6">
-        <v>0.4612</v>
-      </c>
-      <c r="J354" s="6">
-        <v>0.45629999999999998</v>
-      </c>
-      <c r="N354" s="6">
-        <v>0.5111</v>
-      </c>
-      <c r="O354" s="6">
-        <v>0.5242</v>
-      </c>
-      <c r="P354" s="6">
-        <v>0.45760000000000001</v>
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A354" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B354" s="13"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="13"/>
+      <c r="G354" s="13"/>
+      <c r="H354" s="13">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="I354" s="13">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="J354" s="13">
+        <v>0.1363</v>
+      </c>
+      <c r="K354" s="13"/>
+      <c r="L354" s="13"/>
+      <c r="M354" s="13"/>
+      <c r="N354" s="13">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="O354" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="P354" s="13">
+        <v>0.44350000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B355" s="13"/>
       <c r="C355" s="13"/>
@@ -10077,62 +10824,53 @@
       <c r="F355" s="13"/>
       <c r="G355" s="13"/>
       <c r="H355" s="13">
-        <v>0.872</v>
+        <v>0.89810000000000001</v>
       </c>
       <c r="I355" s="13">
-        <v>0.68799999999999994</v>
+        <v>0.55879999999999996</v>
       </c>
       <c r="J355" s="13">
-        <v>0.76700000000000002</v>
+        <v>0.68659999999999999</v>
       </c>
       <c r="K355" s="13"/>
       <c r="L355" s="13"/>
       <c r="M355" s="13"/>
       <c r="N355" s="13">
-        <v>0.95499999999999996</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="O355" s="13">
-        <v>0.54200000000000004</v>
+        <v>0.73180000000000001</v>
       </c>
       <c r="P355" s="13">
-        <v>0.69</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A356" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B356" s="13"/>
-      <c r="C356" s="13"/>
-      <c r="D356" s="13"/>
-      <c r="E356" s="13"/>
-      <c r="F356" s="13"/>
-      <c r="G356" s="13"/>
-      <c r="H356" s="13">
-        <v>0.502</v>
-      </c>
-      <c r="I356" s="13">
-        <v>0.504</v>
-      </c>
-      <c r="J356" s="13">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="K356" s="13"/>
-      <c r="L356" s="13"/>
-      <c r="M356" s="13"/>
-      <c r="N356" s="13">
-        <v>0.504</v>
-      </c>
-      <c r="O356" s="13">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="P356" s="13">
-        <v>0.39500000000000002</v>
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A356" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H356" s="6">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="I356" s="6">
+        <v>0.4612</v>
+      </c>
+      <c r="J356" s="6">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="N356" s="6">
+        <v>0.5111</v>
+      </c>
+      <c r="O356" s="6">
+        <v>0.5242</v>
+      </c>
+      <c r="P356" s="6">
+        <v>0.45760000000000001</v>
       </c>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B357" s="13"/>
       <c r="C357" s="13"/>
@@ -10141,53 +10879,62 @@
       <c r="F357" s="13"/>
       <c r="G357" s="13"/>
       <c r="H357" s="13">
-        <v>0.83050000000000002</v>
+        <v>0.872</v>
       </c>
       <c r="I357" s="13">
-        <v>0.40229999999999999</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="J357" s="13">
-        <v>0.53839999999999999</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="K357" s="13"/>
       <c r="L357" s="13"/>
       <c r="M357" s="13"/>
       <c r="N357" s="13">
-        <v>0.95089999999999997</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="O357" s="13">
-        <v>0.75580000000000003</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="P357" s="13">
-        <v>0.84119999999999995</v>
-      </c>
-    </row>
-    <row r="358" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H358" s="6">
-        <v>0.46529999999999999</v>
-      </c>
-      <c r="I358" s="6">
-        <v>0.4249</v>
-      </c>
-      <c r="J358" s="6">
-        <v>0.35139999999999999</v>
-      </c>
-      <c r="N358" s="6">
-        <v>0.50070000000000003</v>
-      </c>
-      <c r="O358" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="P358" s="6">
-        <v>0.4632</v>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A358" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B358" s="13"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="13"/>
+      <c r="G358" s="13"/>
+      <c r="H358" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="I358" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="J358" s="13">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K358" s="13"/>
+      <c r="L358" s="13"/>
+      <c r="M358" s="13"/>
+      <c r="N358" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="O358" s="13">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P358" s="13">
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B359" s="13"/>
       <c r="C359" s="13"/>
@@ -10196,62 +10943,53 @@
       <c r="F359" s="13"/>
       <c r="G359" s="13"/>
       <c r="H359" s="13">
-        <v>0.88500000000000001</v>
+        <v>0.83050000000000002</v>
       </c>
       <c r="I359" s="13">
-        <v>0.83899999999999997</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="J359" s="13">
-        <v>0.86099999999999999</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="K359" s="13"/>
       <c r="L359" s="13"/>
       <c r="M359" s="13"/>
       <c r="N359" s="13">
-        <v>0.95199999999999996</v>
+        <v>0.95089999999999997</v>
       </c>
       <c r="O359" s="13">
-        <v>0.50700000000000001</v>
+        <v>0.75580000000000003</v>
       </c>
       <c r="P359" s="13">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A360" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B360" s="13"/>
-      <c r="C360" s="13"/>
-      <c r="D360" s="13"/>
-      <c r="E360" s="13"/>
-      <c r="F360" s="13"/>
-      <c r="G360" s="13"/>
-      <c r="H360" s="13">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="I360" s="13">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="J360" s="13">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="K360" s="13"/>
-      <c r="L360" s="13"/>
-      <c r="M360" s="13"/>
-      <c r="N360" s="13">
-        <v>0.502</v>
-      </c>
-      <c r="O360" s="13">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="P360" s="13">
-        <v>0.379</v>
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H360" s="6">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="I360" s="6">
+        <v>0.4249</v>
+      </c>
+      <c r="J360" s="6">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="N360" s="6">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="O360" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="P360" s="6">
+        <v>0.4632</v>
       </c>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B361" s="13"/>
       <c r="C361" s="13"/>
@@ -10260,30 +10998,30 @@
       <c r="F361" s="13"/>
       <c r="G361" s="13"/>
       <c r="H361" s="13">
-        <v>0.84840000000000004</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I361" s="13">
-        <v>0.2802</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="J361" s="13">
-        <v>0.41899999999999998</v>
+        <v>0.86099999999999999</v>
       </c>
       <c r="K361" s="13"/>
       <c r="L361" s="13"/>
       <c r="M361" s="13"/>
       <c r="N361" s="13">
-        <v>0.61709999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O361" s="13">
-        <v>2.3599999999999999E-2</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="P361" s="13">
-        <v>4.5100000000000001E-2</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="362" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B362" s="13"/>
       <c r="C362" s="13"/>
@@ -10292,30 +11030,30 @@
       <c r="F362" s="13"/>
       <c r="G362" s="13"/>
       <c r="H362" s="13">
-        <v>0.48520000000000002</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="I362" s="13">
-        <v>0.47310000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="J362" s="13">
-        <v>0.313</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="K362" s="13"/>
       <c r="L362" s="13"/>
       <c r="M362" s="13"/>
       <c r="N362" s="13">
-        <v>0.496</v>
+        <v>0.502</v>
       </c>
       <c r="O362" s="13">
-        <v>0.498</v>
+        <v>0.51300000000000001</v>
       </c>
       <c r="P362" s="13">
-        <v>6.9699999999999998E-2</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B363" s="13"/>
       <c r="C363" s="13"/>
@@ -10324,53 +11062,62 @@
       <c r="F363" s="13"/>
       <c r="G363" s="13"/>
       <c r="H363" s="13">
-        <v>0.86970000000000003</v>
+        <v>0.84840000000000004</v>
       </c>
       <c r="I363" s="13">
-        <v>0.996</v>
+        <v>0.2802</v>
       </c>
       <c r="J363" s="13">
-        <v>0.92810000000000004</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="K363" s="13"/>
       <c r="L363" s="13"/>
       <c r="M363" s="13"/>
       <c r="N363" s="13">
-        <v>0.94699999999999995</v>
+        <v>0.61709999999999998</v>
       </c>
       <c r="O363" s="13">
-        <v>0.47210000000000002</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="P363" s="13">
-        <v>0.62719999999999998</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H364" s="6">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="I364" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J364" s="6">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N364" s="6">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="O364" s="6">
-        <v>0.47689999999999999</v>
-      </c>
-      <c r="P364" s="6">
-        <v>0.35599999999999998</v>
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A364" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B364" s="13"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="13"/>
+      <c r="F364" s="13"/>
+      <c r="G364" s="13"/>
+      <c r="H364" s="13">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="I364" s="13">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="J364" s="13">
+        <v>0.313</v>
+      </c>
+      <c r="K364" s="13"/>
+      <c r="L364" s="13"/>
+      <c r="M364" s="13"/>
+      <c r="N364" s="13">
+        <v>0.496</v>
+      </c>
+      <c r="O364" s="13">
+        <v>0.498</v>
+      </c>
+      <c r="P364" s="13">
+        <v>6.9699999999999998E-2</v>
       </c>
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B365" s="13"/>
       <c r="C365" s="13"/>
@@ -10379,62 +11126,53 @@
       <c r="F365" s="13"/>
       <c r="G365" s="13"/>
       <c r="H365" s="13">
-        <v>0.86929999999999996</v>
+        <v>0.86970000000000003</v>
       </c>
       <c r="I365" s="13">
-        <v>0.96909999999999996</v>
+        <v>0.996</v>
       </c>
       <c r="J365" s="13">
-        <v>0.91590000000000005</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="K365" s="13"/>
       <c r="L365" s="13"/>
       <c r="M365" s="13"/>
       <c r="N365" s="13">
-        <v>0.86019999999999996</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="O365" s="13">
-        <v>4.1000000000000002E-2</v>
+        <v>0.47210000000000002</v>
       </c>
       <c r="P365" s="13">
-        <v>7.6899999999999996E-2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A366" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B366" s="13"/>
-      <c r="C366" s="13"/>
-      <c r="D366" s="13"/>
-      <c r="E366" s="13"/>
-      <c r="F366" s="13"/>
-      <c r="G366" s="13"/>
-      <c r="H366" s="13">
-        <v>0.4924</v>
-      </c>
-      <c r="I366" s="13">
-        <v>0.498</v>
-      </c>
-      <c r="J366" s="13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="K366" s="13"/>
-      <c r="L366" s="13"/>
-      <c r="M366" s="13"/>
-      <c r="N366" s="13">
-        <v>0.49790000000000001</v>
-      </c>
-      <c r="O366" s="13">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="P366" s="13">
-        <v>8.5999999999999993E-2</v>
+        <v>0.62719999999999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H366" s="6">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I366" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J366" s="6">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N366" s="6">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="O366" s="6">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="P366" s="6">
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B367" s="13"/>
       <c r="C367" s="13"/>
@@ -10443,30 +11181,30 @@
       <c r="F367" s="13"/>
       <c r="G367" s="13"/>
       <c r="H367" s="13">
-        <v>0.89829999999999999</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="I367" s="13">
-        <v>0.50129999999999997</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="J367" s="13">
-        <v>0.64100000000000001</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="K367" s="13"/>
       <c r="L367" s="13"/>
       <c r="M367" s="13"/>
       <c r="N367" s="13">
-        <v>0.9526</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="O367" s="13">
-        <v>9.7900000000000001E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="P367" s="13">
-        <v>0.17449999999999999</v>
+        <v>7.6899999999999996E-2</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B368" s="13"/>
       <c r="C368" s="13"/>
@@ -10475,48 +11213,62 @@
       <c r="F368" s="13"/>
       <c r="G368" s="13"/>
       <c r="H368" s="13">
-        <v>0.5272</v>
+        <v>0.4924</v>
       </c>
       <c r="I368" s="13">
-        <v>0.56100000000000005</v>
+        <v>0.498</v>
       </c>
       <c r="J368" s="13">
-        <v>0.4456</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="K368" s="13"/>
       <c r="L368" s="13"/>
       <c r="M368" s="13"/>
       <c r="N368" s="13">
-        <v>0.49969999999999998</v>
+        <v>0.49790000000000001</v>
       </c>
       <c r="O368" s="13">
-        <v>0.49940000000000001</v>
+        <v>0.49819999999999998</v>
       </c>
       <c r="P368" s="13">
-        <v>0.13469999999999999</v>
+        <v>8.5999999999999993E-2</v>
       </c>
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A369" s="7"/>
+      <c r="A369" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="B369" s="13"/>
       <c r="C369" s="13"/>
       <c r="D369" s="13"/>
       <c r="E369" s="13"/>
       <c r="F369" s="13"/>
       <c r="G369" s="13"/>
-      <c r="H369" s="13"/>
-      <c r="I369" s="13"/>
-      <c r="J369" s="13"/>
+      <c r="H369" s="13">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I369" s="13">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="J369" s="13">
+        <v>0.64100000000000001</v>
+      </c>
       <c r="K369" s="13"/>
       <c r="L369" s="13"/>
       <c r="M369" s="13"/>
-      <c r="N369" s="13"/>
-      <c r="O369" s="13"/>
-      <c r="P369" s="13"/>
+      <c r="N369" s="13">
+        <v>0.9526</v>
+      </c>
+      <c r="O369" s="13">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="P369" s="13">
+        <v>0.17449999999999999</v>
+      </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A370" s="14" t="s">
-        <v>110</v>
+      <c r="A370" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="B370" s="13"/>
       <c r="C370" s="13"/>
@@ -10524,51 +11276,49 @@
       <c r="E370" s="13"/>
       <c r="F370" s="13"/>
       <c r="G370" s="13"/>
-      <c r="H370" s="13"/>
-      <c r="I370" s="13"/>
-      <c r="J370" s="13"/>
+      <c r="H370" s="13">
+        <v>0.5272</v>
+      </c>
+      <c r="I370" s="13">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J370" s="13">
+        <v>0.4456</v>
+      </c>
       <c r="K370" s="13"/>
       <c r="L370" s="13"/>
       <c r="M370" s="13"/>
-      <c r="N370" s="13"/>
-      <c r="O370" s="13"/>
-      <c r="P370" s="13"/>
+      <c r="N370" s="13">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="O370" s="13">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="P370" s="13">
+        <v>0.13469999999999999</v>
+      </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A371" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="A371" s="7"/>
       <c r="B371" s="13"/>
       <c r="C371" s="13"/>
       <c r="D371" s="13"/>
       <c r="E371" s="13"/>
       <c r="F371" s="13"/>
       <c r="G371" s="13"/>
-      <c r="H371" s="16">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="I371" s="16">
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="J371" s="16">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="K371" s="17"/>
-      <c r="L371" s="17"/>
-      <c r="M371" s="17"/>
-      <c r="N371" s="17">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="O371" s="17">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="P371" s="16">
-        <v>0.67889999999999995</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="15" t="s">
-        <v>57</v>
+      <c r="H371" s="13"/>
+      <c r="I371" s="13"/>
+      <c r="J371" s="13"/>
+      <c r="K371" s="13"/>
+      <c r="L371" s="13"/>
+      <c r="M371" s="13"/>
+      <c r="N371" s="13"/>
+      <c r="O371" s="13"/>
+      <c r="P371" s="13"/>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A372" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="B372" s="13"/>
       <c r="C372" s="13"/>
@@ -10576,31 +11326,19 @@
       <c r="E372" s="13"/>
       <c r="F372" s="13"/>
       <c r="G372" s="13"/>
-      <c r="H372" s="17">
-        <v>0.50287221200679399</v>
-      </c>
-      <c r="I372" s="17">
-        <v>0.50564061657417803</v>
-      </c>
-      <c r="J372" s="16">
-        <v>0.47544921610894098</v>
-      </c>
-      <c r="K372" s="17"/>
-      <c r="L372" s="17"/>
-      <c r="M372" s="17"/>
-      <c r="N372" s="17">
-        <v>0.49464383858752797</v>
-      </c>
-      <c r="O372" s="17">
-        <v>0.47154585701070401</v>
-      </c>
-      <c r="P372" s="17">
-        <v>0.37998319515368301</v>
-      </c>
+      <c r="H372" s="13"/>
+      <c r="I372" s="13"/>
+      <c r="J372" s="13"/>
+      <c r="K372" s="13"/>
+      <c r="L372" s="13"/>
+      <c r="M372" s="13"/>
+      <c r="N372" s="13"/>
+      <c r="O372" s="13"/>
+      <c r="P372" s="13"/>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B373" s="13"/>
       <c r="C373" s="13"/>
@@ -10608,31 +11346,31 @@
       <c r="E373" s="13"/>
       <c r="F373" s="13"/>
       <c r="G373" s="13"/>
-      <c r="H373" s="17">
-        <v>0</v>
-      </c>
-      <c r="I373" s="17">
-        <v>0</v>
-      </c>
-      <c r="J373" s="17">
-        <v>0</v>
+      <c r="H373" s="16">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I373" s="16">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="J373" s="16">
+        <v>0.75719999999999998</v>
       </c>
       <c r="K373" s="17"/>
       <c r="L373" s="17"/>
       <c r="M373" s="17"/>
       <c r="N373" s="17">
-        <v>0.94989999999999997</v>
+        <v>0.94540000000000002</v>
       </c>
       <c r="O373" s="17">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="P373" s="17">
-        <v>0.65910000000000002</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="P373" s="16">
+        <v>0.67889999999999995</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B374" s="13"/>
       <c r="C374" s="13"/>
@@ -10641,30 +11379,30 @@
       <c r="F374" s="13"/>
       <c r="G374" s="13"/>
       <c r="H374" s="17">
-        <v>6.4423900000000006E-2</v>
+        <v>0.50287221200679399</v>
       </c>
       <c r="I374" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J374" s="17">
-        <v>0.11414000000000001</v>
+        <v>0.50564061657417803</v>
+      </c>
+      <c r="J374" s="16">
+        <v>0.47544921610894098</v>
       </c>
       <c r="K374" s="17"/>
       <c r="L374" s="17"/>
       <c r="M374" s="17"/>
       <c r="N374" s="17">
-        <v>0.500866625553538</v>
+        <v>0.49464383858752797</v>
       </c>
       <c r="O374" s="17">
-        <v>0.50462534690101801</v>
+        <v>0.47154585701070401</v>
       </c>
       <c r="P374" s="17">
-        <v>0.377291924028408</v>
+        <v>0.37998319515368301</v>
       </c>
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B375" s="13"/>
       <c r="C375" s="13"/>
@@ -10673,30 +11411,30 @@
       <c r="F375" s="13"/>
       <c r="G375" s="13"/>
       <c r="H375" s="17">
-        <v>0.86080000000000001</v>
+        <v>0</v>
       </c>
       <c r="I375" s="17">
-        <v>0.66459999999999997</v>
+        <v>0</v>
       </c>
       <c r="J375" s="17">
-        <v>0.74850000000000005</v>
+        <v>0</v>
       </c>
       <c r="K375" s="17"/>
       <c r="L375" s="17"/>
       <c r="M375" s="17"/>
       <c r="N375" s="17">
-        <v>0.95</v>
+        <v>0.94989999999999997</v>
       </c>
       <c r="O375" s="17">
-        <v>0.70409999999999995</v>
+        <v>0.50790000000000002</v>
       </c>
       <c r="P375" s="17">
-        <v>0.80710000000000004</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.65910000000000002</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -10705,30 +11443,30 @@
       <c r="F376" s="13"/>
       <c r="G376" s="13"/>
       <c r="H376" s="17">
-        <v>0.48767004716815798</v>
+        <v>6.4423900000000006E-2</v>
       </c>
       <c r="I376" s="17">
-        <v>0.475752584708313</v>
+        <v>0.5</v>
       </c>
       <c r="J376" s="17">
-        <v>0.45622628764702</v>
+        <v>0.11414000000000001</v>
       </c>
       <c r="K376" s="17"/>
       <c r="L376" s="17"/>
       <c r="M376" s="17"/>
       <c r="N376" s="17">
-        <v>0.498840734795791</v>
+        <v>0.500866625553538</v>
       </c>
       <c r="O376" s="17">
-        <v>0.49484604202457999</v>
+        <v>0.50462534690101801</v>
       </c>
       <c r="P376" s="17">
-        <v>0.44517339348066498</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.377291924028408</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B377" s="13"/>
       <c r="C377" s="13"/>
@@ -10737,30 +11475,30 @@
       <c r="F377" s="13"/>
       <c r="G377" s="13"/>
       <c r="H377" s="17">
-        <v>0.86899999999999999</v>
+        <v>0.86080000000000001</v>
       </c>
       <c r="I377" s="17">
-        <v>0.88570000000000004</v>
+        <v>0.66459999999999997</v>
       </c>
       <c r="J377" s="17">
-        <v>0.87670000000000003</v>
+        <v>0.74850000000000005</v>
       </c>
       <c r="K377" s="17"/>
       <c r="L377" s="17"/>
       <c r="M377" s="17"/>
       <c r="N377" s="17">
-        <v>0.95430000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="O377" s="17">
-        <v>0.14330000000000001</v>
+        <v>0.70409999999999995</v>
       </c>
       <c r="P377" s="17">
-        <v>0.2467</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.80710000000000004</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -10769,30 +11507,30 @@
       <c r="F378" s="13"/>
       <c r="G378" s="13"/>
       <c r="H378" s="17">
-        <v>0.49701179378598698</v>
+        <v>0.48767004716815798</v>
       </c>
       <c r="I378" s="17">
-        <v>0.49731321272222601</v>
+        <v>0.475752584708313</v>
       </c>
       <c r="J378" s="17">
-        <v>0.49690995343169297</v>
+        <v>0.45622628764702</v>
       </c>
       <c r="K378" s="17"/>
       <c r="L378" s="17"/>
       <c r="M378" s="17"/>
       <c r="N378" s="17">
-        <v>0.50532288698955397</v>
+        <v>0.498840734795791</v>
       </c>
       <c r="O378" s="17">
-        <v>0.51388843002510898</v>
+        <v>0.49484604202457999</v>
       </c>
       <c r="P378" s="17">
-        <v>0.173112202338918</v>
+        <v>0.44517339348066498</v>
       </c>
     </row>
     <row r="379" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B379" s="13"/>
       <c r="C379" s="13"/>
@@ -10801,30 +11539,30 @@
       <c r="F379" s="13"/>
       <c r="G379" s="13"/>
       <c r="H379" s="17">
-        <v>0.90069999999999995</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I379" s="17">
-        <v>0.67020000000000002</v>
+        <v>0.88570000000000004</v>
       </c>
       <c r="J379" s="17">
-        <v>0.76680000000000004</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="K379" s="17"/>
       <c r="L379" s="17"/>
       <c r="M379" s="17"/>
       <c r="N379" s="17">
-        <v>0.94389999999999996</v>
+        <v>0.95430000000000004</v>
       </c>
       <c r="O379" s="17">
-        <v>0.45300000000000001</v>
+        <v>0.14330000000000001</v>
       </c>
       <c r="P379" s="17">
-        <v>0.60909999999999997</v>
+        <v>0.2467</v>
       </c>
     </row>
     <row r="380" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -10833,30 +11571,30 @@
       <c r="F380" s="13"/>
       <c r="G380" s="13"/>
       <c r="H380" s="17">
-        <v>0.543463227339259</v>
+        <v>0.49701179378598698</v>
       </c>
       <c r="I380" s="17">
-        <v>0.58824877289885302</v>
+        <v>0.49731321272222601</v>
       </c>
       <c r="J380" s="17">
-        <v>0.52036909849409896</v>
+        <v>0.49690995343169297</v>
       </c>
       <c r="K380" s="17"/>
       <c r="L380" s="17"/>
       <c r="M380" s="17"/>
       <c r="N380" s="17">
-        <v>0.49302009091419302</v>
+        <v>0.50532288698955397</v>
       </c>
       <c r="O380" s="17">
-        <v>0.46301787366195302</v>
+        <v>0.51388843002510898</v>
       </c>
       <c r="P380" s="17">
-        <v>0.34525500741839799</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.173112202338918</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -10865,30 +11603,30 @@
       <c r="F381" s="13"/>
       <c r="G381" s="13"/>
       <c r="H381" s="17">
-        <v>0.88090000000000002</v>
+        <v>0.90069999999999995</v>
       </c>
       <c r="I381" s="17">
-        <v>0.62029999999999996</v>
+        <v>0.67020000000000002</v>
       </c>
       <c r="J381" s="17">
-        <v>0.72599999999999998</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="K381" s="17"/>
       <c r="L381" s="17"/>
       <c r="M381" s="17"/>
       <c r="N381" s="17">
-        <v>0.9506</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="O381" s="17">
-        <v>1</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="P381" s="17">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="382" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.60909999999999997</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -10897,30 +11635,30 @@
       <c r="F382" s="13"/>
       <c r="G382" s="13"/>
       <c r="H382" s="17">
-        <v>0.51527297587336696</v>
+        <v>0.543463227339259</v>
       </c>
       <c r="I382" s="17">
-        <v>0.53229227145941105</v>
+        <v>0.58824877289885302</v>
       </c>
       <c r="J382" s="17">
-        <v>0.47528499831863902</v>
+        <v>0.52036909849409896</v>
       </c>
       <c r="K382" s="17"/>
       <c r="L382" s="17"/>
       <c r="M382" s="17"/>
       <c r="N382" s="17">
-        <v>0.47537379067722102</v>
+        <v>0.49302009091419302</v>
       </c>
       <c r="O382" s="17">
-        <v>0.5</v>
+        <v>0.46301787366195302</v>
       </c>
       <c r="P382" s="17">
-        <v>0.48737601442741202</v>
+        <v>0.34525500741839799</v>
       </c>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -10929,13 +11667,13 @@
       <c r="F383" s="13"/>
       <c r="G383" s="13"/>
       <c r="H383" s="17">
-        <v>0.877</v>
+        <v>0.88090000000000002</v>
       </c>
       <c r="I383" s="17">
-        <v>0.10920000000000001</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="J383" s="17">
-        <v>0.1925</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="K383" s="17"/>
       <c r="L383" s="17"/>
@@ -10944,15 +11682,15 @@
         <v>0.9506</v>
       </c>
       <c r="O383" s="17">
-        <v>0.99960000000000004</v>
+        <v>1</v>
       </c>
       <c r="P383" s="17">
-        <v>0.97430000000000005</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -10961,30 +11699,30 @@
       <c r="F384" s="13"/>
       <c r="G384" s="13"/>
       <c r="H384" s="17">
-        <v>0.21033280577034399</v>
+        <v>0.51527297587336696</v>
       </c>
       <c r="I384" s="17">
-        <v>0.50186929413041603</v>
+        <v>0.53229227145941105</v>
       </c>
       <c r="J384" s="17">
-        <v>0.21033280577034399</v>
+        <v>0.47528499831863902</v>
       </c>
       <c r="K384" s="17"/>
       <c r="L384" s="17"/>
       <c r="M384" s="17"/>
       <c r="N384" s="17">
-        <v>0.47536295644522703</v>
+        <v>0.47537379067722102</v>
       </c>
       <c r="O384" s="17">
-        <v>0.49976873265494898</v>
+        <v>0.5</v>
       </c>
       <c r="P384" s="17">
-        <v>0.48726042841037198</v>
+        <v>0.48737601442741202</v>
       </c>
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -10993,30 +11731,30 @@
       <c r="F385" s="13"/>
       <c r="G385" s="13"/>
       <c r="H385" s="17">
-        <v>0.8669</v>
+        <v>0.877</v>
       </c>
       <c r="I385" s="17">
-        <v>0.55930000000000002</v>
+        <v>0.10920000000000001</v>
       </c>
       <c r="J385" s="17">
-        <v>0.67749999999999999</v>
+        <v>0.1925</v>
       </c>
       <c r="K385" s="17"/>
       <c r="L385" s="17"/>
       <c r="M385" s="17"/>
       <c r="N385" s="17">
-        <v>0.54169999999999996</v>
+        <v>0.9506</v>
       </c>
       <c r="O385" s="17">
-        <v>1.1299999999999999E-2</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="P385" s="17">
-        <v>2.1999999999999999E-2</v>
+        <v>0.97430000000000005</v>
       </c>
     </row>
     <row r="386" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -11025,30 +11763,30 @@
       <c r="F386" s="13"/>
       <c r="G386" s="13"/>
       <c r="H386" s="17">
-        <v>0.462525724881309</v>
+        <v>0.21033280577034399</v>
       </c>
       <c r="I386" s="17">
-        <v>0.42395504735257999</v>
+        <v>0.50186929413041603</v>
       </c>
       <c r="J386" s="17">
-        <v>0.419379163201061</v>
+        <v>0.21033280577034399</v>
       </c>
       <c r="K386" s="17"/>
       <c r="L386" s="17"/>
       <c r="M386" s="17"/>
       <c r="N386" s="17">
-        <v>0.45016187365105298</v>
+        <v>0.47536295644522703</v>
       </c>
       <c r="O386" s="17">
-        <v>0.48822430840424302</v>
+        <v>0.49976873265494898</v>
       </c>
       <c r="P386" s="17">
-        <v>0.134872106008248</v>
+        <v>0.48726042841037198</v>
       </c>
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B387" s="13"/>
       <c r="C387" s="13"/>
@@ -11057,30 +11795,30 @@
       <c r="F387" s="13"/>
       <c r="G387" s="13"/>
       <c r="H387" s="17">
-        <v>0.91159999999999997</v>
+        <v>0.8669</v>
       </c>
       <c r="I387" s="17">
-        <v>0.78259999999999996</v>
+        <v>0.55930000000000002</v>
       </c>
       <c r="J387" s="17">
-        <v>0.84060000000000001</v>
+        <v>0.67749999999999999</v>
       </c>
       <c r="K387" s="17"/>
       <c r="L387" s="17"/>
       <c r="M387" s="17"/>
       <c r="N387" s="17">
-        <v>0.95530000000000004</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="O387" s="17">
-        <v>0.2475</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="P387" s="17">
-        <v>0.39040000000000002</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A388" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -11089,30 +11827,30 @@
       <c r="F388" s="13"/>
       <c r="G388" s="13"/>
       <c r="H388" s="17">
-        <v>0.14025624684774199</v>
+        <v>0.462525724881309</v>
       </c>
       <c r="I388" s="17">
-        <v>0.50459226129458501</v>
+        <v>0.42395504735257999</v>
       </c>
       <c r="J388" s="17">
-        <v>0.14025624684774199</v>
+        <v>0.419379163201061</v>
       </c>
       <c r="K388" s="17"/>
       <c r="L388" s="17"/>
       <c r="M388" s="17"/>
       <c r="N388" s="17">
-        <v>0.46839806700356501</v>
+        <v>0.45016187365105298</v>
       </c>
       <c r="O388" s="17">
-        <v>0.48298942341321</v>
+        <v>0.48822430840424302</v>
       </c>
       <c r="P388" s="17">
-        <v>0.46839806700356501</v>
+        <v>0.134872106008248</v>
       </c>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -11121,56 +11859,62 @@
       <c r="F389" s="13"/>
       <c r="G389" s="13"/>
       <c r="H389" s="17">
-        <v>0.93140000000000001</v>
+        <v>0.91159999999999997</v>
       </c>
       <c r="I389" s="17">
-        <v>0.62039999999999995</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="J389" s="17">
-        <v>0.74280000000000002</v>
+        <v>0.84060000000000001</v>
       </c>
       <c r="K389" s="17"/>
       <c r="L389" s="17"/>
       <c r="M389" s="17"/>
       <c r="N389" s="17">
-        <v>0.94169999999999998</v>
+        <v>0.95530000000000004</v>
       </c>
       <c r="O389" s="17">
-        <v>0.29120000000000001</v>
+        <v>0.2475</v>
       </c>
       <c r="P389" s="17">
-        <v>0.44140000000000001</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.39040000000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="15" t="s">
-        <v>75</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B390" s="13"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="13"/>
+      <c r="E390" s="13"/>
+      <c r="F390" s="13"/>
+      <c r="G390" s="13"/>
       <c r="H390" s="17">
-        <v>0.54739701339660496</v>
+        <v>0.14025624684774199</v>
       </c>
       <c r="I390" s="17">
-        <v>0.57557719840188304</v>
+        <v>0.50459226129458501</v>
       </c>
       <c r="J390" s="17">
-        <v>0.54795318740679699</v>
+        <v>0.14025624684774199</v>
       </c>
       <c r="K390" s="17"/>
       <c r="L390" s="17"/>
       <c r="M390" s="17"/>
       <c r="N390" s="17">
-        <v>0.54863204913456198</v>
+        <v>0.46839806700356501</v>
       </c>
       <c r="O390" s="17">
-        <v>0.60804347788633695</v>
+        <v>0.48298942341321</v>
       </c>
       <c r="P390" s="17">
-        <v>0.46593530734733102</v>
+        <v>0.46839806700356501</v>
       </c>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -11179,62 +11923,56 @@
       <c r="F391" s="13"/>
       <c r="G391" s="13"/>
       <c r="H391" s="17">
-        <v>0.86550000000000005</v>
+        <v>0.93140000000000001</v>
       </c>
       <c r="I391" s="17">
-        <v>0.64300000000000002</v>
+        <v>0.62039999999999995</v>
       </c>
       <c r="J391" s="17">
-        <v>0.73570000000000002</v>
+        <v>0.74280000000000002</v>
       </c>
       <c r="K391" s="17"/>
       <c r="L391" s="17"/>
       <c r="M391" s="17"/>
       <c r="N391" s="17">
-        <v>0.95679999999999998</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="O391" s="17">
-        <v>0.6694</v>
+        <v>0.29120000000000001</v>
       </c>
       <c r="P391" s="17">
-        <v>0.78620000000000001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.44140000000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B392" s="13"/>
-      <c r="C392" s="13"/>
-      <c r="D392" s="13"/>
-      <c r="E392" s="13"/>
-      <c r="F392" s="13"/>
-      <c r="G392" s="13"/>
+        <v>75</v>
+      </c>
       <c r="H392" s="17">
-        <v>0.49425654358717003</v>
+        <v>0.54739701339660496</v>
       </c>
       <c r="I392" s="17">
-        <v>0.48828546964076802</v>
+        <v>0.57557719840188304</v>
       </c>
       <c r="J392" s="17">
-        <v>0.45800042185193002</v>
+        <v>0.54795318740679699</v>
       </c>
       <c r="K392" s="17"/>
       <c r="L392" s="17"/>
       <c r="M392" s="17"/>
       <c r="N392" s="17">
-        <v>0.44688411252247001</v>
+        <v>0.54863204913456198</v>
       </c>
       <c r="O392" s="17">
-        <v>0.54046352583586599</v>
+        <v>0.60804347788633695</v>
       </c>
       <c r="P392" s="17">
-        <v>0.44688411252247001</v>
+        <v>0.46593530734733102</v>
       </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -11243,30 +11981,30 @@
       <c r="F393" s="13"/>
       <c r="G393" s="13"/>
       <c r="H393" s="17">
-        <v>0.89300000000000002</v>
+        <v>0.86550000000000005</v>
       </c>
       <c r="I393" s="17">
-        <v>0.66959999999999997</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="J393" s="17">
-        <v>0.76370000000000005</v>
+        <v>0.73570000000000002</v>
       </c>
       <c r="K393" s="17"/>
       <c r="L393" s="17"/>
       <c r="M393" s="17"/>
       <c r="N393" s="17">
-        <v>0.95199999999999996</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="O393" s="17">
-        <v>0.97670000000000001</v>
+        <v>0.6694</v>
       </c>
       <c r="P393" s="17">
-        <v>0.96389999999999998</v>
-      </c>
-    </row>
-    <row r="394" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.78620000000000001</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -11275,30 +12013,30 @@
       <c r="F394" s="13"/>
       <c r="G394" s="13"/>
       <c r="H394" s="17">
-        <v>0.53414821385922395</v>
+        <v>0.49425654358717003</v>
       </c>
       <c r="I394" s="17">
-        <v>0.56897264628303401</v>
+        <v>0.48828546964076802</v>
       </c>
       <c r="J394" s="17">
-        <v>0.50976164494169995</v>
+        <v>0.45800042185193002</v>
       </c>
       <c r="K394" s="17"/>
       <c r="L394" s="17"/>
       <c r="M394" s="17"/>
       <c r="N394" s="17">
-        <v>0.52872539942549202</v>
+        <v>0.44688411252247001</v>
       </c>
       <c r="O394" s="17">
-        <v>0.51499107968811897</v>
+        <v>0.54046352583586599</v>
       </c>
       <c r="P394" s="17">
-        <v>0.51757649134992001</v>
+        <v>0.44688411252247001</v>
       </c>
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B395" s="13"/>
       <c r="C395" s="13"/>
@@ -11307,30 +12045,30 @@
       <c r="F395" s="13"/>
       <c r="G395" s="13"/>
       <c r="H395" s="17">
-        <v>0.86240000000000006</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="I395" s="17">
-        <v>0.82189999999999996</v>
+        <v>0.66959999999999997</v>
       </c>
       <c r="J395" s="17">
-        <v>0.84079999999999999</v>
+        <v>0.76370000000000005</v>
       </c>
       <c r="K395" s="17"/>
       <c r="L395" s="17"/>
       <c r="M395" s="17"/>
       <c r="N395" s="17">
-        <v>0.94979999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O395" s="17">
-        <v>0.6623</v>
+        <v>0.97670000000000001</v>
       </c>
       <c r="P395" s="17">
-        <v>0.77910000000000001</v>
-      </c>
-    </row>
-    <row r="396" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -11339,30 +12077,30 @@
       <c r="F396" s="13"/>
       <c r="G396" s="13"/>
       <c r="H396" s="17">
-        <v>0.47933794497271998</v>
+        <v>0.53414821385922395</v>
       </c>
       <c r="I396" s="17">
-        <v>0.47379111801017498</v>
+        <v>0.56897264628303401</v>
       </c>
       <c r="J396" s="17">
-        <v>0.47515981983945399</v>
+        <v>0.50976164494169995</v>
       </c>
       <c r="K396" s="17"/>
       <c r="L396" s="17"/>
       <c r="M396" s="17"/>
       <c r="N396" s="17">
-        <v>0.49928406202602699</v>
+        <v>0.52872539942549202</v>
       </c>
       <c r="O396" s="17">
-        <v>0.496584676886481</v>
+        <v>0.51499107968811897</v>
       </c>
       <c r="P396" s="17">
-        <v>0.432604445327193</v>
+        <v>0.51757649134992001</v>
       </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -11371,30 +12109,30 @@
       <c r="F397" s="13"/>
       <c r="G397" s="13"/>
       <c r="H397" s="17">
-        <v>0.86980000000000002</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="I397" s="17">
-        <v>1</v>
+        <v>0.82189999999999996</v>
       </c>
       <c r="J397" s="17">
-        <v>0.92989999999999995</v>
+        <v>0.84079999999999999</v>
       </c>
       <c r="K397" s="17"/>
       <c r="L397" s="17"/>
       <c r="M397" s="17"/>
       <c r="N397" s="17">
-        <v>0.41670000000000001</v>
+        <v>0.94979999999999998</v>
       </c>
       <c r="O397" s="17">
-        <v>8.6999999999999994E-3</v>
+        <v>0.6623</v>
       </c>
       <c r="P397" s="17">
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.77910000000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -11403,30 +12141,30 @@
       <c r="F398" s="13"/>
       <c r="G398" s="13"/>
       <c r="H398" s="17">
-        <v>0.43557607739665799</v>
+        <v>0.47933794497271998</v>
       </c>
       <c r="I398" s="17">
-        <v>0.5</v>
+        <v>0.47379111801017498</v>
       </c>
       <c r="J398" s="17">
-        <v>0.465569917743831</v>
+        <v>0.47515981983945399</v>
       </c>
       <c r="K398" s="17"/>
       <c r="L398" s="17"/>
       <c r="M398" s="17"/>
       <c r="N398" s="17">
-        <v>0.49962289263531501</v>
+        <v>0.49928406202602699</v>
       </c>
       <c r="O398" s="17">
-        <v>0.49992979384168101</v>
+        <v>0.496584676886481</v>
       </c>
       <c r="P398" s="17">
-        <v>5.56222315370591E-2</v>
+        <v>0.432604445327193</v>
       </c>
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B399" s="13"/>
       <c r="C399" s="13"/>
@@ -11435,30 +12173,30 @@
       <c r="F399" s="13"/>
       <c r="G399" s="13"/>
       <c r="H399" s="17">
-        <v>0.85489999999999999</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I399" s="17">
-        <v>0.60340000000000005</v>
+        <v>1</v>
       </c>
       <c r="J399" s="17">
-        <v>0.70550000000000002</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="K399" s="17"/>
       <c r="L399" s="17"/>
       <c r="M399" s="17"/>
       <c r="N399" s="17">
-        <v>0.94689999999999996</v>
+        <v>0.41670000000000001</v>
       </c>
       <c r="O399" s="17">
-        <v>0.60740000000000005</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="P399" s="17">
-        <v>0.73870000000000002</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -11467,30 +12205,30 @@
       <c r="F400" s="13"/>
       <c r="G400" s="13"/>
       <c r="H400" s="17">
-        <v>0.479694573461109</v>
+        <v>0.43557607739665799</v>
       </c>
       <c r="I400" s="17">
-        <v>0.45715784595293502</v>
+        <v>0.5</v>
       </c>
       <c r="J400" s="17">
-        <v>0.43179518441660603</v>
+        <v>0.465569917743831</v>
       </c>
       <c r="K400" s="17"/>
       <c r="L400" s="17"/>
       <c r="M400" s="17"/>
       <c r="N400" s="17">
-        <v>0.49566842698629299</v>
+        <v>0.49962289263531501</v>
       </c>
       <c r="O400" s="17">
-        <v>0.47799243425399801</v>
+        <v>0.49992979384168101</v>
       </c>
       <c r="P400" s="17">
-        <v>0.40928417851494803</v>
+        <v>5.56222315370591E-2</v>
       </c>
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A401" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -11499,30 +12237,30 @@
       <c r="F401" s="13"/>
       <c r="G401" s="13"/>
       <c r="H401" s="17">
-        <v>0.86780000000000002</v>
+        <v>0.85489999999999999</v>
       </c>
       <c r="I401" s="17">
-        <v>0.76990000000000003</v>
+        <v>0.60340000000000005</v>
       </c>
       <c r="J401" s="17">
-        <v>0.81510000000000005</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="K401" s="17"/>
       <c r="L401" s="17"/>
       <c r="M401" s="17"/>
       <c r="N401" s="17">
-        <v>0.93620000000000003</v>
+        <v>0.94689999999999996</v>
       </c>
       <c r="O401" s="17">
-        <v>0.15670000000000001</v>
+        <v>0.60740000000000005</v>
       </c>
       <c r="P401" s="17">
-        <v>0.26629999999999998</v>
+        <v>0.73870000000000002</v>
       </c>
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A402" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -11531,30 +12269,30 @@
       <c r="F402" s="13"/>
       <c r="G402" s="13"/>
       <c r="H402" s="17">
-        <v>0.49641486751313302</v>
+        <v>0.479694573461109</v>
       </c>
       <c r="I402" s="17">
-        <v>0.494374027665553</v>
+        <v>0.45715784595293502</v>
       </c>
       <c r="J402" s="17">
-        <v>0.48727597810149698</v>
+        <v>0.43179518441660603</v>
       </c>
       <c r="K402" s="17"/>
       <c r="L402" s="17"/>
       <c r="M402" s="17"/>
       <c r="N402" s="17">
-        <v>0.49295541623127798</v>
+        <v>0.49566842698629299</v>
       </c>
       <c r="O402" s="17">
-        <v>0.47995407691291098</v>
+        <v>0.47799243425399801</v>
       </c>
       <c r="P402" s="17">
-        <v>0.178443125960452</v>
+        <v>0.40928417851494803</v>
       </c>
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A403" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -11563,30 +12301,30 @@
       <c r="F403" s="13"/>
       <c r="G403" s="13"/>
       <c r="H403" s="17">
-        <v>0.8851</v>
+        <v>0.86780000000000002</v>
       </c>
       <c r="I403" s="17">
-        <v>0.59609999999999996</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="J403" s="17">
-        <v>0.70960000000000001</v>
+        <v>0.81510000000000005</v>
       </c>
       <c r="K403" s="17"/>
       <c r="L403" s="17"/>
       <c r="M403" s="17"/>
       <c r="N403" s="17">
-        <v>0.95189999999999997</v>
+        <v>0.93620000000000003</v>
       </c>
       <c r="O403" s="17">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="P403" s="16">
-        <v>0.1857</v>
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="P403" s="17">
+        <v>0.26629999999999998</v>
       </c>
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A404" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -11595,857 +12333,875 @@
       <c r="F404" s="13"/>
       <c r="G404" s="13"/>
       <c r="H404" s="17">
-        <v>0.51922796708349805</v>
+        <v>0.49641486751313302</v>
       </c>
       <c r="I404" s="17">
-        <v>0.541604285076831</v>
+        <v>0.494374027665553</v>
       </c>
       <c r="J404" s="17">
-        <v>0.47170223877318901</v>
+        <v>0.48727597810149698</v>
       </c>
       <c r="K404" s="17"/>
       <c r="L404" s="17"/>
       <c r="M404" s="17"/>
       <c r="N404" s="17">
+        <v>0.49295541623127798</v>
+      </c>
+      <c r="O404" s="17">
+        <v>0.47995407691291098</v>
+      </c>
+      <c r="P404" s="17">
+        <v>0.178443125960452</v>
+      </c>
+    </row>
+    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A405" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B405" s="13"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="13"/>
+      <c r="E405" s="13"/>
+      <c r="F405" s="13"/>
+      <c r="G405" s="13"/>
+      <c r="H405" s="17">
+        <v>0.8851</v>
+      </c>
+      <c r="I405" s="17">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="J405" s="17">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="K405" s="17"/>
+      <c r="L405" s="17"/>
+      <c r="M405" s="17"/>
+      <c r="N405" s="17">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="O405" s="17">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="P405" s="16">
+        <v>0.1857</v>
+      </c>
+    </row>
+    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A406" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B406" s="13"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="13"/>
+      <c r="E406" s="13"/>
+      <c r="F406" s="13"/>
+      <c r="G406" s="13"/>
+      <c r="H406" s="17">
+        <v>0.51922796708349805</v>
+      </c>
+      <c r="I406" s="17">
+        <v>0.541604285076831</v>
+      </c>
+      <c r="J406" s="17">
+        <v>0.47170223877318901</v>
+      </c>
+      <c r="K406" s="17"/>
+      <c r="L406" s="17"/>
+      <c r="M406" s="17"/>
+      <c r="N406" s="17">
         <v>0.49946542205956401</v>
       </c>
-      <c r="O404" s="17">
+      <c r="O406" s="17">
         <v>0.49892625875512098</v>
       </c>
-      <c r="P404" s="17">
+      <c r="P406" s="17">
         <v>0.14112055856248401</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A405" s="7"/>
-    </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A406" s="10" t="s">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A407" s="7"/>
+    </row>
+    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A408" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A407" s="22" t="s">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A409" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B407" s="23">
+      <c r="B409" s="23">
         <v>0.93710000000000004</v>
       </c>
-      <c r="C407" s="23">
+      <c r="C409" s="23">
         <v>0.82310000000000005</v>
       </c>
-      <c r="D407" s="23">
+      <c r="D409" s="23">
         <v>0.876</v>
       </c>
-      <c r="E407" s="23">
+      <c r="E409" s="23">
         <v>0.8286</v>
       </c>
-      <c r="F407" s="23">
+      <c r="F409" s="23">
         <v>0.62580000000000002</v>
       </c>
-      <c r="G407" s="23">
+      <c r="G409" s="23">
         <v>0.7117</v>
       </c>
-      <c r="H407" s="23">
+      <c r="H409" s="23">
         <v>0.86809999999999998</v>
       </c>
-      <c r="I407" s="23">
+      <c r="I409" s="23">
         <v>0.71140000000000003</v>
       </c>
-      <c r="J407" s="23">
+      <c r="J409" s="23">
         <v>0.78120000000000001</v>
       </c>
-      <c r="K407" s="24">
+      <c r="K409" s="24">
         <v>0.84340000000000004</v>
       </c>
-      <c r="L407" s="24">
+      <c r="L409" s="24">
         <v>0.7258</v>
       </c>
-      <c r="M407" s="24">
+      <c r="M409" s="24">
         <v>0.77929999999999999</v>
       </c>
-      <c r="N407" s="24">
+      <c r="N409" s="24">
         <v>0.95209999999999995</v>
       </c>
-      <c r="O407" s="24">
+      <c r="O409" s="24">
         <v>0.82730000000000004</v>
       </c>
-      <c r="P407" s="24">
+      <c r="P409" s="24">
         <v>0.88349999999999995</v>
       </c>
-      <c r="Q407" s="23"/>
-    </row>
-    <row r="408" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="28" t="s">
+      <c r="Q409" s="23"/>
+    </row>
+    <row r="410" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B408" s="27">
+      <c r="B410" s="27">
         <v>0.49969999999999998</v>
       </c>
-      <c r="C408" s="27">
+      <c r="C410" s="27">
         <v>0.49940000000000001</v>
       </c>
-      <c r="D408" s="27">
+      <c r="D410" s="27">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E408" s="27">
+      <c r="E410" s="27">
         <v>0.50960000000000005</v>
       </c>
-      <c r="F408" s="27">
+      <c r="F410" s="27">
         <v>0.51539999999999997</v>
       </c>
-      <c r="G408" s="27">
+      <c r="G410" s="27">
         <v>0.48599999999999999</v>
       </c>
-      <c r="H408" s="27">
+      <c r="H410" s="27">
         <v>0.4955</v>
       </c>
-      <c r="I408" s="27">
+      <c r="I410" s="27">
         <v>0.49180000000000001</v>
       </c>
-      <c r="J408" s="27">
+      <c r="J410" s="27">
         <v>0.47539999999999999</v>
       </c>
-      <c r="K408" s="27">
+      <c r="K410" s="27">
         <v>0.49990000000000001</v>
       </c>
-      <c r="L408" s="27">
+      <c r="L410" s="27">
         <v>0.49990000000000001</v>
       </c>
-      <c r="M408" s="27">
+      <c r="M410" s="27">
         <v>0.4894</v>
       </c>
-      <c r="N408" s="27">
+      <c r="N410" s="27">
         <v>0.50190000000000001</v>
       </c>
-      <c r="O408" s="27">
+      <c r="O410" s="27">
         <v>0.50600000000000001</v>
       </c>
-      <c r="P408" s="27">
+      <c r="P410" s="27">
         <v>0.48270000000000002</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A409" s="25" t="s">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A411" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B409" s="23"/>
-      <c r="C409" s="23"/>
-      <c r="D409" s="23"/>
-      <c r="E409" s="23"/>
-      <c r="F409" s="23"/>
-      <c r="G409" s="23"/>
-      <c r="H409" s="23">
+      <c r="B411" s="23"/>
+      <c r="C411" s="23"/>
+      <c r="D411" s="23"/>
+      <c r="E411" s="23"/>
+      <c r="F411" s="23"/>
+      <c r="G411" s="23"/>
+      <c r="H411" s="23">
         <v>0.86680000000000001</v>
       </c>
-      <c r="I409" s="23">
+      <c r="I411" s="23">
         <v>0.59530000000000005</v>
       </c>
-      <c r="J409" s="23">
+      <c r="J411" s="23">
         <v>0.70320000000000005</v>
       </c>
-      <c r="K409" s="23"/>
-      <c r="L409" s="23"/>
-      <c r="M409" s="23"/>
-      <c r="N409" s="23">
+      <c r="K411" s="23"/>
+      <c r="L411" s="23"/>
+      <c r="M411" s="23"/>
+      <c r="N411" s="23">
         <v>0.95189999999999997</v>
       </c>
-      <c r="O409" s="23">
+      <c r="O411" s="23">
         <v>0.42470000000000002</v>
       </c>
-      <c r="P409" s="23">
+      <c r="P411" s="23">
         <v>0.5847</v>
       </c>
-      <c r="Q409" s="23"/>
-    </row>
-    <row r="410" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="26" t="s">
+      <c r="Q411" s="23"/>
+    </row>
+    <row r="412" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B410" s="27"/>
-      <c r="C410" s="27"/>
-      <c r="D410" s="27"/>
-      <c r="E410" s="27"/>
-      <c r="F410" s="27"/>
-      <c r="G410" s="27"/>
-      <c r="H410" s="27">
+      <c r="B412" s="27"/>
+      <c r="C412" s="27"/>
+      <c r="D412" s="27"/>
+      <c r="E412" s="27"/>
+      <c r="F412" s="27"/>
+      <c r="G412" s="27"/>
+      <c r="H412" s="27">
         <v>0.49540000000000001</v>
       </c>
-      <c r="I410" s="27">
+      <c r="I412" s="27">
         <v>0.49</v>
       </c>
-      <c r="J410" s="27">
+      <c r="J412" s="27">
         <v>0.44519999999999998</v>
       </c>
-      <c r="K410" s="27"/>
-      <c r="L410" s="27"/>
-      <c r="M410" s="27"/>
-      <c r="N410" s="27">
+      <c r="K412" s="27"/>
+      <c r="L412" s="27"/>
+      <c r="M412" s="27"/>
+      <c r="N412" s="27">
         <v>0.50009999999999999</v>
       </c>
-      <c r="O410" s="27">
+      <c r="O412" s="27">
         <v>0.503</v>
       </c>
-      <c r="P410" s="27">
+      <c r="P412" s="27">
         <v>0.34</v>
       </c>
-      <c r="Q410" s="27"/>
-    </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A411" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H411" s="13">
-        <v>0.90159999999999996</v>
-      </c>
-      <c r="I411" s="13">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="J411" s="13">
-        <v>0.62019999999999997</v>
-      </c>
-      <c r="K411" s="13"/>
-      <c r="L411" s="13"/>
-      <c r="M411" s="13"/>
-      <c r="N411" s="13">
-        <v>0.94640000000000002</v>
-      </c>
-      <c r="O411" s="13">
-        <v>0.40820000000000001</v>
-      </c>
-      <c r="P411" s="13">
-        <v>0.56810000000000005</v>
-      </c>
-    </row>
-    <row r="412" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A412" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H412" s="13">
-        <v>0.52949999999999997</v>
-      </c>
-      <c r="I412" s="13">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="J412" s="13">
-        <v>0.437</v>
-      </c>
-      <c r="K412" s="13"/>
-      <c r="L412" s="13"/>
-      <c r="M412" s="13"/>
-      <c r="N412" s="13">
-        <v>0.49730000000000002</v>
-      </c>
-      <c r="O412" s="13">
-        <v>0.4859</v>
-      </c>
-      <c r="P412" s="13">
-        <v>0.32919999999999999</v>
-      </c>
+      <c r="Q412" s="27"/>
     </row>
     <row r="413" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H413" s="13">
-        <v>0.89190000000000003</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="I413" s="13">
-        <v>0.53649999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="J413" s="13">
-        <v>0.66810000000000003</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="K413" s="13"/>
       <c r="L413" s="13"/>
       <c r="M413" s="13"/>
       <c r="N413" s="13">
-        <v>0.9506</v>
+        <v>0.94640000000000002</v>
       </c>
       <c r="O413" s="13">
-        <v>0.99960000000000004</v>
+        <v>0.40820000000000001</v>
       </c>
       <c r="P413" s="13">
-        <v>0.97430000000000005</v>
-      </c>
-    </row>
-    <row r="414" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A414" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H414" s="27">
-        <v>0.52259999999999995</v>
-      </c>
-      <c r="I414" s="27">
-        <v>0.55030000000000001</v>
-      </c>
-      <c r="J414" s="27">
-        <v>0.4556</v>
-      </c>
-      <c r="N414" s="27">
-        <v>0.4753</v>
-      </c>
-      <c r="O414" s="27">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="P414" s="27">
-        <v>0.48699999999999999</v>
+        <v>0.56810000000000005</v>
+      </c>
+    </row>
+    <row r="414" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A414" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H414" s="13">
+        <v>0.52949999999999997</v>
+      </c>
+      <c r="I414" s="13">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J414" s="13">
+        <v>0.437</v>
+      </c>
+      <c r="K414" s="13"/>
+      <c r="L414" s="13"/>
+      <c r="M414" s="13"/>
+      <c r="N414" s="13">
+        <v>0.49730000000000002</v>
+      </c>
+      <c r="O414" s="13">
+        <v>0.4859</v>
+      </c>
+      <c r="P414" s="13">
+        <v>0.32919999999999999</v>
       </c>
     </row>
     <row r="415" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H415" s="13">
-        <v>0.88170000000000004</v>
+        <v>0.89190000000000003</v>
       </c>
       <c r="I415" s="13">
-        <v>0.66479999999999995</v>
+        <v>0.53649999999999998</v>
       </c>
       <c r="J415" s="13">
-        <v>0.75670000000000004</v>
+        <v>0.66810000000000003</v>
       </c>
       <c r="K415" s="13"/>
       <c r="L415" s="13"/>
       <c r="M415" s="13"/>
       <c r="N415" s="13">
-        <v>0.95830000000000004</v>
+        <v>0.9506</v>
       </c>
       <c r="O415" s="13">
-        <v>5.0999999999999997E-2</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="P415" s="13">
-        <v>9.5399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A416" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H416" s="13">
-        <v>0.51649999999999996</v>
-      </c>
-      <c r="I416" s="13">
-        <v>0.53320000000000001</v>
-      </c>
-      <c r="J416" s="13">
-        <v>0.4884</v>
-      </c>
-      <c r="K416" s="13"/>
-      <c r="L416" s="13"/>
-      <c r="M416" s="13"/>
-      <c r="N416" s="13">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="O416" s="13">
-        <v>0.50280000000000002</v>
-      </c>
-      <c r="P416" s="13">
-        <v>9.4899999999999998E-2</v>
+        <v>0.97430000000000005</v>
+      </c>
+    </row>
+    <row r="416" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A416" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H416" s="27">
+        <v>0.52259999999999995</v>
+      </c>
+      <c r="I416" s="27">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="J416" s="27">
+        <v>0.4556</v>
+      </c>
+      <c r="N416" s="27">
+        <v>0.4753</v>
+      </c>
+      <c r="O416" s="27">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="P416" s="27">
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H417" s="13">
-        <v>0.8901</v>
+        <v>0.88170000000000004</v>
       </c>
       <c r="I417" s="13">
-        <v>0.76200000000000001</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="J417" s="13">
-        <v>0.81950000000000001</v>
+        <v>0.75670000000000004</v>
       </c>
       <c r="K417" s="13"/>
       <c r="L417" s="13"/>
       <c r="M417" s="13"/>
       <c r="N417" s="13">
-        <v>0.94830000000000003</v>
+        <v>0.95830000000000004</v>
       </c>
       <c r="O417" s="13">
-        <v>0.70989999999999998</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="P417" s="13">
-        <v>0.81059999999999999</v>
-      </c>
-    </row>
-    <row r="418" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A418" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="H418" s="27">
-        <v>0.53939999999999999</v>
-      </c>
-      <c r="I418" s="27">
-        <v>0.56679999999999997</v>
-      </c>
-      <c r="J418" s="27">
-        <v>0.53539999999999999</v>
-      </c>
-      <c r="N418" s="27">
-        <v>0.4965</v>
-      </c>
-      <c r="O418" s="27">
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="P418" s="27">
-        <v>0.44400000000000001</v>
-      </c>
-    </row>
-    <row r="419" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>9.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H418" s="13">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="I418" s="13">
+        <v>0.53320000000000001</v>
+      </c>
+      <c r="J418" s="13">
+        <v>0.4884</v>
+      </c>
+      <c r="K418" s="13"/>
+      <c r="L418" s="13"/>
+      <c r="M418" s="13"/>
+      <c r="N418" s="13">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="O418" s="13">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="P418" s="13">
+        <v>9.4899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H419" s="13">
-        <v>0.85850000000000004</v>
+        <v>0.8901</v>
       </c>
       <c r="I419" s="13">
-        <v>0.61699999999999999</v>
+        <v>0.76200000000000001</v>
       </c>
       <c r="J419" s="13">
-        <v>0.71640000000000004</v>
+        <v>0.81950000000000001</v>
       </c>
       <c r="K419" s="13"/>
       <c r="L419" s="13"/>
       <c r="M419" s="13"/>
       <c r="N419" s="13">
-        <v>0.95069999999999999</v>
+        <v>0.94830000000000003</v>
       </c>
       <c r="O419" s="13">
-        <v>1</v>
+        <v>0.70989999999999998</v>
       </c>
       <c r="P419" s="13">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="420" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A420" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H420" s="13">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="I420" s="13">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="J420" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="K420" s="13"/>
-      <c r="L420" s="13"/>
-      <c r="M420" s="13"/>
-      <c r="N420" s="13">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O420" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P420" s="13">
-        <v>4.6899999999999997E-2</v>
+        <v>0.81059999999999999</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A420" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H420" s="27">
+        <v>0.53939999999999999</v>
+      </c>
+      <c r="I420" s="27">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="J420" s="27">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="N420" s="27">
+        <v>0.4965</v>
+      </c>
+      <c r="O420" s="27">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="P420" s="27">
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="421" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H421" s="13">
-        <v>0.90800000000000003</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="I421" s="13">
-        <v>0.59199999999999997</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="J421" s="13">
-        <v>0.71499999999999997</v>
+        <v>0.71640000000000004</v>
       </c>
       <c r="K421" s="13"/>
       <c r="L421" s="13"/>
       <c r="M421" s="13"/>
       <c r="N421" s="13">
-        <v>0.94669999999999999</v>
+        <v>0.95069999999999999</v>
       </c>
       <c r="O421" s="13">
-        <v>0.51400000000000001</v>
+        <v>1</v>
       </c>
       <c r="P421" s="13">
-        <v>0.66400000000000003</v>
+        <v>0.97450000000000003</v>
       </c>
     </row>
     <row r="422" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H422" s="13">
-        <v>0.54400000000000004</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="I422" s="13">
-        <v>0.59599999999999997</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="J422" s="13">
-        <v>0.496</v>
+        <v>0.44</v>
       </c>
       <c r="K422" s="13"/>
       <c r="L422" s="13"/>
       <c r="M422" s="13"/>
       <c r="N422" s="13">
-        <v>0.496</v>
+        <v>2.46E-2</v>
       </c>
       <c r="O422" s="13">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="P422" s="13">
-        <v>0.374</v>
-      </c>
-    </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H423" s="13">
-        <v>0.87819999999999998</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I423" s="13">
-        <v>0.61460000000000004</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="J423" s="13">
-        <v>0.72119999999999995</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="K423" s="13"/>
       <c r="L423" s="13"/>
       <c r="M423" s="13"/>
       <c r="N423" s="13">
-        <v>0.95230000000000004</v>
+        <v>0.94669999999999999</v>
       </c>
       <c r="O423" s="13">
-        <v>0.44350000000000001</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="P423" s="13">
-        <v>0.60299999999999998</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="424" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H424" s="13">
-        <v>0.46739000000000003</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="I424" s="13">
-        <v>0.44328000000000001</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="J424" s="13">
-        <v>0.44490000000000002</v>
+        <v>0.496</v>
       </c>
       <c r="K424" s="13"/>
       <c r="L424" s="13"/>
       <c r="M424" s="13"/>
       <c r="N424" s="13">
-        <v>0.50029999999999997</v>
+        <v>0.496</v>
       </c>
       <c r="O424" s="13">
-        <v>0.50060000000000004</v>
+        <v>0.48</v>
       </c>
       <c r="P424" s="13">
-        <v>0.4088</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H425" s="13">
-        <v>0.82079999999999997</v>
+        <v>0.87819999999999998</v>
       </c>
       <c r="I425" s="13">
-        <v>0.74329999999999996</v>
+        <v>0.61460000000000004</v>
       </c>
       <c r="J425" s="13">
-        <v>0.92090000000000005</v>
+        <v>0.72119999999999995</v>
       </c>
       <c r="K425" s="13"/>
       <c r="L425" s="13"/>
       <c r="M425" s="13"/>
       <c r="N425" s="13">
-        <v>0.88329999999999997</v>
+        <v>0.95230000000000004</v>
       </c>
       <c r="O425" s="13">
-        <v>4.3700000000000003E-2</v>
+        <v>0.44350000000000001</v>
       </c>
       <c r="P425" s="13">
-        <v>8.2100000000000006E-2</v>
+        <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="426" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H426" s="13">
-        <v>0.55489999999999995</v>
+        <v>0.46739000000000003</v>
       </c>
       <c r="I426" s="13">
-        <v>0.54479999999999995</v>
+        <v>0.44328000000000001</v>
       </c>
       <c r="J426" s="13">
-        <v>0.22409999999999999</v>
+        <v>0.44490000000000002</v>
       </c>
       <c r="K426" s="13"/>
       <c r="L426" s="13"/>
       <c r="M426" s="13"/>
       <c r="N426" s="13">
-        <v>0.48459999999999998</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="O426" s="13">
-        <v>0.46600000000000003</v>
+        <v>0.50060000000000004</v>
       </c>
       <c r="P426" s="13">
-        <v>0.38769999999999999</v>
+        <v>0.4088</v>
       </c>
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H427">
+        <v>72</v>
+      </c>
+      <c r="H427" s="13">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="I427" s="13">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="J427" s="13">
         <v>0.92090000000000005</v>
-      </c>
-      <c r="I427">
-        <v>0.74329999999999996</v>
-      </c>
-      <c r="J427">
-        <v>0.82079999999999997</v>
       </c>
       <c r="K427" s="13"/>
       <c r="L427" s="13"/>
       <c r="M427" s="13"/>
       <c r="N427" s="13">
-        <v>0.95</v>
+        <v>0.88329999999999997</v>
       </c>
       <c r="O427" s="13">
-        <v>0.62639999999999996</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="P427" s="13">
-        <v>0.75319999999999998</v>
-      </c>
-    </row>
-    <row r="428" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A428" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="H428" s="27">
-        <v>0.55500000000000005</v>
-      </c>
-      <c r="I428" s="27">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="J428" s="27">
-        <v>0.224</v>
-      </c>
-      <c r="N428" s="27">
-        <v>0.49830000000000002</v>
-      </c>
-      <c r="O428" s="27">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="P428" s="27">
-        <v>0.41899999999999998</v>
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A428" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H428" s="13">
+        <v>0.55489999999999995</v>
+      </c>
+      <c r="I428" s="13">
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="J428" s="13">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="K428" s="13"/>
+      <c r="L428" s="13"/>
+      <c r="M428" s="13"/>
+      <c r="N428" s="13">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="O428" s="13">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="P428" s="13">
+        <v>0.38769999999999999</v>
       </c>
     </row>
     <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H429" s="13">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I429" s="13">
-        <v>1</v>
-      </c>
-      <c r="J429" s="13">
-        <v>0.92989999999999995</v>
+        <v>74</v>
+      </c>
+      <c r="H429">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="I429">
+        <v>0.74329999999999996</v>
+      </c>
+      <c r="J429">
+        <v>0.82079999999999997</v>
       </c>
       <c r="K429" s="13"/>
       <c r="L429" s="13"/>
       <c r="M429" s="13"/>
       <c r="N429" s="13">
-        <v>0.95469999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O429" s="13">
-        <v>0.68279999999999996</v>
+        <v>0.62639999999999996</v>
       </c>
       <c r="P429" s="13">
-        <v>0.79510000000000003</v>
-      </c>
-    </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A430" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H430" s="13">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="I430" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="J430" s="13">
-        <v>0.114</v>
-      </c>
-      <c r="K430" s="13"/>
-      <c r="L430" s="13"/>
-      <c r="M430" s="13"/>
-      <c r="N430" s="13">
-        <v>0.50529999999999997</v>
-      </c>
-      <c r="O430" s="13">
-        <v>0.52459999999999996</v>
-      </c>
-      <c r="P430" s="13">
-        <v>0.44700000000000001</v>
+        <v>0.75319999999999998</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A430" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="H430" s="27">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="I430" s="27">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="J430" s="27">
+        <v>0.224</v>
+      </c>
+      <c r="N430" s="27">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="O430" s="27">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="P430" s="27">
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H431" s="13">
-        <v>0.91620000000000001</v>
+        <v>0.86980000000000002</v>
       </c>
       <c r="I431" s="13">
-        <v>0.4199</v>
+        <v>1</v>
       </c>
       <c r="J431" s="13">
-        <v>0.57310000000000005</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="K431" s="13"/>
       <c r="L431" s="13"/>
       <c r="M431" s="13"/>
-      <c r="N431" s="13"/>
-      <c r="O431" s="13"/>
-      <c r="P431" s="13"/>
+      <c r="N431" s="13">
+        <v>0.95469999999999999</v>
+      </c>
+      <c r="O431" s="13">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="P431" s="13">
+        <v>0.79510000000000003</v>
+      </c>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H432" s="13">
-        <v>0.53959999999999997</v>
+        <v>6.4399999999999999E-2</v>
       </c>
       <c r="I432" s="13">
-        <v>0.5847</v>
+        <v>0.5</v>
       </c>
       <c r="J432" s="13">
-        <v>0.42130000000000001</v>
+        <v>0.114</v>
       </c>
       <c r="K432" s="13"/>
       <c r="L432" s="13"/>
       <c r="M432" s="13"/>
-      <c r="N432" s="13"/>
-      <c r="O432" s="13"/>
-      <c r="P432" s="13"/>
+      <c r="N432" s="13">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="O432" s="13">
+        <v>0.52459999999999996</v>
+      </c>
+      <c r="P432" s="13">
+        <v>0.44700000000000001</v>
+      </c>
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H433">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="I433">
-        <v>0.80620000000000003</v>
-      </c>
-      <c r="J433">
-        <v>0.84260000000000002</v>
-      </c>
-      <c r="N433">
-        <v>0.94789999999999996</v>
-      </c>
-      <c r="O433">
-        <v>0.63649999999999995</v>
-      </c>
-      <c r="P433">
-        <v>0.75949999999999995</v>
-      </c>
-    </row>
-    <row r="434" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H433" s="13">
+        <v>0.91620000000000001</v>
+      </c>
+      <c r="I433" s="13">
+        <v>0.4199</v>
+      </c>
+      <c r="J433" s="13">
+        <v>0.57310000000000005</v>
+      </c>
+      <c r="K433" s="13"/>
+      <c r="L433" s="13"/>
+      <c r="M433" s="13"/>
+      <c r="N433" s="13"/>
+      <c r="O433" s="13"/>
+      <c r="P433" s="13"/>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H434">
-        <v>0.53580000000000005</v>
-      </c>
-      <c r="I434">
-        <v>0.55269999999999997</v>
-      </c>
-      <c r="J434">
-        <v>0.53649999999999998</v>
-      </c>
-      <c r="N434">
-        <v>0.49669999999999997</v>
-      </c>
-      <c r="O434">
-        <v>0.48359999999999997</v>
-      </c>
-      <c r="P434">
-        <v>0.42099999999999999</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H434" s="13">
+        <v>0.53959999999999997</v>
+      </c>
+      <c r="I434" s="13">
+        <v>0.5847</v>
+      </c>
+      <c r="J434" s="13">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="K434" s="13"/>
+      <c r="L434" s="13"/>
+      <c r="M434" s="13"/>
+      <c r="N434" s="13"/>
+      <c r="O434" s="13"/>
+      <c r="P434" s="13"/>
     </row>
     <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H435">
-        <v>0.86499999999999999</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="I435">
-        <v>0.32700000000000001</v>
+        <v>0.80620000000000003</v>
       </c>
       <c r="J435">
-        <v>0.4713</v>
+        <v>0.84260000000000002</v>
       </c>
       <c r="N435">
-        <v>0.95099999999999996</v>
+        <v>0.94789999999999996</v>
       </c>
       <c r="O435">
-        <v>1</v>
+        <v>0.63649999999999995</v>
       </c>
       <c r="P435">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="436" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A436" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="H436" s="27">
-        <v>0.497</v>
-      </c>
-      <c r="I436" s="27">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="J436" s="27">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="N436" s="27">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O436" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="P436" s="27">
-        <v>0.48699999999999999</v>
+        <v>0.75949999999999995</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A436" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H436">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="I436">
+        <v>0.55269999999999997</v>
+      </c>
+      <c r="J436">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="N436">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="O436">
+        <v>0.48359999999999997</v>
+      </c>
+      <c r="P436">
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H437">
-        <v>0.88800000000000001</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="I437">
-        <v>0.60399999999999998</v>
+        <v>0.32700000000000001</v>
       </c>
       <c r="J437">
-        <v>0.71699999999999997</v>
+        <v>0.4713</v>
       </c>
       <c r="N437">
         <v>0.95099999999999996</v>
@@ -12454,257 +13210,303 @@
         <v>1</v>
       </c>
       <c r="P437">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A438" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H438" s="23">
-        <v>0.5202</v>
-      </c>
-      <c r="I438" s="23">
-        <v>0.54368000000000005</v>
-      </c>
-      <c r="J438" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A438" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H438" s="27">
+        <v>0.497</v>
+      </c>
+      <c r="I438" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J438" s="27">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="N438" s="27">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K438" s="23"/>
-      <c r="L438" s="23"/>
-      <c r="M438" s="23"/>
-      <c r="N438" s="23">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O438" s="23">
+      <c r="O438" s="27">
         <v>0.5</v>
       </c>
-      <c r="P438" s="23">
-        <v>4.6899999999999997E-2</v>
+      <c r="P438" s="27">
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H439">
-        <v>0.90400000000000003</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="I439">
-        <v>0.48099999999999998</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="J439">
-        <v>0.625</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="N439">
-        <v>0.95699999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O439">
-        <v>0.154</v>
+        <v>1</v>
       </c>
       <c r="P439">
-        <v>0.26300000000000001</v>
+        <v>0.97450000000000003</v>
       </c>
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H440" s="23">
+        <v>0.5202</v>
+      </c>
+      <c r="I440" s="23">
+        <v>0.54368000000000005</v>
+      </c>
+      <c r="J440" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="K440" s="23"/>
+      <c r="L440" s="23"/>
+      <c r="M440" s="23"/>
+      <c r="N440" s="23">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O440" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P440" s="23">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A441" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H441">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="I441">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="J441">
+        <v>0.625</v>
+      </c>
+      <c r="N441">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="O441">
+        <v>0.154</v>
+      </c>
+      <c r="P441">
+        <v>0.26300000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A442" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H440">
+      <c r="H442">
         <v>0.53200000000000003</v>
       </c>
-      <c r="I440">
+      <c r="I442">
         <v>0.57099999999999995</v>
       </c>
-      <c r="J440">
+      <c r="J442">
         <v>0.441</v>
       </c>
-      <c r="N440">
+      <c r="N442">
         <v>0.502</v>
       </c>
-      <c r="O440">
+      <c r="O442">
         <v>0.505</v>
       </c>
-      <c r="P440">
+      <c r="P442">
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A441" s="15" t="s">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A443" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H441">
+      <c r="H443">
         <v>0.8992</v>
       </c>
-      <c r="I441">
+      <c r="I443">
         <v>0.41170000000000001</v>
       </c>
-      <c r="J441">
+      <c r="J443">
         <v>0.56130000000000002</v>
       </c>
-      <c r="N441">
+      <c r="N443">
         <v>0.95079999999999998</v>
       </c>
-      <c r="O441">
+      <c r="O443">
         <v>0.31180000000000002</v>
       </c>
-      <c r="P441">
+      <c r="P443">
         <v>0.46710000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A442" s="15" t="s">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A444" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H442">
+      <c r="H444">
         <v>0.52400000000000002</v>
       </c>
-      <c r="I442">
+      <c r="I444">
         <v>0.55100000000000005</v>
       </c>
-      <c r="J442">
+      <c r="J444">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N442">
+      <c r="N444">
         <v>0.49880000000000002</v>
       </c>
-      <c r="O442">
+      <c r="O444">
         <v>0.49459999999999998</v>
       </c>
-      <c r="P442">
+      <c r="P444">
         <v>0.27939999999999998</v>
       </c>
     </row>
-    <row r="443" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="15"/>
-    </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A444" s="10" t="s">
+    <row r="445" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="15"/>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A446" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A445" s="7" t="s">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A447" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H445">
+      <c r="H447">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I445">
-        <v>1</v>
-      </c>
-      <c r="J445">
+      <c r="I447">
+        <v>1</v>
+      </c>
+      <c r="J447">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N445">
+      <c r="N447">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O445">
-        <v>1</v>
-      </c>
-      <c r="P445">
+      <c r="O447">
+        <v>1</v>
+      </c>
+      <c r="P447">
         <v>0.92730000000000001</v>
-      </c>
-    </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A446" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H446">
-        <v>6.8821400000000005E-2</v>
-      </c>
-      <c r="I446">
-        <v>0.5</v>
-      </c>
-      <c r="J446">
-        <v>0.120989</v>
-      </c>
-      <c r="N446">
-        <v>6.8820000000000006E-2</v>
-      </c>
-      <c r="O446">
-        <v>0.5</v>
-      </c>
-      <c r="P446">
-        <v>0.12098</v>
-      </c>
-    </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A447" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H448">
+        <v>6.8821400000000005E-2</v>
+      </c>
+      <c r="I448">
+        <v>0.5</v>
+      </c>
+      <c r="J448">
+        <v>0.120989</v>
+      </c>
+      <c r="N448">
+        <v>6.8820000000000006E-2</v>
+      </c>
+      <c r="O448">
+        <v>0.5</v>
+      </c>
+      <c r="P448">
+        <v>0.12098</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A449" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H448">
+      <c r="H450">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I448">
+      <c r="I450">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J448">
+      <c r="J450">
         <v>0.92</v>
       </c>
-      <c r="N448">
+      <c r="N450">
         <v>0.9456</v>
       </c>
-      <c r="O448">
+      <c r="O450">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P448">
+      <c r="P450">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A453" s="10" t="s">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A455" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A454" s="7" t="s">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H454">
+      <c r="H456">
         <v>0.4</v>
       </c>
-      <c r="I454">
+      <c r="I456">
         <v>0.5</v>
       </c>
-      <c r="J454">
+      <c r="J456">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N454">
+      <c r="N456">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O454">
+      <c r="O456">
         <v>0.5202</v>
       </c>
-      <c r="P454">
+      <c r="P456">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A455" s="7" t="s">
+    <row r="457" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A457" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H455">
+      <c r="H457">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I455">
+      <c r="I457">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J455">
+      <c r="J457">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N455">
+      <c r="N457">
         <v>0.5</v>
       </c>
-      <c r="O455">
+      <c r="O457">
         <v>0.34</v>
       </c>
-      <c r="P455">
+      <c r="P457">
         <v>0.40400000000000003</v>
       </c>
     </row>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -1336,10 +1336,10 @@
   <dimension ref="A1:R457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
-      <selection pane="bottomRight" activeCell="I321" sqref="I321"/>
+      <selection pane="bottomRight" activeCell="Q252" sqref="Q252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,49 +8855,49 @@
         <v>108</v>
       </c>
       <c r="B251" s="13">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C251" s="13">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="D251" s="13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E251" s="13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="F251" s="13">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G251" s="13">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H251" s="13">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="I251" s="13">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="J251" s="13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K251" s="13">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="L251" s="13">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="M251" s="13">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="N251" s="13">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
       <c r="O251" s="13">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="P251" s="13">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="252" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -8905,49 +8905,49 @@
         <v>109</v>
       </c>
       <c r="B252" s="13">
-        <v>1</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C252" s="13">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D252" s="13">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="E252" s="13">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="F252" s="13">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="G252" s="13">
-        <v>1</v>
+        <v>0.68</v>
       </c>
       <c r="H252" s="13">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="I252" s="13">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="J252" s="13">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="K252" s="13">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="L252" s="13">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="M252" s="13">
-        <v>1</v>
+        <v>0.69</v>
       </c>
       <c r="N252" s="13">
         <v>0.51</v>
       </c>
       <c r="O252" s="13">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="P252" s="13">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="242">
   <si>
     <t>Model</t>
   </si>
@@ -823,6 +823,9 @@
   <si>
     <t>Information Support</t>
   </si>
+  <si>
+    <t xml:space="preserve">SVC + OHE + 3 dense layers </t>
+  </si>
 </sst>
 </file>
 
@@ -927,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -985,6 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1333,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R457"/>
+  <dimension ref="A1:R496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B240" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
-      <selection pane="bottomRight" activeCell="Q252" sqref="Q252"/>
+      <selection pane="bottomRight" activeCell="J278" sqref="J278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8695,2746 +8699,3046 @@
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A241" s="7"/>
-      <c r="H241" s="13"/>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A242" s="10" t="s">
+    <row r="241" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="25"/>
+    </row>
+    <row r="242" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B243" s="23">
+        <v>1</v>
+      </c>
+      <c r="C243" s="23">
+        <v>0.93</v>
+      </c>
+      <c r="D243" s="23">
+        <v>0.96</v>
+      </c>
+      <c r="E243" s="23">
+        <v>1</v>
+      </c>
+      <c r="F243" s="23">
+        <v>0.83</v>
+      </c>
+      <c r="G243" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="H243" s="23">
+        <v>1</v>
+      </c>
+      <c r="I243" s="23">
+        <v>0.86</v>
+      </c>
+      <c r="J243" s="23">
+        <v>0.92</v>
+      </c>
+      <c r="K243" s="23">
+        <v>1</v>
+      </c>
+      <c r="L243" s="23">
+        <v>0.84</v>
+      </c>
+      <c r="M243" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="N243" s="23">
+        <v>1</v>
+      </c>
+      <c r="O243" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="P243" s="23">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B244" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="C244" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="D244" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="E244" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="F244" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="G244" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H244" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="I244" s="23">
+        <v>0.43</v>
+      </c>
+      <c r="J244" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="K244" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="L244" s="23">
+        <v>0.42</v>
+      </c>
+      <c r="M244" s="23">
+        <v>0.46</v>
+      </c>
+      <c r="N244" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O244" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P244" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H245" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I245" s="23">
+        <v>1</v>
+      </c>
+      <c r="J245" s="23">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N245" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O245" s="23">
+        <v>1</v>
+      </c>
+      <c r="P245" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H246" s="23">
+        <v>0.436</v>
+      </c>
+      <c r="I246" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J246" s="23">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N246" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O246" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P246" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H247" s="23">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I247" s="23">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="J247" s="23">
+        <v>0.77</v>
+      </c>
+      <c r="N247" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O247" s="23">
+        <v>1</v>
+      </c>
+      <c r="P247" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H248" s="23">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="I248" s="23">
+        <v>0.629</v>
+      </c>
+      <c r="J248" s="23">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="N248" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O248" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P248" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H249" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I249" s="23">
+        <v>1</v>
+      </c>
+      <c r="J249" s="23">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N249" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O249" s="23">
+        <v>1</v>
+      </c>
+      <c r="P249" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H250" s="23">
+        <v>0.436</v>
+      </c>
+      <c r="I250" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J250" s="23">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N250" s="23">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O250" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P250" s="23">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H251" s="23">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I251" s="23">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J251" s="23">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="N251" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O251" s="23">
+        <v>1</v>
+      </c>
+      <c r="P251" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="H252" s="23">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="I252" s="23">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="J252" s="23">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="N252" s="23">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O252" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P252" s="23">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="H255" s="23">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I255" s="23">
+        <v>0.623</v>
+      </c>
+      <c r="J255" s="23">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="N255" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O255" s="23">
+        <v>1</v>
+      </c>
+      <c r="P255" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A256" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H256" s="23">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="I256" s="23">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="J256" s="23">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="N256" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O256" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P256" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H257" s="23">
+        <v>0.87</v>
+      </c>
+      <c r="I257" s="23">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="J257" s="23">
+        <v>0.9</v>
+      </c>
+      <c r="N257" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O257" s="23">
+        <v>1</v>
+      </c>
+      <c r="P257" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H258" s="23">
+        <v>0.502</v>
+      </c>
+      <c r="I258" s="23">
+        <v>0.501</v>
+      </c>
+      <c r="J258" s="23">
+        <v>0.496</v>
+      </c>
+      <c r="N258" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O258" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P258" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H259" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I259" s="23">
+        <v>1</v>
+      </c>
+      <c r="J259" s="23">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="N259" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O259" s="23">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="P259" s="23">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="H260" s="23">
+        <v>0.436</v>
+      </c>
+      <c r="I260" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J260" s="23">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N260" s="23">
+        <v>0.501</v>
+      </c>
+      <c r="O260" s="23">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P260" s="23">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H261" s="23">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I261" s="23">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="J261" s="23">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="N261" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O261" s="23">
+        <v>1</v>
+      </c>
+      <c r="P261" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="H262" s="23">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="I262" s="23">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="J262" s="23">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="N262" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O262" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P262" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H263" s="23">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="I263" s="23">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="J263" s="23">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="N263" s="23">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="O263" s="23">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="P263" s="23">
+        <v>0.71099999999999997</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A264" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H264" s="23">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="I264" s="23">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="J264" s="23">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="N264" s="23">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="O264" s="23">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="P264" s="23">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H265" s="23">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I265" s="23">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J265" s="23">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="N265" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O265" s="23">
+        <v>1</v>
+      </c>
+      <c r="P265" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H266" s="23">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I266" s="23">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="J266" s="23">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="N266" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O266" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P266" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H267" s="23">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="I267" s="23">
+        <v>0.624</v>
+      </c>
+      <c r="J267" s="23">
+        <v>0.74</v>
+      </c>
+      <c r="N267" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O267" s="23">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="P267" s="23">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H268" s="23">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I268" s="23">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J268" s="23">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="N268" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="O268" s="23">
+        <v>0.501</v>
+      </c>
+      <c r="P268" s="23">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H269" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I269" s="23">
+        <v>1</v>
+      </c>
+      <c r="J269" s="23">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="N269" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O269" s="23">
+        <v>1</v>
+      </c>
+      <c r="P269" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A270" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H270" s="23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I270" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J270" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="N270" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O270" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P270" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H271" s="23">
+        <v>0.879</v>
+      </c>
+      <c r="I271" s="23">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="J271" s="23">
+        <v>0.84299999999999997</v>
+      </c>
+      <c r="N271" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O271" s="23">
+        <v>1</v>
+      </c>
+      <c r="P271" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H272" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="I272" s="23">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="J272" s="23">
+        <v>0.52</v>
+      </c>
+      <c r="N272" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O272" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P272" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H273" s="23">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="I273" s="23">
+        <v>0.23</v>
+      </c>
+      <c r="J273" s="23">
+        <v>0.36</v>
+      </c>
+      <c r="N273" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O273" s="23">
+        <v>1</v>
+      </c>
+      <c r="P273" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H274" s="23">
+        <v>0.496</v>
+      </c>
+      <c r="I274" s="23">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="J274" s="23">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="N274" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O274" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P274" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H275" s="23">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="I275" s="23">
+        <v>0.89</v>
+      </c>
+      <c r="J275" s="23">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="N275" s="23">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O275" s="23">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="P275" s="23">
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H276" s="23">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="I276" s="23">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J276" s="23">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="N276" s="23">
+        <v>0.501</v>
+      </c>
+      <c r="O276" s="23">
+        <v>0.505</v>
+      </c>
+      <c r="P276" s="23">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H277" s="23">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I277" s="23">
+        <v>1</v>
+      </c>
+      <c r="J277" s="23">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N277" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O277" s="23">
+        <v>1</v>
+      </c>
+      <c r="P277" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A278" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H278" s="23">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I278" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J278" s="23">
+        <v>0.114</v>
+      </c>
+      <c r="N278" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O278" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P278" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="25"/>
+    </row>
+    <row r="280" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="25"/>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A281" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A243" s="7" t="s">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H243">
-        <v>1</v>
-      </c>
-      <c r="I243">
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
         <v>0.87</v>
       </c>
-      <c r="J243">
+      <c r="J282">
         <v>0.93</v>
       </c>
-      <c r="N243">
-        <v>1</v>
-      </c>
-      <c r="O243">
+      <c r="N282">
+        <v>1</v>
+      </c>
+      <c r="O282">
         <v>0.95</v>
       </c>
-      <c r="P243">
+      <c r="P282">
         <v>0.97</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A244" s="7" t="s">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A283" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H244">
+      <c r="H283">
         <v>0.4335</v>
       </c>
-      <c r="I244">
+      <c r="I283">
         <v>0.5</v>
       </c>
-      <c r="J244">
+      <c r="J283">
         <v>0.46439999999999998</v>
       </c>
-      <c r="N244">
+      <c r="N283">
         <v>0.47295500000000001</v>
       </c>
-      <c r="O244">
+      <c r="O283">
         <v>0.5</v>
       </c>
-      <c r="P244">
+      <c r="P283">
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A245" s="7" t="s">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A284" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H245">
-        <v>1</v>
-      </c>
-      <c r="I245">
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
         <v>0.87</v>
       </c>
-      <c r="J245">
+      <c r="J284">
         <v>0.93</v>
       </c>
-      <c r="N245">
-        <v>1</v>
-      </c>
-      <c r="O245">
+      <c r="N284">
+        <v>1</v>
+      </c>
+      <c r="O284">
         <v>0.95</v>
       </c>
-      <c r="P245">
+      <c r="P284">
         <v>0.97</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="7" t="s">
+    <row r="285" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H246">
+      <c r="H285">
         <v>0.43358999999999998</v>
       </c>
-      <c r="I246">
+      <c r="I285">
         <v>0.5</v>
       </c>
-      <c r="J246">
+      <c r="J285">
         <v>0.46443000000000001</v>
       </c>
-      <c r="N246">
+      <c r="N285">
         <v>0.47295500000000001</v>
       </c>
-      <c r="O246">
+      <c r="O285">
         <v>0.5</v>
       </c>
-      <c r="P246">
+      <c r="P285">
         <v>0.48609999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A247" s="7" t="s">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H247">
-        <v>1</v>
-      </c>
-      <c r="I247">
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
         <v>0.87</v>
       </c>
-      <c r="J247">
+      <c r="J286">
         <v>0.93</v>
       </c>
-      <c r="N247">
-        <v>1</v>
-      </c>
-      <c r="O247">
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286">
         <v>0.95</v>
       </c>
-      <c r="P247">
+      <c r="P286">
         <v>0.97</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="7" t="s">
+    <row r="287" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A287" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="H248">
+      <c r="H287">
         <v>0.5</v>
       </c>
-      <c r="I248">
+      <c r="I287">
         <v>0.4335</v>
       </c>
-      <c r="J248">
+      <c r="J287">
         <v>0.46400000000000002</v>
       </c>
-      <c r="N248">
+      <c r="N287">
         <v>0.5</v>
       </c>
-      <c r="O248">
+      <c r="O287">
         <v>0.47294999999999998</v>
       </c>
-      <c r="P248">
+      <c r="P287">
         <v>0.48610100000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A249" s="7"/>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A250" s="10" t="s">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A288" s="7"/>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A289" s="10" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="251" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B251" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="C251" s="13">
-        <v>0.93</v>
-      </c>
-      <c r="D251" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="E251" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="F251" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="G251" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="H251" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="I251" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="J251" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="K251" s="13">
-        <v>0.92</v>
-      </c>
-      <c r="L251" s="13">
-        <v>0.87</v>
-      </c>
-      <c r="M251" s="13">
-        <v>0.89</v>
-      </c>
-      <c r="N251" s="13">
-        <v>0.86</v>
-      </c>
-      <c r="O251" s="13">
-        <v>0.88</v>
-      </c>
-      <c r="P251" s="13">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="252" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B252" s="13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C252" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D252" s="13">
-        <v>0.62</v>
-      </c>
-      <c r="E252" s="13">
-        <v>0.64</v>
-      </c>
-      <c r="F252" s="13">
-        <v>0.78</v>
-      </c>
-      <c r="G252" s="13">
-        <v>0.68</v>
-      </c>
-      <c r="H252" s="13">
-        <v>0.63</v>
-      </c>
-      <c r="I252" s="13">
-        <v>0.77</v>
-      </c>
-      <c r="J252" s="13">
-        <v>0.66</v>
-      </c>
-      <c r="K252" s="13">
-        <v>0.66</v>
-      </c>
-      <c r="L252" s="13">
-        <v>0.79</v>
-      </c>
-      <c r="M252" s="13">
-        <v>0.69</v>
-      </c>
-      <c r="N252" s="13">
-        <v>0.51</v>
-      </c>
-      <c r="O252" s="13">
-        <v>0.51</v>
-      </c>
-      <c r="P252" s="13">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A253" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A254" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A255" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="256" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="7"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B289" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="C289" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="D289" s="13">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E289" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="F289" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G289" s="13">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H289" s="13">
-        <v>0.97</v>
-      </c>
-      <c r="I289" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="J289" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="K289" s="13">
-        <v>0.96</v>
-      </c>
-      <c r="L289" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="M289" s="13">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N289" s="13">
-        <v>0.94</v>
-      </c>
-      <c r="O289" s="13">
-        <v>0.08</v>
-      </c>
-      <c r="P289" s="13">
-        <v>0.09</v>
       </c>
     </row>
     <row r="290" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B290" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="C290" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D290" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E290" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="F290" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="G290" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="H290" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="I290" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="J290" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="K290" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="L290" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="M290" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="N290" s="13">
+        <v>0.86</v>
+      </c>
+      <c r="O290" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="P290" s="13">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B290" s="13">
-        <v>0.52</v>
-      </c>
-      <c r="C290" s="13">
-        <v>0.54</v>
-      </c>
-      <c r="D290" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="E290" s="13">
-        <v>0.52</v>
-      </c>
-      <c r="F290" s="13">
+      <c r="B291" s="13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="G290" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="H290" s="13">
-        <v>0.52</v>
-      </c>
-      <c r="I290" s="13">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J290" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="K290" s="13">
-        <v>0.52</v>
-      </c>
-      <c r="L290" s="13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M290" s="13">
-        <v>0.18</v>
-      </c>
-      <c r="N290" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="O290" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P290" s="13">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A291" s="7" t="s">
+      <c r="C291" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D291" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="E291" s="13">
+        <v>0.64</v>
+      </c>
+      <c r="F291" s="13">
+        <v>0.78</v>
+      </c>
+      <c r="G291" s="13">
+        <v>0.68</v>
+      </c>
+      <c r="H291" s="13">
+        <v>0.63</v>
+      </c>
+      <c r="I291" s="13">
+        <v>0.77</v>
+      </c>
+      <c r="J291" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="K291" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="L291" s="13">
+        <v>0.79</v>
+      </c>
+      <c r="M291" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="N291" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="O291" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="P291" s="13">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H291">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="I291">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="J291">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="N291">
-        <v>0.73199999999999998</v>
-      </c>
-      <c r="O291">
-        <v>1.9E-2</v>
-      </c>
-      <c r="P291">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="H292" s="27">
-        <v>0.505</v>
-      </c>
-      <c r="I292" s="27">
-        <v>0.502</v>
-      </c>
-      <c r="J292" s="27">
-        <v>0.156</v>
-      </c>
-      <c r="N292" s="27">
-        <v>0.501</v>
-      </c>
-      <c r="O292" s="27">
-        <v>0.501</v>
-      </c>
-      <c r="P292" s="27">
-        <v>6.6000000000000003E-2</v>
+      <c r="H292">
+        <v>0.86939999999999995</v>
+      </c>
+      <c r="I292">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="J292">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="N292">
+        <v>0.95179999999999998</v>
+      </c>
+      <c r="O292">
+        <v>0.95220000000000005</v>
+      </c>
+      <c r="P292">
+        <v>0.9516</v>
       </c>
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H293">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="I293">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="J293">
+        <v>0.49680000000000002</v>
+      </c>
+      <c r="N293">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="O293">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="P293">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A294" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H293">
-        <v>0.86699999999999999</v>
-      </c>
-      <c r="I293">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="J293">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="N293">
-        <v>0.94989999999999997</v>
-      </c>
-      <c r="O293">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="P293">
-        <v>0.94499999999999995</v>
-      </c>
-    </row>
-    <row r="294" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A294" s="26" t="s">
+      <c r="H294">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="I294">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="J294">
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="N294">
+        <v>0.95320000000000005</v>
+      </c>
+      <c r="O294">
+        <v>0.39</v>
+      </c>
+      <c r="P294">
+        <v>0.55149999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H294" s="27">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="I294" s="27">
-        <v>0.503</v>
-      </c>
-      <c r="J294" s="27">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="N294" s="27">
-        <v>0.49399999999999999</v>
-      </c>
-      <c r="O294" s="27">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="P294" s="27">
-        <v>0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A295" s="7" t="s">
+      <c r="H295">
+        <v>0.5625</v>
+      </c>
+      <c r="I295">
+        <v>0.62329999999999997</v>
+      </c>
+      <c r="J295">
+        <v>0.54930000000000001</v>
+      </c>
+      <c r="N295">
+        <v>0.504</v>
+      </c>
+      <c r="O295">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="P295">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A296" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H295">
-        <v>0.86919999999999997</v>
-      </c>
-      <c r="I295">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="J295">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="N295">
-        <v>0.93310000000000004</v>
-      </c>
-      <c r="O295">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="P295">
-        <v>9.0399999999999994E-2</v>
-      </c>
-    </row>
-    <row r="296" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H296">
-        <v>0.48099999999999998</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I296">
-        <v>0.498</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="J296">
-        <v>0.47099999999999997</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="N296">
-        <v>0.505</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="O296">
-        <v>0.50600000000000001</v>
+        <v>0.95540000000000003</v>
       </c>
       <c r="P296">
-        <v>0.10100000000000001</v>
+        <v>0.95350000000000001</v>
       </c>
     </row>
     <row r="297" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H297">
-        <v>0.86899999999999999</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I297">
-        <v>0.997</v>
+        <v>0.624</v>
       </c>
       <c r="J297">
-        <v>0.92800000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="N297">
-        <v>0.94899999999999995</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="O297">
-        <v>0.97199999999999998</v>
+        <v>0.51</v>
       </c>
       <c r="P297">
-        <v>0.96</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="298" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H298">
-        <v>0.498</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="I298">
-        <v>0.499</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="J298">
-        <v>0.46800000000000003</v>
+        <v>0.73</v>
       </c>
       <c r="N298">
-        <v>0.48199999999999998</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O298">
-        <v>0.48799999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="P298">
-        <v>0.48499999999999999</v>
+        <v>0.95199999999999996</v>
       </c>
     </row>
     <row r="299" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H299">
-        <v>0.86499999999999999</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="I299">
-        <v>4.9000000000000002E-2</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="J299">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="N299" s="13">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O299" s="13">
-        <v>1</v>
-      </c>
-      <c r="P299" s="13">
-        <v>0.97499999999999998</v>
+        <v>0.505</v>
+      </c>
+      <c r="N299">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O299">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P299">
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="300" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H300">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="I300">
+        <v>0.61</v>
+      </c>
+      <c r="J300">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="N300">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="O300">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="P300">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A301" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H300">
+      <c r="H301">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="I301">
+        <v>0.627</v>
+      </c>
+      <c r="J301">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="N301">
         <v>0.502</v>
       </c>
-      <c r="I300">
+      <c r="O301">
         <v>0.501</v>
       </c>
-      <c r="J300">
-        <v>0.16</v>
-      </c>
-      <c r="N300" s="13">
+      <c r="P301">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A302" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H302">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I302">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J302">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="N302">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="O302">
+        <v>1</v>
+      </c>
+      <c r="P302">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A303" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H303">
+        <v>0.53</v>
+      </c>
+      <c r="I303">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="J303">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="N303">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O303">
+        <v>0.5</v>
+      </c>
+      <c r="P303">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H304">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I304">
+        <v>1</v>
+      </c>
+      <c r="J304">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="N304">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O304">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="P304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H305">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="I305">
+        <v>0.5</v>
+      </c>
+      <c r="J305">
+        <v>0.115</v>
+      </c>
+      <c r="N305">
         <v>0.47499999999999998</v>
       </c>
-      <c r="O300" s="13">
+      <c r="O305">
         <v>0.5</v>
       </c>
-      <c r="P300" s="13">
+      <c r="P305">
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A301" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H301">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I301">
-        <v>1</v>
-      </c>
-      <c r="J301">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N301">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="O301">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="P301">
-        <v>0.95499999999999996</v>
-      </c>
-    </row>
-    <row r="302" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H302">
-        <v>0.436</v>
-      </c>
-      <c r="I302">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H306">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I306">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J306">
+        <v>0.66</v>
+      </c>
+      <c r="N306">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O306">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="P306">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H307">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="I307">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="J307">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="N307">
+        <v>0.505</v>
+      </c>
+      <c r="O307">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P307">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H308">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="I308">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="J308">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="N308">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O308">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="P308">
+        <v>0.97199999999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A309" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H309">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="I309">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="J309">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N309">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O309">
         <v>0.5</v>
       </c>
-      <c r="J302">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="N302">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O302">
+      <c r="P309">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A310" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H310">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I310">
+        <v>0.64</v>
+      </c>
+      <c r="J310">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="N310">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O310">
+        <v>1</v>
+      </c>
+      <c r="P310">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H311">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="I311">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="J311">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="N311">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O311">
         <v>0.5</v>
       </c>
-      <c r="P302">
-        <v>4.6899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A303" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H303">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I303">
-        <v>1</v>
-      </c>
-      <c r="J303">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="N303">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="O303">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="P303">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A304" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H304" s="27">
-        <v>0.436</v>
-      </c>
-      <c r="I304" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="J304" s="27">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="N304" s="27">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="O304" s="27">
-        <v>0.498</v>
-      </c>
-      <c r="P304" s="27">
-        <v>5.1999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A305" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H305">
-        <v>0.86460000000000004</v>
-      </c>
-      <c r="I305">
-        <v>4.24E-2</v>
-      </c>
-      <c r="J305">
-        <v>7.9600000000000004E-2</v>
-      </c>
-      <c r="N305">
-        <v>0.95120000000000005</v>
-      </c>
-      <c r="O305">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="P305">
-        <v>0.97219999999999995</v>
-      </c>
-    </row>
-    <row r="306" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A306" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H306" s="27">
-        <v>0.498</v>
-      </c>
-      <c r="I306" s="27">
-        <v>0.499</v>
-      </c>
-      <c r="J306" s="27">
-        <v>0.154</v>
-      </c>
-      <c r="N306" s="27">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="O306" s="27">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="P306" s="27">
-        <v>0.502</v>
-      </c>
-    </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A307" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H307">
-        <v>0.871</v>
-      </c>
-      <c r="I307">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="J307">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="N307">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O307">
-        <v>1</v>
-      </c>
-      <c r="P307">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="308" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H308">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="I308">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="J308">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="N308">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O308">
-        <v>0.5</v>
-      </c>
-      <c r="P308">
+      <c r="P311">
         <v>0.48699999999999999</v>
-      </c>
-    </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A309" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H309">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="I309">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J309">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="N309" s="13">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O309" s="13">
-        <v>1</v>
-      </c>
-      <c r="P309" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="310" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A310" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H310">
-        <v>0.495</v>
-      </c>
-      <c r="I310">
-        <v>0.498</v>
-      </c>
-      <c r="J310">
-        <v>0.15</v>
-      </c>
-      <c r="N310" s="13">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O310" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P310" s="13">
-        <v>0.48699999999999999</v>
-      </c>
-    </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A311" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H311">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="I311">
-        <v>0.9899</v>
-      </c>
-      <c r="J311">
-        <v>0.92530000000000001</v>
-      </c>
-      <c r="N311">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O311">
-        <v>1</v>
-      </c>
-      <c r="P311">
-        <v>0.97450000000000003</v>
       </c>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H312">
-        <v>0.48080000000000001</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="I312">
-        <v>0.49830000000000002</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="J312">
-        <v>0.46960000000000002</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="N312">
-        <v>0.47499999999999998</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O312">
-        <v>0.5</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="P312">
-        <v>0.48699999999999999</v>
+        <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H313">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="I313">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J313">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N313">
+        <v>0.501</v>
+      </c>
+      <c r="O313">
+        <v>0.504</v>
+      </c>
+      <c r="P313">
+        <v>0.38800000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A314" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H313">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="I313">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="J313">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="N313" s="13">
+      <c r="H314">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I314">
+        <v>1</v>
+      </c>
+      <c r="J314">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N314" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="O314" s="13">
         <v>0.95099999999999996</v>
       </c>
-      <c r="O313" s="13">
-        <v>1</v>
-      </c>
-      <c r="P313" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="314" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="H314" s="27">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I314" s="27">
-        <v>0.497</v>
-      </c>
-      <c r="J314" s="27">
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="N314" s="27">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O314" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="P314" s="27">
-        <v>0.48699999999999999</v>
+      <c r="P314" s="13">
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H315">
+        <v>0.436</v>
+      </c>
+      <c r="I315">
+        <v>0.5</v>
+      </c>
+      <c r="J315">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N315" s="13">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O315" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P315" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H315">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="I315">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="J315">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="N315">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="O315">
-        <v>3.6400000000000002E-2</v>
-      </c>
-      <c r="P315">
-        <v>6.88E-2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="7" t="s">
+      <c r="H316">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I316">
+        <v>0.75</v>
+      </c>
+      <c r="J316">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="N316">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O316">
+        <v>1</v>
+      </c>
+      <c r="P316">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H316">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="I316">
-        <v>0.496</v>
-      </c>
-      <c r="J316">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="N316">
-        <v>0.495</v>
-      </c>
-      <c r="O316">
-        <v>0.496</v>
-      </c>
-      <c r="P316">
-        <v>8.2100000000000006E-2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A317" s="7" t="s">
+      <c r="H317">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="I317">
+        <v>0.64</v>
+      </c>
+      <c r="J317">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="N317">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O317">
+        <v>0.5</v>
+      </c>
+      <c r="P317">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H317">
-        <v>0.66</v>
-      </c>
-      <c r="I317">
-        <v>2.64E-2</v>
-      </c>
-      <c r="J317">
-        <v>5.0099999999999999E-2</v>
-      </c>
-      <c r="N317" s="13">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O317" s="13">
-        <v>1</v>
-      </c>
-      <c r="P317" s="13">
-        <v>0.97499999999999998</v>
-      </c>
-    </row>
-    <row r="318" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="26" t="s">
+      <c r="H318">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="I318">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="J318">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="N318">
+        <v>0.625</v>
+      </c>
+      <c r="O318">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="P318">
+        <v>3.61E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A319" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H318" s="27">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="I318" s="27">
-        <v>0.498</v>
-      </c>
-      <c r="J318" s="27">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="N318" s="27">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O318" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="P318" s="27">
-        <v>0.48699999999999999</v>
-      </c>
-    </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A319" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="H319">
-        <v>0.86899999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="I319">
-        <v>5.3999999999999999E-2</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="J319">
-        <v>9.98E-2</v>
-      </c>
-      <c r="N319" s="13">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O319" s="13">
-        <v>1</v>
-      </c>
-      <c r="P319" s="13">
-        <v>0.97499999999999998</v>
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="N319">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="O319">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="P319">
+        <v>6.4199999999999993E-2</v>
       </c>
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H320">
-        <v>0.50700000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I320">
-        <v>0.503</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="J320">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="N320" s="13">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O320" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P320" s="13">
-        <v>0.48699999999999999</v>
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="N320">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
+      <c r="P320">
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H321">
-        <v>0.86299999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I321">
-        <v>0.05</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="J321">
-        <v>9.4E-2</v>
-      </c>
-      <c r="N321">
-        <v>0.75</v>
-      </c>
-      <c r="O321">
-        <v>0.02</v>
-      </c>
-      <c r="P321">
-        <v>0.05</v>
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="N321" s="13">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O321" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P321" s="13">
+        <v>4.6899999999999997E-2</v>
       </c>
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H322">
-        <v>0.504</v>
-      </c>
-      <c r="I322" s="13">
-        <v>0.502</v>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="I322">
+        <v>0.45500000000000002</v>
       </c>
       <c r="J322">
-        <v>0.16200000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="N322">
-        <v>0.502</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="O322">
-        <v>0.501</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="P322">
-        <v>7.4999999999999997E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H323">
-        <v>0.86</v>
-      </c>
-      <c r="I323" s="13">
-        <v>4.4999999999999998E-2</v>
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="I323">
+        <v>0.56399999999999995</v>
       </c>
       <c r="J323">
-        <v>8.4000000000000005E-2</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="N323">
-        <v>0.95099999999999996</v>
+        <v>0.49</v>
       </c>
       <c r="O323">
-        <v>0.97299999999999998</v>
+        <v>0.498</v>
       </c>
       <c r="P323">
-        <v>0.96199999999999997</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H324">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="I324">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J324">
+        <v>0.37</v>
+      </c>
+      <c r="N324">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="O324">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="P324">
+        <v>0.79959999999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H324">
+      <c r="H325">
+        <v>0.51</v>
+      </c>
+      <c r="I325">
+        <v>0.51</v>
+      </c>
+      <c r="J325">
+        <v>0.3</v>
+      </c>
+      <c r="N325">
+        <v>0.51</v>
+      </c>
+      <c r="O325">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P325">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A326" s="7"/>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A327" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B328" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="C328" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="D328" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E328" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="F328" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G328" s="13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H328" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="I328" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="J328" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="K328" s="13">
+        <v>0.96</v>
+      </c>
+      <c r="L328" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="M328" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N328" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="O328" s="13">
+        <v>0.08</v>
+      </c>
+      <c r="P328" s="13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B329" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="C329" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="D329" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="E329" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="F329" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G329" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="H329" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="I329" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J329" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="K329" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="L329" s="13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M329" s="13">
+        <v>0.18</v>
+      </c>
+      <c r="N329" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="O329" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P329" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H330">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="I330">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J330">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="N330">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="O330">
+        <v>1.9E-2</v>
+      </c>
+      <c r="P330">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H331" s="27">
+        <v>0.505</v>
+      </c>
+      <c r="I331" s="27">
+        <v>0.502</v>
+      </c>
+      <c r="J331" s="27">
+        <v>0.156</v>
+      </c>
+      <c r="N331" s="27">
         <v>0.501</v>
       </c>
-      <c r="I324">
+      <c r="O331" s="27">
         <v>0.501</v>
       </c>
-      <c r="J324">
-        <v>0.157</v>
-      </c>
-      <c r="N324">
+      <c r="P331" s="27">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H332">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="I332">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J332">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="N332">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="O332">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="P332">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A333" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H333" s="27">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="I333" s="27">
+        <v>0.503</v>
+      </c>
+      <c r="J333" s="27">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="N333" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="O333" s="27">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="P333" s="27">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A334" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H334">
+        <v>0.86919999999999997</v>
+      </c>
+      <c r="I334">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J334">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="N334">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="O334">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="P334">
+        <v>9.0399999999999994E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A335" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H335">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="I335">
+        <v>0.498</v>
+      </c>
+      <c r="J335">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="N335">
+        <v>0.505</v>
+      </c>
+      <c r="O335">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P335">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H336">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I336">
+        <v>0.997</v>
+      </c>
+      <c r="J336">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N336">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="O336">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="P336">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H337">
+        <v>0.498</v>
+      </c>
+      <c r="I337">
+        <v>0.499</v>
+      </c>
+      <c r="J337">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="N337">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="O337">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="P337">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A338" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H338">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="I338">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J338">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N338" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O338" s="13">
+        <v>1</v>
+      </c>
+      <c r="P338" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A339" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H339">
+        <v>0.502</v>
+      </c>
+      <c r="I339">
+        <v>0.501</v>
+      </c>
+      <c r="J339">
+        <v>0.16</v>
+      </c>
+      <c r="N339" s="13">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O339" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P339" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A340" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H340">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I340">
+        <v>1</v>
+      </c>
+      <c r="J340">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N340">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="O340">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P340">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H341">
+        <v>0.436</v>
+      </c>
+      <c r="I341">
+        <v>0.5</v>
+      </c>
+      <c r="J341">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N341">
+        <v>2.46E-2</v>
+      </c>
+      <c r="O341">
+        <v>0.5</v>
+      </c>
+      <c r="P341">
+        <v>4.6899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A342" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H342">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="N342">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="O342">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P342">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H343" s="27">
+        <v>0.436</v>
+      </c>
+      <c r="I343" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="J343" s="27">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="N343" s="27">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="O343" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="P343" s="27">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A344" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H344">
+        <v>0.86460000000000004</v>
+      </c>
+      <c r="I344">
+        <v>4.24E-2</v>
+      </c>
+      <c r="J344">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="N344">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="O344">
+        <v>0.99450000000000005</v>
+      </c>
+      <c r="P344">
+        <v>0.97219999999999995</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H345" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="I345" s="27">
+        <v>0.499</v>
+      </c>
+      <c r="J345" s="27">
+        <v>0.154</v>
+      </c>
+      <c r="N345" s="27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="O345" s="27">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="P345" s="27">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A346" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H346">
+        <v>0.871</v>
+      </c>
+      <c r="I346">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="J346">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="N346">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O346">
+        <v>1</v>
+      </c>
+      <c r="P346">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A347" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H347">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="I347">
         <v>0.50700000000000001</v>
       </c>
-      <c r="O324">
-        <v>0.504</v>
-      </c>
-      <c r="P324">
-        <v>0.504</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A325" s="7"/>
-    </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A326" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A327" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H327">
-        <v>0.98</v>
-      </c>
-      <c r="I327">
-        <v>0.86</v>
-      </c>
-      <c r="J327">
-        <v>0.91</v>
-      </c>
-      <c r="N327">
-        <v>1</v>
-      </c>
-      <c r="O327">
-        <v>0.95</v>
-      </c>
-      <c r="P327">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A328" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H328">
-        <v>0.51063999999999998</v>
-      </c>
-      <c r="I328">
-        <v>0.50104400000000004</v>
-      </c>
-      <c r="J328">
-        <v>0.47427999999999998</v>
-      </c>
-      <c r="N328">
-        <v>0.47289999999999999</v>
-      </c>
-      <c r="O328">
+      <c r="J347">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="N347">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O347">
         <v>0.5</v>
       </c>
-      <c r="P328">
-        <v>0.48610100000000001</v>
-      </c>
-    </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A329" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H329">
-        <v>0.82</v>
-      </c>
-      <c r="I329">
-        <v>0.8</v>
-      </c>
-      <c r="J329">
-        <v>0.81</v>
-      </c>
-      <c r="N329">
-        <v>0.91</v>
-      </c>
-      <c r="O329">
-        <v>0.91</v>
-      </c>
-      <c r="P329">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A330" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H330">
-        <v>0.52729999999999999</v>
-      </c>
-      <c r="I330">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="J330">
-        <v>0.52428900000000001</v>
-      </c>
-      <c r="N330">
-        <v>0.51158499999999996</v>
-      </c>
-      <c r="O330">
-        <v>0.50997000000000003</v>
-      </c>
-      <c r="P330">
-        <v>0.51049999999999995</v>
-      </c>
-    </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A331" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H331">
-        <v>0.75</v>
-      </c>
-      <c r="I331">
-        <v>0.76</v>
-      </c>
-      <c r="J331">
-        <v>0.76</v>
-      </c>
-      <c r="N331">
-        <v>0.9</v>
-      </c>
-      <c r="O331">
-        <v>0.9</v>
-      </c>
-      <c r="P331">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A332" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H332">
-        <v>0.51670000000000005</v>
-      </c>
-      <c r="I332">
-        <v>0.51490000000000002</v>
-      </c>
-      <c r="J332">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="N332">
-        <v>0.49696000000000001</v>
-      </c>
-      <c r="O332">
-        <v>0.49697999999999998</v>
-      </c>
-      <c r="P332">
-        <v>0.49697000000000002</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A333" s="7"/>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A334" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A335" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B335">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="C335">
-        <v>0.79749999999999999</v>
-      </c>
-      <c r="D335">
-        <v>0.86160000000000003</v>
-      </c>
-      <c r="E335">
-        <v>0.82899999999999996</v>
-      </c>
-      <c r="F335">
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="G335">
-        <v>0.79279999999999995</v>
-      </c>
-      <c r="H335">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="I335">
-        <v>0.66349999999999998</v>
-      </c>
-      <c r="J335">
-        <v>0.74939999999999996</v>
-      </c>
-      <c r="K335">
-        <v>0.84730000000000005</v>
-      </c>
-      <c r="L335">
-        <v>0.74829999999999997</v>
-      </c>
-      <c r="M335">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="N335">
-        <v>0.95420000000000005</v>
-      </c>
-      <c r="O335">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="P335">
-        <v>0.81440000000000001</v>
-      </c>
-    </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A336" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B336">
-        <v>0.501</v>
-      </c>
-      <c r="C336">
-        <v>0.504</v>
-      </c>
-      <c r="D336">
-        <v>0.48</v>
-      </c>
-      <c r="E336">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="F336">
-        <v>0.52039999999999997</v>
-      </c>
-      <c r="G336">
-        <v>0.51449999999999996</v>
-      </c>
-      <c r="H336">
-        <v>0.49009999999999998</v>
-      </c>
-      <c r="I336">
-        <v>0.4803</v>
-      </c>
-      <c r="J336">
-        <v>0.45860000000000001</v>
-      </c>
-      <c r="K336">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="L336">
-        <v>0.51139999999999997</v>
-      </c>
-      <c r="M336">
-        <v>0.502</v>
-      </c>
-      <c r="N336">
-        <v>0.50439999999999996</v>
-      </c>
-      <c r="O336">
-        <v>0.51939999999999997</v>
-      </c>
-      <c r="P336">
-        <v>0.45669999999999999</v>
-      </c>
-    </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A337" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B337" s="13"/>
-      <c r="C337" s="13"/>
-      <c r="D337" s="13"/>
-      <c r="E337" s="13"/>
-      <c r="F337" s="13"/>
-      <c r="G337" s="13"/>
-      <c r="H337" s="13">
-        <v>0.86719999999999997</v>
-      </c>
-      <c r="I337" s="13">
-        <v>0.57509999999999994</v>
-      </c>
-      <c r="J337" s="13">
-        <v>0.69010000000000005</v>
-      </c>
-      <c r="K337" s="13"/>
-      <c r="L337" s="13"/>
-      <c r="M337" s="13"/>
-      <c r="N337" s="13">
-        <v>0.95269999999999999</v>
-      </c>
-      <c r="O337" s="13">
-        <v>0.71719999999999995</v>
-      </c>
-      <c r="P337" s="13">
-        <v>0.81679999999999997</v>
-      </c>
-    </row>
-    <row r="338" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H338" s="6">
-        <v>0.496</v>
-      </c>
-      <c r="I338" s="6">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="J338" s="6">
-        <v>0.441</v>
-      </c>
-      <c r="N338" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="O338" s="6">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="P338" s="6">
-        <v>0.45600000000000002</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A339" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B339" s="13"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
-      <c r="F339" s="13"/>
-      <c r="G339" s="13"/>
-      <c r="H339" s="13">
-        <v>0.83720000000000006</v>
-      </c>
-      <c r="I339" s="13">
-        <v>0.52710000000000001</v>
-      </c>
-      <c r="J339" s="13">
-        <v>0.64419999999999999</v>
-      </c>
-      <c r="K339" s="13"/>
-      <c r="L339" s="13"/>
-      <c r="M339" s="13"/>
-      <c r="N339" s="13">
-        <v>0.95269999999999999</v>
-      </c>
-      <c r="O339" s="13">
-        <v>0.71719999999999995</v>
-      </c>
-      <c r="P339" s="13">
-        <v>0.81679999999999997</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A340" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H340" s="6">
-        <v>0.4647</v>
-      </c>
-      <c r="I340" s="6">
-        <v>0.42220000000000002</v>
-      </c>
-      <c r="J340" s="6">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="N340" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="O340" s="6">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="P340" s="6">
-        <v>0.45600000000000002</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A341" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B341" s="13"/>
-      <c r="C341" s="13"/>
-      <c r="D341" s="13"/>
-      <c r="E341" s="13"/>
-      <c r="F341" s="13"/>
-      <c r="G341" s="13"/>
-      <c r="H341" s="13">
-        <v>0.82820000000000005</v>
-      </c>
-      <c r="I341" s="13">
-        <v>0.39660000000000001</v>
-      </c>
-      <c r="J341" s="13">
-        <v>0.53210000000000002</v>
-      </c>
-      <c r="K341" s="13"/>
-      <c r="L341" s="13"/>
-      <c r="M341" s="13"/>
-      <c r="N341" s="13">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="O341" s="13">
-        <v>0.45129999999999998</v>
-      </c>
-      <c r="P341" s="13">
-        <v>0.60940000000000005</v>
-      </c>
-    </row>
-    <row r="342" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A342" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B342" s="13"/>
-      <c r="C342" s="13"/>
-      <c r="D342" s="13"/>
-      <c r="E342" s="13"/>
-      <c r="F342" s="13"/>
-      <c r="G342" s="13"/>
-      <c r="H342" s="13">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="I342" s="13">
-        <v>0.4289</v>
-      </c>
-      <c r="J342" s="13">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="K342" s="13"/>
-      <c r="L342" s="13"/>
-      <c r="M342" s="13"/>
-      <c r="N342" s="13">
-        <v>0.49959999999999999</v>
-      </c>
-      <c r="O342" s="13">
+      <c r="P347">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A348" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H348">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="I348">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J348">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N348" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O348" s="13">
+        <v>1</v>
+      </c>
+      <c r="P348" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H349">
+        <v>0.495</v>
+      </c>
+      <c r="I349">
         <v>0.498</v>
       </c>
-      <c r="P342" s="13">
-        <v>0.35099999999999998</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A343" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B343" s="13"/>
-      <c r="C343" s="13"/>
-      <c r="D343" s="13"/>
-      <c r="E343" s="13"/>
-      <c r="F343" s="13"/>
-      <c r="G343" s="13"/>
-      <c r="H343" s="13">
-        <v>0.86309999999999998</v>
-      </c>
-      <c r="I343" s="13">
-        <v>0.84689999999999999</v>
-      </c>
-      <c r="J343" s="13">
-        <v>0.85409999999999997</v>
-      </c>
-      <c r="K343" s="13"/>
-      <c r="L343" s="13"/>
-      <c r="M343" s="13"/>
-      <c r="N343" s="13">
-        <v>0.9466</v>
-      </c>
-      <c r="O343" s="13">
-        <v>0.44030000000000002</v>
-      </c>
-      <c r="P343" s="13">
-        <v>0.59689999999999999</v>
-      </c>
-    </row>
-    <row r="344" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A344" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B344" s="13"/>
-      <c r="C344" s="13"/>
-      <c r="D344" s="13"/>
-      <c r="E344" s="13"/>
-      <c r="F344" s="13"/>
-      <c r="G344" s="13"/>
-      <c r="H344" s="13">
-        <v>0.47710000000000002</v>
-      </c>
-      <c r="I344" s="13">
-        <v>0.47439999999999999</v>
-      </c>
-      <c r="J344" s="13">
-        <v>0.47549999999999998</v>
-      </c>
-      <c r="K344" s="13"/>
-      <c r="L344" s="13"/>
-      <c r="M344" s="13"/>
-      <c r="N344" s="13">
-        <v>0.49530000000000002</v>
-      </c>
-      <c r="O344" s="13">
-        <v>0.4753</v>
-      </c>
-      <c r="P344" s="13">
-        <v>0.34200000000000003</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B345" s="13"/>
-      <c r="C345" s="13"/>
-      <c r="D345" s="13"/>
-      <c r="E345" s="13"/>
-      <c r="F345" s="13"/>
-      <c r="G345" s="13"/>
-      <c r="H345" s="13">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="I345" s="13">
-        <v>0.58579999999999999</v>
-      </c>
-      <c r="J345" s="13">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="K345" s="13"/>
-      <c r="L345" s="13"/>
-      <c r="M345" s="13"/>
-      <c r="N345" s="13">
-        <v>0.9506</v>
-      </c>
-      <c r="O345" s="13">
-        <v>1</v>
-      </c>
-      <c r="P345" s="13">
+      <c r="J349">
+        <v>0.15</v>
+      </c>
+      <c r="N349" s="13">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O349" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="P349" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H350">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I350">
+        <v>0.9899</v>
+      </c>
+      <c r="J350">
+        <v>0.92530000000000001</v>
+      </c>
+      <c r="N350">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O350">
+        <v>1</v>
+      </c>
+      <c r="P350">
         <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="346" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B346" s="13"/>
-      <c r="C346" s="13"/>
-      <c r="D346" s="13"/>
-      <c r="E346" s="13"/>
-      <c r="F346" s="13"/>
-      <c r="G346" s="13"/>
-      <c r="H346" s="13">
-        <v>0.53610000000000002</v>
-      </c>
-      <c r="I346" s="13">
-        <v>0.57920000000000005</v>
-      </c>
-      <c r="J346" s="13">
-        <v>0.4859</v>
-      </c>
-      <c r="K346" s="13"/>
-      <c r="L346" s="13"/>
-      <c r="M346" s="13"/>
-      <c r="N346" s="13">
-        <v>0.502</v>
-      </c>
-      <c r="O346" s="13">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="P346" s="13">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A347" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B347" s="13"/>
-      <c r="C347" s="13"/>
-      <c r="D347" s="13"/>
-      <c r="E347" s="13"/>
-      <c r="F347" s="13"/>
-      <c r="G347" s="13"/>
-      <c r="H347">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="I347">
-        <v>0.60640000000000005</v>
-      </c>
-      <c r="J347">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="K347" s="13"/>
-      <c r="L347" s="13"/>
-      <c r="M347" s="13"/>
-      <c r="N347" s="13">
-        <v>0.89939999999999998</v>
-      </c>
-      <c r="O347" s="13">
-        <v>0.85340000000000005</v>
-      </c>
-      <c r="P347" s="13">
-        <v>0.95269999999999999</v>
-      </c>
-    </row>
-    <row r="348" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A348" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H348" s="6">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="I348" s="6">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="J348" s="6">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="N348" s="6">
-        <v>0.50600000000000001</v>
-      </c>
-      <c r="O348" s="6">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="P348" s="6">
-        <v>0.49399999999999999</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A349" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B349" s="13"/>
-      <c r="C349" s="13"/>
-      <c r="D349" s="13"/>
-      <c r="E349" s="13"/>
-      <c r="F349" s="13"/>
-      <c r="G349" s="13"/>
-      <c r="H349" s="13">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="I349" s="13">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="J349" s="13">
-        <v>0.1605</v>
-      </c>
-      <c r="K349" s="13"/>
-      <c r="L349" s="13"/>
-      <c r="M349" s="13"/>
-      <c r="N349" s="13">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="O349" s="13">
-        <v>4.5100000000000001E-2</v>
-      </c>
-      <c r="P349" s="13">
-        <v>8.5099999999999995E-2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A350" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B350" s="13"/>
-      <c r="C350" s="13"/>
-      <c r="D350" s="13"/>
-      <c r="E350" s="13"/>
-      <c r="F350" s="13"/>
-      <c r="G350" s="13"/>
-      <c r="H350" s="13">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="I350" s="13">
-        <v>0.51</v>
-      </c>
-      <c r="J350" s="13">
-        <v>0.19650000000000001</v>
-      </c>
-      <c r="K350" s="13"/>
-      <c r="L350" s="13"/>
-      <c r="M350" s="13"/>
-      <c r="N350" s="13">
-        <v>0.505</v>
-      </c>
-      <c r="O350" s="13">
-        <v>0.505</v>
-      </c>
-      <c r="P350" s="13">
-        <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B351" s="13"/>
-      <c r="C351" s="13"/>
-      <c r="D351" s="13"/>
-      <c r="E351" s="13"/>
-      <c r="F351" s="13"/>
-      <c r="G351" s="13"/>
-      <c r="H351" s="13">
-        <v>0.88349999999999995</v>
-      </c>
-      <c r="I351" s="13">
-        <v>0.65839999999999999</v>
-      </c>
-      <c r="J351" s="13">
-        <v>0.75290000000000001</v>
-      </c>
-      <c r="K351" s="13"/>
-      <c r="L351" s="13"/>
-      <c r="M351" s="13"/>
-      <c r="N351" s="13">
-        <v>0.94969999999999999</v>
-      </c>
-      <c r="O351" s="13">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="P351" s="13">
-        <v>0.77100000000000002</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H351">
+        <v>0.48080000000000001</v>
+      </c>
+      <c r="I351">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="J351">
+        <v>0.46960000000000002</v>
+      </c>
+      <c r="N351">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O351">
+        <v>0.5</v>
+      </c>
+      <c r="P351">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B352" s="13"/>
-      <c r="C352" s="13"/>
-      <c r="D352" s="13"/>
-      <c r="E352" s="13"/>
-      <c r="F352" s="13"/>
-      <c r="G352" s="13"/>
-      <c r="H352" s="13">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="I352" s="13">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="J352" s="13">
-        <v>0.436</v>
-      </c>
-      <c r="K352" s="13"/>
-      <c r="L352" s="13"/>
-      <c r="M352" s="13"/>
+        <v>78</v>
+      </c>
+      <c r="H352">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="I352">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="J352">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="N352" s="13">
-        <v>0.54</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O352" s="13">
-        <v>0.58699999999999997</v>
+        <v>1</v>
       </c>
       <c r="P352" s="13">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A353" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B353" s="13"/>
-      <c r="C353" s="13"/>
-      <c r="D353" s="13"/>
-      <c r="E353" s="13"/>
-      <c r="F353" s="13"/>
-      <c r="G353" s="13"/>
-      <c r="H353" s="13">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I353" s="13">
-        <v>1</v>
-      </c>
-      <c r="J353" s="13">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="K353" s="13"/>
-      <c r="L353" s="13"/>
-      <c r="M353" s="13"/>
-      <c r="N353" s="13">
-        <v>0.95230000000000004</v>
-      </c>
-      <c r="O353" s="13">
-        <v>0.22239999999999999</v>
-      </c>
-      <c r="P353" s="13">
-        <v>0.35699999999999998</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H353" s="27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I353" s="27">
+        <v>0.497</v>
+      </c>
+      <c r="J353" s="27">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N353" s="27">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O353" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P353" s="27">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B354" s="13"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="13"/>
-      <c r="F354" s="13"/>
-      <c r="G354" s="13"/>
-      <c r="H354" s="13">
-        <v>0.49830000000000002</v>
-      </c>
-      <c r="I354" s="13">
-        <v>0.49959999999999999</v>
-      </c>
-      <c r="J354" s="13">
-        <v>0.1363</v>
-      </c>
-      <c r="K354" s="13"/>
-      <c r="L354" s="13"/>
-      <c r="M354" s="13"/>
-      <c r="N354" s="13">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="O354" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="P354" s="13">
-        <v>0.44350000000000001</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H354">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="I354">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J354">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="N354">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="O354">
+        <v>3.6400000000000002E-2</v>
+      </c>
+      <c r="P354">
+        <v>6.88E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B355" s="13"/>
-      <c r="C355" s="13"/>
-      <c r="D355" s="13"/>
-      <c r="E355" s="13"/>
-      <c r="F355" s="13"/>
-      <c r="G355" s="13"/>
-      <c r="H355" s="13">
-        <v>0.89810000000000001</v>
-      </c>
-      <c r="I355" s="13">
-        <v>0.55879999999999996</v>
-      </c>
-      <c r="J355" s="13">
-        <v>0.68659999999999999</v>
-      </c>
-      <c r="K355" s="13"/>
-      <c r="L355" s="13"/>
-      <c r="M355" s="13"/>
-      <c r="N355" s="13">
-        <v>0.94979999999999998</v>
-      </c>
-      <c r="O355" s="13">
-        <v>0.73180000000000001</v>
-      </c>
-      <c r="P355" s="13">
-        <v>0.82550000000000001</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A356" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H356" s="6">
-        <v>0.47820000000000001</v>
-      </c>
-      <c r="I356" s="6">
-        <v>0.4612</v>
-      </c>
-      <c r="J356" s="6">
-        <v>0.45629999999999998</v>
-      </c>
-      <c r="N356" s="6">
-        <v>0.5111</v>
-      </c>
-      <c r="O356" s="6">
-        <v>0.5242</v>
-      </c>
-      <c r="P356" s="6">
-        <v>0.45760000000000001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A357" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B357" s="13"/>
-      <c r="C357" s="13"/>
-      <c r="D357" s="13"/>
-      <c r="E357" s="13"/>
-      <c r="F357" s="13"/>
-      <c r="G357" s="13"/>
-      <c r="H357" s="13">
-        <v>0.872</v>
-      </c>
-      <c r="I357" s="13">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="J357" s="13">
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="K357" s="13"/>
-      <c r="L357" s="13"/>
-      <c r="M357" s="13"/>
-      <c r="N357" s="13">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="O357" s="13">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="P357" s="13">
-        <v>0.69</v>
+        <v>81</v>
+      </c>
+      <c r="H355">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I355">
+        <v>0.496</v>
+      </c>
+      <c r="J355">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N355">
+        <v>0.495</v>
+      </c>
+      <c r="O355">
+        <v>0.496</v>
+      </c>
+      <c r="P355">
+        <v>8.2100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A356" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H356">
+        <v>0.66</v>
+      </c>
+      <c r="I356">
+        <v>2.64E-2</v>
+      </c>
+      <c r="J356">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="N356" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O356" s="13">
+        <v>1</v>
+      </c>
+      <c r="P356" s="13">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A357" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H357" s="27">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="I357" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="J357" s="27">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="N357" s="27">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O357" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="P357" s="27">
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B358" s="13"/>
-      <c r="C358" s="13"/>
-      <c r="D358" s="13"/>
-      <c r="E358" s="13"/>
-      <c r="F358" s="13"/>
-      <c r="G358" s="13"/>
-      <c r="H358" s="13">
-        <v>0.502</v>
-      </c>
-      <c r="I358" s="13">
-        <v>0.504</v>
-      </c>
-      <c r="J358" s="13">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="K358" s="13"/>
-      <c r="L358" s="13"/>
-      <c r="M358" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="H358">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I358">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="J358">
+        <v>9.98E-2</v>
+      </c>
       <c r="N358" s="13">
-        <v>0.504</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="O358" s="13">
-        <v>0.52100000000000002</v>
+        <v>1</v>
       </c>
       <c r="P358" s="13">
-        <v>0.39500000000000002</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B359" s="13"/>
-      <c r="C359" s="13"/>
-      <c r="D359" s="13"/>
-      <c r="E359" s="13"/>
-      <c r="F359" s="13"/>
-      <c r="G359" s="13"/>
-      <c r="H359" s="13">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="I359" s="13">
-        <v>0.40229999999999999</v>
-      </c>
-      <c r="J359" s="13">
-        <v>0.53839999999999999</v>
-      </c>
-      <c r="K359" s="13"/>
-      <c r="L359" s="13"/>
-      <c r="M359" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="H359">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="I359">
+        <v>0.503</v>
+      </c>
+      <c r="J359">
+        <v>0.16500000000000001</v>
+      </c>
       <c r="N359" s="13">
-        <v>0.95089999999999997</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="O359" s="13">
-        <v>0.75580000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="P359" s="13">
-        <v>0.84119999999999995</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H360" s="6">
-        <v>0.46529999999999999</v>
-      </c>
-      <c r="I360" s="6">
-        <v>0.4249</v>
-      </c>
-      <c r="J360" s="6">
-        <v>0.35139999999999999</v>
-      </c>
-      <c r="N360" s="6">
-        <v>0.50070000000000003</v>
-      </c>
-      <c r="O360" s="6">
-        <v>0.503</v>
-      </c>
-      <c r="P360" s="6">
-        <v>0.4632</v>
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A360" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H360">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="I360">
+        <v>0.05</v>
+      </c>
+      <c r="J360">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N360">
+        <v>0.75</v>
+      </c>
+      <c r="O360">
+        <v>0.02</v>
+      </c>
+      <c r="P360">
+        <v>0.05</v>
       </c>
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B361" s="13"/>
-      <c r="C361" s="13"/>
-      <c r="D361" s="13"/>
-      <c r="E361" s="13"/>
-      <c r="F361" s="13"/>
-      <c r="G361" s="13"/>
-      <c r="H361" s="13">
-        <v>0.88500000000000001</v>
+        <v>96</v>
+      </c>
+      <c r="H361">
+        <v>0.504</v>
       </c>
       <c r="I361" s="13">
-        <v>0.83899999999999997</v>
-      </c>
-      <c r="J361" s="13">
-        <v>0.86099999999999999</v>
-      </c>
-      <c r="K361" s="13"/>
-      <c r="L361" s="13"/>
-      <c r="M361" s="13"/>
-      <c r="N361" s="13">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="O361" s="13">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="P361" s="13">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="362" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+        <v>0.502</v>
+      </c>
+      <c r="J361">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="N361">
+        <v>0.502</v>
+      </c>
+      <c r="O361">
+        <v>0.501</v>
+      </c>
+      <c r="P361">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B362" s="13"/>
-      <c r="C362" s="13"/>
-      <c r="D362" s="13"/>
-      <c r="E362" s="13"/>
-      <c r="F362" s="13"/>
-      <c r="G362" s="13"/>
-      <c r="H362" s="13">
-        <v>0.53900000000000003</v>
+        <v>97</v>
+      </c>
+      <c r="H362">
+        <v>0.86</v>
       </c>
       <c r="I362" s="13">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="J362" s="13">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="K362" s="13"/>
-      <c r="L362" s="13"/>
-      <c r="M362" s="13"/>
-      <c r="N362" s="13">
-        <v>0.502</v>
-      </c>
-      <c r="O362" s="13">
-        <v>0.51300000000000001</v>
-      </c>
-      <c r="P362" s="13">
-        <v>0.379</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J362">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="N362">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O362">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="P362">
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B363" s="13"/>
-      <c r="C363" s="13"/>
-      <c r="D363" s="13"/>
-      <c r="E363" s="13"/>
-      <c r="F363" s="13"/>
-      <c r="G363" s="13"/>
-      <c r="H363" s="13">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="I363" s="13">
-        <v>0.2802</v>
-      </c>
-      <c r="J363" s="13">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="K363" s="13"/>
-      <c r="L363" s="13"/>
-      <c r="M363" s="13"/>
-      <c r="N363" s="13">
-        <v>0.61709999999999998</v>
-      </c>
-      <c r="O363" s="13">
-        <v>2.3599999999999999E-2</v>
-      </c>
-      <c r="P363" s="13">
-        <v>4.5100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A364" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B364" s="13"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="13"/>
-      <c r="E364" s="13"/>
-      <c r="F364" s="13"/>
-      <c r="G364" s="13"/>
-      <c r="H364" s="13">
-        <v>0.48520000000000002</v>
-      </c>
-      <c r="I364" s="13">
-        <v>0.47310000000000002</v>
-      </c>
-      <c r="J364" s="13">
-        <v>0.313</v>
-      </c>
-      <c r="K364" s="13"/>
-      <c r="L364" s="13"/>
-      <c r="M364" s="13"/>
-      <c r="N364" s="13">
-        <v>0.496</v>
-      </c>
-      <c r="O364" s="13">
-        <v>0.498</v>
-      </c>
-      <c r="P364" s="13">
-        <v>6.9699999999999998E-2</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H363">
+        <v>0.501</v>
+      </c>
+      <c r="I363">
+        <v>0.501</v>
+      </c>
+      <c r="J363">
+        <v>0.157</v>
+      </c>
+      <c r="N363">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="O363">
+        <v>0.504</v>
+      </c>
+      <c r="P363">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A364" s="7"/>
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A365" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B365" s="13"/>
-      <c r="C365" s="13"/>
-      <c r="D365" s="13"/>
-      <c r="E365" s="13"/>
-      <c r="F365" s="13"/>
-      <c r="G365" s="13"/>
-      <c r="H365" s="13">
-        <v>0.86970000000000003</v>
-      </c>
-      <c r="I365" s="13">
-        <v>0.996</v>
-      </c>
-      <c r="J365" s="13">
-        <v>0.92810000000000004</v>
-      </c>
-      <c r="K365" s="13"/>
-      <c r="L365" s="13"/>
-      <c r="M365" s="13"/>
-      <c r="N365" s="13">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="O365" s="13">
-        <v>0.47210000000000002</v>
-      </c>
-      <c r="P365" s="13">
-        <v>0.62719999999999998</v>
-      </c>
-    </row>
-    <row r="366" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H366" s="6">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="I366" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="J366" s="6">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="N366" s="6">
-        <v>0.49569999999999997</v>
-      </c>
-      <c r="O366" s="6">
-        <v>0.47689999999999999</v>
-      </c>
-      <c r="P366" s="6">
-        <v>0.35599999999999998</v>
+      <c r="A365" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A366" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H366">
+        <v>0.98</v>
+      </c>
+      <c r="I366">
+        <v>0.86</v>
+      </c>
+      <c r="J366">
+        <v>0.91</v>
+      </c>
+      <c r="N366">
+        <v>1</v>
+      </c>
+      <c r="O366">
+        <v>0.95</v>
+      </c>
+      <c r="P366">
+        <v>0.97</v>
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B367" s="13"/>
-      <c r="C367" s="13"/>
-      <c r="D367" s="13"/>
-      <c r="E367" s="13"/>
-      <c r="F367" s="13"/>
-      <c r="G367" s="13"/>
-      <c r="H367" s="13">
-        <v>0.86929999999999996</v>
-      </c>
-      <c r="I367" s="13">
-        <v>0.96909999999999996</v>
-      </c>
-      <c r="J367" s="13">
-        <v>0.91590000000000005</v>
-      </c>
-      <c r="K367" s="13"/>
-      <c r="L367" s="13"/>
-      <c r="M367" s="13"/>
-      <c r="N367" s="13">
-        <v>0.86019999999999996</v>
-      </c>
-      <c r="O367" s="13">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="P367" s="13">
-        <v>7.6899999999999996E-2</v>
+        <v>57</v>
+      </c>
+      <c r="H367">
+        <v>0.51063999999999998</v>
+      </c>
+      <c r="I367">
+        <v>0.50104400000000004</v>
+      </c>
+      <c r="J367">
+        <v>0.47427999999999998</v>
+      </c>
+      <c r="N367">
+        <v>0.47289999999999999</v>
+      </c>
+      <c r="O367">
+        <v>0.5</v>
+      </c>
+      <c r="P367">
+        <v>0.48610100000000001</v>
       </c>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B368" s="13"/>
-      <c r="C368" s="13"/>
-      <c r="D368" s="13"/>
-      <c r="E368" s="13"/>
-      <c r="F368" s="13"/>
-      <c r="G368" s="13"/>
-      <c r="H368" s="13">
-        <v>0.4924</v>
-      </c>
-      <c r="I368" s="13">
-        <v>0.498</v>
-      </c>
-      <c r="J368" s="13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="K368" s="13"/>
-      <c r="L368" s="13"/>
-      <c r="M368" s="13"/>
-      <c r="N368" s="13">
-        <v>0.49790000000000001</v>
-      </c>
-      <c r="O368" s="13">
-        <v>0.49819999999999998</v>
-      </c>
-      <c r="P368" s="13">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="H368">
+        <v>0.82</v>
+      </c>
+      <c r="I368">
+        <v>0.8</v>
+      </c>
+      <c r="J368">
+        <v>0.81</v>
+      </c>
+      <c r="N368">
+        <v>0.91</v>
+      </c>
+      <c r="O368">
+        <v>0.91</v>
+      </c>
+      <c r="P368">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B369" s="13"/>
-      <c r="C369" s="13"/>
-      <c r="D369" s="13"/>
-      <c r="E369" s="13"/>
-      <c r="F369" s="13"/>
-      <c r="G369" s="13"/>
-      <c r="H369" s="13">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="I369" s="13">
-        <v>0.50129999999999997</v>
-      </c>
-      <c r="J369" s="13">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="K369" s="13"/>
-      <c r="L369" s="13"/>
-      <c r="M369" s="13"/>
-      <c r="N369" s="13">
-        <v>0.9526</v>
-      </c>
-      <c r="O369" s="13">
-        <v>9.7900000000000001E-2</v>
-      </c>
-      <c r="P369" s="13">
-        <v>0.17449999999999999</v>
+        <v>101</v>
+      </c>
+      <c r="H369">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="I369">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J369">
+        <v>0.52428900000000001</v>
+      </c>
+      <c r="N369">
+        <v>0.51158499999999996</v>
+      </c>
+      <c r="O369">
+        <v>0.50997000000000003</v>
+      </c>
+      <c r="P369">
+        <v>0.51049999999999995</v>
       </c>
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B370" s="13"/>
-      <c r="C370" s="13"/>
-      <c r="D370" s="13"/>
-      <c r="E370" s="13"/>
-      <c r="F370" s="13"/>
-      <c r="G370" s="13"/>
-      <c r="H370" s="13">
-        <v>0.5272</v>
-      </c>
-      <c r="I370" s="13">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="J370" s="13">
-        <v>0.4456</v>
-      </c>
-      <c r="K370" s="13"/>
-      <c r="L370" s="13"/>
-      <c r="M370" s="13"/>
-      <c r="N370" s="13">
-        <v>0.49969999999999998</v>
-      </c>
-      <c r="O370" s="13">
-        <v>0.49940000000000001</v>
-      </c>
-      <c r="P370" s="13">
-        <v>0.13469999999999999</v>
-      </c>
-    </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A371" s="7"/>
-      <c r="B371" s="13"/>
-      <c r="C371" s="13"/>
-      <c r="D371" s="13"/>
-      <c r="E371" s="13"/>
-      <c r="F371" s="13"/>
-      <c r="G371" s="13"/>
-      <c r="H371" s="13"/>
-      <c r="I371" s="13"/>
-      <c r="J371" s="13"/>
-      <c r="K371" s="13"/>
-      <c r="L371" s="13"/>
-      <c r="M371" s="13"/>
-      <c r="N371" s="13"/>
-      <c r="O371" s="13"/>
-      <c r="P371" s="13"/>
+        <v>102</v>
+      </c>
+      <c r="H370">
+        <v>0.75</v>
+      </c>
+      <c r="I370">
+        <v>0.76</v>
+      </c>
+      <c r="J370">
+        <v>0.76</v>
+      </c>
+      <c r="N370">
+        <v>0.9</v>
+      </c>
+      <c r="O370">
+        <v>0.9</v>
+      </c>
+      <c r="P370">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A371" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H371">
+        <v>0.51670000000000005</v>
+      </c>
+      <c r="I371">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="J371">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="N371">
+        <v>0.49696000000000001</v>
+      </c>
+      <c r="O371">
+        <v>0.49697999999999998</v>
+      </c>
+      <c r="P371">
+        <v>0.49697000000000002</v>
+      </c>
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A372" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="B372" s="13"/>
-      <c r="C372" s="13"/>
-      <c r="D372" s="13"/>
-      <c r="E372" s="13"/>
-      <c r="F372" s="13"/>
-      <c r="G372" s="13"/>
-      <c r="H372" s="13"/>
-      <c r="I372" s="13"/>
-      <c r="J372" s="13"/>
-      <c r="K372" s="13"/>
-      <c r="L372" s="13"/>
-      <c r="M372" s="13"/>
-      <c r="N372" s="13"/>
-      <c r="O372" s="13"/>
-      <c r="P372" s="13"/>
+      <c r="A372" s="7"/>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A373" s="15" t="s">
+      <c r="A373" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A374" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B374">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C374">
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="D374">
+        <v>0.86160000000000003</v>
+      </c>
+      <c r="E374">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F374">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="G374">
+        <v>0.79279999999999995</v>
+      </c>
+      <c r="H374">
+        <v>0.86319999999999997</v>
+      </c>
+      <c r="I374">
+        <v>0.66349999999999998</v>
+      </c>
+      <c r="J374">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="K374">
+        <v>0.84730000000000005</v>
+      </c>
+      <c r="L374">
+        <v>0.74829999999999997</v>
+      </c>
+      <c r="M374">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="N374">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="O374">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P374">
+        <v>0.81440000000000001</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A375" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B375">
+        <v>0.501</v>
+      </c>
+      <c r="C375">
+        <v>0.504</v>
+      </c>
+      <c r="D375">
+        <v>0.48</v>
+      </c>
+      <c r="E375">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="F375">
+        <v>0.52039999999999997</v>
+      </c>
+      <c r="G375">
+        <v>0.51449999999999996</v>
+      </c>
+      <c r="H375">
+        <v>0.49009999999999998</v>
+      </c>
+      <c r="I375">
+        <v>0.4803</v>
+      </c>
+      <c r="J375">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="K375">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="L375">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="M375">
+        <v>0.502</v>
+      </c>
+      <c r="N375">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="O375">
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="P375">
+        <v>0.45669999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A376" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="B373" s="13"/>
-      <c r="C373" s="13"/>
-      <c r="D373" s="13"/>
-      <c r="E373" s="13"/>
-      <c r="F373" s="13"/>
-      <c r="G373" s="13"/>
-      <c r="H373" s="16">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="I373" s="16">
-        <v>0.67249999999999999</v>
-      </c>
-      <c r="J373" s="16">
-        <v>0.75719999999999998</v>
-      </c>
-      <c r="K373" s="17"/>
-      <c r="L373" s="17"/>
-      <c r="M373" s="17"/>
-      <c r="N373" s="17">
-        <v>0.94540000000000002</v>
-      </c>
-      <c r="O373" s="17">
-        <v>0.53280000000000005</v>
-      </c>
-      <c r="P373" s="16">
-        <v>0.67889999999999995</v>
-      </c>
-    </row>
-    <row r="374" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B374" s="13"/>
-      <c r="C374" s="13"/>
-      <c r="D374" s="13"/>
-      <c r="E374" s="13"/>
-      <c r="F374" s="13"/>
-      <c r="G374" s="13"/>
-      <c r="H374" s="17">
-        <v>0.50287221200679399</v>
-      </c>
-      <c r="I374" s="17">
-        <v>0.50564061657417803</v>
-      </c>
-      <c r="J374" s="16">
-        <v>0.47544921610894098</v>
-      </c>
-      <c r="K374" s="17"/>
-      <c r="L374" s="17"/>
-      <c r="M374" s="17"/>
-      <c r="N374" s="17">
-        <v>0.49464383858752797</v>
-      </c>
-      <c r="O374" s="17">
-        <v>0.47154585701070401</v>
-      </c>
-      <c r="P374" s="17">
-        <v>0.37998319515368301</v>
-      </c>
-    </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A375" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B375" s="13"/>
-      <c r="C375" s="13"/>
-      <c r="D375" s="13"/>
-      <c r="E375" s="13"/>
-      <c r="F375" s="13"/>
-      <c r="G375" s="13"/>
-      <c r="H375" s="17">
-        <v>0</v>
-      </c>
-      <c r="I375" s="17">
-        <v>0</v>
-      </c>
-      <c r="J375" s="17">
-        <v>0</v>
-      </c>
-      <c r="K375" s="17"/>
-      <c r="L375" s="17"/>
-      <c r="M375" s="17"/>
-      <c r="N375" s="17">
-        <v>0.94989999999999997</v>
-      </c>
-      <c r="O375" s="17">
-        <v>0.50790000000000002</v>
-      </c>
-      <c r="P375" s="17">
-        <v>0.65910000000000002</v>
-      </c>
-    </row>
-    <row r="376" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A376" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="B376" s="13"/>
       <c r="C376" s="13"/>
@@ -11442,63 +11746,54 @@
       <c r="E376" s="13"/>
       <c r="F376" s="13"/>
       <c r="G376" s="13"/>
-      <c r="H376" s="17">
-        <v>6.4423900000000006E-2</v>
-      </c>
-      <c r="I376" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J376" s="17">
-        <v>0.11414000000000001</v>
-      </c>
-      <c r="K376" s="17"/>
-      <c r="L376" s="17"/>
-      <c r="M376" s="17"/>
-      <c r="N376" s="17">
-        <v>0.500866625553538</v>
-      </c>
-      <c r="O376" s="17">
-        <v>0.50462534690101801</v>
-      </c>
-      <c r="P376" s="17">
-        <v>0.377291924028408</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A377" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B377" s="13"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
-      <c r="F377" s="13"/>
-      <c r="G377" s="13"/>
-      <c r="H377" s="17">
-        <v>0.86080000000000001</v>
-      </c>
-      <c r="I377" s="17">
-        <v>0.66459999999999997</v>
-      </c>
-      <c r="J377" s="17">
-        <v>0.74850000000000005</v>
-      </c>
-      <c r="K377" s="17"/>
-      <c r="L377" s="17"/>
-      <c r="M377" s="17"/>
-      <c r="N377" s="17">
-        <v>0.95</v>
-      </c>
-      <c r="O377" s="17">
-        <v>0.70409999999999995</v>
-      </c>
-      <c r="P377" s="17">
-        <v>0.80710000000000004</v>
-      </c>
-    </row>
-    <row r="378" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A378" s="15" t="s">
-        <v>61</v>
+      <c r="H376" s="13">
+        <v>0.86719999999999997</v>
+      </c>
+      <c r="I376" s="13">
+        <v>0.57509999999999994</v>
+      </c>
+      <c r="J376" s="13">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="K376" s="13"/>
+      <c r="L376" s="13"/>
+      <c r="M376" s="13"/>
+      <c r="N376" s="13">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="O376" s="13">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="P376" s="13">
+        <v>0.81679999999999997</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H377" s="6">
+        <v>0.496</v>
+      </c>
+      <c r="I377" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J377" s="6">
+        <v>0.441</v>
+      </c>
+      <c r="N377" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="O377" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P377" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A378" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B378" s="13"/>
       <c r="C378" s="13"/>
@@ -11506,63 +11801,54 @@
       <c r="E378" s="13"/>
       <c r="F378" s="13"/>
       <c r="G378" s="13"/>
-      <c r="H378" s="17">
-        <v>0.48767004716815798</v>
-      </c>
-      <c r="I378" s="17">
-        <v>0.475752584708313</v>
-      </c>
-      <c r="J378" s="17">
-        <v>0.45622628764702</v>
-      </c>
-      <c r="K378" s="17"/>
-      <c r="L378" s="17"/>
-      <c r="M378" s="17"/>
-      <c r="N378" s="17">
-        <v>0.498840734795791</v>
-      </c>
-      <c r="O378" s="17">
-        <v>0.49484604202457999</v>
-      </c>
-      <c r="P378" s="17">
-        <v>0.44517339348066498</v>
-      </c>
-    </row>
-    <row r="379" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A379" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B379" s="13"/>
-      <c r="C379" s="13"/>
-      <c r="D379" s="13"/>
-      <c r="E379" s="13"/>
-      <c r="F379" s="13"/>
-      <c r="G379" s="13"/>
-      <c r="H379" s="17">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="I379" s="17">
-        <v>0.88570000000000004</v>
-      </c>
-      <c r="J379" s="17">
-        <v>0.87670000000000003</v>
-      </c>
-      <c r="K379" s="17"/>
-      <c r="L379" s="17"/>
-      <c r="M379" s="17"/>
-      <c r="N379" s="17">
-        <v>0.95430000000000004</v>
-      </c>
-      <c r="O379" s="17">
-        <v>0.14330000000000001</v>
-      </c>
-      <c r="P379" s="17">
-        <v>0.2467</v>
-      </c>
-    </row>
-    <row r="380" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A380" s="15" t="s">
-        <v>67</v>
+      <c r="H378" s="13">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="I378" s="13">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="J378" s="13">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="K378" s="13"/>
+      <c r="L378" s="13"/>
+      <c r="M378" s="13"/>
+      <c r="N378" s="13">
+        <v>0.95269999999999999</v>
+      </c>
+      <c r="O378" s="13">
+        <v>0.71719999999999995</v>
+      </c>
+      <c r="P378" s="13">
+        <v>0.81679999999999997</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H379" s="6">
+        <v>0.4647</v>
+      </c>
+      <c r="I379" s="6">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="J379" s="6">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="N379" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="O379" s="6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P379" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A380" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="B380" s="13"/>
       <c r="C380" s="13"/>
@@ -11570,31 +11856,31 @@
       <c r="E380" s="13"/>
       <c r="F380" s="13"/>
       <c r="G380" s="13"/>
-      <c r="H380" s="17">
-        <v>0.49701179378598698</v>
-      </c>
-      <c r="I380" s="17">
-        <v>0.49731321272222601</v>
-      </c>
-      <c r="J380" s="17">
-        <v>0.49690995343169297</v>
-      </c>
-      <c r="K380" s="17"/>
-      <c r="L380" s="17"/>
-      <c r="M380" s="17"/>
-      <c r="N380" s="17">
-        <v>0.50532288698955397</v>
-      </c>
-      <c r="O380" s="17">
-        <v>0.51388843002510898</v>
-      </c>
-      <c r="P380" s="17">
-        <v>0.173112202338918</v>
+      <c r="H380" s="13">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="I380" s="13">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="J380" s="13">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="K380" s="13"/>
+      <c r="L380" s="13"/>
+      <c r="M380" s="13"/>
+      <c r="N380" s="13">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O380" s="13">
+        <v>0.45129999999999998</v>
+      </c>
+      <c r="P380" s="13">
+        <v>0.60940000000000005</v>
       </c>
     </row>
     <row r="381" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A381" s="15" t="s">
-        <v>68</v>
+      <c r="A381" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="B381" s="13"/>
       <c r="C381" s="13"/>
@@ -11602,31 +11888,31 @@
       <c r="E381" s="13"/>
       <c r="F381" s="13"/>
       <c r="G381" s="13"/>
-      <c r="H381" s="17">
-        <v>0.90069999999999995</v>
-      </c>
-      <c r="I381" s="17">
-        <v>0.67020000000000002</v>
-      </c>
-      <c r="J381" s="17">
-        <v>0.76680000000000004</v>
-      </c>
-      <c r="K381" s="17"/>
-      <c r="L381" s="17"/>
-      <c r="M381" s="17"/>
-      <c r="N381" s="17">
-        <v>0.94389999999999996</v>
-      </c>
-      <c r="O381" s="17">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="P381" s="17">
-        <v>0.60909999999999997</v>
+      <c r="H381" s="13">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="I381" s="13">
+        <v>0.4289</v>
+      </c>
+      <c r="J381" s="13">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="K381" s="13"/>
+      <c r="L381" s="13"/>
+      <c r="M381" s="13"/>
+      <c r="N381" s="13">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="O381" s="13">
+        <v>0.498</v>
+      </c>
+      <c r="P381" s="13">
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="382" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A382" s="15" t="s">
-        <v>69</v>
+      <c r="A382" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B382" s="13"/>
       <c r="C382" s="13"/>
@@ -11634,31 +11920,31 @@
       <c r="E382" s="13"/>
       <c r="F382" s="13"/>
       <c r="G382" s="13"/>
-      <c r="H382" s="17">
-        <v>0.543463227339259</v>
-      </c>
-      <c r="I382" s="17">
-        <v>0.58824877289885302</v>
-      </c>
-      <c r="J382" s="17">
-        <v>0.52036909849409896</v>
-      </c>
-      <c r="K382" s="17"/>
-      <c r="L382" s="17"/>
-      <c r="M382" s="17"/>
-      <c r="N382" s="17">
-        <v>0.49302009091419302</v>
-      </c>
-      <c r="O382" s="17">
-        <v>0.46301787366195302</v>
-      </c>
-      <c r="P382" s="17">
-        <v>0.34525500741839799</v>
-      </c>
-    </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A383" s="15" t="s">
-        <v>62</v>
+      <c r="H382" s="13">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="I382" s="13">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="J382" s="13">
+        <v>0.85409999999999997</v>
+      </c>
+      <c r="K382" s="13"/>
+      <c r="L382" s="13"/>
+      <c r="M382" s="13"/>
+      <c r="N382" s="13">
+        <v>0.9466</v>
+      </c>
+      <c r="O382" s="13">
+        <v>0.44030000000000002</v>
+      </c>
+      <c r="P382" s="13">
+        <v>0.59689999999999999</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A383" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B383" s="13"/>
       <c r="C383" s="13"/>
@@ -11666,31 +11952,31 @@
       <c r="E383" s="13"/>
       <c r="F383" s="13"/>
       <c r="G383" s="13"/>
-      <c r="H383" s="17">
-        <v>0.88090000000000002</v>
-      </c>
-      <c r="I383" s="17">
-        <v>0.62029999999999996</v>
-      </c>
-      <c r="J383" s="17">
-        <v>0.72599999999999998</v>
-      </c>
-      <c r="K383" s="17"/>
-      <c r="L383" s="17"/>
-      <c r="M383" s="17"/>
-      <c r="N383" s="17">
-        <v>0.9506</v>
-      </c>
-      <c r="O383" s="17">
-        <v>1</v>
-      </c>
-      <c r="P383" s="17">
-        <v>0.97450000000000003</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A384" s="15" t="s">
-        <v>63</v>
+      <c r="H383" s="13">
+        <v>0.47710000000000002</v>
+      </c>
+      <c r="I383" s="13">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="J383" s="13">
+        <v>0.47549999999999998</v>
+      </c>
+      <c r="K383" s="13"/>
+      <c r="L383" s="13"/>
+      <c r="M383" s="13"/>
+      <c r="N383" s="13">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="O383" s="13">
+        <v>0.4753</v>
+      </c>
+      <c r="P383" s="13">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A384" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B384" s="13"/>
       <c r="C384" s="13"/>
@@ -11698,31 +11984,31 @@
       <c r="E384" s="13"/>
       <c r="F384" s="13"/>
       <c r="G384" s="13"/>
-      <c r="H384" s="17">
-        <v>0.51527297587336696</v>
-      </c>
-      <c r="I384" s="17">
-        <v>0.53229227145941105</v>
-      </c>
-      <c r="J384" s="17">
-        <v>0.47528499831863902</v>
-      </c>
-      <c r="K384" s="17"/>
-      <c r="L384" s="17"/>
-      <c r="M384" s="17"/>
-      <c r="N384" s="17">
-        <v>0.47537379067722102</v>
-      </c>
-      <c r="O384" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="P384" s="17">
-        <v>0.48737601442741202</v>
-      </c>
-    </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A385" s="15" t="s">
-        <v>64</v>
+      <c r="H384" s="13">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="I384" s="13">
+        <v>0.58579999999999999</v>
+      </c>
+      <c r="J384" s="13">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="K384" s="13"/>
+      <c r="L384" s="13"/>
+      <c r="M384" s="13"/>
+      <c r="N384" s="13">
+        <v>0.9506</v>
+      </c>
+      <c r="O384" s="13">
+        <v>1</v>
+      </c>
+      <c r="P384" s="13">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A385" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B385" s="13"/>
       <c r="C385" s="13"/>
@@ -11730,31 +12016,31 @@
       <c r="E385" s="13"/>
       <c r="F385" s="13"/>
       <c r="G385" s="13"/>
-      <c r="H385" s="17">
-        <v>0.877</v>
-      </c>
-      <c r="I385" s="17">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="J385" s="17">
-        <v>0.1925</v>
-      </c>
-      <c r="K385" s="17"/>
-      <c r="L385" s="17"/>
-      <c r="M385" s="17"/>
-      <c r="N385" s="17">
-        <v>0.9506</v>
-      </c>
-      <c r="O385" s="17">
-        <v>0.99960000000000004</v>
-      </c>
-      <c r="P385" s="17">
-        <v>0.97430000000000005</v>
-      </c>
-    </row>
-    <row r="386" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A386" s="15" t="s">
-        <v>65</v>
+      <c r="H385" s="13">
+        <v>0.53610000000000002</v>
+      </c>
+      <c r="I385" s="13">
+        <v>0.57920000000000005</v>
+      </c>
+      <c r="J385" s="13">
+        <v>0.4859</v>
+      </c>
+      <c r="K385" s="13"/>
+      <c r="L385" s="13"/>
+      <c r="M385" s="13"/>
+      <c r="N385" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="O385" s="13">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="P385" s="13">
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A386" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="B386" s="13"/>
       <c r="C386" s="13"/>
@@ -11762,63 +12048,54 @@
       <c r="E386" s="13"/>
       <c r="F386" s="13"/>
       <c r="G386" s="13"/>
-      <c r="H386" s="17">
-        <v>0.21033280577034399</v>
-      </c>
-      <c r="I386" s="17">
-        <v>0.50186929413041603</v>
-      </c>
-      <c r="J386" s="17">
-        <v>0.21033280577034399</v>
-      </c>
-      <c r="K386" s="17"/>
-      <c r="L386" s="17"/>
-      <c r="M386" s="17"/>
-      <c r="N386" s="17">
-        <v>0.47536295644522703</v>
-      </c>
-      <c r="O386" s="17">
-        <v>0.49976873265494898</v>
-      </c>
-      <c r="P386" s="17">
-        <v>0.48726042841037198</v>
-      </c>
-    </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A387" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B387" s="13"/>
-      <c r="C387" s="13"/>
-      <c r="D387" s="13"/>
-      <c r="E387" s="13"/>
-      <c r="F387" s="13"/>
-      <c r="G387" s="13"/>
-      <c r="H387" s="17">
-        <v>0.8669</v>
-      </c>
-      <c r="I387" s="17">
-        <v>0.55930000000000002</v>
-      </c>
-      <c r="J387" s="17">
-        <v>0.67749999999999999</v>
-      </c>
-      <c r="K387" s="17"/>
-      <c r="L387" s="17"/>
-      <c r="M387" s="17"/>
-      <c r="N387" s="17">
-        <v>0.54169999999999996</v>
-      </c>
-      <c r="O387" s="17">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="P387" s="17">
-        <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A388" s="15" t="s">
-        <v>71</v>
+      <c r="H386">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="I386">
+        <v>0.60640000000000005</v>
+      </c>
+      <c r="J386">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="K386" s="13"/>
+      <c r="L386" s="13"/>
+      <c r="M386" s="13"/>
+      <c r="N386" s="13">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="O386" s="13">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="P386" s="13">
+        <v>0.95269999999999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H387" s="6">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="I387" s="6">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J387" s="6">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="N387" s="6">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="O387" s="6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="P387" s="6">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A388" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B388" s="13"/>
       <c r="C388" s="13"/>
@@ -11826,31 +12103,31 @@
       <c r="E388" s="13"/>
       <c r="F388" s="13"/>
       <c r="G388" s="13"/>
-      <c r="H388" s="17">
-        <v>0.462525724881309</v>
-      </c>
-      <c r="I388" s="17">
-        <v>0.42395504735257999</v>
-      </c>
-      <c r="J388" s="17">
-        <v>0.419379163201061</v>
-      </c>
-      <c r="K388" s="17"/>
-      <c r="L388" s="17"/>
-      <c r="M388" s="17"/>
-      <c r="N388" s="17">
-        <v>0.45016187365105298</v>
-      </c>
-      <c r="O388" s="17">
-        <v>0.48822430840424302</v>
-      </c>
-      <c r="P388" s="17">
-        <v>0.134872106008248</v>
-      </c>
-    </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A389" s="15" t="s">
-        <v>72</v>
+      <c r="H388" s="13">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I388" s="13">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="J388" s="13">
+        <v>0.1605</v>
+      </c>
+      <c r="K388" s="13"/>
+      <c r="L388" s="13"/>
+      <c r="M388" s="13"/>
+      <c r="N388" s="13">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="O388" s="13">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="P388" s="13">
+        <v>8.5099999999999995E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A389" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B389" s="13"/>
       <c r="C389" s="13"/>
@@ -11858,31 +12135,31 @@
       <c r="E389" s="13"/>
       <c r="F389" s="13"/>
       <c r="G389" s="13"/>
-      <c r="H389" s="17">
-        <v>0.91159999999999997</v>
-      </c>
-      <c r="I389" s="17">
-        <v>0.78259999999999996</v>
-      </c>
-      <c r="J389" s="17">
-        <v>0.84060000000000001</v>
-      </c>
-      <c r="K389" s="17"/>
-      <c r="L389" s="17"/>
-      <c r="M389" s="17"/>
-      <c r="N389" s="17">
-        <v>0.95530000000000004</v>
-      </c>
-      <c r="O389" s="17">
-        <v>0.2475</v>
-      </c>
-      <c r="P389" s="17">
-        <v>0.39040000000000002</v>
-      </c>
-    </row>
-    <row r="390" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A390" s="15" t="s">
-        <v>73</v>
+      <c r="H389" s="13">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="I389" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="J389" s="13">
+        <v>0.19650000000000001</v>
+      </c>
+      <c r="K389" s="13"/>
+      <c r="L389" s="13"/>
+      <c r="M389" s="13"/>
+      <c r="N389" s="13">
+        <v>0.505</v>
+      </c>
+      <c r="O389" s="13">
+        <v>0.505</v>
+      </c>
+      <c r="P389" s="13">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A390" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B390" s="13"/>
       <c r="C390" s="13"/>
@@ -11890,31 +12167,31 @@
       <c r="E390" s="13"/>
       <c r="F390" s="13"/>
       <c r="G390" s="13"/>
-      <c r="H390" s="17">
-        <v>0.14025624684774199</v>
-      </c>
-      <c r="I390" s="17">
-        <v>0.50459226129458501</v>
-      </c>
-      <c r="J390" s="17">
-        <v>0.14025624684774199</v>
-      </c>
-      <c r="K390" s="17"/>
-      <c r="L390" s="17"/>
-      <c r="M390" s="17"/>
-      <c r="N390" s="17">
-        <v>0.46839806700356501</v>
-      </c>
-      <c r="O390" s="17">
-        <v>0.48298942341321</v>
-      </c>
-      <c r="P390" s="17">
-        <v>0.46839806700356501</v>
-      </c>
-    </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A391" s="15" t="s">
-        <v>74</v>
+      <c r="H390" s="13">
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="I390" s="13">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="J390" s="13">
+        <v>0.75290000000000001</v>
+      </c>
+      <c r="K390" s="13"/>
+      <c r="L390" s="13"/>
+      <c r="M390" s="13"/>
+      <c r="N390" s="13">
+        <v>0.94969999999999999</v>
+      </c>
+      <c r="O390" s="13">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="P390" s="13">
+        <v>0.77100000000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A391" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B391" s="13"/>
       <c r="C391" s="13"/>
@@ -11922,57 +12199,63 @@
       <c r="E391" s="13"/>
       <c r="F391" s="13"/>
       <c r="G391" s="13"/>
-      <c r="H391" s="17">
-        <v>0.93140000000000001</v>
-      </c>
-      <c r="I391" s="17">
-        <v>0.62039999999999995</v>
-      </c>
-      <c r="J391" s="17">
-        <v>0.74280000000000002</v>
-      </c>
-      <c r="K391" s="17"/>
-      <c r="L391" s="17"/>
-      <c r="M391" s="17"/>
-      <c r="N391" s="17">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="O391" s="17">
-        <v>0.29120000000000001</v>
-      </c>
-      <c r="P391" s="17">
-        <v>0.44140000000000001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A392" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H392" s="17">
-        <v>0.54739701339660496</v>
-      </c>
-      <c r="I392" s="17">
-        <v>0.57557719840188304</v>
-      </c>
-      <c r="J392" s="17">
-        <v>0.54795318740679699</v>
-      </c>
-      <c r="K392" s="17"/>
-      <c r="L392" s="17"/>
-      <c r="M392" s="17"/>
-      <c r="N392" s="17">
-        <v>0.54863204913456198</v>
-      </c>
-      <c r="O392" s="17">
-        <v>0.60804347788633695</v>
-      </c>
-      <c r="P392" s="17">
-        <v>0.46593530734733102</v>
-      </c>
-    </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A393" s="15" t="s">
-        <v>76</v>
+      <c r="H391" s="13">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="I391" s="13">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="J391" s="13">
+        <v>0.436</v>
+      </c>
+      <c r="K391" s="13"/>
+      <c r="L391" s="13"/>
+      <c r="M391" s="13"/>
+      <c r="N391" s="13">
+        <v>0.54</v>
+      </c>
+      <c r="O391" s="13">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="P391" s="13">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A392" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B392" s="13"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="13"/>
+      <c r="E392" s="13"/>
+      <c r="F392" s="13"/>
+      <c r="G392" s="13"/>
+      <c r="H392" s="13">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I392" s="13">
+        <v>1</v>
+      </c>
+      <c r="J392" s="13">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="K392" s="13"/>
+      <c r="L392" s="13"/>
+      <c r="M392" s="13"/>
+      <c r="N392" s="13">
+        <v>0.95230000000000004</v>
+      </c>
+      <c r="O392" s="13">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="P392" s="13">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A393" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B393" s="13"/>
       <c r="C393" s="13"/>
@@ -11980,31 +12263,31 @@
       <c r="E393" s="13"/>
       <c r="F393" s="13"/>
       <c r="G393" s="13"/>
-      <c r="H393" s="17">
-        <v>0.86550000000000005</v>
-      </c>
-      <c r="I393" s="17">
-        <v>0.64300000000000002</v>
-      </c>
-      <c r="J393" s="17">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="K393" s="17"/>
-      <c r="L393" s="17"/>
-      <c r="M393" s="17"/>
-      <c r="N393" s="17">
-        <v>0.95679999999999998</v>
-      </c>
-      <c r="O393" s="17">
-        <v>0.6694</v>
-      </c>
-      <c r="P393" s="17">
-        <v>0.78620000000000001</v>
+      <c r="H393" s="13">
+        <v>0.49830000000000002</v>
+      </c>
+      <c r="I393" s="13">
+        <v>0.49959999999999999</v>
+      </c>
+      <c r="J393" s="13">
+        <v>0.1363</v>
+      </c>
+      <c r="K393" s="13"/>
+      <c r="L393" s="13"/>
+      <c r="M393" s="13"/>
+      <c r="N393" s="13">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="O393" s="13">
+        <v>0.44</v>
+      </c>
+      <c r="P393" s="13">
+        <v>0.44350000000000001</v>
       </c>
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A394" s="15" t="s">
-        <v>77</v>
+      <c r="A394" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B394" s="13"/>
       <c r="C394" s="13"/>
@@ -12012,63 +12295,54 @@
       <c r="E394" s="13"/>
       <c r="F394" s="13"/>
       <c r="G394" s="13"/>
-      <c r="H394" s="17">
-        <v>0.49425654358717003</v>
-      </c>
-      <c r="I394" s="17">
-        <v>0.48828546964076802</v>
-      </c>
-      <c r="J394" s="17">
-        <v>0.45800042185193002</v>
-      </c>
-      <c r="K394" s="17"/>
-      <c r="L394" s="17"/>
-      <c r="M394" s="17"/>
-      <c r="N394" s="17">
-        <v>0.44688411252247001</v>
-      </c>
-      <c r="O394" s="17">
-        <v>0.54046352583586599</v>
-      </c>
-      <c r="P394" s="17">
-        <v>0.44688411252247001</v>
-      </c>
-    </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A395" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B395" s="13"/>
-      <c r="C395" s="13"/>
-      <c r="D395" s="13"/>
-      <c r="E395" s="13"/>
-      <c r="F395" s="13"/>
-      <c r="G395" s="13"/>
-      <c r="H395" s="17">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="I395" s="17">
-        <v>0.66959999999999997</v>
-      </c>
-      <c r="J395" s="17">
-        <v>0.76370000000000005</v>
-      </c>
-      <c r="K395" s="17"/>
-      <c r="L395" s="17"/>
-      <c r="M395" s="17"/>
-      <c r="N395" s="17">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="O395" s="17">
-        <v>0.97670000000000001</v>
-      </c>
-      <c r="P395" s="17">
-        <v>0.96389999999999998</v>
-      </c>
-    </row>
-    <row r="396" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="15" t="s">
-        <v>79</v>
+      <c r="H394" s="13">
+        <v>0.89810000000000001</v>
+      </c>
+      <c r="I394" s="13">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="J394" s="13">
+        <v>0.68659999999999999</v>
+      </c>
+      <c r="K394" s="13"/>
+      <c r="L394" s="13"/>
+      <c r="M394" s="13"/>
+      <c r="N394" s="13">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="O394" s="13">
+        <v>0.73180000000000001</v>
+      </c>
+      <c r="P394" s="13">
+        <v>0.82550000000000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H395" s="6">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="I395" s="6">
+        <v>0.4612</v>
+      </c>
+      <c r="J395" s="6">
+        <v>0.45629999999999998</v>
+      </c>
+      <c r="N395" s="6">
+        <v>0.5111</v>
+      </c>
+      <c r="O395" s="6">
+        <v>0.5242</v>
+      </c>
+      <c r="P395" s="6">
+        <v>0.45760000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A396" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="B396" s="13"/>
       <c r="C396" s="13"/>
@@ -12076,31 +12350,31 @@
       <c r="E396" s="13"/>
       <c r="F396" s="13"/>
       <c r="G396" s="13"/>
-      <c r="H396" s="17">
-        <v>0.53414821385922395</v>
-      </c>
-      <c r="I396" s="17">
-        <v>0.56897264628303401</v>
-      </c>
-      <c r="J396" s="17">
-        <v>0.50976164494169995</v>
-      </c>
-      <c r="K396" s="17"/>
-      <c r="L396" s="17"/>
-      <c r="M396" s="17"/>
-      <c r="N396" s="17">
-        <v>0.52872539942549202</v>
-      </c>
-      <c r="O396" s="17">
-        <v>0.51499107968811897</v>
-      </c>
-      <c r="P396" s="17">
-        <v>0.51757649134992001</v>
+      <c r="H396" s="13">
+        <v>0.872</v>
+      </c>
+      <c r="I396" s="13">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="J396" s="13">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K396" s="13"/>
+      <c r="L396" s="13"/>
+      <c r="M396" s="13"/>
+      <c r="N396" s="13">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="O396" s="13">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="P396" s="13">
+        <v>0.69</v>
       </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A397" s="15" t="s">
-        <v>80</v>
+      <c r="A397" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="B397" s="13"/>
       <c r="C397" s="13"/>
@@ -12108,31 +12382,31 @@
       <c r="E397" s="13"/>
       <c r="F397" s="13"/>
       <c r="G397" s="13"/>
-      <c r="H397" s="17">
-        <v>0.86240000000000006</v>
-      </c>
-      <c r="I397" s="17">
-        <v>0.82189999999999996</v>
-      </c>
-      <c r="J397" s="17">
-        <v>0.84079999999999999</v>
-      </c>
-      <c r="K397" s="17"/>
-      <c r="L397" s="17"/>
-      <c r="M397" s="17"/>
-      <c r="N397" s="17">
-        <v>0.94979999999999998</v>
-      </c>
-      <c r="O397" s="17">
-        <v>0.6623</v>
-      </c>
-      <c r="P397" s="17">
-        <v>0.77910000000000001</v>
-      </c>
-    </row>
-    <row r="398" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A398" s="15" t="s">
-        <v>81</v>
+      <c r="H397" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="I397" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="J397" s="13">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="K397" s="13"/>
+      <c r="L397" s="13"/>
+      <c r="M397" s="13"/>
+      <c r="N397" s="13">
+        <v>0.504</v>
+      </c>
+      <c r="O397" s="13">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="P397" s="13">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A398" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B398" s="13"/>
       <c r="C398" s="13"/>
@@ -12140,63 +12414,54 @@
       <c r="E398" s="13"/>
       <c r="F398" s="13"/>
       <c r="G398" s="13"/>
-      <c r="H398" s="17">
-        <v>0.47933794497271998</v>
-      </c>
-      <c r="I398" s="17">
-        <v>0.47379111801017498</v>
-      </c>
-      <c r="J398" s="17">
-        <v>0.47515981983945399</v>
-      </c>
-      <c r="K398" s="17"/>
-      <c r="L398" s="17"/>
-      <c r="M398" s="17"/>
-      <c r="N398" s="17">
-        <v>0.49928406202602699</v>
-      </c>
-      <c r="O398" s="17">
-        <v>0.496584676886481</v>
-      </c>
-      <c r="P398" s="17">
-        <v>0.432604445327193</v>
-      </c>
-    </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A399" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B399" s="13"/>
-      <c r="C399" s="13"/>
-      <c r="D399" s="13"/>
-      <c r="E399" s="13"/>
-      <c r="F399" s="13"/>
-      <c r="G399" s="13"/>
-      <c r="H399" s="17">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="I399" s="17">
-        <v>1</v>
-      </c>
-      <c r="J399" s="17">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="K399" s="17"/>
-      <c r="L399" s="17"/>
-      <c r="M399" s="17"/>
-      <c r="N399" s="17">
-        <v>0.41670000000000001</v>
-      </c>
-      <c r="O399" s="17">
-        <v>8.6999999999999994E-3</v>
-      </c>
-      <c r="P399" s="17">
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A400" s="15" t="s">
-        <v>83</v>
+      <c r="H398" s="13">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="I398" s="13">
+        <v>0.40229999999999999</v>
+      </c>
+      <c r="J398" s="13">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="K398" s="13"/>
+      <c r="L398" s="13"/>
+      <c r="M398" s="13"/>
+      <c r="N398" s="13">
+        <v>0.95089999999999997</v>
+      </c>
+      <c r="O398" s="13">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="P398" s="13">
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H399" s="6">
+        <v>0.46529999999999999</v>
+      </c>
+      <c r="I399" s="6">
+        <v>0.4249</v>
+      </c>
+      <c r="J399" s="6">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="N399" s="6">
+        <v>0.50070000000000003</v>
+      </c>
+      <c r="O399" s="6">
+        <v>0.503</v>
+      </c>
+      <c r="P399" s="6">
+        <v>0.4632</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A400" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B400" s="13"/>
       <c r="C400" s="13"/>
@@ -12204,31 +12469,31 @@
       <c r="E400" s="13"/>
       <c r="F400" s="13"/>
       <c r="G400" s="13"/>
-      <c r="H400" s="17">
-        <v>0.43557607739665799</v>
-      </c>
-      <c r="I400" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J400" s="17">
-        <v>0.465569917743831</v>
-      </c>
-      <c r="K400" s="17"/>
-      <c r="L400" s="17"/>
-      <c r="M400" s="17"/>
-      <c r="N400" s="17">
-        <v>0.49962289263531501</v>
-      </c>
-      <c r="O400" s="17">
-        <v>0.49992979384168101</v>
-      </c>
-      <c r="P400" s="17">
-        <v>5.56222315370591E-2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A401" s="15" t="s">
-        <v>84</v>
+      <c r="H400" s="13">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="I400" s="13">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="J400" s="13">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="K400" s="13"/>
+      <c r="L400" s="13"/>
+      <c r="M400" s="13"/>
+      <c r="N400" s="13">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O400" s="13">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="P400" s="13">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A401" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="B401" s="13"/>
       <c r="C401" s="13"/>
@@ -12236,31 +12501,31 @@
       <c r="E401" s="13"/>
       <c r="F401" s="13"/>
       <c r="G401" s="13"/>
-      <c r="H401" s="17">
-        <v>0.85489999999999999</v>
-      </c>
-      <c r="I401" s="17">
-        <v>0.60340000000000005</v>
-      </c>
-      <c r="J401" s="17">
-        <v>0.70550000000000002</v>
-      </c>
-      <c r="K401" s="17"/>
-      <c r="L401" s="17"/>
-      <c r="M401" s="17"/>
-      <c r="N401" s="17">
-        <v>0.94689999999999996</v>
-      </c>
-      <c r="O401" s="17">
-        <v>0.60740000000000005</v>
-      </c>
-      <c r="P401" s="17">
-        <v>0.73870000000000002</v>
-      </c>
-    </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A402" s="15" t="s">
-        <v>85</v>
+      <c r="H401" s="13">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="I401" s="13">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="J401" s="13">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K401" s="13"/>
+      <c r="L401" s="13"/>
+      <c r="M401" s="13"/>
+      <c r="N401" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="O401" s="13">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="P401" s="13">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A402" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="B402" s="13"/>
       <c r="C402" s="13"/>
@@ -12268,31 +12533,31 @@
       <c r="E402" s="13"/>
       <c r="F402" s="13"/>
       <c r="G402" s="13"/>
-      <c r="H402" s="17">
-        <v>0.479694573461109</v>
-      </c>
-      <c r="I402" s="17">
-        <v>0.45715784595293502</v>
-      </c>
-      <c r="J402" s="17">
-        <v>0.43179518441660603</v>
-      </c>
-      <c r="K402" s="17"/>
-      <c r="L402" s="17"/>
-      <c r="M402" s="17"/>
-      <c r="N402" s="17">
-        <v>0.49566842698629299</v>
-      </c>
-      <c r="O402" s="17">
-        <v>0.47799243425399801</v>
-      </c>
-      <c r="P402" s="17">
-        <v>0.40928417851494803</v>
-      </c>
-    </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A403" s="15" t="s">
-        <v>90</v>
+      <c r="H402" s="13">
+        <v>0.84840000000000004</v>
+      </c>
+      <c r="I402" s="13">
+        <v>0.2802</v>
+      </c>
+      <c r="J402" s="13">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="K402" s="13"/>
+      <c r="L402" s="13"/>
+      <c r="M402" s="13"/>
+      <c r="N402" s="13">
+        <v>0.61709999999999998</v>
+      </c>
+      <c r="O402" s="13">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="P402" s="13">
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A403" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B403" s="13"/>
       <c r="C403" s="13"/>
@@ -12300,31 +12565,31 @@
       <c r="E403" s="13"/>
       <c r="F403" s="13"/>
       <c r="G403" s="13"/>
-      <c r="H403" s="17">
-        <v>0.86780000000000002</v>
-      </c>
-      <c r="I403" s="17">
-        <v>0.76990000000000003</v>
-      </c>
-      <c r="J403" s="17">
-        <v>0.81510000000000005</v>
-      </c>
-      <c r="K403" s="17"/>
-      <c r="L403" s="17"/>
-      <c r="M403" s="17"/>
-      <c r="N403" s="17">
-        <v>0.93620000000000003</v>
-      </c>
-      <c r="O403" s="17">
-        <v>0.15670000000000001</v>
-      </c>
-      <c r="P403" s="17">
-        <v>0.26629999999999998</v>
-      </c>
-    </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A404" s="15" t="s">
-        <v>91</v>
+      <c r="H403" s="13">
+        <v>0.48520000000000002</v>
+      </c>
+      <c r="I403" s="13">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="J403" s="13">
+        <v>0.313</v>
+      </c>
+      <c r="K403" s="13"/>
+      <c r="L403" s="13"/>
+      <c r="M403" s="13"/>
+      <c r="N403" s="13">
+        <v>0.496</v>
+      </c>
+      <c r="O403" s="13">
+        <v>0.498</v>
+      </c>
+      <c r="P403" s="13">
+        <v>6.9699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A404" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B404" s="13"/>
       <c r="C404" s="13"/>
@@ -12332,63 +12597,54 @@
       <c r="E404" s="13"/>
       <c r="F404" s="13"/>
       <c r="G404" s="13"/>
-      <c r="H404" s="17">
-        <v>0.49641486751313302</v>
-      </c>
-      <c r="I404" s="17">
-        <v>0.494374027665553</v>
-      </c>
-      <c r="J404" s="17">
-        <v>0.48727597810149698</v>
-      </c>
-      <c r="K404" s="17"/>
-      <c r="L404" s="17"/>
-      <c r="M404" s="17"/>
-      <c r="N404" s="17">
-        <v>0.49295541623127798</v>
-      </c>
-      <c r="O404" s="17">
-        <v>0.47995407691291098</v>
-      </c>
-      <c r="P404" s="17">
-        <v>0.178443125960452</v>
-      </c>
-    </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A405" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B405" s="13"/>
-      <c r="C405" s="13"/>
-      <c r="D405" s="13"/>
-      <c r="E405" s="13"/>
-      <c r="F405" s="13"/>
-      <c r="G405" s="13"/>
-      <c r="H405" s="17">
-        <v>0.8851</v>
-      </c>
-      <c r="I405" s="17">
-        <v>0.59609999999999996</v>
-      </c>
-      <c r="J405" s="17">
-        <v>0.70960000000000001</v>
-      </c>
-      <c r="K405" s="17"/>
-      <c r="L405" s="17"/>
-      <c r="M405" s="17"/>
-      <c r="N405" s="17">
-        <v>0.95189999999999997</v>
-      </c>
-      <c r="O405" s="17">
-        <v>0.10440000000000001</v>
-      </c>
-      <c r="P405" s="16">
-        <v>0.1857</v>
-      </c>
-    </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A406" s="15" t="s">
-        <v>93</v>
+      <c r="H404" s="13">
+        <v>0.86970000000000003</v>
+      </c>
+      <c r="I404" s="13">
+        <v>0.996</v>
+      </c>
+      <c r="J404" s="13">
+        <v>0.92810000000000004</v>
+      </c>
+      <c r="K404" s="13"/>
+      <c r="L404" s="13"/>
+      <c r="M404" s="13"/>
+      <c r="N404" s="13">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="O404" s="13">
+        <v>0.47210000000000002</v>
+      </c>
+      <c r="P404" s="13">
+        <v>0.62719999999999998</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H405" s="6">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="I405" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J405" s="6">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="N405" s="6">
+        <v>0.49569999999999997</v>
+      </c>
+      <c r="O405" s="6">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="P405" s="6">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A406" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -12396,1117 +12652,2333 @@
       <c r="E406" s="13"/>
       <c r="F406" s="13"/>
       <c r="G406" s="13"/>
-      <c r="H406" s="17">
+      <c r="H406" s="13">
+        <v>0.86929999999999996</v>
+      </c>
+      <c r="I406" s="13">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="J406" s="13">
+        <v>0.91590000000000005</v>
+      </c>
+      <c r="K406" s="13"/>
+      <c r="L406" s="13"/>
+      <c r="M406" s="13"/>
+      <c r="N406" s="13">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="O406" s="13">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="P406" s="13">
+        <v>7.6899999999999996E-2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A407" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B407" s="13"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="13"/>
+      <c r="E407" s="13"/>
+      <c r="F407" s="13"/>
+      <c r="G407" s="13"/>
+      <c r="H407" s="13">
+        <v>0.4924</v>
+      </c>
+      <c r="I407" s="13">
+        <v>0.498</v>
+      </c>
+      <c r="J407" s="13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K407" s="13"/>
+      <c r="L407" s="13"/>
+      <c r="M407" s="13"/>
+      <c r="N407" s="13">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="O407" s="13">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="P407" s="13">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A408" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B408" s="13"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="13"/>
+      <c r="H408" s="13">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="I408" s="13">
+        <v>0.50129999999999997</v>
+      </c>
+      <c r="J408" s="13">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="K408" s="13"/>
+      <c r="L408" s="13"/>
+      <c r="M408" s="13"/>
+      <c r="N408" s="13">
+        <v>0.9526</v>
+      </c>
+      <c r="O408" s="13">
+        <v>9.7900000000000001E-2</v>
+      </c>
+      <c r="P408" s="13">
+        <v>0.17449999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A409" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B409" s="13"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="13"/>
+      <c r="E409" s="13"/>
+      <c r="F409" s="13"/>
+      <c r="G409" s="13"/>
+      <c r="H409" s="13">
+        <v>0.5272</v>
+      </c>
+      <c r="I409" s="13">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="J409" s="13">
+        <v>0.4456</v>
+      </c>
+      <c r="K409" s="13"/>
+      <c r="L409" s="13"/>
+      <c r="M409" s="13"/>
+      <c r="N409" s="13">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="O409" s="13">
+        <v>0.49940000000000001</v>
+      </c>
+      <c r="P409" s="13">
+        <v>0.13469999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A410" s="7"/>
+      <c r="B410" s="13"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="13"/>
+      <c r="E410" s="13"/>
+      <c r="F410" s="13"/>
+      <c r="G410" s="13"/>
+      <c r="H410" s="13"/>
+      <c r="I410" s="13"/>
+      <c r="J410" s="13"/>
+      <c r="K410" s="13"/>
+      <c r="L410" s="13"/>
+      <c r="M410" s="13"/>
+      <c r="N410" s="13"/>
+      <c r="O410" s="13"/>
+      <c r="P410" s="13"/>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A411" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B411" s="13"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="13"/>
+      <c r="E411" s="13"/>
+      <c r="F411" s="13"/>
+      <c r="G411" s="13"/>
+      <c r="H411" s="13"/>
+      <c r="I411" s="13"/>
+      <c r="J411" s="13"/>
+      <c r="K411" s="13"/>
+      <c r="L411" s="13"/>
+      <c r="M411" s="13"/>
+      <c r="N411" s="13"/>
+      <c r="O411" s="13"/>
+      <c r="P411" s="13"/>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A412" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B412" s="13"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="13"/>
+      <c r="E412" s="13"/>
+      <c r="F412" s="13"/>
+      <c r="G412" s="13"/>
+      <c r="H412" s="16">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="I412" s="16">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="J412" s="16">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="K412" s="17"/>
+      <c r="L412" s="17"/>
+      <c r="M412" s="17"/>
+      <c r="N412" s="17">
+        <v>0.94540000000000002</v>
+      </c>
+      <c r="O412" s="17">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="P412" s="16">
+        <v>0.67889999999999995</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B413" s="13"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="13"/>
+      <c r="E413" s="13"/>
+      <c r="F413" s="13"/>
+      <c r="G413" s="13"/>
+      <c r="H413" s="17">
+        <v>0.50287221200679399</v>
+      </c>
+      <c r="I413" s="17">
+        <v>0.50564061657417803</v>
+      </c>
+      <c r="J413" s="16">
+        <v>0.47544921610894098</v>
+      </c>
+      <c r="K413" s="17"/>
+      <c r="L413" s="17"/>
+      <c r="M413" s="17"/>
+      <c r="N413" s="17">
+        <v>0.49464383858752797</v>
+      </c>
+      <c r="O413" s="17">
+        <v>0.47154585701070401</v>
+      </c>
+      <c r="P413" s="17">
+        <v>0.37998319515368301</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A414" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B414" s="13"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="13"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+      <c r="G414" s="13"/>
+      <c r="H414" s="17">
+        <v>0</v>
+      </c>
+      <c r="I414" s="17">
+        <v>0</v>
+      </c>
+      <c r="J414" s="17">
+        <v>0</v>
+      </c>
+      <c r="K414" s="17"/>
+      <c r="L414" s="17"/>
+      <c r="M414" s="17"/>
+      <c r="N414" s="17">
+        <v>0.94989999999999997</v>
+      </c>
+      <c r="O414" s="17">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="P414" s="17">
+        <v>0.65910000000000002</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A415" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B415" s="13"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="13"/>
+      <c r="E415" s="13"/>
+      <c r="F415" s="13"/>
+      <c r="G415" s="13"/>
+      <c r="H415" s="17">
+        <v>6.4423900000000006E-2</v>
+      </c>
+      <c r="I415" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J415" s="17">
+        <v>0.11414000000000001</v>
+      </c>
+      <c r="K415" s="17"/>
+      <c r="L415" s="17"/>
+      <c r="M415" s="17"/>
+      <c r="N415" s="17">
+        <v>0.500866625553538</v>
+      </c>
+      <c r="O415" s="17">
+        <v>0.50462534690101801</v>
+      </c>
+      <c r="P415" s="17">
+        <v>0.377291924028408</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A416" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B416" s="13"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="13"/>
+      <c r="E416" s="13"/>
+      <c r="F416" s="13"/>
+      <c r="G416" s="13"/>
+      <c r="H416" s="17">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="I416" s="17">
+        <v>0.66459999999999997</v>
+      </c>
+      <c r="J416" s="17">
+        <v>0.74850000000000005</v>
+      </c>
+      <c r="K416" s="17"/>
+      <c r="L416" s="17"/>
+      <c r="M416" s="17"/>
+      <c r="N416" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="O416" s="17">
+        <v>0.70409999999999995</v>
+      </c>
+      <c r="P416" s="17">
+        <v>0.80710000000000004</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A417" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B417" s="13"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="13"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="13"/>
+      <c r="G417" s="13"/>
+      <c r="H417" s="17">
+        <v>0.48767004716815798</v>
+      </c>
+      <c r="I417" s="17">
+        <v>0.475752584708313</v>
+      </c>
+      <c r="J417" s="17">
+        <v>0.45622628764702</v>
+      </c>
+      <c r="K417" s="17"/>
+      <c r="L417" s="17"/>
+      <c r="M417" s="17"/>
+      <c r="N417" s="17">
+        <v>0.498840734795791</v>
+      </c>
+      <c r="O417" s="17">
+        <v>0.49484604202457999</v>
+      </c>
+      <c r="P417" s="17">
+        <v>0.44517339348066498</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A418" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B418" s="13"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="13"/>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+      <c r="G418" s="13"/>
+      <c r="H418" s="17">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I418" s="17">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="J418" s="17">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="K418" s="17"/>
+      <c r="L418" s="17"/>
+      <c r="M418" s="17"/>
+      <c r="N418" s="17">
+        <v>0.95430000000000004</v>
+      </c>
+      <c r="O418" s="17">
+        <v>0.14330000000000001</v>
+      </c>
+      <c r="P418" s="17">
+        <v>0.2467</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A419" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B419" s="13"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="13"/>
+      <c r="F419" s="13"/>
+      <c r="G419" s="13"/>
+      <c r="H419" s="17">
+        <v>0.49701179378598698</v>
+      </c>
+      <c r="I419" s="17">
+        <v>0.49731321272222601</v>
+      </c>
+      <c r="J419" s="17">
+        <v>0.49690995343169297</v>
+      </c>
+      <c r="K419" s="17"/>
+      <c r="L419" s="17"/>
+      <c r="M419" s="17"/>
+      <c r="N419" s="17">
+        <v>0.50532288698955397</v>
+      </c>
+      <c r="O419" s="17">
+        <v>0.51388843002510898</v>
+      </c>
+      <c r="P419" s="17">
+        <v>0.173112202338918</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A420" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B420" s="13"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="13"/>
+      <c r="F420" s="13"/>
+      <c r="G420" s="13"/>
+      <c r="H420" s="17">
+        <v>0.90069999999999995</v>
+      </c>
+      <c r="I420" s="17">
+        <v>0.67020000000000002</v>
+      </c>
+      <c r="J420" s="17">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="K420" s="17"/>
+      <c r="L420" s="17"/>
+      <c r="M420" s="17"/>
+      <c r="N420" s="17">
+        <v>0.94389999999999996</v>
+      </c>
+      <c r="O420" s="17">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="P420" s="17">
+        <v>0.60909999999999997</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A421" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B421" s="13"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="13"/>
+      <c r="F421" s="13"/>
+      <c r="G421" s="13"/>
+      <c r="H421" s="17">
+        <v>0.543463227339259</v>
+      </c>
+      <c r="I421" s="17">
+        <v>0.58824877289885302</v>
+      </c>
+      <c r="J421" s="17">
+        <v>0.52036909849409896</v>
+      </c>
+      <c r="K421" s="17"/>
+      <c r="L421" s="17"/>
+      <c r="M421" s="17"/>
+      <c r="N421" s="17">
+        <v>0.49302009091419302</v>
+      </c>
+      <c r="O421" s="17">
+        <v>0.46301787366195302</v>
+      </c>
+      <c r="P421" s="17">
+        <v>0.34525500741839799</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A422" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B422" s="13"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+      <c r="G422" s="13"/>
+      <c r="H422" s="17">
+        <v>0.88090000000000002</v>
+      </c>
+      <c r="I422" s="17">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="J422" s="17">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="K422" s="17"/>
+      <c r="L422" s="17"/>
+      <c r="M422" s="17"/>
+      <c r="N422" s="17">
+        <v>0.9506</v>
+      </c>
+      <c r="O422" s="17">
+        <v>1</v>
+      </c>
+      <c r="P422" s="17">
+        <v>0.97450000000000003</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A423" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B423" s="13"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+      <c r="G423" s="13"/>
+      <c r="H423" s="17">
+        <v>0.51527297587336696</v>
+      </c>
+      <c r="I423" s="17">
+        <v>0.53229227145941105</v>
+      </c>
+      <c r="J423" s="17">
+        <v>0.47528499831863902</v>
+      </c>
+      <c r="K423" s="17"/>
+      <c r="L423" s="17"/>
+      <c r="M423" s="17"/>
+      <c r="N423" s="17">
+        <v>0.47537379067722102</v>
+      </c>
+      <c r="O423" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="P423" s="17">
+        <v>0.48737601442741202</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A424" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B424" s="13"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+      <c r="G424" s="13"/>
+      <c r="H424" s="17">
+        <v>0.877</v>
+      </c>
+      <c r="I424" s="17">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="J424" s="17">
+        <v>0.1925</v>
+      </c>
+      <c r="K424" s="17"/>
+      <c r="L424" s="17"/>
+      <c r="M424" s="17"/>
+      <c r="N424" s="17">
+        <v>0.9506</v>
+      </c>
+      <c r="O424" s="17">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="P424" s="17">
+        <v>0.97430000000000005</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A425" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B425" s="13"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+      <c r="G425" s="13"/>
+      <c r="H425" s="17">
+        <v>0.21033280577034399</v>
+      </c>
+      <c r="I425" s="17">
+        <v>0.50186929413041603</v>
+      </c>
+      <c r="J425" s="17">
+        <v>0.21033280577034399</v>
+      </c>
+      <c r="K425" s="17"/>
+      <c r="L425" s="17"/>
+      <c r="M425" s="17"/>
+      <c r="N425" s="17">
+        <v>0.47536295644522703</v>
+      </c>
+      <c r="O425" s="17">
+        <v>0.49976873265494898</v>
+      </c>
+      <c r="P425" s="17">
+        <v>0.48726042841037198</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A426" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B426" s="13"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+      <c r="G426" s="13"/>
+      <c r="H426" s="17">
+        <v>0.8669</v>
+      </c>
+      <c r="I426" s="17">
+        <v>0.55930000000000002</v>
+      </c>
+      <c r="J426" s="17">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="K426" s="17"/>
+      <c r="L426" s="17"/>
+      <c r="M426" s="17"/>
+      <c r="N426" s="17">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="O426" s="17">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="P426" s="17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A427" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B427" s="13"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+      <c r="G427" s="13"/>
+      <c r="H427" s="17">
+        <v>0.462525724881309</v>
+      </c>
+      <c r="I427" s="17">
+        <v>0.42395504735257999</v>
+      </c>
+      <c r="J427" s="17">
+        <v>0.419379163201061</v>
+      </c>
+      <c r="K427" s="17"/>
+      <c r="L427" s="17"/>
+      <c r="M427" s="17"/>
+      <c r="N427" s="17">
+        <v>0.45016187365105298</v>
+      </c>
+      <c r="O427" s="17">
+        <v>0.48822430840424302</v>
+      </c>
+      <c r="P427" s="17">
+        <v>0.134872106008248</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A428" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B428" s="13"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+      <c r="G428" s="13"/>
+      <c r="H428" s="17">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="I428" s="17">
+        <v>0.78259999999999996</v>
+      </c>
+      <c r="J428" s="17">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="K428" s="17"/>
+      <c r="L428" s="17"/>
+      <c r="M428" s="17"/>
+      <c r="N428" s="17">
+        <v>0.95530000000000004</v>
+      </c>
+      <c r="O428" s="17">
+        <v>0.2475</v>
+      </c>
+      <c r="P428" s="17">
+        <v>0.39040000000000002</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A429" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B429" s="13"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="13"/>
+      <c r="G429" s="13"/>
+      <c r="H429" s="17">
+        <v>0.14025624684774199</v>
+      </c>
+      <c r="I429" s="17">
+        <v>0.50459226129458501</v>
+      </c>
+      <c r="J429" s="17">
+        <v>0.14025624684774199</v>
+      </c>
+      <c r="K429" s="17"/>
+      <c r="L429" s="17"/>
+      <c r="M429" s="17"/>
+      <c r="N429" s="17">
+        <v>0.46839806700356501</v>
+      </c>
+      <c r="O429" s="17">
+        <v>0.48298942341321</v>
+      </c>
+      <c r="P429" s="17">
+        <v>0.46839806700356501</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A430" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B430" s="13"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+      <c r="G430" s="13"/>
+      <c r="H430" s="17">
+        <v>0.93140000000000001</v>
+      </c>
+      <c r="I430" s="17">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="J430" s="17">
+        <v>0.74280000000000002</v>
+      </c>
+      <c r="K430" s="17"/>
+      <c r="L430" s="17"/>
+      <c r="M430" s="17"/>
+      <c r="N430" s="17">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="O430" s="17">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="P430" s="17">
+        <v>0.44140000000000001</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A431" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H431" s="17">
+        <v>0.54739701339660496</v>
+      </c>
+      <c r="I431" s="17">
+        <v>0.57557719840188304</v>
+      </c>
+      <c r="J431" s="17">
+        <v>0.54795318740679699</v>
+      </c>
+      <c r="K431" s="17"/>
+      <c r="L431" s="17"/>
+      <c r="M431" s="17"/>
+      <c r="N431" s="17">
+        <v>0.54863204913456198</v>
+      </c>
+      <c r="O431" s="17">
+        <v>0.60804347788633695</v>
+      </c>
+      <c r="P431" s="17">
+        <v>0.46593530734733102</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A432" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B432" s="13"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+      <c r="G432" s="13"/>
+      <c r="H432" s="17">
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="I432" s="17">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="J432" s="17">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="K432" s="17"/>
+      <c r="L432" s="17"/>
+      <c r="M432" s="17"/>
+      <c r="N432" s="17">
+        <v>0.95679999999999998</v>
+      </c>
+      <c r="O432" s="17">
+        <v>0.6694</v>
+      </c>
+      <c r="P432" s="17">
+        <v>0.78620000000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A433" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B433" s="13"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+      <c r="G433" s="13"/>
+      <c r="H433" s="17">
+        <v>0.49425654358717003</v>
+      </c>
+      <c r="I433" s="17">
+        <v>0.48828546964076802</v>
+      </c>
+      <c r="J433" s="17">
+        <v>0.45800042185193002</v>
+      </c>
+      <c r="K433" s="17"/>
+      <c r="L433" s="17"/>
+      <c r="M433" s="17"/>
+      <c r="N433" s="17">
+        <v>0.44688411252247001</v>
+      </c>
+      <c r="O433" s="17">
+        <v>0.54046352583586599</v>
+      </c>
+      <c r="P433" s="17">
+        <v>0.44688411252247001</v>
+      </c>
+    </row>
+    <row r="434" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A434" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B434" s="13"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+      <c r="G434" s="13"/>
+      <c r="H434" s="17">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="I434" s="17">
+        <v>0.66959999999999997</v>
+      </c>
+      <c r="J434" s="17">
+        <v>0.76370000000000005</v>
+      </c>
+      <c r="K434" s="17"/>
+      <c r="L434" s="17"/>
+      <c r="M434" s="17"/>
+      <c r="N434" s="17">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O434" s="17">
+        <v>0.97670000000000001</v>
+      </c>
+      <c r="P434" s="17">
+        <v>0.96389999999999998</v>
+      </c>
+    </row>
+    <row r="435" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B435" s="13"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+      <c r="G435" s="13"/>
+      <c r="H435" s="17">
+        <v>0.53414821385922395</v>
+      </c>
+      <c r="I435" s="17">
+        <v>0.56897264628303401</v>
+      </c>
+      <c r="J435" s="17">
+        <v>0.50976164494169995</v>
+      </c>
+      <c r="K435" s="17"/>
+      <c r="L435" s="17"/>
+      <c r="M435" s="17"/>
+      <c r="N435" s="17">
+        <v>0.52872539942549202</v>
+      </c>
+      <c r="O435" s="17">
+        <v>0.51499107968811897</v>
+      </c>
+      <c r="P435" s="17">
+        <v>0.51757649134992001</v>
+      </c>
+    </row>
+    <row r="436" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A436" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B436" s="13"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="13"/>
+      <c r="F436" s="13"/>
+      <c r="G436" s="13"/>
+      <c r="H436" s="17">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="I436" s="17">
+        <v>0.82189999999999996</v>
+      </c>
+      <c r="J436" s="17">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="K436" s="17"/>
+      <c r="L436" s="17"/>
+      <c r="M436" s="17"/>
+      <c r="N436" s="17">
+        <v>0.94979999999999998</v>
+      </c>
+      <c r="O436" s="17">
+        <v>0.6623</v>
+      </c>
+      <c r="P436" s="17">
+        <v>0.77910000000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:17" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A437" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B437" s="13"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="13"/>
+      <c r="F437" s="13"/>
+      <c r="G437" s="13"/>
+      <c r="H437" s="17">
+        <v>0.47933794497271998</v>
+      </c>
+      <c r="I437" s="17">
+        <v>0.47379111801017498</v>
+      </c>
+      <c r="J437" s="17">
+        <v>0.47515981983945399</v>
+      </c>
+      <c r="K437" s="17"/>
+      <c r="L437" s="17"/>
+      <c r="M437" s="17"/>
+      <c r="N437" s="17">
+        <v>0.49928406202602699</v>
+      </c>
+      <c r="O437" s="17">
+        <v>0.496584676886481</v>
+      </c>
+      <c r="P437" s="17">
+        <v>0.432604445327193</v>
+      </c>
+    </row>
+    <row r="438" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A438" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B438" s="13"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="13"/>
+      <c r="F438" s="13"/>
+      <c r="G438" s="13"/>
+      <c r="H438" s="17">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="I438" s="17">
+        <v>1</v>
+      </c>
+      <c r="J438" s="17">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="K438" s="17"/>
+      <c r="L438" s="17"/>
+      <c r="M438" s="17"/>
+      <c r="N438" s="17">
+        <v>0.41670000000000001</v>
+      </c>
+      <c r="O438" s="17">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="P438" s="17">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A439" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B439" s="13"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="13"/>
+      <c r="F439" s="13"/>
+      <c r="G439" s="13"/>
+      <c r="H439" s="17">
+        <v>0.43557607739665799</v>
+      </c>
+      <c r="I439" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J439" s="17">
+        <v>0.465569917743831</v>
+      </c>
+      <c r="K439" s="17"/>
+      <c r="L439" s="17"/>
+      <c r="M439" s="17"/>
+      <c r="N439" s="17">
+        <v>0.49962289263531501</v>
+      </c>
+      <c r="O439" s="17">
+        <v>0.49992979384168101</v>
+      </c>
+      <c r="P439" s="17">
+        <v>5.56222315370591E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A440" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B440" s="13"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="13"/>
+      <c r="F440" s="13"/>
+      <c r="G440" s="13"/>
+      <c r="H440" s="17">
+        <v>0.85489999999999999</v>
+      </c>
+      <c r="I440" s="17">
+        <v>0.60340000000000005</v>
+      </c>
+      <c r="J440" s="17">
+        <v>0.70550000000000002</v>
+      </c>
+      <c r="K440" s="17"/>
+      <c r="L440" s="17"/>
+      <c r="M440" s="17"/>
+      <c r="N440" s="17">
+        <v>0.94689999999999996</v>
+      </c>
+      <c r="O440" s="17">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="P440" s="17">
+        <v>0.73870000000000002</v>
+      </c>
+    </row>
+    <row r="441" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A441" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B441" s="13"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="13"/>
+      <c r="F441" s="13"/>
+      <c r="G441" s="13"/>
+      <c r="H441" s="17">
+        <v>0.479694573461109</v>
+      </c>
+      <c r="I441" s="17">
+        <v>0.45715784595293502</v>
+      </c>
+      <c r="J441" s="17">
+        <v>0.43179518441660603</v>
+      </c>
+      <c r="K441" s="17"/>
+      <c r="L441" s="17"/>
+      <c r="M441" s="17"/>
+      <c r="N441" s="17">
+        <v>0.49566842698629299</v>
+      </c>
+      <c r="O441" s="17">
+        <v>0.47799243425399801</v>
+      </c>
+      <c r="P441" s="17">
+        <v>0.40928417851494803</v>
+      </c>
+    </row>
+    <row r="442" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A442" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B442" s="13"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="13"/>
+      <c r="F442" s="13"/>
+      <c r="G442" s="13"/>
+      <c r="H442" s="17">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="I442" s="17">
+        <v>0.76990000000000003</v>
+      </c>
+      <c r="J442" s="17">
+        <v>0.81510000000000005</v>
+      </c>
+      <c r="K442" s="17"/>
+      <c r="L442" s="17"/>
+      <c r="M442" s="17"/>
+      <c r="N442" s="17">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="O442" s="17">
+        <v>0.15670000000000001</v>
+      </c>
+      <c r="P442" s="17">
+        <v>0.26629999999999998</v>
+      </c>
+    </row>
+    <row r="443" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A443" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B443" s="13"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="13"/>
+      <c r="F443" s="13"/>
+      <c r="G443" s="13"/>
+      <c r="H443" s="17">
+        <v>0.49641486751313302</v>
+      </c>
+      <c r="I443" s="17">
+        <v>0.494374027665553</v>
+      </c>
+      <c r="J443" s="17">
+        <v>0.48727597810149698</v>
+      </c>
+      <c r="K443" s="17"/>
+      <c r="L443" s="17"/>
+      <c r="M443" s="17"/>
+      <c r="N443" s="17">
+        <v>0.49295541623127798</v>
+      </c>
+      <c r="O443" s="17">
+        <v>0.47995407691291098</v>
+      </c>
+      <c r="P443" s="17">
+        <v>0.178443125960452</v>
+      </c>
+    </row>
+    <row r="444" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A444" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B444" s="13"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="13"/>
+      <c r="F444" s="13"/>
+      <c r="G444" s="13"/>
+      <c r="H444" s="17">
+        <v>0.8851</v>
+      </c>
+      <c r="I444" s="17">
+        <v>0.59609999999999996</v>
+      </c>
+      <c r="J444" s="17">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="K444" s="17"/>
+      <c r="L444" s="17"/>
+      <c r="M444" s="17"/>
+      <c r="N444" s="17">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="O444" s="17">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="P444" s="16">
+        <v>0.1857</v>
+      </c>
+    </row>
+    <row r="445" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A445" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B445" s="13"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="13"/>
+      <c r="F445" s="13"/>
+      <c r="G445" s="13"/>
+      <c r="H445" s="17">
         <v>0.51922796708349805</v>
       </c>
-      <c r="I406" s="17">
+      <c r="I445" s="17">
         <v>0.541604285076831</v>
       </c>
-      <c r="J406" s="17">
+      <c r="J445" s="17">
         <v>0.47170223877318901</v>
       </c>
-      <c r="K406" s="17"/>
-      <c r="L406" s="17"/>
-      <c r="M406" s="17"/>
-      <c r="N406" s="17">
+      <c r="K445" s="17"/>
+      <c r="L445" s="17"/>
+      <c r="M445" s="17"/>
+      <c r="N445" s="17">
         <v>0.49946542205956401</v>
       </c>
-      <c r="O406" s="17">
+      <c r="O445" s="17">
         <v>0.49892625875512098</v>
       </c>
-      <c r="P406" s="17">
+      <c r="P445" s="17">
         <v>0.14112055856248401</v>
       </c>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A407" s="7"/>
-    </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A408" s="10" t="s">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A446" s="7"/>
+    </row>
+    <row r="447" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A447" s="10" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A409" s="22" t="s">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A448" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B409" s="23">
+      <c r="B448" s="23">
         <v>0.93710000000000004</v>
       </c>
-      <c r="C409" s="23">
+      <c r="C448" s="23">
         <v>0.82310000000000005</v>
       </c>
-      <c r="D409" s="23">
+      <c r="D448" s="23">
         <v>0.876</v>
       </c>
-      <c r="E409" s="23">
+      <c r="E448" s="23">
         <v>0.8286</v>
       </c>
-      <c r="F409" s="23">
+      <c r="F448" s="23">
         <v>0.62580000000000002</v>
       </c>
-      <c r="G409" s="23">
+      <c r="G448" s="23">
         <v>0.7117</v>
       </c>
-      <c r="H409" s="23">
+      <c r="H448" s="23">
         <v>0.86809999999999998</v>
       </c>
-      <c r="I409" s="23">
+      <c r="I448" s="23">
         <v>0.71140000000000003</v>
       </c>
-      <c r="J409" s="23">
+      <c r="J448" s="23">
         <v>0.78120000000000001</v>
       </c>
-      <c r="K409" s="24">
+      <c r="K448" s="24">
         <v>0.84340000000000004</v>
       </c>
-      <c r="L409" s="24">
+      <c r="L448" s="24">
         <v>0.7258</v>
       </c>
-      <c r="M409" s="24">
+      <c r="M448" s="24">
         <v>0.77929999999999999</v>
       </c>
-      <c r="N409" s="24">
+      <c r="N448" s="24">
         <v>0.95209999999999995</v>
       </c>
-      <c r="O409" s="24">
+      <c r="O448" s="24">
         <v>0.82730000000000004</v>
       </c>
-      <c r="P409" s="24">
+      <c r="P448" s="24">
         <v>0.88349999999999995</v>
       </c>
-      <c r="Q409" s="23"/>
-    </row>
-    <row r="410" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="28" t="s">
+      <c r="Q448" s="23"/>
+    </row>
+    <row r="449" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B410" s="27">
+      <c r="B449" s="27">
         <v>0.49969999999999998</v>
       </c>
-      <c r="C410" s="27">
+      <c r="C449" s="27">
         <v>0.49940000000000001</v>
       </c>
-      <c r="D410" s="27">
+      <c r="D449" s="27">
         <v>0.48399999999999999</v>
       </c>
-      <c r="E410" s="27">
+      <c r="E449" s="27">
         <v>0.50960000000000005</v>
       </c>
-      <c r="F410" s="27">
+      <c r="F449" s="27">
         <v>0.51539999999999997</v>
       </c>
-      <c r="G410" s="27">
+      <c r="G449" s="27">
         <v>0.48599999999999999</v>
       </c>
-      <c r="H410" s="27">
+      <c r="H449" s="27">
         <v>0.4955</v>
       </c>
-      <c r="I410" s="27">
+      <c r="I449" s="27">
         <v>0.49180000000000001</v>
       </c>
-      <c r="J410" s="27">
+      <c r="J449" s="27">
         <v>0.47539999999999999</v>
       </c>
-      <c r="K410" s="27">
+      <c r="K449" s="27">
         <v>0.49990000000000001</v>
       </c>
-      <c r="L410" s="27">
+      <c r="L449" s="27">
         <v>0.49990000000000001</v>
       </c>
-      <c r="M410" s="27">
+      <c r="M449" s="27">
         <v>0.4894</v>
       </c>
-      <c r="N410" s="27">
+      <c r="N449" s="27">
         <v>0.50190000000000001</v>
       </c>
-      <c r="O410" s="27">
+      <c r="O449" s="27">
         <v>0.50600000000000001</v>
       </c>
-      <c r="P410" s="27">
+      <c r="P449" s="27">
         <v>0.48270000000000002</v>
       </c>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A411" s="25" t="s">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A450" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B411" s="23"/>
-      <c r="C411" s="23"/>
-      <c r="D411" s="23"/>
-      <c r="E411" s="23"/>
-      <c r="F411" s="23"/>
-      <c r="G411" s="23"/>
-      <c r="H411" s="23">
+      <c r="B450" s="23"/>
+      <c r="C450" s="23"/>
+      <c r="D450" s="23"/>
+      <c r="E450" s="23"/>
+      <c r="F450" s="23"/>
+      <c r="G450" s="23"/>
+      <c r="H450" s="23">
         <v>0.86680000000000001</v>
       </c>
-      <c r="I411" s="23">
+      <c r="I450" s="23">
         <v>0.59530000000000005</v>
       </c>
-      <c r="J411" s="23">
+      <c r="J450" s="23">
         <v>0.70320000000000005</v>
       </c>
-      <c r="K411" s="23"/>
-      <c r="L411" s="23"/>
-      <c r="M411" s="23"/>
-      <c r="N411" s="23">
+      <c r="K450" s="23"/>
+      <c r="L450" s="23"/>
+      <c r="M450" s="23"/>
+      <c r="N450" s="23">
         <v>0.95189999999999997</v>
       </c>
-      <c r="O411" s="23">
+      <c r="O450" s="23">
         <v>0.42470000000000002</v>
       </c>
-      <c r="P411" s="23">
+      <c r="P450" s="23">
         <v>0.5847</v>
       </c>
-      <c r="Q411" s="23"/>
-    </row>
-    <row r="412" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="26" t="s">
+      <c r="Q450" s="23"/>
+    </row>
+    <row r="451" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="B412" s="27"/>
-      <c r="C412" s="27"/>
-      <c r="D412" s="27"/>
-      <c r="E412" s="27"/>
-      <c r="F412" s="27"/>
-      <c r="G412" s="27"/>
-      <c r="H412" s="27">
+      <c r="B451" s="27"/>
+      <c r="C451" s="27"/>
+      <c r="D451" s="27"/>
+      <c r="E451" s="27"/>
+      <c r="F451" s="27"/>
+      <c r="G451" s="27"/>
+      <c r="H451" s="27">
         <v>0.49540000000000001</v>
       </c>
-      <c r="I412" s="27">
+      <c r="I451" s="27">
         <v>0.49</v>
       </c>
-      <c r="J412" s="27">
+      <c r="J451" s="27">
         <v>0.44519999999999998</v>
       </c>
-      <c r="K412" s="27"/>
-      <c r="L412" s="27"/>
-      <c r="M412" s="27"/>
-      <c r="N412" s="27">
+      <c r="K451" s="27"/>
+      <c r="L451" s="27"/>
+      <c r="M451" s="27"/>
+      <c r="N451" s="27">
         <v>0.50009999999999999</v>
       </c>
-      <c r="O412" s="27">
+      <c r="O451" s="27">
         <v>0.503</v>
       </c>
-      <c r="P412" s="27">
+      <c r="P451" s="27">
         <v>0.34</v>
       </c>
-      <c r="Q412" s="27"/>
-    </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A413" s="7" t="s">
+      <c r="Q451" s="27"/>
+    </row>
+    <row r="452" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A452" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H413" s="13">
+      <c r="H452" s="13">
         <v>0.90159999999999996</v>
       </c>
-      <c r="I413" s="13">
+      <c r="I452" s="13">
         <v>0.47499999999999998</v>
       </c>
-      <c r="J413" s="13">
+      <c r="J452" s="13">
         <v>0.62019999999999997</v>
       </c>
-      <c r="K413" s="13"/>
-      <c r="L413" s="13"/>
-      <c r="M413" s="13"/>
-      <c r="N413" s="13">
+      <c r="K452" s="13"/>
+      <c r="L452" s="13"/>
+      <c r="M452" s="13"/>
+      <c r="N452" s="13">
         <v>0.94640000000000002</v>
       </c>
-      <c r="O413" s="13">
+      <c r="O452" s="13">
         <v>0.40820000000000001</v>
       </c>
-      <c r="P413" s="13">
+      <c r="P452" s="13">
         <v>0.56810000000000005</v>
       </c>
     </row>
-    <row r="414" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A414" s="7" t="s">
+    <row r="453" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A453" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H414" s="13">
+      <c r="H453" s="13">
         <v>0.52949999999999997</v>
       </c>
-      <c r="I414" s="13">
+      <c r="I453" s="13">
         <v>0.56499999999999995</v>
       </c>
-      <c r="J414" s="13">
+      <c r="J453" s="13">
         <v>0.437</v>
       </c>
-      <c r="K414" s="13"/>
-      <c r="L414" s="13"/>
-      <c r="M414" s="13"/>
-      <c r="N414" s="13">
+      <c r="K453" s="13"/>
+      <c r="L453" s="13"/>
+      <c r="M453" s="13"/>
+      <c r="N453" s="13">
         <v>0.49730000000000002</v>
       </c>
-      <c r="O414" s="13">
+      <c r="O453" s="13">
         <v>0.4859</v>
       </c>
-      <c r="P414" s="13">
+      <c r="P453" s="13">
         <v>0.32919999999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A415" s="7" t="s">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A454" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H415" s="13">
+      <c r="H454" s="13">
         <v>0.89190000000000003</v>
       </c>
-      <c r="I415" s="13">
+      <c r="I454" s="13">
         <v>0.53649999999999998</v>
       </c>
-      <c r="J415" s="13">
+      <c r="J454" s="13">
         <v>0.66810000000000003</v>
       </c>
-      <c r="K415" s="13"/>
-      <c r="L415" s="13"/>
-      <c r="M415" s="13"/>
-      <c r="N415" s="13">
+      <c r="K454" s="13"/>
+      <c r="L454" s="13"/>
+      <c r="M454" s="13"/>
+      <c r="N454" s="13">
         <v>0.9506</v>
       </c>
-      <c r="O415" s="13">
+      <c r="O454" s="13">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P415" s="13">
+      <c r="P454" s="13">
         <v>0.97430000000000005</v>
       </c>
     </row>
-    <row r="416" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A416" s="26" t="s">
+    <row r="455" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A455" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H416" s="27">
+      <c r="H455" s="27">
         <v>0.52259999999999995</v>
       </c>
-      <c r="I416" s="27">
+      <c r="I455" s="27">
         <v>0.55030000000000001</v>
       </c>
-      <c r="J416" s="27">
+      <c r="J455" s="27">
         <v>0.4556</v>
       </c>
-      <c r="N416" s="27">
+      <c r="N455" s="27">
         <v>0.4753</v>
       </c>
-      <c r="O416" s="27">
+      <c r="O455" s="27">
         <v>0.49969999999999998</v>
       </c>
-      <c r="P416" s="27">
+      <c r="P455" s="27">
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A417" s="7" t="s">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A456" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H417" s="13">
+      <c r="H456" s="13">
         <v>0.88170000000000004</v>
       </c>
-      <c r="I417" s="13">
+      <c r="I456" s="13">
         <v>0.66479999999999995</v>
       </c>
-      <c r="J417" s="13">
+      <c r="J456" s="13">
         <v>0.75670000000000004</v>
       </c>
-      <c r="K417" s="13"/>
-      <c r="L417" s="13"/>
-      <c r="M417" s="13"/>
-      <c r="N417" s="13">
+      <c r="K456" s="13"/>
+      <c r="L456" s="13"/>
+      <c r="M456" s="13"/>
+      <c r="N456" s="13">
         <v>0.95830000000000004</v>
       </c>
-      <c r="O417" s="13">
+      <c r="O456" s="13">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="P417" s="13">
+      <c r="P456" s="13">
         <v>9.5399999999999999E-2</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A418" s="7" t="s">
+    <row r="457" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A457" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H418" s="13">
+      <c r="H457" s="13">
         <v>0.51649999999999996</v>
       </c>
-      <c r="I418" s="13">
+      <c r="I457" s="13">
         <v>0.53320000000000001</v>
       </c>
-      <c r="J418" s="13">
+      <c r="J457" s="13">
         <v>0.4884</v>
       </c>
-      <c r="K418" s="13"/>
-      <c r="L418" s="13"/>
-      <c r="M418" s="13"/>
-      <c r="N418" s="13">
+      <c r="K457" s="13"/>
+      <c r="L457" s="13"/>
+      <c r="M457" s="13"/>
+      <c r="N457" s="13">
         <v>0.50280000000000002</v>
       </c>
-      <c r="O418" s="13">
+      <c r="O457" s="13">
         <v>0.50280000000000002</v>
       </c>
-      <c r="P418" s="13">
+      <c r="P457" s="13">
         <v>9.4899999999999998E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A419" s="7" t="s">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A458" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H419" s="13">
+      <c r="H458" s="13">
         <v>0.8901</v>
       </c>
-      <c r="I419" s="13">
+      <c r="I458" s="13">
         <v>0.76200000000000001</v>
       </c>
-      <c r="J419" s="13">
+      <c r="J458" s="13">
         <v>0.81950000000000001</v>
       </c>
-      <c r="K419" s="13"/>
-      <c r="L419" s="13"/>
-      <c r="M419" s="13"/>
-      <c r="N419" s="13">
+      <c r="K458" s="13"/>
+      <c r="L458" s="13"/>
+      <c r="M458" s="13"/>
+      <c r="N458" s="13">
         <v>0.94830000000000003</v>
       </c>
-      <c r="O419" s="13">
+      <c r="O458" s="13">
         <v>0.70989999999999998</v>
       </c>
-      <c r="P419" s="13">
+      <c r="P458" s="13">
         <v>0.81059999999999999</v>
       </c>
     </row>
-    <row r="420" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A420" s="26" t="s">
+    <row r="459" spans="1:17" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A459" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="H420" s="27">
+      <c r="H459" s="27">
         <v>0.53939999999999999</v>
       </c>
-      <c r="I420" s="27">
+      <c r="I459" s="27">
         <v>0.56679999999999997</v>
       </c>
-      <c r="J420" s="27">
+      <c r="J459" s="27">
         <v>0.53539999999999999</v>
       </c>
-      <c r="N420" s="27">
+      <c r="N459" s="27">
         <v>0.4965</v>
       </c>
-      <c r="O420" s="27">
+      <c r="O459" s="27">
         <v>0.48499999999999999</v>
       </c>
-      <c r="P420" s="27">
+      <c r="P459" s="27">
         <v>0.44400000000000001</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A421" s="7" t="s">
+    <row r="460" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A460" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H421" s="13">
+      <c r="H460" s="13">
         <v>0.85850000000000004</v>
       </c>
-      <c r="I421" s="13">
+      <c r="I460" s="13">
         <v>0.61699999999999999</v>
       </c>
-      <c r="J421" s="13">
+      <c r="J460" s="13">
         <v>0.71640000000000004</v>
       </c>
-      <c r="K421" s="13"/>
-      <c r="L421" s="13"/>
-      <c r="M421" s="13"/>
-      <c r="N421" s="13">
+      <c r="K460" s="13"/>
+      <c r="L460" s="13"/>
+      <c r="M460" s="13"/>
+      <c r="N460" s="13">
         <v>0.95069999999999999</v>
       </c>
-      <c r="O421" s="13">
-        <v>1</v>
-      </c>
-      <c r="P421" s="13">
+      <c r="O460" s="13">
+        <v>1</v>
+      </c>
+      <c r="P460" s="13">
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A422" s="7" t="s">
+    <row r="461" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A461" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H422" s="13">
+      <c r="H461" s="13">
         <v>0.48399999999999999</v>
       </c>
-      <c r="I422" s="13">
+      <c r="I461" s="13">
         <v>0.46800000000000003</v>
       </c>
-      <c r="J422" s="13">
+      <c r="J461" s="13">
         <v>0.44</v>
       </c>
-      <c r="K422" s="13"/>
-      <c r="L422" s="13"/>
-      <c r="M422" s="13"/>
-      <c r="N422" s="13">
+      <c r="K461" s="13"/>
+      <c r="L461" s="13"/>
+      <c r="M461" s="13"/>
+      <c r="N461" s="13">
         <v>2.46E-2</v>
       </c>
-      <c r="O422" s="13">
+      <c r="O461" s="13">
         <v>0.5</v>
       </c>
-      <c r="P422" s="13">
+      <c r="P461" s="13">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A423" s="7" t="s">
+    <row r="462" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A462" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H423" s="13">
+      <c r="H462" s="13">
         <v>0.90800000000000003</v>
       </c>
-      <c r="I423" s="13">
+      <c r="I462" s="13">
         <v>0.59199999999999997</v>
       </c>
-      <c r="J423" s="13">
+      <c r="J462" s="13">
         <v>0.71499999999999997</v>
       </c>
-      <c r="K423" s="13"/>
-      <c r="L423" s="13"/>
-      <c r="M423" s="13"/>
-      <c r="N423" s="13">
+      <c r="K462" s="13"/>
+      <c r="L462" s="13"/>
+      <c r="M462" s="13"/>
+      <c r="N462" s="13">
         <v>0.94669999999999999</v>
       </c>
-      <c r="O423" s="13">
+      <c r="O462" s="13">
         <v>0.51400000000000001</v>
       </c>
-      <c r="P423" s="13">
+      <c r="P462" s="13">
         <v>0.66400000000000003</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A424" s="7" t="s">
+    <row r="463" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A463" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H424" s="13">
+      <c r="H463" s="13">
         <v>0.54400000000000004</v>
       </c>
-      <c r="I424" s="13">
+      <c r="I463" s="13">
         <v>0.59599999999999997</v>
       </c>
-      <c r="J424" s="13">
+      <c r="J463" s="13">
         <v>0.496</v>
       </c>
-      <c r="K424" s="13"/>
-      <c r="L424" s="13"/>
-      <c r="M424" s="13"/>
-      <c r="N424" s="13">
+      <c r="K463" s="13"/>
+      <c r="L463" s="13"/>
+      <c r="M463" s="13"/>
+      <c r="N463" s="13">
         <v>0.496</v>
       </c>
-      <c r="O424" s="13">
+      <c r="O463" s="13">
         <v>0.48</v>
       </c>
-      <c r="P424" s="13">
+      <c r="P463" s="13">
         <v>0.374</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A425" s="7" t="s">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A464" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H425" s="13">
+      <c r="H464" s="13">
         <v>0.87819999999999998</v>
       </c>
-      <c r="I425" s="13">
+      <c r="I464" s="13">
         <v>0.61460000000000004</v>
       </c>
-      <c r="J425" s="13">
+      <c r="J464" s="13">
         <v>0.72119999999999995</v>
       </c>
-      <c r="K425" s="13"/>
-      <c r="L425" s="13"/>
-      <c r="M425" s="13"/>
-      <c r="N425" s="13">
+      <c r="K464" s="13"/>
+      <c r="L464" s="13"/>
+      <c r="M464" s="13"/>
+      <c r="N464" s="13">
         <v>0.95230000000000004</v>
       </c>
-      <c r="O425" s="13">
+      <c r="O464" s="13">
         <v>0.44350000000000001</v>
       </c>
-      <c r="P425" s="13">
+      <c r="P464" s="13">
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A426" s="7" t="s">
+    <row r="465" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A465" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H426" s="13">
+      <c r="H465" s="13">
         <v>0.46739000000000003</v>
       </c>
-      <c r="I426" s="13">
+      <c r="I465" s="13">
         <v>0.44328000000000001</v>
       </c>
-      <c r="J426" s="13">
+      <c r="J465" s="13">
         <v>0.44490000000000002</v>
       </c>
-      <c r="K426" s="13"/>
-      <c r="L426" s="13"/>
-      <c r="M426" s="13"/>
-      <c r="N426" s="13">
+      <c r="K465" s="13"/>
+      <c r="L465" s="13"/>
+      <c r="M465" s="13"/>
+      <c r="N465" s="13">
         <v>0.50029999999999997</v>
       </c>
-      <c r="O426" s="13">
+      <c r="O465" s="13">
         <v>0.50060000000000004</v>
       </c>
-      <c r="P426" s="13">
+      <c r="P465" s="13">
         <v>0.4088</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A427" s="7" t="s">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A466" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H427" s="13">
+      <c r="H466" s="13">
         <v>0.82079999999999997</v>
       </c>
-      <c r="I427" s="13">
+      <c r="I466" s="13">
         <v>0.74329999999999996</v>
       </c>
-      <c r="J427" s="13">
+      <c r="J466" s="13">
         <v>0.92090000000000005</v>
       </c>
-      <c r="K427" s="13"/>
-      <c r="L427" s="13"/>
-      <c r="M427" s="13"/>
-      <c r="N427" s="13">
+      <c r="K466" s="13"/>
+      <c r="L466" s="13"/>
+      <c r="M466" s="13"/>
+      <c r="N466" s="13">
         <v>0.88329999999999997</v>
       </c>
-      <c r="O427" s="13">
+      <c r="O466" s="13">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="P427" s="13">
+      <c r="P466" s="13">
         <v>8.2100000000000006E-2</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A428" s="7" t="s">
+    <row r="467" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A467" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H428" s="13">
+      <c r="H467" s="13">
         <v>0.55489999999999995</v>
       </c>
-      <c r="I428" s="13">
+      <c r="I467" s="13">
         <v>0.54479999999999995</v>
       </c>
-      <c r="J428" s="13">
+      <c r="J467" s="13">
         <v>0.22409999999999999</v>
       </c>
-      <c r="K428" s="13"/>
-      <c r="L428" s="13"/>
-      <c r="M428" s="13"/>
-      <c r="N428" s="13">
+      <c r="K467" s="13"/>
+      <c r="L467" s="13"/>
+      <c r="M467" s="13"/>
+      <c r="N467" s="13">
         <v>0.48459999999999998</v>
       </c>
-      <c r="O428" s="13">
+      <c r="O467" s="13">
         <v>0.46600000000000003</v>
       </c>
-      <c r="P428" s="13">
+      <c r="P467" s="13">
         <v>0.38769999999999999</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A429" s="7" t="s">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A468" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H429">
+      <c r="H468">
         <v>0.92090000000000005</v>
       </c>
-      <c r="I429">
+      <c r="I468">
         <v>0.74329999999999996</v>
       </c>
-      <c r="J429">
+      <c r="J468">
         <v>0.82079999999999997</v>
       </c>
-      <c r="K429" s="13"/>
-      <c r="L429" s="13"/>
-      <c r="M429" s="13"/>
-      <c r="N429" s="13">
+      <c r="K468" s="13"/>
+      <c r="L468" s="13"/>
+      <c r="M468" s="13"/>
+      <c r="N468" s="13">
         <v>0.95</v>
       </c>
-      <c r="O429" s="13">
+      <c r="O468" s="13">
         <v>0.62639999999999996</v>
       </c>
-      <c r="P429" s="13">
+      <c r="P468" s="13">
         <v>0.75319999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A430" s="26" t="s">
+    <row r="469" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A469" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="H430" s="27">
+      <c r="H469" s="27">
         <v>0.55500000000000005</v>
       </c>
-      <c r="I430" s="27">
+      <c r="I469" s="27">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J430" s="27">
+      <c r="J469" s="27">
         <v>0.224</v>
       </c>
-      <c r="N430" s="27">
+      <c r="N469" s="27">
         <v>0.49830000000000002</v>
       </c>
-      <c r="O430" s="27">
+      <c r="O469" s="27">
         <v>0.49199999999999999</v>
       </c>
-      <c r="P430" s="27">
+      <c r="P469" s="27">
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A431" s="7" t="s">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A470" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H431" s="13">
+      <c r="H470" s="13">
         <v>0.86980000000000002</v>
       </c>
-      <c r="I431" s="13">
-        <v>1</v>
-      </c>
-      <c r="J431" s="13">
+      <c r="I470" s="13">
+        <v>1</v>
+      </c>
+      <c r="J470" s="13">
         <v>0.92989999999999995</v>
       </c>
-      <c r="K431" s="13"/>
-      <c r="L431" s="13"/>
-      <c r="M431" s="13"/>
-      <c r="N431" s="13">
+      <c r="K470" s="13"/>
+      <c r="L470" s="13"/>
+      <c r="M470" s="13"/>
+      <c r="N470" s="13">
         <v>0.95469999999999999</v>
       </c>
-      <c r="O431" s="13">
+      <c r="O470" s="13">
         <v>0.68279999999999996</v>
       </c>
-      <c r="P431" s="13">
+      <c r="P470" s="13">
         <v>0.79510000000000003</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A432" s="7" t="s">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A471" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H432" s="13">
+      <c r="H471" s="13">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="I432" s="13">
+      <c r="I471" s="13">
         <v>0.5</v>
       </c>
-      <c r="J432" s="13">
+      <c r="J471" s="13">
         <v>0.114</v>
       </c>
-      <c r="K432" s="13"/>
-      <c r="L432" s="13"/>
-      <c r="M432" s="13"/>
-      <c r="N432" s="13">
+      <c r="K471" s="13"/>
+      <c r="L471" s="13"/>
+      <c r="M471" s="13"/>
+      <c r="N471" s="13">
         <v>0.50529999999999997</v>
       </c>
-      <c r="O432" s="13">
+      <c r="O471" s="13">
         <v>0.52459999999999996</v>
       </c>
-      <c r="P432" s="13">
+      <c r="P471" s="13">
         <v>0.44700000000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A433" s="7" t="s">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A472" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H433" s="13">
+      <c r="H472" s="13">
         <v>0.91620000000000001</v>
       </c>
-      <c r="I433" s="13">
+      <c r="I472" s="13">
         <v>0.4199</v>
       </c>
-      <c r="J433" s="13">
+      <c r="J472" s="13">
         <v>0.57310000000000005</v>
       </c>
-      <c r="K433" s="13"/>
-      <c r="L433" s="13"/>
-      <c r="M433" s="13"/>
-      <c r="N433" s="13"/>
-      <c r="O433" s="13"/>
-      <c r="P433" s="13"/>
-    </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A434" s="7" t="s">
+      <c r="K472" s="13"/>
+      <c r="L472" s="13"/>
+      <c r="M472" s="13"/>
+      <c r="N472" s="13"/>
+      <c r="O472" s="13"/>
+      <c r="P472" s="13"/>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A473" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H434" s="13">
+      <c r="H473" s="13">
         <v>0.53959999999999997</v>
       </c>
-      <c r="I434" s="13">
+      <c r="I473" s="13">
         <v>0.5847</v>
       </c>
-      <c r="J434" s="13">
+      <c r="J473" s="13">
         <v>0.42130000000000001</v>
       </c>
-      <c r="K434" s="13"/>
-      <c r="L434" s="13"/>
-      <c r="M434" s="13"/>
-      <c r="N434" s="13"/>
-      <c r="O434" s="13"/>
-      <c r="P434" s="13"/>
-    </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A435" s="7" t="s">
+      <c r="K473" s="13"/>
+      <c r="L473" s="13"/>
+      <c r="M473" s="13"/>
+      <c r="N473" s="13"/>
+      <c r="O473" s="13"/>
+      <c r="P473" s="13"/>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A474" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H435">
+      <c r="H474">
         <v>0.88480000000000003</v>
       </c>
-      <c r="I435">
+      <c r="I474">
         <v>0.80620000000000003</v>
       </c>
-      <c r="J435">
+      <c r="J474">
         <v>0.84260000000000002</v>
       </c>
-      <c r="N435">
+      <c r="N474">
         <v>0.94789999999999996</v>
       </c>
-      <c r="O435">
+      <c r="O474">
         <v>0.63649999999999995</v>
       </c>
-      <c r="P435">
+      <c r="P474">
         <v>0.75949999999999995</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A436" s="7" t="s">
+    <row r="475" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A475" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H436">
+      <c r="H475">
         <v>0.53580000000000005</v>
       </c>
-      <c r="I436">
+      <c r="I475">
         <v>0.55269999999999997</v>
       </c>
-      <c r="J436">
+      <c r="J475">
         <v>0.53649999999999998</v>
       </c>
-      <c r="N436">
+      <c r="N475">
         <v>0.49669999999999997</v>
       </c>
-      <c r="O436">
+      <c r="O475">
         <v>0.48359999999999997</v>
       </c>
-      <c r="P436">
+      <c r="P475">
         <v>0.42099999999999999</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A437" s="7" t="s">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A476" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H437">
+      <c r="H476">
         <v>0.86499999999999999</v>
       </c>
-      <c r="I437">
+      <c r="I476">
         <v>0.32700000000000001</v>
       </c>
-      <c r="J437">
+      <c r="J476">
         <v>0.4713</v>
       </c>
-      <c r="N437">
+      <c r="N476">
         <v>0.95099999999999996</v>
       </c>
-      <c r="O437">
-        <v>1</v>
-      </c>
-      <c r="P437">
+      <c r="O476">
+        <v>1</v>
+      </c>
+      <c r="P476">
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="438" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A438" s="26" t="s">
+    <row r="477" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A477" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="H438" s="27">
+      <c r="H477" s="27">
         <v>0.497</v>
       </c>
-      <c r="I438" s="27">
+      <c r="I477" s="27">
         <v>0.49399999999999999</v>
       </c>
-      <c r="J438" s="27">
+      <c r="J477" s="27">
         <v>0.34300000000000003</v>
       </c>
-      <c r="N438" s="27">
+      <c r="N477" s="27">
         <v>0.47499999999999998</v>
       </c>
-      <c r="O438" s="27">
+      <c r="O477" s="27">
         <v>0.5</v>
       </c>
-      <c r="P438" s="27">
+      <c r="P477" s="27">
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A439" s="7" t="s">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A478" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H439">
+      <c r="H478">
         <v>0.88800000000000001</v>
       </c>
-      <c r="I439">
+      <c r="I478">
         <v>0.60399999999999998</v>
       </c>
-      <c r="J439">
+      <c r="J478">
         <v>0.71699999999999997</v>
       </c>
-      <c r="N439">
+      <c r="N478">
         <v>0.95099999999999996</v>
       </c>
-      <c r="O439">
-        <v>1</v>
-      </c>
-      <c r="P439">
+      <c r="O478">
+        <v>1</v>
+      </c>
+      <c r="P478">
         <v>0.97450000000000003</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A440" s="7" t="s">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A479" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H440" s="23">
+      <c r="H479" s="23">
         <v>0.5202</v>
       </c>
-      <c r="I440" s="23">
+      <c r="I479" s="23">
         <v>0.54368000000000005</v>
       </c>
-      <c r="J440" s="23">
+      <c r="J479" s="23">
         <v>0.47499999999999998</v>
       </c>
-      <c r="K440" s="23"/>
-      <c r="L440" s="23"/>
-      <c r="M440" s="23"/>
-      <c r="N440" s="23">
+      <c r="K479" s="23"/>
+      <c r="L479" s="23"/>
+      <c r="M479" s="23"/>
+      <c r="N479" s="23">
         <v>2.46E-2</v>
       </c>
-      <c r="O440" s="23">
+      <c r="O479" s="23">
         <v>0.5</v>
       </c>
-      <c r="P440" s="23">
+      <c r="P479" s="23">
         <v>4.6899999999999997E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A441" s="7" t="s">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A480" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H441">
+      <c r="H480">
         <v>0.90400000000000003</v>
       </c>
-      <c r="I441">
+      <c r="I480">
         <v>0.48099999999999998</v>
       </c>
-      <c r="J441">
+      <c r="J480">
         <v>0.625</v>
       </c>
-      <c r="N441">
+      <c r="N480">
         <v>0.95699999999999996</v>
       </c>
-      <c r="O441">
+      <c r="O480">
         <v>0.154</v>
       </c>
-      <c r="P441">
+      <c r="P480">
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A442" s="7" t="s">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A481" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H442">
+      <c r="H481">
         <v>0.53200000000000003</v>
       </c>
-      <c r="I442">
+      <c r="I481">
         <v>0.57099999999999995</v>
       </c>
-      <c r="J442">
+      <c r="J481">
         <v>0.441</v>
       </c>
-      <c r="N442">
+      <c r="N481">
         <v>0.502</v>
       </c>
-      <c r="O442">
+      <c r="O481">
         <v>0.505</v>
       </c>
-      <c r="P442">
+      <c r="P481">
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A443" s="15" t="s">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A482" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="H443">
+      <c r="H482">
         <v>0.8992</v>
       </c>
-      <c r="I443">
+      <c r="I482">
         <v>0.41170000000000001</v>
       </c>
-      <c r="J443">
+      <c r="J482">
         <v>0.56130000000000002</v>
       </c>
-      <c r="N443">
+      <c r="N482">
         <v>0.95079999999999998</v>
       </c>
-      <c r="O443">
+      <c r="O482">
         <v>0.31180000000000002</v>
       </c>
-      <c r="P443">
+      <c r="P482">
         <v>0.46710000000000002</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A444" s="15" t="s">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A483" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="H444">
+      <c r="H483">
         <v>0.52400000000000002</v>
       </c>
-      <c r="I444">
+      <c r="I483">
         <v>0.55100000000000005</v>
       </c>
-      <c r="J444">
+      <c r="J483">
         <v>0.40300000000000002</v>
       </c>
-      <c r="N444">
+      <c r="N483">
         <v>0.49880000000000002</v>
       </c>
-      <c r="O444">
+      <c r="O483">
         <v>0.49459999999999998</v>
       </c>
-      <c r="P444">
+      <c r="P483">
         <v>0.27939999999999998</v>
       </c>
     </row>
-    <row r="445" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="15"/>
-    </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A446" s="10" t="s">
+    <row r="484" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="15"/>
+    </row>
+    <row r="485" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A485" s="10" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A447" s="7" t="s">
+    <row r="486" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H447">
+      <c r="H486">
         <v>0.92730000000000001</v>
       </c>
-      <c r="I447">
-        <v>1</v>
-      </c>
-      <c r="J447">
+      <c r="I486">
+        <v>1</v>
+      </c>
+      <c r="J486">
         <v>0.86560000000000004</v>
       </c>
-      <c r="N447">
+      <c r="N486">
         <v>0.86560000000000004</v>
       </c>
-      <c r="O447">
-        <v>1</v>
-      </c>
-      <c r="P447">
+      <c r="O486">
+        <v>1</v>
+      </c>
+      <c r="P486">
         <v>0.92730000000000001</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A448" s="7" t="s">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A487" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H448">
+      <c r="H487">
         <v>6.8821400000000005E-2</v>
       </c>
-      <c r="I448">
+      <c r="I487">
         <v>0.5</v>
       </c>
-      <c r="J448">
+      <c r="J487">
         <v>0.120989</v>
       </c>
-      <c r="N448">
+      <c r="N487">
         <v>6.8820000000000006E-2</v>
       </c>
-      <c r="O448">
+      <c r="O487">
         <v>0.5</v>
       </c>
-      <c r="P448">
+      <c r="P487">
         <v>0.12098</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A449" s="10" t="s">
+    <row r="488" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A488" s="10" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A450" s="7" t="s">
+    <row r="489" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A489" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H450">
+      <c r="H489">
         <v>0.85750000000000004</v>
       </c>
-      <c r="I450">
+      <c r="I489">
         <v>0.99329999999999996</v>
       </c>
-      <c r="J450">
+      <c r="J489">
         <v>0.92</v>
       </c>
-      <c r="N450">
+      <c r="N489">
         <v>0.9456</v>
       </c>
-      <c r="O450">
+      <c r="O489">
         <v>0.99960000000000004</v>
       </c>
-      <c r="P450">
+      <c r="P489">
         <v>0.97160000000000002</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A455" s="10" t="s">
+    <row r="494" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A494" s="10" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A456" s="7" t="s">
+    <row r="495" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A495" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H456">
+      <c r="H495">
         <v>0.4</v>
       </c>
-      <c r="I456">
+      <c r="I495">
         <v>0.5</v>
       </c>
-      <c r="J456">
+      <c r="J495">
         <v>0.44400000000000001</v>
       </c>
-      <c r="N456">
+      <c r="N495">
         <v>0.50519999999999998</v>
       </c>
-      <c r="O456">
+      <c r="O495">
         <v>0.5202</v>
       </c>
-      <c r="P456">
+      <c r="P495">
         <v>0.4914</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A457" s="7" t="s">
+    <row r="496" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A496" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H457">
+      <c r="H496">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I457">
+      <c r="I496">
         <v>0.61599999999999999</v>
       </c>
-      <c r="J457">
+      <c r="J496">
         <v>0.48570000000000002</v>
       </c>
-      <c r="N457">
+      <c r="N496">
         <v>0.5</v>
       </c>
-      <c r="O457">
+      <c r="O496">
         <v>0.34</v>
       </c>
-      <c r="P457">
+      <c r="P496">
         <v>0.40400000000000003</v>
       </c>
     </row>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -1343,7 +1343,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
-      <selection pane="bottomRight" activeCell="J278" sqref="J278"/>
+      <selection pane="bottomRight" activeCell="J258" sqref="J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8995,10 +8995,46 @@
       <c r="A253" s="25" t="s">
         <v>68</v>
       </c>
+      <c r="H253" s="23">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="I253" s="23">
+        <v>1</v>
+      </c>
+      <c r="J253" s="23">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="N253" s="23">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O253" s="23">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="P253" s="23">
+        <v>0.69299999999999995</v>
+      </c>
     </row>
     <row r="254" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="25" t="s">
         <v>69</v>
+      </c>
+      <c r="H254" s="23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I254" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J254" s="23">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="N254" s="23">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="O254" s="23">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="P254" s="23">
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="255" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -982,13 +982,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1340,10 +1340,10 @@
   <dimension ref="A1:R496"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B251" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
-      <selection pane="bottomRight" activeCell="J258" sqref="J258"/>
+      <selection pane="bottomRight" activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,31 +1356,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -8244,22 +8244,22 @@
         <v>70</v>
       </c>
       <c r="H221">
-        <v>0.91600000000000004</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="I221">
-        <v>0.38200000000000001</v>
+        <v>0.439</v>
       </c>
       <c r="J221">
-        <v>0.53600000000000003</v>
+        <v>0.59</v>
       </c>
       <c r="N221" s="13">
-        <v>0.95099999999999996</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="O221" s="13">
-        <v>1</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="P221" s="13">
-        <v>0.97450000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="222" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8267,13 +8267,13 @@
         <v>71</v>
       </c>
       <c r="H222" s="27">
-        <v>0.53600000000000003</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="I222" s="27">
-        <v>0.57499999999999996</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="J222" s="27">
-        <v>0.39900000000000002</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="N222" s="27">
         <v>2.46E-2</v>
@@ -8289,93 +8289,24 @@
       <c r="A223" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H223">
-        <v>0.92</v>
-      </c>
-      <c r="I223">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="J223">
-        <v>0.81699999999999995</v>
-      </c>
-      <c r="N223" s="13">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="O223" s="13">
-        <v>1</v>
-      </c>
-      <c r="P223" s="13">
-        <v>0.97499999999999998</v>
-      </c>
+      <c r="N223" s="13"/>
+      <c r="O223" s="13"/>
+      <c r="P223" s="13"/>
     </row>
     <row r="224" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H224">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="I224">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="J224">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="N224">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O224">
-        <v>0.5</v>
-      </c>
-      <c r="P224">
-        <v>4.6899999999999997E-2</v>
-      </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H225">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="I225">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="J225">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="N225">
-        <v>0.95030000000000003</v>
-      </c>
-      <c r="O225">
-        <v>0.95889999999999997</v>
-      </c>
-      <c r="P225">
-        <v>0.95399999999999996</v>
-      </c>
     </row>
     <row r="226" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H226">
-        <v>0.55600000000000005</v>
-      </c>
-      <c r="I226">
-        <v>0.623</v>
-      </c>
-      <c r="J226">
-        <v>0.5</v>
-      </c>
-      <c r="N226">
-        <v>0.4965</v>
-      </c>
-      <c r="O226">
-        <v>0.497</v>
-      </c>
-      <c r="P226">
-        <v>0.496</v>
-      </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
@@ -8708,7 +8639,7 @@
       </c>
     </row>
     <row r="243" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="33" t="s">
+      <c r="A243" s="31" t="s">
         <v>108</v>
       </c>
       <c r="B243" s="23">
@@ -8758,7 +8689,7 @@
       </c>
     </row>
     <row r="244" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="33" t="s">
+      <c r="A244" s="31" t="s">
         <v>109</v>
       </c>
       <c r="B244" s="23">
@@ -9134,22 +9065,22 @@
         <v>70</v>
       </c>
       <c r="H259" s="23">
-        <v>0.86899999999999999</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="I259" s="23">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="J259" s="23">
-        <v>0.92900000000000005</v>
+        <v>0.625</v>
       </c>
       <c r="N259" s="23">
         <v>0.95099999999999996</v>
       </c>
       <c r="O259" s="23">
-        <v>0.60299999999999998</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="P259" s="23">
-        <v>0.73599999999999999</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="260" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9157,22 +9088,22 @@
         <v>71</v>
       </c>
       <c r="H260" s="23">
-        <v>0.436</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="I260" s="23">
-        <v>0.5</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="J260" s="23">
-        <v>0.46600000000000003</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="N260" s="23">
-        <v>0.501</v>
+        <v>0.499</v>
       </c>
       <c r="O260" s="23">
-        <v>0.50600000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="P260" s="23">
-        <v>0.41399999999999998</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="261" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9180,22 +9111,22 @@
         <v>72</v>
       </c>
       <c r="H261" s="23">
-        <v>0.91500000000000004</v>
+        <v>0.878</v>
       </c>
       <c r="I261" s="23">
-        <v>0.75800000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="J261" s="23">
-        <v>0.82799999999999996</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="N261" s="23">
-        <v>0.95099999999999996</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="O261" s="23">
-        <v>1</v>
+        <v>0.215</v>
       </c>
       <c r="P261" s="23">
-        <v>0.97499999999999998</v>
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="262" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9203,22 +9134,22 @@
         <v>73</v>
       </c>
       <c r="H262" s="23">
-        <v>0.58099999999999996</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="I262" s="23">
-        <v>0.64500000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="J262" s="23">
-        <v>0.58299999999999996</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="N262" s="23">
-        <v>0.47499999999999998</v>
+        <v>0.497</v>
       </c>
       <c r="O262" s="23">
-        <v>0.5</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="P262" s="23">
-        <v>0.48699999999999999</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="263" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -9226,22 +9157,22 @@
         <v>74</v>
       </c>
       <c r="H263" s="23">
-        <v>0.89100000000000001</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I263" s="23">
-        <v>0.77900000000000003</v>
+        <v>1</v>
       </c>
       <c r="J263" s="23">
-        <v>0.83099999999999996</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="N263" s="23">
-        <v>0.94599999999999995</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="O263" s="23">
-        <v>0.57199999999999995</v>
+        <v>0.64900000000000002</v>
       </c>
       <c r="P263" s="23">
-        <v>0.71099999999999997</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="264" spans="1:16" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9249,22 +9180,22 @@
         <v>75</v>
       </c>
       <c r="H264" s="23">
-        <v>0.54600000000000004</v>
+        <v>0.436</v>
       </c>
       <c r="I264" s="23">
-        <v>0.57399999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="J264" s="23">
-        <v>0.54500000000000004</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="N264" s="23">
-        <v>0.49399999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="O264" s="23">
-        <v>0.46899999999999997</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="P264" s="23">
-        <v>0.39400000000000002</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="265" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
@@ -15051,31 +14982,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -15543,31 +15474,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -23522,22 +23453,22 @@
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="32"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -23683,22 +23614,22 @@
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31" t="s">
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="31"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -23846,31 +23777,31 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>

--- a/documents/results.xlsx
+++ b/documents/results.xlsx
@@ -21,16 +21,12 @@
     <sheet name="MessyData_Results" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="242">
   <si>
     <t>Model</t>
   </si>
@@ -310,9 +306,6 @@
   </si>
   <si>
     <t>Weighted by (PC1 + PC2)  (sklearn)</t>
-  </si>
-  <si>
-    <t>Random Forest + OHE + Random Forest</t>
   </si>
   <si>
     <t>Weighted by Throughput Average (sklearn)</t>
@@ -826,6 +819,9 @@
   <si>
     <t xml:space="preserve">SVC + OHE + 3 dense layers </t>
   </si>
+  <si>
+    <t xml:space="preserve">BiLSTM + OHE + 3 Dense Layers </t>
+  </si>
 </sst>
 </file>
 
@@ -1337,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R496"/>
+  <dimension ref="A1:R535"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B209" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A349" sqref="A349"/>
-      <selection pane="bottomRight" activeCell="G219" sqref="G219"/>
+      <selection pane="bottomRight" activeCell="P431" sqref="P431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6924,12 +6920,12 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B167" s="13">
         <v>1</v>
@@ -6979,7 +6975,7 @@
     </row>
     <row r="168" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B168" s="27">
         <v>0.5</v>
@@ -7098,7 +7094,7 @@
     </row>
     <row r="172" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H172">
         <v>0.56599999999999995</v>
@@ -7354,22 +7350,22 @@
         <v>70</v>
       </c>
       <c r="H183">
-        <v>0.86980000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="J183">
-        <v>0.92989999999999995</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="N183" s="13">
-        <v>0.95099999999999996</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="O183" s="13">
-        <v>1</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="P183" s="13">
-        <v>0.97450000000000003</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -7377,22 +7373,22 @@
         <v>71</v>
       </c>
       <c r="H184">
-        <v>6.4399999999999999E-2</v>
+        <v>0.54</v>
       </c>
       <c r="I184">
-        <v>0.5</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="J184">
-        <v>0.114</v>
+        <v>0.499</v>
       </c>
       <c r="N184">
-        <v>2.46E-2</v>
+        <v>0.499</v>
       </c>
       <c r="O184">
-        <v>0.5</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="P184">
-        <v>4.6899999999999997E-2</v>
+        <v>0.35499999999999998</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
@@ -7400,22 +7396,22 @@
         <v>72</v>
       </c>
       <c r="H185" s="13">
-        <v>0.86980000000000002</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I185" s="13">
         <v>1</v>
       </c>
       <c r="J185" s="13">
-        <v>0.92989999999999995</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="N185">
-        <v>0.95099999999999996</v>
+        <v>0.97099999999999997</v>
       </c>
       <c r="O185">
-        <v>1</v>
+        <v>0.115</v>
       </c>
       <c r="P185">
-        <v>0.97450000000000003</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -7423,22 +7419,22 @@
         <v>73</v>
       </c>
       <c r="H186" s="27">
-        <v>0.43559999999999999</v>
+        <v>0.436</v>
       </c>
       <c r="I186" s="27">
         <v>0.5</v>
       </c>
       <c r="J186" s="27">
-        <v>0.46560000000000001</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="N186" s="27">
-        <v>0.4753</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="O186" s="27">
-        <v>0.5</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="P186" s="27">
-        <v>0.48730000000000001</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
@@ -7446,22 +7442,22 @@
         <v>74</v>
       </c>
       <c r="H187">
-        <v>0.91830000000000001</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I187">
-        <v>0.49259999999999998</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="J187">
-        <v>0.63929999999999998</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="N187" s="13">
-        <v>0.95099999999999996</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="O187" s="13">
-        <v>1</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="P187" s="13">
-        <v>0.97450000000000003</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -7469,22 +7465,22 @@
         <v>75</v>
       </c>
       <c r="H188">
-        <v>0.54679999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="I188">
-        <v>0.60399999999999998</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="J188">
-        <v>0.46100000000000002</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="N188" s="13">
-        <v>0.4753</v>
+        <v>0.503</v>
       </c>
       <c r="O188" s="13">
-        <v>0.5</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="P188" s="13">
-        <v>0.48730000000000001</v>
+        <v>0.41399999999999998</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
@@ -7719,7 +7715,7 @@
     </row>
     <row r="199" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H199" s="13">
         <v>0.91400000000000003</v>
@@ -7742,7 +7738,7 @@
     </row>
     <row r="200" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H200" s="13">
         <v>0.54100000000000004</v>
@@ -7765,7 +7761,7 @@
     </row>
     <row r="201" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H201" s="13">
         <v>0.91100000000000003</v>
@@ -7788,7 +7784,7 @@
     </row>
     <row r="202" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H202" s="13">
         <v>0.52300000000000002</v>
@@ -7814,12 +7810,12 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B205" s="13">
         <v>1</v>
@@ -7869,7 +7865,7 @@
     </row>
     <row r="206" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B206" s="27">
         <v>0.5</v>
@@ -8289,24 +8285,93 @@
       <c r="A223" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N223" s="13"/>
-      <c r="O223" s="13"/>
-      <c r="P223" s="13"/>
+      <c r="H223">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="I223">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="J223">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="N223" s="13">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="O223" s="13">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="P223" s="13">
+        <v>0.22700000000000001</v>
+      </c>
     </row>
     <row r="224" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H224" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="I224" s="27">
+        <v>0.497</v>
+      </c>
+      <c r="J224" s="27">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="N224" s="27">
+        <v>0.498</v>
+      </c>
+      <c r="O224" s="27">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="P224" s="27">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="H225">
+        <v>0.91</v>
+      </c>
+      <c r="I225">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="J225">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="N225">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="O225">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="P225">
+        <v>0.60399999999999998</v>
+      </c>
     </row>
     <row r="226" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="H226" s="27">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="I226" s="27">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J226" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="N226" s="27">
+        <v>0.504</v>
+      </c>
+      <c r="O226" s="27">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="P226" s="27">
+        <v>0.35199999999999998</v>
+      </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
@@ -8540,7 +8605,7 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H237">
         <v>0.88800000000000001</v>
@@ -8563,7 +8628,7 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H238">
         <v>0.52400000000000002</v>
@@ -8586,7 +8651,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H239">
         <v>0.89500000000000002</v>
@@ -8609,7 +8674,7 @@
     </row>
     <row r="240" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H240" s="27">
         <v>0.52500000000000002</v>
@@ -8635,12 +8700,12 @@
     </row>
     <row r="242" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B243" s="23">
         <v>1</v>
@@ -8690,7 +8755,7 @@
     </row>
     <row r="244" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B244" s="23">
         <v>0.5</v>
@@ -9430,7 +9495,7 @@
     </row>
     <row r="275" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H275" s="23">
         <v>0.59799999999999998</v>
@@ -9453,7 +9518,7 @@
     </row>
     <row r="276" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H276" s="23">
         <v>0.52100000000000002</v>
@@ -9476,7 +9541,7 @@
     </row>
     <row r="277" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H277" s="23">
         <v>0.86899999999999999</v>
@@ -9499,7 +9564,7 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H278" s="23">
         <v>6.4000000000000001E-2</v>
@@ -9528,7 +9593,7 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.25">
@@ -9579,7 +9644,7 @@
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H284">
         <v>1</v>
@@ -9602,7 +9667,7 @@
     </row>
     <row r="285" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H285">
         <v>0.43358999999999998</v>
@@ -9625,7 +9690,7 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H286">
         <v>1</v>
@@ -9648,7 +9713,7 @@
     </row>
     <row r="287" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H287">
         <v>0.5</v>
@@ -9674,12 +9739,12 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B290" s="13">
         <v>0.98</v>
@@ -9729,7 +9794,7 @@
     </row>
     <row r="291" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B291" s="13">
         <v>0.57999999999999996</v>
@@ -10104,22 +10169,22 @@
         <v>70</v>
       </c>
       <c r="H306">
-        <v>0.89400000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="I306">
-        <v>0.52500000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="J306">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="N306">
-        <v>0.95299999999999996</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O306">
-        <v>0.79200000000000004</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="P306">
-        <v>0.86399999999999999</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="307" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -10127,22 +10192,22 @@
         <v>71</v>
       </c>
       <c r="H307">
-        <v>0.52400000000000002</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="I307">
-        <v>0.55400000000000005</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="J307">
-        <v>0.45300000000000001</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="N307">
-        <v>0.505</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="O307">
-        <v>0.51700000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="P307">
-        <v>0.47899999999999998</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.25">
@@ -10150,22 +10215,22 @@
         <v>72</v>
       </c>
       <c r="H308">
-        <v>0.91200000000000003</v>
+        <v>0.876</v>
       </c>
       <c r="I308">
-        <v>0.78500000000000003</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="J308">
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="N308">
+        <v>0.753</v>
+      </c>
+      <c r="N308" s="13">
         <v>0.95099999999999996</v>
       </c>
-      <c r="O308">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="P308">
-        <v>0.97199999999999998</v>
+      <c r="O308" s="13">
+        <v>1</v>
+      </c>
+      <c r="P308" s="13">
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="309" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -10173,22 +10238,22 @@
         <v>73</v>
       </c>
       <c r="H309">
-        <v>0.58299999999999996</v>
+        <v>0.505</v>
       </c>
       <c r="I309">
-        <v>0.63900000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="J309">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="N309">
-        <v>2.46E-2</v>
-      </c>
-      <c r="O309">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="N309" s="13">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O309" s="13">
         <v>0.5</v>
       </c>
-      <c r="P309">
-        <v>4.6899999999999997E-2</v>
+      <c r="P309" s="13">
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.25">
@@ -10196,22 +10261,22 @@
         <v>74</v>
       </c>
       <c r="H310">
-        <v>0.93200000000000005</v>
+        <v>0.753</v>
       </c>
       <c r="I310">
-        <v>0.64</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="J310">
-        <v>0.75700000000000001</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="N310">
-        <v>0.95099999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="O310">
-        <v>1</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="P310">
-        <v>0.97499999999999998</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -10219,22 +10284,22 @@
         <v>75</v>
       </c>
       <c r="H311">
-        <v>0.57799999999999996</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="I311">
-        <v>0.66600000000000004</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="J311">
-        <v>0.54800000000000004</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="N311">
-        <v>0.47499999999999998</v>
+        <v>0.498</v>
       </c>
       <c r="O311">
-        <v>0.5</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="P311">
-        <v>0.48699999999999999</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.25">
@@ -10469,7 +10534,7 @@
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H322">
         <v>0.90100000000000002</v>
@@ -10492,7 +10557,7 @@
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H323">
         <v>0.52900000000000003</v>
@@ -10515,7 +10580,7 @@
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H324">
         <v>0.89300000000000002</v>
@@ -10538,7 +10603,7 @@
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H325">
         <v>0.51</v>
@@ -10564,12 +10629,12 @@
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B328" s="13">
         <v>0.96</v>
@@ -10619,7 +10684,7 @@
     </row>
     <row r="329" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B329" s="13">
         <v>0.52</v>
@@ -10994,22 +11059,22 @@
         <v>70</v>
       </c>
       <c r="H344">
-        <v>0.86460000000000004</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I344">
-        <v>4.24E-2</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="J344">
-        <v>7.9600000000000004E-2</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="N344">
-        <v>0.95120000000000005</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="O344">
-        <v>0.99450000000000005</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="P344">
-        <v>0.97219999999999995</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:16" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11017,22 +11082,22 @@
         <v>71</v>
       </c>
       <c r="H345" s="27">
-        <v>0.498</v>
+        <v>0.496</v>
       </c>
       <c r="I345" s="27">
-        <v>0.499</v>
+        <v>0.496</v>
       </c>
       <c r="J345" s="27">
-        <v>0.154</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="N345" s="27">
-        <v>0.54700000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="O345" s="27">
-        <v>0.50600000000000001</v>
+        <v>0.502</v>
       </c>
       <c r="P345" s="27">
-        <v>0.502</v>
+        <v>0.36599999999999999</v>
       </c>
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.25">
@@ -11040,45 +11105,45 @@
         <v>72</v>
       </c>
       <c r="H346">
-        <v>0.871</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="I346">
-        <v>0.97799999999999998</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="J346">
-        <v>0.92100000000000004</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="N346">
-        <v>0.95099999999999996</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="O346">
-        <v>1</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="P346">
-        <v>0.97499999999999998</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="347" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H347">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="I347">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="J347">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="N347">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O347">
-        <v>0.5</v>
-      </c>
-      <c r="P347">
-        <v>0.48699999999999999</v>
+      <c r="H347" s="27">
+        <v>0.52</v>
+      </c>
+      <c r="I347" s="27">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="J347" s="27">
+        <v>0.496</v>
+      </c>
+      <c r="N347" s="27">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="O347" s="27">
+        <v>0.501</v>
+      </c>
+      <c r="P347" s="27">
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.25">
@@ -11086,45 +11151,45 @@
         <v>74</v>
       </c>
       <c r="H348">
-        <v>0.77200000000000002</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I348">
-        <v>3.7999999999999999E-2</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="J348">
-        <v>7.0999999999999994E-2</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="N348" s="13">
-        <v>0.95099999999999996</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="O348" s="13">
-        <v>1</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="P348" s="13">
-        <v>0.97499999999999998</v>
+        <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="349" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H349">
-        <v>0.495</v>
-      </c>
-      <c r="I349">
-        <v>0.498</v>
-      </c>
-      <c r="J349">
-        <v>0.15</v>
-      </c>
-      <c r="N349" s="13">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="O349" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="P349" s="13">
-        <v>0.48699999999999999</v>
+      <c r="H349" s="27">
+        <v>0.499</v>
+      </c>
+      <c r="I349" s="27">
+        <v>0.499</v>
+      </c>
+      <c r="J349" s="27">
+        <v>0.496</v>
+      </c>
+      <c r="N349" s="27">
+        <v>0.505</v>
+      </c>
+      <c r="O349" s="27">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="P349" s="27">
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.25">
@@ -11359,7 +11424,7 @@
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H360">
         <v>0.86299999999999999</v>
@@ -11382,7 +11447,7 @@
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H361">
         <v>0.504</v>
@@ -11405,7 +11470,7 @@
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H362">
         <v>0.86</v>
@@ -11428,7 +11493,7 @@
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H363">
         <v>0.501</v>
@@ -11454,7 +11519,7 @@
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.25">
@@ -11505,7 +11570,7 @@
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H368">
         <v>0.82</v>
@@ -11528,7 +11593,7 @@
     </row>
     <row r="369" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H369">
         <v>0.52729999999999999</v>
@@ -11551,7 +11616,7 @@
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H370">
         <v>0.75</v>
@@ -11574,7 +11639,7 @@
     </row>
     <row r="371" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H371">
         <v>0.51670000000000005</v>
@@ -11600,12 +11665,12 @@
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B374">
         <v>0.93799999999999994</v>
@@ -11655,7 +11720,7 @@
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B375">
         <v>0.501</v>
@@ -12135,25 +12200,25 @@
       <c r="F390" s="13"/>
       <c r="G390" s="13"/>
       <c r="H390" s="13">
-        <v>0.88349999999999995</v>
+        <v>0.86499999999999999</v>
       </c>
       <c r="I390" s="13">
-        <v>0.65839999999999999</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="J390" s="13">
-        <v>0.75290000000000001</v>
+        <v>0.70899999999999996</v>
       </c>
       <c r="K390" s="13"/>
       <c r="L390" s="13"/>
       <c r="M390" s="13"/>
       <c r="N390" s="13">
-        <v>0.94969999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O390" s="13">
-        <v>0.65100000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="P390" s="13">
-        <v>0.77100000000000002</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="391" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -12167,25 +12232,25 @@
       <c r="F391" s="13"/>
       <c r="G391" s="13"/>
       <c r="H391" s="13">
-        <v>0.45300000000000001</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="I391" s="13">
-        <v>0.42699999999999999</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="J391" s="13">
-        <v>0.436</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="K391" s="13"/>
       <c r="L391" s="13"/>
       <c r="M391" s="13"/>
       <c r="N391" s="13">
-        <v>0.54</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="O391" s="13">
-        <v>0.58699999999999997</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="P391" s="13">
-        <v>0.443</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.25">
@@ -12199,25 +12264,25 @@
       <c r="F392" s="13"/>
       <c r="G392" s="13"/>
       <c r="H392" s="13">
-        <v>0.86980000000000002</v>
+        <v>0.876</v>
       </c>
       <c r="I392" s="13">
-        <v>1</v>
+        <v>0.39</v>
       </c>
       <c r="J392" s="13">
-        <v>0.92989999999999995</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="K392" s="13"/>
       <c r="L392" s="13"/>
       <c r="M392" s="13"/>
       <c r="N392" s="13">
-        <v>0.95230000000000004</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="O392" s="13">
-        <v>0.22239999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="P392" s="13">
-        <v>0.35699999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="393" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -12231,25 +12296,25 @@
       <c r="F393" s="13"/>
       <c r="G393" s="13"/>
       <c r="H393" s="13">
-        <v>0.49830000000000002</v>
+        <v>0.49299999999999999</v>
       </c>
       <c r="I393" s="13">
-        <v>0.49959999999999999</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="J393" s="13">
-        <v>0.1363</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="K393" s="13"/>
       <c r="L393" s="13"/>
       <c r="M393" s="13"/>
       <c r="N393" s="13">
-        <v>0.44700000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="O393" s="13">
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="P393" s="13">
-        <v>0.44350000000000001</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.25">
@@ -12263,25 +12328,25 @@
       <c r="F394" s="13"/>
       <c r="G394" s="13"/>
       <c r="H394" s="13">
-        <v>0.89810000000000001</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="I394" s="13">
-        <v>0.55879999999999996</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="J394" s="13">
-        <v>0.68659999999999999</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="K394" s="13"/>
       <c r="L394" s="13"/>
       <c r="M394" s="13"/>
       <c r="N394" s="13">
-        <v>0.94979999999999998</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="O394" s="13">
-        <v>0.73180000000000001</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="P394" s="13">
-        <v>0.82550000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="395" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12289,22 +12354,22 @@
         <v>75</v>
       </c>
       <c r="H395" s="6">
-        <v>0.47820000000000001</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="I395" s="6">
-        <v>0.4612</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="J395" s="6">
-        <v>0.45629999999999998</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="N395" s="6">
-        <v>0.5111</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="O395" s="6">
-        <v>0.5242</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="P395" s="6">
-        <v>0.45760000000000001</v>
+        <v>0.46899999999999997</v>
       </c>
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.25">
@@ -12611,7 +12676,7 @@
     </row>
     <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B406" s="13"/>
       <c r="C406" s="13"/>
@@ -12643,7 +12708,7 @@
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B407" s="13"/>
       <c r="C407" s="13"/>
@@ -12675,7 +12740,7 @@
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B408" s="13"/>
       <c r="C408" s="13"/>
@@ -12707,7 +12772,7 @@
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B409" s="13"/>
       <c r="C409" s="13"/>
@@ -12757,7 +12822,7 @@
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B411" s="13"/>
       <c r="C411" s="13"/>
@@ -13234,25 +13299,25 @@
       <c r="F426" s="13"/>
       <c r="G426" s="13"/>
       <c r="H426" s="17">
-        <v>0.8669</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="I426" s="17">
-        <v>0.55930000000000002</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="J426" s="17">
-        <v>0.67749999999999999</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="K426" s="17"/>
       <c r="L426" s="17"/>
       <c r="M426" s="17"/>
       <c r="N426" s="17">
-        <v>0.54169999999999996</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="O426" s="17">
-        <v>1.1299999999999999E-2</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="P426" s="17">
-        <v>2.1999999999999999E-2</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="427" spans="1:16" ht="30" x14ac:dyDescent="0.25">
@@ -13266,25 +13331,25 @@
       <c r="F427" s="13"/>
       <c r="G427" s="13"/>
       <c r="H427" s="17">
-        <v>0.462525724881309</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="I427" s="17">
-        <v>0.42395504735257999</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="J427" s="17">
-        <v>0.419379163201061</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="K427" s="17"/>
       <c r="L427" s="17"/>
       <c r="M427" s="17"/>
       <c r="N427" s="17">
-        <v>0.45016187365105298</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="O427" s="17">
-        <v>0.48822430840424302</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="P427" s="17">
-        <v>0.134872106008248</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="428" spans="1:16" x14ac:dyDescent="0.25">
@@ -13298,25 +13363,25 @@
       <c r="F428" s="13"/>
       <c r="G428" s="13"/>
       <c r="H428" s="17">
-        <v>0.91159999999999997</v>
+        <v>0.86899999999999999</v>
       </c>
       <c r="I428" s="17">
-        <v>0.78259999999999996</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="J428" s="17">
-        <v>0.84060000000000001</v>
+        <v>0.92700000000000005</v>
       </c>
       <c r="K428" s="17"/>
       <c r="L428" s="17"/>
       <c r="M428" s="17"/>
       <c r="N428" s="17">
-        <v>0.95530000000000004</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O428" s="17">
-        <v>0.2475</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="P428" s="17">
-        <v>0.39040000000000002</v>
+        <v>0.16300000000000001</v>
       </c>
     </row>
     <row r="429" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13330,25 +13395,25 @@
       <c r="F429" s="13"/>
       <c r="G429" s="13"/>
       <c r="H429" s="17">
-        <v>0.14025624684774199</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I429" s="17">
-        <v>0.50459226129458501</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="J429" s="17">
-        <v>0.14025624684774199</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="K429" s="17"/>
       <c r="L429" s="17"/>
       <c r="M429" s="17"/>
       <c r="N429" s="17">
-        <v>0.46839806700356501</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="O429" s="17">
-        <v>0.48298942341321</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="P429" s="17">
-        <v>0.46839806700356501</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="430" spans="1:16" x14ac:dyDescent="0.25">
@@ -13362,25 +13427,25 @@
       <c r="F430" s="13"/>
       <c r="G430" s="13"/>
       <c r="H430" s="17">
-        <v>0.93140000000000001</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="I430" s="17">
-        <v>0.62039999999999995</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="J430" s="17">
-        <v>0.74280000000000002</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="K430" s="17"/>
       <c r="L430" s="17"/>
       <c r="M430" s="17"/>
       <c r="N430" s="17">
-        <v>0.94169999999999998</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="O430" s="17">
-        <v>0.29120000000000001</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="P430" s="17">
-        <v>0.44140000000000001</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="431" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13388,25 +13453,25 @@
         <v>75</v>
       </c>
       <c r="H431" s="17">
-        <v>0.54739701339660496</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="I431" s="17">
-        <v>0.57557719840188304</v>
+        <v>0.48</v>
       </c>
       <c r="J431" s="17">
-        <v>0.54795318740679699</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="K431" s="17"/>
       <c r="L431" s="17"/>
       <c r="M431" s="17"/>
       <c r="N431" s="17">
-        <v>0.54863204913456198</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="O431" s="17">
-        <v>0.60804347788633695</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="P431" s="17">
-        <v>0.46593530734733102</v>
+        <v>0.35799999999999998</v>
       </c>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.25">
@@ -13731,7 +13796,7 @@
     </row>
     <row r="442" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A442" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B442" s="13"/>
       <c r="C442" s="13"/>
@@ -13763,7 +13828,7 @@
     </row>
     <row r="443" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A443" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B443" s="13"/>
       <c r="C443" s="13"/>
@@ -13795,7 +13860,7 @@
     </row>
     <row r="444" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A444" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B444" s="13"/>
       <c r="C444" s="13"/>
@@ -13827,7 +13892,7 @@
     </row>
     <row r="445" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A445" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B445" s="13"/>
       <c r="C445" s="13"/>
@@ -13862,12 +13927,12 @@
     </row>
     <row r="447" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A447" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="448" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A448" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B448" s="23">
         <v>0.93710000000000004</v>
@@ -13918,7 +13983,7 @@
     </row>
     <row r="449" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B449" s="27">
         <v>0.49969999999999998</v>
@@ -14726,7 +14791,7 @@
     </row>
     <row r="480" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A480" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H480">
         <v>0.90400000000000003</v>
@@ -14749,7 +14814,7 @@
     </row>
     <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H481">
         <v>0.53200000000000003</v>
@@ -14772,7 +14837,7 @@
     </row>
     <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H482">
         <v>0.8992</v>
@@ -14795,7 +14860,7 @@
     </row>
     <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H483">
         <v>0.52400000000000002</v>
@@ -14821,7 +14886,7 @@
     </row>
     <row r="485" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A485" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="486" spans="1:16" x14ac:dyDescent="0.25">
@@ -14872,7 +14937,7 @@
     </row>
     <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="489" spans="1:16" x14ac:dyDescent="0.25">
@@ -14900,7 +14965,7 @@
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
@@ -14928,7 +14993,7 @@
     </row>
     <row r="496" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H496">
         <v>0.55000000000000004</v>
@@ -14948,6 +15013,767 @@
       <c r="P496">
         <v>0.40400000000000003</v>
       </c>
+    </row>
+    <row r="499" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="500" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A500" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B500" s="13">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C500" s="13">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="D500" s="13">
+        <v>0.878</v>
+      </c>
+      <c r="E500" s="13">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="F500" s="13">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="G500" s="13">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H500" s="13">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="I500" s="13">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J500" s="13">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="K500" s="13">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L500" s="13">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="M500" s="13">
+        <v>0.746</v>
+      </c>
+      <c r="N500" s="13">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O500" s="13">
+        <v>0.755</v>
+      </c>
+      <c r="P500" s="13">
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="501" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B501" s="13">
+        <v>0.496</v>
+      </c>
+      <c r="C501" s="13">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D501" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="E501" s="13">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F501" s="13">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="G501" s="13">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="H501" s="13">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="I501" s="13">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="J501" s="13">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="K501" s="13">
+        <v>0.501</v>
+      </c>
+      <c r="L501" s="13">
+        <v>0.502</v>
+      </c>
+      <c r="M501" s="13">
+        <v>0.48</v>
+      </c>
+      <c r="N501" s="13">
+        <v>0.501</v>
+      </c>
+      <c r="O501" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="P501" s="13">
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="502" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H502" s="16">
+        <v>0.872</v>
+      </c>
+      <c r="I502" s="16">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J502" s="16">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K502" s="17"/>
+      <c r="L502" s="17"/>
+      <c r="M502" s="17"/>
+      <c r="N502" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="O502" s="17">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="P502" s="16">
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="503" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A503" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B503" s="13"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="13"/>
+      <c r="E503" s="13"/>
+      <c r="F503" s="13"/>
+      <c r="G503" s="13"/>
+      <c r="H503" s="17">
+        <v>0.499</v>
+      </c>
+      <c r="I503" s="17">
+        <v>0.499</v>
+      </c>
+      <c r="J503" s="16">
+        <v>0.434</v>
+      </c>
+      <c r="K503" s="17"/>
+      <c r="L503" s="17"/>
+      <c r="M503" s="17"/>
+      <c r="N503" s="17">
+        <v>0.498</v>
+      </c>
+      <c r="O503" s="17">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="P503" s="17">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="504" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A504" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H504" s="17">
+        <v>0.876</v>
+      </c>
+      <c r="I504" s="17">
+        <v>0.71489999999999998</v>
+      </c>
+      <c r="J504" s="17">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K504" s="17"/>
+      <c r="L504" s="17"/>
+      <c r="M504" s="17"/>
+      <c r="N504" s="17">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O504" s="17">
+        <v>1</v>
+      </c>
+      <c r="P504" s="17">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="505" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A505" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H505" s="17">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="I505" s="17">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J505" s="17">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="K505" s="17"/>
+      <c r="L505" s="17"/>
+      <c r="M505" s="17"/>
+      <c r="N505" s="17">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="O505" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="P505" s="17">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A506" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H506" s="17"/>
+      <c r="I506" s="17"/>
+      <c r="J506" s="17"/>
+      <c r="K506" s="17"/>
+      <c r="L506" s="17"/>
+      <c r="M506" s="17"/>
+      <c r="N506" s="17"/>
+      <c r="O506" s="17"/>
+      <c r="P506" s="17"/>
+    </row>
+    <row r="507" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A507" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B507" s="13"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="13"/>
+      <c r="E507" s="13"/>
+      <c r="F507" s="13"/>
+      <c r="G507" s="13"/>
+      <c r="H507" s="17"/>
+      <c r="I507" s="17"/>
+      <c r="J507" s="17"/>
+      <c r="K507" s="17"/>
+      <c r="L507" s="17"/>
+      <c r="M507" s="17"/>
+      <c r="N507" s="17"/>
+      <c r="O507" s="17"/>
+      <c r="P507" s="17"/>
+    </row>
+    <row r="508" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A508" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H508" s="17"/>
+      <c r="I508" s="17"/>
+      <c r="J508" s="17"/>
+      <c r="K508" s="17"/>
+      <c r="L508" s="17"/>
+      <c r="M508" s="17"/>
+      <c r="N508" s="17"/>
+      <c r="O508" s="17"/>
+      <c r="P508" s="17"/>
+    </row>
+    <row r="509" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A509" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H509" s="17"/>
+      <c r="I509" s="17"/>
+      <c r="J509" s="17"/>
+      <c r="K509" s="17"/>
+      <c r="L509" s="17"/>
+      <c r="M509" s="17"/>
+      <c r="N509" s="17"/>
+      <c r="O509" s="17"/>
+      <c r="P509" s="17"/>
+    </row>
+    <row r="510" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A510" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H510" s="17"/>
+      <c r="I510" s="17"/>
+      <c r="J510" s="17"/>
+      <c r="K510" s="17"/>
+      <c r="L510" s="17"/>
+      <c r="M510" s="17"/>
+      <c r="N510" s="17"/>
+      <c r="O510" s="17"/>
+      <c r="P510" s="17"/>
+    </row>
+    <row r="511" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A511" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H511" s="17"/>
+      <c r="I511" s="17"/>
+      <c r="J511" s="17"/>
+      <c r="K511" s="17"/>
+      <c r="L511" s="17"/>
+      <c r="M511" s="17"/>
+      <c r="N511" s="17"/>
+      <c r="O511" s="17"/>
+      <c r="P511" s="17"/>
+    </row>
+    <row r="512" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A512" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H512" s="17">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="I512" s="17">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="J512" s="17">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="K512" s="17"/>
+      <c r="L512" s="17"/>
+      <c r="M512" s="17"/>
+      <c r="N512" s="17">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="O512" s="17">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="P512" s="17">
+        <v>0.56589999999999996</v>
+      </c>
+    </row>
+    <row r="513" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A513" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B513" s="13"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="13"/>
+      <c r="E513" s="13"/>
+      <c r="F513" s="13"/>
+      <c r="G513" s="13"/>
+      <c r="H513" s="17">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="I513" s="17">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="J513" s="17">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="K513" s="17"/>
+      <c r="L513" s="17"/>
+      <c r="M513" s="17"/>
+      <c r="N513" s="17">
+        <v>0.498</v>
+      </c>
+      <c r="O513" s="17">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="P513" s="17">
+        <v>0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="514" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A514" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H514" s="17"/>
+      <c r="I514" s="17"/>
+      <c r="J514" s="17"/>
+      <c r="K514" s="17"/>
+      <c r="L514" s="17"/>
+      <c r="M514" s="17"/>
+      <c r="N514" s="17"/>
+      <c r="O514" s="17"/>
+      <c r="P514" s="17"/>
+    </row>
+    <row r="515" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A515" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H515" s="17"/>
+      <c r="I515" s="17"/>
+      <c r="J515" s="17"/>
+      <c r="K515" s="17"/>
+      <c r="L515" s="17"/>
+      <c r="M515" s="17"/>
+      <c r="N515" s="17"/>
+      <c r="O515" s="17"/>
+      <c r="P515" s="17"/>
+    </row>
+    <row r="516" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H516" s="17">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="I516" s="17">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="J516" s="17">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="K516" s="17"/>
+      <c r="L516" s="17"/>
+      <c r="M516" s="17"/>
+      <c r="N516" s="17">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O516" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="P516" s="17">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="517" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A517" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H517" s="17">
+        <v>0.496</v>
+      </c>
+      <c r="I517" s="17">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J517" s="17">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="K517" s="17"/>
+      <c r="L517" s="17"/>
+      <c r="M517" s="17"/>
+      <c r="N517" s="17">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="O517" s="17">
+        <v>0.49</v>
+      </c>
+      <c r="P517" s="17">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="518" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H518" s="17"/>
+      <c r="I518" s="17"/>
+      <c r="J518" s="17"/>
+      <c r="K518" s="17"/>
+      <c r="L518" s="17"/>
+      <c r="M518" s="17"/>
+      <c r="N518" s="17"/>
+      <c r="O518" s="17"/>
+      <c r="P518" s="17"/>
+    </row>
+    <row r="519" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A519" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B519" s="13"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="13"/>
+      <c r="E519" s="13"/>
+      <c r="F519" s="13"/>
+      <c r="G519" s="13"/>
+      <c r="H519" s="17"/>
+      <c r="I519" s="17"/>
+      <c r="J519" s="17"/>
+      <c r="K519" s="17"/>
+      <c r="L519" s="17"/>
+      <c r="M519" s="17"/>
+      <c r="N519" s="17"/>
+      <c r="O519" s="17"/>
+      <c r="P519" s="17"/>
+    </row>
+    <row r="520" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H520" s="17"/>
+      <c r="I520" s="17"/>
+      <c r="J520" s="17"/>
+      <c r="K520" s="17"/>
+      <c r="L520" s="17"/>
+      <c r="M520" s="17"/>
+      <c r="N520" s="17"/>
+      <c r="O520" s="17"/>
+      <c r="P520" s="17"/>
+    </row>
+    <row r="521" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A521" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H521" s="17"/>
+      <c r="I521" s="17"/>
+      <c r="J521" s="17"/>
+      <c r="K521" s="17"/>
+      <c r="L521" s="17"/>
+      <c r="M521" s="17"/>
+      <c r="N521" s="17"/>
+      <c r="O521" s="17"/>
+      <c r="P521" s="17"/>
+    </row>
+    <row r="522" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H522" s="17">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="I522" s="17">
+        <v>1</v>
+      </c>
+      <c r="J522" s="17">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="K522" s="17"/>
+      <c r="L522" s="17"/>
+      <c r="M522" s="17"/>
+      <c r="N522" s="17">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="O522" s="17">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="P522" s="17">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="523" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H523" s="17">
+        <v>0.435</v>
+      </c>
+      <c r="I523" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="J523" s="17">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="K523" s="17"/>
+      <c r="L523" s="17"/>
+      <c r="M523" s="17"/>
+      <c r="N523" s="17">
+        <v>0.504</v>
+      </c>
+      <c r="O523" s="17">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="P523" s="17">
+        <v>0.47599999999999998</v>
+      </c>
+    </row>
+    <row r="524" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H524" s="17"/>
+      <c r="I524" s="17"/>
+      <c r="J524" s="17"/>
+      <c r="K524" s="17"/>
+      <c r="L524" s="17"/>
+      <c r="M524" s="17"/>
+      <c r="N524" s="17"/>
+      <c r="O524" s="17"/>
+      <c r="P524" s="17"/>
+    </row>
+    <row r="525" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B525" s="13"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="13"/>
+      <c r="E525" s="13"/>
+      <c r="F525" s="13"/>
+      <c r="G525" s="13"/>
+      <c r="H525" s="17"/>
+      <c r="I525" s="17"/>
+      <c r="J525" s="17"/>
+      <c r="K525" s="17"/>
+      <c r="L525" s="17"/>
+      <c r="M525" s="17"/>
+      <c r="N525" s="17"/>
+      <c r="O525" s="17"/>
+      <c r="P525" s="17"/>
+    </row>
+    <row r="526" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H526" s="17">
+        <v>0.873</v>
+      </c>
+      <c r="I526" s="17">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="J526" s="17">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="K526" s="17"/>
+      <c r="L526" s="17"/>
+      <c r="M526" s="17"/>
+      <c r="N526" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="O526" s="17">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="P526" s="17">
+        <v>0.79700000000000004</v>
+      </c>
+    </row>
+    <row r="527" spans="1:16" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A527" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B527" s="13"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="13"/>
+      <c r="E527" s="13"/>
+      <c r="F527" s="13"/>
+      <c r="G527" s="13"/>
+      <c r="H527" s="17">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="I527" s="17">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="J527" s="17">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="K527" s="17"/>
+      <c r="L527" s="17"/>
+      <c r="M527" s="17"/>
+      <c r="N527" s="17">
+        <v>0.499</v>
+      </c>
+      <c r="O527" s="17">
+        <v>0.496</v>
+      </c>
+      <c r="P527" s="17">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H528" s="17"/>
+      <c r="I528" s="17"/>
+      <c r="J528" s="17"/>
+      <c r="K528" s="17"/>
+      <c r="L528" s="17"/>
+      <c r="M528" s="17"/>
+      <c r="N528" s="17"/>
+      <c r="O528" s="17"/>
+      <c r="P528" s="17"/>
+    </row>
+    <row r="529" spans="1:16" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A529" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H529" s="17"/>
+      <c r="I529" s="17"/>
+      <c r="J529" s="17"/>
+      <c r="K529" s="17"/>
+      <c r="L529" s="17"/>
+      <c r="M529" s="17"/>
+      <c r="N529" s="17"/>
+      <c r="O529" s="17"/>
+      <c r="P529" s="17"/>
+    </row>
+    <row r="530" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A530" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H530" s="17"/>
+      <c r="I530" s="17"/>
+      <c r="J530" s="17"/>
+      <c r="K530" s="17"/>
+      <c r="L530" s="17"/>
+      <c r="M530" s="17"/>
+      <c r="N530" s="17"/>
+      <c r="O530" s="17"/>
+      <c r="P530" s="17"/>
+    </row>
+    <row r="531" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H531" s="17"/>
+      <c r="I531" s="17"/>
+      <c r="J531" s="17"/>
+      <c r="K531" s="17"/>
+      <c r="L531" s="17"/>
+      <c r="M531" s="17"/>
+      <c r="N531" s="17"/>
+      <c r="O531" s="17"/>
+      <c r="P531" s="17"/>
+    </row>
+    <row r="532" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A532" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H532" s="17"/>
+      <c r="I532" s="17"/>
+      <c r="J532" s="17"/>
+      <c r="K532" s="17"/>
+      <c r="L532" s="17"/>
+      <c r="M532" s="17"/>
+      <c r="N532" s="17"/>
+      <c r="O532" s="17"/>
+      <c r="P532" s="17"/>
+    </row>
+    <row r="533" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H533" s="17"/>
+      <c r="I533" s="17"/>
+      <c r="J533" s="17"/>
+      <c r="K533" s="17"/>
+      <c r="L533" s="17"/>
+      <c r="M533" s="17"/>
+      <c r="N533" s="17"/>
+      <c r="O533" s="17"/>
+      <c r="P533" s="17"/>
+    </row>
+    <row r="534" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A534" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H534" s="17"/>
+      <c r="I534" s="17"/>
+      <c r="J534" s="17"/>
+      <c r="K534" s="17"/>
+      <c r="L534" s="17"/>
+      <c r="M534" s="17"/>
+      <c r="N534" s="17"/>
+      <c r="O534" s="17"/>
+      <c r="P534" s="16"/>
+    </row>
+    <row r="535" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A535" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H535" s="17"/>
+      <c r="I535" s="17"/>
+      <c r="J535" s="17"/>
+      <c r="K535" s="17"/>
+      <c r="L535" s="17"/>
+      <c r="M535" s="17"/>
+      <c r="N535" s="17"/>
+      <c r="O535" s="17"/>
+      <c r="P535" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14983,27 +15809,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
       <c r="E1" s="32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
       <c r="H1" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
       <c r="K1" s="32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L1" s="32"/>
       <c r="M1" s="32"/>
       <c r="N1" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
@@ -15096,12 +15922,12 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7">
         <v>0.52500000000000002</v>
@@ -15151,7 +15977,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8">
         <v>0.66800000000000004</v>
@@ -15423,22 +16249,22 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -18125,7 +18951,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N64" s="7"/>
       <c r="O64" s="7"/>
@@ -18150,12 +18976,12 @@
     </row>
     <row r="69" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="3">
         <v>0.87</v>
@@ -18205,7 +19031,7 @@
     </row>
     <row r="71" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B71" s="9">
         <v>0.87</v>
@@ -18255,7 +19081,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72">
         <v>0.87</v>
@@ -18305,7 +19131,7 @@
     </row>
     <row r="73" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B73" s="9">
         <v>0.88</v>
@@ -18355,7 +19181,7 @@
     </row>
     <row r="74" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B74" s="9">
         <v>0.87</v>
@@ -18405,7 +19231,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H75">
         <v>0.86980000000000002</v>
@@ -18520,7 +19346,7 @@
     </row>
     <row r="80" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H80">
         <v>0.8609</v>
@@ -18566,7 +19392,7 @@
     </row>
     <row r="82" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H82">
         <v>0.86329999999999996</v>
@@ -18589,7 +19415,7 @@
     </row>
     <row r="83" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H83">
         <v>0.86040000000000005</v>
@@ -18612,7 +19438,7 @@
     </row>
     <row r="84" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H84">
         <v>0.87239999999999995</v>
@@ -18635,7 +19461,7 @@
     </row>
     <row r="85" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H85">
         <v>0.86980000000000002</v>
@@ -18658,7 +19484,7 @@
     </row>
     <row r="86" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H86">
         <v>0.86980000000000002</v>
@@ -18750,7 +19576,7 @@
     </row>
     <row r="90" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H90">
         <v>0.86980000000000002</v>
@@ -20101,12 +20927,12 @@
     </row>
     <row r="93" spans="1:1024" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="3">
         <v>0.87</v>
@@ -20156,7 +20982,7 @@
     </row>
     <row r="95" spans="1:1024" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95" s="9">
         <v>0.87</v>
@@ -20206,7 +21032,7 @@
     </row>
     <row r="96" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>0.87</v>
@@ -20256,7 +21082,7 @@
     </row>
     <row r="97" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="9">
         <v>0.88</v>
@@ -20306,7 +21132,7 @@
     </row>
     <row r="98" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" s="9">
         <v>0.87</v>
@@ -20356,7 +21182,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -20425,7 +21251,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -20448,7 +21274,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -20471,7 +21297,7 @@
     </row>
     <row r="104" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -20494,7 +21320,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H105">
         <v>0.94</v>
@@ -20543,12 +21369,12 @@
     </row>
     <row r="108" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B109" s="3">
         <v>0.87</v>
@@ -20598,7 +21424,7 @@
     </row>
     <row r="110" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110" s="9">
         <v>0.87</v>
@@ -20648,7 +21474,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>0.87</v>
@@ -20698,7 +21524,7 @@
     </row>
     <row r="112" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112" s="9">
         <v>0.88</v>
@@ -20748,7 +21574,7 @@
     </row>
     <row r="113" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113" s="9">
         <v>0.87</v>
@@ -20798,7 +21624,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H114">
         <v>0.86699999999999999</v>
@@ -20844,7 +21670,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H116">
         <v>0.86699999999999999</v>
@@ -20870,12 +21696,12 @@
     </row>
     <row r="118" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>0.87</v>
@@ -20925,7 +21751,7 @@
     </row>
     <row r="120" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B120" s="9">
         <v>0.87</v>
@@ -20975,7 +21801,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B121">
         <v>0.87</v>
@@ -21025,7 +21851,7 @@
     </row>
     <row r="122" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B122" s="9">
         <v>0.88</v>
@@ -21075,7 +21901,7 @@
     </row>
     <row r="123" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B123" s="9">
         <v>0.87</v>
@@ -21125,7 +21951,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -21171,7 +21997,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -21197,12 +22023,12 @@
     </row>
     <row r="128" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B129" s="3">
         <v>0.88</v>
@@ -21252,7 +22078,7 @@
     </row>
     <row r="130" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B130" s="9">
         <v>0.87</v>
@@ -21302,7 +22128,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B131">
         <v>0.87</v>
@@ -21352,7 +22178,7 @@
     </row>
     <row r="132" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B132" s="9">
         <v>0.88</v>
@@ -21402,7 +22228,7 @@
     </row>
     <row r="133" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B133" s="9">
         <v>0.87</v>
@@ -21452,7 +22278,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H134">
         <v>0.86699999999999999</v>
@@ -21498,7 +22324,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H136">
         <v>0.86699999999999999</v>
@@ -21524,12 +22350,12 @@
     </row>
     <row r="138" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B139" s="3">
         <v>0.88</v>
@@ -21579,7 +22405,7 @@
     </row>
     <row r="140" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B140" s="9">
         <v>0.87</v>
@@ -21629,7 +22455,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B141">
         <v>0.87</v>
@@ -21679,7 +22505,7 @@
     </row>
     <row r="142" spans="1:16" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="9">
         <v>0.88</v>
@@ -21729,7 +22555,7 @@
     </row>
     <row r="143" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="9">
         <v>0.87</v>
@@ -21779,7 +22605,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H144">
         <v>0.98</v>
@@ -21825,7 +22651,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H146">
         <v>0.75</v>
@@ -21851,17 +22677,17 @@
     </row>
     <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B150" s="7">
         <v>0.91249999999999998</v>
@@ -21911,7 +22737,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H151">
         <v>0.92730000000000001</v>
@@ -21934,7 +22760,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H152">
         <v>0.8619</v>
@@ -21957,22 +22783,22 @@
     </row>
     <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H156">
         <v>0.85799999999999998</v>
@@ -21995,12 +22821,12 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H158">
         <v>0.8619</v>
@@ -22023,17 +22849,17 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H161">
         <v>0.87009999999999998</v>
@@ -22056,7 +22882,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H162">
         <v>0.86260000000000003</v>
@@ -22079,27 +22905,27 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
@@ -22110,7 +22936,7 @@
     </row>
     <row r="170" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
@@ -22165,7 +22991,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H172">
         <v>0.86509999999999998</v>
@@ -22280,7 +23106,7 @@
     </row>
     <row r="177" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H177">
         <v>0.92349999999999999</v>
@@ -22326,7 +23152,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H179">
         <v>0.86980000000000002</v>
@@ -22349,7 +23175,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H180">
         <v>0.86980000000000002</v>
@@ -22372,7 +23198,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H181">
         <v>0.87809999999999999</v>
@@ -22395,7 +23221,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H182">
         <v>0.86980000000000002</v>
@@ -22418,7 +23244,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H183">
         <v>0.91679999999999995</v>
@@ -22510,7 +23336,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H187">
         <v>0.86980000000000002</v>
@@ -22539,12 +23365,12 @@
     </row>
     <row r="190" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B191">
         <v>0.93740000000000001</v>
@@ -22594,7 +23420,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H192">
         <v>0.86980000000000002</v>
@@ -22709,7 +23535,7 @@
     </row>
     <row r="197" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H197">
         <v>0.86980000000000002</v>
@@ -22755,7 +23581,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H199">
         <v>0.86980000000000002</v>
@@ -22778,7 +23604,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H200">
         <v>0.86980000000000002</v>
@@ -22801,7 +23627,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H201">
         <v>0.86870000000000003</v>
@@ -22824,7 +23650,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H202">
         <v>0.86980000000000002</v>
@@ -22847,7 +23673,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H203">
         <v>0.86980000000000002</v>
@@ -22939,7 +23765,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H207">
         <v>0.89870000000000005</v>
@@ -22965,12 +23791,12 @@
     </row>
     <row r="209" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B210" s="9">
         <v>0.88</v>
@@ -23023,12 +23849,12 @@
     </row>
     <row r="212" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
@@ -23036,12 +23862,12 @@
     </row>
     <row r="215" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B216" s="9">
         <v>4.0000000000000001E-3</v>
@@ -23094,12 +23920,12 @@
     </row>
     <row r="218" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B219" s="9">
         <v>0.86428700000000003</v>
@@ -23152,7 +23978,7 @@
     </row>
     <row r="221" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
@@ -23213,12 +24039,12 @@
     </row>
     <row r="225" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H226">
         <v>0.92730000000000001</v>
@@ -23247,12 +24073,12 @@
     </row>
     <row r="229" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="230" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H230">
         <v>0.85750000000000004</v>
@@ -23304,24 +24130,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2">
         <v>54</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -23332,7 +24158,7 @@
         <v>75</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -23343,7 +24169,7 @@
         <v>48</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -23354,34 +24180,34 @@
         <v>64</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>46</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9">
         <v>19</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -23392,7 +24218,7 @@
         <v>49</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -23403,7 +24229,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -23414,18 +24240,18 @@
         <v>20</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B13">
         <v>19</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -23451,7 +24277,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="33" t="s">
         <v>1</v>
@@ -23473,115 +24299,115 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>193</v>
-      </c>
       <c r="D2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>192</v>
       </